--- a/DataCamp-Tracks.xlsx
+++ b/DataCamp-Tracks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED8A89B-35DF-441D-B9D2-11346FE99D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC509997-CF47-4F27-BD85-1B81B75F35B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1314">
   <si>
     <t>Course Name</t>
   </si>
@@ -3596,6 +3596,378 @@
   </si>
   <si>
     <t>Thinking probabilistically-- Continuous variables</t>
+  </si>
+  <si>
+    <t>Parameter estimation by optimization</t>
+  </si>
+  <si>
+    <t>Bootstrap confidence intervals</t>
+  </si>
+  <si>
+    <t>Introduction to hypothesis testing</t>
+  </si>
+  <si>
+    <t>Hypothesis test examples</t>
+  </si>
+  <si>
+    <t>Putting it all together: a case study</t>
+  </si>
+  <si>
+    <t>Importing Data from Flat Files</t>
+  </si>
+  <si>
+    <t>Importing Data From Excel Files</t>
+  </si>
+  <si>
+    <t>Importing Data from Databases</t>
+  </si>
+  <si>
+    <t>Importing JSON Data and Working with APIs</t>
+  </si>
+  <si>
+    <t>Fine-tuning your model</t>
+  </si>
+  <si>
+    <t>Preprocessing and pipelines</t>
+  </si>
+  <si>
+    <t>Correlation and Autocorrelation</t>
+  </si>
+  <si>
+    <t>Some Simple Time Series</t>
+  </si>
+  <si>
+    <t>Autoregressive (AR) Models</t>
+  </si>
+  <si>
+    <t>Moving Average (MA) and ARMA Models</t>
+  </si>
+  <si>
+    <t>Unit testing basics</t>
+  </si>
+  <si>
+    <t>Intermediate unit testing</t>
+  </si>
+  <si>
+    <t>Test Organization and Execution</t>
+  </si>
+  <si>
+    <t>Testing Models, Plots and Much More</t>
+  </si>
+  <si>
+    <t>Clustering for dataset exploration</t>
+  </si>
+  <si>
+    <t>Visualization with hierarchical clustering and t-SNE</t>
+  </si>
+  <si>
+    <t>Decorrelating your data and dimension reduction</t>
+  </si>
+  <si>
+    <t>Discovering interpretable features</t>
+  </si>
+  <si>
+    <t>Building 2-layer maps : combining polygons and scatterplots</t>
+  </si>
+  <si>
+    <t>Creating and joining GeoDataFrames</t>
+  </si>
+  <si>
+    <t>GeoSeries and folium</t>
+  </si>
+  <si>
+    <t>Creating a choropleth building permit density in Nashville</t>
+  </si>
+  <si>
+    <t>Summary Statistics and Diagnostics</t>
+  </si>
+  <si>
+    <t>Seasonality, Trend and Noise</t>
+  </si>
+  <si>
+    <t>Work with Multiple Time Series</t>
+  </si>
+  <si>
+    <t>Case Study</t>
+  </si>
+  <si>
+    <t>Introduction to HTML</t>
+  </si>
+  <si>
+    <t>XPaths and Selectors</t>
+  </si>
+  <si>
+    <t>CSS Locators, Chaining, and Responses</t>
+  </si>
+  <si>
+    <t>Spiders</t>
+  </si>
+  <si>
+    <t>Dates and Calendars</t>
+  </si>
+  <si>
+    <t>Combining Dates and Times</t>
+  </si>
+  <si>
+    <t>Time Zones and Daylight Saving</t>
+  </si>
+  <si>
+    <t>Easy and Powerful: Dates and Times in Pandas</t>
+  </si>
+  <si>
+    <t>Selecting columns and rows efficiently</t>
+  </si>
+  <si>
+    <t>Replacing values in a DataFrame</t>
+  </si>
+  <si>
+    <t>Efficient iterating</t>
+  </si>
+  <si>
+    <t>Data manipulation using .groupby()</t>
+  </si>
+  <si>
+    <t>Foundations for efficiencies</t>
+  </si>
+  <si>
+    <t>Timing and profiling code</t>
+  </si>
+  <si>
+    <t>Gaining efficiencies</t>
+  </si>
+  <si>
+    <t>Basic pandas optimizations</t>
+  </si>
+  <si>
+    <t>Best Practices</t>
+  </si>
+  <si>
+    <t>Context Managers</t>
+  </si>
+  <si>
+    <t>Decorators</t>
+  </si>
+  <si>
+    <t>More on Decorators</t>
+  </si>
+  <si>
+    <t>Data ingestion &amp; inspection</t>
+  </si>
+  <si>
+    <t>Exploratory data analysis</t>
+  </si>
+  <si>
+    <t>Time series in pandas</t>
+  </si>
+  <si>
+    <t>Case Study - Sunlight in Austin</t>
+  </si>
+  <si>
+    <t>Extracting and transforming data</t>
+  </si>
+  <si>
+    <t>Advanced indexing</t>
+  </si>
+  <si>
+    <t>Rearranging and reshaping data</t>
+  </si>
+  <si>
+    <t>Grouping data</t>
+  </si>
+  <si>
+    <t>Bringing it all together</t>
+  </si>
+  <si>
+    <t>Preparing data</t>
+  </si>
+  <si>
+    <t>Concatenating data</t>
+  </si>
+  <si>
+    <t>Merging data</t>
+  </si>
+  <si>
+    <t>Case Study - Summer Olympics</t>
+  </si>
+  <si>
+    <t>Customizing plots</t>
+  </si>
+  <si>
+    <t>Plotting 2D arrays</t>
+  </si>
+  <si>
+    <t>Statistical plots with Seaborn</t>
+  </si>
+  <si>
+    <t>Analyzing time series and images</t>
+  </si>
+  <si>
+    <t>Introduction to networks</t>
+  </si>
+  <si>
+    <t>Important nodes</t>
+  </si>
+  <si>
+    <t>Structures</t>
+  </si>
+  <si>
+    <t>Fundamental data types</t>
+  </si>
+  <si>
+    <t>Dictionaries - the root of Python</t>
+  </si>
+  <si>
+    <t>Meet the collections module</t>
+  </si>
+  <si>
+    <t>Handling Dates and Times</t>
+  </si>
+  <si>
+    <t>Answering Data Science Questions</t>
+  </si>
+  <si>
+    <t>Bipartite graphs &amp; product recommendation systems</t>
+  </si>
+  <si>
+    <t>Graph projections</t>
+  </si>
+  <si>
+    <t>Comparing graphs &amp; time-dynamic graphs</t>
+  </si>
+  <si>
+    <t>Tying it up!</t>
+  </si>
+  <si>
+    <t>Classification with XGBoost</t>
+  </si>
+  <si>
+    <t>Regression with XGBoost</t>
+  </si>
+  <si>
+    <t>Fine-tuning your XGBoost model</t>
+  </si>
+  <si>
+    <t>Using XGBoost in pipelines</t>
+  </si>
+  <si>
+    <t>Working with Big Data</t>
+  </si>
+  <si>
+    <t>Working with Dask Arrays</t>
+  </si>
+  <si>
+    <t>Working with Dask DataFrames</t>
+  </si>
+  <si>
+    <t>Working with Dask Bags for Unstructured Data</t>
+  </si>
+  <si>
+    <t>Case Study: Analyzing Flight Delays</t>
+  </si>
+  <si>
+    <t>The Basics</t>
+  </si>
+  <si>
+    <t>Control flow, Loops, and Functions</t>
+  </si>
+  <si>
+    <t>Plotting</t>
+  </si>
+  <si>
+    <t>Capstone</t>
+  </si>
+  <si>
+    <t>Flexibly Structured Data</t>
+  </si>
+  <si>
+    <t>Working with Distinct Values and Sets</t>
+  </si>
+  <si>
+    <t>Get Only What You Need, and Fast</t>
+  </si>
+  <si>
+    <t>Aggregation Pipelines: Let the Server Do It For You</t>
+  </si>
+  <si>
+    <t>Introduction to HR Analytics</t>
+  </si>
+  <si>
+    <t>Predicting employee turnover</t>
+  </si>
+  <si>
+    <t>Evaluating the turnover prediction model</t>
+  </si>
+  <si>
+    <t>Choosing the best turnover prediction model</t>
+  </si>
+  <si>
+    <t>Classification and Regression Trees</t>
+  </si>
+  <si>
+    <t>The Bias-Variance Tradeoff</t>
+  </si>
+  <si>
+    <t>Bagging and Random Forests</t>
+  </si>
+  <si>
+    <t>Boosting</t>
+  </si>
+  <si>
+    <t>Building Logistic Regression Models</t>
+  </si>
+  <si>
+    <t>Forward stepwise variable selection for logistic regression</t>
+  </si>
+  <si>
+    <t>Explaining model performance to business</t>
+  </si>
+  <si>
+    <t>Interpreting and explaining models</t>
+  </si>
+  <si>
+    <t>Seaborn Introduction</t>
+  </si>
+  <si>
+    <t>Additional Plot Types</t>
+  </si>
+  <si>
+    <t>Creating Plots on Data Aware Grids</t>
+  </si>
+  <si>
+    <t>Income statements</t>
+  </si>
+  <si>
+    <t>Balance sheet and forecast ratios</t>
+  </si>
+  <si>
+    <t>Formatting raw data, managing dates and financial periods</t>
+  </si>
+  <si>
+    <t>Assumptions and variances in forecasts</t>
+  </si>
+  <si>
+    <t>From MATLAB to Python</t>
+  </si>
+  <si>
+    <t>NumPy and Matplotlib</t>
+  </si>
+  <si>
+    <t>Dictionaries and pandas</t>
+  </si>
+  <si>
+    <t>Control Flow and Loops</t>
+  </si>
+  <si>
+    <t>Introduction to geospatial vector data</t>
+  </si>
+  <si>
+    <t>Spatial relationships</t>
+  </si>
+  <si>
+    <t>Projecting and transforming geometries</t>
+  </si>
+  <si>
+    <t>Putting it all together - Artisanal mining sites case study</t>
   </si>
 </sst>
 </file>
@@ -4163,7 +4535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H999"/>
+  <dimension ref="A1:H1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8295,18 +8667,30 @@
       <c r="B274" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C274" s="34"/>
-      <c r="D274" s="29"/>
-      <c r="E274" s="31"/>
-      <c r="F274" s="31"/>
-      <c r="G274" s="31"/>
+      <c r="C274" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D274" s="29" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E274" s="31">
+        <v>4</v>
+      </c>
+      <c r="F274" s="31">
+        <v>15</v>
+      </c>
+      <c r="G274" s="31">
+        <v>66</v>
+      </c>
       <c r="H274" s="31"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="35"/>
       <c r="B275" s="38"/>
       <c r="C275" s="35"/>
-      <c r="D275" s="8"/>
+      <c r="D275" s="8" t="s">
+        <v>1191</v>
+      </c>
       <c r="E275" s="32"/>
       <c r="F275" s="32"/>
       <c r="G275" s="32"/>
@@ -8316,657 +8700,885 @@
       <c r="A276" s="35"/>
       <c r="B276" s="38"/>
       <c r="C276" s="35"/>
-      <c r="D276" s="8"/>
+      <c r="D276" s="8" t="s">
+        <v>1192</v>
+      </c>
       <c r="E276" s="32"/>
       <c r="F276" s="32"/>
       <c r="G276" s="32"/>
       <c r="H276" s="32"/>
     </row>
-    <row r="277" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="36"/>
-      <c r="B277" s="39"/>
-      <c r="C277" s="36"/>
-      <c r="D277" s="30"/>
-      <c r="E277" s="33"/>
-      <c r="F277" s="33"/>
-      <c r="G277" s="33"/>
-      <c r="H277" s="33"/>
-    </row>
-    <row r="278" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="34" t="s">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="35"/>
+      <c r="B277" s="38"/>
+      <c r="C277" s="35"/>
+      <c r="D277" s="8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E277" s="32"/>
+      <c r="F277" s="32"/>
+      <c r="G277" s="32"/>
+      <c r="H277" s="32"/>
+    </row>
+    <row r="278" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="36"/>
+      <c r="B278" s="39"/>
+      <c r="C278" s="36"/>
+      <c r="D278" s="30" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E278" s="33"/>
+      <c r="F278" s="33"/>
+      <c r="G278" s="33"/>
+      <c r="H278" s="33"/>
+    </row>
+    <row r="279" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B278" s="37" t="s">
+      <c r="B279" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C278" s="34"/>
-      <c r="D278" s="29"/>
-      <c r="E278" s="31"/>
-      <c r="F278" s="31"/>
-      <c r="G278" s="31"/>
-      <c r="H278" s="31"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A279" s="35"/>
-      <c r="B279" s="38"/>
-      <c r="C279" s="35"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="32"/>
-      <c r="F279" s="32"/>
-      <c r="G279" s="32"/>
-      <c r="H279" s="32"/>
+      <c r="C279" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D279" s="29" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E279" s="31">
+        <v>4</v>
+      </c>
+      <c r="F279" s="31">
+        <v>16</v>
+      </c>
+      <c r="G279" s="31">
+        <v>53</v>
+      </c>
+      <c r="H279" s="31"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="35"/>
       <c r="B280" s="38"/>
       <c r="C280" s="35"/>
-      <c r="D280" s="8"/>
+      <c r="D280" s="8" t="s">
+        <v>1196</v>
+      </c>
       <c r="E280" s="32"/>
       <c r="F280" s="32"/>
       <c r="G280" s="32"/>
       <c r="H280" s="32"/>
     </row>
-    <row r="281" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="36"/>
-      <c r="B281" s="39"/>
-      <c r="C281" s="36"/>
-      <c r="D281" s="30"/>
-      <c r="E281" s="33"/>
-      <c r="F281" s="33"/>
-      <c r="G281" s="33"/>
-      <c r="H281" s="33"/>
-    </row>
-    <row r="282" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="34" t="s">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="35"/>
+      <c r="B281" s="38"/>
+      <c r="C281" s="35"/>
+      <c r="D281" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E281" s="32"/>
+      <c r="F281" s="32"/>
+      <c r="G281" s="32"/>
+      <c r="H281" s="32"/>
+    </row>
+    <row r="282" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="36"/>
+      <c r="B282" s="39"/>
+      <c r="C282" s="36"/>
+      <c r="D282" s="30" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E282" s="33"/>
+      <c r="F282" s="33"/>
+      <c r="G282" s="33"/>
+      <c r="H282" s="33"/>
+    </row>
+    <row r="283" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B282" s="37" t="s">
+      <c r="B283" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C282" s="34"/>
-      <c r="D282" s="29"/>
-      <c r="E282" s="31"/>
-      <c r="F282" s="31"/>
-      <c r="G282" s="31"/>
-      <c r="H282" s="31"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A283" s="35"/>
-      <c r="B283" s="38"/>
-      <c r="C283" s="35"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="32"/>
-      <c r="F283" s="32"/>
-      <c r="G283" s="32"/>
-      <c r="H283" s="32"/>
+      <c r="C283" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D283" s="29" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E283" s="31">
+        <v>4</v>
+      </c>
+      <c r="F283" s="31">
+        <v>17</v>
+      </c>
+      <c r="G283" s="31">
+        <v>54</v>
+      </c>
+      <c r="H283" s="31"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="35"/>
       <c r="B284" s="38"/>
       <c r="C284" s="35"/>
-      <c r="D284" s="8"/>
+      <c r="D284" s="8" t="s">
+        <v>1122</v>
+      </c>
       <c r="E284" s="32"/>
       <c r="F284" s="32"/>
       <c r="G284" s="32"/>
       <c r="H284" s="32"/>
     </row>
-    <row r="285" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="36"/>
-      <c r="B285" s="39"/>
-      <c r="C285" s="36"/>
-      <c r="D285" s="30"/>
-      <c r="E285" s="33"/>
-      <c r="F285" s="33"/>
-      <c r="G285" s="33"/>
-      <c r="H285" s="33"/>
-    </row>
-    <row r="286" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="34" t="s">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" s="35"/>
+      <c r="B285" s="38"/>
+      <c r="C285" s="35"/>
+      <c r="D285" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E285" s="32"/>
+      <c r="F285" s="32"/>
+      <c r="G285" s="32"/>
+      <c r="H285" s="32"/>
+    </row>
+    <row r="286" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="36"/>
+      <c r="B286" s="39"/>
+      <c r="C286" s="36"/>
+      <c r="D286" s="30" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E286" s="33"/>
+      <c r="F286" s="33"/>
+      <c r="G286" s="33"/>
+      <c r="H286" s="33"/>
+    </row>
+    <row r="287" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B286" s="37" t="s">
+      <c r="B287" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C286" s="34"/>
-      <c r="D286" s="29"/>
-      <c r="E286" s="31"/>
-      <c r="F286" s="31"/>
-      <c r="G286" s="31"/>
-      <c r="H286" s="31"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A287" s="35"/>
-      <c r="B287" s="38"/>
-      <c r="C287" s="35"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="32"/>
-      <c r="F287" s="32"/>
-      <c r="G287" s="32"/>
-      <c r="H287" s="32"/>
+      <c r="C287" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D287" s="29" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E287" s="31">
+        <v>4</v>
+      </c>
+      <c r="F287" s="31">
+        <v>17</v>
+      </c>
+      <c r="G287" s="31">
+        <v>59</v>
+      </c>
+      <c r="H287" s="31"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="35"/>
       <c r="B288" s="38"/>
       <c r="C288" s="35"/>
-      <c r="D288" s="8"/>
+      <c r="D288" s="8" t="s">
+        <v>1202</v>
+      </c>
       <c r="E288" s="32"/>
       <c r="F288" s="32"/>
       <c r="G288" s="32"/>
       <c r="H288" s="32"/>
     </row>
-    <row r="289" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="36"/>
-      <c r="B289" s="39"/>
-      <c r="C289" s="36"/>
-      <c r="D289" s="30"/>
-      <c r="E289" s="33"/>
-      <c r="F289" s="33"/>
-      <c r="G289" s="33"/>
-      <c r="H289" s="33"/>
-    </row>
-    <row r="290" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="34" t="s">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" s="35"/>
+      <c r="B289" s="38"/>
+      <c r="C289" s="35"/>
+      <c r="D289" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E289" s="32"/>
+      <c r="F289" s="32"/>
+      <c r="G289" s="32"/>
+      <c r="H289" s="32"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="35"/>
+      <c r="B290" s="38"/>
+      <c r="C290" s="35"/>
+      <c r="D290" s="8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E290" s="32"/>
+      <c r="F290" s="32"/>
+      <c r="G290" s="32"/>
+      <c r="H290" s="32"/>
+    </row>
+    <row r="291" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="36"/>
+      <c r="B291" s="39"/>
+      <c r="C291" s="36"/>
+      <c r="D291" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E291" s="33"/>
+      <c r="F291" s="33"/>
+      <c r="G291" s="33"/>
+      <c r="H291" s="33"/>
+    </row>
+    <row r="292" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B290" s="37" t="s">
+      <c r="B292" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C290" s="34"/>
-      <c r="D290" s="29"/>
-      <c r="E290" s="31"/>
-      <c r="F290" s="31"/>
-      <c r="G290" s="31"/>
-      <c r="H290" s="31"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A291" s="35"/>
-      <c r="B291" s="38"/>
-      <c r="C291" s="35"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="32"/>
-      <c r="F291" s="32"/>
-      <c r="G291" s="32"/>
-      <c r="H291" s="32"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A292" s="35"/>
-      <c r="B292" s="38"/>
-      <c r="C292" s="35"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="32"/>
-      <c r="F292" s="32"/>
-      <c r="G292" s="32"/>
-      <c r="H292" s="32"/>
-    </row>
-    <row r="293" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="36"/>
-      <c r="B293" s="39"/>
-      <c r="C293" s="36"/>
-      <c r="D293" s="30"/>
-      <c r="E293" s="33"/>
-      <c r="F293" s="33"/>
-      <c r="G293" s="33"/>
-      <c r="H293" s="33"/>
-    </row>
-    <row r="294" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="34" t="s">
+      <c r="C292" s="34" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D292" s="29" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E292" s="31">
+        <v>4</v>
+      </c>
+      <c r="F292" s="31">
+        <v>17</v>
+      </c>
+      <c r="G292" s="31">
+        <v>55</v>
+      </c>
+      <c r="H292" s="31"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" s="35"/>
+      <c r="B293" s="38"/>
+      <c r="C293" s="35"/>
+      <c r="D293" s="8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E293" s="32"/>
+      <c r="F293" s="32"/>
+      <c r="G293" s="32"/>
+      <c r="H293" s="32"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294" s="35"/>
+      <c r="B294" s="38"/>
+      <c r="C294" s="35"/>
+      <c r="D294" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E294" s="32"/>
+      <c r="F294" s="32"/>
+      <c r="G294" s="32"/>
+      <c r="H294" s="32"/>
+    </row>
+    <row r="295" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="36"/>
+      <c r="B295" s="39"/>
+      <c r="C295" s="36"/>
+      <c r="D295" s="30" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E295" s="33"/>
+      <c r="F295" s="33"/>
+      <c r="G295" s="33"/>
+      <c r="H295" s="33"/>
+    </row>
+    <row r="296" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B294" s="37" t="s">
+      <c r="B296" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C294" s="34"/>
-      <c r="D294" s="29"/>
-      <c r="E294" s="31"/>
-      <c r="F294" s="31"/>
-      <c r="G294" s="31"/>
-      <c r="H294" s="31"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A295" s="35"/>
-      <c r="B295" s="38"/>
-      <c r="C295" s="35"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="32"/>
-      <c r="F295" s="32"/>
-      <c r="G295" s="32"/>
-      <c r="H295" s="32"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A296" s="35"/>
-      <c r="B296" s="38"/>
-      <c r="C296" s="35"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="32"/>
-      <c r="F296" s="32"/>
-      <c r="G296" s="32"/>
-      <c r="H296" s="32"/>
-    </row>
-    <row r="297" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="36"/>
-      <c r="B297" s="39"/>
-      <c r="C297" s="36"/>
-      <c r="D297" s="30"/>
-      <c r="E297" s="33"/>
-      <c r="F297" s="33"/>
-      <c r="G297" s="33"/>
-      <c r="H297" s="33"/>
-    </row>
-    <row r="298" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="34" t="s">
+      <c r="C296" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D296" s="29" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E296" s="31">
+        <v>4</v>
+      </c>
+      <c r="F296" s="31">
+        <v>13</v>
+      </c>
+      <c r="G296" s="31">
+        <v>52</v>
+      </c>
+      <c r="H296" s="31"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" s="35"/>
+      <c r="B297" s="38"/>
+      <c r="C297" s="35"/>
+      <c r="D297" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E297" s="32"/>
+      <c r="F297" s="32"/>
+      <c r="G297" s="32"/>
+      <c r="H297" s="32"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" s="35"/>
+      <c r="B298" s="38"/>
+      <c r="C298" s="35"/>
+      <c r="D298" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E298" s="32"/>
+      <c r="F298" s="32"/>
+      <c r="G298" s="32"/>
+      <c r="H298" s="32"/>
+    </row>
+    <row r="299" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="36"/>
+      <c r="B299" s="39"/>
+      <c r="C299" s="36"/>
+      <c r="D299" s="30" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E299" s="33"/>
+      <c r="F299" s="33"/>
+      <c r="G299" s="33"/>
+      <c r="H299" s="33"/>
+    </row>
+    <row r="300" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B298" s="37" t="s">
+      <c r="B300" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C298" s="34"/>
-      <c r="D298" s="29"/>
-      <c r="E298" s="31"/>
-      <c r="F298" s="31"/>
-      <c r="G298" s="31"/>
-      <c r="H298" s="31"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A299" s="35"/>
-      <c r="B299" s="38"/>
-      <c r="C299" s="35"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="32"/>
-      <c r="F299" s="32"/>
-      <c r="G299" s="32"/>
-      <c r="H299" s="32"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A300" s="35"/>
-      <c r="B300" s="38"/>
-      <c r="C300" s="35"/>
-      <c r="D300" s="8"/>
-      <c r="E300" s="32"/>
-      <c r="F300" s="32"/>
-      <c r="G300" s="32"/>
-      <c r="H300" s="32"/>
-    </row>
-    <row r="301" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="36"/>
-      <c r="B301" s="39"/>
-      <c r="C301" s="36"/>
-      <c r="D301" s="30"/>
-      <c r="E301" s="33"/>
-      <c r="F301" s="33"/>
-      <c r="G301" s="33"/>
-      <c r="H301" s="33"/>
-    </row>
-    <row r="302" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="34" t="s">
+      <c r="C300" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D300" s="29" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E300" s="31">
+        <v>4</v>
+      </c>
+      <c r="F300" s="31">
+        <v>14</v>
+      </c>
+      <c r="G300" s="31">
+        <v>51</v>
+      </c>
+      <c r="H300" s="31"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" s="35"/>
+      <c r="B301" s="38"/>
+      <c r="C301" s="35"/>
+      <c r="D301" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E301" s="32"/>
+      <c r="F301" s="32"/>
+      <c r="G301" s="32"/>
+      <c r="H301" s="32"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" s="35"/>
+      <c r="B302" s="38"/>
+      <c r="C302" s="35"/>
+      <c r="D302" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E302" s="32"/>
+      <c r="F302" s="32"/>
+      <c r="G302" s="32"/>
+      <c r="H302" s="32"/>
+    </row>
+    <row r="303" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="36"/>
+      <c r="B303" s="39"/>
+      <c r="C303" s="36"/>
+      <c r="D303" s="30" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E303" s="33"/>
+      <c r="F303" s="33"/>
+      <c r="G303" s="33"/>
+      <c r="H303" s="33"/>
+    </row>
+    <row r="304" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B302" s="37" t="s">
+      <c r="B304" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C302" s="34"/>
-      <c r="D302" s="29"/>
-      <c r="E302" s="31"/>
-      <c r="F302" s="31"/>
-      <c r="G302" s="31"/>
-      <c r="H302" s="31"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A303" s="35"/>
-      <c r="B303" s="38"/>
-      <c r="C303" s="35"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="32"/>
-      <c r="F303" s="32"/>
-      <c r="G303" s="32"/>
-      <c r="H303" s="32"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A304" s="35"/>
-      <c r="B304" s="38"/>
-      <c r="C304" s="35"/>
-      <c r="D304" s="8"/>
-      <c r="E304" s="32"/>
-      <c r="F304" s="32"/>
-      <c r="G304" s="32"/>
-      <c r="H304" s="32"/>
-    </row>
-    <row r="305" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="36"/>
-      <c r="B305" s="39"/>
-      <c r="C305" s="36"/>
-      <c r="D305" s="30"/>
-      <c r="E305" s="33"/>
-      <c r="F305" s="33"/>
-      <c r="G305" s="33"/>
-      <c r="H305" s="33"/>
-    </row>
-    <row r="306" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B306" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C306" s="34"/>
-      <c r="D306" s="29"/>
-      <c r="E306" s="31"/>
-      <c r="F306" s="31"/>
-      <c r="G306" s="31"/>
-      <c r="H306" s="31"/>
+      <c r="C304" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D304" s="29" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E304" s="31">
+        <v>4</v>
+      </c>
+      <c r="F304" s="31">
+        <v>17</v>
+      </c>
+      <c r="G304" s="31">
+        <v>59</v>
+      </c>
+      <c r="H304" s="31"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" s="35"/>
+      <c r="B305" s="38"/>
+      <c r="C305" s="35"/>
+      <c r="D305" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E305" s="32"/>
+      <c r="F305" s="32"/>
+      <c r="G305" s="32"/>
+      <c r="H305" s="32"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306" s="35"/>
+      <c r="B306" s="38"/>
+      <c r="C306" s="35"/>
+      <c r="D306" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E306" s="32"/>
+      <c r="F306" s="32"/>
+      <c r="G306" s="32"/>
+      <c r="H306" s="32"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="35"/>
       <c r="B307" s="38"/>
       <c r="C307" s="35"/>
-      <c r="D307" s="8"/>
+      <c r="D307" s="8" t="s">
+        <v>1219</v>
+      </c>
       <c r="E307" s="32"/>
       <c r="F307" s="32"/>
       <c r="G307" s="32"/>
       <c r="H307" s="32"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A308" s="35"/>
-      <c r="B308" s="38"/>
-      <c r="C308" s="35"/>
-      <c r="D308" s="8"/>
-      <c r="E308" s="32"/>
-      <c r="F308" s="32"/>
-      <c r="G308" s="32"/>
-      <c r="H308" s="32"/>
-    </row>
-    <row r="309" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="36"/>
-      <c r="B309" s="39"/>
-      <c r="C309" s="36"/>
-      <c r="D309" s="30"/>
-      <c r="E309" s="33"/>
-      <c r="F309" s="33"/>
-      <c r="G309" s="33"/>
-      <c r="H309" s="33"/>
-    </row>
-    <row r="310" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B310" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C310" s="34"/>
-      <c r="D310" s="29"/>
-      <c r="E310" s="31"/>
-      <c r="F310" s="31"/>
-      <c r="G310" s="31"/>
-      <c r="H310" s="31"/>
+    <row r="308" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="36"/>
+      <c r="B308" s="39"/>
+      <c r="C308" s="36"/>
+      <c r="D308" s="30" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E308" s="33"/>
+      <c r="F308" s="33"/>
+      <c r="G308" s="33"/>
+      <c r="H308" s="33"/>
+    </row>
+    <row r="309" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B309" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C309" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D309" s="29" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E309" s="31">
+        <v>4</v>
+      </c>
+      <c r="F309" s="31">
+        <v>17</v>
+      </c>
+      <c r="G309" s="31">
+        <v>56</v>
+      </c>
+      <c r="H309" s="31"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310" s="35"/>
+      <c r="B310" s="38"/>
+      <c r="C310" s="35"/>
+      <c r="D310" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E310" s="32"/>
+      <c r="F310" s="32"/>
+      <c r="G310" s="32"/>
+      <c r="H310" s="32"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="35"/>
       <c r="B311" s="38"/>
       <c r="C311" s="35"/>
-      <c r="D311" s="8"/>
+      <c r="D311" s="8" t="s">
+        <v>1223</v>
+      </c>
       <c r="E311" s="32"/>
       <c r="F311" s="32"/>
       <c r="G311" s="32"/>
       <c r="H311" s="32"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A312" s="35"/>
-      <c r="B312" s="38"/>
-      <c r="C312" s="35"/>
-      <c r="D312" s="8"/>
-      <c r="E312" s="32"/>
-      <c r="F312" s="32"/>
-      <c r="G312" s="32"/>
-      <c r="H312" s="32"/>
-    </row>
-    <row r="313" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="36"/>
-      <c r="B313" s="39"/>
-      <c r="C313" s="36"/>
-      <c r="D313" s="30"/>
-      <c r="E313" s="33"/>
-      <c r="F313" s="33"/>
-      <c r="G313" s="33"/>
-      <c r="H313" s="33"/>
-    </row>
-    <row r="314" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B314" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C314" s="34"/>
-      <c r="D314" s="29"/>
-      <c r="E314" s="31"/>
-      <c r="F314" s="31"/>
-      <c r="G314" s="31"/>
-      <c r="H314" s="31"/>
+    <row r="312" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="36"/>
+      <c r="B312" s="39"/>
+      <c r="C312" s="36"/>
+      <c r="D312" s="30" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E312" s="33"/>
+      <c r="F312" s="33"/>
+      <c r="G312" s="33"/>
+      <c r="H312" s="33"/>
+    </row>
+    <row r="313" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B313" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C313" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D313" s="29" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E313" s="31">
+        <v>4</v>
+      </c>
+      <c r="F313" s="31">
+        <v>14</v>
+      </c>
+      <c r="G313" s="31">
+        <v>48</v>
+      </c>
+      <c r="H313" s="31"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" s="35"/>
+      <c r="B314" s="38"/>
+      <c r="C314" s="35"/>
+      <c r="D314" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E314" s="32"/>
+      <c r="F314" s="32"/>
+      <c r="G314" s="32"/>
+      <c r="H314" s="32"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="35"/>
       <c r="B315" s="38"/>
       <c r="C315" s="35"/>
-      <c r="D315" s="8"/>
+      <c r="D315" s="8" t="s">
+        <v>1227</v>
+      </c>
       <c r="E315" s="32"/>
       <c r="F315" s="32"/>
       <c r="G315" s="32"/>
       <c r="H315" s="32"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A316" s="35"/>
-      <c r="B316" s="38"/>
-      <c r="C316" s="35"/>
-      <c r="D316" s="8"/>
-      <c r="E316" s="32"/>
-      <c r="F316" s="32"/>
-      <c r="G316" s="32"/>
-      <c r="H316" s="32"/>
-    </row>
-    <row r="317" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="36"/>
-      <c r="B317" s="39"/>
-      <c r="C317" s="36"/>
-      <c r="D317" s="30"/>
-      <c r="E317" s="33"/>
-      <c r="F317" s="33"/>
-      <c r="G317" s="33"/>
-      <c r="H317" s="33"/>
-    </row>
-    <row r="318" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B318" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C318" s="34"/>
-      <c r="D318" s="29"/>
-      <c r="E318" s="31"/>
-      <c r="F318" s="31"/>
-      <c r="G318" s="31"/>
-      <c r="H318" s="31"/>
+    <row r="316" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="36"/>
+      <c r="B316" s="39"/>
+      <c r="C316" s="36"/>
+      <c r="D316" s="30" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E316" s="33"/>
+      <c r="F316" s="33"/>
+      <c r="G316" s="33"/>
+      <c r="H316" s="33"/>
+    </row>
+    <row r="317" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B317" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C317" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D317" s="29" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E317" s="31">
+        <v>4</v>
+      </c>
+      <c r="F317" s="31">
+        <v>14</v>
+      </c>
+      <c r="G317" s="31">
+        <v>45</v>
+      </c>
+      <c r="H317" s="31"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318" s="35"/>
+      <c r="B318" s="38"/>
+      <c r="C318" s="35"/>
+      <c r="D318" s="8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E318" s="32"/>
+      <c r="F318" s="32"/>
+      <c r="G318" s="32"/>
+      <c r="H318" s="32"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="35"/>
       <c r="B319" s="38"/>
       <c r="C319" s="35"/>
-      <c r="D319" s="8"/>
+      <c r="D319" s="8" t="s">
+        <v>1231</v>
+      </c>
       <c r="E319" s="32"/>
       <c r="F319" s="32"/>
       <c r="G319" s="32"/>
       <c r="H319" s="32"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A320" s="35"/>
-      <c r="B320" s="38"/>
-      <c r="C320" s="35"/>
-      <c r="D320" s="8"/>
-      <c r="E320" s="32"/>
-      <c r="F320" s="32"/>
-      <c r="G320" s="32"/>
-      <c r="H320" s="32"/>
-    </row>
-    <row r="321" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="36"/>
-      <c r="B321" s="39"/>
-      <c r="C321" s="36"/>
-      <c r="D321" s="30"/>
-      <c r="E321" s="33"/>
-      <c r="F321" s="33"/>
-      <c r="G321" s="33"/>
-      <c r="H321" s="33"/>
-    </row>
-    <row r="322" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B322" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C322" s="34"/>
-      <c r="D322" s="29"/>
-      <c r="E322" s="31"/>
-      <c r="F322" s="31"/>
-      <c r="G322" s="31"/>
-      <c r="H322" s="31"/>
+    <row r="320" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="36"/>
+      <c r="B320" s="39"/>
+      <c r="C320" s="36"/>
+      <c r="D320" s="30" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E320" s="33"/>
+      <c r="F320" s="33"/>
+      <c r="G320" s="33"/>
+      <c r="H320" s="33"/>
+    </row>
+    <row r="321" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B321" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C321" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D321" s="29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E321" s="31">
+        <v>4</v>
+      </c>
+      <c r="F321" s="31">
+        <v>15</v>
+      </c>
+      <c r="G321" s="31">
+        <v>53</v>
+      </c>
+      <c r="H321" s="31"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" s="35"/>
+      <c r="B322" s="38"/>
+      <c r="C322" s="35"/>
+      <c r="D322" s="8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E322" s="32"/>
+      <c r="F322" s="32"/>
+      <c r="G322" s="32"/>
+      <c r="H322" s="32"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="35"/>
       <c r="B323" s="38"/>
       <c r="C323" s="35"/>
-      <c r="D323" s="8"/>
+      <c r="D323" s="8" t="s">
+        <v>1235</v>
+      </c>
       <c r="E323" s="32"/>
       <c r="F323" s="32"/>
       <c r="G323" s="32"/>
       <c r="H323" s="32"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A324" s="35"/>
-      <c r="B324" s="38"/>
-      <c r="C324" s="35"/>
-      <c r="D324" s="8"/>
-      <c r="E324" s="32"/>
-      <c r="F324" s="32"/>
-      <c r="G324" s="32"/>
-      <c r="H324" s="32"/>
-    </row>
-    <row r="325" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="36"/>
-      <c r="B325" s="39"/>
-      <c r="C325" s="36"/>
-      <c r="D325" s="30"/>
-      <c r="E325" s="33"/>
-      <c r="F325" s="33"/>
-      <c r="G325" s="33"/>
-      <c r="H325" s="33"/>
-    </row>
-    <row r="326" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="34" t="s">
-        <v>578</v>
-      </c>
-      <c r="B326" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="C326" s="34"/>
-      <c r="D326" s="29"/>
-      <c r="E326" s="31"/>
-      <c r="F326" s="31"/>
-      <c r="G326" s="31"/>
-      <c r="H326" s="31"/>
+    <row r="324" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="36"/>
+      <c r="B324" s="39"/>
+      <c r="C324" s="36"/>
+      <c r="D324" s="30" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E324" s="33"/>
+      <c r="F324" s="33"/>
+      <c r="G324" s="33"/>
+      <c r="H324" s="33"/>
+    </row>
+    <row r="325" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B325" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C325" s="34" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D325" s="29" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E325" s="31">
+        <v>4</v>
+      </c>
+      <c r="F325" s="31">
+        <v>15</v>
+      </c>
+      <c r="G325" s="31">
+        <v>46</v>
+      </c>
+      <c r="H325" s="31"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" s="35"/>
+      <c r="B326" s="38"/>
+      <c r="C326" s="35"/>
+      <c r="D326" s="8" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E326" s="32"/>
+      <c r="F326" s="32"/>
+      <c r="G326" s="32"/>
+      <c r="H326" s="32"/>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="35"/>
       <c r="B327" s="38"/>
       <c r="C327" s="35"/>
-      <c r="D327" s="8"/>
+      <c r="D327" s="8" t="s">
+        <v>1239</v>
+      </c>
       <c r="E327" s="32"/>
       <c r="F327" s="32"/>
       <c r="G327" s="32"/>
       <c r="H327" s="32"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A328" s="35"/>
-      <c r="B328" s="38"/>
-      <c r="C328" s="35"/>
-      <c r="D328" s="8"/>
-      <c r="E328" s="32"/>
-      <c r="F328" s="32"/>
-      <c r="G328" s="32"/>
-      <c r="H328" s="32"/>
-    </row>
-    <row r="329" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="36"/>
-      <c r="B329" s="39"/>
-      <c r="C329" s="36"/>
-      <c r="D329" s="30"/>
-      <c r="E329" s="33"/>
-      <c r="F329" s="33"/>
-      <c r="G329" s="33"/>
-      <c r="H329" s="33"/>
-    </row>
-    <row r="330" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="34" t="s">
-        <v>580</v>
-      </c>
-      <c r="B330" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="C330" s="34"/>
-      <c r="D330" s="29"/>
-      <c r="E330" s="31"/>
-      <c r="F330" s="31"/>
-      <c r="G330" s="31"/>
-      <c r="H330" s="31"/>
+    <row r="328" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="36"/>
+      <c r="B328" s="39"/>
+      <c r="C328" s="36"/>
+      <c r="D328" s="30" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E328" s="33"/>
+      <c r="F328" s="33"/>
+      <c r="G328" s="33"/>
+      <c r="H328" s="33"/>
+    </row>
+    <row r="329" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="B329" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="C329" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D329" s="29" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E329" s="31">
+        <v>4</v>
+      </c>
+      <c r="F329" s="31">
+        <v>15</v>
+      </c>
+      <c r="G329" s="31">
+        <v>62</v>
+      </c>
+      <c r="H329" s="31"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" s="35"/>
+      <c r="B330" s="38"/>
+      <c r="C330" s="35"/>
+      <c r="D330" s="8" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E330" s="32"/>
+      <c r="F330" s="32"/>
+      <c r="G330" s="32"/>
+      <c r="H330" s="32"/>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="35"/>
       <c r="B331" s="38"/>
       <c r="C331" s="35"/>
-      <c r="D331" s="8"/>
+      <c r="D331" s="8" t="s">
+        <v>1243</v>
+      </c>
       <c r="E331" s="32"/>
       <c r="F331" s="32"/>
       <c r="G331" s="32"/>
       <c r="H331" s="32"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A332" s="35"/>
-      <c r="B332" s="38"/>
-      <c r="C332" s="35"/>
-      <c r="D332" s="8"/>
-      <c r="E332" s="32"/>
-      <c r="F332" s="32"/>
-      <c r="G332" s="32"/>
-      <c r="H332" s="32"/>
-    </row>
-    <row r="333" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="36"/>
-      <c r="B333" s="39"/>
-      <c r="C333" s="36"/>
-      <c r="D333" s="30"/>
-      <c r="E333" s="33"/>
-      <c r="F333" s="33"/>
-      <c r="G333" s="33"/>
-      <c r="H333" s="33"/>
+    <row r="332" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="36"/>
+      <c r="B332" s="39"/>
+      <c r="C332" s="36"/>
+      <c r="D332" s="30" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E332" s="33"/>
+      <c r="F332" s="33"/>
+      <c r="G332" s="33"/>
+      <c r="H332" s="33"/>
+    </row>
+    <row r="333" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="B333" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="C333" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D333" s="29" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E333" s="31">
+        <v>4</v>
+      </c>
+      <c r="F333" s="31">
+        <v>19</v>
+      </c>
+      <c r="G333" s="31">
+        <v>75</v>
+      </c>
+      <c r="H333" s="31"/>
     </row>
     <row r="334" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="34" t="s">
-        <v>582</v>
-      </c>
-      <c r="B334" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="C334" s="34"/>
-      <c r="D334" s="29"/>
-      <c r="E334" s="31"/>
-      <c r="F334" s="31"/>
-      <c r="G334" s="31"/>
-      <c r="H334" s="31"/>
+      <c r="A334" s="35"/>
+      <c r="B334" s="38"/>
+      <c r="C334" s="35"/>
+      <c r="D334" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E334" s="32"/>
+      <c r="F334" s="32"/>
+      <c r="G334" s="32"/>
+      <c r="H334" s="32"/>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="35"/>
       <c r="B335" s="38"/>
       <c r="C335" s="35"/>
-      <c r="D335" s="8"/>
+      <c r="D335" s="8" t="s">
+        <v>1247</v>
+      </c>
       <c r="E335" s="32"/>
       <c r="F335" s="32"/>
       <c r="G335" s="32"/>
@@ -8976,7 +9588,9 @@
       <c r="A336" s="35"/>
       <c r="B336" s="38"/>
       <c r="C336" s="35"/>
-      <c r="D336" s="8"/>
+      <c r="D336" s="8" t="s">
+        <v>1248</v>
+      </c>
       <c r="E336" s="32"/>
       <c r="F336" s="32"/>
       <c r="G336" s="32"/>
@@ -8986,31 +9600,45 @@
       <c r="A337" s="36"/>
       <c r="B337" s="39"/>
       <c r="C337" s="36"/>
-      <c r="D337" s="30"/>
+      <c r="D337" s="30" t="s">
+        <v>1249</v>
+      </c>
       <c r="E337" s="33"/>
       <c r="F337" s="33"/>
       <c r="G337" s="33"/>
       <c r="H337" s="33"/>
     </row>
-    <row r="338" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="34" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B338" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="C338" s="34"/>
-      <c r="D338" s="29"/>
-      <c r="E338" s="31"/>
-      <c r="F338" s="31"/>
-      <c r="G338" s="31"/>
+        <v>581</v>
+      </c>
+      <c r="C338" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D338" s="29" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E338" s="31">
+        <v>4</v>
+      </c>
+      <c r="F338" s="31">
+        <v>14</v>
+      </c>
+      <c r="G338" s="31">
+        <v>56</v>
+      </c>
       <c r="H338" s="31"/>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="35"/>
       <c r="B339" s="38"/>
       <c r="C339" s="35"/>
-      <c r="D339" s="8"/>
+      <c r="D339" s="8" t="s">
+        <v>1251</v>
+      </c>
       <c r="E339" s="32"/>
       <c r="F339" s="32"/>
       <c r="G339" s="32"/>
@@ -9020,7 +9648,9 @@
       <c r="A340" s="35"/>
       <c r="B340" s="38"/>
       <c r="C340" s="35"/>
-      <c r="D340" s="8"/>
+      <c r="D340" s="8" t="s">
+        <v>1252</v>
+      </c>
       <c r="E340" s="32"/>
       <c r="F340" s="32"/>
       <c r="G340" s="32"/>
@@ -9030,31 +9660,45 @@
       <c r="A341" s="36"/>
       <c r="B341" s="39"/>
       <c r="C341" s="36"/>
-      <c r="D341" s="30"/>
+      <c r="D341" s="30" t="s">
+        <v>1253</v>
+      </c>
       <c r="E341" s="33"/>
       <c r="F341" s="33"/>
       <c r="G341" s="33"/>
       <c r="H341" s="33"/>
     </row>
-    <row r="342" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="34" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B342" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="C342" s="34"/>
-      <c r="D342" s="29"/>
-      <c r="E342" s="31"/>
-      <c r="F342" s="31"/>
-      <c r="G342" s="31"/>
+        <v>583</v>
+      </c>
+      <c r="C342" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D342" s="29" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E342" s="31">
+        <v>4</v>
+      </c>
+      <c r="F342" s="31">
+        <v>14</v>
+      </c>
+      <c r="G342" s="31">
+        <v>58</v>
+      </c>
       <c r="H342" s="31"/>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="35"/>
       <c r="B343" s="38"/>
       <c r="C343" s="35"/>
-      <c r="D343" s="8"/>
+      <c r="D343" s="8" t="s">
+        <v>1255</v>
+      </c>
       <c r="E343" s="32"/>
       <c r="F343" s="32"/>
       <c r="G343" s="32"/>
@@ -9064,7 +9708,9 @@
       <c r="A344" s="35"/>
       <c r="B344" s="38"/>
       <c r="C344" s="35"/>
-      <c r="D344" s="8"/>
+      <c r="D344" s="8" t="s">
+        <v>1256</v>
+      </c>
       <c r="E344" s="32"/>
       <c r="F344" s="32"/>
       <c r="G344" s="32"/>
@@ -9074,7 +9720,9 @@
       <c r="A345" s="36"/>
       <c r="B345" s="39"/>
       <c r="C345" s="36"/>
-      <c r="D345" s="30"/>
+      <c r="D345" s="30" t="s">
+        <v>1257</v>
+      </c>
       <c r="E345" s="33"/>
       <c r="F345" s="33"/>
       <c r="G345" s="33"/>
@@ -9082,23 +9730,35 @@
     </row>
     <row r="346" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="34" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B346" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="C346" s="34"/>
-      <c r="D346" s="29"/>
-      <c r="E346" s="31"/>
-      <c r="F346" s="31"/>
-      <c r="G346" s="31"/>
+        <v>585</v>
+      </c>
+      <c r="C346" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D346" s="29" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E346" s="31">
+        <v>4</v>
+      </c>
+      <c r="F346" s="31">
+        <v>14</v>
+      </c>
+      <c r="G346" s="31">
+        <v>50</v>
+      </c>
       <c r="H346" s="31"/>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="35"/>
       <c r="B347" s="38"/>
       <c r="C347" s="35"/>
-      <c r="D347" s="8"/>
+      <c r="D347" s="8" t="s">
+        <v>1259</v>
+      </c>
       <c r="E347" s="32"/>
       <c r="F347" s="32"/>
       <c r="G347" s="32"/>
@@ -9108,7 +9768,9 @@
       <c r="A348" s="35"/>
       <c r="B348" s="38"/>
       <c r="C348" s="35"/>
-      <c r="D348" s="8"/>
+      <c r="D348" s="8" t="s">
+        <v>1260</v>
+      </c>
       <c r="E348" s="32"/>
       <c r="F348" s="32"/>
       <c r="G348" s="32"/>
@@ -9118,7 +9780,9 @@
       <c r="A349" s="36"/>
       <c r="B349" s="39"/>
       <c r="C349" s="36"/>
-      <c r="D349" s="30"/>
+      <c r="D349" s="30" t="s">
+        <v>1249</v>
+      </c>
       <c r="E349" s="33"/>
       <c r="F349" s="33"/>
       <c r="G349" s="33"/>
@@ -9126,23 +9790,35 @@
     </row>
     <row r="350" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="34" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B350" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="C350" s="34"/>
-      <c r="D350" s="29"/>
-      <c r="E350" s="31"/>
-      <c r="F350" s="31"/>
-      <c r="G350" s="31"/>
+        <v>587</v>
+      </c>
+      <c r="C350" s="34" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D350" s="29" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E350" s="31">
+        <v>4</v>
+      </c>
+      <c r="F350" s="31">
+        <v>18</v>
+      </c>
+      <c r="G350" s="31">
+        <v>58</v>
+      </c>
       <c r="H350" s="31"/>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="35"/>
       <c r="B351" s="38"/>
       <c r="C351" s="35"/>
-      <c r="D351" s="8"/>
+      <c r="D351" s="8" t="s">
+        <v>1262</v>
+      </c>
       <c r="E351" s="32"/>
       <c r="F351" s="32"/>
       <c r="G351" s="32"/>
@@ -9152,349 +9828,465 @@
       <c r="A352" s="35"/>
       <c r="B352" s="38"/>
       <c r="C352" s="35"/>
-      <c r="D352" s="8"/>
+      <c r="D352" s="8" t="s">
+        <v>1263</v>
+      </c>
       <c r="E352" s="32"/>
       <c r="F352" s="32"/>
       <c r="G352" s="32"/>
       <c r="H352" s="32"/>
     </row>
-    <row r="353" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="36"/>
-      <c r="B353" s="39"/>
-      <c r="C353" s="36"/>
-      <c r="D353" s="30"/>
-      <c r="E353" s="33"/>
-      <c r="F353" s="33"/>
-      <c r="G353" s="33"/>
-      <c r="H353" s="33"/>
-    </row>
-    <row r="354" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="B354" s="37" t="s">
-        <v>591</v>
-      </c>
-      <c r="C354" s="34"/>
-      <c r="D354" s="29"/>
-      <c r="E354" s="31"/>
-      <c r="F354" s="31"/>
-      <c r="G354" s="31"/>
-      <c r="H354" s="31"/>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A355" s="35"/>
-      <c r="B355" s="38"/>
-      <c r="C355" s="35"/>
-      <c r="D355" s="8"/>
-      <c r="E355" s="32"/>
-      <c r="F355" s="32"/>
-      <c r="G355" s="32"/>
-      <c r="H355" s="32"/>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" s="35"/>
+      <c r="B353" s="38"/>
+      <c r="C353" s="35"/>
+      <c r="D353" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E353" s="32"/>
+      <c r="F353" s="32"/>
+      <c r="G353" s="32"/>
+      <c r="H353" s="32"/>
+    </row>
+    <row r="354" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="36"/>
+      <c r="B354" s="39"/>
+      <c r="C354" s="36"/>
+      <c r="D354" s="30" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E354" s="33"/>
+      <c r="F354" s="33"/>
+      <c r="G354" s="33"/>
+      <c r="H354" s="33"/>
+    </row>
+    <row r="355" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="B355" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="C355" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D355" s="29" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E355" s="31">
+        <v>4</v>
+      </c>
+      <c r="F355" s="31">
+        <v>13</v>
+      </c>
+      <c r="G355" s="31">
+        <v>46</v>
+      </c>
+      <c r="H355" s="31"/>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="35"/>
       <c r="B356" s="38"/>
       <c r="C356" s="35"/>
-      <c r="D356" s="8"/>
+      <c r="D356" s="8" t="s">
+        <v>1267</v>
+      </c>
       <c r="E356" s="32"/>
       <c r="F356" s="32"/>
       <c r="G356" s="32"/>
       <c r="H356" s="32"/>
     </row>
-    <row r="357" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="36"/>
-      <c r="B357" s="39"/>
-      <c r="C357" s="36"/>
-      <c r="D357" s="30"/>
-      <c r="E357" s="33"/>
-      <c r="F357" s="33"/>
-      <c r="G357" s="33"/>
-      <c r="H357" s="33"/>
-    </row>
-    <row r="358" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="B358" s="37" t="s">
-        <v>593</v>
-      </c>
-      <c r="C358" s="34"/>
-      <c r="D358" s="29"/>
-      <c r="E358" s="31"/>
-      <c r="F358" s="31"/>
-      <c r="G358" s="31"/>
-      <c r="H358" s="31"/>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A359" s="35"/>
-      <c r="B359" s="38"/>
-      <c r="C359" s="35"/>
-      <c r="D359" s="8"/>
-      <c r="E359" s="32"/>
-      <c r="F359" s="32"/>
-      <c r="G359" s="32"/>
-      <c r="H359" s="32"/>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" s="35"/>
+      <c r="B357" s="38"/>
+      <c r="C357" s="35"/>
+      <c r="D357" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E357" s="32"/>
+      <c r="F357" s="32"/>
+      <c r="G357" s="32"/>
+      <c r="H357" s="32"/>
+    </row>
+    <row r="358" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="36"/>
+      <c r="B358" s="39"/>
+      <c r="C358" s="36"/>
+      <c r="D358" s="30" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E358" s="33"/>
+      <c r="F358" s="33"/>
+      <c r="G358" s="33"/>
+      <c r="H358" s="33"/>
+    </row>
+    <row r="359" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="B359" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="C359" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D359" s="29" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E359" s="31">
+        <v>4</v>
+      </c>
+      <c r="F359" s="31">
+        <v>16</v>
+      </c>
+      <c r="G359" s="31">
+        <v>49</v>
+      </c>
+      <c r="H359" s="31"/>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="35"/>
       <c r="B360" s="38"/>
       <c r="C360" s="35"/>
-      <c r="D360" s="8"/>
+      <c r="D360" s="8" t="s">
+        <v>1271</v>
+      </c>
       <c r="E360" s="32"/>
       <c r="F360" s="32"/>
       <c r="G360" s="32"/>
       <c r="H360" s="32"/>
     </row>
-    <row r="361" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="36"/>
-      <c r="B361" s="39"/>
-      <c r="C361" s="36"/>
-      <c r="D361" s="30"/>
-      <c r="E361" s="33"/>
-      <c r="F361" s="33"/>
-      <c r="G361" s="33"/>
-      <c r="H361" s="33"/>
-    </row>
-    <row r="362" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="B362" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="C362" s="34"/>
-      <c r="D362" s="29"/>
-      <c r="E362" s="31"/>
-      <c r="F362" s="31"/>
-      <c r="G362" s="31"/>
-      <c r="H362" s="31"/>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A363" s="35"/>
-      <c r="B363" s="38"/>
-      <c r="C363" s="35"/>
-      <c r="D363" s="8"/>
-      <c r="E363" s="32"/>
-      <c r="F363" s="32"/>
-      <c r="G363" s="32"/>
-      <c r="H363" s="32"/>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" s="35"/>
+      <c r="B361" s="38"/>
+      <c r="C361" s="35"/>
+      <c r="D361" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E361" s="32"/>
+      <c r="F361" s="32"/>
+      <c r="G361" s="32"/>
+      <c r="H361" s="32"/>
+    </row>
+    <row r="362" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="36"/>
+      <c r="B362" s="39"/>
+      <c r="C362" s="36"/>
+      <c r="D362" s="30" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E362" s="33"/>
+      <c r="F362" s="33"/>
+      <c r="G362" s="33"/>
+      <c r="H362" s="33"/>
+    </row>
+    <row r="363" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="B363" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="C363" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D363" s="29" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E363" s="31">
+        <v>4</v>
+      </c>
+      <c r="F363" s="31">
+        <v>17</v>
+      </c>
+      <c r="G363" s="31">
+        <v>58</v>
+      </c>
+      <c r="H363" s="31"/>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="35"/>
       <c r="B364" s="38"/>
       <c r="C364" s="35"/>
-      <c r="D364" s="8"/>
+      <c r="D364" s="8" t="s">
+        <v>1275</v>
+      </c>
       <c r="E364" s="32"/>
       <c r="F364" s="32"/>
       <c r="G364" s="32"/>
       <c r="H364" s="32"/>
     </row>
-    <row r="365" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A365" s="36"/>
-      <c r="B365" s="39"/>
-      <c r="C365" s="36"/>
-      <c r="D365" s="30"/>
-      <c r="E365" s="33"/>
-      <c r="F365" s="33"/>
-      <c r="G365" s="33"/>
-      <c r="H365" s="33"/>
-    </row>
-    <row r="366" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="34" t="s">
-        <v>598</v>
-      </c>
-      <c r="B366" s="37" t="s">
-        <v>597</v>
-      </c>
-      <c r="C366" s="34"/>
-      <c r="D366" s="29"/>
-      <c r="E366" s="31"/>
-      <c r="F366" s="31"/>
-      <c r="G366" s="31"/>
-      <c r="H366" s="31"/>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A367" s="35"/>
-      <c r="B367" s="38"/>
-      <c r="C367" s="35"/>
-      <c r="D367" s="8"/>
-      <c r="E367" s="32"/>
-      <c r="F367" s="32"/>
-      <c r="G367" s="32"/>
-      <c r="H367" s="32"/>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A368" s="35"/>
-      <c r="B368" s="38"/>
-      <c r="C368" s="35"/>
-      <c r="D368" s="8"/>
-      <c r="E368" s="32"/>
-      <c r="F368" s="32"/>
-      <c r="G368" s="32"/>
-      <c r="H368" s="32"/>
-    </row>
-    <row r="369" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A369" s="36"/>
-      <c r="B369" s="39"/>
-      <c r="C369" s="36"/>
-      <c r="D369" s="30"/>
-      <c r="E369" s="33"/>
-      <c r="F369" s="33"/>
-      <c r="G369" s="33"/>
-      <c r="H369" s="33"/>
-    </row>
-    <row r="370" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="B370" s="37" t="s">
-        <v>599</v>
-      </c>
-      <c r="C370" s="34"/>
-      <c r="D370" s="29"/>
-      <c r="E370" s="31"/>
-      <c r="F370" s="31"/>
-      <c r="G370" s="31"/>
-      <c r="H370" s="31"/>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" s="35"/>
+      <c r="B365" s="38"/>
+      <c r="C365" s="35"/>
+      <c r="D365" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E365" s="32"/>
+      <c r="F365" s="32"/>
+      <c r="G365" s="32"/>
+      <c r="H365" s="32"/>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" s="35"/>
+      <c r="B366" s="38"/>
+      <c r="C366" s="35"/>
+      <c r="D366" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E366" s="32"/>
+      <c r="F366" s="32"/>
+      <c r="G366" s="32"/>
+      <c r="H366" s="32"/>
+    </row>
+    <row r="367" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="36"/>
+      <c r="B367" s="39"/>
+      <c r="C367" s="36"/>
+      <c r="D367" s="30" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E367" s="33"/>
+      <c r="F367" s="33"/>
+      <c r="G367" s="33"/>
+      <c r="H367" s="33"/>
+    </row>
+    <row r="368" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="B368" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="C368" s="34" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D368" s="29" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E368" s="31">
+        <v>5</v>
+      </c>
+      <c r="F368" s="31">
+        <v>15</v>
+      </c>
+      <c r="G368" s="31">
+        <v>57</v>
+      </c>
+      <c r="H368" s="31"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" s="35"/>
+      <c r="B369" s="38"/>
+      <c r="C369" s="35"/>
+      <c r="D369" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E369" s="32"/>
+      <c r="F369" s="32"/>
+      <c r="G369" s="32"/>
+      <c r="H369" s="32"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" s="35"/>
+      <c r="B370" s="38"/>
+      <c r="C370" s="35"/>
+      <c r="D370" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="E370" s="32"/>
+      <c r="F370" s="32"/>
+      <c r="G370" s="32"/>
+      <c r="H370" s="32"/>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="35"/>
       <c r="B371" s="38"/>
       <c r="C371" s="35"/>
-      <c r="D371" s="8"/>
+      <c r="D371" s="8" t="s">
+        <v>1281</v>
+      </c>
       <c r="E371" s="32"/>
       <c r="F371" s="32"/>
       <c r="G371" s="32"/>
       <c r="H371" s="32"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A372" s="35"/>
-      <c r="B372" s="38"/>
-      <c r="C372" s="35"/>
-      <c r="D372" s="8"/>
-      <c r="E372" s="32"/>
-      <c r="F372" s="32"/>
-      <c r="G372" s="32"/>
-      <c r="H372" s="32"/>
-    </row>
-    <row r="373" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A373" s="36"/>
-      <c r="B373" s="39"/>
-      <c r="C373" s="36"/>
-      <c r="D373" s="30"/>
-      <c r="E373" s="33"/>
-      <c r="F373" s="33"/>
-      <c r="G373" s="33"/>
-      <c r="H373" s="33"/>
-    </row>
-    <row r="374" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="B374" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="C374" s="34"/>
-      <c r="D374" s="29"/>
-      <c r="E374" s="31"/>
-      <c r="F374" s="31"/>
-      <c r="G374" s="31"/>
-      <c r="H374" s="31"/>
+    <row r="372" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="36"/>
+      <c r="B372" s="39"/>
+      <c r="C372" s="36"/>
+      <c r="D372" s="30" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E372" s="33"/>
+      <c r="F372" s="33"/>
+      <c r="G372" s="33"/>
+      <c r="H372" s="33"/>
+    </row>
+    <row r="373" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="B373" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="C373" s="34" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D373" s="29" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E373" s="31">
+        <v>4</v>
+      </c>
+      <c r="F373" s="31">
+        <v>16</v>
+      </c>
+      <c r="G373" s="31">
+        <v>60</v>
+      </c>
+      <c r="H373" s="31"/>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" s="35"/>
+      <c r="B374" s="38"/>
+      <c r="C374" s="35"/>
+      <c r="D374" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E374" s="32"/>
+      <c r="F374" s="32"/>
+      <c r="G374" s="32"/>
+      <c r="H374" s="32"/>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="35"/>
       <c r="B375" s="38"/>
       <c r="C375" s="35"/>
-      <c r="D375" s="8"/>
+      <c r="D375" s="8" t="s">
+        <v>1285</v>
+      </c>
       <c r="E375" s="32"/>
       <c r="F375" s="32"/>
       <c r="G375" s="32"/>
       <c r="H375" s="32"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A376" s="35"/>
-      <c r="B376" s="38"/>
-      <c r="C376" s="35"/>
-      <c r="D376" s="8"/>
-      <c r="E376" s="32"/>
-      <c r="F376" s="32"/>
-      <c r="G376" s="32"/>
-      <c r="H376" s="32"/>
-    </row>
-    <row r="377" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="36"/>
-      <c r="B377" s="39"/>
-      <c r="C377" s="36"/>
-      <c r="D377" s="30"/>
-      <c r="E377" s="33"/>
-      <c r="F377" s="33"/>
-      <c r="G377" s="33"/>
-      <c r="H377" s="33"/>
-    </row>
-    <row r="378" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="34" t="s">
-        <v>604</v>
-      </c>
-      <c r="B378" s="37" t="s">
-        <v>603</v>
-      </c>
-      <c r="C378" s="34"/>
-      <c r="D378" s="29"/>
-      <c r="E378" s="31"/>
-      <c r="F378" s="31"/>
-      <c r="G378" s="31"/>
-      <c r="H378" s="31"/>
+    <row r="376" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="36"/>
+      <c r="B376" s="39"/>
+      <c r="C376" s="36"/>
+      <c r="D376" s="30" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E376" s="33"/>
+      <c r="F376" s="33"/>
+      <c r="G376" s="33"/>
+      <c r="H376" s="33"/>
+    </row>
+    <row r="377" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="B377" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="C377" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D377" s="29" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E377" s="31">
+        <v>4</v>
+      </c>
+      <c r="F377" s="31">
+        <v>14</v>
+      </c>
+      <c r="G377" s="31">
+        <v>44</v>
+      </c>
+      <c r="H377" s="31"/>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" s="35"/>
+      <c r="B378" s="38"/>
+      <c r="C378" s="35"/>
+      <c r="D378" s="8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E378" s="32"/>
+      <c r="F378" s="32"/>
+      <c r="G378" s="32"/>
+      <c r="H378" s="32"/>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="35"/>
       <c r="B379" s="38"/>
       <c r="C379" s="35"/>
-      <c r="D379" s="8"/>
+      <c r="D379" s="8" t="s">
+        <v>1289</v>
+      </c>
       <c r="E379" s="32"/>
       <c r="F379" s="32"/>
       <c r="G379" s="32"/>
       <c r="H379" s="32"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A380" s="35"/>
-      <c r="B380" s="38"/>
-      <c r="C380" s="35"/>
-      <c r="D380" s="8"/>
-      <c r="E380" s="32"/>
-      <c r="F380" s="32"/>
-      <c r="G380" s="32"/>
-      <c r="H380" s="32"/>
-    </row>
-    <row r="381" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="36"/>
-      <c r="B381" s="39"/>
-      <c r="C381" s="36"/>
-      <c r="D381" s="30"/>
-      <c r="E381" s="33"/>
-      <c r="F381" s="33"/>
-      <c r="G381" s="33"/>
-      <c r="H381" s="33"/>
-    </row>
-    <row r="382" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="34" t="s">
-        <v>606</v>
-      </c>
-      <c r="B382" s="37" t="s">
-        <v>605</v>
-      </c>
-      <c r="C382" s="34"/>
-      <c r="D382" s="29"/>
-      <c r="E382" s="31"/>
-      <c r="F382" s="31"/>
-      <c r="G382" s="31"/>
-      <c r="H382" s="31"/>
+    <row r="380" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="36"/>
+      <c r="B380" s="39"/>
+      <c r="C380" s="36"/>
+      <c r="D380" s="30" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E380" s="33"/>
+      <c r="F380" s="33"/>
+      <c r="G380" s="33"/>
+      <c r="H380" s="33"/>
+    </row>
+    <row r="381" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="B381" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="C381" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D381" s="29" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E381" s="31">
+        <v>5</v>
+      </c>
+      <c r="F381" s="31">
+        <v>15</v>
+      </c>
+      <c r="G381" s="31">
+        <v>57</v>
+      </c>
+      <c r="H381" s="31"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" s="35"/>
+      <c r="B382" s="38"/>
+      <c r="C382" s="35"/>
+      <c r="D382" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E382" s="32"/>
+      <c r="F382" s="32"/>
+      <c r="G382" s="32"/>
+      <c r="H382" s="32"/>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="35"/>
       <c r="B383" s="38"/>
       <c r="C383" s="35"/>
-      <c r="D383" s="8"/>
+      <c r="D383" s="8" t="s">
+        <v>1293</v>
+      </c>
       <c r="E383" s="32"/>
       <c r="F383" s="32"/>
       <c r="G383" s="32"/>
@@ -9504,7 +10296,9 @@
       <c r="A384" s="35"/>
       <c r="B384" s="38"/>
       <c r="C384" s="35"/>
-      <c r="D384" s="8"/>
+      <c r="D384" s="8" t="s">
+        <v>1294</v>
+      </c>
       <c r="E384" s="32"/>
       <c r="F384" s="32"/>
       <c r="G384" s="32"/>
@@ -9514,7 +10308,9 @@
       <c r="A385" s="36"/>
       <c r="B385" s="39"/>
       <c r="C385" s="36"/>
-      <c r="D385" s="30"/>
+      <c r="D385" s="30" t="s">
+        <v>1138</v>
+      </c>
       <c r="E385" s="33"/>
       <c r="F385" s="33"/>
       <c r="G385" s="33"/>
@@ -9522,23 +10318,35 @@
     </row>
     <row r="386" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="34" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B386" s="37" t="s">
-        <v>607</v>
-      </c>
-      <c r="C386" s="34"/>
-      <c r="D386" s="29"/>
-      <c r="E386" s="31"/>
-      <c r="F386" s="31"/>
-      <c r="G386" s="31"/>
+        <v>603</v>
+      </c>
+      <c r="C386" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D386" s="29" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E386" s="31">
+        <v>4</v>
+      </c>
+      <c r="F386" s="31">
+        <v>14</v>
+      </c>
+      <c r="G386" s="31">
+        <v>52</v>
+      </c>
       <c r="H386" s="31"/>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="35"/>
       <c r="B387" s="38"/>
       <c r="C387" s="35"/>
-      <c r="D387" s="8"/>
+      <c r="D387" s="8" t="s">
+        <v>1296</v>
+      </c>
       <c r="E387" s="32"/>
       <c r="F387" s="32"/>
       <c r="G387" s="32"/>
@@ -9548,7 +10356,9 @@
       <c r="A388" s="35"/>
       <c r="B388" s="38"/>
       <c r="C388" s="35"/>
-      <c r="D388" s="8"/>
+      <c r="D388" s="8" t="s">
+        <v>1297</v>
+      </c>
       <c r="E388" s="32"/>
       <c r="F388" s="32"/>
       <c r="G388" s="32"/>
@@ -9558,7 +10368,9 @@
       <c r="A389" s="36"/>
       <c r="B389" s="39"/>
       <c r="C389" s="36"/>
-      <c r="D389" s="30"/>
+      <c r="D389" s="30" t="s">
+        <v>1298</v>
+      </c>
       <c r="E389" s="33"/>
       <c r="F389" s="33"/>
       <c r="G389" s="33"/>
@@ -9566,23 +10378,35 @@
     </row>
     <row r="390" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="34" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B390" s="37" t="s">
-        <v>609</v>
-      </c>
-      <c r="C390" s="34"/>
-      <c r="D390" s="29"/>
-      <c r="E390" s="31"/>
-      <c r="F390" s="31"/>
-      <c r="G390" s="31"/>
+        <v>605</v>
+      </c>
+      <c r="C390" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D390" s="29" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E390" s="31">
+        <v>4</v>
+      </c>
+      <c r="F390" s="31">
+        <v>13</v>
+      </c>
+      <c r="G390" s="31">
+        <v>50</v>
+      </c>
       <c r="H390" s="31"/>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="35"/>
       <c r="B391" s="38"/>
       <c r="C391" s="35"/>
-      <c r="D391" s="8"/>
+      <c r="D391" s="8" t="s">
+        <v>1047</v>
+      </c>
       <c r="E391" s="32"/>
       <c r="F391" s="32"/>
       <c r="G391" s="32"/>
@@ -9592,7 +10416,9 @@
       <c r="A392" s="35"/>
       <c r="B392" s="38"/>
       <c r="C392" s="35"/>
-      <c r="D392" s="8"/>
+      <c r="D392" s="8" t="s">
+        <v>1300</v>
+      </c>
       <c r="E392" s="32"/>
       <c r="F392" s="32"/>
       <c r="G392" s="32"/>
@@ -9602,7 +10428,9 @@
       <c r="A393" s="36"/>
       <c r="B393" s="39"/>
       <c r="C393" s="36"/>
-      <c r="D393" s="30"/>
+      <c r="D393" s="30" t="s">
+        <v>1301</v>
+      </c>
       <c r="E393" s="33"/>
       <c r="F393" s="33"/>
       <c r="G393" s="33"/>
@@ -9610,23 +10438,35 @@
     </row>
     <row r="394" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="34" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B394" s="37" t="s">
-        <v>611</v>
-      </c>
-      <c r="C394" s="34"/>
-      <c r="D394" s="29"/>
-      <c r="E394" s="31"/>
-      <c r="F394" s="31"/>
-      <c r="G394" s="31"/>
+        <v>607</v>
+      </c>
+      <c r="C394" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D394" s="29" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E394" s="31">
+        <v>4</v>
+      </c>
+      <c r="F394" s="31">
+        <v>12</v>
+      </c>
+      <c r="G394" s="31">
+        <v>49</v>
+      </c>
       <c r="H394" s="31"/>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="35"/>
       <c r="B395" s="38"/>
       <c r="C395" s="35"/>
-      <c r="D395" s="8"/>
+      <c r="D395" s="8" t="s">
+        <v>1303</v>
+      </c>
       <c r="E395" s="32"/>
       <c r="F395" s="32"/>
       <c r="G395" s="32"/>
@@ -9636,7 +10476,9 @@
       <c r="A396" s="35"/>
       <c r="B396" s="38"/>
       <c r="C396" s="35"/>
-      <c r="D396" s="8"/>
+      <c r="D396" s="8" t="s">
+        <v>1304</v>
+      </c>
       <c r="E396" s="32"/>
       <c r="F396" s="32"/>
       <c r="G396" s="32"/>
@@ -9646,7 +10488,9 @@
       <c r="A397" s="36"/>
       <c r="B397" s="39"/>
       <c r="C397" s="36"/>
-      <c r="D397" s="30"/>
+      <c r="D397" s="30" t="s">
+        <v>1305</v>
+      </c>
       <c r="E397" s="33"/>
       <c r="F397" s="33"/>
       <c r="G397" s="33"/>
@@ -9654,23 +10498,35 @@
     </row>
     <row r="398" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="34" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B398" s="37" t="s">
-        <v>613</v>
-      </c>
-      <c r="C398" s="34"/>
-      <c r="D398" s="29"/>
-      <c r="E398" s="31"/>
-      <c r="F398" s="31"/>
-      <c r="G398" s="31"/>
+        <v>609</v>
+      </c>
+      <c r="C398" s="34" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D398" s="29" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E398" s="31">
+        <v>4</v>
+      </c>
+      <c r="F398" s="31">
+        <v>15</v>
+      </c>
+      <c r="G398" s="31">
+        <v>51</v>
+      </c>
       <c r="H398" s="31"/>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="35"/>
       <c r="B399" s="38"/>
       <c r="C399" s="35"/>
-      <c r="D399" s="8"/>
+      <c r="D399" s="8" t="s">
+        <v>1307</v>
+      </c>
       <c r="E399" s="32"/>
       <c r="F399" s="32"/>
       <c r="G399" s="32"/>
@@ -9680,7 +10536,9 @@
       <c r="A400" s="35"/>
       <c r="B400" s="38"/>
       <c r="C400" s="35"/>
-      <c r="D400" s="8"/>
+      <c r="D400" s="8" t="s">
+        <v>1308</v>
+      </c>
       <c r="E400" s="32"/>
       <c r="F400" s="32"/>
       <c r="G400" s="32"/>
@@ -9690,31 +10548,45 @@
       <c r="A401" s="36"/>
       <c r="B401" s="39"/>
       <c r="C401" s="36"/>
-      <c r="D401" s="30"/>
+      <c r="D401" s="30" t="s">
+        <v>1309</v>
+      </c>
       <c r="E401" s="33"/>
       <c r="F401" s="33"/>
       <c r="G401" s="33"/>
       <c r="H401" s="33"/>
     </row>
-    <row r="402" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="34" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B402" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="C402" s="34"/>
-      <c r="D402" s="29"/>
-      <c r="E402" s="31"/>
-      <c r="F402" s="31"/>
-      <c r="G402" s="31"/>
+        <v>611</v>
+      </c>
+      <c r="C402" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D402" s="29" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E402" s="31">
+        <v>4</v>
+      </c>
+      <c r="F402" s="31">
+        <v>16</v>
+      </c>
+      <c r="G402" s="31">
+        <v>53</v>
+      </c>
       <c r="H402" s="31"/>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="35"/>
       <c r="B403" s="38"/>
       <c r="C403" s="35"/>
-      <c r="D403" s="8"/>
+      <c r="D403" s="8" t="s">
+        <v>1311</v>
+      </c>
       <c r="E403" s="32"/>
       <c r="F403" s="32"/>
       <c r="G403" s="32"/>
@@ -9724,7 +10596,9 @@
       <c r="A404" s="35"/>
       <c r="B404" s="38"/>
       <c r="C404" s="35"/>
-      <c r="D404" s="8"/>
+      <c r="D404" s="8" t="s">
+        <v>1312</v>
+      </c>
       <c r="E404" s="32"/>
       <c r="F404" s="32"/>
       <c r="G404" s="32"/>
@@ -9734,7 +10608,9 @@
       <c r="A405" s="36"/>
       <c r="B405" s="39"/>
       <c r="C405" s="36"/>
-      <c r="D405" s="30"/>
+      <c r="D405" s="30" t="s">
+        <v>1313</v>
+      </c>
       <c r="E405" s="33"/>
       <c r="F405" s="33"/>
       <c r="G405" s="33"/>
@@ -9742,10 +10618,10 @@
     </row>
     <row r="406" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="34" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B406" s="37" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C406" s="34"/>
       <c r="D406" s="29"/>
@@ -9784,12 +10660,12 @@
       <c r="G409" s="33"/>
       <c r="H409" s="33"/>
     </row>
-    <row r="410" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="34" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B410" s="37" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C410" s="34"/>
       <c r="D410" s="29"/>
@@ -9830,10 +10706,10 @@
     </row>
     <row r="414" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="34" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B414" s="37" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C414" s="34"/>
       <c r="D414" s="29"/>
@@ -9872,12 +10748,12 @@
       <c r="G417" s="33"/>
       <c r="H417" s="33"/>
     </row>
-    <row r="418" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="34" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B418" s="37" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C418" s="34"/>
       <c r="D418" s="29"/>
@@ -9918,10 +10794,10 @@
     </row>
     <row r="422" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="34" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B422" s="37" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C422" s="34"/>
       <c r="D422" s="29"/>
@@ -9960,12 +10836,12 @@
       <c r="G425" s="33"/>
       <c r="H425" s="33"/>
     </row>
-    <row r="426" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="34" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B426" s="37" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C426" s="34"/>
       <c r="D426" s="29"/>
@@ -10006,10 +10882,10 @@
     </row>
     <row r="430" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="34" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B430" s="37" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C430" s="34"/>
       <c r="D430" s="29"/>
@@ -10048,12 +10924,12 @@
       <c r="G433" s="33"/>
       <c r="H433" s="33"/>
     </row>
-    <row r="434" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="34" t="s">
-        <v>174</v>
+        <v>628</v>
       </c>
       <c r="B434" s="37" t="s">
-        <v>173</v>
+        <v>627</v>
       </c>
       <c r="C434" s="34"/>
       <c r="D434" s="29"/>
@@ -10094,10 +10970,10 @@
     </row>
     <row r="438" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="34" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B438" s="37" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C438" s="34"/>
       <c r="D438" s="29"/>
@@ -10136,12 +11012,12 @@
       <c r="G441" s="33"/>
       <c r="H441" s="33"/>
     </row>
-    <row r="442" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="34" t="s">
-        <v>634</v>
+        <v>174</v>
       </c>
       <c r="B442" s="37" t="s">
-        <v>633</v>
+        <v>173</v>
       </c>
       <c r="C442" s="34"/>
       <c r="D442" s="29"/>
@@ -10182,10 +11058,10 @@
     </row>
     <row r="446" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="34" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B446" s="37" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C446" s="34"/>
       <c r="D446" s="29"/>
@@ -10224,12 +11100,12 @@
       <c r="G449" s="33"/>
       <c r="H449" s="33"/>
     </row>
-    <row r="450" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="34" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B450" s="37" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C450" s="34"/>
       <c r="D450" s="29"/>
@@ -10270,10 +11146,10 @@
     </row>
     <row r="454" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="34" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B454" s="37" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C454" s="34"/>
       <c r="D454" s="29"/>
@@ -10312,12 +11188,12 @@
       <c r="G457" s="33"/>
       <c r="H457" s="33"/>
     </row>
-    <row r="458" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="34" t="s">
-        <v>172</v>
+        <v>638</v>
       </c>
       <c r="B458" s="37" t="s">
-        <v>171</v>
+        <v>637</v>
       </c>
       <c r="C458" s="34"/>
       <c r="D458" s="29"/>
@@ -10358,10 +11234,10 @@
     </row>
     <row r="462" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="34" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B462" s="37" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C462" s="34"/>
       <c r="D462" s="29"/>
@@ -10400,12 +11276,12 @@
       <c r="G465" s="33"/>
       <c r="H465" s="33"/>
     </row>
-    <row r="466" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="34" t="s">
-        <v>644</v>
+        <v>172</v>
       </c>
       <c r="B466" s="37" t="s">
-        <v>643</v>
+        <v>171</v>
       </c>
       <c r="C466" s="34"/>
       <c r="D466" s="29"/>
@@ -10446,10 +11322,10 @@
     </row>
     <row r="470" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="34" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B470" s="37" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C470" s="34"/>
       <c r="D470" s="29"/>
@@ -10488,12 +11364,12 @@
       <c r="G473" s="33"/>
       <c r="H473" s="33"/>
     </row>
-    <row r="474" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="34" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B474" s="37" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C474" s="34"/>
       <c r="D474" s="29"/>
@@ -10534,10 +11410,10 @@
     </row>
     <row r="478" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="34" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B478" s="37" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C478" s="34"/>
       <c r="D478" s="29"/>
@@ -10576,12 +11452,12 @@
       <c r="G481" s="33"/>
       <c r="H481" s="33"/>
     </row>
-    <row r="482" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="34" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B482" s="37" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C482" s="34"/>
       <c r="D482" s="29"/>
@@ -10622,10 +11498,10 @@
     </row>
     <row r="486" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="34" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B486" s="37" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C486" s="34"/>
       <c r="D486" s="29"/>
@@ -10664,12 +11540,12 @@
       <c r="G489" s="33"/>
       <c r="H489" s="33"/>
     </row>
-    <row r="490" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="34" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B490" s="37" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C490" s="34"/>
       <c r="D490" s="29"/>
@@ -10710,10 +11586,10 @@
     </row>
     <row r="494" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="34" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B494" s="37" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C494" s="34"/>
       <c r="D494" s="29"/>
@@ -10754,10 +11630,10 @@
     </row>
     <row r="498" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="34" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B498" s="37" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C498" s="34"/>
       <c r="D498" s="29"/>
@@ -10796,12 +11672,12 @@
       <c r="G501" s="33"/>
       <c r="H501" s="33"/>
     </row>
-    <row r="502" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="34" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B502" s="37" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C502" s="34"/>
       <c r="D502" s="29"/>
@@ -10842,10 +11718,10 @@
     </row>
     <row r="506" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="34" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B506" s="37" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C506" s="34"/>
       <c r="D506" s="29"/>
@@ -10884,12 +11760,12 @@
       <c r="G509" s="33"/>
       <c r="H509" s="33"/>
     </row>
-    <row r="510" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="34" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B510" s="37" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C510" s="34"/>
       <c r="D510" s="29"/>
@@ -10928,12 +11804,12 @@
       <c r="G513" s="33"/>
       <c r="H513" s="33"/>
     </row>
-    <row r="514" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="34" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B514" s="37" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C514" s="34"/>
       <c r="D514" s="29"/>
@@ -10974,10 +11850,10 @@
     </row>
     <row r="518" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="34" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B518" s="37" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C518" s="34"/>
       <c r="D518" s="29"/>
@@ -11016,12 +11892,12 @@
       <c r="G521" s="33"/>
       <c r="H521" s="33"/>
     </row>
-    <row r="522" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="34" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B522" s="37" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C522" s="34"/>
       <c r="D522" s="29"/>
@@ -11060,12 +11936,12 @@
       <c r="G525" s="33"/>
       <c r="H525" s="33"/>
     </row>
-    <row r="526" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="34" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B526" s="37" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C526" s="34"/>
       <c r="D526" s="29"/>
@@ -11106,10 +11982,10 @@
     </row>
     <row r="530" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="34" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B530" s="37" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C530" s="34"/>
       <c r="D530" s="29"/>
@@ -11148,12 +12024,12 @@
       <c r="G533" s="33"/>
       <c r="H533" s="33"/>
     </row>
-    <row r="534" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="34" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B534" s="37" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C534" s="34"/>
       <c r="D534" s="29"/>
@@ -11192,12 +12068,12 @@
       <c r="G537" s="33"/>
       <c r="H537" s="33"/>
     </row>
-    <row r="538" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="34" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B538" s="37" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C538" s="34"/>
       <c r="D538" s="29"/>
@@ -11236,71 +12112,127 @@
       <c r="G541" s="33"/>
       <c r="H541" s="33"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A542" s="17"/>
-      <c r="C542" s="17"/>
-      <c r="F542" s="24"/>
-      <c r="G542" s="24"/>
-      <c r="H542" s="24"/>
+    <row r="542" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A542" s="34" t="s">
+        <v>678</v>
+      </c>
+      <c r="B542" s="37" t="s">
+        <v>677</v>
+      </c>
+      <c r="C542" s="34"/>
+      <c r="D542" s="29"/>
+      <c r="E542" s="31"/>
+      <c r="F542" s="31"/>
+      <c r="G542" s="31"/>
+      <c r="H542" s="31"/>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A543" s="17"/>
-      <c r="C543" s="17"/>
-      <c r="F543" s="24"/>
-      <c r="G543" s="24"/>
-      <c r="H543" s="24"/>
-    </row>
-    <row r="544" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A544" s="17"/>
-      <c r="C544" s="17"/>
-      <c r="F544" s="24"/>
-      <c r="G544" s="24"/>
-      <c r="H544" s="24"/>
-    </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A545" s="17"/>
-      <c r="C545" s="17"/>
-      <c r="F545" s="24"/>
-      <c r="G545" s="24"/>
-      <c r="H545" s="24"/>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A546" s="17"/>
-      <c r="C546" s="17"/>
+      <c r="A543" s="35"/>
+      <c r="B543" s="38"/>
+      <c r="C543" s="35"/>
+      <c r="D543" s="8"/>
+      <c r="E543" s="32"/>
+      <c r="F543" s="32"/>
+      <c r="G543" s="32"/>
+      <c r="H543" s="32"/>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A544" s="35"/>
+      <c r="B544" s="38"/>
+      <c r="C544" s="35"/>
+      <c r="D544" s="8"/>
+      <c r="E544" s="32"/>
+      <c r="F544" s="32"/>
+      <c r="G544" s="32"/>
+      <c r="H544" s="32"/>
+    </row>
+    <row r="545" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A545" s="36"/>
+      <c r="B545" s="39"/>
+      <c r="C545" s="36"/>
+      <c r="D545" s="30"/>
+      <c r="E545" s="33"/>
+      <c r="F545" s="33"/>
+      <c r="G545" s="33"/>
+      <c r="H545" s="33"/>
+    </row>
+    <row r="546" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="B546" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="C546" s="34"/>
+      <c r="D546" s="29"/>
+      <c r="E546" s="31"/>
+      <c r="F546" s="31"/>
+      <c r="G546" s="31"/>
+      <c r="H546" s="31"/>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A547" s="17"/>
-      <c r="C547" s="17"/>
+      <c r="A547" s="35"/>
+      <c r="B547" s="38"/>
+      <c r="C547" s="35"/>
+      <c r="D547" s="8"/>
+      <c r="E547" s="32"/>
+      <c r="F547" s="32"/>
+      <c r="G547" s="32"/>
+      <c r="H547" s="32"/>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A548" s="17"/>
-      <c r="C548" s="17"/>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A549" s="17"/>
-      <c r="C549" s="17"/>
-    </row>
-    <row r="550" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="35"/>
+      <c r="B548" s="38"/>
+      <c r="C548" s="35"/>
+      <c r="D548" s="8"/>
+      <c r="E548" s="32"/>
+      <c r="F548" s="32"/>
+      <c r="G548" s="32"/>
+      <c r="H548" s="32"/>
+    </row>
+    <row r="549" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A549" s="36"/>
+      <c r="B549" s="39"/>
+      <c r="C549" s="36"/>
+      <c r="D549" s="30"/>
+      <c r="E549" s="33"/>
+      <c r="F549" s="33"/>
+      <c r="G549" s="33"/>
+      <c r="H549" s="33"/>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" s="17"/>
       <c r="C550" s="17"/>
+      <c r="F550" s="24"/>
+      <c r="G550" s="24"/>
+      <c r="H550" s="24"/>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" s="17"/>
       <c r="C551" s="17"/>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F551" s="24"/>
+      <c r="G551" s="24"/>
+      <c r="H551" s="24"/>
+    </row>
+    <row r="552" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="17"/>
       <c r="C552" s="17"/>
+      <c r="F552" s="24"/>
+      <c r="G552" s="24"/>
+      <c r="H552" s="24"/>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" s="17"/>
       <c r="C553" s="17"/>
+      <c r="F553" s="24"/>
+      <c r="G553" s="24"/>
+      <c r="H553" s="24"/>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" s="17"/>
       <c r="C554" s="17"/>
     </row>
-    <row r="555" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" s="17"/>
       <c r="C555" s="17"/>
     </row>
@@ -11312,19 +12244,19 @@
       <c r="A557" s="17"/>
       <c r="C557" s="17"/>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="17"/>
       <c r="C558" s="17"/>
     </row>
-    <row r="559" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" s="17"/>
       <c r="C559" s="17"/>
     </row>
-    <row r="560" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" s="17"/>
       <c r="C560" s="17"/>
     </row>
-    <row r="561" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="17"/>
       <c r="C561" s="17"/>
     </row>
@@ -11332,7 +12264,7 @@
       <c r="A562" s="17"/>
       <c r="C562" s="17"/>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="17"/>
       <c r="C563" s="17"/>
     </row>
@@ -11348,15 +12280,15 @@
       <c r="A566" s="17"/>
       <c r="C566" s="17"/>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="17"/>
       <c r="C567" s="17"/>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="17"/>
       <c r="C568" s="17"/>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="17"/>
       <c r="C569" s="17"/>
     </row>
@@ -11580,7 +12512,7 @@
       <c r="A624" s="17"/>
       <c r="C624" s="17"/>
     </row>
-    <row r="625" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" s="17"/>
       <c r="C625" s="17"/>
     </row>
@@ -11591,9 +12523,6 @@
     <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" s="17"/>
       <c r="C627" s="17"/>
-      <c r="F627" s="20"/>
-      <c r="G627" s="20"/>
-      <c r="H627" s="20"/>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" s="17"/>
@@ -11614,11 +12543,8 @@
     <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" s="17"/>
       <c r="C632" s="17"/>
-      <c r="F632" s="20"/>
-      <c r="G632" s="20"/>
-      <c r="H632" s="20"/>
-    </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="633" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="17"/>
       <c r="C633" s="17"/>
     </row>
@@ -11629,13 +12555,13 @@
     <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" s="17"/>
       <c r="C635" s="17"/>
+      <c r="F635" s="20"/>
+      <c r="G635" s="20"/>
+      <c r="H635" s="20"/>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" s="17"/>
       <c r="C636" s="17"/>
-      <c r="F636" s="20"/>
-      <c r="G636" s="20"/>
-      <c r="H636" s="20"/>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" s="17"/>
@@ -11664,19 +12590,16 @@
       <c r="A642" s="17"/>
       <c r="C642" s="17"/>
     </row>
-    <row r="643" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" s="17"/>
-      <c r="B643" s="16"/>
       <c r="C643" s="17"/>
-      <c r="D643" s="12"/>
-      <c r="E643" s="6"/>
-      <c r="F643" s="23"/>
-      <c r="G643" s="23"/>
-      <c r="H643" s="23"/>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" s="17"/>
       <c r="C644" s="17"/>
+      <c r="F644" s="20"/>
+      <c r="G644" s="20"/>
+      <c r="H644" s="20"/>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" s="17"/>
@@ -11690,15 +12613,12 @@
       <c r="A647" s="17"/>
       <c r="C647" s="17"/>
     </row>
-    <row r="648" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" s="17"/>
-      <c r="B648" s="16"/>
       <c r="C648" s="17"/>
-      <c r="D648" s="12"/>
-      <c r="E648" s="6"/>
-      <c r="F648" s="23"/>
-      <c r="G648" s="23"/>
-      <c r="H648" s="23"/>
+      <c r="F648" s="20"/>
+      <c r="G648" s="20"/>
+      <c r="H648" s="20"/>
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" s="17"/>
@@ -11708,19 +12628,19 @@
       <c r="A650" s="17"/>
       <c r="C650" s="17"/>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A651" s="17"/>
+      <c r="B651" s="16"/>
       <c r="C651" s="17"/>
-    </row>
-    <row r="652" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D651" s="12"/>
+      <c r="E651" s="6"/>
+      <c r="F651" s="23"/>
+      <c r="G651" s="23"/>
+      <c r="H651" s="23"/>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" s="17"/>
-      <c r="B652" s="16"/>
       <c r="C652" s="17"/>
-      <c r="D652" s="12"/>
-      <c r="E652" s="6"/>
-      <c r="F652" s="23"/>
-      <c r="G652" s="23"/>
-      <c r="H652" s="23"/>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" s="17"/>
@@ -11744,67 +12664,79 @@
       <c r="G656" s="23"/>
       <c r="H656" s="23"/>
     </row>
-    <row r="657" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" s="17"/>
       <c r="C657" s="17"/>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" s="17"/>
       <c r="C658" s="17"/>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" s="17"/>
       <c r="C659" s="17"/>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A660" s="17"/>
+      <c r="B660" s="16"/>
       <c r="C660" s="17"/>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D660" s="12"/>
+      <c r="E660" s="6"/>
+      <c r="F660" s="23"/>
+      <c r="G660" s="23"/>
+      <c r="H660" s="23"/>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" s="17"/>
       <c r="C661" s="17"/>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" s="17"/>
       <c r="C662" s="17"/>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" s="17"/>
       <c r="C663" s="17"/>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A664" s="17"/>
+      <c r="B664" s="16"/>
       <c r="C664" s="17"/>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D664" s="12"/>
+      <c r="E664" s="6"/>
+      <c r="F664" s="23"/>
+      <c r="G664" s="23"/>
+      <c r="H664" s="23"/>
+    </row>
+    <row r="665" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="17"/>
       <c r="C665" s="17"/>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" s="17"/>
       <c r="C666" s="17"/>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" s="17"/>
       <c r="C667" s="17"/>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" s="17"/>
       <c r="C668" s="17"/>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" s="17"/>
       <c r="C669" s="17"/>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" s="17"/>
       <c r="C670" s="17"/>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" s="17"/>
       <c r="C671" s="17"/>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" s="17"/>
       <c r="C672" s="17"/>
     </row>
@@ -11952,7 +12884,7 @@
       <c r="A708" s="17"/>
       <c r="C708" s="17"/>
     </row>
-    <row r="709" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="17"/>
       <c r="C709" s="17"/>
     </row>
@@ -11968,7 +12900,7 @@
       <c r="A712" s="17"/>
       <c r="C712" s="17"/>
     </row>
-    <row r="713" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="17"/>
       <c r="C713" s="17"/>
     </row>
@@ -11984,7 +12916,7 @@
       <c r="A716" s="17"/>
       <c r="C716" s="17"/>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="17"/>
       <c r="C717" s="17"/>
     </row>
@@ -12000,7 +12932,7 @@
       <c r="A720" s="17"/>
       <c r="C720" s="17"/>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="17"/>
       <c r="C721" s="17"/>
     </row>
@@ -12024,7 +12956,7 @@
       <c r="A726" s="17"/>
       <c r="C726" s="17"/>
     </row>
-    <row r="727" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="17"/>
       <c r="C727" s="17"/>
     </row>
@@ -12056,7 +12988,7 @@
       <c r="A734" s="17"/>
       <c r="C734" s="17"/>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="17"/>
       <c r="C735" s="17"/>
     </row>
@@ -12124,7 +13056,7 @@
       <c r="A751" s="17"/>
       <c r="C751" s="17"/>
     </row>
-    <row r="752" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="17"/>
       <c r="C752" s="17"/>
     </row>
@@ -12148,7 +13080,7 @@
       <c r="A757" s="17"/>
       <c r="C757" s="17"/>
     </row>
-    <row r="758" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="17"/>
       <c r="C758" s="17"/>
     </row>
@@ -12156,7 +13088,7 @@
       <c r="A759" s="17"/>
       <c r="C759" s="17"/>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="17"/>
       <c r="C760" s="17"/>
     </row>
@@ -12172,7 +13104,7 @@
       <c r="A763" s="17"/>
       <c r="C763" s="17"/>
     </row>
-    <row r="764" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="17"/>
       <c r="C764" s="17"/>
     </row>
@@ -12180,7 +13112,7 @@
       <c r="A765" s="17"/>
       <c r="C765" s="17"/>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="17"/>
       <c r="C766" s="17"/>
     </row>
@@ -12196,7 +13128,7 @@
       <c r="A769" s="17"/>
       <c r="C769" s="17"/>
     </row>
-    <row r="770" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="17"/>
       <c r="C770" s="17"/>
     </row>
@@ -12204,7 +13136,7 @@
       <c r="A771" s="17"/>
       <c r="C771" s="17"/>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="17"/>
       <c r="C772" s="17"/>
     </row>
@@ -12228,7 +13160,7 @@
       <c r="A777" s="17"/>
       <c r="C777" s="17"/>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="17"/>
       <c r="C778" s="17"/>
     </row>
@@ -12276,7 +13208,7 @@
       <c r="A789" s="17"/>
       <c r="C789" s="17"/>
     </row>
-    <row r="790" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="17"/>
       <c r="C790" s="17"/>
     </row>
@@ -12296,7 +13228,7 @@
       <c r="A794" s="17"/>
       <c r="C794" s="17"/>
     </row>
-    <row r="795" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="17"/>
       <c r="C795" s="17"/>
     </row>
@@ -12308,11 +13240,11 @@
       <c r="A797" s="17"/>
       <c r="C797" s="17"/>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="17"/>
       <c r="C798" s="17"/>
     </row>
-    <row r="799" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="17"/>
       <c r="C799" s="17"/>
     </row>
@@ -12328,11 +13260,11 @@
       <c r="A802" s="17"/>
       <c r="C802" s="17"/>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="17"/>
       <c r="C803" s="17"/>
     </row>
-    <row r="804" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="17"/>
       <c r="C804" s="17"/>
     </row>
@@ -12344,11 +13276,11 @@
       <c r="A806" s="17"/>
       <c r="C806" s="17"/>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="17"/>
       <c r="C807" s="17"/>
     </row>
-    <row r="808" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="17"/>
       <c r="C808" s="17"/>
     </row>
@@ -12392,11 +13324,11 @@
       <c r="A818" s="17"/>
       <c r="C818" s="17"/>
     </row>
-    <row r="819" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="17"/>
       <c r="C819" s="17"/>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="17"/>
       <c r="C820" s="17"/>
     </row>
@@ -12408,11 +13340,11 @@
       <c r="A822" s="17"/>
       <c r="C822" s="17"/>
     </row>
-    <row r="823" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="17"/>
       <c r="C823" s="17"/>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="17"/>
       <c r="C824" s="17"/>
     </row>
@@ -12440,7 +13372,7 @@
       <c r="A830" s="17"/>
       <c r="C830" s="17"/>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="17"/>
       <c r="C831" s="17"/>
     </row>
@@ -12456,7 +13388,7 @@
       <c r="A834" s="17"/>
       <c r="C834" s="17"/>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="17"/>
       <c r="C835" s="17"/>
     </row>
@@ -12504,7 +13436,7 @@
       <c r="A846" s="17"/>
       <c r="C846" s="17"/>
     </row>
-    <row r="847" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" s="17"/>
       <c r="C847" s="17"/>
     </row>
@@ -12528,7 +13460,7 @@
       <c r="A852" s="17"/>
       <c r="C852" s="17"/>
     </row>
-    <row r="853" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A853" s="17"/>
       <c r="C853" s="17"/>
     </row>
@@ -12536,7 +13468,7 @@
       <c r="A854" s="17"/>
       <c r="C854" s="17"/>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="17"/>
       <c r="C855" s="17"/>
     </row>
@@ -12552,7 +13484,7 @@
       <c r="A858" s="17"/>
       <c r="C858" s="17"/>
     </row>
-    <row r="859" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A859" s="17"/>
       <c r="C859" s="17"/>
     </row>
@@ -12560,7 +13492,7 @@
       <c r="A860" s="17"/>
       <c r="C860" s="17"/>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="17"/>
       <c r="C861" s="17"/>
     </row>
@@ -12576,7 +13508,7 @@
       <c r="A864" s="17"/>
       <c r="C864" s="17"/>
     </row>
-    <row r="865" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865" s="17"/>
       <c r="C865" s="17"/>
     </row>
@@ -12584,7 +13516,7 @@
       <c r="A866" s="17"/>
       <c r="C866" s="17"/>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="17"/>
       <c r="C867" s="17"/>
     </row>
@@ -12592,7 +13524,7 @@
       <c r="A868" s="17"/>
       <c r="C868" s="17"/>
     </row>
-    <row r="869" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869" s="17"/>
       <c r="C869" s="17"/>
     </row>
@@ -12608,11 +13540,11 @@
       <c r="A872" s="17"/>
       <c r="C872" s="17"/>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="17"/>
       <c r="C873" s="17"/>
     </row>
-    <row r="874" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A874" s="17"/>
       <c r="C874" s="17"/>
     </row>
@@ -12644,7 +13576,7 @@
       <c r="A881" s="17"/>
       <c r="C881" s="17"/>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="17"/>
       <c r="C882" s="17"/>
     </row>
@@ -12656,7 +13588,7 @@
       <c r="A884" s="17"/>
       <c r="C884" s="17"/>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="17"/>
       <c r="C885" s="17"/>
     </row>
@@ -12676,7 +13608,7 @@
       <c r="A889" s="17"/>
       <c r="C889" s="17"/>
     </row>
-    <row r="890" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A890" s="17"/>
       <c r="C890" s="17"/>
     </row>
@@ -12708,7 +13640,7 @@
       <c r="A897" s="17"/>
       <c r="C897" s="17"/>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="17"/>
       <c r="C898" s="17"/>
     </row>
@@ -12732,7 +13664,7 @@
       <c r="A903" s="17"/>
       <c r="C903" s="17"/>
     </row>
-    <row r="904" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A904" s="17"/>
       <c r="C904" s="17"/>
     </row>
@@ -12744,7 +13676,7 @@
       <c r="A906" s="17"/>
       <c r="C906" s="17"/>
     </row>
-    <row r="907" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A907" s="17"/>
       <c r="C907" s="17"/>
     </row>
@@ -12760,11 +13692,11 @@
       <c r="A910" s="17"/>
       <c r="C910" s="17"/>
     </row>
-    <row r="911" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A911" s="17"/>
       <c r="C911" s="17"/>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="17"/>
       <c r="C912" s="17"/>
     </row>
@@ -12776,11 +13708,11 @@
       <c r="A914" s="17"/>
       <c r="C914" s="17"/>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="17"/>
       <c r="C915" s="17"/>
     </row>
-    <row r="916" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A916" s="17"/>
       <c r="C916" s="17"/>
     </row>
@@ -12792,7 +13724,7 @@
       <c r="A918" s="17"/>
       <c r="C918" s="17"/>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="17"/>
       <c r="C919" s="17"/>
     </row>
@@ -12804,7 +13736,7 @@
       <c r="A921" s="17"/>
       <c r="C921" s="17"/>
     </row>
-    <row r="922" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A922" s="17"/>
       <c r="C922" s="17"/>
     </row>
@@ -12812,7 +13744,7 @@
       <c r="A923" s="17"/>
       <c r="C923" s="17"/>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="17"/>
       <c r="C924" s="17"/>
     </row>
@@ -12832,113 +13764,83 @@
       <c r="A928" s="17"/>
       <c r="C928" s="17"/>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A929" s="17"/>
       <c r="C929" s="17"/>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="17"/>
       <c r="C930" s="17"/>
     </row>
-    <row r="931" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A931" s="17"/>
       <c r="C931" s="17"/>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A932" s="17"/>
       <c r="C932" s="17"/>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A933" s="17"/>
       <c r="C933" s="17"/>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A934" s="17"/>
       <c r="C934" s="17"/>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A935" s="17"/>
       <c r="C935" s="17"/>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A936" s="17"/>
       <c r="C936" s="17"/>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A937" s="17"/>
       <c r="C937" s="17"/>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A938" s="17"/>
       <c r="C938" s="17"/>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="17"/>
       <c r="C939" s="17"/>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A940" s="17"/>
       <c r="C940" s="17"/>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A941" s="17"/>
       <c r="C941" s="17"/>
     </row>
-    <row r="942" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A942" s="17"/>
-      <c r="B942" s="16"/>
       <c r="C942" s="17"/>
-      <c r="D942" s="12"/>
-      <c r="E942" s="6"/>
-      <c r="F942" s="20"/>
-      <c r="G942" s="20"/>
-      <c r="H942" s="20"/>
-    </row>
-    <row r="943" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A943" s="17"/>
-      <c r="B943" s="16"/>
       <c r="C943" s="17"/>
-      <c r="D943" s="12"/>
-      <c r="E943" s="6"/>
-      <c r="F943" s="20"/>
-      <c r="G943" s="20"/>
-      <c r="H943" s="20"/>
-    </row>
-    <row r="944" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A944" s="17"/>
-      <c r="B944" s="16"/>
       <c r="C944" s="17"/>
-      <c r="D944" s="12"/>
-      <c r="E944" s="6"/>
-      <c r="F944" s="20"/>
-      <c r="G944" s="20"/>
-      <c r="H944" s="20"/>
-    </row>
-    <row r="945" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A945" s="17"/>
-      <c r="B945" s="16"/>
       <c r="C945" s="17"/>
-      <c r="D945" s="12"/>
-      <c r="E945" s="6"/>
-      <c r="F945" s="20"/>
-      <c r="G945" s="20"/>
-      <c r="H945" s="20"/>
-    </row>
-    <row r="946" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A946" s="17"/>
-      <c r="B946" s="16"/>
       <c r="C946" s="17"/>
-      <c r="D946" s="12"/>
-      <c r="E946" s="6"/>
-      <c r="F946" s="20"/>
-      <c r="G946" s="20"/>
-      <c r="H946" s="20"/>
-    </row>
-    <row r="947" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A947" s="17"/>
       <c r="C947" s="17"/>
     </row>
-    <row r="948" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A948" s="17"/>
       <c r="C948" s="17"/>
     </row>
@@ -12946,31 +13848,61 @@
       <c r="A949" s="17"/>
       <c r="C949" s="17"/>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A950" s="17"/>
+      <c r="B950" s="16"/>
       <c r="C950" s="17"/>
-    </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D950" s="12"/>
+      <c r="E950" s="6"/>
+      <c r="F950" s="20"/>
+      <c r="G950" s="20"/>
+      <c r="H950" s="20"/>
+    </row>
+    <row r="951" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A951" s="17"/>
+      <c r="B951" s="16"/>
       <c r="C951" s="17"/>
-    </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D951" s="12"/>
+      <c r="E951" s="6"/>
+      <c r="F951" s="20"/>
+      <c r="G951" s="20"/>
+      <c r="H951" s="20"/>
+    </row>
+    <row r="952" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A952" s="17"/>
+      <c r="B952" s="16"/>
       <c r="C952" s="17"/>
-    </row>
-    <row r="953" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D952" s="12"/>
+      <c r="E952" s="6"/>
+      <c r="F952" s="20"/>
+      <c r="G952" s="20"/>
+      <c r="H952" s="20"/>
+    </row>
+    <row r="953" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A953" s="17"/>
+      <c r="B953" s="16"/>
       <c r="C953" s="17"/>
-    </row>
-    <row r="954" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D953" s="12"/>
+      <c r="E953" s="6"/>
+      <c r="F953" s="20"/>
+      <c r="G953" s="20"/>
+      <c r="H953" s="20"/>
+    </row>
+    <row r="954" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A954" s="17"/>
+      <c r="B954" s="16"/>
       <c r="C954" s="17"/>
-    </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D954" s="12"/>
+      <c r="E954" s="6"/>
+      <c r="F954" s="20"/>
+      <c r="G954" s="20"/>
+      <c r="H954" s="20"/>
+    </row>
+    <row r="955" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="17"/>
       <c r="C955" s="17"/>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="17"/>
       <c r="C956" s="17"/>
     </row>
@@ -12986,141 +13918,93 @@
       <c r="A959" s="17"/>
       <c r="C959" s="17"/>
     </row>
-    <row r="960" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A960" s="17"/>
       <c r="C960" s="17"/>
     </row>
-    <row r="961" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="17"/>
       <c r="C961" s="17"/>
     </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="17"/>
       <c r="C962" s="17"/>
     </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A963" s="17"/>
       <c r="C963" s="17"/>
     </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A964" s="17"/>
       <c r="C964" s="17"/>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A965" s="17"/>
       <c r="C965" s="17"/>
     </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A966" s="17"/>
       <c r="C966" s="17"/>
     </row>
-    <row r="967" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A967" s="17"/>
       <c r="C967" s="17"/>
     </row>
-    <row r="968" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="17"/>
       <c r="C968" s="17"/>
     </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="17"/>
       <c r="C969" s="17"/>
     </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A970" s="17"/>
       <c r="C970" s="17"/>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A971" s="17"/>
       <c r="C971" s="17"/>
     </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A972" s="17"/>
       <c r="C972" s="17"/>
     </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A973" s="17"/>
       <c r="C973" s="17"/>
     </row>
-    <row r="974" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A974" s="17"/>
-      <c r="B974" s="16"/>
       <c r="C974" s="17"/>
-      <c r="D974" s="12"/>
-      <c r="E974" s="6"/>
-      <c r="F974" s="20"/>
-      <c r="G974" s="20"/>
-      <c r="H974" s="20"/>
-    </row>
-    <row r="975" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="975" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="17"/>
-      <c r="B975" s="16"/>
       <c r="C975" s="17"/>
-      <c r="D975" s="12"/>
-      <c r="E975" s="6"/>
-      <c r="F975" s="20"/>
-      <c r="G975" s="20"/>
-      <c r="H975" s="20"/>
-    </row>
-    <row r="976" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="976" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="17"/>
-      <c r="B976" s="16"/>
       <c r="C976" s="17"/>
-      <c r="D976" s="12"/>
-      <c r="E976" s="6"/>
-      <c r="F976" s="20"/>
-      <c r="G976" s="20"/>
-      <c r="H976" s="20"/>
-    </row>
-    <row r="977" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A977" s="17"/>
-      <c r="B977" s="16"/>
       <c r="C977" s="17"/>
-      <c r="D977" s="12"/>
-      <c r="E977" s="6"/>
-      <c r="F977" s="20"/>
-      <c r="G977" s="20"/>
-      <c r="H977" s="20"/>
-    </row>
-    <row r="978" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="978" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A978" s="17"/>
-      <c r="B978" s="16"/>
       <c r="C978" s="17"/>
-      <c r="D978" s="12"/>
-      <c r="E978" s="6"/>
-      <c r="F978" s="20"/>
-      <c r="G978" s="20"/>
-      <c r="H978" s="20"/>
-    </row>
-    <row r="979" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="979" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A979" s="17"/>
-      <c r="B979" s="16"/>
       <c r="C979" s="17"/>
-      <c r="D979" s="12"/>
-      <c r="E979" s="6"/>
-      <c r="F979" s="20"/>
-      <c r="G979" s="20"/>
-      <c r="H979" s="20"/>
-    </row>
-    <row r="980" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="980" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A980" s="17"/>
-      <c r="B980" s="16"/>
       <c r="C980" s="17"/>
-      <c r="D980" s="12"/>
-      <c r="E980" s="6"/>
-      <c r="F980" s="20"/>
-      <c r="G980" s="20"/>
-      <c r="H980" s="20"/>
-    </row>
-    <row r="981" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="981" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A981" s="17"/>
-      <c r="B981" s="16"/>
       <c r="C981" s="17"/>
-      <c r="D981" s="12"/>
-      <c r="E981" s="6"/>
-      <c r="F981" s="20"/>
-      <c r="G981" s="20"/>
-      <c r="H981" s="20"/>
     </row>
     <row r="982" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A982" s="17"/>
@@ -13302,665 +14186,362 @@
       <c r="G999" s="20"/>
       <c r="H999" s="20"/>
     </row>
+    <row r="1000" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1000" s="17"/>
+      <c r="B1000" s="16"/>
+      <c r="C1000" s="17"/>
+      <c r="D1000" s="12"/>
+      <c r="E1000" s="6"/>
+      <c r="F1000" s="20"/>
+      <c r="G1000" s="20"/>
+      <c r="H1000" s="20"/>
+    </row>
+    <row r="1001" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1001" s="17"/>
+      <c r="B1001" s="16"/>
+      <c r="C1001" s="17"/>
+      <c r="D1001" s="12"/>
+      <c r="E1001" s="6"/>
+      <c r="F1001" s="20"/>
+      <c r="G1001" s="20"/>
+      <c r="H1001" s="20"/>
+    </row>
+    <row r="1002" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1002" s="17"/>
+      <c r="B1002" s="16"/>
+      <c r="C1002" s="17"/>
+      <c r="D1002" s="12"/>
+      <c r="E1002" s="6"/>
+      <c r="F1002" s="20"/>
+      <c r="G1002" s="20"/>
+      <c r="H1002" s="20"/>
+    </row>
+    <row r="1003" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1003" s="17"/>
+      <c r="B1003" s="16"/>
+      <c r="C1003" s="17"/>
+      <c r="D1003" s="12"/>
+      <c r="E1003" s="6"/>
+      <c r="F1003" s="20"/>
+      <c r="G1003" s="20"/>
+      <c r="H1003" s="20"/>
+    </row>
+    <row r="1004" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1004" s="17"/>
+      <c r="B1004" s="16"/>
+      <c r="C1004" s="17"/>
+      <c r="D1004" s="12"/>
+      <c r="E1004" s="6"/>
+      <c r="F1004" s="20"/>
+      <c r="G1004" s="20"/>
+      <c r="H1004" s="20"/>
+    </row>
+    <row r="1005" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1005" s="17"/>
+      <c r="B1005" s="16"/>
+      <c r="C1005" s="17"/>
+      <c r="D1005" s="12"/>
+      <c r="E1005" s="6"/>
+      <c r="F1005" s="20"/>
+      <c r="G1005" s="20"/>
+      <c r="H1005" s="20"/>
+    </row>
+    <row r="1006" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1006" s="17"/>
+      <c r="B1006" s="16"/>
+      <c r="C1006" s="17"/>
+      <c r="D1006" s="12"/>
+      <c r="E1006" s="6"/>
+      <c r="F1006" s="20"/>
+      <c r="G1006" s="20"/>
+      <c r="H1006" s="20"/>
+    </row>
+    <row r="1007" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1007" s="17"/>
+      <c r="B1007" s="16"/>
+      <c r="C1007" s="17"/>
+      <c r="D1007" s="12"/>
+      <c r="E1007" s="6"/>
+      <c r="F1007" s="20"/>
+      <c r="G1007" s="20"/>
+      <c r="H1007" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="945">
-    <mergeCell ref="F530:F533"/>
-    <mergeCell ref="G530:G533"/>
-    <mergeCell ref="H530:H533"/>
-    <mergeCell ref="F534:F537"/>
-    <mergeCell ref="G534:G537"/>
-    <mergeCell ref="H534:H537"/>
-    <mergeCell ref="F538:F541"/>
-    <mergeCell ref="G538:G541"/>
-    <mergeCell ref="H538:H541"/>
-    <mergeCell ref="F518:F521"/>
-    <mergeCell ref="G518:G521"/>
-    <mergeCell ref="H518:H521"/>
-    <mergeCell ref="F522:F525"/>
-    <mergeCell ref="G522:G525"/>
-    <mergeCell ref="H522:H525"/>
-    <mergeCell ref="F526:F529"/>
-    <mergeCell ref="G526:G529"/>
-    <mergeCell ref="H526:H529"/>
-    <mergeCell ref="F506:F509"/>
-    <mergeCell ref="G506:G509"/>
-    <mergeCell ref="H506:H509"/>
-    <mergeCell ref="F510:F513"/>
-    <mergeCell ref="G510:G513"/>
-    <mergeCell ref="H510:H513"/>
-    <mergeCell ref="F514:F517"/>
-    <mergeCell ref="G514:G517"/>
-    <mergeCell ref="H514:H517"/>
-    <mergeCell ref="F494:F497"/>
-    <mergeCell ref="G494:G497"/>
-    <mergeCell ref="H494:H497"/>
-    <mergeCell ref="F498:F501"/>
-    <mergeCell ref="G498:G501"/>
-    <mergeCell ref="H498:H501"/>
-    <mergeCell ref="F502:F505"/>
-    <mergeCell ref="G502:G505"/>
-    <mergeCell ref="H502:H505"/>
-    <mergeCell ref="F482:F485"/>
-    <mergeCell ref="G482:G485"/>
-    <mergeCell ref="H482:H485"/>
-    <mergeCell ref="F486:F489"/>
-    <mergeCell ref="G486:G489"/>
-    <mergeCell ref="H486:H489"/>
-    <mergeCell ref="F490:F493"/>
-    <mergeCell ref="G490:G493"/>
-    <mergeCell ref="H490:H493"/>
-    <mergeCell ref="F470:F473"/>
-    <mergeCell ref="G470:G473"/>
-    <mergeCell ref="H470:H473"/>
-    <mergeCell ref="F474:F477"/>
-    <mergeCell ref="G474:G477"/>
-    <mergeCell ref="H474:H477"/>
-    <mergeCell ref="F478:F481"/>
-    <mergeCell ref="G478:G481"/>
-    <mergeCell ref="H478:H481"/>
-    <mergeCell ref="F458:F461"/>
-    <mergeCell ref="G458:G461"/>
-    <mergeCell ref="H458:H461"/>
-    <mergeCell ref="F462:F465"/>
-    <mergeCell ref="G462:G465"/>
-    <mergeCell ref="H462:H465"/>
-    <mergeCell ref="F466:F469"/>
-    <mergeCell ref="G466:G469"/>
-    <mergeCell ref="H466:H469"/>
-    <mergeCell ref="F446:F449"/>
-    <mergeCell ref="G446:G449"/>
-    <mergeCell ref="H446:H449"/>
-    <mergeCell ref="F450:F453"/>
-    <mergeCell ref="G450:G453"/>
-    <mergeCell ref="H450:H453"/>
-    <mergeCell ref="F454:F457"/>
-    <mergeCell ref="G454:G457"/>
-    <mergeCell ref="H454:H457"/>
-    <mergeCell ref="F434:F437"/>
-    <mergeCell ref="G434:G437"/>
-    <mergeCell ref="H434:H437"/>
-    <mergeCell ref="F438:F441"/>
-    <mergeCell ref="G438:G441"/>
-    <mergeCell ref="H438:H441"/>
-    <mergeCell ref="F442:F445"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="H442:H445"/>
-    <mergeCell ref="F422:F425"/>
-    <mergeCell ref="G422:G425"/>
-    <mergeCell ref="H422:H425"/>
-    <mergeCell ref="F426:F429"/>
-    <mergeCell ref="G426:G429"/>
-    <mergeCell ref="H426:H429"/>
-    <mergeCell ref="F430:F433"/>
-    <mergeCell ref="G430:G433"/>
-    <mergeCell ref="H430:H433"/>
-    <mergeCell ref="F410:F413"/>
-    <mergeCell ref="G410:G413"/>
-    <mergeCell ref="H410:H413"/>
-    <mergeCell ref="F414:F417"/>
-    <mergeCell ref="G414:G417"/>
-    <mergeCell ref="H414:H417"/>
-    <mergeCell ref="F418:F421"/>
-    <mergeCell ref="G418:G421"/>
-    <mergeCell ref="H418:H421"/>
-    <mergeCell ref="F398:F401"/>
-    <mergeCell ref="G398:G401"/>
-    <mergeCell ref="H398:H401"/>
-    <mergeCell ref="F402:F405"/>
-    <mergeCell ref="G402:G405"/>
-    <mergeCell ref="H402:H405"/>
-    <mergeCell ref="F406:F409"/>
-    <mergeCell ref="G406:G409"/>
-    <mergeCell ref="H406:H409"/>
-    <mergeCell ref="F386:F389"/>
-    <mergeCell ref="G386:G389"/>
-    <mergeCell ref="H386:H389"/>
-    <mergeCell ref="F390:F393"/>
-    <mergeCell ref="G390:G393"/>
-    <mergeCell ref="H390:H393"/>
-    <mergeCell ref="F394:F397"/>
-    <mergeCell ref="G394:G397"/>
-    <mergeCell ref="H394:H397"/>
-    <mergeCell ref="F374:F377"/>
-    <mergeCell ref="G374:G377"/>
-    <mergeCell ref="H374:H377"/>
-    <mergeCell ref="F378:F381"/>
-    <mergeCell ref="G378:G381"/>
-    <mergeCell ref="H378:H381"/>
-    <mergeCell ref="F382:F385"/>
-    <mergeCell ref="G382:G385"/>
-    <mergeCell ref="H382:H385"/>
-    <mergeCell ref="F362:F365"/>
-    <mergeCell ref="G362:G365"/>
-    <mergeCell ref="H362:H365"/>
-    <mergeCell ref="F366:F369"/>
-    <mergeCell ref="G366:G369"/>
-    <mergeCell ref="H366:H369"/>
-    <mergeCell ref="F370:F373"/>
-    <mergeCell ref="G370:G373"/>
-    <mergeCell ref="H370:H373"/>
-    <mergeCell ref="F350:F353"/>
-    <mergeCell ref="G350:G353"/>
-    <mergeCell ref="H350:H353"/>
-    <mergeCell ref="F354:F357"/>
-    <mergeCell ref="G354:G357"/>
-    <mergeCell ref="H354:H357"/>
-    <mergeCell ref="F358:F361"/>
-    <mergeCell ref="G358:G361"/>
-    <mergeCell ref="H358:H361"/>
-    <mergeCell ref="F338:F341"/>
-    <mergeCell ref="G338:G341"/>
-    <mergeCell ref="H338:H341"/>
-    <mergeCell ref="F342:F345"/>
-    <mergeCell ref="G342:G345"/>
-    <mergeCell ref="H342:H345"/>
-    <mergeCell ref="F346:F349"/>
-    <mergeCell ref="G346:G349"/>
-    <mergeCell ref="H346:H349"/>
-    <mergeCell ref="F326:F329"/>
-    <mergeCell ref="G326:G329"/>
-    <mergeCell ref="H326:H329"/>
-    <mergeCell ref="F330:F333"/>
-    <mergeCell ref="G330:G333"/>
-    <mergeCell ref="H330:H333"/>
-    <mergeCell ref="F334:F337"/>
-    <mergeCell ref="G334:G337"/>
-    <mergeCell ref="H334:H337"/>
-    <mergeCell ref="F314:F317"/>
-    <mergeCell ref="G314:G317"/>
-    <mergeCell ref="H314:H317"/>
-    <mergeCell ref="F318:F321"/>
-    <mergeCell ref="G318:G321"/>
-    <mergeCell ref="H318:H321"/>
-    <mergeCell ref="F322:F325"/>
-    <mergeCell ref="G322:G325"/>
-    <mergeCell ref="H322:H325"/>
-    <mergeCell ref="F302:F305"/>
-    <mergeCell ref="G302:G305"/>
-    <mergeCell ref="H302:H305"/>
-    <mergeCell ref="F306:F309"/>
-    <mergeCell ref="G306:G309"/>
-    <mergeCell ref="H306:H309"/>
-    <mergeCell ref="F310:F313"/>
-    <mergeCell ref="G310:G313"/>
-    <mergeCell ref="H310:H313"/>
-    <mergeCell ref="F290:F293"/>
-    <mergeCell ref="G290:G293"/>
-    <mergeCell ref="H290:H293"/>
-    <mergeCell ref="F294:F297"/>
-    <mergeCell ref="G294:G297"/>
-    <mergeCell ref="H294:H297"/>
-    <mergeCell ref="F298:F301"/>
-    <mergeCell ref="G298:G301"/>
-    <mergeCell ref="H298:H301"/>
-    <mergeCell ref="F278:F281"/>
-    <mergeCell ref="G278:G281"/>
-    <mergeCell ref="H278:H281"/>
-    <mergeCell ref="F282:F285"/>
-    <mergeCell ref="G282:G285"/>
-    <mergeCell ref="H282:H285"/>
-    <mergeCell ref="F286:F289"/>
-    <mergeCell ref="G286:G289"/>
-    <mergeCell ref="H286:H289"/>
-    <mergeCell ref="F266:F269"/>
-    <mergeCell ref="G266:G269"/>
-    <mergeCell ref="H266:H269"/>
-    <mergeCell ref="F270:F273"/>
-    <mergeCell ref="G270:G273"/>
-    <mergeCell ref="H270:H273"/>
-    <mergeCell ref="F274:F277"/>
-    <mergeCell ref="G274:G277"/>
-    <mergeCell ref="H274:H277"/>
-    <mergeCell ref="F254:F257"/>
-    <mergeCell ref="G254:G257"/>
-    <mergeCell ref="H254:H257"/>
-    <mergeCell ref="F258:F261"/>
-    <mergeCell ref="G258:G261"/>
-    <mergeCell ref="H258:H261"/>
-    <mergeCell ref="F262:F265"/>
-    <mergeCell ref="G262:G265"/>
-    <mergeCell ref="H262:H265"/>
-    <mergeCell ref="F242:F245"/>
-    <mergeCell ref="G242:G245"/>
-    <mergeCell ref="H242:H245"/>
-    <mergeCell ref="F246:F249"/>
-    <mergeCell ref="G246:G249"/>
-    <mergeCell ref="H246:H249"/>
-    <mergeCell ref="F250:F253"/>
-    <mergeCell ref="G250:G253"/>
-    <mergeCell ref="H250:H253"/>
-    <mergeCell ref="F232:F235"/>
-    <mergeCell ref="G232:G235"/>
-    <mergeCell ref="H232:H235"/>
-    <mergeCell ref="F236:F238"/>
-    <mergeCell ref="G236:G238"/>
-    <mergeCell ref="H236:H238"/>
-    <mergeCell ref="F239:F241"/>
-    <mergeCell ref="G239:G241"/>
-    <mergeCell ref="H239:H241"/>
-    <mergeCell ref="F220:F223"/>
-    <mergeCell ref="G220:G223"/>
-    <mergeCell ref="H220:H223"/>
-    <mergeCell ref="F224:F227"/>
-    <mergeCell ref="G224:G227"/>
-    <mergeCell ref="H224:H227"/>
-    <mergeCell ref="F228:F231"/>
-    <mergeCell ref="G228:G231"/>
-    <mergeCell ref="H228:H231"/>
-    <mergeCell ref="F208:F211"/>
-    <mergeCell ref="G208:G211"/>
-    <mergeCell ref="H208:H211"/>
-    <mergeCell ref="F212:F215"/>
-    <mergeCell ref="G212:G215"/>
-    <mergeCell ref="H212:H215"/>
-    <mergeCell ref="F216:F219"/>
-    <mergeCell ref="G216:G219"/>
-    <mergeCell ref="H216:H219"/>
-    <mergeCell ref="F196:F199"/>
-    <mergeCell ref="G196:G199"/>
-    <mergeCell ref="H196:H199"/>
-    <mergeCell ref="F200:F203"/>
-    <mergeCell ref="G200:G203"/>
-    <mergeCell ref="H200:H203"/>
-    <mergeCell ref="F204:F207"/>
-    <mergeCell ref="G204:G207"/>
-    <mergeCell ref="H204:H207"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="H184:H187"/>
-    <mergeCell ref="F188:F191"/>
-    <mergeCell ref="G188:G191"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="F192:F195"/>
-    <mergeCell ref="G192:G195"/>
-    <mergeCell ref="H192:H195"/>
-    <mergeCell ref="F171:F174"/>
-    <mergeCell ref="G171:G174"/>
-    <mergeCell ref="H171:H174"/>
-    <mergeCell ref="F175:F178"/>
-    <mergeCell ref="G175:G178"/>
-    <mergeCell ref="H175:H178"/>
-    <mergeCell ref="F179:F183"/>
-    <mergeCell ref="G179:G183"/>
-    <mergeCell ref="H179:H183"/>
-    <mergeCell ref="F159:F162"/>
-    <mergeCell ref="G159:G162"/>
-    <mergeCell ref="H159:H162"/>
-    <mergeCell ref="F163:F166"/>
-    <mergeCell ref="G163:G166"/>
-    <mergeCell ref="H163:H166"/>
-    <mergeCell ref="F167:F170"/>
-    <mergeCell ref="G167:G170"/>
-    <mergeCell ref="H167:H170"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="G148:G151"/>
-    <mergeCell ref="H148:H151"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="G152:G154"/>
-    <mergeCell ref="H152:H154"/>
-    <mergeCell ref="F155:F158"/>
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="F136:F139"/>
-    <mergeCell ref="G136:G139"/>
-    <mergeCell ref="H136:H139"/>
-    <mergeCell ref="F140:F143"/>
-    <mergeCell ref="G140:G143"/>
-    <mergeCell ref="H140:H143"/>
-    <mergeCell ref="F144:F147"/>
-    <mergeCell ref="G144:G147"/>
-    <mergeCell ref="H144:H147"/>
-    <mergeCell ref="F123:F126"/>
-    <mergeCell ref="G123:G126"/>
-    <mergeCell ref="H123:H126"/>
-    <mergeCell ref="F127:F130"/>
-    <mergeCell ref="G127:G130"/>
-    <mergeCell ref="H127:H130"/>
-    <mergeCell ref="F131:F135"/>
-    <mergeCell ref="G131:G135"/>
-    <mergeCell ref="H131:H135"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:G118"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="F119:F122"/>
-    <mergeCell ref="G119:G122"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="F99:F102"/>
-    <mergeCell ref="G99:G102"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="G107:G110"/>
-    <mergeCell ref="H107:H110"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="G87:G90"/>
-    <mergeCell ref="H87:H90"/>
-    <mergeCell ref="F91:F94"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="H91:H94"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="G79:G82"/>
-    <mergeCell ref="H79:H82"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="G83:G86"/>
-    <mergeCell ref="H83:H86"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A139"/>
-    <mergeCell ref="A140:A143"/>
-    <mergeCell ref="A144:A147"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A171:A174"/>
-    <mergeCell ref="A175:A178"/>
-    <mergeCell ref="A179:A183"/>
-    <mergeCell ref="A184:A187"/>
-    <mergeCell ref="A188:A191"/>
-    <mergeCell ref="A192:A195"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A167:A170"/>
-    <mergeCell ref="A220:A223"/>
-    <mergeCell ref="A224:A227"/>
-    <mergeCell ref="A228:A231"/>
-    <mergeCell ref="A232:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A196:A199"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="A266:A269"/>
-    <mergeCell ref="A270:A273"/>
-    <mergeCell ref="A274:A277"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="A286:A289"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="A254:A257"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="A262:A265"/>
-    <mergeCell ref="A314:A317"/>
-    <mergeCell ref="A318:A321"/>
-    <mergeCell ref="A322:A325"/>
-    <mergeCell ref="A326:A329"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="A334:A337"/>
-    <mergeCell ref="A290:A293"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="A298:A301"/>
-    <mergeCell ref="A302:A305"/>
-    <mergeCell ref="A306:A309"/>
-    <mergeCell ref="A310:A313"/>
-    <mergeCell ref="A362:A365"/>
-    <mergeCell ref="A366:A369"/>
-    <mergeCell ref="A370:A373"/>
-    <mergeCell ref="B370:B373"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="A378:A381"/>
-    <mergeCell ref="A338:A341"/>
-    <mergeCell ref="A342:A345"/>
-    <mergeCell ref="A346:A349"/>
-    <mergeCell ref="A350:A353"/>
-    <mergeCell ref="A354:A357"/>
-    <mergeCell ref="A358:A361"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="A382:A385"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="A466:A469"/>
-    <mergeCell ref="A470:A473"/>
-    <mergeCell ref="A474:A477"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="A434:A437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="A446:A449"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="A526:A529"/>
-    <mergeCell ref="A530:A533"/>
-    <mergeCell ref="A534:A537"/>
-    <mergeCell ref="A538:A541"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A502:A505"/>
-    <mergeCell ref="A506:A509"/>
-    <mergeCell ref="A510:A513"/>
-    <mergeCell ref="A514:A517"/>
-    <mergeCell ref="A518:A521"/>
-    <mergeCell ref="A522:A525"/>
-    <mergeCell ref="A478:A481"/>
-    <mergeCell ref="A482:A485"/>
-    <mergeCell ref="A486:A489"/>
-    <mergeCell ref="A490:A493"/>
-    <mergeCell ref="A494:A497"/>
-    <mergeCell ref="A498:A501"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="A462:A465"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B144:B147"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="B196:B199"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B191"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="B254:B257"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B228:B231"/>
-    <mergeCell ref="B232:B235"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="B286:B289"/>
-    <mergeCell ref="B290:B293"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="B298:B301"/>
-    <mergeCell ref="B302:B305"/>
-    <mergeCell ref="B306:B309"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="B266:B269"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="B282:B285"/>
-    <mergeCell ref="B334:B337"/>
-    <mergeCell ref="B338:B341"/>
-    <mergeCell ref="B342:B345"/>
-    <mergeCell ref="B346:B349"/>
-    <mergeCell ref="B350:B353"/>
-    <mergeCell ref="B354:B357"/>
-    <mergeCell ref="B310:B313"/>
-    <mergeCell ref="B314:B317"/>
-    <mergeCell ref="B318:B321"/>
-    <mergeCell ref="B322:B325"/>
-    <mergeCell ref="B326:B329"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="B358:B361"/>
-    <mergeCell ref="B362:B365"/>
-    <mergeCell ref="B366:B369"/>
-    <mergeCell ref="B374:B377"/>
-    <mergeCell ref="B378:B381"/>
-    <mergeCell ref="B382:B385"/>
-    <mergeCell ref="B538:B541"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="B506:B509"/>
-    <mergeCell ref="B510:B513"/>
-    <mergeCell ref="B514:B517"/>
-    <mergeCell ref="B518:B521"/>
-    <mergeCell ref="B522:B525"/>
-    <mergeCell ref="B526:B529"/>
-    <mergeCell ref="B482:B485"/>
-    <mergeCell ref="B486:B489"/>
-    <mergeCell ref="B490:B493"/>
-    <mergeCell ref="B494:B497"/>
-    <mergeCell ref="B498:B501"/>
-    <mergeCell ref="B502:B505"/>
-    <mergeCell ref="B458:B461"/>
-    <mergeCell ref="B462:B465"/>
-    <mergeCell ref="B466:B469"/>
-    <mergeCell ref="B470:B473"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="B530:B533"/>
-    <mergeCell ref="B534:B537"/>
-    <mergeCell ref="B474:B477"/>
-    <mergeCell ref="B478:B481"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="B442:B445"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="B430:B433"/>
-    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="C538:C541"/>
+    <mergeCell ref="C542:C545"/>
+    <mergeCell ref="C546:C549"/>
+    <mergeCell ref="C514:C517"/>
+    <mergeCell ref="C518:C521"/>
+    <mergeCell ref="C522:C525"/>
+    <mergeCell ref="C526:C529"/>
+    <mergeCell ref="C530:C533"/>
+    <mergeCell ref="C534:C537"/>
+    <mergeCell ref="C490:C493"/>
+    <mergeCell ref="C494:C497"/>
+    <mergeCell ref="C498:C501"/>
+    <mergeCell ref="C502:C505"/>
+    <mergeCell ref="C506:C509"/>
+    <mergeCell ref="C510:C513"/>
+    <mergeCell ref="C466:C469"/>
+    <mergeCell ref="C470:C473"/>
+    <mergeCell ref="C474:C477"/>
+    <mergeCell ref="C478:C481"/>
+    <mergeCell ref="C482:C485"/>
+    <mergeCell ref="C486:C489"/>
+    <mergeCell ref="C442:C445"/>
+    <mergeCell ref="C446:C449"/>
+    <mergeCell ref="C450:C453"/>
+    <mergeCell ref="C454:C457"/>
+    <mergeCell ref="C458:C461"/>
+    <mergeCell ref="C462:C465"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="C422:C425"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C438:C441"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C368:C372"/>
+    <mergeCell ref="C373:C376"/>
+    <mergeCell ref="C377:C380"/>
+    <mergeCell ref="C381:C385"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="C342:C345"/>
+    <mergeCell ref="C346:C349"/>
+    <mergeCell ref="C350:C354"/>
+    <mergeCell ref="C355:C358"/>
+    <mergeCell ref="C359:C362"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="C317:C320"/>
+    <mergeCell ref="C321:C324"/>
+    <mergeCell ref="C325:C328"/>
+    <mergeCell ref="C329:C332"/>
+    <mergeCell ref="C333:C337"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C292:C295"/>
+    <mergeCell ref="C296:C299"/>
+    <mergeCell ref="C300:C303"/>
+    <mergeCell ref="C304:C308"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="C313:C316"/>
+    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="C274:C278"/>
+    <mergeCell ref="C279:C282"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="C287:C291"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C258:C261"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="C224:C227"/>
+    <mergeCell ref="C228:C231"/>
+    <mergeCell ref="C232:C235"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="C196:C199"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="C204:C207"/>
+    <mergeCell ref="C208:C211"/>
+    <mergeCell ref="C212:C215"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C188:C191"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="C155:C158"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="C136:C139"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C144:C147"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="E542:E545"/>
+    <mergeCell ref="E546:E549"/>
+    <mergeCell ref="E530:E533"/>
+    <mergeCell ref="E534:E537"/>
+    <mergeCell ref="E538:E541"/>
+    <mergeCell ref="E518:E521"/>
+    <mergeCell ref="E522:E525"/>
+    <mergeCell ref="E526:E529"/>
+    <mergeCell ref="E506:E509"/>
+    <mergeCell ref="E510:E513"/>
+    <mergeCell ref="E514:E517"/>
+    <mergeCell ref="E494:E497"/>
+    <mergeCell ref="E498:E501"/>
+    <mergeCell ref="E502:E505"/>
+    <mergeCell ref="E482:E485"/>
+    <mergeCell ref="E486:E489"/>
+    <mergeCell ref="E490:E493"/>
+    <mergeCell ref="E470:E473"/>
+    <mergeCell ref="E474:E477"/>
+    <mergeCell ref="E478:E481"/>
+    <mergeCell ref="E458:E461"/>
+    <mergeCell ref="E462:E465"/>
+    <mergeCell ref="E466:E469"/>
+    <mergeCell ref="E446:E449"/>
+    <mergeCell ref="E450:E453"/>
+    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="E373:E376"/>
+    <mergeCell ref="E377:E380"/>
+    <mergeCell ref="E381:E385"/>
+    <mergeCell ref="E359:E362"/>
+    <mergeCell ref="E363:E367"/>
+    <mergeCell ref="E368:E372"/>
+    <mergeCell ref="E346:E349"/>
+    <mergeCell ref="E350:E354"/>
+    <mergeCell ref="E355:E358"/>
+    <mergeCell ref="E333:E337"/>
+    <mergeCell ref="E338:E341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="E321:E324"/>
+    <mergeCell ref="E325:E328"/>
+    <mergeCell ref="E329:E332"/>
+    <mergeCell ref="E309:E312"/>
+    <mergeCell ref="E313:E316"/>
+    <mergeCell ref="E317:E320"/>
+    <mergeCell ref="E296:E299"/>
+    <mergeCell ref="E300:E303"/>
+    <mergeCell ref="E304:E308"/>
+    <mergeCell ref="E283:E286"/>
+    <mergeCell ref="E287:E291"/>
+    <mergeCell ref="E292:E295"/>
+    <mergeCell ref="E270:E273"/>
+    <mergeCell ref="E274:E278"/>
+    <mergeCell ref="E279:E282"/>
+    <mergeCell ref="E258:E261"/>
+    <mergeCell ref="E262:E265"/>
+    <mergeCell ref="E266:E269"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="E250:E253"/>
+    <mergeCell ref="E254:E257"/>
+    <mergeCell ref="E236:E238"/>
+    <mergeCell ref="E239:E241"/>
+    <mergeCell ref="E242:E245"/>
+    <mergeCell ref="E224:E227"/>
+    <mergeCell ref="E228:E231"/>
+    <mergeCell ref="E232:E235"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="E216:E219"/>
+    <mergeCell ref="E220:E223"/>
+    <mergeCell ref="E200:E203"/>
+    <mergeCell ref="E204:E207"/>
+    <mergeCell ref="E208:E211"/>
+    <mergeCell ref="E188:E191"/>
+    <mergeCell ref="E192:E195"/>
+    <mergeCell ref="E196:E199"/>
+    <mergeCell ref="E175:E178"/>
+    <mergeCell ref="E179:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E163:E166"/>
+    <mergeCell ref="E167:E170"/>
+    <mergeCell ref="E171:E174"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="E155:E158"/>
+    <mergeCell ref="E159:E162"/>
+    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="E144:E147"/>
+    <mergeCell ref="E148:E151"/>
+    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="E131:E135"/>
+    <mergeCell ref="E136:E139"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="E99:E102"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="E75:E78"/>
     <mergeCell ref="E55:E58"/>
     <mergeCell ref="E59:E62"/>
     <mergeCell ref="E63:E66"/>
@@ -13975,280 +14556,663 @@
     <mergeCell ref="F38:F41"/>
     <mergeCell ref="F42:F46"/>
     <mergeCell ref="F59:F62"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="E99:E102"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E127:E130"/>
-    <mergeCell ref="E131:E135"/>
-    <mergeCell ref="E136:E139"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="E163:E166"/>
-    <mergeCell ref="E167:E170"/>
-    <mergeCell ref="E171:E174"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="E155:E158"/>
-    <mergeCell ref="E159:E162"/>
-    <mergeCell ref="E140:E143"/>
-    <mergeCell ref="E144:E147"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="E200:E203"/>
-    <mergeCell ref="E204:E207"/>
-    <mergeCell ref="E208:E211"/>
-    <mergeCell ref="E188:E191"/>
-    <mergeCell ref="E192:E195"/>
-    <mergeCell ref="E196:E199"/>
-    <mergeCell ref="E175:E178"/>
-    <mergeCell ref="E179:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E236:E238"/>
-    <mergeCell ref="E239:E241"/>
-    <mergeCell ref="E242:E245"/>
-    <mergeCell ref="E224:E227"/>
-    <mergeCell ref="E228:E231"/>
-    <mergeCell ref="E232:E235"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="E216:E219"/>
-    <mergeCell ref="E220:E223"/>
-    <mergeCell ref="E270:E273"/>
-    <mergeCell ref="E274:E277"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="E258:E261"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="E266:E269"/>
-    <mergeCell ref="E246:E249"/>
-    <mergeCell ref="E250:E253"/>
-    <mergeCell ref="E254:E257"/>
-    <mergeCell ref="E306:E309"/>
-    <mergeCell ref="E310:E313"/>
-    <mergeCell ref="E314:E317"/>
-    <mergeCell ref="E294:E297"/>
-    <mergeCell ref="E298:E301"/>
-    <mergeCell ref="E302:E305"/>
-    <mergeCell ref="E282:E285"/>
-    <mergeCell ref="E286:E289"/>
-    <mergeCell ref="E290:E293"/>
-    <mergeCell ref="E342:E345"/>
-    <mergeCell ref="E346:E349"/>
-    <mergeCell ref="E350:E353"/>
-    <mergeCell ref="E330:E333"/>
-    <mergeCell ref="E334:E337"/>
-    <mergeCell ref="E338:E341"/>
-    <mergeCell ref="E318:E321"/>
-    <mergeCell ref="E322:E325"/>
-    <mergeCell ref="E326:E329"/>
-    <mergeCell ref="E378:E381"/>
-    <mergeCell ref="E382:E385"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E366:E369"/>
-    <mergeCell ref="E370:E373"/>
-    <mergeCell ref="E374:E377"/>
-    <mergeCell ref="E354:E357"/>
-    <mergeCell ref="E358:E361"/>
-    <mergeCell ref="E362:E365"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E470:E473"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E454:E457"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E442:E445"/>
-    <mergeCell ref="E446:E449"/>
-    <mergeCell ref="E426:E429"/>
-    <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E434:E437"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="E534:E537"/>
-    <mergeCell ref="E538:E541"/>
-    <mergeCell ref="E522:E525"/>
-    <mergeCell ref="E526:E529"/>
-    <mergeCell ref="E530:E533"/>
-    <mergeCell ref="E510:E513"/>
-    <mergeCell ref="E514:E517"/>
-    <mergeCell ref="E518:E521"/>
-    <mergeCell ref="E498:E501"/>
-    <mergeCell ref="E502:E505"/>
-    <mergeCell ref="E506:E509"/>
-    <mergeCell ref="E486:E489"/>
-    <mergeCell ref="E490:E493"/>
-    <mergeCell ref="E494:E497"/>
-    <mergeCell ref="E474:E477"/>
-    <mergeCell ref="E478:E481"/>
-    <mergeCell ref="E482:E485"/>
-    <mergeCell ref="E462:E465"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="C155:C158"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="C167:C170"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C131:C135"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="C144:C147"/>
-    <mergeCell ref="C196:C199"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="C204:C207"/>
-    <mergeCell ref="C208:C211"/>
-    <mergeCell ref="C212:C215"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="C171:C174"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C188:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="C258:C261"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="C220:C223"/>
-    <mergeCell ref="C224:C227"/>
-    <mergeCell ref="C228:C231"/>
-    <mergeCell ref="C232:C235"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="C298:C301"/>
-    <mergeCell ref="C302:C305"/>
-    <mergeCell ref="C306:C309"/>
-    <mergeCell ref="C310:C313"/>
-    <mergeCell ref="C266:C269"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="C282:C285"/>
-    <mergeCell ref="C286:C289"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C342:C345"/>
-    <mergeCell ref="C346:C349"/>
-    <mergeCell ref="C350:C353"/>
-    <mergeCell ref="C354:C357"/>
-    <mergeCell ref="C358:C361"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="C318:C321"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="C326:C329"/>
-    <mergeCell ref="C330:C333"/>
-    <mergeCell ref="C334:C337"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C366:C369"/>
-    <mergeCell ref="C370:C373"/>
-    <mergeCell ref="C374:C377"/>
-    <mergeCell ref="C378:C381"/>
-    <mergeCell ref="C382:C385"/>
-    <mergeCell ref="C434:C437"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C442:C445"/>
-    <mergeCell ref="C446:C449"/>
-    <mergeCell ref="C450:C453"/>
-    <mergeCell ref="C454:C457"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C426:C429"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C482:C485"/>
-    <mergeCell ref="C486:C489"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="C494:C497"/>
-    <mergeCell ref="C498:C501"/>
-    <mergeCell ref="C502:C505"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C462:C465"/>
-    <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C470:C473"/>
-    <mergeCell ref="C474:C477"/>
-    <mergeCell ref="C478:C481"/>
-    <mergeCell ref="C530:C533"/>
-    <mergeCell ref="C534:C537"/>
-    <mergeCell ref="C538:C541"/>
-    <mergeCell ref="C506:C509"/>
-    <mergeCell ref="C510:C513"/>
-    <mergeCell ref="C514:C517"/>
-    <mergeCell ref="C518:C521"/>
-    <mergeCell ref="C522:C525"/>
-    <mergeCell ref="C526:C529"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B538:B541"/>
+    <mergeCell ref="B542:B545"/>
+    <mergeCell ref="B482:B485"/>
+    <mergeCell ref="B486:B489"/>
+    <mergeCell ref="B442:B445"/>
+    <mergeCell ref="B446:B449"/>
+    <mergeCell ref="B450:B453"/>
+    <mergeCell ref="B454:B457"/>
+    <mergeCell ref="B458:B461"/>
+    <mergeCell ref="B462:B465"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="B434:B437"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="B394:B397"/>
+    <mergeCell ref="B546:B549"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="B514:B517"/>
+    <mergeCell ref="B518:B521"/>
+    <mergeCell ref="B522:B525"/>
+    <mergeCell ref="B526:B529"/>
+    <mergeCell ref="B530:B533"/>
+    <mergeCell ref="B534:B537"/>
+    <mergeCell ref="B490:B493"/>
+    <mergeCell ref="B494:B497"/>
+    <mergeCell ref="B498:B501"/>
+    <mergeCell ref="B502:B505"/>
+    <mergeCell ref="B506:B509"/>
+    <mergeCell ref="B510:B513"/>
+    <mergeCell ref="B466:B469"/>
+    <mergeCell ref="B470:B473"/>
+    <mergeCell ref="B474:B477"/>
+    <mergeCell ref="B478:B481"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="B363:B367"/>
+    <mergeCell ref="B368:B372"/>
+    <mergeCell ref="B373:B376"/>
+    <mergeCell ref="B381:B385"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="B338:B341"/>
+    <mergeCell ref="B342:B345"/>
+    <mergeCell ref="B346:B349"/>
+    <mergeCell ref="B350:B354"/>
+    <mergeCell ref="B355:B358"/>
+    <mergeCell ref="B359:B362"/>
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="B317:B320"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B333:B337"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="B292:B295"/>
+    <mergeCell ref="B296:B299"/>
+    <mergeCell ref="B300:B303"/>
+    <mergeCell ref="B304:B308"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="B274:B278"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="B228:B231"/>
+    <mergeCell ref="B232:B235"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="B196:B199"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="B144:B147"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A534:A537"/>
+    <mergeCell ref="A538:A541"/>
+    <mergeCell ref="A542:A545"/>
+    <mergeCell ref="A546:A549"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A510:A513"/>
+    <mergeCell ref="A514:A517"/>
+    <mergeCell ref="A518:A521"/>
+    <mergeCell ref="A522:A525"/>
+    <mergeCell ref="A526:A529"/>
+    <mergeCell ref="A530:A533"/>
+    <mergeCell ref="A486:A489"/>
+    <mergeCell ref="A490:A493"/>
+    <mergeCell ref="A494:A497"/>
+    <mergeCell ref="A498:A501"/>
+    <mergeCell ref="A502:A505"/>
+    <mergeCell ref="A506:A509"/>
+    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="A466:A469"/>
+    <mergeCell ref="A470:A473"/>
+    <mergeCell ref="A474:A477"/>
+    <mergeCell ref="A478:A481"/>
+    <mergeCell ref="A482:A485"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="A442:A445"/>
+    <mergeCell ref="A446:A449"/>
+    <mergeCell ref="A450:A453"/>
+    <mergeCell ref="A454:A457"/>
+    <mergeCell ref="A458:A461"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="A430:A433"/>
+    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="A368:A372"/>
+    <mergeCell ref="A373:A376"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="B377:B380"/>
+    <mergeCell ref="A381:A385"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="A342:A345"/>
+    <mergeCell ref="A346:A349"/>
+    <mergeCell ref="A350:A354"/>
+    <mergeCell ref="A355:A358"/>
+    <mergeCell ref="A359:A362"/>
+    <mergeCell ref="A363:A367"/>
+    <mergeCell ref="A317:A320"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="A333:A337"/>
+    <mergeCell ref="A338:A341"/>
+    <mergeCell ref="A292:A295"/>
+    <mergeCell ref="A296:A299"/>
+    <mergeCell ref="A300:A303"/>
+    <mergeCell ref="A304:A308"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="A270:A273"/>
+    <mergeCell ref="A274:A278"/>
+    <mergeCell ref="A279:A282"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="A262:A265"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="A228:A231"/>
+    <mergeCell ref="A232:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A196:A199"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="A175:A178"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A184:A187"/>
+    <mergeCell ref="A188:A191"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="A140:A143"/>
+    <mergeCell ref="A144:A147"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="G79:G82"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="G83:G86"/>
+    <mergeCell ref="H83:H86"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="G87:G90"/>
+    <mergeCell ref="H87:H90"/>
+    <mergeCell ref="F91:F94"/>
+    <mergeCell ref="G91:G94"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="F99:F102"/>
+    <mergeCell ref="G99:G102"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="G107:G110"/>
+    <mergeCell ref="H107:H110"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="F119:F122"/>
+    <mergeCell ref="G119:G122"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="F123:F126"/>
+    <mergeCell ref="G123:G126"/>
+    <mergeCell ref="H123:H126"/>
+    <mergeCell ref="F127:F130"/>
+    <mergeCell ref="G127:G130"/>
+    <mergeCell ref="H127:H130"/>
+    <mergeCell ref="F131:F135"/>
+    <mergeCell ref="G131:G135"/>
+    <mergeCell ref="H131:H135"/>
+    <mergeCell ref="F136:F139"/>
+    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="H136:H139"/>
+    <mergeCell ref="F140:F143"/>
+    <mergeCell ref="G140:G143"/>
+    <mergeCell ref="H140:H143"/>
+    <mergeCell ref="F144:F147"/>
+    <mergeCell ref="G144:G147"/>
+    <mergeCell ref="H144:H147"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="G148:G151"/>
+    <mergeCell ref="H148:H151"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="G152:G154"/>
+    <mergeCell ref="H152:H154"/>
+    <mergeCell ref="F155:F158"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="F159:F162"/>
+    <mergeCell ref="G159:G162"/>
+    <mergeCell ref="H159:H162"/>
+    <mergeCell ref="F163:F166"/>
+    <mergeCell ref="G163:G166"/>
+    <mergeCell ref="H163:H166"/>
+    <mergeCell ref="F167:F170"/>
+    <mergeCell ref="G167:G170"/>
+    <mergeCell ref="H167:H170"/>
+    <mergeCell ref="F171:F174"/>
+    <mergeCell ref="G171:G174"/>
+    <mergeCell ref="H171:H174"/>
+    <mergeCell ref="F175:F178"/>
+    <mergeCell ref="G175:G178"/>
+    <mergeCell ref="H175:H178"/>
+    <mergeCell ref="F179:F183"/>
+    <mergeCell ref="G179:G183"/>
+    <mergeCell ref="H179:H183"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="H184:H187"/>
+    <mergeCell ref="F188:F191"/>
+    <mergeCell ref="G188:G191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="F192:F195"/>
+    <mergeCell ref="G192:G195"/>
+    <mergeCell ref="H192:H195"/>
+    <mergeCell ref="F196:F199"/>
+    <mergeCell ref="G196:G199"/>
+    <mergeCell ref="H196:H199"/>
+    <mergeCell ref="F200:F203"/>
+    <mergeCell ref="G200:G203"/>
+    <mergeCell ref="H200:H203"/>
+    <mergeCell ref="F204:F207"/>
+    <mergeCell ref="G204:G207"/>
+    <mergeCell ref="H204:H207"/>
+    <mergeCell ref="F208:F211"/>
+    <mergeCell ref="G208:G211"/>
+    <mergeCell ref="H208:H211"/>
+    <mergeCell ref="F212:F215"/>
+    <mergeCell ref="G212:G215"/>
+    <mergeCell ref="H212:H215"/>
+    <mergeCell ref="F216:F219"/>
+    <mergeCell ref="G216:G219"/>
+    <mergeCell ref="H216:H219"/>
+    <mergeCell ref="F220:F223"/>
+    <mergeCell ref="G220:G223"/>
+    <mergeCell ref="H220:H223"/>
+    <mergeCell ref="F224:F227"/>
+    <mergeCell ref="G224:G227"/>
+    <mergeCell ref="H224:H227"/>
+    <mergeCell ref="F228:F231"/>
+    <mergeCell ref="G228:G231"/>
+    <mergeCell ref="H228:H231"/>
+    <mergeCell ref="F232:F235"/>
+    <mergeCell ref="G232:G235"/>
+    <mergeCell ref="H232:H235"/>
+    <mergeCell ref="F236:F238"/>
+    <mergeCell ref="G236:G238"/>
+    <mergeCell ref="H236:H238"/>
+    <mergeCell ref="F239:F241"/>
+    <mergeCell ref="G239:G241"/>
+    <mergeCell ref="H239:H241"/>
+    <mergeCell ref="F242:F245"/>
+    <mergeCell ref="G242:G245"/>
+    <mergeCell ref="H242:H245"/>
+    <mergeCell ref="F246:F249"/>
+    <mergeCell ref="G246:G249"/>
+    <mergeCell ref="H246:H249"/>
+    <mergeCell ref="F250:F253"/>
+    <mergeCell ref="G250:G253"/>
+    <mergeCell ref="H250:H253"/>
+    <mergeCell ref="F254:F257"/>
+    <mergeCell ref="G254:G257"/>
+    <mergeCell ref="H254:H257"/>
+    <mergeCell ref="F258:F261"/>
+    <mergeCell ref="G258:G261"/>
+    <mergeCell ref="H258:H261"/>
+    <mergeCell ref="F262:F265"/>
+    <mergeCell ref="G262:G265"/>
+    <mergeCell ref="H262:H265"/>
+    <mergeCell ref="F266:F269"/>
+    <mergeCell ref="G266:G269"/>
+    <mergeCell ref="H266:H269"/>
+    <mergeCell ref="F270:F273"/>
+    <mergeCell ref="G270:G273"/>
+    <mergeCell ref="H270:H273"/>
+    <mergeCell ref="F274:F278"/>
+    <mergeCell ref="G274:G278"/>
+    <mergeCell ref="H274:H278"/>
+    <mergeCell ref="F279:F282"/>
+    <mergeCell ref="G279:G282"/>
+    <mergeCell ref="H279:H282"/>
+    <mergeCell ref="F283:F286"/>
+    <mergeCell ref="G283:G286"/>
+    <mergeCell ref="H283:H286"/>
+    <mergeCell ref="F287:F291"/>
+    <mergeCell ref="G287:G291"/>
+    <mergeCell ref="H287:H291"/>
+    <mergeCell ref="F292:F295"/>
+    <mergeCell ref="G292:G295"/>
+    <mergeCell ref="H292:H295"/>
+    <mergeCell ref="F296:F299"/>
+    <mergeCell ref="G296:G299"/>
+    <mergeCell ref="H296:H299"/>
+    <mergeCell ref="F300:F303"/>
+    <mergeCell ref="G300:G303"/>
+    <mergeCell ref="H300:H303"/>
+    <mergeCell ref="F304:F308"/>
+    <mergeCell ref="G304:G308"/>
+    <mergeCell ref="H304:H308"/>
+    <mergeCell ref="F309:F312"/>
+    <mergeCell ref="G309:G312"/>
+    <mergeCell ref="H309:H312"/>
+    <mergeCell ref="F313:F316"/>
+    <mergeCell ref="G313:G316"/>
+    <mergeCell ref="H313:H316"/>
+    <mergeCell ref="F317:F320"/>
+    <mergeCell ref="G317:G320"/>
+    <mergeCell ref="H317:H320"/>
+    <mergeCell ref="F321:F324"/>
+    <mergeCell ref="G321:G324"/>
+    <mergeCell ref="H321:H324"/>
+    <mergeCell ref="F325:F328"/>
+    <mergeCell ref="G325:G328"/>
+    <mergeCell ref="H325:H328"/>
+    <mergeCell ref="F329:F332"/>
+    <mergeCell ref="G329:G332"/>
+    <mergeCell ref="H329:H332"/>
+    <mergeCell ref="F333:F337"/>
+    <mergeCell ref="G333:G337"/>
+    <mergeCell ref="H333:H337"/>
+    <mergeCell ref="F338:F341"/>
+    <mergeCell ref="G338:G341"/>
+    <mergeCell ref="H338:H341"/>
+    <mergeCell ref="F342:F345"/>
+    <mergeCell ref="G342:G345"/>
+    <mergeCell ref="H342:H345"/>
+    <mergeCell ref="F346:F349"/>
+    <mergeCell ref="G346:G349"/>
+    <mergeCell ref="H346:H349"/>
+    <mergeCell ref="F350:F354"/>
+    <mergeCell ref="G350:G354"/>
+    <mergeCell ref="H350:H354"/>
+    <mergeCell ref="F355:F358"/>
+    <mergeCell ref="G355:G358"/>
+    <mergeCell ref="H355:H358"/>
+    <mergeCell ref="F359:F362"/>
+    <mergeCell ref="G359:G362"/>
+    <mergeCell ref="H359:H362"/>
+    <mergeCell ref="F363:F367"/>
+    <mergeCell ref="G363:G367"/>
+    <mergeCell ref="H363:H367"/>
+    <mergeCell ref="F368:F372"/>
+    <mergeCell ref="G368:G372"/>
+    <mergeCell ref="H368:H372"/>
+    <mergeCell ref="F373:F376"/>
+    <mergeCell ref="G373:G376"/>
+    <mergeCell ref="H373:H376"/>
+    <mergeCell ref="F377:F380"/>
+    <mergeCell ref="G377:G380"/>
+    <mergeCell ref="H377:H380"/>
+    <mergeCell ref="F381:F385"/>
+    <mergeCell ref="G381:G385"/>
+    <mergeCell ref="H381:H385"/>
+    <mergeCell ref="F386:F389"/>
+    <mergeCell ref="G386:G389"/>
+    <mergeCell ref="H386:H389"/>
+    <mergeCell ref="F390:F393"/>
+    <mergeCell ref="G390:G393"/>
+    <mergeCell ref="H390:H393"/>
+    <mergeCell ref="F394:F397"/>
+    <mergeCell ref="G394:G397"/>
+    <mergeCell ref="H394:H397"/>
+    <mergeCell ref="F398:F401"/>
+    <mergeCell ref="G398:G401"/>
+    <mergeCell ref="H398:H401"/>
+    <mergeCell ref="F402:F405"/>
+    <mergeCell ref="G402:G405"/>
+    <mergeCell ref="H402:H405"/>
+    <mergeCell ref="F406:F409"/>
+    <mergeCell ref="G406:G409"/>
+    <mergeCell ref="H406:H409"/>
+    <mergeCell ref="F410:F413"/>
+    <mergeCell ref="G410:G413"/>
+    <mergeCell ref="H410:H413"/>
+    <mergeCell ref="F414:F417"/>
+    <mergeCell ref="G414:G417"/>
+    <mergeCell ref="H414:H417"/>
+    <mergeCell ref="F418:F421"/>
+    <mergeCell ref="G418:G421"/>
+    <mergeCell ref="H418:H421"/>
+    <mergeCell ref="F422:F425"/>
+    <mergeCell ref="G422:G425"/>
+    <mergeCell ref="H422:H425"/>
+    <mergeCell ref="F426:F429"/>
+    <mergeCell ref="G426:G429"/>
+    <mergeCell ref="H426:H429"/>
+    <mergeCell ref="F430:F433"/>
+    <mergeCell ref="G430:G433"/>
+    <mergeCell ref="H430:H433"/>
+    <mergeCell ref="F434:F437"/>
+    <mergeCell ref="G434:G437"/>
+    <mergeCell ref="H434:H437"/>
+    <mergeCell ref="F438:F441"/>
+    <mergeCell ref="G438:G441"/>
+    <mergeCell ref="H438:H441"/>
+    <mergeCell ref="F442:F445"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="H442:H445"/>
+    <mergeCell ref="F446:F449"/>
+    <mergeCell ref="G446:G449"/>
+    <mergeCell ref="H446:H449"/>
+    <mergeCell ref="F450:F453"/>
+    <mergeCell ref="G450:G453"/>
+    <mergeCell ref="H450:H453"/>
+    <mergeCell ref="F454:F457"/>
+    <mergeCell ref="G454:G457"/>
+    <mergeCell ref="H454:H457"/>
+    <mergeCell ref="F458:F461"/>
+    <mergeCell ref="G458:G461"/>
+    <mergeCell ref="H458:H461"/>
+    <mergeCell ref="F462:F465"/>
+    <mergeCell ref="G462:G465"/>
+    <mergeCell ref="H462:H465"/>
+    <mergeCell ref="F466:F469"/>
+    <mergeCell ref="G466:G469"/>
+    <mergeCell ref="H466:H469"/>
+    <mergeCell ref="F470:F473"/>
+    <mergeCell ref="G470:G473"/>
+    <mergeCell ref="H470:H473"/>
+    <mergeCell ref="F474:F477"/>
+    <mergeCell ref="G474:G477"/>
+    <mergeCell ref="H474:H477"/>
+    <mergeCell ref="F478:F481"/>
+    <mergeCell ref="G478:G481"/>
+    <mergeCell ref="H478:H481"/>
+    <mergeCell ref="F482:F485"/>
+    <mergeCell ref="G482:G485"/>
+    <mergeCell ref="H482:H485"/>
+    <mergeCell ref="F486:F489"/>
+    <mergeCell ref="G486:G489"/>
+    <mergeCell ref="H486:H489"/>
+    <mergeCell ref="F490:F493"/>
+    <mergeCell ref="G490:G493"/>
+    <mergeCell ref="H490:H493"/>
+    <mergeCell ref="F494:F497"/>
+    <mergeCell ref="G494:G497"/>
+    <mergeCell ref="H494:H497"/>
+    <mergeCell ref="F498:F501"/>
+    <mergeCell ref="G498:G501"/>
+    <mergeCell ref="H498:H501"/>
+    <mergeCell ref="F502:F505"/>
+    <mergeCell ref="G502:G505"/>
+    <mergeCell ref="H502:H505"/>
+    <mergeCell ref="F506:F509"/>
+    <mergeCell ref="G506:G509"/>
+    <mergeCell ref="H506:H509"/>
+    <mergeCell ref="F510:F513"/>
+    <mergeCell ref="G510:G513"/>
+    <mergeCell ref="H510:H513"/>
+    <mergeCell ref="F514:F517"/>
+    <mergeCell ref="G514:G517"/>
+    <mergeCell ref="H514:H517"/>
+    <mergeCell ref="F518:F521"/>
+    <mergeCell ref="G518:G521"/>
+    <mergeCell ref="H518:H521"/>
+    <mergeCell ref="F522:F525"/>
+    <mergeCell ref="G522:G525"/>
+    <mergeCell ref="H522:H525"/>
+    <mergeCell ref="F526:F529"/>
+    <mergeCell ref="G526:G529"/>
+    <mergeCell ref="H526:H529"/>
+    <mergeCell ref="F530:F533"/>
+    <mergeCell ref="G530:G533"/>
+    <mergeCell ref="H530:H533"/>
+    <mergeCell ref="F534:F537"/>
+    <mergeCell ref="G534:G537"/>
+    <mergeCell ref="H534:H537"/>
+    <mergeCell ref="F538:F541"/>
+    <mergeCell ref="G538:G541"/>
+    <mergeCell ref="H538:H541"/>
+    <mergeCell ref="F542:F545"/>
+    <mergeCell ref="G542:G545"/>
+    <mergeCell ref="H542:H545"/>
+    <mergeCell ref="F546:F549"/>
+    <mergeCell ref="G546:G549"/>
+    <mergeCell ref="H546:H549"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B175" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
@@ -14258,19 +15222,19 @@
     <hyperlink ref="B152" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="B111" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="B51" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B278" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B306" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B279" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B309" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="B71" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="B188" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="B131" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B282" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B294" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B283" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B296" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="B192" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="B47" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="B212" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B286" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B302" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B287" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B304" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="B200" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="B270" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
@@ -14282,12 +15246,12 @@
     <hyperlink ref="B127" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="B103" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="B107" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B298" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B300" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="B91" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="B30" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="B95" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="B75" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B310" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B313" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="B250" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="B232" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="B171" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
@@ -14296,11 +15260,11 @@
     <hyperlink ref="B83" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="B204" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="B38" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B318" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B314" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B322" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B321" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B317" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B325" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
     <hyperlink ref="B258" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B290" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B292" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="B228" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="B10" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="B18" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
@@ -14332,59 +15296,59 @@
     <hyperlink ref="B242" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="B59" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="B87" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B326" r:id="rId82" xr:uid="{5DFA3D35-E3CE-443B-B7C7-36D266F8AE39}"/>
-    <hyperlink ref="B330" r:id="rId83" xr:uid="{8DD99C6A-7343-4C56-B40C-E6FEF89BB218}"/>
-    <hyperlink ref="B334" r:id="rId84" xr:uid="{CA605F07-19EE-4EAB-9B95-4EACFFF490A4}"/>
-    <hyperlink ref="B338" r:id="rId85" xr:uid="{D3886004-460D-4284-AE74-FFEBAEFFBF19}"/>
-    <hyperlink ref="B342" r:id="rId86" xr:uid="{9F77286F-6EC0-48F1-8246-2ABB3AFECF4F}"/>
-    <hyperlink ref="B346" r:id="rId87" xr:uid="{8509003E-9089-4A16-881E-2CA893AEB870}"/>
-    <hyperlink ref="B350" r:id="rId88" xr:uid="{96C51C1D-8A7B-4CF2-88CD-C22E94DF9645}"/>
-    <hyperlink ref="B354" r:id="rId89" xr:uid="{7AD6C6C5-2FDC-404B-8A81-2A22D7FA2AFF}"/>
-    <hyperlink ref="B358" r:id="rId90" xr:uid="{A0D6817E-9B7D-42B1-99C5-DEA2C291B912}"/>
-    <hyperlink ref="B362" r:id="rId91" xr:uid="{5FEB8EC7-E6D0-4F3D-8EA3-43E20F3D77BA}"/>
-    <hyperlink ref="B366" r:id="rId92" xr:uid="{E56684F8-9496-4DFC-A788-890673DBC84A}"/>
-    <hyperlink ref="B374" r:id="rId93" xr:uid="{6F9D1818-1B86-426D-B814-CCDBFABBFEF6}"/>
-    <hyperlink ref="B378" r:id="rId94" xr:uid="{DE2F3986-14F8-4DF8-8F8A-1F7B05E74677}"/>
-    <hyperlink ref="B382" r:id="rId95" xr:uid="{8D13A2B2-EFC5-4E93-A08F-6946F6846EFD}"/>
-    <hyperlink ref="B386" r:id="rId96" xr:uid="{D5C6CE4B-5BCC-4C77-A44C-BAEAF1FF0D7C}"/>
-    <hyperlink ref="B390" r:id="rId97" xr:uid="{50D0C593-4444-4F99-8455-2BAD2352D35E}"/>
-    <hyperlink ref="B394" r:id="rId98" xr:uid="{A15FCB6A-AEC9-4B91-A032-0A1069CB0396}"/>
-    <hyperlink ref="B398" r:id="rId99" xr:uid="{1BDF2532-0DF5-41DE-A330-AF333DB67EF8}"/>
-    <hyperlink ref="B402" r:id="rId100" xr:uid="{C950A5D3-5E85-44A5-AA1E-A0CC185E7F05}"/>
-    <hyperlink ref="B406" r:id="rId101" xr:uid="{6DB97736-F490-4F99-BE9C-E313D760A6B0}"/>
-    <hyperlink ref="B410" r:id="rId102" xr:uid="{40B7F5E5-159C-4964-BAED-DBD2B27008CC}"/>
-    <hyperlink ref="B414" r:id="rId103" xr:uid="{BD704D7B-4541-4AE4-B065-A3990AC2D12D}"/>
-    <hyperlink ref="B418" r:id="rId104" xr:uid="{6EBD0AB5-CDFD-48B4-B023-B36D6D4448BD}"/>
-    <hyperlink ref="B422" r:id="rId105" xr:uid="{6771ADF7-02F9-4169-A1BD-BFF01E607080}"/>
-    <hyperlink ref="B426" r:id="rId106" xr:uid="{91634374-A088-4AA2-94A5-AD8B342CCDF6}"/>
-    <hyperlink ref="B430" r:id="rId107" xr:uid="{EE31A9D6-30AF-4257-A90A-A876A2318F49}"/>
-    <hyperlink ref="B434" r:id="rId108" xr:uid="{9A6FDCFD-A99F-44F7-8AEA-A05F204B90FA}"/>
-    <hyperlink ref="B438" r:id="rId109" xr:uid="{78F3AC75-6D77-42F3-8F72-F24C5ADE7B4D}"/>
-    <hyperlink ref="B442" r:id="rId110" xr:uid="{E109B2F7-B9A2-4CBD-8F73-5DBE9700D45A}"/>
-    <hyperlink ref="B446" r:id="rId111" xr:uid="{5EAD77B6-E0DB-4435-B0CB-726D6800DE2F}"/>
-    <hyperlink ref="B450" r:id="rId112" xr:uid="{9C05DAF7-8F96-440E-964F-57A42D69550B}"/>
-    <hyperlink ref="B454" r:id="rId113" xr:uid="{E61FE19C-7CA9-489D-BF87-FC6904B13A1B}"/>
-    <hyperlink ref="B458" r:id="rId114" xr:uid="{D10989DB-3645-4399-BB32-94CB112E8A00}"/>
-    <hyperlink ref="B462" r:id="rId115" xr:uid="{967405F3-BD41-4BE0-9199-EC4FA985F54E}"/>
-    <hyperlink ref="B466" r:id="rId116" xr:uid="{F87AC76D-F3BF-4612-9224-41EE59A2585B}"/>
-    <hyperlink ref="B470" r:id="rId117" xr:uid="{840D9884-A9CD-4438-B648-A666B9000FBA}"/>
-    <hyperlink ref="B474" r:id="rId118" xr:uid="{65335A14-2CAF-457B-9D39-0657CD853A39}"/>
-    <hyperlink ref="B478" r:id="rId119" xr:uid="{DF732760-59D2-4714-BDFE-7F4492DB6B52}"/>
-    <hyperlink ref="B482" r:id="rId120" xr:uid="{C89CAD92-D09F-4A40-AEC9-36AF16DD2FE2}"/>
-    <hyperlink ref="B486" r:id="rId121" xr:uid="{935E95F2-3288-439D-832B-1204F5561FAC}"/>
-    <hyperlink ref="B490" r:id="rId122" xr:uid="{79C86A53-37B4-4C14-B488-3420C0C47255}"/>
-    <hyperlink ref="B494" r:id="rId123" xr:uid="{F37FA534-F8AD-4BA1-8677-C0D3F997DE33}"/>
-    <hyperlink ref="B498" r:id="rId124" xr:uid="{F5612779-F999-42F7-8B48-5AA5EFCC0E05}"/>
-    <hyperlink ref="B502" r:id="rId125" xr:uid="{8D0E2CCC-D514-4906-B752-A1E01077ABDA}"/>
-    <hyperlink ref="B506" r:id="rId126" xr:uid="{8ECD43FC-0857-469E-8FBA-DB7C60459BAB}"/>
-    <hyperlink ref="B510" r:id="rId127" xr:uid="{DBBE4738-E842-41D1-8644-A8ACE07B37EE}"/>
-    <hyperlink ref="B514" r:id="rId128" xr:uid="{735EDB11-9188-4EA1-8A75-139413E0FF82}"/>
-    <hyperlink ref="B518" r:id="rId129" xr:uid="{00F24F66-F411-4801-A125-9B85B12F1FDE}"/>
-    <hyperlink ref="B522" r:id="rId130" xr:uid="{9830D7FC-7F3C-4415-A727-D2425181A876}"/>
-    <hyperlink ref="B526" r:id="rId131" xr:uid="{93BD82F8-E8C1-4A2A-BB4A-365C73A75A29}"/>
-    <hyperlink ref="B530" r:id="rId132" xr:uid="{7DC668B8-9D43-4BD3-A7B2-E231AAA8879F}"/>
-    <hyperlink ref="B534" r:id="rId133" xr:uid="{C301C90A-50AA-4211-AADC-C2A094CAD25C}"/>
-    <hyperlink ref="B538" r:id="rId134" xr:uid="{BAA871EB-0E81-4A95-9CFD-D3CCEAC481BB}"/>
+    <hyperlink ref="B329" r:id="rId82" xr:uid="{5DFA3D35-E3CE-443B-B7C7-36D266F8AE39}"/>
+    <hyperlink ref="B333" r:id="rId83" xr:uid="{8DD99C6A-7343-4C56-B40C-E6FEF89BB218}"/>
+    <hyperlink ref="B338" r:id="rId84" xr:uid="{CA605F07-19EE-4EAB-9B95-4EACFFF490A4}"/>
+    <hyperlink ref="B342" r:id="rId85" xr:uid="{D3886004-460D-4284-AE74-FFEBAEFFBF19}"/>
+    <hyperlink ref="B346" r:id="rId86" xr:uid="{9F77286F-6EC0-48F1-8246-2ABB3AFECF4F}"/>
+    <hyperlink ref="B350" r:id="rId87" xr:uid="{8509003E-9089-4A16-881E-2CA893AEB870}"/>
+    <hyperlink ref="B355" r:id="rId88" xr:uid="{96C51C1D-8A7B-4CF2-88CD-C22E94DF9645}"/>
+    <hyperlink ref="B359" r:id="rId89" xr:uid="{7AD6C6C5-2FDC-404B-8A81-2A22D7FA2AFF}"/>
+    <hyperlink ref="B363" r:id="rId90" xr:uid="{A0D6817E-9B7D-42B1-99C5-DEA2C291B912}"/>
+    <hyperlink ref="B368" r:id="rId91" xr:uid="{5FEB8EC7-E6D0-4F3D-8EA3-43E20F3D77BA}"/>
+    <hyperlink ref="B373" r:id="rId92" xr:uid="{E56684F8-9496-4DFC-A788-890673DBC84A}"/>
+    <hyperlink ref="B381" r:id="rId93" xr:uid="{6F9D1818-1B86-426D-B814-CCDBFABBFEF6}"/>
+    <hyperlink ref="B386" r:id="rId94" xr:uid="{DE2F3986-14F8-4DF8-8F8A-1F7B05E74677}"/>
+    <hyperlink ref="B390" r:id="rId95" xr:uid="{8D13A2B2-EFC5-4E93-A08F-6946F6846EFD}"/>
+    <hyperlink ref="B394" r:id="rId96" xr:uid="{D5C6CE4B-5BCC-4C77-A44C-BAEAF1FF0D7C}"/>
+    <hyperlink ref="B398" r:id="rId97" xr:uid="{50D0C593-4444-4F99-8455-2BAD2352D35E}"/>
+    <hyperlink ref="B402" r:id="rId98" xr:uid="{A15FCB6A-AEC9-4B91-A032-0A1069CB0396}"/>
+    <hyperlink ref="B406" r:id="rId99" xr:uid="{1BDF2532-0DF5-41DE-A330-AF333DB67EF8}"/>
+    <hyperlink ref="B410" r:id="rId100" xr:uid="{C950A5D3-5E85-44A5-AA1E-A0CC185E7F05}"/>
+    <hyperlink ref="B414" r:id="rId101" xr:uid="{6DB97736-F490-4F99-BE9C-E313D760A6B0}"/>
+    <hyperlink ref="B418" r:id="rId102" xr:uid="{40B7F5E5-159C-4964-BAED-DBD2B27008CC}"/>
+    <hyperlink ref="B422" r:id="rId103" xr:uid="{BD704D7B-4541-4AE4-B065-A3990AC2D12D}"/>
+    <hyperlink ref="B426" r:id="rId104" xr:uid="{6EBD0AB5-CDFD-48B4-B023-B36D6D4448BD}"/>
+    <hyperlink ref="B430" r:id="rId105" xr:uid="{6771ADF7-02F9-4169-A1BD-BFF01E607080}"/>
+    <hyperlink ref="B434" r:id="rId106" xr:uid="{91634374-A088-4AA2-94A5-AD8B342CCDF6}"/>
+    <hyperlink ref="B438" r:id="rId107" xr:uid="{EE31A9D6-30AF-4257-A90A-A876A2318F49}"/>
+    <hyperlink ref="B442" r:id="rId108" xr:uid="{9A6FDCFD-A99F-44F7-8AEA-A05F204B90FA}"/>
+    <hyperlink ref="B446" r:id="rId109" xr:uid="{78F3AC75-6D77-42F3-8F72-F24C5ADE7B4D}"/>
+    <hyperlink ref="B450" r:id="rId110" xr:uid="{E109B2F7-B9A2-4CBD-8F73-5DBE9700D45A}"/>
+    <hyperlink ref="B454" r:id="rId111" xr:uid="{5EAD77B6-E0DB-4435-B0CB-726D6800DE2F}"/>
+    <hyperlink ref="B458" r:id="rId112" xr:uid="{9C05DAF7-8F96-440E-964F-57A42D69550B}"/>
+    <hyperlink ref="B462" r:id="rId113" xr:uid="{E61FE19C-7CA9-489D-BF87-FC6904B13A1B}"/>
+    <hyperlink ref="B466" r:id="rId114" xr:uid="{D10989DB-3645-4399-BB32-94CB112E8A00}"/>
+    <hyperlink ref="B470" r:id="rId115" xr:uid="{967405F3-BD41-4BE0-9199-EC4FA985F54E}"/>
+    <hyperlink ref="B474" r:id="rId116" xr:uid="{F87AC76D-F3BF-4612-9224-41EE59A2585B}"/>
+    <hyperlink ref="B478" r:id="rId117" xr:uid="{840D9884-A9CD-4438-B648-A666B9000FBA}"/>
+    <hyperlink ref="B482" r:id="rId118" xr:uid="{65335A14-2CAF-457B-9D39-0657CD853A39}"/>
+    <hyperlink ref="B486" r:id="rId119" xr:uid="{DF732760-59D2-4714-BDFE-7F4492DB6B52}"/>
+    <hyperlink ref="B490" r:id="rId120" xr:uid="{C89CAD92-D09F-4A40-AEC9-36AF16DD2FE2}"/>
+    <hyperlink ref="B494" r:id="rId121" xr:uid="{935E95F2-3288-439D-832B-1204F5561FAC}"/>
+    <hyperlink ref="B498" r:id="rId122" xr:uid="{79C86A53-37B4-4C14-B488-3420C0C47255}"/>
+    <hyperlink ref="B502" r:id="rId123" xr:uid="{F37FA534-F8AD-4BA1-8677-C0D3F997DE33}"/>
+    <hyperlink ref="B506" r:id="rId124" xr:uid="{F5612779-F999-42F7-8B48-5AA5EFCC0E05}"/>
+    <hyperlink ref="B510" r:id="rId125" xr:uid="{8D0E2CCC-D514-4906-B752-A1E01077ABDA}"/>
+    <hyperlink ref="B514" r:id="rId126" xr:uid="{8ECD43FC-0857-469E-8FBA-DB7C60459BAB}"/>
+    <hyperlink ref="B518" r:id="rId127" xr:uid="{DBBE4738-E842-41D1-8644-A8ACE07B37EE}"/>
+    <hyperlink ref="B522" r:id="rId128" xr:uid="{735EDB11-9188-4EA1-8A75-139413E0FF82}"/>
+    <hyperlink ref="B526" r:id="rId129" xr:uid="{00F24F66-F411-4801-A125-9B85B12F1FDE}"/>
+    <hyperlink ref="B530" r:id="rId130" xr:uid="{9830D7FC-7F3C-4415-A727-D2425181A876}"/>
+    <hyperlink ref="B534" r:id="rId131" xr:uid="{93BD82F8-E8C1-4A2A-BB4A-365C73A75A29}"/>
+    <hyperlink ref="B538" r:id="rId132" xr:uid="{7DC668B8-9D43-4BD3-A7B2-E231AAA8879F}"/>
+    <hyperlink ref="B542" r:id="rId133" xr:uid="{C301C90A-50AA-4211-AADC-C2A094CAD25C}"/>
+    <hyperlink ref="B546" r:id="rId134" xr:uid="{BAA871EB-0E81-4A95-9CFD-D3CCEAC481BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId135"/>
@@ -24737,180 +25701,409 @@
     <sortCondition ref="A2:A586"/>
   </sortState>
   <mergeCells count="618">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C286:C289"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="C298:C301"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="C266:C269"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="C282:C285"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C358:C361"/>
-    <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C366:C369"/>
-    <mergeCell ref="C370:C373"/>
-    <mergeCell ref="C334:C337"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C342:C345"/>
-    <mergeCell ref="C346:C349"/>
-    <mergeCell ref="C374:C377"/>
-    <mergeCell ref="C378:C381"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C462:C465"/>
-    <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C434:C437"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C442:C445"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E266:E269"/>
-    <mergeCell ref="E270:E273"/>
-    <mergeCell ref="E274:E277"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="E282:E285"/>
-    <mergeCell ref="E242:E245"/>
-    <mergeCell ref="E246:E249"/>
-    <mergeCell ref="E238:E241"/>
-    <mergeCell ref="E218:E221"/>
-    <mergeCell ref="E222:E225"/>
-    <mergeCell ref="E226:E229"/>
-    <mergeCell ref="E338:E341"/>
-    <mergeCell ref="E342:E345"/>
-    <mergeCell ref="E334:E337"/>
-    <mergeCell ref="E314:E317"/>
-    <mergeCell ref="E318:E321"/>
-    <mergeCell ref="E322:E325"/>
-    <mergeCell ref="E290:E293"/>
-    <mergeCell ref="E294:E297"/>
-    <mergeCell ref="E286:E289"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="E462:E465"/>
-    <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E434:E437"/>
-    <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="C562:C565"/>
-    <mergeCell ref="E562:E565"/>
-    <mergeCell ref="C566:C569"/>
-    <mergeCell ref="E566:E569"/>
-    <mergeCell ref="C554:C557"/>
-    <mergeCell ref="E554:E557"/>
-    <mergeCell ref="C558:C561"/>
-    <mergeCell ref="E558:E561"/>
-    <mergeCell ref="C546:C549"/>
-    <mergeCell ref="E546:E549"/>
-    <mergeCell ref="C550:C553"/>
-    <mergeCell ref="E550:E553"/>
-    <mergeCell ref="C586:C589"/>
-    <mergeCell ref="E586:E589"/>
-    <mergeCell ref="C578:C581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="C582:C585"/>
-    <mergeCell ref="E582:E585"/>
-    <mergeCell ref="C570:C573"/>
-    <mergeCell ref="E570:E573"/>
-    <mergeCell ref="C574:C577"/>
-    <mergeCell ref="E574:E577"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="B578:B581"/>
+    <mergeCell ref="A582:A585"/>
+    <mergeCell ref="B582:B585"/>
+    <mergeCell ref="A586:A589"/>
+    <mergeCell ref="B586:B589"/>
+    <mergeCell ref="A566:A569"/>
+    <mergeCell ref="B566:B569"/>
+    <mergeCell ref="A570:A573"/>
+    <mergeCell ref="B570:B573"/>
+    <mergeCell ref="A574:A577"/>
+    <mergeCell ref="B574:B577"/>
+    <mergeCell ref="A554:A557"/>
+    <mergeCell ref="B554:B557"/>
+    <mergeCell ref="A558:A561"/>
+    <mergeCell ref="B558:B561"/>
+    <mergeCell ref="A562:A565"/>
+    <mergeCell ref="B562:B565"/>
+    <mergeCell ref="A542:A545"/>
+    <mergeCell ref="B542:B545"/>
+    <mergeCell ref="A546:A549"/>
+    <mergeCell ref="B546:B549"/>
+    <mergeCell ref="A550:A553"/>
+    <mergeCell ref="B550:B553"/>
+    <mergeCell ref="A530:A533"/>
+    <mergeCell ref="B530:B533"/>
+    <mergeCell ref="A534:A537"/>
+    <mergeCell ref="B534:B537"/>
+    <mergeCell ref="A538:A541"/>
+    <mergeCell ref="B538:B541"/>
+    <mergeCell ref="A518:A521"/>
+    <mergeCell ref="B518:B521"/>
+    <mergeCell ref="A522:A525"/>
+    <mergeCell ref="B522:B525"/>
+    <mergeCell ref="A526:A529"/>
+    <mergeCell ref="B526:B529"/>
+    <mergeCell ref="A506:A509"/>
+    <mergeCell ref="B506:B509"/>
+    <mergeCell ref="A510:A513"/>
+    <mergeCell ref="B510:B513"/>
+    <mergeCell ref="A514:A517"/>
+    <mergeCell ref="B514:B517"/>
+    <mergeCell ref="A494:A497"/>
+    <mergeCell ref="B494:B497"/>
+    <mergeCell ref="A498:A501"/>
+    <mergeCell ref="B498:B501"/>
+    <mergeCell ref="A502:A505"/>
+    <mergeCell ref="B502:B505"/>
+    <mergeCell ref="A482:A485"/>
+    <mergeCell ref="B482:B485"/>
+    <mergeCell ref="A486:A489"/>
+    <mergeCell ref="B486:B489"/>
+    <mergeCell ref="A490:A493"/>
+    <mergeCell ref="B490:B493"/>
+    <mergeCell ref="A470:A473"/>
+    <mergeCell ref="B470:B473"/>
+    <mergeCell ref="A474:A477"/>
+    <mergeCell ref="B474:B477"/>
+    <mergeCell ref="A478:A481"/>
+    <mergeCell ref="B478:B481"/>
+    <mergeCell ref="A458:A461"/>
+    <mergeCell ref="B458:B461"/>
+    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="B462:B465"/>
+    <mergeCell ref="A466:A469"/>
+    <mergeCell ref="B466:B469"/>
+    <mergeCell ref="A446:A449"/>
+    <mergeCell ref="B446:B449"/>
+    <mergeCell ref="A450:A453"/>
+    <mergeCell ref="B450:B453"/>
+    <mergeCell ref="A454:A457"/>
+    <mergeCell ref="B454:B457"/>
+    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="B434:B437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="A442:A445"/>
+    <mergeCell ref="B442:B445"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="A430:A433"/>
+    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="B394:B397"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="A378:A381"/>
+    <mergeCell ref="B378:B381"/>
+    <mergeCell ref="A382:A385"/>
+    <mergeCell ref="B382:B385"/>
+    <mergeCell ref="A362:A365"/>
+    <mergeCell ref="B362:B365"/>
+    <mergeCell ref="A366:A369"/>
+    <mergeCell ref="B366:B369"/>
+    <mergeCell ref="A370:A373"/>
+    <mergeCell ref="B370:B373"/>
+    <mergeCell ref="A350:A353"/>
+    <mergeCell ref="B350:B353"/>
+    <mergeCell ref="A354:A357"/>
+    <mergeCell ref="B354:B357"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="A338:A341"/>
+    <mergeCell ref="B338:B341"/>
+    <mergeCell ref="A342:A345"/>
+    <mergeCell ref="B342:B345"/>
+    <mergeCell ref="A346:A349"/>
+    <mergeCell ref="B346:B349"/>
+    <mergeCell ref="A326:A329"/>
+    <mergeCell ref="B326:B329"/>
+    <mergeCell ref="A330:A333"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="A334:A337"/>
+    <mergeCell ref="B334:B337"/>
+    <mergeCell ref="A314:A317"/>
+    <mergeCell ref="B314:B317"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="B318:B321"/>
+    <mergeCell ref="A322:A325"/>
+    <mergeCell ref="B322:B325"/>
+    <mergeCell ref="A302:A305"/>
+    <mergeCell ref="B302:B305"/>
+    <mergeCell ref="A306:A309"/>
+    <mergeCell ref="B306:B309"/>
+    <mergeCell ref="A310:A313"/>
+    <mergeCell ref="B310:B313"/>
+    <mergeCell ref="A290:A293"/>
+    <mergeCell ref="B290:B293"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="A298:A301"/>
+    <mergeCell ref="B298:B301"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="B282:B285"/>
+    <mergeCell ref="A286:A289"/>
+    <mergeCell ref="B286:B289"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="A270:A273"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="A274:A277"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="A262:A265"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="A230:A233"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C542:C545"/>
+    <mergeCell ref="E542:E545"/>
+    <mergeCell ref="C534:C537"/>
+    <mergeCell ref="E534:E537"/>
+    <mergeCell ref="C538:C541"/>
+    <mergeCell ref="E538:E541"/>
+    <mergeCell ref="C526:C529"/>
+    <mergeCell ref="E526:E529"/>
+    <mergeCell ref="C530:C533"/>
+    <mergeCell ref="E530:E533"/>
+    <mergeCell ref="E514:E517"/>
+    <mergeCell ref="C518:C521"/>
+    <mergeCell ref="E518:E521"/>
+    <mergeCell ref="C522:C525"/>
+    <mergeCell ref="E522:E525"/>
+    <mergeCell ref="E490:E493"/>
+    <mergeCell ref="C494:C497"/>
+    <mergeCell ref="E494:E497"/>
+    <mergeCell ref="C498:C501"/>
+    <mergeCell ref="E498:E501"/>
+    <mergeCell ref="E506:E509"/>
+    <mergeCell ref="E510:E513"/>
+    <mergeCell ref="E502:E505"/>
+    <mergeCell ref="C510:C513"/>
+    <mergeCell ref="C514:C517"/>
+    <mergeCell ref="C470:C473"/>
+    <mergeCell ref="E470:E473"/>
+    <mergeCell ref="C474:C477"/>
+    <mergeCell ref="E474:E477"/>
+    <mergeCell ref="E482:E485"/>
+    <mergeCell ref="E486:E489"/>
+    <mergeCell ref="E478:E481"/>
+    <mergeCell ref="C502:C505"/>
+    <mergeCell ref="C506:C509"/>
+    <mergeCell ref="C478:C481"/>
+    <mergeCell ref="C482:C485"/>
+    <mergeCell ref="C486:C489"/>
+    <mergeCell ref="C490:C493"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="E346:E349"/>
+    <mergeCell ref="C350:C353"/>
+    <mergeCell ref="E350:E353"/>
+    <mergeCell ref="C354:C357"/>
+    <mergeCell ref="E354:E357"/>
+    <mergeCell ref="E358:E361"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E382:E385"/>
+    <mergeCell ref="E362:E365"/>
+    <mergeCell ref="E366:E369"/>
+    <mergeCell ref="E370:E373"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="E378:E381"/>
+    <mergeCell ref="C382:C385"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="E230:E233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="E234:E237"/>
+    <mergeCell ref="C326:C329"/>
+    <mergeCell ref="E326:E329"/>
+    <mergeCell ref="C330:C333"/>
+    <mergeCell ref="E330:E333"/>
+    <mergeCell ref="E298:E301"/>
+    <mergeCell ref="C302:C305"/>
+    <mergeCell ref="E302:E305"/>
+    <mergeCell ref="C306:C309"/>
+    <mergeCell ref="E306:E309"/>
+    <mergeCell ref="E310:E313"/>
+    <mergeCell ref="C310:C313"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="C318:C321"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="E210:E213"/>
+    <mergeCell ref="E214:E217"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="C222:C225"/>
     <mergeCell ref="C226:C229"/>
     <mergeCell ref="E154:E157"/>
     <mergeCell ref="C158:C161"/>
@@ -24935,426 +26128,197 @@
     <mergeCell ref="E142:E145"/>
     <mergeCell ref="C190:C193"/>
     <mergeCell ref="C194:C197"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="E210:E213"/>
-    <mergeCell ref="E214:E217"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="C586:C589"/>
+    <mergeCell ref="E586:E589"/>
+    <mergeCell ref="C578:C581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="C582:C585"/>
+    <mergeCell ref="E582:E585"/>
+    <mergeCell ref="C570:C573"/>
+    <mergeCell ref="E570:E573"/>
+    <mergeCell ref="C574:C577"/>
+    <mergeCell ref="E574:E577"/>
+    <mergeCell ref="C562:C565"/>
+    <mergeCell ref="E562:E565"/>
+    <mergeCell ref="C566:C569"/>
+    <mergeCell ref="E566:E569"/>
+    <mergeCell ref="C554:C557"/>
+    <mergeCell ref="E554:E557"/>
+    <mergeCell ref="C558:C561"/>
+    <mergeCell ref="E558:E561"/>
+    <mergeCell ref="C546:C549"/>
+    <mergeCell ref="E546:E549"/>
+    <mergeCell ref="C550:C553"/>
+    <mergeCell ref="E550:E553"/>
+    <mergeCell ref="E458:E461"/>
+    <mergeCell ref="E462:E465"/>
+    <mergeCell ref="E466:E469"/>
+    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E446:E449"/>
+    <mergeCell ref="E450:E453"/>
+    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="E338:E341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="E334:E337"/>
+    <mergeCell ref="E314:E317"/>
+    <mergeCell ref="E318:E321"/>
+    <mergeCell ref="E322:E325"/>
+    <mergeCell ref="E290:E293"/>
+    <mergeCell ref="E294:E297"/>
+    <mergeCell ref="E286:E289"/>
+    <mergeCell ref="E266:E269"/>
+    <mergeCell ref="E270:E273"/>
+    <mergeCell ref="E274:E277"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="E282:E285"/>
+    <mergeCell ref="E242:E245"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="E238:E241"/>
+    <mergeCell ref="E218:E221"/>
+    <mergeCell ref="E222:E225"/>
+    <mergeCell ref="E226:E229"/>
     <mergeCell ref="E250:E253"/>
-    <mergeCell ref="C254:C257"/>
     <mergeCell ref="E254:E257"/>
-    <mergeCell ref="C258:C261"/>
     <mergeCell ref="E258:E261"/>
     <mergeCell ref="E262:E265"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="E230:E233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="E234:E237"/>
-    <mergeCell ref="C326:C329"/>
-    <mergeCell ref="E326:E329"/>
-    <mergeCell ref="C330:C333"/>
-    <mergeCell ref="E330:E333"/>
-    <mergeCell ref="E298:E301"/>
-    <mergeCell ref="C302:C305"/>
-    <mergeCell ref="E302:E305"/>
-    <mergeCell ref="C306:C309"/>
-    <mergeCell ref="E306:E309"/>
-    <mergeCell ref="E310:E313"/>
-    <mergeCell ref="C310:C313"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="C318:C321"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="E346:E349"/>
-    <mergeCell ref="C350:C353"/>
-    <mergeCell ref="E350:E353"/>
-    <mergeCell ref="C354:C357"/>
-    <mergeCell ref="E354:E357"/>
-    <mergeCell ref="E358:E361"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E382:E385"/>
-    <mergeCell ref="E362:E365"/>
-    <mergeCell ref="E366:E369"/>
-    <mergeCell ref="E370:E373"/>
-    <mergeCell ref="E374:E377"/>
-    <mergeCell ref="E378:E381"/>
-    <mergeCell ref="C382:C385"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C458:C461"/>
+    <mergeCell ref="C462:C465"/>
+    <mergeCell ref="C466:C469"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C438:C441"/>
+    <mergeCell ref="C442:C445"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="C414:C417"/>
     <mergeCell ref="C446:C449"/>
-    <mergeCell ref="E446:E449"/>
     <mergeCell ref="C450:C453"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E454:E457"/>
     <mergeCell ref="C422:C425"/>
-    <mergeCell ref="E422:E425"/>
     <mergeCell ref="C426:C429"/>
-    <mergeCell ref="E426:E429"/>
     <mergeCell ref="C454:C457"/>
-    <mergeCell ref="C498:C501"/>
-    <mergeCell ref="E498:E501"/>
-    <mergeCell ref="E506:E509"/>
-    <mergeCell ref="E510:E513"/>
-    <mergeCell ref="E502:E505"/>
-    <mergeCell ref="C510:C513"/>
-    <mergeCell ref="C514:C517"/>
-    <mergeCell ref="C470:C473"/>
-    <mergeCell ref="E470:E473"/>
-    <mergeCell ref="C474:C477"/>
-    <mergeCell ref="E474:E477"/>
-    <mergeCell ref="E482:E485"/>
-    <mergeCell ref="E486:E489"/>
-    <mergeCell ref="E478:E481"/>
-    <mergeCell ref="C502:C505"/>
-    <mergeCell ref="C506:C509"/>
-    <mergeCell ref="C478:C481"/>
-    <mergeCell ref="C482:C485"/>
-    <mergeCell ref="C486:C489"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C542:C545"/>
-    <mergeCell ref="E542:E545"/>
-    <mergeCell ref="C534:C537"/>
-    <mergeCell ref="E534:E537"/>
-    <mergeCell ref="C538:C541"/>
-    <mergeCell ref="E538:E541"/>
-    <mergeCell ref="C526:C529"/>
-    <mergeCell ref="E526:E529"/>
-    <mergeCell ref="C530:C533"/>
-    <mergeCell ref="E530:E533"/>
-    <mergeCell ref="E514:E517"/>
-    <mergeCell ref="C518:C521"/>
-    <mergeCell ref="E518:E521"/>
-    <mergeCell ref="C522:C525"/>
-    <mergeCell ref="E522:E525"/>
-    <mergeCell ref="E490:E493"/>
-    <mergeCell ref="C494:C497"/>
-    <mergeCell ref="E494:E497"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="A218:A221"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="A230:A233"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A266:A269"/>
-    <mergeCell ref="B266:B269"/>
-    <mergeCell ref="A270:A273"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="A274:A277"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="A254:A257"/>
-    <mergeCell ref="B254:B257"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="A262:A265"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="A290:A293"/>
-    <mergeCell ref="B290:B293"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="A298:A301"/>
-    <mergeCell ref="B298:B301"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="B282:B285"/>
-    <mergeCell ref="A286:A289"/>
-    <mergeCell ref="B286:B289"/>
-    <mergeCell ref="A314:A317"/>
-    <mergeCell ref="B314:B317"/>
-    <mergeCell ref="A318:A321"/>
-    <mergeCell ref="B318:B321"/>
-    <mergeCell ref="A322:A325"/>
-    <mergeCell ref="B322:B325"/>
-    <mergeCell ref="A302:A305"/>
-    <mergeCell ref="B302:B305"/>
-    <mergeCell ref="A306:A309"/>
-    <mergeCell ref="B306:B309"/>
-    <mergeCell ref="A310:A313"/>
-    <mergeCell ref="B310:B313"/>
-    <mergeCell ref="A338:A341"/>
-    <mergeCell ref="B338:B341"/>
-    <mergeCell ref="A342:A345"/>
-    <mergeCell ref="B342:B345"/>
-    <mergeCell ref="A346:A349"/>
-    <mergeCell ref="B346:B349"/>
-    <mergeCell ref="A326:A329"/>
-    <mergeCell ref="B326:B329"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="A334:A337"/>
-    <mergeCell ref="B334:B337"/>
-    <mergeCell ref="A362:A365"/>
-    <mergeCell ref="B362:B365"/>
-    <mergeCell ref="A366:A369"/>
-    <mergeCell ref="B366:B369"/>
-    <mergeCell ref="A370:A373"/>
-    <mergeCell ref="B370:B373"/>
-    <mergeCell ref="A350:A353"/>
-    <mergeCell ref="B350:B353"/>
-    <mergeCell ref="A354:A357"/>
-    <mergeCell ref="B354:B357"/>
-    <mergeCell ref="A358:A361"/>
-    <mergeCell ref="B358:B361"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="B374:B377"/>
-    <mergeCell ref="A378:A381"/>
-    <mergeCell ref="B378:B381"/>
-    <mergeCell ref="A382:A385"/>
-    <mergeCell ref="B382:B385"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="A434:A437"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="B442:B445"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="B430:B433"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="B458:B461"/>
-    <mergeCell ref="A462:A465"/>
-    <mergeCell ref="B462:B465"/>
-    <mergeCell ref="A466:A469"/>
-    <mergeCell ref="B466:B469"/>
-    <mergeCell ref="A446:A449"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="A482:A485"/>
-    <mergeCell ref="B482:B485"/>
-    <mergeCell ref="A486:A489"/>
-    <mergeCell ref="B486:B489"/>
-    <mergeCell ref="A490:A493"/>
-    <mergeCell ref="B490:B493"/>
-    <mergeCell ref="A470:A473"/>
-    <mergeCell ref="B470:B473"/>
-    <mergeCell ref="A474:A477"/>
-    <mergeCell ref="B474:B477"/>
-    <mergeCell ref="A478:A481"/>
-    <mergeCell ref="B478:B481"/>
-    <mergeCell ref="A506:A509"/>
-    <mergeCell ref="B506:B509"/>
-    <mergeCell ref="A510:A513"/>
-    <mergeCell ref="B510:B513"/>
-    <mergeCell ref="A514:A517"/>
-    <mergeCell ref="B514:B517"/>
-    <mergeCell ref="A494:A497"/>
-    <mergeCell ref="B494:B497"/>
-    <mergeCell ref="A498:A501"/>
-    <mergeCell ref="B498:B501"/>
-    <mergeCell ref="A502:A505"/>
-    <mergeCell ref="B502:B505"/>
-    <mergeCell ref="A530:A533"/>
-    <mergeCell ref="B530:B533"/>
-    <mergeCell ref="A534:A537"/>
-    <mergeCell ref="B534:B537"/>
-    <mergeCell ref="A538:A541"/>
-    <mergeCell ref="B538:B541"/>
-    <mergeCell ref="A518:A521"/>
-    <mergeCell ref="B518:B521"/>
-    <mergeCell ref="A522:A525"/>
-    <mergeCell ref="B522:B525"/>
-    <mergeCell ref="A526:A529"/>
-    <mergeCell ref="B526:B529"/>
-    <mergeCell ref="A554:A557"/>
-    <mergeCell ref="B554:B557"/>
-    <mergeCell ref="A558:A561"/>
-    <mergeCell ref="B558:B561"/>
-    <mergeCell ref="A562:A565"/>
-    <mergeCell ref="B562:B565"/>
-    <mergeCell ref="A542:A545"/>
-    <mergeCell ref="B542:B545"/>
-    <mergeCell ref="A546:A549"/>
-    <mergeCell ref="B546:B549"/>
-    <mergeCell ref="A550:A553"/>
-    <mergeCell ref="B550:B553"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="B578:B581"/>
-    <mergeCell ref="A582:A585"/>
-    <mergeCell ref="B582:B585"/>
-    <mergeCell ref="A586:A589"/>
-    <mergeCell ref="B586:B589"/>
-    <mergeCell ref="A566:A569"/>
-    <mergeCell ref="B566:B569"/>
-    <mergeCell ref="A570:A573"/>
-    <mergeCell ref="B570:B573"/>
-    <mergeCell ref="A574:A577"/>
-    <mergeCell ref="B574:B577"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C358:C361"/>
+    <mergeCell ref="C362:C365"/>
+    <mergeCell ref="C366:C369"/>
+    <mergeCell ref="C370:C373"/>
+    <mergeCell ref="C334:C337"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C342:C345"/>
+    <mergeCell ref="C346:C349"/>
+    <mergeCell ref="C374:C377"/>
+    <mergeCell ref="C378:C381"/>
+    <mergeCell ref="C286:C289"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="C298:C301"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="C274:C277"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="C282:C285"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C258:C261"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B338" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
@@ -33260,45 +34224,132 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="H106:H109"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
     <mergeCell ref="E102:E105"/>
     <mergeCell ref="F102:F105"/>
     <mergeCell ref="E42:E45"/>
@@ -33323,132 +34374,45 @@
     <mergeCell ref="F86:F89"/>
     <mergeCell ref="F94:F97"/>
     <mergeCell ref="E54:E57"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="G106:G109"/>
-    <mergeCell ref="H106:H109"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="H98:H101"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C98:C101"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
@@ -40357,13 +41321,40 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="E2:E5"/>
@@ -40372,40 +41363,13 @@
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
@@ -47627,32 +48591,62 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="E50:E53"/>
     <mergeCell ref="F50:F53"/>
     <mergeCell ref="E2:E4"/>
@@ -47669,62 +48663,32 @@
     <mergeCell ref="F34:F37"/>
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
@@ -54557,11 +55521,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H2:H5"/>
@@ -54578,6 +55537,11 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{47819044-E1F3-45E4-893B-E194895BB40E}"/>
@@ -61519,20 +62483,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="H23:H26"/>
@@ -61549,18 +62511,20 @@
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>

--- a/DataCamp-Tracks.xlsx
+++ b/DataCamp-Tracks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC509997-CF47-4F27-BD85-1B81B75F35B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB8972-E365-4993-B219-C0EBDC7D03E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1361">
   <si>
     <t>Course Name</t>
   </si>
@@ -3968,6 +3968,147 @@
   </si>
   <si>
     <t>Putting it all together - Artisanal mining sites case study</t>
+  </si>
+  <si>
+    <t>Basics of supply chain optimization and PuLP</t>
+  </si>
+  <si>
+    <t>Modeling in PuLP</t>
+  </si>
+  <si>
+    <t>Solve and evaluate model</t>
+  </si>
+  <si>
+    <t>Sensitivity and simulation testing of model</t>
+  </si>
+  <si>
+    <t>Getting ready for object-oriented programming</t>
+  </si>
+  <si>
+    <t>Deep dive into classes and objects</t>
+  </si>
+  <si>
+    <t>Fancy classes, fancy objects</t>
+  </si>
+  <si>
+    <t>Inheritance, polymorphism and composition</t>
+  </si>
+  <si>
+    <t>Introduction and preparing your data</t>
+  </si>
+  <si>
+    <t>Fraud detection using labeled data</t>
+  </si>
+  <si>
+    <t>Fraud detection using unlabeled data</t>
+  </si>
+  <si>
+    <t>Fraud detection using text</t>
+  </si>
+  <si>
+    <t>Crucial base table concepts</t>
+  </si>
+  <si>
+    <t>Creating variables</t>
+  </si>
+  <si>
+    <t>Data preparation</t>
+  </si>
+  <si>
+    <t>Advanced base table concepts</t>
+  </si>
+  <si>
+    <t>Decennial Census of Population and Housing</t>
+  </si>
+  <si>
+    <t>American Community Survey</t>
+  </si>
+  <si>
+    <t>Measuring Segregation</t>
+  </si>
+  <si>
+    <t>Exploring Census Topics</t>
+  </si>
+  <si>
+    <t>Preparing data and a linear model</t>
+  </si>
+  <si>
+    <t>Machine learning tree methods</t>
+  </si>
+  <si>
+    <t>Neural networks and KNN</t>
+  </si>
+  <si>
+    <t>Machine learning with modern portfolio theory</t>
+  </si>
+  <si>
+    <t>Introduction to Data Preprocessing</t>
+  </si>
+  <si>
+    <t>Standardizing Data</t>
+  </si>
+  <si>
+    <t>Selecting features for modeling</t>
+  </si>
+  <si>
+    <t>Exploring high dimensional data</t>
+  </si>
+  <si>
+    <t>Feature selection I, selecting for feature information</t>
+  </si>
+  <si>
+    <t>Feature selection II, selecting for model accuracy</t>
+  </si>
+  <si>
+    <t>Feature extraction</t>
+  </si>
+  <si>
+    <t>The Standard Workflow</t>
+  </si>
+  <si>
+    <t>The Human in the Loop</t>
+  </si>
+  <si>
+    <t>Model Lifecycle Management</t>
+  </si>
+  <si>
+    <t>Unsupervised Workflows</t>
+  </si>
+  <si>
+    <t>Getting Started in Python</t>
+  </si>
+  <si>
+    <t>Loading Data in pandas</t>
+  </si>
+  <si>
+    <t>Plotting Data with matplotlib</t>
+  </si>
+  <si>
+    <t>Different Types of Plots</t>
+  </si>
+  <si>
+    <t>Creating Features</t>
+  </si>
+  <si>
+    <t>Dealing with Messy Data</t>
+  </si>
+  <si>
+    <t>Conforming to Statistical Assumptions</t>
+  </si>
+  <si>
+    <t>Dealing with Text Data</t>
+  </si>
+  <si>
+    <t>Python Programming Principles</t>
+  </si>
+  <si>
+    <t>Documentation and Tests</t>
+  </si>
+  <si>
+    <t>Shell superpowers</t>
+  </si>
+  <si>
+    <t>Projects, pipelines, and parallelism</t>
   </si>
 </sst>
 </file>
@@ -4535,7 +4676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1007"/>
+  <dimension ref="A1:H1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10623,18 +10764,30 @@
       <c r="B406" s="37" t="s">
         <v>613</v>
       </c>
-      <c r="C406" s="34"/>
-      <c r="D406" s="29"/>
-      <c r="E406" s="31"/>
-      <c r="F406" s="31"/>
-      <c r="G406" s="31"/>
+      <c r="C406" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D406" s="29" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E406" s="31">
+        <v>4</v>
+      </c>
+      <c r="F406" s="31">
+        <v>16</v>
+      </c>
+      <c r="G406" s="31">
+        <v>48</v>
+      </c>
       <c r="H406" s="31"/>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="35"/>
       <c r="B407" s="38"/>
       <c r="C407" s="35"/>
-      <c r="D407" s="8"/>
+      <c r="D407" s="8" t="s">
+        <v>1315</v>
+      </c>
       <c r="E407" s="32"/>
       <c r="F407" s="32"/>
       <c r="G407" s="32"/>
@@ -10644,7 +10797,9 @@
       <c r="A408" s="35"/>
       <c r="B408" s="38"/>
       <c r="C408" s="35"/>
-      <c r="D408" s="8"/>
+      <c r="D408" s="8" t="s">
+        <v>1316</v>
+      </c>
       <c r="E408" s="32"/>
       <c r="F408" s="32"/>
       <c r="G408" s="32"/>
@@ -10654,7 +10809,9 @@
       <c r="A409" s="36"/>
       <c r="B409" s="39"/>
       <c r="C409" s="36"/>
-      <c r="D409" s="30"/>
+      <c r="D409" s="30" t="s">
+        <v>1317</v>
+      </c>
       <c r="E409" s="33"/>
       <c r="F409" s="33"/>
       <c r="G409" s="33"/>
@@ -10667,18 +10824,30 @@
       <c r="B410" s="37" t="s">
         <v>615</v>
       </c>
-      <c r="C410" s="34"/>
-      <c r="D410" s="29"/>
-      <c r="E410" s="31"/>
-      <c r="F410" s="31"/>
-      <c r="G410" s="31"/>
+      <c r="C410" s="34" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D410" s="29" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E410" s="31">
+        <v>4</v>
+      </c>
+      <c r="F410" s="31">
+        <v>14</v>
+      </c>
+      <c r="G410" s="31">
+        <v>48</v>
+      </c>
       <c r="H410" s="31"/>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="35"/>
       <c r="B411" s="38"/>
       <c r="C411" s="35"/>
-      <c r="D411" s="8"/>
+      <c r="D411" s="8" t="s">
+        <v>1319</v>
+      </c>
       <c r="E411" s="32"/>
       <c r="F411" s="32"/>
       <c r="G411" s="32"/>
@@ -10688,7 +10857,9 @@
       <c r="A412" s="35"/>
       <c r="B412" s="38"/>
       <c r="C412" s="35"/>
-      <c r="D412" s="8"/>
+      <c r="D412" s="8" t="s">
+        <v>1320</v>
+      </c>
       <c r="E412" s="32"/>
       <c r="F412" s="32"/>
       <c r="G412" s="32"/>
@@ -10698,7 +10869,9 @@
       <c r="A413" s="36"/>
       <c r="B413" s="39"/>
       <c r="C413" s="36"/>
-      <c r="D413" s="30"/>
+      <c r="D413" s="30" t="s">
+        <v>1321</v>
+      </c>
       <c r="E413" s="33"/>
       <c r="F413" s="33"/>
       <c r="G413" s="33"/>
@@ -10711,18 +10884,30 @@
       <c r="B414" s="37" t="s">
         <v>617</v>
       </c>
-      <c r="C414" s="34"/>
-      <c r="D414" s="29"/>
-      <c r="E414" s="31"/>
-      <c r="F414" s="31"/>
-      <c r="G414" s="31"/>
+      <c r="C414" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D414" s="29" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E414" s="31">
+        <v>4</v>
+      </c>
+      <c r="F414" s="31">
+        <v>16</v>
+      </c>
+      <c r="G414" s="31">
+        <v>57</v>
+      </c>
       <c r="H414" s="31"/>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="35"/>
       <c r="B415" s="38"/>
       <c r="C415" s="35"/>
-      <c r="D415" s="8"/>
+      <c r="D415" s="8" t="s">
+        <v>1323</v>
+      </c>
       <c r="E415" s="32"/>
       <c r="F415" s="32"/>
       <c r="G415" s="32"/>
@@ -10732,7 +10917,9 @@
       <c r="A416" s="35"/>
       <c r="B416" s="38"/>
       <c r="C416" s="35"/>
-      <c r="D416" s="8"/>
+      <c r="D416" s="8" t="s">
+        <v>1324</v>
+      </c>
       <c r="E416" s="32"/>
       <c r="F416" s="32"/>
       <c r="G416" s="32"/>
@@ -10742,7 +10929,9 @@
       <c r="A417" s="36"/>
       <c r="B417" s="39"/>
       <c r="C417" s="36"/>
-      <c r="D417" s="30"/>
+      <c r="D417" s="30" t="s">
+        <v>1325</v>
+      </c>
       <c r="E417" s="33"/>
       <c r="F417" s="33"/>
       <c r="G417" s="33"/>
@@ -10755,18 +10944,30 @@
       <c r="B418" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="C418" s="34"/>
-      <c r="D418" s="29"/>
-      <c r="E418" s="31"/>
-      <c r="F418" s="31"/>
-      <c r="G418" s="31"/>
+      <c r="C418" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D418" s="29" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E418" s="31">
+        <v>4</v>
+      </c>
+      <c r="F418" s="31">
+        <v>15</v>
+      </c>
+      <c r="G418" s="31">
+        <v>56</v>
+      </c>
       <c r="H418" s="31"/>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="35"/>
       <c r="B419" s="38"/>
       <c r="C419" s="35"/>
-      <c r="D419" s="8"/>
+      <c r="D419" s="8" t="s">
+        <v>1327</v>
+      </c>
       <c r="E419" s="32"/>
       <c r="F419" s="32"/>
       <c r="G419" s="32"/>
@@ -10776,7 +10977,9 @@
       <c r="A420" s="35"/>
       <c r="B420" s="38"/>
       <c r="C420" s="35"/>
-      <c r="D420" s="8"/>
+      <c r="D420" s="8" t="s">
+        <v>1328</v>
+      </c>
       <c r="E420" s="32"/>
       <c r="F420" s="32"/>
       <c r="G420" s="32"/>
@@ -10786,7 +10989,9 @@
       <c r="A421" s="36"/>
       <c r="B421" s="39"/>
       <c r="C421" s="36"/>
-      <c r="D421" s="30"/>
+      <c r="D421" s="30" t="s">
+        <v>1329</v>
+      </c>
       <c r="E421" s="33"/>
       <c r="F421" s="33"/>
       <c r="G421" s="33"/>
@@ -10799,18 +11004,30 @@
       <c r="B422" s="37" t="s">
         <v>621</v>
       </c>
-      <c r="C422" s="34"/>
-      <c r="D422" s="29"/>
-      <c r="E422" s="31"/>
-      <c r="F422" s="31"/>
-      <c r="G422" s="31"/>
+      <c r="C422" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D422" s="29" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E422" s="31">
+        <v>5</v>
+      </c>
+      <c r="F422" s="31">
+        <v>16</v>
+      </c>
+      <c r="G422" s="31">
+        <v>57</v>
+      </c>
       <c r="H422" s="31"/>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="35"/>
       <c r="B423" s="38"/>
       <c r="C423" s="35"/>
-      <c r="D423" s="8"/>
+      <c r="D423" s="8" t="s">
+        <v>1331</v>
+      </c>
       <c r="E423" s="32"/>
       <c r="F423" s="32"/>
       <c r="G423" s="32"/>
@@ -10820,7 +11037,9 @@
       <c r="A424" s="35"/>
       <c r="B424" s="38"/>
       <c r="C424" s="35"/>
-      <c r="D424" s="8"/>
+      <c r="D424" s="8" t="s">
+        <v>1332</v>
+      </c>
       <c r="E424" s="32"/>
       <c r="F424" s="32"/>
       <c r="G424" s="32"/>
@@ -10830,7 +11049,9 @@
       <c r="A425" s="36"/>
       <c r="B425" s="39"/>
       <c r="C425" s="36"/>
-      <c r="D425" s="30"/>
+      <c r="D425" s="30" t="s">
+        <v>1333</v>
+      </c>
       <c r="E425" s="33"/>
       <c r="F425" s="33"/>
       <c r="G425" s="33"/>
@@ -10843,18 +11064,30 @@
       <c r="B426" s="37" t="s">
         <v>623</v>
       </c>
-      <c r="C426" s="34"/>
-      <c r="D426" s="29"/>
-      <c r="E426" s="31"/>
-      <c r="F426" s="31"/>
-      <c r="G426" s="31"/>
+      <c r="C426" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D426" s="29" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E426" s="31">
+        <v>4</v>
+      </c>
+      <c r="F426" s="31">
+        <v>15</v>
+      </c>
+      <c r="G426" s="31">
+        <v>59</v>
+      </c>
       <c r="H426" s="31"/>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="35"/>
       <c r="B427" s="38"/>
       <c r="C427" s="35"/>
-      <c r="D427" s="8"/>
+      <c r="D427" s="8" t="s">
+        <v>1335</v>
+      </c>
       <c r="E427" s="32"/>
       <c r="F427" s="32"/>
       <c r="G427" s="32"/>
@@ -10864,7 +11097,9 @@
       <c r="A428" s="35"/>
       <c r="B428" s="38"/>
       <c r="C428" s="35"/>
-      <c r="D428" s="8"/>
+      <c r="D428" s="8" t="s">
+        <v>1336</v>
+      </c>
       <c r="E428" s="32"/>
       <c r="F428" s="32"/>
       <c r="G428" s="32"/>
@@ -10874,7 +11109,9 @@
       <c r="A429" s="36"/>
       <c r="B429" s="39"/>
       <c r="C429" s="36"/>
-      <c r="D429" s="30"/>
+      <c r="D429" s="30" t="s">
+        <v>1337</v>
+      </c>
       <c r="E429" s="33"/>
       <c r="F429" s="33"/>
       <c r="G429" s="33"/>
@@ -10887,18 +11124,30 @@
       <c r="B430" s="37" t="s">
         <v>625</v>
       </c>
-      <c r="C430" s="34"/>
-      <c r="D430" s="29"/>
-      <c r="E430" s="31"/>
-      <c r="F430" s="31"/>
-      <c r="G430" s="31"/>
+      <c r="C430" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D430" s="29" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E430" s="31">
+        <v>4</v>
+      </c>
+      <c r="F430" s="31">
+        <v>20</v>
+      </c>
+      <c r="G430" s="31">
+        <v>62</v>
+      </c>
       <c r="H430" s="31"/>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="35"/>
       <c r="B431" s="38"/>
       <c r="C431" s="35"/>
-      <c r="D431" s="8"/>
+      <c r="D431" s="8" t="s">
+        <v>1339</v>
+      </c>
       <c r="E431" s="32"/>
       <c r="F431" s="32"/>
       <c r="G431" s="32"/>
@@ -10908,265 +11157,351 @@
       <c r="A432" s="35"/>
       <c r="B432" s="38"/>
       <c r="C432" s="35"/>
-      <c r="D432" s="8"/>
+      <c r="D432" s="8" t="s">
+        <v>1002</v>
+      </c>
       <c r="E432" s="32"/>
       <c r="F432" s="32"/>
       <c r="G432" s="32"/>
       <c r="H432" s="32"/>
     </row>
-    <row r="433" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A433" s="36"/>
-      <c r="B433" s="39"/>
-      <c r="C433" s="36"/>
-      <c r="D433" s="30"/>
-      <c r="E433" s="33"/>
-      <c r="F433" s="33"/>
-      <c r="G433" s="33"/>
-      <c r="H433" s="33"/>
-    </row>
-    <row r="434" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="34" t="s">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A433" s="35"/>
+      <c r="B433" s="38"/>
+      <c r="C433" s="35"/>
+      <c r="D433" s="8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E433" s="32"/>
+      <c r="F433" s="32"/>
+      <c r="G433" s="32"/>
+      <c r="H433" s="32"/>
+    </row>
+    <row r="434" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="36"/>
+      <c r="B434" s="39"/>
+      <c r="C434" s="36"/>
+      <c r="D434" s="30" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E434" s="33"/>
+      <c r="F434" s="33"/>
+      <c r="G434" s="33"/>
+      <c r="H434" s="33"/>
+    </row>
+    <row r="435" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="B434" s="37" t="s">
+      <c r="B435" s="37" t="s">
         <v>627</v>
       </c>
-      <c r="C434" s="34"/>
-      <c r="D434" s="29"/>
-      <c r="E434" s="31"/>
-      <c r="F434" s="31"/>
-      <c r="G434" s="31"/>
-      <c r="H434" s="31"/>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A435" s="35"/>
-      <c r="B435" s="38"/>
-      <c r="C435" s="35"/>
-      <c r="D435" s="8"/>
-      <c r="E435" s="32"/>
-      <c r="F435" s="32"/>
-      <c r="G435" s="32"/>
-      <c r="H435" s="32"/>
+      <c r="C435" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D435" s="29" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E435" s="31">
+        <v>4</v>
+      </c>
+      <c r="F435" s="31">
+        <v>16</v>
+      </c>
+      <c r="G435" s="31">
+        <v>58</v>
+      </c>
+      <c r="H435" s="31"/>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="35"/>
       <c r="B436" s="38"/>
       <c r="C436" s="35"/>
-      <c r="D436" s="8"/>
+      <c r="D436" s="8" t="s">
+        <v>1342</v>
+      </c>
       <c r="E436" s="32"/>
       <c r="F436" s="32"/>
       <c r="G436" s="32"/>
       <c r="H436" s="32"/>
     </row>
-    <row r="437" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A437" s="36"/>
-      <c r="B437" s="39"/>
-      <c r="C437" s="36"/>
-      <c r="D437" s="30"/>
-      <c r="E437" s="33"/>
-      <c r="F437" s="33"/>
-      <c r="G437" s="33"/>
-      <c r="H437" s="33"/>
-    </row>
-    <row r="438" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="34" t="s">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A437" s="35"/>
+      <c r="B437" s="38"/>
+      <c r="C437" s="35"/>
+      <c r="D437" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E437" s="32"/>
+      <c r="F437" s="32"/>
+      <c r="G437" s="32"/>
+      <c r="H437" s="32"/>
+    </row>
+    <row r="438" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="36"/>
+      <c r="B438" s="39"/>
+      <c r="C438" s="36"/>
+      <c r="D438" s="30" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E438" s="33"/>
+      <c r="F438" s="33"/>
+      <c r="G438" s="33"/>
+      <c r="H438" s="33"/>
+    </row>
+    <row r="439" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="34" t="s">
         <v>630</v>
       </c>
-      <c r="B438" s="37" t="s">
+      <c r="B439" s="37" t="s">
         <v>629</v>
       </c>
-      <c r="C438" s="34"/>
-      <c r="D438" s="29"/>
-      <c r="E438" s="31"/>
-      <c r="F438" s="31"/>
-      <c r="G438" s="31"/>
-      <c r="H438" s="31"/>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A439" s="35"/>
-      <c r="B439" s="38"/>
-      <c r="C439" s="35"/>
-      <c r="D439" s="8"/>
-      <c r="E439" s="32"/>
-      <c r="F439" s="32"/>
-      <c r="G439" s="32"/>
-      <c r="H439" s="32"/>
+      <c r="C439" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D439" s="29" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E439" s="31">
+        <v>4</v>
+      </c>
+      <c r="F439" s="31">
+        <v>16</v>
+      </c>
+      <c r="G439" s="31">
+        <v>51</v>
+      </c>
+      <c r="H439" s="31"/>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="35"/>
       <c r="B440" s="38"/>
       <c r="C440" s="35"/>
-      <c r="D440" s="8"/>
+      <c r="D440" s="8" t="s">
+        <v>1346</v>
+      </c>
       <c r="E440" s="32"/>
       <c r="F440" s="32"/>
       <c r="G440" s="32"/>
       <c r="H440" s="32"/>
     </row>
-    <row r="441" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A441" s="36"/>
-      <c r="B441" s="39"/>
-      <c r="C441" s="36"/>
-      <c r="D441" s="30"/>
-      <c r="E441" s="33"/>
-      <c r="F441" s="33"/>
-      <c r="G441" s="33"/>
-      <c r="H441" s="33"/>
-    </row>
-    <row r="442" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="34" t="s">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A441" s="35"/>
+      <c r="B441" s="38"/>
+      <c r="C441" s="35"/>
+      <c r="D441" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E441" s="32"/>
+      <c r="F441" s="32"/>
+      <c r="G441" s="32"/>
+      <c r="H441" s="32"/>
+    </row>
+    <row r="442" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="36"/>
+      <c r="B442" s="39"/>
+      <c r="C442" s="36"/>
+      <c r="D442" s="30" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E442" s="33"/>
+      <c r="F442" s="33"/>
+      <c r="G442" s="33"/>
+      <c r="H442" s="33"/>
+    </row>
+    <row r="443" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B442" s="37" t="s">
+      <c r="B443" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C442" s="34"/>
-      <c r="D442" s="29"/>
-      <c r="E442" s="31"/>
-      <c r="F442" s="31"/>
-      <c r="G442" s="31"/>
-      <c r="H442" s="31"/>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A443" s="35"/>
-      <c r="B443" s="38"/>
-      <c r="C443" s="35"/>
-      <c r="D443" s="8"/>
-      <c r="E443" s="32"/>
-      <c r="F443" s="32"/>
-      <c r="G443" s="32"/>
-      <c r="H443" s="32"/>
+      <c r="C443" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D443" s="29" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E443" s="31">
+        <v>4</v>
+      </c>
+      <c r="F443" s="31">
+        <v>13</v>
+      </c>
+      <c r="G443" s="31">
+        <v>44</v>
+      </c>
+      <c r="H443" s="31"/>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="35"/>
       <c r="B444" s="38"/>
       <c r="C444" s="35"/>
-      <c r="D444" s="8"/>
+      <c r="D444" s="8" t="s">
+        <v>1350</v>
+      </c>
       <c r="E444" s="32"/>
       <c r="F444" s="32"/>
       <c r="G444" s="32"/>
       <c r="H444" s="32"/>
     </row>
-    <row r="445" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="36"/>
-      <c r="B445" s="39"/>
-      <c r="C445" s="36"/>
-      <c r="D445" s="30"/>
-      <c r="E445" s="33"/>
-      <c r="F445" s="33"/>
-      <c r="G445" s="33"/>
-      <c r="H445" s="33"/>
-    </row>
-    <row r="446" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="34" t="s">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A445" s="35"/>
+      <c r="B445" s="38"/>
+      <c r="C445" s="35"/>
+      <c r="D445" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E445" s="32"/>
+      <c r="F445" s="32"/>
+      <c r="G445" s="32"/>
+      <c r="H445" s="32"/>
+    </row>
+    <row r="446" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="36"/>
+      <c r="B446" s="39"/>
+      <c r="C446" s="36"/>
+      <c r="D446" s="30" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E446" s="33"/>
+      <c r="F446" s="33"/>
+      <c r="G446" s="33"/>
+      <c r="H446" s="33"/>
+    </row>
+    <row r="447" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="34" t="s">
         <v>632</v>
       </c>
-      <c r="B446" s="37" t="s">
+      <c r="B447" s="37" t="s">
         <v>631</v>
       </c>
-      <c r="C446" s="34"/>
-      <c r="D446" s="29"/>
-      <c r="E446" s="31"/>
-      <c r="F446" s="31"/>
-      <c r="G446" s="31"/>
-      <c r="H446" s="31"/>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A447" s="35"/>
-      <c r="B447" s="38"/>
-      <c r="C447" s="35"/>
-      <c r="D447" s="8"/>
-      <c r="E447" s="32"/>
-      <c r="F447" s="32"/>
-      <c r="G447" s="32"/>
-      <c r="H447" s="32"/>
+      <c r="C447" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D447" s="29" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E447" s="31">
+        <v>4</v>
+      </c>
+      <c r="F447" s="31">
+        <v>16</v>
+      </c>
+      <c r="G447" s="31">
+        <v>53</v>
+      </c>
+      <c r="H447" s="31"/>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="35"/>
       <c r="B448" s="38"/>
       <c r="C448" s="35"/>
-      <c r="D448" s="8"/>
+      <c r="D448" s="8" t="s">
+        <v>1354</v>
+      </c>
       <c r="E448" s="32"/>
       <c r="F448" s="32"/>
       <c r="G448" s="32"/>
       <c r="H448" s="32"/>
     </row>
-    <row r="449" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A449" s="36"/>
-      <c r="B449" s="39"/>
-      <c r="C449" s="36"/>
-      <c r="D449" s="30"/>
-      <c r="E449" s="33"/>
-      <c r="F449" s="33"/>
-      <c r="G449" s="33"/>
-      <c r="H449" s="33"/>
-    </row>
-    <row r="450" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="34" t="s">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A449" s="35"/>
+      <c r="B449" s="38"/>
+      <c r="C449" s="35"/>
+      <c r="D449" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E449" s="32"/>
+      <c r="F449" s="32"/>
+      <c r="G449" s="32"/>
+      <c r="H449" s="32"/>
+    </row>
+    <row r="450" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="36"/>
+      <c r="B450" s="39"/>
+      <c r="C450" s="36"/>
+      <c r="D450" s="30" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E450" s="33"/>
+      <c r="F450" s="33"/>
+      <c r="G450" s="33"/>
+      <c r="H450" s="33"/>
+    </row>
+    <row r="451" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="34" t="s">
         <v>634</v>
       </c>
-      <c r="B450" s="37" t="s">
+      <c r="B451" s="37" t="s">
         <v>633</v>
       </c>
-      <c r="C450" s="34"/>
-      <c r="D450" s="29"/>
-      <c r="E450" s="31"/>
-      <c r="F450" s="31"/>
-      <c r="G450" s="31"/>
-      <c r="H450" s="31"/>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A451" s="35"/>
-      <c r="B451" s="38"/>
-      <c r="C451" s="35"/>
-      <c r="D451" s="8"/>
-      <c r="E451" s="32"/>
-      <c r="F451" s="32"/>
-      <c r="G451" s="32"/>
-      <c r="H451" s="32"/>
+      <c r="C451" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D451" s="29" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E451" s="31">
+        <v>4</v>
+      </c>
+      <c r="F451" s="31">
+        <v>16</v>
+      </c>
+      <c r="G451" s="31">
+        <v>47</v>
+      </c>
+      <c r="H451" s="31"/>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="35"/>
       <c r="B452" s="38"/>
       <c r="C452" s="35"/>
-      <c r="D452" s="8"/>
+      <c r="D452" s="8" t="s">
+        <v>1358</v>
+      </c>
       <c r="E452" s="32"/>
       <c r="F452" s="32"/>
       <c r="G452" s="32"/>
       <c r="H452" s="32"/>
     </row>
-    <row r="453" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A453" s="36"/>
-      <c r="B453" s="39"/>
-      <c r="C453" s="36"/>
-      <c r="D453" s="30"/>
-      <c r="E453" s="33"/>
-      <c r="F453" s="33"/>
-      <c r="G453" s="33"/>
-      <c r="H453" s="33"/>
-    </row>
-    <row r="454" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="34" t="s">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A453" s="35"/>
+      <c r="B453" s="38"/>
+      <c r="C453" s="35"/>
+      <c r="D453" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E453" s="32"/>
+      <c r="F453" s="32"/>
+      <c r="G453" s="32"/>
+      <c r="H453" s="32"/>
+    </row>
+    <row r="454" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="36"/>
+      <c r="B454" s="39"/>
+      <c r="C454" s="36"/>
+      <c r="D454" s="30" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E454" s="33"/>
+      <c r="F454" s="33"/>
+      <c r="G454" s="33"/>
+      <c r="H454" s="33"/>
+    </row>
+    <row r="455" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="34" t="s">
         <v>636</v>
       </c>
-      <c r="B454" s="37" t="s">
+      <c r="B455" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="C454" s="34"/>
-      <c r="D454" s="29"/>
-      <c r="E454" s="31"/>
-      <c r="F454" s="31"/>
-      <c r="G454" s="31"/>
-      <c r="H454" s="31"/>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A455" s="35"/>
-      <c r="B455" s="38"/>
-      <c r="C455" s="35"/>
-      <c r="D455" s="8"/>
-      <c r="E455" s="32"/>
-      <c r="F455" s="32"/>
-      <c r="G455" s="32"/>
-      <c r="H455" s="32"/>
+      <c r="C455" s="34"/>
+      <c r="D455" s="29"/>
+      <c r="E455" s="31"/>
+      <c r="F455" s="31"/>
+      <c r="G455" s="31"/>
+      <c r="H455" s="31"/>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="35"/>
@@ -11178,39 +11513,39 @@
       <c r="G456" s="32"/>
       <c r="H456" s="32"/>
     </row>
-    <row r="457" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A457" s="36"/>
-      <c r="B457" s="39"/>
-      <c r="C457" s="36"/>
-      <c r="D457" s="30"/>
-      <c r="E457" s="33"/>
-      <c r="F457" s="33"/>
-      <c r="G457" s="33"/>
-      <c r="H457" s="33"/>
-    </row>
-    <row r="458" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="34" t="s">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A457" s="35"/>
+      <c r="B457" s="38"/>
+      <c r="C457" s="35"/>
+      <c r="D457" s="8"/>
+      <c r="E457" s="32"/>
+      <c r="F457" s="32"/>
+      <c r="G457" s="32"/>
+      <c r="H457" s="32"/>
+    </row>
+    <row r="458" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="36"/>
+      <c r="B458" s="39"/>
+      <c r="C458" s="36"/>
+      <c r="D458" s="30"/>
+      <c r="E458" s="33"/>
+      <c r="F458" s="33"/>
+      <c r="G458" s="33"/>
+      <c r="H458" s="33"/>
+    </row>
+    <row r="459" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="34" t="s">
         <v>638</v>
       </c>
-      <c r="B458" s="37" t="s">
+      <c r="B459" s="37" t="s">
         <v>637</v>
       </c>
-      <c r="C458" s="34"/>
-      <c r="D458" s="29"/>
-      <c r="E458" s="31"/>
-      <c r="F458" s="31"/>
-      <c r="G458" s="31"/>
-      <c r="H458" s="31"/>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A459" s="35"/>
-      <c r="B459" s="38"/>
-      <c r="C459" s="35"/>
-      <c r="D459" s="8"/>
-      <c r="E459" s="32"/>
-      <c r="F459" s="32"/>
-      <c r="G459" s="32"/>
-      <c r="H459" s="32"/>
+      <c r="C459" s="34"/>
+      <c r="D459" s="29"/>
+      <c r="E459" s="31"/>
+      <c r="F459" s="31"/>
+      <c r="G459" s="31"/>
+      <c r="H459" s="31"/>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="35"/>
@@ -11222,39 +11557,39 @@
       <c r="G460" s="32"/>
       <c r="H460" s="32"/>
     </row>
-    <row r="461" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A461" s="36"/>
-      <c r="B461" s="39"/>
-      <c r="C461" s="36"/>
-      <c r="D461" s="30"/>
-      <c r="E461" s="33"/>
-      <c r="F461" s="33"/>
-      <c r="G461" s="33"/>
-      <c r="H461" s="33"/>
-    </row>
-    <row r="462" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="34" t="s">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A461" s="35"/>
+      <c r="B461" s="38"/>
+      <c r="C461" s="35"/>
+      <c r="D461" s="8"/>
+      <c r="E461" s="32"/>
+      <c r="F461" s="32"/>
+      <c r="G461" s="32"/>
+      <c r="H461" s="32"/>
+    </row>
+    <row r="462" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="36"/>
+      <c r="B462" s="39"/>
+      <c r="C462" s="36"/>
+      <c r="D462" s="30"/>
+      <c r="E462" s="33"/>
+      <c r="F462" s="33"/>
+      <c r="G462" s="33"/>
+      <c r="H462" s="33"/>
+    </row>
+    <row r="463" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="34" t="s">
         <v>640</v>
       </c>
-      <c r="B462" s="37" t="s">
+      <c r="B463" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="C462" s="34"/>
-      <c r="D462" s="29"/>
-      <c r="E462" s="31"/>
-      <c r="F462" s="31"/>
-      <c r="G462" s="31"/>
-      <c r="H462" s="31"/>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A463" s="35"/>
-      <c r="B463" s="38"/>
-      <c r="C463" s="35"/>
-      <c r="D463" s="8"/>
-      <c r="E463" s="32"/>
-      <c r="F463" s="32"/>
-      <c r="G463" s="32"/>
-      <c r="H463" s="32"/>
+      <c r="C463" s="34"/>
+      <c r="D463" s="29"/>
+      <c r="E463" s="31"/>
+      <c r="F463" s="31"/>
+      <c r="G463" s="31"/>
+      <c r="H463" s="31"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="35"/>
@@ -11266,39 +11601,39 @@
       <c r="G464" s="32"/>
       <c r="H464" s="32"/>
     </row>
-    <row r="465" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A465" s="36"/>
-      <c r="B465" s="39"/>
-      <c r="C465" s="36"/>
-      <c r="D465" s="30"/>
-      <c r="E465" s="33"/>
-      <c r="F465" s="33"/>
-      <c r="G465" s="33"/>
-      <c r="H465" s="33"/>
-    </row>
-    <row r="466" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="34" t="s">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A465" s="35"/>
+      <c r="B465" s="38"/>
+      <c r="C465" s="35"/>
+      <c r="D465" s="8"/>
+      <c r="E465" s="32"/>
+      <c r="F465" s="32"/>
+      <c r="G465" s="32"/>
+      <c r="H465" s="32"/>
+    </row>
+    <row r="466" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="36"/>
+      <c r="B466" s="39"/>
+      <c r="C466" s="36"/>
+      <c r="D466" s="30"/>
+      <c r="E466" s="33"/>
+      <c r="F466" s="33"/>
+      <c r="G466" s="33"/>
+      <c r="H466" s="33"/>
+    </row>
+    <row r="467" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B466" s="37" t="s">
+      <c r="B467" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C466" s="34"/>
-      <c r="D466" s="29"/>
-      <c r="E466" s="31"/>
-      <c r="F466" s="31"/>
-      <c r="G466" s="31"/>
-      <c r="H466" s="31"/>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A467" s="35"/>
-      <c r="B467" s="38"/>
-      <c r="C467" s="35"/>
-      <c r="D467" s="8"/>
-      <c r="E467" s="32"/>
-      <c r="F467" s="32"/>
-      <c r="G467" s="32"/>
-      <c r="H467" s="32"/>
+      <c r="C467" s="34"/>
+      <c r="D467" s="29"/>
+      <c r="E467" s="31"/>
+      <c r="F467" s="31"/>
+      <c r="G467" s="31"/>
+      <c r="H467" s="31"/>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="35"/>
@@ -11310,39 +11645,39 @@
       <c r="G468" s="32"/>
       <c r="H468" s="32"/>
     </row>
-    <row r="469" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="36"/>
-      <c r="B469" s="39"/>
-      <c r="C469" s="36"/>
-      <c r="D469" s="30"/>
-      <c r="E469" s="33"/>
-      <c r="F469" s="33"/>
-      <c r="G469" s="33"/>
-      <c r="H469" s="33"/>
-    </row>
-    <row r="470" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="34" t="s">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A469" s="35"/>
+      <c r="B469" s="38"/>
+      <c r="C469" s="35"/>
+      <c r="D469" s="8"/>
+      <c r="E469" s="32"/>
+      <c r="F469" s="32"/>
+      <c r="G469" s="32"/>
+      <c r="H469" s="32"/>
+    </row>
+    <row r="470" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A470" s="36"/>
+      <c r="B470" s="39"/>
+      <c r="C470" s="36"/>
+      <c r="D470" s="30"/>
+      <c r="E470" s="33"/>
+      <c r="F470" s="33"/>
+      <c r="G470" s="33"/>
+      <c r="H470" s="33"/>
+    </row>
+    <row r="471" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="34" t="s">
         <v>642</v>
       </c>
-      <c r="B470" s="37" t="s">
+      <c r="B471" s="37" t="s">
         <v>641</v>
       </c>
-      <c r="C470" s="34"/>
-      <c r="D470" s="29"/>
-      <c r="E470" s="31"/>
-      <c r="F470" s="31"/>
-      <c r="G470" s="31"/>
-      <c r="H470" s="31"/>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A471" s="35"/>
-      <c r="B471" s="38"/>
-      <c r="C471" s="35"/>
-      <c r="D471" s="8"/>
-      <c r="E471" s="32"/>
-      <c r="F471" s="32"/>
-      <c r="G471" s="32"/>
-      <c r="H471" s="32"/>
+      <c r="C471" s="34"/>
+      <c r="D471" s="29"/>
+      <c r="E471" s="31"/>
+      <c r="F471" s="31"/>
+      <c r="G471" s="31"/>
+      <c r="H471" s="31"/>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="35"/>
@@ -11354,39 +11689,39 @@
       <c r="G472" s="32"/>
       <c r="H472" s="32"/>
     </row>
-    <row r="473" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A473" s="36"/>
-      <c r="B473" s="39"/>
-      <c r="C473" s="36"/>
-      <c r="D473" s="30"/>
-      <c r="E473" s="33"/>
-      <c r="F473" s="33"/>
-      <c r="G473" s="33"/>
-      <c r="H473" s="33"/>
-    </row>
-    <row r="474" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="34" t="s">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A473" s="35"/>
+      <c r="B473" s="38"/>
+      <c r="C473" s="35"/>
+      <c r="D473" s="8"/>
+      <c r="E473" s="32"/>
+      <c r="F473" s="32"/>
+      <c r="G473" s="32"/>
+      <c r="H473" s="32"/>
+    </row>
+    <row r="474" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A474" s="36"/>
+      <c r="B474" s="39"/>
+      <c r="C474" s="36"/>
+      <c r="D474" s="30"/>
+      <c r="E474" s="33"/>
+      <c r="F474" s="33"/>
+      <c r="G474" s="33"/>
+      <c r="H474" s="33"/>
+    </row>
+    <row r="475" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="34" t="s">
         <v>644</v>
       </c>
-      <c r="B474" s="37" t="s">
+      <c r="B475" s="37" t="s">
         <v>643</v>
       </c>
-      <c r="C474" s="34"/>
-      <c r="D474" s="29"/>
-      <c r="E474" s="31"/>
-      <c r="F474" s="31"/>
-      <c r="G474" s="31"/>
-      <c r="H474" s="31"/>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A475" s="35"/>
-      <c r="B475" s="38"/>
-      <c r="C475" s="35"/>
-      <c r="D475" s="8"/>
-      <c r="E475" s="32"/>
-      <c r="F475" s="32"/>
-      <c r="G475" s="32"/>
-      <c r="H475" s="32"/>
+      <c r="C475" s="34"/>
+      <c r="D475" s="29"/>
+      <c r="E475" s="31"/>
+      <c r="F475" s="31"/>
+      <c r="G475" s="31"/>
+      <c r="H475" s="31"/>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="35"/>
@@ -11398,39 +11733,39 @@
       <c r="G476" s="32"/>
       <c r="H476" s="32"/>
     </row>
-    <row r="477" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A477" s="36"/>
-      <c r="B477" s="39"/>
-      <c r="C477" s="36"/>
-      <c r="D477" s="30"/>
-      <c r="E477" s="33"/>
-      <c r="F477" s="33"/>
-      <c r="G477" s="33"/>
-      <c r="H477" s="33"/>
-    </row>
-    <row r="478" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="34" t="s">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A477" s="35"/>
+      <c r="B477" s="38"/>
+      <c r="C477" s="35"/>
+      <c r="D477" s="8"/>
+      <c r="E477" s="32"/>
+      <c r="F477" s="32"/>
+      <c r="G477" s="32"/>
+      <c r="H477" s="32"/>
+    </row>
+    <row r="478" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A478" s="36"/>
+      <c r="B478" s="39"/>
+      <c r="C478" s="36"/>
+      <c r="D478" s="30"/>
+      <c r="E478" s="33"/>
+      <c r="F478" s="33"/>
+      <c r="G478" s="33"/>
+      <c r="H478" s="33"/>
+    </row>
+    <row r="479" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="34" t="s">
         <v>646</v>
       </c>
-      <c r="B478" s="37" t="s">
+      <c r="B479" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="C478" s="34"/>
-      <c r="D478" s="29"/>
-      <c r="E478" s="31"/>
-      <c r="F478" s="31"/>
-      <c r="G478" s="31"/>
-      <c r="H478" s="31"/>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A479" s="35"/>
-      <c r="B479" s="38"/>
-      <c r="C479" s="35"/>
-      <c r="D479" s="8"/>
-      <c r="E479" s="32"/>
-      <c r="F479" s="32"/>
-      <c r="G479" s="32"/>
-      <c r="H479" s="32"/>
+      <c r="C479" s="34"/>
+      <c r="D479" s="29"/>
+      <c r="E479" s="31"/>
+      <c r="F479" s="31"/>
+      <c r="G479" s="31"/>
+      <c r="H479" s="31"/>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="35"/>
@@ -11442,39 +11777,39 @@
       <c r="G480" s="32"/>
       <c r="H480" s="32"/>
     </row>
-    <row r="481" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A481" s="36"/>
-      <c r="B481" s="39"/>
-      <c r="C481" s="36"/>
-      <c r="D481" s="30"/>
-      <c r="E481" s="33"/>
-      <c r="F481" s="33"/>
-      <c r="G481" s="33"/>
-      <c r="H481" s="33"/>
-    </row>
-    <row r="482" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="34" t="s">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A481" s="35"/>
+      <c r="B481" s="38"/>
+      <c r="C481" s="35"/>
+      <c r="D481" s="8"/>
+      <c r="E481" s="32"/>
+      <c r="F481" s="32"/>
+      <c r="G481" s="32"/>
+      <c r="H481" s="32"/>
+    </row>
+    <row r="482" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A482" s="36"/>
+      <c r="B482" s="39"/>
+      <c r="C482" s="36"/>
+      <c r="D482" s="30"/>
+      <c r="E482" s="33"/>
+      <c r="F482" s="33"/>
+      <c r="G482" s="33"/>
+      <c r="H482" s="33"/>
+    </row>
+    <row r="483" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="34" t="s">
         <v>648</v>
       </c>
-      <c r="B482" s="37" t="s">
+      <c r="B483" s="37" t="s">
         <v>647</v>
       </c>
-      <c r="C482" s="34"/>
-      <c r="D482" s="29"/>
-      <c r="E482" s="31"/>
-      <c r="F482" s="31"/>
-      <c r="G482" s="31"/>
-      <c r="H482" s="31"/>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A483" s="35"/>
-      <c r="B483" s="38"/>
-      <c r="C483" s="35"/>
-      <c r="D483" s="8"/>
-      <c r="E483" s="32"/>
-      <c r="F483" s="32"/>
-      <c r="G483" s="32"/>
-      <c r="H483" s="32"/>
+      <c r="C483" s="34"/>
+      <c r="D483" s="29"/>
+      <c r="E483" s="31"/>
+      <c r="F483" s="31"/>
+      <c r="G483" s="31"/>
+      <c r="H483" s="31"/>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="35"/>
@@ -11486,39 +11821,39 @@
       <c r="G484" s="32"/>
       <c r="H484" s="32"/>
     </row>
-    <row r="485" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A485" s="36"/>
-      <c r="B485" s="39"/>
-      <c r="C485" s="36"/>
-      <c r="D485" s="30"/>
-      <c r="E485" s="33"/>
-      <c r="F485" s="33"/>
-      <c r="G485" s="33"/>
-      <c r="H485" s="33"/>
-    </row>
-    <row r="486" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="34" t="s">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A485" s="35"/>
+      <c r="B485" s="38"/>
+      <c r="C485" s="35"/>
+      <c r="D485" s="8"/>
+      <c r="E485" s="32"/>
+      <c r="F485" s="32"/>
+      <c r="G485" s="32"/>
+      <c r="H485" s="32"/>
+    </row>
+    <row r="486" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A486" s="36"/>
+      <c r="B486" s="39"/>
+      <c r="C486" s="36"/>
+      <c r="D486" s="30"/>
+      <c r="E486" s="33"/>
+      <c r="F486" s="33"/>
+      <c r="G486" s="33"/>
+      <c r="H486" s="33"/>
+    </row>
+    <row r="487" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="34" t="s">
         <v>650</v>
       </c>
-      <c r="B486" s="37" t="s">
+      <c r="B487" s="37" t="s">
         <v>649</v>
       </c>
-      <c r="C486" s="34"/>
-      <c r="D486" s="29"/>
-      <c r="E486" s="31"/>
-      <c r="F486" s="31"/>
-      <c r="G486" s="31"/>
-      <c r="H486" s="31"/>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A487" s="35"/>
-      <c r="B487" s="38"/>
-      <c r="C487" s="35"/>
-      <c r="D487" s="8"/>
-      <c r="E487" s="32"/>
-      <c r="F487" s="32"/>
-      <c r="G487" s="32"/>
-      <c r="H487" s="32"/>
+      <c r="C487" s="34"/>
+      <c r="D487" s="29"/>
+      <c r="E487" s="31"/>
+      <c r="F487" s="31"/>
+      <c r="G487" s="31"/>
+      <c r="H487" s="31"/>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="35"/>
@@ -11530,39 +11865,39 @@
       <c r="G488" s="32"/>
       <c r="H488" s="32"/>
     </row>
-    <row r="489" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A489" s="36"/>
-      <c r="B489" s="39"/>
-      <c r="C489" s="36"/>
-      <c r="D489" s="30"/>
-      <c r="E489" s="33"/>
-      <c r="F489" s="33"/>
-      <c r="G489" s="33"/>
-      <c r="H489" s="33"/>
-    </row>
-    <row r="490" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="34" t="s">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A489" s="35"/>
+      <c r="B489" s="38"/>
+      <c r="C489" s="35"/>
+      <c r="D489" s="8"/>
+      <c r="E489" s="32"/>
+      <c r="F489" s="32"/>
+      <c r="G489" s="32"/>
+      <c r="H489" s="32"/>
+    </row>
+    <row r="490" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="36"/>
+      <c r="B490" s="39"/>
+      <c r="C490" s="36"/>
+      <c r="D490" s="30"/>
+      <c r="E490" s="33"/>
+      <c r="F490" s="33"/>
+      <c r="G490" s="33"/>
+      <c r="H490" s="33"/>
+    </row>
+    <row r="491" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="34" t="s">
         <v>652</v>
       </c>
-      <c r="B490" s="37" t="s">
+      <c r="B491" s="37" t="s">
         <v>651</v>
       </c>
-      <c r="C490" s="34"/>
-      <c r="D490" s="29"/>
-      <c r="E490" s="31"/>
-      <c r="F490" s="31"/>
-      <c r="G490" s="31"/>
-      <c r="H490" s="31"/>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A491" s="35"/>
-      <c r="B491" s="38"/>
-      <c r="C491" s="35"/>
-      <c r="D491" s="8"/>
-      <c r="E491" s="32"/>
-      <c r="F491" s="32"/>
-      <c r="G491" s="32"/>
-      <c r="H491" s="32"/>
+      <c r="C491" s="34"/>
+      <c r="D491" s="29"/>
+      <c r="E491" s="31"/>
+      <c r="F491" s="31"/>
+      <c r="G491" s="31"/>
+      <c r="H491" s="31"/>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="35"/>
@@ -11574,39 +11909,39 @@
       <c r="G492" s="32"/>
       <c r="H492" s="32"/>
     </row>
-    <row r="493" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A493" s="36"/>
-      <c r="B493" s="39"/>
-      <c r="C493" s="36"/>
-      <c r="D493" s="30"/>
-      <c r="E493" s="33"/>
-      <c r="F493" s="33"/>
-      <c r="G493" s="33"/>
-      <c r="H493" s="33"/>
-    </row>
-    <row r="494" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="34" t="s">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A493" s="35"/>
+      <c r="B493" s="38"/>
+      <c r="C493" s="35"/>
+      <c r="D493" s="8"/>
+      <c r="E493" s="32"/>
+      <c r="F493" s="32"/>
+      <c r="G493" s="32"/>
+      <c r="H493" s="32"/>
+    </row>
+    <row r="494" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A494" s="36"/>
+      <c r="B494" s="39"/>
+      <c r="C494" s="36"/>
+      <c r="D494" s="30"/>
+      <c r="E494" s="33"/>
+      <c r="F494" s="33"/>
+      <c r="G494" s="33"/>
+      <c r="H494" s="33"/>
+    </row>
+    <row r="495" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="34" t="s">
         <v>654</v>
       </c>
-      <c r="B494" s="37" t="s">
+      <c r="B495" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="C494" s="34"/>
-      <c r="D494" s="29"/>
-      <c r="E494" s="31"/>
-      <c r="F494" s="31"/>
-      <c r="G494" s="31"/>
-      <c r="H494" s="31"/>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A495" s="35"/>
-      <c r="B495" s="38"/>
-      <c r="C495" s="35"/>
-      <c r="D495" s="8"/>
-      <c r="E495" s="32"/>
-      <c r="F495" s="32"/>
-      <c r="G495" s="32"/>
-      <c r="H495" s="32"/>
+      <c r="C495" s="34"/>
+      <c r="D495" s="29"/>
+      <c r="E495" s="31"/>
+      <c r="F495" s="31"/>
+      <c r="G495" s="31"/>
+      <c r="H495" s="31"/>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" s="35"/>
@@ -11618,39 +11953,39 @@
       <c r="G496" s="32"/>
       <c r="H496" s="32"/>
     </row>
-    <row r="497" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A497" s="36"/>
-      <c r="B497" s="39"/>
-      <c r="C497" s="36"/>
-      <c r="D497" s="30"/>
-      <c r="E497" s="33"/>
-      <c r="F497" s="33"/>
-      <c r="G497" s="33"/>
-      <c r="H497" s="33"/>
-    </row>
-    <row r="498" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="34" t="s">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A497" s="35"/>
+      <c r="B497" s="38"/>
+      <c r="C497" s="35"/>
+      <c r="D497" s="8"/>
+      <c r="E497" s="32"/>
+      <c r="F497" s="32"/>
+      <c r="G497" s="32"/>
+      <c r="H497" s="32"/>
+    </row>
+    <row r="498" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A498" s="36"/>
+      <c r="B498" s="39"/>
+      <c r="C498" s="36"/>
+      <c r="D498" s="30"/>
+      <c r="E498" s="33"/>
+      <c r="F498" s="33"/>
+      <c r="G498" s="33"/>
+      <c r="H498" s="33"/>
+    </row>
+    <row r="499" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="34" t="s">
         <v>656</v>
       </c>
-      <c r="B498" s="37" t="s">
+      <c r="B499" s="37" t="s">
         <v>655</v>
       </c>
-      <c r="C498" s="34"/>
-      <c r="D498" s="29"/>
-      <c r="E498" s="31"/>
-      <c r="F498" s="31"/>
-      <c r="G498" s="31"/>
-      <c r="H498" s="31"/>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A499" s="35"/>
-      <c r="B499" s="38"/>
-      <c r="C499" s="35"/>
-      <c r="D499" s="8"/>
-      <c r="E499" s="32"/>
-      <c r="F499" s="32"/>
-      <c r="G499" s="32"/>
-      <c r="H499" s="32"/>
+      <c r="C499" s="34"/>
+      <c r="D499" s="29"/>
+      <c r="E499" s="31"/>
+      <c r="F499" s="31"/>
+      <c r="G499" s="31"/>
+      <c r="H499" s="31"/>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="35"/>
@@ -11662,39 +11997,39 @@
       <c r="G500" s="32"/>
       <c r="H500" s="32"/>
     </row>
-    <row r="501" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A501" s="36"/>
-      <c r="B501" s="39"/>
-      <c r="C501" s="36"/>
-      <c r="D501" s="30"/>
-      <c r="E501" s="33"/>
-      <c r="F501" s="33"/>
-      <c r="G501" s="33"/>
-      <c r="H501" s="33"/>
-    </row>
-    <row r="502" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="34" t="s">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A501" s="35"/>
+      <c r="B501" s="38"/>
+      <c r="C501" s="35"/>
+      <c r="D501" s="8"/>
+      <c r="E501" s="32"/>
+      <c r="F501" s="32"/>
+      <c r="G501" s="32"/>
+      <c r="H501" s="32"/>
+    </row>
+    <row r="502" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A502" s="36"/>
+      <c r="B502" s="39"/>
+      <c r="C502" s="36"/>
+      <c r="D502" s="30"/>
+      <c r="E502" s="33"/>
+      <c r="F502" s="33"/>
+      <c r="G502" s="33"/>
+      <c r="H502" s="33"/>
+    </row>
+    <row r="503" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="B502" s="37" t="s">
+      <c r="B503" s="37" t="s">
         <v>657</v>
       </c>
-      <c r="C502" s="34"/>
-      <c r="D502" s="29"/>
-      <c r="E502" s="31"/>
-      <c r="F502" s="31"/>
-      <c r="G502" s="31"/>
-      <c r="H502" s="31"/>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A503" s="35"/>
-      <c r="B503" s="38"/>
-      <c r="C503" s="35"/>
-      <c r="D503" s="8"/>
-      <c r="E503" s="32"/>
-      <c r="F503" s="32"/>
-      <c r="G503" s="32"/>
-      <c r="H503" s="32"/>
+      <c r="C503" s="34"/>
+      <c r="D503" s="29"/>
+      <c r="E503" s="31"/>
+      <c r="F503" s="31"/>
+      <c r="G503" s="31"/>
+      <c r="H503" s="31"/>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="35"/>
@@ -11706,39 +12041,39 @@
       <c r="G504" s="32"/>
       <c r="H504" s="32"/>
     </row>
-    <row r="505" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A505" s="36"/>
-      <c r="B505" s="39"/>
-      <c r="C505" s="36"/>
-      <c r="D505" s="30"/>
-      <c r="E505" s="33"/>
-      <c r="F505" s="33"/>
-      <c r="G505" s="33"/>
-      <c r="H505" s="33"/>
-    </row>
-    <row r="506" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="34" t="s">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A505" s="35"/>
+      <c r="B505" s="38"/>
+      <c r="C505" s="35"/>
+      <c r="D505" s="8"/>
+      <c r="E505" s="32"/>
+      <c r="F505" s="32"/>
+      <c r="G505" s="32"/>
+      <c r="H505" s="32"/>
+    </row>
+    <row r="506" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A506" s="36"/>
+      <c r="B506" s="39"/>
+      <c r="C506" s="36"/>
+      <c r="D506" s="30"/>
+      <c r="E506" s="33"/>
+      <c r="F506" s="33"/>
+      <c r="G506" s="33"/>
+      <c r="H506" s="33"/>
+    </row>
+    <row r="507" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A507" s="34" t="s">
         <v>660</v>
       </c>
-      <c r="B506" s="37" t="s">
+      <c r="B507" s="37" t="s">
         <v>659</v>
       </c>
-      <c r="C506" s="34"/>
-      <c r="D506" s="29"/>
-      <c r="E506" s="31"/>
-      <c r="F506" s="31"/>
-      <c r="G506" s="31"/>
-      <c r="H506" s="31"/>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A507" s="35"/>
-      <c r="B507" s="38"/>
-      <c r="C507" s="35"/>
-      <c r="D507" s="8"/>
-      <c r="E507" s="32"/>
-      <c r="F507" s="32"/>
-      <c r="G507" s="32"/>
-      <c r="H507" s="32"/>
+      <c r="C507" s="34"/>
+      <c r="D507" s="29"/>
+      <c r="E507" s="31"/>
+      <c r="F507" s="31"/>
+      <c r="G507" s="31"/>
+      <c r="H507" s="31"/>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="35"/>
@@ -11750,39 +12085,39 @@
       <c r="G508" s="32"/>
       <c r="H508" s="32"/>
     </row>
-    <row r="509" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A509" s="36"/>
-      <c r="B509" s="39"/>
-      <c r="C509" s="36"/>
-      <c r="D509" s="30"/>
-      <c r="E509" s="33"/>
-      <c r="F509" s="33"/>
-      <c r="G509" s="33"/>
-      <c r="H509" s="33"/>
-    </row>
-    <row r="510" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="34" t="s">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A509" s="35"/>
+      <c r="B509" s="38"/>
+      <c r="C509" s="35"/>
+      <c r="D509" s="8"/>
+      <c r="E509" s="32"/>
+      <c r="F509" s="32"/>
+      <c r="G509" s="32"/>
+      <c r="H509" s="32"/>
+    </row>
+    <row r="510" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A510" s="36"/>
+      <c r="B510" s="39"/>
+      <c r="C510" s="36"/>
+      <c r="D510" s="30"/>
+      <c r="E510" s="33"/>
+      <c r="F510" s="33"/>
+      <c r="G510" s="33"/>
+      <c r="H510" s="33"/>
+    </row>
+    <row r="511" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="34" t="s">
         <v>662</v>
       </c>
-      <c r="B510" s="37" t="s">
+      <c r="B511" s="37" t="s">
         <v>661</v>
       </c>
-      <c r="C510" s="34"/>
-      <c r="D510" s="29"/>
-      <c r="E510" s="31"/>
-      <c r="F510" s="31"/>
-      <c r="G510" s="31"/>
-      <c r="H510" s="31"/>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A511" s="35"/>
-      <c r="B511" s="38"/>
-      <c r="C511" s="35"/>
-      <c r="D511" s="8"/>
-      <c r="E511" s="32"/>
-      <c r="F511" s="32"/>
-      <c r="G511" s="32"/>
-      <c r="H511" s="32"/>
+      <c r="C511" s="34"/>
+      <c r="D511" s="29"/>
+      <c r="E511" s="31"/>
+      <c r="F511" s="31"/>
+      <c r="G511" s="31"/>
+      <c r="H511" s="31"/>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="35"/>
@@ -11794,39 +12129,39 @@
       <c r="G512" s="32"/>
       <c r="H512" s="32"/>
     </row>
-    <row r="513" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A513" s="36"/>
-      <c r="B513" s="39"/>
-      <c r="C513" s="36"/>
-      <c r="D513" s="30"/>
-      <c r="E513" s="33"/>
-      <c r="F513" s="33"/>
-      <c r="G513" s="33"/>
-      <c r="H513" s="33"/>
-    </row>
-    <row r="514" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A514" s="34" t="s">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A513" s="35"/>
+      <c r="B513" s="38"/>
+      <c r="C513" s="35"/>
+      <c r="D513" s="8"/>
+      <c r="E513" s="32"/>
+      <c r="F513" s="32"/>
+      <c r="G513" s="32"/>
+      <c r="H513" s="32"/>
+    </row>
+    <row r="514" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A514" s="36"/>
+      <c r="B514" s="39"/>
+      <c r="C514" s="36"/>
+      <c r="D514" s="30"/>
+      <c r="E514" s="33"/>
+      <c r="F514" s="33"/>
+      <c r="G514" s="33"/>
+      <c r="H514" s="33"/>
+    </row>
+    <row r="515" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="34" t="s">
         <v>664</v>
       </c>
-      <c r="B514" s="37" t="s">
+      <c r="B515" s="37" t="s">
         <v>663</v>
       </c>
-      <c r="C514" s="34"/>
-      <c r="D514" s="29"/>
-      <c r="E514" s="31"/>
-      <c r="F514" s="31"/>
-      <c r="G514" s="31"/>
-      <c r="H514" s="31"/>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A515" s="35"/>
-      <c r="B515" s="38"/>
-      <c r="C515" s="35"/>
-      <c r="D515" s="8"/>
-      <c r="E515" s="32"/>
-      <c r="F515" s="32"/>
-      <c r="G515" s="32"/>
-      <c r="H515" s="32"/>
+      <c r="C515" s="34"/>
+      <c r="D515" s="29"/>
+      <c r="E515" s="31"/>
+      <c r="F515" s="31"/>
+      <c r="G515" s="31"/>
+      <c r="H515" s="31"/>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" s="35"/>
@@ -11838,39 +12173,39 @@
       <c r="G516" s="32"/>
       <c r="H516" s="32"/>
     </row>
-    <row r="517" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A517" s="36"/>
-      <c r="B517" s="39"/>
-      <c r="C517" s="36"/>
-      <c r="D517" s="30"/>
-      <c r="E517" s="33"/>
-      <c r="F517" s="33"/>
-      <c r="G517" s="33"/>
-      <c r="H517" s="33"/>
-    </row>
-    <row r="518" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="34" t="s">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A517" s="35"/>
+      <c r="B517" s="38"/>
+      <c r="C517" s="35"/>
+      <c r="D517" s="8"/>
+      <c r="E517" s="32"/>
+      <c r="F517" s="32"/>
+      <c r="G517" s="32"/>
+      <c r="H517" s="32"/>
+    </row>
+    <row r="518" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A518" s="36"/>
+      <c r="B518" s="39"/>
+      <c r="C518" s="36"/>
+      <c r="D518" s="30"/>
+      <c r="E518" s="33"/>
+      <c r="F518" s="33"/>
+      <c r="G518" s="33"/>
+      <c r="H518" s="33"/>
+    </row>
+    <row r="519" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="34" t="s">
         <v>666</v>
       </c>
-      <c r="B518" s="37" t="s">
+      <c r="B519" s="37" t="s">
         <v>665</v>
       </c>
-      <c r="C518" s="34"/>
-      <c r="D518" s="29"/>
-      <c r="E518" s="31"/>
-      <c r="F518" s="31"/>
-      <c r="G518" s="31"/>
-      <c r="H518" s="31"/>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A519" s="35"/>
-      <c r="B519" s="38"/>
-      <c r="C519" s="35"/>
-      <c r="D519" s="8"/>
-      <c r="E519" s="32"/>
-      <c r="F519" s="32"/>
-      <c r="G519" s="32"/>
-      <c r="H519" s="32"/>
+      <c r="C519" s="34"/>
+      <c r="D519" s="29"/>
+      <c r="E519" s="31"/>
+      <c r="F519" s="31"/>
+      <c r="G519" s="31"/>
+      <c r="H519" s="31"/>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="35"/>
@@ -11882,39 +12217,39 @@
       <c r="G520" s="32"/>
       <c r="H520" s="32"/>
     </row>
-    <row r="521" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A521" s="36"/>
-      <c r="B521" s="39"/>
-      <c r="C521" s="36"/>
-      <c r="D521" s="30"/>
-      <c r="E521" s="33"/>
-      <c r="F521" s="33"/>
-      <c r="G521" s="33"/>
-      <c r="H521" s="33"/>
-    </row>
-    <row r="522" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="34" t="s">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A521" s="35"/>
+      <c r="B521" s="38"/>
+      <c r="C521" s="35"/>
+      <c r="D521" s="8"/>
+      <c r="E521" s="32"/>
+      <c r="F521" s="32"/>
+      <c r="G521" s="32"/>
+      <c r="H521" s="32"/>
+    </row>
+    <row r="522" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A522" s="36"/>
+      <c r="B522" s="39"/>
+      <c r="C522" s="36"/>
+      <c r="D522" s="30"/>
+      <c r="E522" s="33"/>
+      <c r="F522" s="33"/>
+      <c r="G522" s="33"/>
+      <c r="H522" s="33"/>
+    </row>
+    <row r="523" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="34" t="s">
         <v>668</v>
       </c>
-      <c r="B522" s="37" t="s">
+      <c r="B523" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="C522" s="34"/>
-      <c r="D522" s="29"/>
-      <c r="E522" s="31"/>
-      <c r="F522" s="31"/>
-      <c r="G522" s="31"/>
-      <c r="H522" s="31"/>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A523" s="35"/>
-      <c r="B523" s="38"/>
-      <c r="C523" s="35"/>
-      <c r="D523" s="8"/>
-      <c r="E523" s="32"/>
-      <c r="F523" s="32"/>
-      <c r="G523" s="32"/>
-      <c r="H523" s="32"/>
+      <c r="C523" s="34"/>
+      <c r="D523" s="29"/>
+      <c r="E523" s="31"/>
+      <c r="F523" s="31"/>
+      <c r="G523" s="31"/>
+      <c r="H523" s="31"/>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="35"/>
@@ -11926,39 +12261,39 @@
       <c r="G524" s="32"/>
       <c r="H524" s="32"/>
     </row>
-    <row r="525" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A525" s="36"/>
-      <c r="B525" s="39"/>
-      <c r="C525" s="36"/>
-      <c r="D525" s="30"/>
-      <c r="E525" s="33"/>
-      <c r="F525" s="33"/>
-      <c r="G525" s="33"/>
-      <c r="H525" s="33"/>
-    </row>
-    <row r="526" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="34" t="s">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A525" s="35"/>
+      <c r="B525" s="38"/>
+      <c r="C525" s="35"/>
+      <c r="D525" s="8"/>
+      <c r="E525" s="32"/>
+      <c r="F525" s="32"/>
+      <c r="G525" s="32"/>
+      <c r="H525" s="32"/>
+    </row>
+    <row r="526" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A526" s="36"/>
+      <c r="B526" s="39"/>
+      <c r="C526" s="36"/>
+      <c r="D526" s="30"/>
+      <c r="E526" s="33"/>
+      <c r="F526" s="33"/>
+      <c r="G526" s="33"/>
+      <c r="H526" s="33"/>
+    </row>
+    <row r="527" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="34" t="s">
         <v>670</v>
       </c>
-      <c r="B526" s="37" t="s">
+      <c r="B527" s="37" t="s">
         <v>669</v>
       </c>
-      <c r="C526" s="34"/>
-      <c r="D526" s="29"/>
-      <c r="E526" s="31"/>
-      <c r="F526" s="31"/>
-      <c r="G526" s="31"/>
-      <c r="H526" s="31"/>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A527" s="35"/>
-      <c r="B527" s="38"/>
-      <c r="C527" s="35"/>
-      <c r="D527" s="8"/>
-      <c r="E527" s="32"/>
-      <c r="F527" s="32"/>
-      <c r="G527" s="32"/>
-      <c r="H527" s="32"/>
+      <c r="C527" s="34"/>
+      <c r="D527" s="29"/>
+      <c r="E527" s="31"/>
+      <c r="F527" s="31"/>
+      <c r="G527" s="31"/>
+      <c r="H527" s="31"/>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" s="35"/>
@@ -11970,39 +12305,39 @@
       <c r="G528" s="32"/>
       <c r="H528" s="32"/>
     </row>
-    <row r="529" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A529" s="36"/>
-      <c r="B529" s="39"/>
-      <c r="C529" s="36"/>
-      <c r="D529" s="30"/>
-      <c r="E529" s="33"/>
-      <c r="F529" s="33"/>
-      <c r="G529" s="33"/>
-      <c r="H529" s="33"/>
-    </row>
-    <row r="530" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="34" t="s">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A529" s="35"/>
+      <c r="B529" s="38"/>
+      <c r="C529" s="35"/>
+      <c r="D529" s="8"/>
+      <c r="E529" s="32"/>
+      <c r="F529" s="32"/>
+      <c r="G529" s="32"/>
+      <c r="H529" s="32"/>
+    </row>
+    <row r="530" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A530" s="36"/>
+      <c r="B530" s="39"/>
+      <c r="C530" s="36"/>
+      <c r="D530" s="30"/>
+      <c r="E530" s="33"/>
+      <c r="F530" s="33"/>
+      <c r="G530" s="33"/>
+      <c r="H530" s="33"/>
+    </row>
+    <row r="531" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="34" t="s">
         <v>672</v>
       </c>
-      <c r="B530" s="37" t="s">
+      <c r="B531" s="37" t="s">
         <v>671</v>
       </c>
-      <c r="C530" s="34"/>
-      <c r="D530" s="29"/>
-      <c r="E530" s="31"/>
-      <c r="F530" s="31"/>
-      <c r="G530" s="31"/>
-      <c r="H530" s="31"/>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A531" s="35"/>
-      <c r="B531" s="38"/>
-      <c r="C531" s="35"/>
-      <c r="D531" s="8"/>
-      <c r="E531" s="32"/>
-      <c r="F531" s="32"/>
-      <c r="G531" s="32"/>
-      <c r="H531" s="32"/>
+      <c r="C531" s="34"/>
+      <c r="D531" s="29"/>
+      <c r="E531" s="31"/>
+      <c r="F531" s="31"/>
+      <c r="G531" s="31"/>
+      <c r="H531" s="31"/>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" s="35"/>
@@ -12014,39 +12349,39 @@
       <c r="G532" s="32"/>
       <c r="H532" s="32"/>
     </row>
-    <row r="533" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A533" s="36"/>
-      <c r="B533" s="39"/>
-      <c r="C533" s="36"/>
-      <c r="D533" s="30"/>
-      <c r="E533" s="33"/>
-      <c r="F533" s="33"/>
-      <c r="G533" s="33"/>
-      <c r="H533" s="33"/>
-    </row>
-    <row r="534" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="34" t="s">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A533" s="35"/>
+      <c r="B533" s="38"/>
+      <c r="C533" s="35"/>
+      <c r="D533" s="8"/>
+      <c r="E533" s="32"/>
+      <c r="F533" s="32"/>
+      <c r="G533" s="32"/>
+      <c r="H533" s="32"/>
+    </row>
+    <row r="534" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A534" s="36"/>
+      <c r="B534" s="39"/>
+      <c r="C534" s="36"/>
+      <c r="D534" s="30"/>
+      <c r="E534" s="33"/>
+      <c r="F534" s="33"/>
+      <c r="G534" s="33"/>
+      <c r="H534" s="33"/>
+    </row>
+    <row r="535" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="34" t="s">
         <v>674</v>
       </c>
-      <c r="B534" s="37" t="s">
+      <c r="B535" s="37" t="s">
         <v>673</v>
       </c>
-      <c r="C534" s="34"/>
-      <c r="D534" s="29"/>
-      <c r="E534" s="31"/>
-      <c r="F534" s="31"/>
-      <c r="G534" s="31"/>
-      <c r="H534" s="31"/>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A535" s="35"/>
-      <c r="B535" s="38"/>
-      <c r="C535" s="35"/>
-      <c r="D535" s="8"/>
-      <c r="E535" s="32"/>
-      <c r="F535" s="32"/>
-      <c r="G535" s="32"/>
-      <c r="H535" s="32"/>
+      <c r="C535" s="34"/>
+      <c r="D535" s="29"/>
+      <c r="E535" s="31"/>
+      <c r="F535" s="31"/>
+      <c r="G535" s="31"/>
+      <c r="H535" s="31"/>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" s="35"/>
@@ -12058,39 +12393,39 @@
       <c r="G536" s="32"/>
       <c r="H536" s="32"/>
     </row>
-    <row r="537" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A537" s="36"/>
-      <c r="B537" s="39"/>
-      <c r="C537" s="36"/>
-      <c r="D537" s="30"/>
-      <c r="E537" s="33"/>
-      <c r="F537" s="33"/>
-      <c r="G537" s="33"/>
-      <c r="H537" s="33"/>
-    </row>
-    <row r="538" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="34" t="s">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A537" s="35"/>
+      <c r="B537" s="38"/>
+      <c r="C537" s="35"/>
+      <c r="D537" s="8"/>
+      <c r="E537" s="32"/>
+      <c r="F537" s="32"/>
+      <c r="G537" s="32"/>
+      <c r="H537" s="32"/>
+    </row>
+    <row r="538" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A538" s="36"/>
+      <c r="B538" s="39"/>
+      <c r="C538" s="36"/>
+      <c r="D538" s="30"/>
+      <c r="E538" s="33"/>
+      <c r="F538" s="33"/>
+      <c r="G538" s="33"/>
+      <c r="H538" s="33"/>
+    </row>
+    <row r="539" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="34" t="s">
         <v>676</v>
       </c>
-      <c r="B538" s="37" t="s">
+      <c r="B539" s="37" t="s">
         <v>675</v>
       </c>
-      <c r="C538" s="34"/>
-      <c r="D538" s="29"/>
-      <c r="E538" s="31"/>
-      <c r="F538" s="31"/>
-      <c r="G538" s="31"/>
-      <c r="H538" s="31"/>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A539" s="35"/>
-      <c r="B539" s="38"/>
-      <c r="C539" s="35"/>
-      <c r="D539" s="8"/>
-      <c r="E539" s="32"/>
-      <c r="F539" s="32"/>
-      <c r="G539" s="32"/>
-      <c r="H539" s="32"/>
+      <c r="C539" s="34"/>
+      <c r="D539" s="29"/>
+      <c r="E539" s="31"/>
+      <c r="F539" s="31"/>
+      <c r="G539" s="31"/>
+      <c r="H539" s="31"/>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" s="35"/>
@@ -12102,39 +12437,39 @@
       <c r="G540" s="32"/>
       <c r="H540" s="32"/>
     </row>
-    <row r="541" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A541" s="36"/>
-      <c r="B541" s="39"/>
-      <c r="C541" s="36"/>
-      <c r="D541" s="30"/>
-      <c r="E541" s="33"/>
-      <c r="F541" s="33"/>
-      <c r="G541" s="33"/>
-      <c r="H541" s="33"/>
-    </row>
-    <row r="542" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A542" s="34" t="s">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A541" s="35"/>
+      <c r="B541" s="38"/>
+      <c r="C541" s="35"/>
+      <c r="D541" s="8"/>
+      <c r="E541" s="32"/>
+      <c r="F541" s="32"/>
+      <c r="G541" s="32"/>
+      <c r="H541" s="32"/>
+    </row>
+    <row r="542" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A542" s="36"/>
+      <c r="B542" s="39"/>
+      <c r="C542" s="36"/>
+      <c r="D542" s="30"/>
+      <c r="E542" s="33"/>
+      <c r="F542" s="33"/>
+      <c r="G542" s="33"/>
+      <c r="H542" s="33"/>
+    </row>
+    <row r="543" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A543" s="34" t="s">
         <v>678</v>
       </c>
-      <c r="B542" s="37" t="s">
+      <c r="B543" s="37" t="s">
         <v>677</v>
       </c>
-      <c r="C542" s="34"/>
-      <c r="D542" s="29"/>
-      <c r="E542" s="31"/>
-      <c r="F542" s="31"/>
-      <c r="G542" s="31"/>
-      <c r="H542" s="31"/>
-    </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A543" s="35"/>
-      <c r="B543" s="38"/>
-      <c r="C543" s="35"/>
-      <c r="D543" s="8"/>
-      <c r="E543" s="32"/>
-      <c r="F543" s="32"/>
-      <c r="G543" s="32"/>
-      <c r="H543" s="32"/>
+      <c r="C543" s="34"/>
+      <c r="D543" s="29"/>
+      <c r="E543" s="31"/>
+      <c r="F543" s="31"/>
+      <c r="G543" s="31"/>
+      <c r="H543" s="31"/>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" s="35"/>
@@ -12146,39 +12481,39 @@
       <c r="G544" s="32"/>
       <c r="H544" s="32"/>
     </row>
-    <row r="545" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A545" s="36"/>
-      <c r="B545" s="39"/>
-      <c r="C545" s="36"/>
-      <c r="D545" s="30"/>
-      <c r="E545" s="33"/>
-      <c r="F545" s="33"/>
-      <c r="G545" s="33"/>
-      <c r="H545" s="33"/>
-    </row>
-    <row r="546" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="34" t="s">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A545" s="35"/>
+      <c r="B545" s="38"/>
+      <c r="C545" s="35"/>
+      <c r="D545" s="8"/>
+      <c r="E545" s="32"/>
+      <c r="F545" s="32"/>
+      <c r="G545" s="32"/>
+      <c r="H545" s="32"/>
+    </row>
+    <row r="546" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A546" s="36"/>
+      <c r="B546" s="39"/>
+      <c r="C546" s="36"/>
+      <c r="D546" s="30"/>
+      <c r="E546" s="33"/>
+      <c r="F546" s="33"/>
+      <c r="G546" s="33"/>
+      <c r="H546" s="33"/>
+    </row>
+    <row r="547" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="34" t="s">
         <v>680</v>
       </c>
-      <c r="B546" s="37" t="s">
+      <c r="B547" s="37" t="s">
         <v>679</v>
       </c>
-      <c r="C546" s="34"/>
-      <c r="D546" s="29"/>
-      <c r="E546" s="31"/>
-      <c r="F546" s="31"/>
-      <c r="G546" s="31"/>
-      <c r="H546" s="31"/>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A547" s="35"/>
-      <c r="B547" s="38"/>
-      <c r="C547" s="35"/>
-      <c r="D547" s="8"/>
-      <c r="E547" s="32"/>
-      <c r="F547" s="32"/>
-      <c r="G547" s="32"/>
-      <c r="H547" s="32"/>
+      <c r="C547" s="34"/>
+      <c r="D547" s="29"/>
+      <c r="E547" s="31"/>
+      <c r="F547" s="31"/>
+      <c r="G547" s="31"/>
+      <c r="H547" s="31"/>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" s="35"/>
@@ -12190,22 +12525,25 @@
       <c r="G548" s="32"/>
       <c r="H548" s="32"/>
     </row>
-    <row r="549" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A549" s="36"/>
-      <c r="B549" s="39"/>
-      <c r="C549" s="36"/>
-      <c r="D549" s="30"/>
-      <c r="E549" s="33"/>
-      <c r="F549" s="33"/>
-      <c r="G549" s="33"/>
-      <c r="H549" s="33"/>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A550" s="17"/>
-      <c r="C550" s="17"/>
-      <c r="F550" s="24"/>
-      <c r="G550" s="24"/>
-      <c r="H550" s="24"/>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A549" s="35"/>
+      <c r="B549" s="38"/>
+      <c r="C549" s="35"/>
+      <c r="D549" s="8"/>
+      <c r="E549" s="32"/>
+      <c r="F549" s="32"/>
+      <c r="G549" s="32"/>
+      <c r="H549" s="32"/>
+    </row>
+    <row r="550" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A550" s="36"/>
+      <c r="B550" s="39"/>
+      <c r="C550" s="36"/>
+      <c r="D550" s="30"/>
+      <c r="E550" s="33"/>
+      <c r="F550" s="33"/>
+      <c r="G550" s="33"/>
+      <c r="H550" s="33"/>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" s="17"/>
@@ -12214,14 +12552,14 @@
       <c r="G551" s="24"/>
       <c r="H551" s="24"/>
     </row>
-    <row r="552" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" s="17"/>
       <c r="C552" s="17"/>
       <c r="F552" s="24"/>
       <c r="G552" s="24"/>
       <c r="H552" s="24"/>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="17"/>
       <c r="C553" s="17"/>
       <c r="F553" s="24"/>
@@ -12231,6 +12569,9 @@
     <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" s="17"/>
       <c r="C554" s="17"/>
+      <c r="F554" s="24"/>
+      <c r="G554" s="24"/>
+      <c r="H554" s="24"/>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" s="17"/>
@@ -12244,11 +12585,11 @@
       <c r="A557" s="17"/>
       <c r="C557" s="17"/>
     </row>
-    <row r="558" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" s="17"/>
       <c r="C558" s="17"/>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="17"/>
       <c r="C559" s="17"/>
     </row>
@@ -12264,11 +12605,11 @@
       <c r="A562" s="17"/>
       <c r="C562" s="17"/>
     </row>
-    <row r="563" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="17"/>
       <c r="C563" s="17"/>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="17"/>
       <c r="C564" s="17"/>
     </row>
@@ -12280,7 +12621,7 @@
       <c r="A566" s="17"/>
       <c r="C566" s="17"/>
     </row>
-    <row r="567" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="17"/>
       <c r="C567" s="17"/>
     </row>
@@ -12292,7 +12633,7 @@
       <c r="A569" s="17"/>
       <c r="C569" s="17"/>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="17"/>
       <c r="C570" s="17"/>
     </row>
@@ -12544,24 +12885,24 @@
       <c r="A632" s="17"/>
       <c r="C632" s="17"/>
     </row>
-    <row r="633" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" s="17"/>
       <c r="C633" s="17"/>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="17"/>
       <c r="C634" s="17"/>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" s="17"/>
       <c r="C635" s="17"/>
-      <c r="F635" s="20"/>
-      <c r="G635" s="20"/>
-      <c r="H635" s="20"/>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" s="17"/>
       <c r="C636" s="17"/>
+      <c r="F636" s="20"/>
+      <c r="G636" s="20"/>
+      <c r="H636" s="20"/>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" s="17"/>
@@ -12578,13 +12919,13 @@
     <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" s="17"/>
       <c r="C640" s="17"/>
-      <c r="F640" s="20"/>
-      <c r="G640" s="20"/>
-      <c r="H640" s="20"/>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" s="17"/>
       <c r="C641" s="17"/>
+      <c r="F641" s="20"/>
+      <c r="G641" s="20"/>
+      <c r="H641" s="20"/>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" s="17"/>
@@ -12597,13 +12938,13 @@
     <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" s="17"/>
       <c r="C644" s="17"/>
-      <c r="F644" s="20"/>
-      <c r="G644" s="20"/>
-      <c r="H644" s="20"/>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" s="17"/>
       <c r="C645" s="17"/>
+      <c r="F645" s="20"/>
+      <c r="G645" s="20"/>
+      <c r="H645" s="20"/>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" s="17"/>
@@ -12616,31 +12957,31 @@
     <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" s="17"/>
       <c r="C648" s="17"/>
-      <c r="F648" s="20"/>
-      <c r="G648" s="20"/>
-      <c r="H648" s="20"/>
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" s="17"/>
       <c r="C649" s="17"/>
+      <c r="F649" s="20"/>
+      <c r="G649" s="20"/>
+      <c r="H649" s="20"/>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" s="17"/>
       <c r="C650" s="17"/>
     </row>
-    <row r="651" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" s="17"/>
-      <c r="B651" s="16"/>
       <c r="C651" s="17"/>
-      <c r="D651" s="12"/>
-      <c r="E651" s="6"/>
-      <c r="F651" s="23"/>
-      <c r="G651" s="23"/>
-      <c r="H651" s="23"/>
-    </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="652" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A652" s="17"/>
+      <c r="B652" s="16"/>
       <c r="C652" s="17"/>
+      <c r="D652" s="12"/>
+      <c r="E652" s="6"/>
+      <c r="F652" s="23"/>
+      <c r="G652" s="23"/>
+      <c r="H652" s="23"/>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" s="17"/>
@@ -12654,19 +12995,19 @@
       <c r="A655" s="17"/>
       <c r="C655" s="17"/>
     </row>
-    <row r="656" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" s="17"/>
-      <c r="B656" s="16"/>
       <c r="C656" s="17"/>
-      <c r="D656" s="12"/>
-      <c r="E656" s="6"/>
-      <c r="F656" s="23"/>
-      <c r="G656" s="23"/>
-      <c r="H656" s="23"/>
-    </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="657" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A657" s="17"/>
+      <c r="B657" s="16"/>
       <c r="C657" s="17"/>
+      <c r="D657" s="12"/>
+      <c r="E657" s="6"/>
+      <c r="F657" s="23"/>
+      <c r="G657" s="23"/>
+      <c r="H657" s="23"/>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" s="17"/>
@@ -12676,19 +13017,19 @@
       <c r="A659" s="17"/>
       <c r="C659" s="17"/>
     </row>
-    <row r="660" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" s="17"/>
-      <c r="B660" s="16"/>
       <c r="C660" s="17"/>
-      <c r="D660" s="12"/>
-      <c r="E660" s="6"/>
-      <c r="F660" s="23"/>
-      <c r="G660" s="23"/>
-      <c r="H660" s="23"/>
-    </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="661" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A661" s="17"/>
+      <c r="B661" s="16"/>
       <c r="C661" s="17"/>
+      <c r="D661" s="12"/>
+      <c r="E661" s="6"/>
+      <c r="F661" s="23"/>
+      <c r="G661" s="23"/>
+      <c r="H661" s="23"/>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" s="17"/>
@@ -12698,21 +13039,21 @@
       <c r="A663" s="17"/>
       <c r="C663" s="17"/>
     </row>
-    <row r="664" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A664" s="17"/>
-      <c r="B664" s="16"/>
       <c r="C664" s="17"/>
-      <c r="D664" s="12"/>
-      <c r="E664" s="6"/>
-      <c r="F664" s="23"/>
-      <c r="G664" s="23"/>
-      <c r="H664" s="23"/>
-    </row>
-    <row r="665" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="665" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A665" s="17"/>
+      <c r="B665" s="16"/>
       <c r="C665" s="17"/>
-    </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D665" s="12"/>
+      <c r="E665" s="6"/>
+      <c r="F665" s="23"/>
+      <c r="G665" s="23"/>
+      <c r="H665" s="23"/>
+    </row>
+    <row r="666" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="17"/>
       <c r="C666" s="17"/>
     </row>
@@ -12916,11 +13257,11 @@
       <c r="A716" s="17"/>
       <c r="C716" s="17"/>
     </row>
-    <row r="717" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="17"/>
       <c r="C717" s="17"/>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="17"/>
       <c r="C718" s="17"/>
     </row>
@@ -12932,11 +13273,11 @@
       <c r="A720" s="17"/>
       <c r="C720" s="17"/>
     </row>
-    <row r="721" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="17"/>
       <c r="C721" s="17"/>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="17"/>
       <c r="C722" s="17"/>
     </row>
@@ -12988,11 +13329,11 @@
       <c r="A734" s="17"/>
       <c r="C734" s="17"/>
     </row>
-    <row r="735" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="17"/>
       <c r="C735" s="17"/>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="17"/>
       <c r="C736" s="17"/>
     </row>
@@ -13088,11 +13429,11 @@
       <c r="A759" s="17"/>
       <c r="C759" s="17"/>
     </row>
-    <row r="760" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="17"/>
       <c r="C760" s="17"/>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="17"/>
       <c r="C761" s="17"/>
     </row>
@@ -13112,11 +13453,11 @@
       <c r="A765" s="17"/>
       <c r="C765" s="17"/>
     </row>
-    <row r="766" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="17"/>
       <c r="C766" s="17"/>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="17"/>
       <c r="C767" s="17"/>
     </row>
@@ -13136,11 +13477,11 @@
       <c r="A771" s="17"/>
       <c r="C771" s="17"/>
     </row>
-    <row r="772" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="17"/>
       <c r="C772" s="17"/>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="17"/>
       <c r="C773" s="17"/>
     </row>
@@ -13160,11 +13501,11 @@
       <c r="A777" s="17"/>
       <c r="C777" s="17"/>
     </row>
-    <row r="778" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="17"/>
       <c r="C778" s="17"/>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="17"/>
       <c r="C779" s="17"/>
     </row>
@@ -13240,11 +13581,11 @@
       <c r="A797" s="17"/>
       <c r="C797" s="17"/>
     </row>
-    <row r="798" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="17"/>
       <c r="C798" s="17"/>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="17"/>
       <c r="C799" s="17"/>
     </row>
@@ -13260,11 +13601,11 @@
       <c r="A802" s="17"/>
       <c r="C802" s="17"/>
     </row>
-    <row r="803" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="17"/>
       <c r="C803" s="17"/>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="17"/>
       <c r="C804" s="17"/>
     </row>
@@ -13276,11 +13617,11 @@
       <c r="A806" s="17"/>
       <c r="C806" s="17"/>
     </row>
-    <row r="807" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="17"/>
       <c r="C807" s="17"/>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="17"/>
       <c r="C808" s="17"/>
     </row>
@@ -13296,11 +13637,11 @@
       <c r="A811" s="17"/>
       <c r="C811" s="17"/>
     </row>
-    <row r="812" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="17"/>
       <c r="C812" s="17"/>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="17"/>
       <c r="C813" s="17"/>
     </row>
@@ -13312,11 +13653,11 @@
       <c r="A815" s="17"/>
       <c r="C815" s="17"/>
     </row>
-    <row r="816" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="17"/>
       <c r="C816" s="17"/>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="17"/>
       <c r="C817" s="17"/>
     </row>
@@ -13328,11 +13669,11 @@
       <c r="A819" s="17"/>
       <c r="C819" s="17"/>
     </row>
-    <row r="820" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="17"/>
       <c r="C820" s="17"/>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="17"/>
       <c r="C821" s="17"/>
     </row>
@@ -13344,11 +13685,11 @@
       <c r="A823" s="17"/>
       <c r="C823" s="17"/>
     </row>
-    <row r="824" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="17"/>
       <c r="C824" s="17"/>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="17"/>
       <c r="C825" s="17"/>
     </row>
@@ -13356,11 +13697,11 @@
       <c r="A826" s="17"/>
       <c r="C826" s="17"/>
     </row>
-    <row r="827" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" s="17"/>
       <c r="C827" s="17"/>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="17"/>
       <c r="C828" s="17"/>
     </row>
@@ -13372,11 +13713,11 @@
       <c r="A830" s="17"/>
       <c r="C830" s="17"/>
     </row>
-    <row r="831" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="17"/>
       <c r="C831" s="17"/>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="17"/>
       <c r="C832" s="17"/>
     </row>
@@ -13388,11 +13729,11 @@
       <c r="A834" s="17"/>
       <c r="C834" s="17"/>
     </row>
-    <row r="835" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="17"/>
       <c r="C835" s="17"/>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="17"/>
       <c r="C836" s="17"/>
     </row>
@@ -13468,11 +13809,11 @@
       <c r="A854" s="17"/>
       <c r="C854" s="17"/>
     </row>
-    <row r="855" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A855" s="17"/>
       <c r="C855" s="17"/>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="17"/>
       <c r="C856" s="17"/>
     </row>
@@ -13492,11 +13833,11 @@
       <c r="A860" s="17"/>
       <c r="C860" s="17"/>
     </row>
-    <row r="861" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861" s="17"/>
       <c r="C861" s="17"/>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="17"/>
       <c r="C862" s="17"/>
     </row>
@@ -13516,11 +13857,11 @@
       <c r="A866" s="17"/>
       <c r="C866" s="17"/>
     </row>
-    <row r="867" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867" s="17"/>
       <c r="C867" s="17"/>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="17"/>
       <c r="C868" s="17"/>
     </row>
@@ -13540,11 +13881,11 @@
       <c r="A872" s="17"/>
       <c r="C872" s="17"/>
     </row>
-    <row r="873" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873" s="17"/>
       <c r="C873" s="17"/>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="17"/>
       <c r="C874" s="17"/>
     </row>
@@ -13556,11 +13897,11 @@
       <c r="A876" s="17"/>
       <c r="C876" s="17"/>
     </row>
-    <row r="877" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A877" s="17"/>
       <c r="C877" s="17"/>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="17"/>
       <c r="C878" s="17"/>
     </row>
@@ -13576,11 +13917,11 @@
       <c r="A881" s="17"/>
       <c r="C881" s="17"/>
     </row>
-    <row r="882" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A882" s="17"/>
       <c r="C882" s="17"/>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="17"/>
       <c r="C883" s="17"/>
     </row>
@@ -13588,11 +13929,11 @@
       <c r="A884" s="17"/>
       <c r="C884" s="17"/>
     </row>
-    <row r="885" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A885" s="17"/>
       <c r="C885" s="17"/>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="17"/>
       <c r="C886" s="17"/>
     </row>
@@ -13640,11 +13981,11 @@
       <c r="A897" s="17"/>
       <c r="C897" s="17"/>
     </row>
-    <row r="898" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A898" s="17"/>
       <c r="C898" s="17"/>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="17"/>
       <c r="C899" s="17"/>
     </row>
@@ -13696,11 +14037,11 @@
       <c r="A911" s="17"/>
       <c r="C911" s="17"/>
     </row>
-    <row r="912" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A912" s="17"/>
       <c r="C912" s="17"/>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="17"/>
       <c r="C913" s="17"/>
     </row>
@@ -13708,11 +14049,11 @@
       <c r="A914" s="17"/>
       <c r="C914" s="17"/>
     </row>
-    <row r="915" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A915" s="17"/>
       <c r="C915" s="17"/>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="17"/>
       <c r="C916" s="17"/>
     </row>
@@ -13724,11 +14065,11 @@
       <c r="A918" s="17"/>
       <c r="C918" s="17"/>
     </row>
-    <row r="919" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A919" s="17"/>
       <c r="C919" s="17"/>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="17"/>
       <c r="C920" s="17"/>
     </row>
@@ -13744,11 +14085,11 @@
       <c r="A923" s="17"/>
       <c r="C923" s="17"/>
     </row>
-    <row r="924" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A924" s="17"/>
       <c r="C924" s="17"/>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="17"/>
       <c r="C925" s="17"/>
     </row>
@@ -13768,11 +14109,11 @@
       <c r="A929" s="17"/>
       <c r="C929" s="17"/>
     </row>
-    <row r="930" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A930" s="17"/>
       <c r="C930" s="17"/>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="17"/>
       <c r="C931" s="17"/>
     </row>
@@ -13804,11 +14145,11 @@
       <c r="A938" s="17"/>
       <c r="C938" s="17"/>
     </row>
-    <row r="939" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A939" s="17"/>
       <c r="C939" s="17"/>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="17"/>
       <c r="C940" s="17"/>
     </row>
@@ -13848,15 +14189,9 @@
       <c r="A949" s="17"/>
       <c r="C949" s="17"/>
     </row>
-    <row r="950" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A950" s="17"/>
-      <c r="B950" s="16"/>
       <c r="C950" s="17"/>
-      <c r="D950" s="12"/>
-      <c r="E950" s="6"/>
-      <c r="F950" s="20"/>
-      <c r="G950" s="20"/>
-      <c r="H950" s="20"/>
     </row>
     <row r="951" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A951" s="17"/>
@@ -13898,15 +14233,21 @@
       <c r="G954" s="20"/>
       <c r="H954" s="20"/>
     </row>
-    <row r="955" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A955" s="17"/>
+      <c r="B955" s="16"/>
       <c r="C955" s="17"/>
+      <c r="D955" s="12"/>
+      <c r="E955" s="6"/>
+      <c r="F955" s="20"/>
+      <c r="G955" s="20"/>
+      <c r="H955" s="20"/>
     </row>
     <row r="956" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="17"/>
       <c r="C956" s="17"/>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="17"/>
       <c r="C957" s="17"/>
     </row>
@@ -13922,7 +14263,7 @@
       <c r="A960" s="17"/>
       <c r="C960" s="17"/>
     </row>
-    <row r="961" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A961" s="17"/>
       <c r="C961" s="17"/>
     </row>
@@ -13930,7 +14271,7 @@
       <c r="A962" s="17"/>
       <c r="C962" s="17"/>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="17"/>
       <c r="C963" s="17"/>
     </row>
@@ -13950,7 +14291,7 @@
       <c r="A967" s="17"/>
       <c r="C967" s="17"/>
     </row>
-    <row r="968" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A968" s="17"/>
       <c r="C968" s="17"/>
     </row>
@@ -13958,7 +14299,7 @@
       <c r="A969" s="17"/>
       <c r="C969" s="17"/>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="17"/>
       <c r="C970" s="17"/>
     </row>
@@ -13978,7 +14319,7 @@
       <c r="A974" s="17"/>
       <c r="C974" s="17"/>
     </row>
-    <row r="975" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A975" s="17"/>
       <c r="C975" s="17"/>
     </row>
@@ -13986,7 +14327,7 @@
       <c r="A976" s="17"/>
       <c r="C976" s="17"/>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="17"/>
       <c r="C977" s="17"/>
     </row>
@@ -14006,15 +14347,9 @@
       <c r="A981" s="17"/>
       <c r="C981" s="17"/>
     </row>
-    <row r="982" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A982" s="17"/>
-      <c r="B982" s="16"/>
       <c r="C982" s="17"/>
-      <c r="D982" s="12"/>
-      <c r="E982" s="6"/>
-      <c r="F982" s="20"/>
-      <c r="G982" s="20"/>
-      <c r="H982" s="20"/>
     </row>
     <row r="983" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A983" s="17"/>
@@ -14266,282 +14601,675 @@
       <c r="G1007" s="20"/>
       <c r="H1007" s="20"/>
     </row>
+    <row r="1008" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1008" s="17"/>
+      <c r="B1008" s="16"/>
+      <c r="C1008" s="17"/>
+      <c r="D1008" s="12"/>
+      <c r="E1008" s="6"/>
+      <c r="F1008" s="20"/>
+      <c r="G1008" s="20"/>
+      <c r="H1008" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="945">
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="C538:C541"/>
-    <mergeCell ref="C542:C545"/>
-    <mergeCell ref="C546:C549"/>
-    <mergeCell ref="C514:C517"/>
-    <mergeCell ref="C518:C521"/>
-    <mergeCell ref="C522:C525"/>
-    <mergeCell ref="C526:C529"/>
-    <mergeCell ref="C530:C533"/>
-    <mergeCell ref="C534:C537"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="C494:C497"/>
-    <mergeCell ref="C498:C501"/>
-    <mergeCell ref="C502:C505"/>
-    <mergeCell ref="C506:C509"/>
-    <mergeCell ref="C510:C513"/>
-    <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C470:C473"/>
-    <mergeCell ref="C474:C477"/>
-    <mergeCell ref="C478:C481"/>
-    <mergeCell ref="C482:C485"/>
-    <mergeCell ref="C486:C489"/>
-    <mergeCell ref="C442:C445"/>
-    <mergeCell ref="C446:C449"/>
-    <mergeCell ref="C450:C453"/>
-    <mergeCell ref="C454:C457"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C462:C465"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C426:C429"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C434:C437"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C368:C372"/>
-    <mergeCell ref="C373:C376"/>
-    <mergeCell ref="C377:C380"/>
-    <mergeCell ref="C381:C385"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="C342:C345"/>
-    <mergeCell ref="C346:C349"/>
-    <mergeCell ref="C350:C354"/>
-    <mergeCell ref="C355:C358"/>
-    <mergeCell ref="C359:C362"/>
-    <mergeCell ref="C363:C367"/>
-    <mergeCell ref="C317:C320"/>
-    <mergeCell ref="C321:C324"/>
-    <mergeCell ref="C325:C328"/>
-    <mergeCell ref="C329:C332"/>
-    <mergeCell ref="C333:C337"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C292:C295"/>
-    <mergeCell ref="C296:C299"/>
-    <mergeCell ref="C300:C303"/>
-    <mergeCell ref="C304:C308"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="C313:C316"/>
-    <mergeCell ref="C266:C269"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="C274:C278"/>
-    <mergeCell ref="C279:C282"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="C287:C291"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="C258:C261"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="C220:C223"/>
-    <mergeCell ref="C224:C227"/>
-    <mergeCell ref="C228:C231"/>
-    <mergeCell ref="C232:C235"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="C196:C199"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="C204:C207"/>
-    <mergeCell ref="C208:C211"/>
-    <mergeCell ref="C212:C215"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="C171:C174"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C188:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="C155:C158"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="C167:C170"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C131:C135"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="C144:C147"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="E542:E545"/>
-    <mergeCell ref="E546:E549"/>
-    <mergeCell ref="E530:E533"/>
-    <mergeCell ref="E534:E537"/>
-    <mergeCell ref="E538:E541"/>
-    <mergeCell ref="E518:E521"/>
-    <mergeCell ref="E522:E525"/>
-    <mergeCell ref="E526:E529"/>
-    <mergeCell ref="E506:E509"/>
-    <mergeCell ref="E510:E513"/>
-    <mergeCell ref="E514:E517"/>
-    <mergeCell ref="E494:E497"/>
-    <mergeCell ref="E498:E501"/>
-    <mergeCell ref="E502:E505"/>
-    <mergeCell ref="E482:E485"/>
-    <mergeCell ref="E486:E489"/>
-    <mergeCell ref="E490:E493"/>
-    <mergeCell ref="E470:E473"/>
-    <mergeCell ref="E474:E477"/>
-    <mergeCell ref="E478:E481"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="E462:E465"/>
-    <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E446:E449"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E454:E457"/>
-    <mergeCell ref="E434:E437"/>
-    <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E442:E445"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="E426:E429"/>
-    <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="E373:E376"/>
-    <mergeCell ref="E377:E380"/>
-    <mergeCell ref="E381:E385"/>
-    <mergeCell ref="E359:E362"/>
-    <mergeCell ref="E363:E367"/>
-    <mergeCell ref="E368:E372"/>
-    <mergeCell ref="E346:E349"/>
-    <mergeCell ref="E350:E354"/>
-    <mergeCell ref="E355:E358"/>
-    <mergeCell ref="E333:E337"/>
-    <mergeCell ref="E338:E341"/>
-    <mergeCell ref="E342:E345"/>
-    <mergeCell ref="E321:E324"/>
-    <mergeCell ref="E325:E328"/>
-    <mergeCell ref="E329:E332"/>
-    <mergeCell ref="E309:E312"/>
-    <mergeCell ref="E313:E316"/>
-    <mergeCell ref="E317:E320"/>
-    <mergeCell ref="E296:E299"/>
-    <mergeCell ref="E300:E303"/>
-    <mergeCell ref="E304:E308"/>
-    <mergeCell ref="E283:E286"/>
-    <mergeCell ref="E287:E291"/>
-    <mergeCell ref="E292:E295"/>
-    <mergeCell ref="E270:E273"/>
-    <mergeCell ref="E274:E278"/>
-    <mergeCell ref="E279:E282"/>
-    <mergeCell ref="E258:E261"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="E266:E269"/>
-    <mergeCell ref="E246:E249"/>
-    <mergeCell ref="E250:E253"/>
-    <mergeCell ref="E254:E257"/>
-    <mergeCell ref="E236:E238"/>
-    <mergeCell ref="E239:E241"/>
-    <mergeCell ref="E242:E245"/>
-    <mergeCell ref="E224:E227"/>
-    <mergeCell ref="E228:E231"/>
-    <mergeCell ref="E232:E235"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="E216:E219"/>
-    <mergeCell ref="E220:E223"/>
-    <mergeCell ref="E200:E203"/>
-    <mergeCell ref="E204:E207"/>
-    <mergeCell ref="E208:E211"/>
-    <mergeCell ref="E188:E191"/>
-    <mergeCell ref="E192:E195"/>
-    <mergeCell ref="E196:E199"/>
-    <mergeCell ref="E175:E178"/>
-    <mergeCell ref="E179:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E163:E166"/>
-    <mergeCell ref="E167:E170"/>
-    <mergeCell ref="E171:E174"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="E155:E158"/>
-    <mergeCell ref="E159:E162"/>
-    <mergeCell ref="E140:E143"/>
-    <mergeCell ref="E144:E147"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="E127:E130"/>
-    <mergeCell ref="E131:E135"/>
-    <mergeCell ref="E136:E139"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="E99:E102"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F539:F542"/>
+    <mergeCell ref="G539:G542"/>
+    <mergeCell ref="H539:H542"/>
+    <mergeCell ref="F543:F546"/>
+    <mergeCell ref="G543:G546"/>
+    <mergeCell ref="H543:H546"/>
+    <mergeCell ref="F547:F550"/>
+    <mergeCell ref="G547:G550"/>
+    <mergeCell ref="H547:H550"/>
+    <mergeCell ref="F527:F530"/>
+    <mergeCell ref="G527:G530"/>
+    <mergeCell ref="H527:H530"/>
+    <mergeCell ref="F531:F534"/>
+    <mergeCell ref="G531:G534"/>
+    <mergeCell ref="H531:H534"/>
+    <mergeCell ref="F535:F538"/>
+    <mergeCell ref="G535:G538"/>
+    <mergeCell ref="H535:H538"/>
+    <mergeCell ref="F515:F518"/>
+    <mergeCell ref="G515:G518"/>
+    <mergeCell ref="H515:H518"/>
+    <mergeCell ref="F519:F522"/>
+    <mergeCell ref="G519:G522"/>
+    <mergeCell ref="H519:H522"/>
+    <mergeCell ref="F523:F526"/>
+    <mergeCell ref="G523:G526"/>
+    <mergeCell ref="H523:H526"/>
+    <mergeCell ref="F503:F506"/>
+    <mergeCell ref="G503:G506"/>
+    <mergeCell ref="H503:H506"/>
+    <mergeCell ref="F507:F510"/>
+    <mergeCell ref="G507:G510"/>
+    <mergeCell ref="H507:H510"/>
+    <mergeCell ref="F511:F514"/>
+    <mergeCell ref="G511:G514"/>
+    <mergeCell ref="H511:H514"/>
+    <mergeCell ref="F491:F494"/>
+    <mergeCell ref="G491:G494"/>
+    <mergeCell ref="H491:H494"/>
+    <mergeCell ref="F495:F498"/>
+    <mergeCell ref="G495:G498"/>
+    <mergeCell ref="H495:H498"/>
+    <mergeCell ref="F499:F502"/>
+    <mergeCell ref="G499:G502"/>
+    <mergeCell ref="H499:H502"/>
+    <mergeCell ref="F479:F482"/>
+    <mergeCell ref="G479:G482"/>
+    <mergeCell ref="H479:H482"/>
+    <mergeCell ref="F483:F486"/>
+    <mergeCell ref="G483:G486"/>
+    <mergeCell ref="H483:H486"/>
+    <mergeCell ref="F487:F490"/>
+    <mergeCell ref="G487:G490"/>
+    <mergeCell ref="H487:H490"/>
+    <mergeCell ref="F467:F470"/>
+    <mergeCell ref="G467:G470"/>
+    <mergeCell ref="H467:H470"/>
+    <mergeCell ref="F471:F474"/>
+    <mergeCell ref="G471:G474"/>
+    <mergeCell ref="H471:H474"/>
+    <mergeCell ref="F475:F478"/>
+    <mergeCell ref="G475:G478"/>
+    <mergeCell ref="H475:H478"/>
+    <mergeCell ref="F455:F458"/>
+    <mergeCell ref="G455:G458"/>
+    <mergeCell ref="H455:H458"/>
+    <mergeCell ref="F459:F462"/>
+    <mergeCell ref="G459:G462"/>
+    <mergeCell ref="H459:H462"/>
+    <mergeCell ref="F463:F466"/>
+    <mergeCell ref="G463:G466"/>
+    <mergeCell ref="H463:H466"/>
+    <mergeCell ref="F443:F446"/>
+    <mergeCell ref="G443:G446"/>
+    <mergeCell ref="H443:H446"/>
+    <mergeCell ref="F447:F450"/>
+    <mergeCell ref="G447:G450"/>
+    <mergeCell ref="H447:H450"/>
+    <mergeCell ref="F451:F454"/>
+    <mergeCell ref="G451:G454"/>
+    <mergeCell ref="H451:H454"/>
+    <mergeCell ref="F430:F434"/>
+    <mergeCell ref="G430:G434"/>
+    <mergeCell ref="H430:H434"/>
+    <mergeCell ref="F435:F438"/>
+    <mergeCell ref="G435:G438"/>
+    <mergeCell ref="H435:H438"/>
+    <mergeCell ref="F439:F442"/>
+    <mergeCell ref="G439:G442"/>
+    <mergeCell ref="H439:H442"/>
+    <mergeCell ref="F418:F421"/>
+    <mergeCell ref="G418:G421"/>
+    <mergeCell ref="H418:H421"/>
+    <mergeCell ref="F422:F425"/>
+    <mergeCell ref="G422:G425"/>
+    <mergeCell ref="H422:H425"/>
+    <mergeCell ref="F426:F429"/>
+    <mergeCell ref="G426:G429"/>
+    <mergeCell ref="H426:H429"/>
+    <mergeCell ref="F406:F409"/>
+    <mergeCell ref="G406:G409"/>
+    <mergeCell ref="H406:H409"/>
+    <mergeCell ref="F410:F413"/>
+    <mergeCell ref="G410:G413"/>
+    <mergeCell ref="H410:H413"/>
+    <mergeCell ref="F414:F417"/>
+    <mergeCell ref="G414:G417"/>
+    <mergeCell ref="H414:H417"/>
+    <mergeCell ref="F394:F397"/>
+    <mergeCell ref="G394:G397"/>
+    <mergeCell ref="H394:H397"/>
+    <mergeCell ref="F398:F401"/>
+    <mergeCell ref="G398:G401"/>
+    <mergeCell ref="H398:H401"/>
+    <mergeCell ref="F402:F405"/>
+    <mergeCell ref="G402:G405"/>
+    <mergeCell ref="H402:H405"/>
+    <mergeCell ref="F381:F385"/>
+    <mergeCell ref="G381:G385"/>
+    <mergeCell ref="H381:H385"/>
+    <mergeCell ref="F386:F389"/>
+    <mergeCell ref="G386:G389"/>
+    <mergeCell ref="H386:H389"/>
+    <mergeCell ref="F390:F393"/>
+    <mergeCell ref="G390:G393"/>
+    <mergeCell ref="H390:H393"/>
+    <mergeCell ref="F368:F372"/>
+    <mergeCell ref="G368:G372"/>
+    <mergeCell ref="H368:H372"/>
+    <mergeCell ref="F373:F376"/>
+    <mergeCell ref="G373:G376"/>
+    <mergeCell ref="H373:H376"/>
+    <mergeCell ref="F377:F380"/>
+    <mergeCell ref="G377:G380"/>
+    <mergeCell ref="H377:H380"/>
+    <mergeCell ref="F355:F358"/>
+    <mergeCell ref="G355:G358"/>
+    <mergeCell ref="H355:H358"/>
+    <mergeCell ref="F359:F362"/>
+    <mergeCell ref="G359:G362"/>
+    <mergeCell ref="H359:H362"/>
+    <mergeCell ref="F363:F367"/>
+    <mergeCell ref="G363:G367"/>
+    <mergeCell ref="H363:H367"/>
+    <mergeCell ref="F342:F345"/>
+    <mergeCell ref="G342:G345"/>
+    <mergeCell ref="H342:H345"/>
+    <mergeCell ref="F346:F349"/>
+    <mergeCell ref="G346:G349"/>
+    <mergeCell ref="H346:H349"/>
+    <mergeCell ref="F350:F354"/>
+    <mergeCell ref="G350:G354"/>
+    <mergeCell ref="H350:H354"/>
+    <mergeCell ref="F329:F332"/>
+    <mergeCell ref="G329:G332"/>
+    <mergeCell ref="H329:H332"/>
+    <mergeCell ref="F333:F337"/>
+    <mergeCell ref="G333:G337"/>
+    <mergeCell ref="H333:H337"/>
+    <mergeCell ref="F338:F341"/>
+    <mergeCell ref="G338:G341"/>
+    <mergeCell ref="H338:H341"/>
+    <mergeCell ref="F317:F320"/>
+    <mergeCell ref="G317:G320"/>
+    <mergeCell ref="H317:H320"/>
+    <mergeCell ref="F321:F324"/>
+    <mergeCell ref="G321:G324"/>
+    <mergeCell ref="H321:H324"/>
+    <mergeCell ref="F325:F328"/>
+    <mergeCell ref="G325:G328"/>
+    <mergeCell ref="H325:H328"/>
+    <mergeCell ref="F304:F308"/>
+    <mergeCell ref="G304:G308"/>
+    <mergeCell ref="H304:H308"/>
+    <mergeCell ref="F309:F312"/>
+    <mergeCell ref="G309:G312"/>
+    <mergeCell ref="H309:H312"/>
+    <mergeCell ref="F313:F316"/>
+    <mergeCell ref="G313:G316"/>
+    <mergeCell ref="H313:H316"/>
+    <mergeCell ref="F292:F295"/>
+    <mergeCell ref="G292:G295"/>
+    <mergeCell ref="H292:H295"/>
+    <mergeCell ref="F296:F299"/>
+    <mergeCell ref="G296:G299"/>
+    <mergeCell ref="H296:H299"/>
+    <mergeCell ref="F300:F303"/>
+    <mergeCell ref="G300:G303"/>
+    <mergeCell ref="H300:H303"/>
+    <mergeCell ref="F279:F282"/>
+    <mergeCell ref="G279:G282"/>
+    <mergeCell ref="H279:H282"/>
+    <mergeCell ref="F283:F286"/>
+    <mergeCell ref="G283:G286"/>
+    <mergeCell ref="H283:H286"/>
+    <mergeCell ref="F287:F291"/>
+    <mergeCell ref="G287:G291"/>
+    <mergeCell ref="H287:H291"/>
+    <mergeCell ref="F266:F269"/>
+    <mergeCell ref="G266:G269"/>
+    <mergeCell ref="H266:H269"/>
+    <mergeCell ref="F270:F273"/>
+    <mergeCell ref="G270:G273"/>
+    <mergeCell ref="H270:H273"/>
+    <mergeCell ref="F274:F278"/>
+    <mergeCell ref="G274:G278"/>
+    <mergeCell ref="H274:H278"/>
+    <mergeCell ref="F254:F257"/>
+    <mergeCell ref="G254:G257"/>
+    <mergeCell ref="H254:H257"/>
+    <mergeCell ref="F258:F261"/>
+    <mergeCell ref="G258:G261"/>
+    <mergeCell ref="H258:H261"/>
+    <mergeCell ref="F262:F265"/>
+    <mergeCell ref="G262:G265"/>
+    <mergeCell ref="H262:H265"/>
+    <mergeCell ref="F242:F245"/>
+    <mergeCell ref="G242:G245"/>
+    <mergeCell ref="H242:H245"/>
+    <mergeCell ref="F246:F249"/>
+    <mergeCell ref="G246:G249"/>
+    <mergeCell ref="H246:H249"/>
+    <mergeCell ref="F250:F253"/>
+    <mergeCell ref="G250:G253"/>
+    <mergeCell ref="H250:H253"/>
+    <mergeCell ref="F232:F235"/>
+    <mergeCell ref="G232:G235"/>
+    <mergeCell ref="H232:H235"/>
+    <mergeCell ref="F236:F238"/>
+    <mergeCell ref="G236:G238"/>
+    <mergeCell ref="H236:H238"/>
+    <mergeCell ref="F239:F241"/>
+    <mergeCell ref="G239:G241"/>
+    <mergeCell ref="H239:H241"/>
+    <mergeCell ref="F220:F223"/>
+    <mergeCell ref="G220:G223"/>
+    <mergeCell ref="H220:H223"/>
+    <mergeCell ref="F224:F227"/>
+    <mergeCell ref="G224:G227"/>
+    <mergeCell ref="H224:H227"/>
+    <mergeCell ref="F228:F231"/>
+    <mergeCell ref="G228:G231"/>
+    <mergeCell ref="H228:H231"/>
+    <mergeCell ref="F208:F211"/>
+    <mergeCell ref="G208:G211"/>
+    <mergeCell ref="H208:H211"/>
+    <mergeCell ref="F212:F215"/>
+    <mergeCell ref="G212:G215"/>
+    <mergeCell ref="H212:H215"/>
+    <mergeCell ref="F216:F219"/>
+    <mergeCell ref="G216:G219"/>
+    <mergeCell ref="H216:H219"/>
+    <mergeCell ref="F196:F199"/>
+    <mergeCell ref="G196:G199"/>
+    <mergeCell ref="H196:H199"/>
+    <mergeCell ref="F200:F203"/>
+    <mergeCell ref="G200:G203"/>
+    <mergeCell ref="H200:H203"/>
+    <mergeCell ref="F204:F207"/>
+    <mergeCell ref="G204:G207"/>
+    <mergeCell ref="H204:H207"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="H184:H187"/>
+    <mergeCell ref="F188:F191"/>
+    <mergeCell ref="G188:G191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="F192:F195"/>
+    <mergeCell ref="G192:G195"/>
+    <mergeCell ref="H192:H195"/>
+    <mergeCell ref="F171:F174"/>
+    <mergeCell ref="G171:G174"/>
+    <mergeCell ref="H171:H174"/>
+    <mergeCell ref="F175:F178"/>
+    <mergeCell ref="G175:G178"/>
+    <mergeCell ref="H175:H178"/>
+    <mergeCell ref="F179:F183"/>
+    <mergeCell ref="G179:G183"/>
+    <mergeCell ref="H179:H183"/>
+    <mergeCell ref="F159:F162"/>
+    <mergeCell ref="G159:G162"/>
+    <mergeCell ref="H159:H162"/>
+    <mergeCell ref="F163:F166"/>
+    <mergeCell ref="G163:G166"/>
+    <mergeCell ref="H163:H166"/>
+    <mergeCell ref="F167:F170"/>
+    <mergeCell ref="G167:G170"/>
+    <mergeCell ref="H167:H170"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="G148:G151"/>
+    <mergeCell ref="H148:H151"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="G152:G154"/>
+    <mergeCell ref="H152:H154"/>
+    <mergeCell ref="F155:F158"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="F136:F139"/>
+    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="H136:H139"/>
+    <mergeCell ref="F140:F143"/>
+    <mergeCell ref="G140:G143"/>
+    <mergeCell ref="H140:H143"/>
+    <mergeCell ref="F144:F147"/>
+    <mergeCell ref="G144:G147"/>
+    <mergeCell ref="H144:H147"/>
+    <mergeCell ref="F123:F126"/>
+    <mergeCell ref="G123:G126"/>
+    <mergeCell ref="H123:H126"/>
+    <mergeCell ref="F127:F130"/>
+    <mergeCell ref="G127:G130"/>
+    <mergeCell ref="H127:H130"/>
+    <mergeCell ref="F131:F135"/>
+    <mergeCell ref="G131:G135"/>
+    <mergeCell ref="H131:H135"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="F119:F122"/>
+    <mergeCell ref="G119:G122"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="F99:F102"/>
+    <mergeCell ref="G99:G102"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="G107:G110"/>
+    <mergeCell ref="H107:H110"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="G87:G90"/>
+    <mergeCell ref="H87:H90"/>
+    <mergeCell ref="F91:F94"/>
+    <mergeCell ref="G91:G94"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="G79:G82"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="G83:G86"/>
+    <mergeCell ref="H83:H86"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="A140:A143"/>
+    <mergeCell ref="A144:A147"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="A175:A178"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A184:A187"/>
+    <mergeCell ref="A188:A191"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="A228:A231"/>
+    <mergeCell ref="A232:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A196:A199"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="A270:A273"/>
+    <mergeCell ref="A274:A278"/>
+    <mergeCell ref="A279:A282"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="A262:A265"/>
+    <mergeCell ref="A317:A320"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="A333:A337"/>
+    <mergeCell ref="A338:A341"/>
+    <mergeCell ref="A292:A295"/>
+    <mergeCell ref="A296:A299"/>
+    <mergeCell ref="A300:A303"/>
+    <mergeCell ref="A304:A308"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="A368:A372"/>
+    <mergeCell ref="A373:A376"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="B377:B380"/>
+    <mergeCell ref="A381:A385"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="A342:A345"/>
+    <mergeCell ref="A346:A349"/>
+    <mergeCell ref="A350:A354"/>
+    <mergeCell ref="A355:A358"/>
+    <mergeCell ref="A359:A362"/>
+    <mergeCell ref="A363:A367"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="A430:A434"/>
+    <mergeCell ref="A435:A438"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="A475:A478"/>
+    <mergeCell ref="A479:A482"/>
+    <mergeCell ref="A483:A486"/>
+    <mergeCell ref="A439:A442"/>
+    <mergeCell ref="A443:A446"/>
+    <mergeCell ref="A447:A450"/>
+    <mergeCell ref="A451:A454"/>
+    <mergeCell ref="A455:A458"/>
+    <mergeCell ref="A459:A462"/>
+    <mergeCell ref="A535:A538"/>
+    <mergeCell ref="A539:A542"/>
+    <mergeCell ref="A543:A546"/>
+    <mergeCell ref="A547:A550"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A511:A514"/>
+    <mergeCell ref="A515:A518"/>
+    <mergeCell ref="A519:A522"/>
+    <mergeCell ref="A523:A526"/>
+    <mergeCell ref="A527:A530"/>
+    <mergeCell ref="A531:A534"/>
+    <mergeCell ref="A487:A490"/>
+    <mergeCell ref="A491:A494"/>
+    <mergeCell ref="A495:A498"/>
+    <mergeCell ref="A499:A502"/>
+    <mergeCell ref="A503:A506"/>
+    <mergeCell ref="A507:A510"/>
+    <mergeCell ref="A463:A466"/>
+    <mergeCell ref="A467:A470"/>
+    <mergeCell ref="A471:A474"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B144:B147"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="B196:B199"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="B228:B231"/>
+    <mergeCell ref="B232:B235"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="B292:B295"/>
+    <mergeCell ref="B296:B299"/>
+    <mergeCell ref="B300:B303"/>
+    <mergeCell ref="B304:B308"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="B274:B278"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="B338:B341"/>
+    <mergeCell ref="B342:B345"/>
+    <mergeCell ref="B346:B349"/>
+    <mergeCell ref="B350:B354"/>
+    <mergeCell ref="B355:B358"/>
+    <mergeCell ref="B359:B362"/>
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="B317:B320"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B333:B337"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="B363:B367"/>
+    <mergeCell ref="B368:B372"/>
+    <mergeCell ref="B373:B376"/>
+    <mergeCell ref="B381:B385"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="B547:B550"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="B515:B518"/>
+    <mergeCell ref="B519:B522"/>
+    <mergeCell ref="B523:B526"/>
+    <mergeCell ref="B527:B530"/>
+    <mergeCell ref="B531:B534"/>
+    <mergeCell ref="B535:B538"/>
+    <mergeCell ref="B491:B494"/>
+    <mergeCell ref="B495:B498"/>
+    <mergeCell ref="B499:B502"/>
+    <mergeCell ref="B503:B506"/>
+    <mergeCell ref="B507:B510"/>
+    <mergeCell ref="B511:B514"/>
+    <mergeCell ref="B467:B470"/>
+    <mergeCell ref="B471:B474"/>
+    <mergeCell ref="B475:B478"/>
+    <mergeCell ref="B479:B482"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B539:B542"/>
+    <mergeCell ref="B543:B546"/>
+    <mergeCell ref="B483:B486"/>
+    <mergeCell ref="B487:B490"/>
+    <mergeCell ref="B443:B446"/>
+    <mergeCell ref="B447:B450"/>
+    <mergeCell ref="B451:B454"/>
+    <mergeCell ref="B455:B458"/>
+    <mergeCell ref="B459:B462"/>
+    <mergeCell ref="B463:B466"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="B430:B434"/>
+    <mergeCell ref="B435:B438"/>
+    <mergeCell ref="B439:B442"/>
+    <mergeCell ref="B394:B397"/>
     <mergeCell ref="E55:E58"/>
     <mergeCell ref="E59:E62"/>
     <mergeCell ref="E63:E66"/>
@@ -14556,663 +15284,280 @@
     <mergeCell ref="F38:F41"/>
     <mergeCell ref="F42:F46"/>
     <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="B538:B541"/>
-    <mergeCell ref="B542:B545"/>
-    <mergeCell ref="B482:B485"/>
-    <mergeCell ref="B486:B489"/>
-    <mergeCell ref="B442:B445"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="B458:B461"/>
-    <mergeCell ref="B462:B465"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="B430:B433"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="B546:B549"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="B514:B517"/>
-    <mergeCell ref="B518:B521"/>
-    <mergeCell ref="B522:B525"/>
-    <mergeCell ref="B526:B529"/>
-    <mergeCell ref="B530:B533"/>
-    <mergeCell ref="B534:B537"/>
-    <mergeCell ref="B490:B493"/>
-    <mergeCell ref="B494:B497"/>
-    <mergeCell ref="B498:B501"/>
-    <mergeCell ref="B502:B505"/>
-    <mergeCell ref="B506:B509"/>
-    <mergeCell ref="B510:B513"/>
-    <mergeCell ref="B466:B469"/>
-    <mergeCell ref="B470:B473"/>
-    <mergeCell ref="B474:B477"/>
-    <mergeCell ref="B478:B481"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="B363:B367"/>
-    <mergeCell ref="B368:B372"/>
-    <mergeCell ref="B373:B376"/>
-    <mergeCell ref="B381:B385"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="B338:B341"/>
-    <mergeCell ref="B342:B345"/>
-    <mergeCell ref="B346:B349"/>
-    <mergeCell ref="B350:B354"/>
-    <mergeCell ref="B355:B358"/>
-    <mergeCell ref="B359:B362"/>
-    <mergeCell ref="B313:B316"/>
-    <mergeCell ref="B317:B320"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B333:B337"/>
-    <mergeCell ref="B287:B291"/>
-    <mergeCell ref="B292:B295"/>
-    <mergeCell ref="B296:B299"/>
-    <mergeCell ref="B300:B303"/>
-    <mergeCell ref="B304:B308"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="B266:B269"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="B274:B278"/>
-    <mergeCell ref="B279:B282"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="B254:B257"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B228:B231"/>
-    <mergeCell ref="B232:B235"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="B196:B199"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B191"/>
-    <mergeCell ref="B144:B147"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A534:A537"/>
-    <mergeCell ref="A538:A541"/>
-    <mergeCell ref="A542:A545"/>
-    <mergeCell ref="A546:A549"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A510:A513"/>
-    <mergeCell ref="A514:A517"/>
-    <mergeCell ref="A518:A521"/>
-    <mergeCell ref="A522:A525"/>
-    <mergeCell ref="A526:A529"/>
-    <mergeCell ref="A530:A533"/>
-    <mergeCell ref="A486:A489"/>
-    <mergeCell ref="A490:A493"/>
-    <mergeCell ref="A494:A497"/>
-    <mergeCell ref="A498:A501"/>
-    <mergeCell ref="A502:A505"/>
-    <mergeCell ref="A506:A509"/>
-    <mergeCell ref="A462:A465"/>
-    <mergeCell ref="A466:A469"/>
-    <mergeCell ref="A470:A473"/>
-    <mergeCell ref="A474:A477"/>
-    <mergeCell ref="A478:A481"/>
-    <mergeCell ref="A482:A485"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="A446:A449"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="A434:A437"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="A368:A372"/>
-    <mergeCell ref="A373:A376"/>
-    <mergeCell ref="A377:A380"/>
-    <mergeCell ref="B377:B380"/>
-    <mergeCell ref="A381:A385"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="A342:A345"/>
-    <mergeCell ref="A346:A349"/>
-    <mergeCell ref="A350:A354"/>
-    <mergeCell ref="A355:A358"/>
-    <mergeCell ref="A359:A362"/>
-    <mergeCell ref="A363:A367"/>
-    <mergeCell ref="A317:A320"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A329:A332"/>
-    <mergeCell ref="A333:A337"/>
-    <mergeCell ref="A338:A341"/>
-    <mergeCell ref="A292:A295"/>
-    <mergeCell ref="A296:A299"/>
-    <mergeCell ref="A300:A303"/>
-    <mergeCell ref="A304:A308"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="A313:A316"/>
-    <mergeCell ref="A266:A269"/>
-    <mergeCell ref="A270:A273"/>
-    <mergeCell ref="A274:A278"/>
-    <mergeCell ref="A279:A282"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="A254:A257"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="A262:A265"/>
-    <mergeCell ref="A220:A223"/>
-    <mergeCell ref="A224:A227"/>
-    <mergeCell ref="A228:A231"/>
-    <mergeCell ref="A232:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A196:A199"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="A171:A174"/>
-    <mergeCell ref="A175:A178"/>
-    <mergeCell ref="A179:A183"/>
-    <mergeCell ref="A184:A187"/>
-    <mergeCell ref="A188:A191"/>
-    <mergeCell ref="A192:A195"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A167:A170"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A139"/>
-    <mergeCell ref="A140:A143"/>
-    <mergeCell ref="A144:A147"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="G79:G82"/>
-    <mergeCell ref="H79:H82"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="G83:G86"/>
-    <mergeCell ref="H83:H86"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="G87:G90"/>
-    <mergeCell ref="H87:H90"/>
-    <mergeCell ref="F91:F94"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="H91:H94"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="F99:F102"/>
-    <mergeCell ref="G99:G102"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="G107:G110"/>
-    <mergeCell ref="H107:H110"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:G118"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="F119:F122"/>
-    <mergeCell ref="G119:G122"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="F123:F126"/>
-    <mergeCell ref="G123:G126"/>
-    <mergeCell ref="H123:H126"/>
-    <mergeCell ref="F127:F130"/>
-    <mergeCell ref="G127:G130"/>
-    <mergeCell ref="H127:H130"/>
-    <mergeCell ref="F131:F135"/>
-    <mergeCell ref="G131:G135"/>
-    <mergeCell ref="H131:H135"/>
-    <mergeCell ref="F136:F139"/>
-    <mergeCell ref="G136:G139"/>
-    <mergeCell ref="H136:H139"/>
-    <mergeCell ref="F140:F143"/>
-    <mergeCell ref="G140:G143"/>
-    <mergeCell ref="H140:H143"/>
-    <mergeCell ref="F144:F147"/>
-    <mergeCell ref="G144:G147"/>
-    <mergeCell ref="H144:H147"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="G148:G151"/>
-    <mergeCell ref="H148:H151"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="G152:G154"/>
-    <mergeCell ref="H152:H154"/>
-    <mergeCell ref="F155:F158"/>
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="F159:F162"/>
-    <mergeCell ref="G159:G162"/>
-    <mergeCell ref="H159:H162"/>
-    <mergeCell ref="F163:F166"/>
-    <mergeCell ref="G163:G166"/>
-    <mergeCell ref="H163:H166"/>
-    <mergeCell ref="F167:F170"/>
-    <mergeCell ref="G167:G170"/>
-    <mergeCell ref="H167:H170"/>
-    <mergeCell ref="F171:F174"/>
-    <mergeCell ref="G171:G174"/>
-    <mergeCell ref="H171:H174"/>
-    <mergeCell ref="F175:F178"/>
-    <mergeCell ref="G175:G178"/>
-    <mergeCell ref="H175:H178"/>
-    <mergeCell ref="F179:F183"/>
-    <mergeCell ref="G179:G183"/>
-    <mergeCell ref="H179:H183"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="H184:H187"/>
-    <mergeCell ref="F188:F191"/>
-    <mergeCell ref="G188:G191"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="F192:F195"/>
-    <mergeCell ref="G192:G195"/>
-    <mergeCell ref="H192:H195"/>
-    <mergeCell ref="F196:F199"/>
-    <mergeCell ref="G196:G199"/>
-    <mergeCell ref="H196:H199"/>
-    <mergeCell ref="F200:F203"/>
-    <mergeCell ref="G200:G203"/>
-    <mergeCell ref="H200:H203"/>
-    <mergeCell ref="F204:F207"/>
-    <mergeCell ref="G204:G207"/>
-    <mergeCell ref="H204:H207"/>
-    <mergeCell ref="F208:F211"/>
-    <mergeCell ref="G208:G211"/>
-    <mergeCell ref="H208:H211"/>
-    <mergeCell ref="F212:F215"/>
-    <mergeCell ref="G212:G215"/>
-    <mergeCell ref="H212:H215"/>
-    <mergeCell ref="F216:F219"/>
-    <mergeCell ref="G216:G219"/>
-    <mergeCell ref="H216:H219"/>
-    <mergeCell ref="F220:F223"/>
-    <mergeCell ref="G220:G223"/>
-    <mergeCell ref="H220:H223"/>
-    <mergeCell ref="F224:F227"/>
-    <mergeCell ref="G224:G227"/>
-    <mergeCell ref="H224:H227"/>
-    <mergeCell ref="F228:F231"/>
-    <mergeCell ref="G228:G231"/>
-    <mergeCell ref="H228:H231"/>
-    <mergeCell ref="F232:F235"/>
-    <mergeCell ref="G232:G235"/>
-    <mergeCell ref="H232:H235"/>
-    <mergeCell ref="F236:F238"/>
-    <mergeCell ref="G236:G238"/>
-    <mergeCell ref="H236:H238"/>
-    <mergeCell ref="F239:F241"/>
-    <mergeCell ref="G239:G241"/>
-    <mergeCell ref="H239:H241"/>
-    <mergeCell ref="F242:F245"/>
-    <mergeCell ref="G242:G245"/>
-    <mergeCell ref="H242:H245"/>
-    <mergeCell ref="F246:F249"/>
-    <mergeCell ref="G246:G249"/>
-    <mergeCell ref="H246:H249"/>
-    <mergeCell ref="F250:F253"/>
-    <mergeCell ref="G250:G253"/>
-    <mergeCell ref="H250:H253"/>
-    <mergeCell ref="F254:F257"/>
-    <mergeCell ref="G254:G257"/>
-    <mergeCell ref="H254:H257"/>
-    <mergeCell ref="F258:F261"/>
-    <mergeCell ref="G258:G261"/>
-    <mergeCell ref="H258:H261"/>
-    <mergeCell ref="F262:F265"/>
-    <mergeCell ref="G262:G265"/>
-    <mergeCell ref="H262:H265"/>
-    <mergeCell ref="F266:F269"/>
-    <mergeCell ref="G266:G269"/>
-    <mergeCell ref="H266:H269"/>
-    <mergeCell ref="F270:F273"/>
-    <mergeCell ref="G270:G273"/>
-    <mergeCell ref="H270:H273"/>
-    <mergeCell ref="F274:F278"/>
-    <mergeCell ref="G274:G278"/>
-    <mergeCell ref="H274:H278"/>
-    <mergeCell ref="F279:F282"/>
-    <mergeCell ref="G279:G282"/>
-    <mergeCell ref="H279:H282"/>
-    <mergeCell ref="F283:F286"/>
-    <mergeCell ref="G283:G286"/>
-    <mergeCell ref="H283:H286"/>
-    <mergeCell ref="F287:F291"/>
-    <mergeCell ref="G287:G291"/>
-    <mergeCell ref="H287:H291"/>
-    <mergeCell ref="F292:F295"/>
-    <mergeCell ref="G292:G295"/>
-    <mergeCell ref="H292:H295"/>
-    <mergeCell ref="F296:F299"/>
-    <mergeCell ref="G296:G299"/>
-    <mergeCell ref="H296:H299"/>
-    <mergeCell ref="F300:F303"/>
-    <mergeCell ref="G300:G303"/>
-    <mergeCell ref="H300:H303"/>
-    <mergeCell ref="F304:F308"/>
-    <mergeCell ref="G304:G308"/>
-    <mergeCell ref="H304:H308"/>
-    <mergeCell ref="F309:F312"/>
-    <mergeCell ref="G309:G312"/>
-    <mergeCell ref="H309:H312"/>
-    <mergeCell ref="F313:F316"/>
-    <mergeCell ref="G313:G316"/>
-    <mergeCell ref="H313:H316"/>
-    <mergeCell ref="F317:F320"/>
-    <mergeCell ref="G317:G320"/>
-    <mergeCell ref="H317:H320"/>
-    <mergeCell ref="F321:F324"/>
-    <mergeCell ref="G321:G324"/>
-    <mergeCell ref="H321:H324"/>
-    <mergeCell ref="F325:F328"/>
-    <mergeCell ref="G325:G328"/>
-    <mergeCell ref="H325:H328"/>
-    <mergeCell ref="F329:F332"/>
-    <mergeCell ref="G329:G332"/>
-    <mergeCell ref="H329:H332"/>
-    <mergeCell ref="F333:F337"/>
-    <mergeCell ref="G333:G337"/>
-    <mergeCell ref="H333:H337"/>
-    <mergeCell ref="F338:F341"/>
-    <mergeCell ref="G338:G341"/>
-    <mergeCell ref="H338:H341"/>
-    <mergeCell ref="F342:F345"/>
-    <mergeCell ref="G342:G345"/>
-    <mergeCell ref="H342:H345"/>
-    <mergeCell ref="F346:F349"/>
-    <mergeCell ref="G346:G349"/>
-    <mergeCell ref="H346:H349"/>
-    <mergeCell ref="F350:F354"/>
-    <mergeCell ref="G350:G354"/>
-    <mergeCell ref="H350:H354"/>
-    <mergeCell ref="F355:F358"/>
-    <mergeCell ref="G355:G358"/>
-    <mergeCell ref="H355:H358"/>
-    <mergeCell ref="F359:F362"/>
-    <mergeCell ref="G359:G362"/>
-    <mergeCell ref="H359:H362"/>
-    <mergeCell ref="F363:F367"/>
-    <mergeCell ref="G363:G367"/>
-    <mergeCell ref="H363:H367"/>
-    <mergeCell ref="F368:F372"/>
-    <mergeCell ref="G368:G372"/>
-    <mergeCell ref="H368:H372"/>
-    <mergeCell ref="F373:F376"/>
-    <mergeCell ref="G373:G376"/>
-    <mergeCell ref="H373:H376"/>
-    <mergeCell ref="F377:F380"/>
-    <mergeCell ref="G377:G380"/>
-    <mergeCell ref="H377:H380"/>
-    <mergeCell ref="F381:F385"/>
-    <mergeCell ref="G381:G385"/>
-    <mergeCell ref="H381:H385"/>
-    <mergeCell ref="F386:F389"/>
-    <mergeCell ref="G386:G389"/>
-    <mergeCell ref="H386:H389"/>
-    <mergeCell ref="F390:F393"/>
-    <mergeCell ref="G390:G393"/>
-    <mergeCell ref="H390:H393"/>
-    <mergeCell ref="F394:F397"/>
-    <mergeCell ref="G394:G397"/>
-    <mergeCell ref="H394:H397"/>
-    <mergeCell ref="F398:F401"/>
-    <mergeCell ref="G398:G401"/>
-    <mergeCell ref="H398:H401"/>
-    <mergeCell ref="F402:F405"/>
-    <mergeCell ref="G402:G405"/>
-    <mergeCell ref="H402:H405"/>
-    <mergeCell ref="F406:F409"/>
-    <mergeCell ref="G406:G409"/>
-    <mergeCell ref="H406:H409"/>
-    <mergeCell ref="F410:F413"/>
-    <mergeCell ref="G410:G413"/>
-    <mergeCell ref="H410:H413"/>
-    <mergeCell ref="F414:F417"/>
-    <mergeCell ref="G414:G417"/>
-    <mergeCell ref="H414:H417"/>
-    <mergeCell ref="F418:F421"/>
-    <mergeCell ref="G418:G421"/>
-    <mergeCell ref="H418:H421"/>
-    <mergeCell ref="F422:F425"/>
-    <mergeCell ref="G422:G425"/>
-    <mergeCell ref="H422:H425"/>
-    <mergeCell ref="F426:F429"/>
-    <mergeCell ref="G426:G429"/>
-    <mergeCell ref="H426:H429"/>
-    <mergeCell ref="F430:F433"/>
-    <mergeCell ref="G430:G433"/>
-    <mergeCell ref="H430:H433"/>
-    <mergeCell ref="F434:F437"/>
-    <mergeCell ref="G434:G437"/>
-    <mergeCell ref="H434:H437"/>
-    <mergeCell ref="F438:F441"/>
-    <mergeCell ref="G438:G441"/>
-    <mergeCell ref="H438:H441"/>
-    <mergeCell ref="F442:F445"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="H442:H445"/>
-    <mergeCell ref="F446:F449"/>
-    <mergeCell ref="G446:G449"/>
-    <mergeCell ref="H446:H449"/>
-    <mergeCell ref="F450:F453"/>
-    <mergeCell ref="G450:G453"/>
-    <mergeCell ref="H450:H453"/>
-    <mergeCell ref="F454:F457"/>
-    <mergeCell ref="G454:G457"/>
-    <mergeCell ref="H454:H457"/>
-    <mergeCell ref="F458:F461"/>
-    <mergeCell ref="G458:G461"/>
-    <mergeCell ref="H458:H461"/>
-    <mergeCell ref="F462:F465"/>
-    <mergeCell ref="G462:G465"/>
-    <mergeCell ref="H462:H465"/>
-    <mergeCell ref="F466:F469"/>
-    <mergeCell ref="G466:G469"/>
-    <mergeCell ref="H466:H469"/>
-    <mergeCell ref="F470:F473"/>
-    <mergeCell ref="G470:G473"/>
-    <mergeCell ref="H470:H473"/>
-    <mergeCell ref="F474:F477"/>
-    <mergeCell ref="G474:G477"/>
-    <mergeCell ref="H474:H477"/>
-    <mergeCell ref="F478:F481"/>
-    <mergeCell ref="G478:G481"/>
-    <mergeCell ref="H478:H481"/>
-    <mergeCell ref="F482:F485"/>
-    <mergeCell ref="G482:G485"/>
-    <mergeCell ref="H482:H485"/>
-    <mergeCell ref="F486:F489"/>
-    <mergeCell ref="G486:G489"/>
-    <mergeCell ref="H486:H489"/>
-    <mergeCell ref="F490:F493"/>
-    <mergeCell ref="G490:G493"/>
-    <mergeCell ref="H490:H493"/>
-    <mergeCell ref="F494:F497"/>
-    <mergeCell ref="G494:G497"/>
-    <mergeCell ref="H494:H497"/>
-    <mergeCell ref="F498:F501"/>
-    <mergeCell ref="G498:G501"/>
-    <mergeCell ref="H498:H501"/>
-    <mergeCell ref="F502:F505"/>
-    <mergeCell ref="G502:G505"/>
-    <mergeCell ref="H502:H505"/>
-    <mergeCell ref="F506:F509"/>
-    <mergeCell ref="G506:G509"/>
-    <mergeCell ref="H506:H509"/>
-    <mergeCell ref="F510:F513"/>
-    <mergeCell ref="G510:G513"/>
-    <mergeCell ref="H510:H513"/>
-    <mergeCell ref="F514:F517"/>
-    <mergeCell ref="G514:G517"/>
-    <mergeCell ref="H514:H517"/>
-    <mergeCell ref="F518:F521"/>
-    <mergeCell ref="G518:G521"/>
-    <mergeCell ref="H518:H521"/>
-    <mergeCell ref="F522:F525"/>
-    <mergeCell ref="G522:G525"/>
-    <mergeCell ref="H522:H525"/>
-    <mergeCell ref="F526:F529"/>
-    <mergeCell ref="G526:G529"/>
-    <mergeCell ref="H526:H529"/>
-    <mergeCell ref="F530:F533"/>
-    <mergeCell ref="G530:G533"/>
-    <mergeCell ref="H530:H533"/>
-    <mergeCell ref="F534:F537"/>
-    <mergeCell ref="G534:G537"/>
-    <mergeCell ref="H534:H537"/>
-    <mergeCell ref="F538:F541"/>
-    <mergeCell ref="G538:G541"/>
-    <mergeCell ref="H538:H541"/>
-    <mergeCell ref="F542:F545"/>
-    <mergeCell ref="G542:G545"/>
-    <mergeCell ref="H542:H545"/>
-    <mergeCell ref="F546:F549"/>
-    <mergeCell ref="G546:G549"/>
-    <mergeCell ref="H546:H549"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="E99:E102"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="E131:E135"/>
+    <mergeCell ref="E136:E139"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="E163:E166"/>
+    <mergeCell ref="E167:E170"/>
+    <mergeCell ref="E171:E174"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="E155:E158"/>
+    <mergeCell ref="E159:E162"/>
+    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="E144:E147"/>
+    <mergeCell ref="E148:E151"/>
+    <mergeCell ref="E200:E203"/>
+    <mergeCell ref="E204:E207"/>
+    <mergeCell ref="E208:E211"/>
+    <mergeCell ref="E188:E191"/>
+    <mergeCell ref="E192:E195"/>
+    <mergeCell ref="E196:E199"/>
+    <mergeCell ref="E175:E178"/>
+    <mergeCell ref="E179:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E236:E238"/>
+    <mergeCell ref="E239:E241"/>
+    <mergeCell ref="E242:E245"/>
+    <mergeCell ref="E224:E227"/>
+    <mergeCell ref="E228:E231"/>
+    <mergeCell ref="E232:E235"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="E216:E219"/>
+    <mergeCell ref="E220:E223"/>
+    <mergeCell ref="E270:E273"/>
+    <mergeCell ref="E274:E278"/>
+    <mergeCell ref="E279:E282"/>
+    <mergeCell ref="E258:E261"/>
+    <mergeCell ref="E262:E265"/>
+    <mergeCell ref="E266:E269"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="E250:E253"/>
+    <mergeCell ref="E254:E257"/>
+    <mergeCell ref="E309:E312"/>
+    <mergeCell ref="E313:E316"/>
+    <mergeCell ref="E317:E320"/>
+    <mergeCell ref="E296:E299"/>
+    <mergeCell ref="E300:E303"/>
+    <mergeCell ref="E304:E308"/>
+    <mergeCell ref="E283:E286"/>
+    <mergeCell ref="E287:E291"/>
+    <mergeCell ref="E292:E295"/>
+    <mergeCell ref="E346:E349"/>
+    <mergeCell ref="E350:E354"/>
+    <mergeCell ref="E355:E358"/>
+    <mergeCell ref="E333:E337"/>
+    <mergeCell ref="E338:E341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="E321:E324"/>
+    <mergeCell ref="E325:E328"/>
+    <mergeCell ref="E329:E332"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="E373:E376"/>
+    <mergeCell ref="E377:E380"/>
+    <mergeCell ref="E381:E385"/>
+    <mergeCell ref="E359:E362"/>
+    <mergeCell ref="E363:E367"/>
+    <mergeCell ref="E368:E372"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="E430:E434"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="E475:E478"/>
+    <mergeCell ref="E479:E482"/>
+    <mergeCell ref="E459:E462"/>
+    <mergeCell ref="E463:E466"/>
+    <mergeCell ref="E467:E470"/>
+    <mergeCell ref="E447:E450"/>
+    <mergeCell ref="E451:E454"/>
+    <mergeCell ref="E455:E458"/>
+    <mergeCell ref="E435:E438"/>
+    <mergeCell ref="E439:E442"/>
+    <mergeCell ref="E443:E446"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="E543:E546"/>
+    <mergeCell ref="E547:E550"/>
+    <mergeCell ref="E531:E534"/>
+    <mergeCell ref="E535:E538"/>
+    <mergeCell ref="E539:E542"/>
+    <mergeCell ref="E519:E522"/>
+    <mergeCell ref="E523:E526"/>
+    <mergeCell ref="E527:E530"/>
+    <mergeCell ref="E507:E510"/>
+    <mergeCell ref="E511:E514"/>
+    <mergeCell ref="E515:E518"/>
+    <mergeCell ref="E495:E498"/>
+    <mergeCell ref="E499:E502"/>
+    <mergeCell ref="E503:E506"/>
+    <mergeCell ref="E483:E486"/>
+    <mergeCell ref="E487:E490"/>
+    <mergeCell ref="E491:E494"/>
+    <mergeCell ref="E471:E474"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="C155:C158"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="C136:C139"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C144:C147"/>
+    <mergeCell ref="C196:C199"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="C204:C207"/>
+    <mergeCell ref="C208:C211"/>
+    <mergeCell ref="C212:C215"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C188:C191"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C258:C261"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="C224:C227"/>
+    <mergeCell ref="C228:C231"/>
+    <mergeCell ref="C232:C235"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="C292:C295"/>
+    <mergeCell ref="C296:C299"/>
+    <mergeCell ref="C300:C303"/>
+    <mergeCell ref="C304:C308"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="C313:C316"/>
+    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="C274:C278"/>
+    <mergeCell ref="C279:C282"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="C287:C291"/>
+    <mergeCell ref="C342:C345"/>
+    <mergeCell ref="C346:C349"/>
+    <mergeCell ref="C350:C354"/>
+    <mergeCell ref="C355:C358"/>
+    <mergeCell ref="C359:C362"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="C317:C320"/>
+    <mergeCell ref="C321:C324"/>
+    <mergeCell ref="C325:C328"/>
+    <mergeCell ref="C329:C332"/>
+    <mergeCell ref="C333:C337"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C368:C372"/>
+    <mergeCell ref="C373:C376"/>
+    <mergeCell ref="C377:C380"/>
+    <mergeCell ref="C381:C385"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="C443:C446"/>
+    <mergeCell ref="C447:C450"/>
+    <mergeCell ref="C451:C454"/>
+    <mergeCell ref="C455:C458"/>
+    <mergeCell ref="C459:C462"/>
+    <mergeCell ref="C463:C466"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="C422:C425"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C430:C434"/>
+    <mergeCell ref="C435:C438"/>
+    <mergeCell ref="C439:C442"/>
+    <mergeCell ref="C491:C494"/>
+    <mergeCell ref="C495:C498"/>
+    <mergeCell ref="C499:C502"/>
+    <mergeCell ref="C503:C506"/>
+    <mergeCell ref="C507:C510"/>
+    <mergeCell ref="C511:C514"/>
+    <mergeCell ref="C467:C470"/>
+    <mergeCell ref="C471:C474"/>
+    <mergeCell ref="C475:C478"/>
+    <mergeCell ref="C479:C482"/>
+    <mergeCell ref="C483:C486"/>
+    <mergeCell ref="C487:C490"/>
+    <mergeCell ref="C539:C542"/>
+    <mergeCell ref="C543:C546"/>
+    <mergeCell ref="C547:C550"/>
+    <mergeCell ref="C515:C518"/>
+    <mergeCell ref="C519:C522"/>
+    <mergeCell ref="C523:C526"/>
+    <mergeCell ref="C527:C530"/>
+    <mergeCell ref="C531:C534"/>
+    <mergeCell ref="C535:C538"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B175" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
@@ -15320,35 +15665,35 @@
     <hyperlink ref="B422" r:id="rId103" xr:uid="{BD704D7B-4541-4AE4-B065-A3990AC2D12D}"/>
     <hyperlink ref="B426" r:id="rId104" xr:uid="{6EBD0AB5-CDFD-48B4-B023-B36D6D4448BD}"/>
     <hyperlink ref="B430" r:id="rId105" xr:uid="{6771ADF7-02F9-4169-A1BD-BFF01E607080}"/>
-    <hyperlink ref="B434" r:id="rId106" xr:uid="{91634374-A088-4AA2-94A5-AD8B342CCDF6}"/>
-    <hyperlink ref="B438" r:id="rId107" xr:uid="{EE31A9D6-30AF-4257-A90A-A876A2318F49}"/>
-    <hyperlink ref="B442" r:id="rId108" xr:uid="{9A6FDCFD-A99F-44F7-8AEA-A05F204B90FA}"/>
-    <hyperlink ref="B446" r:id="rId109" xr:uid="{78F3AC75-6D77-42F3-8F72-F24C5ADE7B4D}"/>
-    <hyperlink ref="B450" r:id="rId110" xr:uid="{E109B2F7-B9A2-4CBD-8F73-5DBE9700D45A}"/>
-    <hyperlink ref="B454" r:id="rId111" xr:uid="{5EAD77B6-E0DB-4435-B0CB-726D6800DE2F}"/>
-    <hyperlink ref="B458" r:id="rId112" xr:uid="{9C05DAF7-8F96-440E-964F-57A42D69550B}"/>
-    <hyperlink ref="B462" r:id="rId113" xr:uid="{E61FE19C-7CA9-489D-BF87-FC6904B13A1B}"/>
-    <hyperlink ref="B466" r:id="rId114" xr:uid="{D10989DB-3645-4399-BB32-94CB112E8A00}"/>
-    <hyperlink ref="B470" r:id="rId115" xr:uid="{967405F3-BD41-4BE0-9199-EC4FA985F54E}"/>
-    <hyperlink ref="B474" r:id="rId116" xr:uid="{F87AC76D-F3BF-4612-9224-41EE59A2585B}"/>
-    <hyperlink ref="B478" r:id="rId117" xr:uid="{840D9884-A9CD-4438-B648-A666B9000FBA}"/>
-    <hyperlink ref="B482" r:id="rId118" xr:uid="{65335A14-2CAF-457B-9D39-0657CD853A39}"/>
-    <hyperlink ref="B486" r:id="rId119" xr:uid="{DF732760-59D2-4714-BDFE-7F4492DB6B52}"/>
-    <hyperlink ref="B490" r:id="rId120" xr:uid="{C89CAD92-D09F-4A40-AEC9-36AF16DD2FE2}"/>
-    <hyperlink ref="B494" r:id="rId121" xr:uid="{935E95F2-3288-439D-832B-1204F5561FAC}"/>
-    <hyperlink ref="B498" r:id="rId122" xr:uid="{79C86A53-37B4-4C14-B488-3420C0C47255}"/>
-    <hyperlink ref="B502" r:id="rId123" xr:uid="{F37FA534-F8AD-4BA1-8677-C0D3F997DE33}"/>
-    <hyperlink ref="B506" r:id="rId124" xr:uid="{F5612779-F999-42F7-8B48-5AA5EFCC0E05}"/>
-    <hyperlink ref="B510" r:id="rId125" xr:uid="{8D0E2CCC-D514-4906-B752-A1E01077ABDA}"/>
-    <hyperlink ref="B514" r:id="rId126" xr:uid="{8ECD43FC-0857-469E-8FBA-DB7C60459BAB}"/>
-    <hyperlink ref="B518" r:id="rId127" xr:uid="{DBBE4738-E842-41D1-8644-A8ACE07B37EE}"/>
-    <hyperlink ref="B522" r:id="rId128" xr:uid="{735EDB11-9188-4EA1-8A75-139413E0FF82}"/>
-    <hyperlink ref="B526" r:id="rId129" xr:uid="{00F24F66-F411-4801-A125-9B85B12F1FDE}"/>
-    <hyperlink ref="B530" r:id="rId130" xr:uid="{9830D7FC-7F3C-4415-A727-D2425181A876}"/>
-    <hyperlink ref="B534" r:id="rId131" xr:uid="{93BD82F8-E8C1-4A2A-BB4A-365C73A75A29}"/>
-    <hyperlink ref="B538" r:id="rId132" xr:uid="{7DC668B8-9D43-4BD3-A7B2-E231AAA8879F}"/>
-    <hyperlink ref="B542" r:id="rId133" xr:uid="{C301C90A-50AA-4211-AADC-C2A094CAD25C}"/>
-    <hyperlink ref="B546" r:id="rId134" xr:uid="{BAA871EB-0E81-4A95-9CFD-D3CCEAC481BB}"/>
+    <hyperlink ref="B435" r:id="rId106" xr:uid="{91634374-A088-4AA2-94A5-AD8B342CCDF6}"/>
+    <hyperlink ref="B439" r:id="rId107" xr:uid="{EE31A9D6-30AF-4257-A90A-A876A2318F49}"/>
+    <hyperlink ref="B443" r:id="rId108" xr:uid="{9A6FDCFD-A99F-44F7-8AEA-A05F204B90FA}"/>
+    <hyperlink ref="B447" r:id="rId109" xr:uid="{78F3AC75-6D77-42F3-8F72-F24C5ADE7B4D}"/>
+    <hyperlink ref="B451" r:id="rId110" xr:uid="{E109B2F7-B9A2-4CBD-8F73-5DBE9700D45A}"/>
+    <hyperlink ref="B455" r:id="rId111" xr:uid="{5EAD77B6-E0DB-4435-B0CB-726D6800DE2F}"/>
+    <hyperlink ref="B459" r:id="rId112" xr:uid="{9C05DAF7-8F96-440E-964F-57A42D69550B}"/>
+    <hyperlink ref="B463" r:id="rId113" xr:uid="{E61FE19C-7CA9-489D-BF87-FC6904B13A1B}"/>
+    <hyperlink ref="B467" r:id="rId114" xr:uid="{D10989DB-3645-4399-BB32-94CB112E8A00}"/>
+    <hyperlink ref="B471" r:id="rId115" xr:uid="{967405F3-BD41-4BE0-9199-EC4FA985F54E}"/>
+    <hyperlink ref="B475" r:id="rId116" xr:uid="{F87AC76D-F3BF-4612-9224-41EE59A2585B}"/>
+    <hyperlink ref="B479" r:id="rId117" xr:uid="{840D9884-A9CD-4438-B648-A666B9000FBA}"/>
+    <hyperlink ref="B483" r:id="rId118" xr:uid="{65335A14-2CAF-457B-9D39-0657CD853A39}"/>
+    <hyperlink ref="B487" r:id="rId119" xr:uid="{DF732760-59D2-4714-BDFE-7F4492DB6B52}"/>
+    <hyperlink ref="B491" r:id="rId120" xr:uid="{C89CAD92-D09F-4A40-AEC9-36AF16DD2FE2}"/>
+    <hyperlink ref="B495" r:id="rId121" xr:uid="{935E95F2-3288-439D-832B-1204F5561FAC}"/>
+    <hyperlink ref="B499" r:id="rId122" xr:uid="{79C86A53-37B4-4C14-B488-3420C0C47255}"/>
+    <hyperlink ref="B503" r:id="rId123" xr:uid="{F37FA534-F8AD-4BA1-8677-C0D3F997DE33}"/>
+    <hyperlink ref="B507" r:id="rId124" xr:uid="{F5612779-F999-42F7-8B48-5AA5EFCC0E05}"/>
+    <hyperlink ref="B511" r:id="rId125" xr:uid="{8D0E2CCC-D514-4906-B752-A1E01077ABDA}"/>
+    <hyperlink ref="B515" r:id="rId126" xr:uid="{8ECD43FC-0857-469E-8FBA-DB7C60459BAB}"/>
+    <hyperlink ref="B519" r:id="rId127" xr:uid="{DBBE4738-E842-41D1-8644-A8ACE07B37EE}"/>
+    <hyperlink ref="B523" r:id="rId128" xr:uid="{735EDB11-9188-4EA1-8A75-139413E0FF82}"/>
+    <hyperlink ref="B527" r:id="rId129" xr:uid="{00F24F66-F411-4801-A125-9B85B12F1FDE}"/>
+    <hyperlink ref="B531" r:id="rId130" xr:uid="{9830D7FC-7F3C-4415-A727-D2425181A876}"/>
+    <hyperlink ref="B535" r:id="rId131" xr:uid="{93BD82F8-E8C1-4A2A-BB4A-365C73A75A29}"/>
+    <hyperlink ref="B539" r:id="rId132" xr:uid="{7DC668B8-9D43-4BD3-A7B2-E231AAA8879F}"/>
+    <hyperlink ref="B543" r:id="rId133" xr:uid="{C301C90A-50AA-4211-AADC-C2A094CAD25C}"/>
+    <hyperlink ref="B547" r:id="rId134" xr:uid="{BAA871EB-0E81-4A95-9CFD-D3CCEAC481BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId135"/>
@@ -25701,314 +26046,292 @@
     <sortCondition ref="A2:A586"/>
   </sortState>
   <mergeCells count="618">
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="B578:B581"/>
-    <mergeCell ref="A582:A585"/>
-    <mergeCell ref="B582:B585"/>
-    <mergeCell ref="A586:A589"/>
-    <mergeCell ref="B586:B589"/>
-    <mergeCell ref="A566:A569"/>
-    <mergeCell ref="B566:B569"/>
-    <mergeCell ref="A570:A573"/>
-    <mergeCell ref="B570:B573"/>
-    <mergeCell ref="A574:A577"/>
-    <mergeCell ref="B574:B577"/>
-    <mergeCell ref="A554:A557"/>
-    <mergeCell ref="B554:B557"/>
-    <mergeCell ref="A558:A561"/>
-    <mergeCell ref="B558:B561"/>
-    <mergeCell ref="A562:A565"/>
-    <mergeCell ref="B562:B565"/>
-    <mergeCell ref="A542:A545"/>
-    <mergeCell ref="B542:B545"/>
-    <mergeCell ref="A546:A549"/>
-    <mergeCell ref="B546:B549"/>
-    <mergeCell ref="A550:A553"/>
-    <mergeCell ref="B550:B553"/>
-    <mergeCell ref="A530:A533"/>
-    <mergeCell ref="B530:B533"/>
-    <mergeCell ref="A534:A537"/>
-    <mergeCell ref="B534:B537"/>
-    <mergeCell ref="A538:A541"/>
-    <mergeCell ref="B538:B541"/>
-    <mergeCell ref="A518:A521"/>
-    <mergeCell ref="B518:B521"/>
-    <mergeCell ref="A522:A525"/>
-    <mergeCell ref="B522:B525"/>
-    <mergeCell ref="A526:A529"/>
-    <mergeCell ref="B526:B529"/>
-    <mergeCell ref="A506:A509"/>
-    <mergeCell ref="B506:B509"/>
-    <mergeCell ref="A510:A513"/>
-    <mergeCell ref="B510:B513"/>
-    <mergeCell ref="A514:A517"/>
-    <mergeCell ref="B514:B517"/>
-    <mergeCell ref="A494:A497"/>
-    <mergeCell ref="B494:B497"/>
-    <mergeCell ref="A498:A501"/>
-    <mergeCell ref="B498:B501"/>
-    <mergeCell ref="A502:A505"/>
-    <mergeCell ref="B502:B505"/>
-    <mergeCell ref="A482:A485"/>
-    <mergeCell ref="B482:B485"/>
-    <mergeCell ref="A486:A489"/>
-    <mergeCell ref="B486:B489"/>
-    <mergeCell ref="A490:A493"/>
-    <mergeCell ref="B490:B493"/>
-    <mergeCell ref="A470:A473"/>
-    <mergeCell ref="B470:B473"/>
-    <mergeCell ref="A474:A477"/>
-    <mergeCell ref="B474:B477"/>
-    <mergeCell ref="A478:A481"/>
-    <mergeCell ref="B478:B481"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="B458:B461"/>
-    <mergeCell ref="A462:A465"/>
-    <mergeCell ref="B462:B465"/>
-    <mergeCell ref="A466:A469"/>
-    <mergeCell ref="B466:B469"/>
-    <mergeCell ref="A446:A449"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="A434:A437"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="B442:B445"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="B430:B433"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="B374:B377"/>
-    <mergeCell ref="A378:A381"/>
-    <mergeCell ref="B378:B381"/>
-    <mergeCell ref="A382:A385"/>
-    <mergeCell ref="B382:B385"/>
-    <mergeCell ref="A362:A365"/>
-    <mergeCell ref="B362:B365"/>
-    <mergeCell ref="A366:A369"/>
-    <mergeCell ref="B366:B369"/>
-    <mergeCell ref="A370:A373"/>
-    <mergeCell ref="B370:B373"/>
-    <mergeCell ref="A350:A353"/>
-    <mergeCell ref="B350:B353"/>
-    <mergeCell ref="A354:A357"/>
-    <mergeCell ref="B354:B357"/>
-    <mergeCell ref="A358:A361"/>
-    <mergeCell ref="B358:B361"/>
-    <mergeCell ref="A338:A341"/>
-    <mergeCell ref="B338:B341"/>
-    <mergeCell ref="A342:A345"/>
-    <mergeCell ref="B342:B345"/>
-    <mergeCell ref="A346:A349"/>
-    <mergeCell ref="B346:B349"/>
-    <mergeCell ref="A326:A329"/>
-    <mergeCell ref="B326:B329"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="A334:A337"/>
-    <mergeCell ref="B334:B337"/>
-    <mergeCell ref="A314:A317"/>
-    <mergeCell ref="B314:B317"/>
-    <mergeCell ref="A318:A321"/>
-    <mergeCell ref="B318:B321"/>
-    <mergeCell ref="A322:A325"/>
-    <mergeCell ref="B322:B325"/>
-    <mergeCell ref="A302:A305"/>
-    <mergeCell ref="B302:B305"/>
-    <mergeCell ref="A306:A309"/>
-    <mergeCell ref="B306:B309"/>
-    <mergeCell ref="A310:A313"/>
-    <mergeCell ref="B310:B313"/>
-    <mergeCell ref="A290:A293"/>
-    <mergeCell ref="B290:B293"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="A298:A301"/>
-    <mergeCell ref="B298:B301"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="B282:B285"/>
-    <mergeCell ref="A286:A289"/>
-    <mergeCell ref="B286:B289"/>
-    <mergeCell ref="A266:A269"/>
-    <mergeCell ref="B266:B269"/>
-    <mergeCell ref="A270:A273"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="A274:A277"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="A254:A257"/>
-    <mergeCell ref="B254:B257"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="A262:A265"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="A230:A233"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A218:A221"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C286:C289"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="C298:C301"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="C274:C277"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="C282:C285"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C258:C261"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C358:C361"/>
+    <mergeCell ref="C362:C365"/>
+    <mergeCell ref="C366:C369"/>
+    <mergeCell ref="C370:C373"/>
+    <mergeCell ref="C334:C337"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C342:C345"/>
+    <mergeCell ref="C346:C349"/>
+    <mergeCell ref="C374:C377"/>
+    <mergeCell ref="C378:C381"/>
+    <mergeCell ref="C458:C461"/>
+    <mergeCell ref="C462:C465"/>
+    <mergeCell ref="C466:C469"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C438:C441"/>
+    <mergeCell ref="C442:C445"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C446:C449"/>
+    <mergeCell ref="C450:C453"/>
+    <mergeCell ref="C422:C425"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C454:C457"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="E238:E241"/>
+    <mergeCell ref="E218:E221"/>
+    <mergeCell ref="E222:E225"/>
+    <mergeCell ref="E226:E229"/>
+    <mergeCell ref="E250:E253"/>
+    <mergeCell ref="E254:E257"/>
+    <mergeCell ref="E258:E261"/>
+    <mergeCell ref="E262:E265"/>
+    <mergeCell ref="E338:E341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="E334:E337"/>
+    <mergeCell ref="E314:E317"/>
+    <mergeCell ref="E318:E321"/>
+    <mergeCell ref="E322:E325"/>
+    <mergeCell ref="E290:E293"/>
+    <mergeCell ref="E294:E297"/>
+    <mergeCell ref="E286:E289"/>
+    <mergeCell ref="E458:E461"/>
+    <mergeCell ref="E462:E465"/>
+    <mergeCell ref="E466:E469"/>
+    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E446:E449"/>
+    <mergeCell ref="E450:E453"/>
+    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="C562:C565"/>
+    <mergeCell ref="E562:E565"/>
+    <mergeCell ref="C566:C569"/>
+    <mergeCell ref="E566:E569"/>
+    <mergeCell ref="C554:C557"/>
+    <mergeCell ref="E554:E557"/>
+    <mergeCell ref="C558:C561"/>
+    <mergeCell ref="E558:E561"/>
+    <mergeCell ref="C546:C549"/>
+    <mergeCell ref="E546:E549"/>
+    <mergeCell ref="C550:C553"/>
+    <mergeCell ref="E550:E553"/>
+    <mergeCell ref="C586:C589"/>
+    <mergeCell ref="E586:E589"/>
+    <mergeCell ref="C578:C581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="C582:C585"/>
+    <mergeCell ref="E582:E585"/>
+    <mergeCell ref="C570:C573"/>
+    <mergeCell ref="E570:E573"/>
+    <mergeCell ref="C574:C577"/>
+    <mergeCell ref="E574:E577"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="E174:E177"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="E210:E213"/>
+    <mergeCell ref="E214:E217"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="E230:E233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="E234:E237"/>
+    <mergeCell ref="C326:C329"/>
+    <mergeCell ref="E326:E329"/>
+    <mergeCell ref="C330:C333"/>
+    <mergeCell ref="E330:E333"/>
+    <mergeCell ref="E298:E301"/>
+    <mergeCell ref="C302:C305"/>
+    <mergeCell ref="E302:E305"/>
+    <mergeCell ref="C306:C309"/>
+    <mergeCell ref="E306:E309"/>
+    <mergeCell ref="E310:E313"/>
+    <mergeCell ref="C310:C313"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="C318:C321"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="E266:E269"/>
+    <mergeCell ref="E270:E273"/>
+    <mergeCell ref="E274:E277"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="E282:E285"/>
+    <mergeCell ref="E242:E245"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="E346:E349"/>
+    <mergeCell ref="C350:C353"/>
+    <mergeCell ref="E350:E353"/>
+    <mergeCell ref="C354:C357"/>
+    <mergeCell ref="E354:E357"/>
+    <mergeCell ref="E358:E361"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E382:E385"/>
+    <mergeCell ref="E362:E365"/>
+    <mergeCell ref="E366:E369"/>
+    <mergeCell ref="E370:E373"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="E378:E381"/>
+    <mergeCell ref="C382:C385"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="C498:C501"/>
+    <mergeCell ref="E498:E501"/>
+    <mergeCell ref="E506:E509"/>
+    <mergeCell ref="E510:E513"/>
+    <mergeCell ref="E502:E505"/>
+    <mergeCell ref="C510:C513"/>
+    <mergeCell ref="C514:C517"/>
+    <mergeCell ref="C470:C473"/>
+    <mergeCell ref="E470:E473"/>
+    <mergeCell ref="C474:C477"/>
+    <mergeCell ref="E474:E477"/>
+    <mergeCell ref="E482:E485"/>
+    <mergeCell ref="E486:E489"/>
+    <mergeCell ref="E478:E481"/>
+    <mergeCell ref="C502:C505"/>
+    <mergeCell ref="C506:C509"/>
+    <mergeCell ref="C478:C481"/>
+    <mergeCell ref="C482:C485"/>
+    <mergeCell ref="C486:C489"/>
+    <mergeCell ref="C490:C493"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A6:A9"/>
@@ -26033,292 +26356,314 @@
     <mergeCell ref="E490:E493"/>
     <mergeCell ref="C494:C497"/>
     <mergeCell ref="E494:E497"/>
-    <mergeCell ref="C498:C501"/>
-    <mergeCell ref="E498:E501"/>
-    <mergeCell ref="E506:E509"/>
-    <mergeCell ref="E510:E513"/>
-    <mergeCell ref="E502:E505"/>
-    <mergeCell ref="C510:C513"/>
-    <mergeCell ref="C514:C517"/>
-    <mergeCell ref="C470:C473"/>
-    <mergeCell ref="E470:E473"/>
-    <mergeCell ref="C474:C477"/>
-    <mergeCell ref="E474:E477"/>
-    <mergeCell ref="E482:E485"/>
-    <mergeCell ref="E486:E489"/>
-    <mergeCell ref="E478:E481"/>
-    <mergeCell ref="C502:C505"/>
-    <mergeCell ref="C506:C509"/>
-    <mergeCell ref="C478:C481"/>
-    <mergeCell ref="C482:C485"/>
-    <mergeCell ref="C486:C489"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="E346:E349"/>
-    <mergeCell ref="C350:C353"/>
-    <mergeCell ref="E350:E353"/>
-    <mergeCell ref="C354:C357"/>
-    <mergeCell ref="E354:E357"/>
-    <mergeCell ref="E358:E361"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E382:E385"/>
-    <mergeCell ref="E362:E365"/>
-    <mergeCell ref="E366:E369"/>
-    <mergeCell ref="E370:E373"/>
-    <mergeCell ref="E374:E377"/>
-    <mergeCell ref="E378:E381"/>
-    <mergeCell ref="C382:C385"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="E230:E233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="E234:E237"/>
-    <mergeCell ref="C326:C329"/>
-    <mergeCell ref="E326:E329"/>
-    <mergeCell ref="C330:C333"/>
-    <mergeCell ref="E330:E333"/>
-    <mergeCell ref="E298:E301"/>
-    <mergeCell ref="C302:C305"/>
-    <mergeCell ref="E302:E305"/>
-    <mergeCell ref="C306:C309"/>
-    <mergeCell ref="E306:E309"/>
-    <mergeCell ref="E310:E313"/>
-    <mergeCell ref="C310:C313"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="C318:C321"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="E210:E213"/>
-    <mergeCell ref="E214:E217"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="E174:E177"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="E150:E153"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="C586:C589"/>
-    <mergeCell ref="E586:E589"/>
-    <mergeCell ref="C578:C581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="C582:C585"/>
-    <mergeCell ref="E582:E585"/>
-    <mergeCell ref="C570:C573"/>
-    <mergeCell ref="E570:E573"/>
-    <mergeCell ref="C574:C577"/>
-    <mergeCell ref="E574:E577"/>
-    <mergeCell ref="C562:C565"/>
-    <mergeCell ref="E562:E565"/>
-    <mergeCell ref="C566:C569"/>
-    <mergeCell ref="E566:E569"/>
-    <mergeCell ref="C554:C557"/>
-    <mergeCell ref="E554:E557"/>
-    <mergeCell ref="C558:C561"/>
-    <mergeCell ref="E558:E561"/>
-    <mergeCell ref="C546:C549"/>
-    <mergeCell ref="E546:E549"/>
-    <mergeCell ref="C550:C553"/>
-    <mergeCell ref="E550:E553"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="E462:E465"/>
-    <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E434:E437"/>
-    <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="E442:E445"/>
-    <mergeCell ref="E446:E449"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E454:E457"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="E426:E429"/>
-    <mergeCell ref="E338:E341"/>
-    <mergeCell ref="E342:E345"/>
-    <mergeCell ref="E334:E337"/>
-    <mergeCell ref="E314:E317"/>
-    <mergeCell ref="E318:E321"/>
-    <mergeCell ref="E322:E325"/>
-    <mergeCell ref="E290:E293"/>
-    <mergeCell ref="E294:E297"/>
-    <mergeCell ref="E286:E289"/>
-    <mergeCell ref="E266:E269"/>
-    <mergeCell ref="E270:E273"/>
-    <mergeCell ref="E274:E277"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="E282:E285"/>
-    <mergeCell ref="E242:E245"/>
-    <mergeCell ref="E246:E249"/>
-    <mergeCell ref="E238:E241"/>
-    <mergeCell ref="E218:E221"/>
-    <mergeCell ref="E222:E225"/>
-    <mergeCell ref="E226:E229"/>
-    <mergeCell ref="E250:E253"/>
-    <mergeCell ref="E254:E257"/>
-    <mergeCell ref="E258:E261"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C462:C465"/>
-    <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C434:C437"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C442:C445"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C446:C449"/>
-    <mergeCell ref="C450:C453"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C426:C429"/>
-    <mergeCell ref="C454:C457"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C358:C361"/>
-    <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C366:C369"/>
-    <mergeCell ref="C370:C373"/>
-    <mergeCell ref="C334:C337"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C342:C345"/>
-    <mergeCell ref="C346:C349"/>
-    <mergeCell ref="C374:C377"/>
-    <mergeCell ref="C378:C381"/>
-    <mergeCell ref="C286:C289"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="C298:C301"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="C266:C269"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="C282:C285"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="C258:C261"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="A230:A233"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="A270:A273"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="A274:A277"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="A262:A265"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="A290:A293"/>
+    <mergeCell ref="B290:B293"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="A298:A301"/>
+    <mergeCell ref="B298:B301"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="B282:B285"/>
+    <mergeCell ref="A286:A289"/>
+    <mergeCell ref="B286:B289"/>
+    <mergeCell ref="A314:A317"/>
+    <mergeCell ref="B314:B317"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="B318:B321"/>
+    <mergeCell ref="A322:A325"/>
+    <mergeCell ref="B322:B325"/>
+    <mergeCell ref="A302:A305"/>
+    <mergeCell ref="B302:B305"/>
+    <mergeCell ref="A306:A309"/>
+    <mergeCell ref="B306:B309"/>
+    <mergeCell ref="A310:A313"/>
+    <mergeCell ref="B310:B313"/>
+    <mergeCell ref="A338:A341"/>
+    <mergeCell ref="B338:B341"/>
+    <mergeCell ref="A342:A345"/>
+    <mergeCell ref="B342:B345"/>
+    <mergeCell ref="A346:A349"/>
+    <mergeCell ref="B346:B349"/>
+    <mergeCell ref="A326:A329"/>
+    <mergeCell ref="B326:B329"/>
+    <mergeCell ref="A330:A333"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="A334:A337"/>
+    <mergeCell ref="B334:B337"/>
+    <mergeCell ref="A362:A365"/>
+    <mergeCell ref="B362:B365"/>
+    <mergeCell ref="A366:A369"/>
+    <mergeCell ref="B366:B369"/>
+    <mergeCell ref="A370:A373"/>
+    <mergeCell ref="B370:B373"/>
+    <mergeCell ref="A350:A353"/>
+    <mergeCell ref="B350:B353"/>
+    <mergeCell ref="A354:A357"/>
+    <mergeCell ref="B354:B357"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="B394:B397"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="A378:A381"/>
+    <mergeCell ref="B378:B381"/>
+    <mergeCell ref="A382:A385"/>
+    <mergeCell ref="B382:B385"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="B434:B437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="A442:A445"/>
+    <mergeCell ref="B442:B445"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="A430:A433"/>
+    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="A458:A461"/>
+    <mergeCell ref="B458:B461"/>
+    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="B462:B465"/>
+    <mergeCell ref="A466:A469"/>
+    <mergeCell ref="B466:B469"/>
+    <mergeCell ref="A446:A449"/>
+    <mergeCell ref="B446:B449"/>
+    <mergeCell ref="A450:A453"/>
+    <mergeCell ref="B450:B453"/>
+    <mergeCell ref="A454:A457"/>
+    <mergeCell ref="B454:B457"/>
+    <mergeCell ref="A482:A485"/>
+    <mergeCell ref="B482:B485"/>
+    <mergeCell ref="A486:A489"/>
+    <mergeCell ref="B486:B489"/>
+    <mergeCell ref="A490:A493"/>
+    <mergeCell ref="B490:B493"/>
+    <mergeCell ref="A470:A473"/>
+    <mergeCell ref="B470:B473"/>
+    <mergeCell ref="A474:A477"/>
+    <mergeCell ref="B474:B477"/>
+    <mergeCell ref="A478:A481"/>
+    <mergeCell ref="B478:B481"/>
+    <mergeCell ref="A506:A509"/>
+    <mergeCell ref="B506:B509"/>
+    <mergeCell ref="A510:A513"/>
+    <mergeCell ref="B510:B513"/>
+    <mergeCell ref="A514:A517"/>
+    <mergeCell ref="B514:B517"/>
+    <mergeCell ref="A494:A497"/>
+    <mergeCell ref="B494:B497"/>
+    <mergeCell ref="A498:A501"/>
+    <mergeCell ref="B498:B501"/>
+    <mergeCell ref="A502:A505"/>
+    <mergeCell ref="B502:B505"/>
+    <mergeCell ref="A530:A533"/>
+    <mergeCell ref="B530:B533"/>
+    <mergeCell ref="A534:A537"/>
+    <mergeCell ref="B534:B537"/>
+    <mergeCell ref="A538:A541"/>
+    <mergeCell ref="B538:B541"/>
+    <mergeCell ref="A518:A521"/>
+    <mergeCell ref="B518:B521"/>
+    <mergeCell ref="A522:A525"/>
+    <mergeCell ref="B522:B525"/>
+    <mergeCell ref="A526:A529"/>
+    <mergeCell ref="B526:B529"/>
+    <mergeCell ref="A554:A557"/>
+    <mergeCell ref="B554:B557"/>
+    <mergeCell ref="A558:A561"/>
+    <mergeCell ref="B558:B561"/>
+    <mergeCell ref="A562:A565"/>
+    <mergeCell ref="B562:B565"/>
+    <mergeCell ref="A542:A545"/>
+    <mergeCell ref="B542:B545"/>
+    <mergeCell ref="A546:A549"/>
+    <mergeCell ref="B546:B549"/>
+    <mergeCell ref="A550:A553"/>
+    <mergeCell ref="B550:B553"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="B578:B581"/>
+    <mergeCell ref="A582:A585"/>
+    <mergeCell ref="B582:B585"/>
+    <mergeCell ref="A586:A589"/>
+    <mergeCell ref="B586:B589"/>
+    <mergeCell ref="A566:A569"/>
+    <mergeCell ref="B566:B569"/>
+    <mergeCell ref="A570:A573"/>
+    <mergeCell ref="B570:B573"/>
+    <mergeCell ref="A574:A577"/>
+    <mergeCell ref="B574:B577"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B338" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
@@ -34224,15 +34569,162 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="G50:G53"/>
     <mergeCell ref="G102:G105"/>
     <mergeCell ref="H102:H105"/>
     <mergeCell ref="G46:G49"/>
@@ -34257,162 +34749,15 @@
     <mergeCell ref="G74:G77"/>
     <mergeCell ref="H74:H77"/>
     <mergeCell ref="G70:G73"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
@@ -41321,6 +41666,47 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
     <mergeCell ref="G24:G26"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="G14:G16"/>
@@ -41329,47 +41715,6 @@
     <mergeCell ref="H17:H20"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="H21:H23"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
@@ -48591,18 +48936,76 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="G17:G20"/>
@@ -48619,76 +49022,18 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="H9:H12"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
@@ -55521,6 +55866,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H2:H5"/>
@@ -55537,11 +55887,6 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{47819044-E1F3-45E4-893B-E194895BB40E}"/>
@@ -62483,18 +62828,20 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="H23:H26"/>
@@ -62511,20 +62858,18 @@
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>

--- a/DataCamp-Tracks.xlsx
+++ b/DataCamp-Tracks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB8972-E365-4993-B219-C0EBDC7D03E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6F867A-EBD8-42B3-BCCD-27383558E795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1451">
   <si>
     <t>Course Name</t>
   </si>
@@ -4109,6 +4109,276 @@
   </si>
   <si>
     <t>Projects, pipelines, and parallelism</t>
+  </si>
+  <si>
+    <t>Let's start flipping coins</t>
+  </si>
+  <si>
+    <t>Calculate some probabilities</t>
+  </si>
+  <si>
+    <t>Important probability distributions</t>
+  </si>
+  <si>
+    <t>Probability meets statistics</t>
+  </si>
+  <si>
+    <t>Diving In</t>
+  </si>
+  <si>
+    <t>Pivoting in Python</t>
+  </si>
+  <si>
+    <t>Working with Multiple Sheets</t>
+  </si>
+  <si>
+    <t>Plotting Data</t>
+  </si>
+  <si>
+    <t>Introduction to Clustering</t>
+  </si>
+  <si>
+    <t>Hierarchical Clustering</t>
+  </si>
+  <si>
+    <t>K-Means Clustering</t>
+  </si>
+  <si>
+    <t>Clustering in Real World</t>
+  </si>
+  <si>
+    <t>Introduction to AI</t>
+  </si>
+  <si>
+    <t>Supervised Learning</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>Deep Learning &amp; Beyond</t>
+  </si>
+  <si>
+    <t>Pyspark SQL</t>
+  </si>
+  <si>
+    <t>Using window function sql for natural language processing</t>
+  </si>
+  <si>
+    <t>Caching, Logging, and the Spark UI</t>
+  </si>
+  <si>
+    <t>Text classification</t>
+  </si>
+  <si>
+    <t>Basic Modeling in scikit-learn</t>
+  </si>
+  <si>
+    <t>Validation Basics</t>
+  </si>
+  <si>
+    <t>Cross Validation</t>
+  </si>
+  <si>
+    <t>Selecting the best model with Hyperparameter tuning.</t>
+  </si>
+  <si>
+    <t>Hyperparameters and Parameters</t>
+  </si>
+  <si>
+    <t>Grid search</t>
+  </si>
+  <si>
+    <t>Random Search</t>
+  </si>
+  <si>
+    <t>Informed Search</t>
+  </si>
+  <si>
+    <t>Combining Multiple Models</t>
+  </si>
+  <si>
+    <t>Bagging</t>
+  </si>
+  <si>
+    <t>Stacking</t>
+  </si>
+  <si>
+    <t>Read, clean, and validate</t>
+  </si>
+  <si>
+    <t>Distributions</t>
+  </si>
+  <si>
+    <t>Relationships</t>
+  </si>
+  <si>
+    <t>Multivariate Thinking</t>
+  </si>
+  <si>
+    <t>Introduction to GLMs</t>
+  </si>
+  <si>
+    <t>Modeling Binary Data</t>
+  </si>
+  <si>
+    <t>Modeling Count Data</t>
+  </si>
+  <si>
+    <t>Multivariable Logistic Regression</t>
+  </si>
+  <si>
+    <t>Accessing IoT Data</t>
+  </si>
+  <si>
+    <t>Processing IoT data</t>
+  </si>
+  <si>
+    <t>Analyzing IoT data</t>
+  </si>
+  <si>
+    <t>Machine learning for IoT</t>
+  </si>
+  <si>
+    <t>Probability and Sampling Distributions</t>
+  </si>
+  <si>
+    <t>Statistical Experiments and Significance Testing</t>
+  </si>
+  <si>
+    <t>Regression and Classification</t>
+  </si>
+  <si>
+    <t>The Basics of Statistical Hypothesis Testing</t>
+  </si>
+  <si>
+    <t>Design Considerations in Experimental Design</t>
+  </si>
+  <si>
+    <t>Sample size, Power analysis, and Effect size</t>
+  </si>
+  <si>
+    <t>Testing Normality: Parametric and Non-parametric Tests</t>
+  </si>
+  <si>
+    <t>Kaggle competitions process</t>
+  </si>
+  <si>
+    <t>Dive into the Competition</t>
+  </si>
+  <si>
+    <t>Modeling</t>
+  </si>
+  <si>
+    <t>IPython shell commands</t>
+  </si>
+  <si>
+    <t>Shell commands with subprocess</t>
+  </si>
+  <si>
+    <t>Walking the file system</t>
+  </si>
+  <si>
+    <t>Command line functions</t>
+  </si>
+  <si>
+    <t>Putting Files in the Cloud!</t>
+  </si>
+  <si>
+    <t>Sharing Files Securely.</t>
+  </si>
+  <si>
+    <t>Reporting and Notifying!</t>
+  </si>
+  <si>
+    <t>Pattern Rekognition</t>
+  </si>
+  <si>
+    <t>Ingesting Data</t>
+  </si>
+  <si>
+    <t>Creating a data transformation pipeline with PySpark</t>
+  </si>
+  <si>
+    <t>Testing your data pipeline</t>
+  </si>
+  <si>
+    <t>Managing and orchestrating a workflow</t>
+  </si>
+  <si>
+    <t>Data Pre-processing and Visualization</t>
+  </si>
+  <si>
+    <t>Model Selection and Evaluation</t>
+  </si>
+  <si>
+    <t>Data engineering toolbox</t>
+  </si>
+  <si>
+    <t>Extract, Transform and Load (ETL)</t>
+  </si>
+  <si>
+    <t>Case Study: DataCamp</t>
+  </si>
+  <si>
+    <t>Python, Data Engineering</t>
+  </si>
+  <si>
+    <t>Introduction to joining data</t>
+  </si>
+  <si>
+    <t>VLOOKUP-style joins</t>
+  </si>
+  <si>
+    <t>One-to-many joins</t>
+  </si>
+  <si>
+    <t>Advanced joins</t>
+  </si>
+  <si>
+    <t>Introduction to CTR and Basic Techniques</t>
+  </si>
+  <si>
+    <t>Exploratory CTR Data Analysis</t>
+  </si>
+  <si>
+    <t>Model Applications and Improvements</t>
+  </si>
+  <si>
+    <t>Intro to Airflow</t>
+  </si>
+  <si>
+    <t>Implementing Airflow DAGs</t>
+  </si>
+  <si>
+    <t>Maintaining and monitoring Airflow workflows</t>
+  </si>
+  <si>
+    <t>Building production pipelines in Airflow</t>
+  </si>
+  <si>
+    <t>Streaming in the cloud</t>
+  </si>
+  <si>
+    <t>Going serverless</t>
+  </si>
+  <si>
+    <t>Analyzing streaming data</t>
+  </si>
+  <si>
+    <t>Monitoring and visualizing streaming data</t>
+  </si>
+  <si>
+    <t>Summary Statistics</t>
+  </si>
+  <si>
+    <t>Random Numbers and Probability</t>
+  </si>
+  <si>
+    <t>More Distributions and the Central Limit Theorem</t>
+  </si>
+  <si>
+    <t>Correlation and Experimental Design</t>
   </si>
 </sst>
 </file>
@@ -11496,18 +11766,30 @@
       <c r="B455" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="C455" s="34"/>
-      <c r="D455" s="29"/>
-      <c r="E455" s="31"/>
-      <c r="F455" s="31"/>
-      <c r="G455" s="31"/>
+      <c r="C455" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D455" s="29" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E455" s="31">
+        <v>5</v>
+      </c>
+      <c r="F455" s="31">
+        <v>16</v>
+      </c>
+      <c r="G455" s="31">
+        <v>61</v>
+      </c>
       <c r="H455" s="31"/>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="35"/>
       <c r="B456" s="38"/>
       <c r="C456" s="35"/>
-      <c r="D456" s="8"/>
+      <c r="D456" s="8" t="s">
+        <v>1362</v>
+      </c>
       <c r="E456" s="32"/>
       <c r="F456" s="32"/>
       <c r="G456" s="32"/>
@@ -11517,7 +11799,9 @@
       <c r="A457" s="35"/>
       <c r="B457" s="38"/>
       <c r="C457" s="35"/>
-      <c r="D457" s="8"/>
+      <c r="D457" s="8" t="s">
+        <v>1363</v>
+      </c>
       <c r="E457" s="32"/>
       <c r="F457" s="32"/>
       <c r="G457" s="32"/>
@@ -11527,7 +11811,9 @@
       <c r="A458" s="36"/>
       <c r="B458" s="39"/>
       <c r="C458" s="36"/>
-      <c r="D458" s="30"/>
+      <c r="D458" s="30" t="s">
+        <v>1364</v>
+      </c>
       <c r="E458" s="33"/>
       <c r="F458" s="33"/>
       <c r="G458" s="33"/>
@@ -11540,18 +11826,30 @@
       <c r="B459" s="37" t="s">
         <v>637</v>
       </c>
-      <c r="C459" s="34"/>
-      <c r="D459" s="29"/>
-      <c r="E459" s="31"/>
-      <c r="F459" s="31"/>
-      <c r="G459" s="31"/>
+      <c r="C459" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D459" s="29" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E459" s="31">
+        <v>4</v>
+      </c>
+      <c r="F459" s="31">
+        <v>13</v>
+      </c>
+      <c r="G459" s="31">
+        <v>48</v>
+      </c>
       <c r="H459" s="31"/>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="35"/>
       <c r="B460" s="38"/>
       <c r="C460" s="35"/>
-      <c r="D460" s="8"/>
+      <c r="D460" s="8" t="s">
+        <v>1366</v>
+      </c>
       <c r="E460" s="32"/>
       <c r="F460" s="32"/>
       <c r="G460" s="32"/>
@@ -11561,7 +11859,9 @@
       <c r="A461" s="35"/>
       <c r="B461" s="38"/>
       <c r="C461" s="35"/>
-      <c r="D461" s="8"/>
+      <c r="D461" s="8" t="s">
+        <v>1367</v>
+      </c>
       <c r="E461" s="32"/>
       <c r="F461" s="32"/>
       <c r="G461" s="32"/>
@@ -11571,7 +11871,9 @@
       <c r="A462" s="36"/>
       <c r="B462" s="39"/>
       <c r="C462" s="36"/>
-      <c r="D462" s="30"/>
+      <c r="D462" s="30" t="s">
+        <v>1368</v>
+      </c>
       <c r="E462" s="33"/>
       <c r="F462" s="33"/>
       <c r="G462" s="33"/>
@@ -11584,18 +11886,30 @@
       <c r="B463" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="C463" s="34"/>
-      <c r="D463" s="29"/>
-      <c r="E463" s="31"/>
-      <c r="F463" s="31"/>
-      <c r="G463" s="31"/>
+      <c r="C463" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D463" s="29" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E463" s="31">
+        <v>4</v>
+      </c>
+      <c r="F463" s="31">
+        <v>14</v>
+      </c>
+      <c r="G463" s="31">
+        <v>46</v>
+      </c>
       <c r="H463" s="31"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="35"/>
       <c r="B464" s="38"/>
       <c r="C464" s="35"/>
-      <c r="D464" s="8"/>
+      <c r="D464" s="8" t="s">
+        <v>1370</v>
+      </c>
       <c r="E464" s="32"/>
       <c r="F464" s="32"/>
       <c r="G464" s="32"/>
@@ -11605,7 +11919,9 @@
       <c r="A465" s="35"/>
       <c r="B465" s="38"/>
       <c r="C465" s="35"/>
-      <c r="D465" s="8"/>
+      <c r="D465" s="8" t="s">
+        <v>1371</v>
+      </c>
       <c r="E465" s="32"/>
       <c r="F465" s="32"/>
       <c r="G465" s="32"/>
@@ -11615,7 +11931,9 @@
       <c r="A466" s="36"/>
       <c r="B466" s="39"/>
       <c r="C466" s="36"/>
-      <c r="D466" s="30"/>
+      <c r="D466" s="30" t="s">
+        <v>1372</v>
+      </c>
       <c r="E466" s="33"/>
       <c r="F466" s="33"/>
       <c r="G466" s="33"/>
@@ -11628,18 +11946,30 @@
       <c r="B467" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C467" s="34"/>
-      <c r="D467" s="29"/>
-      <c r="E467" s="31"/>
-      <c r="F467" s="31"/>
-      <c r="G467" s="31"/>
+      <c r="C467" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D467" s="29" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E467" s="31">
+        <v>4</v>
+      </c>
+      <c r="F467" s="31">
+        <v>14</v>
+      </c>
+      <c r="G467" s="31">
+        <v>49</v>
+      </c>
       <c r="H467" s="31"/>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="35"/>
       <c r="B468" s="38"/>
       <c r="C468" s="35"/>
-      <c r="D468" s="8"/>
+      <c r="D468" s="8" t="s">
+        <v>1374</v>
+      </c>
       <c r="E468" s="32"/>
       <c r="F468" s="32"/>
       <c r="G468" s="32"/>
@@ -11649,7 +11979,9 @@
       <c r="A469" s="35"/>
       <c r="B469" s="38"/>
       <c r="C469" s="35"/>
-      <c r="D469" s="8"/>
+      <c r="D469" s="8" t="s">
+        <v>1375</v>
+      </c>
       <c r="E469" s="32"/>
       <c r="F469" s="32"/>
       <c r="G469" s="32"/>
@@ -11659,7 +11991,9 @@
       <c r="A470" s="36"/>
       <c r="B470" s="39"/>
       <c r="C470" s="36"/>
-      <c r="D470" s="30"/>
+      <c r="D470" s="30" t="s">
+        <v>1376</v>
+      </c>
       <c r="E470" s="33"/>
       <c r="F470" s="33"/>
       <c r="G470" s="33"/>
@@ -11672,18 +12006,30 @@
       <c r="B471" s="37" t="s">
         <v>641</v>
       </c>
-      <c r="C471" s="34"/>
-      <c r="D471" s="29"/>
-      <c r="E471" s="31"/>
-      <c r="F471" s="31"/>
-      <c r="G471" s="31"/>
+      <c r="C471" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D471" s="29" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E471" s="31">
+        <v>4</v>
+      </c>
+      <c r="F471" s="31">
+        <v>15</v>
+      </c>
+      <c r="G471" s="31">
+        <v>52</v>
+      </c>
       <c r="H471" s="31"/>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="35"/>
       <c r="B472" s="38"/>
       <c r="C472" s="35"/>
-      <c r="D472" s="8"/>
+      <c r="D472" s="8" t="s">
+        <v>1378</v>
+      </c>
       <c r="E472" s="32"/>
       <c r="F472" s="32"/>
       <c r="G472" s="32"/>
@@ -11693,7 +12039,9 @@
       <c r="A473" s="35"/>
       <c r="B473" s="38"/>
       <c r="C473" s="35"/>
-      <c r="D473" s="8"/>
+      <c r="D473" s="8" t="s">
+        <v>1379</v>
+      </c>
       <c r="E473" s="32"/>
       <c r="F473" s="32"/>
       <c r="G473" s="32"/>
@@ -11703,7 +12051,9 @@
       <c r="A474" s="36"/>
       <c r="B474" s="39"/>
       <c r="C474" s="36"/>
-      <c r="D474" s="30"/>
+      <c r="D474" s="30" t="s">
+        <v>1380</v>
+      </c>
       <c r="E474" s="33"/>
       <c r="F474" s="33"/>
       <c r="G474" s="33"/>
@@ -11716,18 +12066,30 @@
       <c r="B475" s="37" t="s">
         <v>643</v>
       </c>
-      <c r="C475" s="34"/>
-      <c r="D475" s="29"/>
-      <c r="E475" s="31"/>
-      <c r="F475" s="31"/>
-      <c r="G475" s="31"/>
+      <c r="C475" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D475" s="29" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E475" s="31">
+        <v>4</v>
+      </c>
+      <c r="F475" s="31">
+        <v>15</v>
+      </c>
+      <c r="G475" s="31">
+        <v>47</v>
+      </c>
       <c r="H475" s="31"/>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="35"/>
       <c r="B476" s="38"/>
       <c r="C476" s="35"/>
-      <c r="D476" s="8"/>
+      <c r="D476" s="8" t="s">
+        <v>1382</v>
+      </c>
       <c r="E476" s="32"/>
       <c r="F476" s="32"/>
       <c r="G476" s="32"/>
@@ -11737,7 +12099,9 @@
       <c r="A477" s="35"/>
       <c r="B477" s="38"/>
       <c r="C477" s="35"/>
-      <c r="D477" s="8"/>
+      <c r="D477" s="8" t="s">
+        <v>1383</v>
+      </c>
       <c r="E477" s="32"/>
       <c r="F477" s="32"/>
       <c r="G477" s="32"/>
@@ -11747,7 +12111,9 @@
       <c r="A478" s="36"/>
       <c r="B478" s="39"/>
       <c r="C478" s="36"/>
-      <c r="D478" s="30"/>
+      <c r="D478" s="30" t="s">
+        <v>1384</v>
+      </c>
       <c r="E478" s="33"/>
       <c r="F478" s="33"/>
       <c r="G478" s="33"/>
@@ -11760,18 +12126,30 @@
       <c r="B479" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="C479" s="34"/>
-      <c r="D479" s="29"/>
-      <c r="E479" s="31"/>
-      <c r="F479" s="31"/>
-      <c r="G479" s="31"/>
+      <c r="C479" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D479" s="29" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E479" s="31">
+        <v>4</v>
+      </c>
+      <c r="F479" s="31">
+        <v>13</v>
+      </c>
+      <c r="G479" s="31">
+        <v>44</v>
+      </c>
       <c r="H479" s="31"/>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="35"/>
       <c r="B480" s="38"/>
       <c r="C480" s="35"/>
-      <c r="D480" s="8"/>
+      <c r="D480" s="8" t="s">
+        <v>1386</v>
+      </c>
       <c r="E480" s="32"/>
       <c r="F480" s="32"/>
       <c r="G480" s="32"/>
@@ -11781,7 +12159,9 @@
       <c r="A481" s="35"/>
       <c r="B481" s="38"/>
       <c r="C481" s="35"/>
-      <c r="D481" s="8"/>
+      <c r="D481" s="8" t="s">
+        <v>1387</v>
+      </c>
       <c r="E481" s="32"/>
       <c r="F481" s="32"/>
       <c r="G481" s="32"/>
@@ -11791,7 +12171,9 @@
       <c r="A482" s="36"/>
       <c r="B482" s="39"/>
       <c r="C482" s="36"/>
-      <c r="D482" s="30"/>
+      <c r="D482" s="30" t="s">
+        <v>1388</v>
+      </c>
       <c r="E482" s="33"/>
       <c r="F482" s="33"/>
       <c r="G482" s="33"/>
@@ -11804,18 +12186,30 @@
       <c r="B483" s="37" t="s">
         <v>647</v>
       </c>
-      <c r="C483" s="34"/>
-      <c r="D483" s="29"/>
-      <c r="E483" s="31"/>
-      <c r="F483" s="31"/>
-      <c r="G483" s="31"/>
+      <c r="C483" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D483" s="29" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E483" s="31">
+        <v>4</v>
+      </c>
+      <c r="F483" s="31">
+        <v>15</v>
+      </c>
+      <c r="G483" s="31">
+        <v>52</v>
+      </c>
       <c r="H483" s="31"/>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="35"/>
       <c r="B484" s="38"/>
       <c r="C484" s="35"/>
-      <c r="D484" s="8"/>
+      <c r="D484" s="8" t="s">
+        <v>1390</v>
+      </c>
       <c r="E484" s="32"/>
       <c r="F484" s="32"/>
       <c r="G484" s="32"/>
@@ -11825,7 +12219,9 @@
       <c r="A485" s="35"/>
       <c r="B485" s="38"/>
       <c r="C485" s="35"/>
-      <c r="D485" s="8"/>
+      <c r="D485" s="8" t="s">
+        <v>1294</v>
+      </c>
       <c r="E485" s="32"/>
       <c r="F485" s="32"/>
       <c r="G485" s="32"/>
@@ -11835,7 +12231,9 @@
       <c r="A486" s="36"/>
       <c r="B486" s="39"/>
       <c r="C486" s="36"/>
-      <c r="D486" s="30"/>
+      <c r="D486" s="30" t="s">
+        <v>1391</v>
+      </c>
       <c r="E486" s="33"/>
       <c r="F486" s="33"/>
       <c r="G486" s="33"/>
@@ -11848,18 +12246,30 @@
       <c r="B487" s="37" t="s">
         <v>649</v>
       </c>
-      <c r="C487" s="34"/>
-      <c r="D487" s="29"/>
-      <c r="E487" s="31"/>
-      <c r="F487" s="31"/>
-      <c r="G487" s="31"/>
+      <c r="C487" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D487" s="29" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E487" s="31">
+        <v>4</v>
+      </c>
+      <c r="F487" s="31">
+        <v>16</v>
+      </c>
+      <c r="G487" s="31">
+        <v>52</v>
+      </c>
       <c r="H487" s="31"/>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="35"/>
       <c r="B488" s="38"/>
       <c r="C488" s="35"/>
-      <c r="D488" s="8"/>
+      <c r="D488" s="8" t="s">
+        <v>1393</v>
+      </c>
       <c r="E488" s="32"/>
       <c r="F488" s="32"/>
       <c r="G488" s="32"/>
@@ -11869,7 +12279,9 @@
       <c r="A489" s="35"/>
       <c r="B489" s="38"/>
       <c r="C489" s="35"/>
-      <c r="D489" s="8"/>
+      <c r="D489" s="8" t="s">
+        <v>1394</v>
+      </c>
       <c r="E489" s="32"/>
       <c r="F489" s="32"/>
       <c r="G489" s="32"/>
@@ -11879,7 +12291,9 @@
       <c r="A490" s="36"/>
       <c r="B490" s="39"/>
       <c r="C490" s="36"/>
-      <c r="D490" s="30"/>
+      <c r="D490" s="30" t="s">
+        <v>1395</v>
+      </c>
       <c r="E490" s="33"/>
       <c r="F490" s="33"/>
       <c r="G490" s="33"/>
@@ -11892,18 +12306,30 @@
       <c r="B491" s="37" t="s">
         <v>651</v>
       </c>
-      <c r="C491" s="34"/>
-      <c r="D491" s="29"/>
-      <c r="E491" s="31"/>
-      <c r="F491" s="31"/>
-      <c r="G491" s="31"/>
+      <c r="C491" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D491" s="29" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E491" s="31">
+        <v>5</v>
+      </c>
+      <c r="F491" s="31">
+        <v>16</v>
+      </c>
+      <c r="G491" s="31">
+        <v>59</v>
+      </c>
       <c r="H491" s="31"/>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="35"/>
       <c r="B492" s="38"/>
       <c r="C492" s="35"/>
-      <c r="D492" s="8"/>
+      <c r="D492" s="8" t="s">
+        <v>1397</v>
+      </c>
       <c r="E492" s="32"/>
       <c r="F492" s="32"/>
       <c r="G492" s="32"/>
@@ -11913,7 +12339,9 @@
       <c r="A493" s="35"/>
       <c r="B493" s="38"/>
       <c r="C493" s="35"/>
-      <c r="D493" s="8"/>
+      <c r="D493" s="8" t="s">
+        <v>1398</v>
+      </c>
       <c r="E493" s="32"/>
       <c r="F493" s="32"/>
       <c r="G493" s="32"/>
@@ -11923,7 +12351,9 @@
       <c r="A494" s="36"/>
       <c r="B494" s="39"/>
       <c r="C494" s="36"/>
-      <c r="D494" s="30"/>
+      <c r="D494" s="30" t="s">
+        <v>1399</v>
+      </c>
       <c r="E494" s="33"/>
       <c r="F494" s="33"/>
       <c r="G494" s="33"/>
@@ -11936,18 +12366,30 @@
       <c r="B495" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="C495" s="34"/>
-      <c r="D495" s="29"/>
-      <c r="E495" s="31"/>
-      <c r="F495" s="31"/>
-      <c r="G495" s="31"/>
+      <c r="C495" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D495" s="29" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E495" s="31">
+        <v>4</v>
+      </c>
+      <c r="F495" s="31">
+        <v>16</v>
+      </c>
+      <c r="G495" s="31">
+        <v>53</v>
+      </c>
       <c r="H495" s="31"/>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" s="35"/>
       <c r="B496" s="38"/>
       <c r="C496" s="35"/>
-      <c r="D496" s="8"/>
+      <c r="D496" s="8" t="s">
+        <v>1401</v>
+      </c>
       <c r="E496" s="32"/>
       <c r="F496" s="32"/>
       <c r="G496" s="32"/>
@@ -11957,7 +12399,9 @@
       <c r="A497" s="35"/>
       <c r="B497" s="38"/>
       <c r="C497" s="35"/>
-      <c r="D497" s="8"/>
+      <c r="D497" s="8" t="s">
+        <v>1402</v>
+      </c>
       <c r="E497" s="32"/>
       <c r="F497" s="32"/>
       <c r="G497" s="32"/>
@@ -11967,7 +12411,9 @@
       <c r="A498" s="36"/>
       <c r="B498" s="39"/>
       <c r="C498" s="36"/>
-      <c r="D498" s="30"/>
+      <c r="D498" s="30" t="s">
+        <v>1403</v>
+      </c>
       <c r="E498" s="33"/>
       <c r="F498" s="33"/>
       <c r="G498" s="33"/>
@@ -11980,18 +12426,30 @@
       <c r="B499" s="37" t="s">
         <v>655</v>
       </c>
-      <c r="C499" s="34"/>
-      <c r="D499" s="29"/>
-      <c r="E499" s="31"/>
-      <c r="F499" s="31"/>
-      <c r="G499" s="31"/>
+      <c r="C499" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D499" s="29" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E499" s="31">
+        <v>4</v>
+      </c>
+      <c r="F499" s="31">
+        <v>15</v>
+      </c>
+      <c r="G499" s="31">
+        <v>46</v>
+      </c>
       <c r="H499" s="31"/>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="35"/>
       <c r="B500" s="38"/>
       <c r="C500" s="35"/>
-      <c r="D500" s="8"/>
+      <c r="D500" s="8" t="s">
+        <v>1000</v>
+      </c>
       <c r="E500" s="32"/>
       <c r="F500" s="32"/>
       <c r="G500" s="32"/>
@@ -12001,7 +12459,9 @@
       <c r="A501" s="35"/>
       <c r="B501" s="38"/>
       <c r="C501" s="35"/>
-      <c r="D501" s="8"/>
+      <c r="D501" s="8" t="s">
+        <v>1405</v>
+      </c>
       <c r="E501" s="32"/>
       <c r="F501" s="32"/>
       <c r="G501" s="32"/>
@@ -12011,7 +12471,9 @@
       <c r="A502" s="36"/>
       <c r="B502" s="39"/>
       <c r="C502" s="36"/>
-      <c r="D502" s="30"/>
+      <c r="D502" s="30" t="s">
+        <v>1406</v>
+      </c>
       <c r="E502" s="33"/>
       <c r="F502" s="33"/>
       <c r="G502" s="33"/>
@@ -12024,18 +12486,30 @@
       <c r="B503" s="37" t="s">
         <v>657</v>
       </c>
-      <c r="C503" s="34"/>
-      <c r="D503" s="29"/>
-      <c r="E503" s="31"/>
-      <c r="F503" s="31"/>
-      <c r="G503" s="31"/>
+      <c r="C503" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D503" s="29" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E503" s="31">
+        <v>4</v>
+      </c>
+      <c r="F503" s="31">
+        <v>16</v>
+      </c>
+      <c r="G503" s="31">
+        <v>53</v>
+      </c>
       <c r="H503" s="31"/>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="35"/>
       <c r="B504" s="38"/>
       <c r="C504" s="35"/>
-      <c r="D504" s="8"/>
+      <c r="D504" s="8" t="s">
+        <v>1408</v>
+      </c>
       <c r="E504" s="32"/>
       <c r="F504" s="32"/>
       <c r="G504" s="32"/>
@@ -12045,7 +12519,9 @@
       <c r="A505" s="35"/>
       <c r="B505" s="38"/>
       <c r="C505" s="35"/>
-      <c r="D505" s="8"/>
+      <c r="D505" s="8" t="s">
+        <v>1409</v>
+      </c>
       <c r="E505" s="32"/>
       <c r="F505" s="32"/>
       <c r="G505" s="32"/>
@@ -12055,7 +12531,9 @@
       <c r="A506" s="36"/>
       <c r="B506" s="39"/>
       <c r="C506" s="36"/>
-      <c r="D506" s="30"/>
+      <c r="D506" s="30" t="s">
+        <v>1410</v>
+      </c>
       <c r="E506" s="33"/>
       <c r="F506" s="33"/>
       <c r="G506" s="33"/>
@@ -12068,18 +12546,30 @@
       <c r="B507" s="37" t="s">
         <v>659</v>
       </c>
-      <c r="C507" s="34"/>
-      <c r="D507" s="29"/>
-      <c r="E507" s="31"/>
-      <c r="F507" s="31"/>
-      <c r="G507" s="31"/>
+      <c r="C507" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D507" s="29" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E507" s="31">
+        <v>4</v>
+      </c>
+      <c r="F507" s="31">
+        <v>16</v>
+      </c>
+      <c r="G507" s="31">
+        <v>52</v>
+      </c>
       <c r="H507" s="31"/>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="35"/>
       <c r="B508" s="38"/>
       <c r="C508" s="35"/>
-      <c r="D508" s="8"/>
+      <c r="D508" s="8" t="s">
+        <v>1412</v>
+      </c>
       <c r="E508" s="32"/>
       <c r="F508" s="32"/>
       <c r="G508" s="32"/>
@@ -12089,7 +12579,9 @@
       <c r="A509" s="35"/>
       <c r="B509" s="38"/>
       <c r="C509" s="35"/>
-      <c r="D509" s="8"/>
+      <c r="D509" s="8" t="s">
+        <v>1002</v>
+      </c>
       <c r="E509" s="32"/>
       <c r="F509" s="32"/>
       <c r="G509" s="32"/>
@@ -12099,7 +12591,9 @@
       <c r="A510" s="36"/>
       <c r="B510" s="39"/>
       <c r="C510" s="36"/>
-      <c r="D510" s="30"/>
+      <c r="D510" s="30" t="s">
+        <v>1413</v>
+      </c>
       <c r="E510" s="33"/>
       <c r="F510" s="33"/>
       <c r="G510" s="33"/>
@@ -12112,18 +12606,30 @@
       <c r="B511" s="37" t="s">
         <v>661</v>
       </c>
-      <c r="C511" s="34"/>
-      <c r="D511" s="29"/>
-      <c r="E511" s="31"/>
-      <c r="F511" s="31"/>
-      <c r="G511" s="31"/>
+      <c r="C511" s="34" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D511" s="29" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E511" s="31">
+        <v>4</v>
+      </c>
+      <c r="F511" s="31">
+        <v>16</v>
+      </c>
+      <c r="G511" s="31">
+        <v>51</v>
+      </c>
       <c r="H511" s="31"/>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="35"/>
       <c r="B512" s="38"/>
       <c r="C512" s="35"/>
-      <c r="D512" s="8"/>
+      <c r="D512" s="8" t="s">
+        <v>1415</v>
+      </c>
       <c r="E512" s="32"/>
       <c r="F512" s="32"/>
       <c r="G512" s="32"/>
@@ -12133,7 +12639,9 @@
       <c r="A513" s="35"/>
       <c r="B513" s="38"/>
       <c r="C513" s="35"/>
-      <c r="D513" s="8"/>
+      <c r="D513" s="8" t="s">
+        <v>1416</v>
+      </c>
       <c r="E513" s="32"/>
       <c r="F513" s="32"/>
       <c r="G513" s="32"/>
@@ -12143,7 +12651,9 @@
       <c r="A514" s="36"/>
       <c r="B514" s="39"/>
       <c r="C514" s="36"/>
-      <c r="D514" s="30"/>
+      <c r="D514" s="30" t="s">
+        <v>1417</v>
+      </c>
       <c r="E514" s="33"/>
       <c r="F514" s="33"/>
       <c r="G514" s="33"/>
@@ -12156,18 +12666,30 @@
       <c r="B515" s="37" t="s">
         <v>663</v>
       </c>
-      <c r="C515" s="34"/>
-      <c r="D515" s="29"/>
-      <c r="E515" s="31"/>
-      <c r="F515" s="31"/>
-      <c r="G515" s="31"/>
+      <c r="C515" s="34" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D515" s="29" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E515" s="31">
+        <v>4</v>
+      </c>
+      <c r="F515" s="31">
+        <v>15</v>
+      </c>
+      <c r="G515" s="31">
+        <v>54</v>
+      </c>
       <c r="H515" s="31"/>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" s="35"/>
       <c r="B516" s="38"/>
       <c r="C516" s="35"/>
-      <c r="D516" s="8"/>
+      <c r="D516" s="8" t="s">
+        <v>1419</v>
+      </c>
       <c r="E516" s="32"/>
       <c r="F516" s="32"/>
       <c r="G516" s="32"/>
@@ -12177,7 +12699,9 @@
       <c r="A517" s="35"/>
       <c r="B517" s="38"/>
       <c r="C517" s="35"/>
-      <c r="D517" s="8"/>
+      <c r="D517" s="8" t="s">
+        <v>1420</v>
+      </c>
       <c r="E517" s="32"/>
       <c r="F517" s="32"/>
       <c r="G517" s="32"/>
@@ -12187,7 +12711,9 @@
       <c r="A518" s="36"/>
       <c r="B518" s="39"/>
       <c r="C518" s="36"/>
-      <c r="D518" s="30"/>
+      <c r="D518" s="30" t="s">
+        <v>1421</v>
+      </c>
       <c r="E518" s="33"/>
       <c r="F518" s="33"/>
       <c r="G518" s="33"/>
@@ -12200,18 +12726,30 @@
       <c r="B519" s="37" t="s">
         <v>665</v>
       </c>
-      <c r="C519" s="34"/>
-      <c r="D519" s="29"/>
-      <c r="E519" s="31"/>
-      <c r="F519" s="31"/>
-      <c r="G519" s="31"/>
+      <c r="C519" s="34" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D519" s="29" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E519" s="31">
+        <v>4</v>
+      </c>
+      <c r="F519" s="31">
+        <v>14</v>
+      </c>
+      <c r="G519" s="31">
+        <v>52</v>
+      </c>
       <c r="H519" s="31"/>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="35"/>
       <c r="B520" s="38"/>
       <c r="C520" s="35"/>
-      <c r="D520" s="8"/>
+      <c r="D520" s="8" t="s">
+        <v>1423</v>
+      </c>
       <c r="E520" s="32"/>
       <c r="F520" s="32"/>
       <c r="G520" s="32"/>
@@ -12221,7 +12759,9 @@
       <c r="A521" s="35"/>
       <c r="B521" s="38"/>
       <c r="C521" s="35"/>
-      <c r="D521" s="8"/>
+      <c r="D521" s="8" t="s">
+        <v>1424</v>
+      </c>
       <c r="E521" s="32"/>
       <c r="F521" s="32"/>
       <c r="G521" s="32"/>
@@ -12231,7 +12771,9 @@
       <c r="A522" s="36"/>
       <c r="B522" s="39"/>
       <c r="C522" s="36"/>
-      <c r="D522" s="30"/>
+      <c r="D522" s="30" t="s">
+        <v>1425</v>
+      </c>
       <c r="E522" s="33"/>
       <c r="F522" s="33"/>
       <c r="G522" s="33"/>
@@ -12244,18 +12786,30 @@
       <c r="B523" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="C523" s="34"/>
-      <c r="D523" s="29"/>
-      <c r="E523" s="31"/>
-      <c r="F523" s="31"/>
-      <c r="G523" s="31"/>
+      <c r="C523" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D523" s="29" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E523" s="31">
+        <v>4</v>
+      </c>
+      <c r="F523" s="31">
+        <v>16</v>
+      </c>
+      <c r="G523" s="31">
+        <v>60</v>
+      </c>
       <c r="H523" s="31"/>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="35"/>
       <c r="B524" s="38"/>
       <c r="C524" s="35"/>
-      <c r="D524" s="8"/>
+      <c r="D524" s="8" t="s">
+        <v>1374</v>
+      </c>
       <c r="E524" s="32"/>
       <c r="F524" s="32"/>
       <c r="G524" s="32"/>
@@ -12265,7 +12819,9 @@
       <c r="A525" s="35"/>
       <c r="B525" s="38"/>
       <c r="C525" s="35"/>
-      <c r="D525" s="8"/>
+      <c r="D525" s="8" t="s">
+        <v>1375</v>
+      </c>
       <c r="E525" s="32"/>
       <c r="F525" s="32"/>
       <c r="G525" s="32"/>
@@ -12275,7 +12831,9 @@
       <c r="A526" s="36"/>
       <c r="B526" s="39"/>
       <c r="C526" s="36"/>
-      <c r="D526" s="30"/>
+      <c r="D526" s="30" t="s">
+        <v>1427</v>
+      </c>
       <c r="E526" s="33"/>
       <c r="F526" s="33"/>
       <c r="G526" s="33"/>
@@ -12288,18 +12846,30 @@
       <c r="B527" s="37" t="s">
         <v>669</v>
       </c>
-      <c r="C527" s="34"/>
-      <c r="D527" s="29"/>
-      <c r="E527" s="31"/>
-      <c r="F527" s="31"/>
-      <c r="G527" s="31"/>
+      <c r="C527" s="34" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D527" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="E527" s="31">
+        <v>4</v>
+      </c>
+      <c r="F527" s="31">
+        <v>15</v>
+      </c>
+      <c r="G527" s="31">
+        <v>57</v>
+      </c>
       <c r="H527" s="31"/>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" s="35"/>
       <c r="B528" s="38"/>
       <c r="C528" s="35"/>
-      <c r="D528" s="8"/>
+      <c r="D528" s="8" t="s">
+        <v>1428</v>
+      </c>
       <c r="E528" s="32"/>
       <c r="F528" s="32"/>
       <c r="G528" s="32"/>
@@ -12309,7 +12879,9 @@
       <c r="A529" s="35"/>
       <c r="B529" s="38"/>
       <c r="C529" s="35"/>
-      <c r="D529" s="8"/>
+      <c r="D529" s="8" t="s">
+        <v>1429</v>
+      </c>
       <c r="E529" s="32"/>
       <c r="F529" s="32"/>
       <c r="G529" s="32"/>
@@ -12319,7 +12891,9 @@
       <c r="A530" s="36"/>
       <c r="B530" s="39"/>
       <c r="C530" s="36"/>
-      <c r="D530" s="30"/>
+      <c r="D530" s="30" t="s">
+        <v>1430</v>
+      </c>
       <c r="E530" s="33"/>
       <c r="F530" s="33"/>
       <c r="G530" s="33"/>
@@ -12332,18 +12906,30 @@
       <c r="B531" s="37" t="s">
         <v>671</v>
       </c>
-      <c r="C531" s="34"/>
-      <c r="D531" s="29"/>
-      <c r="E531" s="31"/>
-      <c r="F531" s="31"/>
-      <c r="G531" s="31"/>
+      <c r="C531" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D531" s="29" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E531" s="31">
+        <v>4</v>
+      </c>
+      <c r="F531" s="31">
+        <v>12</v>
+      </c>
+      <c r="G531" s="31">
+        <v>44</v>
+      </c>
       <c r="H531" s="31"/>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" s="35"/>
       <c r="B532" s="38"/>
       <c r="C532" s="35"/>
-      <c r="D532" s="8"/>
+      <c r="D532" s="8" t="s">
+        <v>1433</v>
+      </c>
       <c r="E532" s="32"/>
       <c r="F532" s="32"/>
       <c r="G532" s="32"/>
@@ -12353,7 +12939,9 @@
       <c r="A533" s="35"/>
       <c r="B533" s="38"/>
       <c r="C533" s="35"/>
-      <c r="D533" s="8"/>
+      <c r="D533" s="8" t="s">
+        <v>1434</v>
+      </c>
       <c r="E533" s="32"/>
       <c r="F533" s="32"/>
       <c r="G533" s="32"/>
@@ -12363,7 +12951,9 @@
       <c r="A534" s="36"/>
       <c r="B534" s="39"/>
       <c r="C534" s="36"/>
-      <c r="D534" s="30"/>
+      <c r="D534" s="30" t="s">
+        <v>1435</v>
+      </c>
       <c r="E534" s="33"/>
       <c r="F534" s="33"/>
       <c r="G534" s="33"/>
@@ -12376,18 +12966,30 @@
       <c r="B535" s="37" t="s">
         <v>673</v>
       </c>
-      <c r="C535" s="34"/>
-      <c r="D535" s="29"/>
-      <c r="E535" s="31"/>
-      <c r="F535" s="31"/>
-      <c r="G535" s="31"/>
+      <c r="C535" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D535" s="29" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E535" s="31">
+        <v>4</v>
+      </c>
+      <c r="F535" s="31">
+        <v>15</v>
+      </c>
+      <c r="G535" s="31">
+        <v>57</v>
+      </c>
       <c r="H535" s="31"/>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" s="35"/>
       <c r="B536" s="38"/>
       <c r="C536" s="35"/>
-      <c r="D536" s="8"/>
+      <c r="D536" s="8" t="s">
+        <v>1437</v>
+      </c>
       <c r="E536" s="32"/>
       <c r="F536" s="32"/>
       <c r="G536" s="32"/>
@@ -12397,7 +12999,9 @@
       <c r="A537" s="35"/>
       <c r="B537" s="38"/>
       <c r="C537" s="35"/>
-      <c r="D537" s="8"/>
+      <c r="D537" s="8" t="s">
+        <v>1438</v>
+      </c>
       <c r="E537" s="32"/>
       <c r="F537" s="32"/>
       <c r="G537" s="32"/>
@@ -12407,7 +13011,9 @@
       <c r="A538" s="36"/>
       <c r="B538" s="39"/>
       <c r="C538" s="36"/>
-      <c r="D538" s="30"/>
+      <c r="D538" s="30" t="s">
+        <v>790</v>
+      </c>
       <c r="E538" s="33"/>
       <c r="F538" s="33"/>
       <c r="G538" s="33"/>
@@ -12420,18 +13026,30 @@
       <c r="B539" s="37" t="s">
         <v>675</v>
       </c>
-      <c r="C539" s="34"/>
-      <c r="D539" s="29"/>
-      <c r="E539" s="31"/>
-      <c r="F539" s="31"/>
-      <c r="G539" s="31"/>
+      <c r="C539" s="34" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D539" s="29" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E539" s="31">
+        <v>4</v>
+      </c>
+      <c r="F539" s="31">
+        <v>16</v>
+      </c>
+      <c r="G539" s="31">
+        <v>55</v>
+      </c>
       <c r="H539" s="31"/>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" s="35"/>
       <c r="B540" s="38"/>
       <c r="C540" s="35"/>
-      <c r="D540" s="8"/>
+      <c r="D540" s="8" t="s">
+        <v>1440</v>
+      </c>
       <c r="E540" s="32"/>
       <c r="F540" s="32"/>
       <c r="G540" s="32"/>
@@ -12441,7 +13059,9 @@
       <c r="A541" s="35"/>
       <c r="B541" s="38"/>
       <c r="C541" s="35"/>
-      <c r="D541" s="8"/>
+      <c r="D541" s="8" t="s">
+        <v>1441</v>
+      </c>
       <c r="E541" s="32"/>
       <c r="F541" s="32"/>
       <c r="G541" s="32"/>
@@ -12451,7 +13071,9 @@
       <c r="A542" s="36"/>
       <c r="B542" s="39"/>
       <c r="C542" s="36"/>
-      <c r="D542" s="30"/>
+      <c r="D542" s="30" t="s">
+        <v>1442</v>
+      </c>
       <c r="E542" s="33"/>
       <c r="F542" s="33"/>
       <c r="G542" s="33"/>
@@ -12464,18 +13086,30 @@
       <c r="B543" s="37" t="s">
         <v>677</v>
       </c>
-      <c r="C543" s="34"/>
-      <c r="D543" s="29"/>
-      <c r="E543" s="31"/>
-      <c r="F543" s="31"/>
-      <c r="G543" s="31"/>
+      <c r="C543" s="34" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D543" s="29" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E543" s="31">
+        <v>4</v>
+      </c>
+      <c r="F543" s="31">
+        <v>23</v>
+      </c>
+      <c r="G543" s="31">
+        <v>57</v>
+      </c>
       <c r="H543" s="31"/>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" s="35"/>
       <c r="B544" s="38"/>
       <c r="C544" s="35"/>
-      <c r="D544" s="8"/>
+      <c r="D544" s="8" t="s">
+        <v>1444</v>
+      </c>
       <c r="E544" s="32"/>
       <c r="F544" s="32"/>
       <c r="G544" s="32"/>
@@ -12485,7 +13119,9 @@
       <c r="A545" s="35"/>
       <c r="B545" s="38"/>
       <c r="C545" s="35"/>
-      <c r="D545" s="8"/>
+      <c r="D545" s="8" t="s">
+        <v>1445</v>
+      </c>
       <c r="E545" s="32"/>
       <c r="F545" s="32"/>
       <c r="G545" s="32"/>
@@ -12495,7 +13131,9 @@
       <c r="A546" s="36"/>
       <c r="B546" s="39"/>
       <c r="C546" s="36"/>
-      <c r="D546" s="30"/>
+      <c r="D546" s="30" t="s">
+        <v>1446</v>
+      </c>
       <c r="E546" s="33"/>
       <c r="F546" s="33"/>
       <c r="G546" s="33"/>
@@ -12508,18 +13146,30 @@
       <c r="B547" s="37" t="s">
         <v>679</v>
       </c>
-      <c r="C547" s="34"/>
-      <c r="D547" s="29"/>
-      <c r="E547" s="31"/>
-      <c r="F547" s="31"/>
-      <c r="G547" s="31"/>
+      <c r="C547" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="D547" s="29" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E547" s="31">
+        <v>4</v>
+      </c>
+      <c r="F547" s="31">
+        <v>15</v>
+      </c>
+      <c r="G547" s="31">
+        <v>54</v>
+      </c>
       <c r="H547" s="31"/>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" s="35"/>
       <c r="B548" s="38"/>
       <c r="C548" s="35"/>
-      <c r="D548" s="8"/>
+      <c r="D548" s="8" t="s">
+        <v>1448</v>
+      </c>
       <c r="E548" s="32"/>
       <c r="F548" s="32"/>
       <c r="G548" s="32"/>
@@ -12529,7 +13179,9 @@
       <c r="A549" s="35"/>
       <c r="B549" s="38"/>
       <c r="C549" s="35"/>
-      <c r="D549" s="8"/>
+      <c r="D549" s="8" t="s">
+        <v>1449</v>
+      </c>
       <c r="E549" s="32"/>
       <c r="F549" s="32"/>
       <c r="G549" s="32"/>
@@ -12539,7 +13191,9 @@
       <c r="A550" s="36"/>
       <c r="B550" s="39"/>
       <c r="C550" s="36"/>
-      <c r="D550" s="30"/>
+      <c r="D550" s="30" t="s">
+        <v>1450</v>
+      </c>
       <c r="E550" s="33"/>
       <c r="F550" s="33"/>
       <c r="G550" s="33"/>
@@ -14613,496 +15267,437 @@
     </row>
   </sheetData>
   <mergeCells count="945">
-    <mergeCell ref="F539:F542"/>
-    <mergeCell ref="G539:G542"/>
-    <mergeCell ref="H539:H542"/>
-    <mergeCell ref="F543:F546"/>
-    <mergeCell ref="G543:G546"/>
-    <mergeCell ref="H543:H546"/>
-    <mergeCell ref="F547:F550"/>
-    <mergeCell ref="G547:G550"/>
-    <mergeCell ref="H547:H550"/>
-    <mergeCell ref="F527:F530"/>
-    <mergeCell ref="G527:G530"/>
-    <mergeCell ref="H527:H530"/>
-    <mergeCell ref="F531:F534"/>
-    <mergeCell ref="G531:G534"/>
-    <mergeCell ref="H531:H534"/>
-    <mergeCell ref="F535:F538"/>
-    <mergeCell ref="G535:G538"/>
-    <mergeCell ref="H535:H538"/>
-    <mergeCell ref="F515:F518"/>
-    <mergeCell ref="G515:G518"/>
-    <mergeCell ref="H515:H518"/>
-    <mergeCell ref="F519:F522"/>
-    <mergeCell ref="G519:G522"/>
-    <mergeCell ref="H519:H522"/>
-    <mergeCell ref="F523:F526"/>
-    <mergeCell ref="G523:G526"/>
-    <mergeCell ref="H523:H526"/>
-    <mergeCell ref="F503:F506"/>
-    <mergeCell ref="G503:G506"/>
-    <mergeCell ref="H503:H506"/>
-    <mergeCell ref="F507:F510"/>
-    <mergeCell ref="G507:G510"/>
-    <mergeCell ref="H507:H510"/>
-    <mergeCell ref="F511:F514"/>
-    <mergeCell ref="G511:G514"/>
-    <mergeCell ref="H511:H514"/>
-    <mergeCell ref="F491:F494"/>
-    <mergeCell ref="G491:G494"/>
-    <mergeCell ref="H491:H494"/>
-    <mergeCell ref="F495:F498"/>
-    <mergeCell ref="G495:G498"/>
-    <mergeCell ref="H495:H498"/>
-    <mergeCell ref="F499:F502"/>
-    <mergeCell ref="G499:G502"/>
-    <mergeCell ref="H499:H502"/>
-    <mergeCell ref="F479:F482"/>
-    <mergeCell ref="G479:G482"/>
-    <mergeCell ref="H479:H482"/>
-    <mergeCell ref="F483:F486"/>
-    <mergeCell ref="G483:G486"/>
-    <mergeCell ref="H483:H486"/>
-    <mergeCell ref="F487:F490"/>
-    <mergeCell ref="G487:G490"/>
-    <mergeCell ref="H487:H490"/>
-    <mergeCell ref="F467:F470"/>
-    <mergeCell ref="G467:G470"/>
-    <mergeCell ref="H467:H470"/>
-    <mergeCell ref="F471:F474"/>
-    <mergeCell ref="G471:G474"/>
-    <mergeCell ref="H471:H474"/>
-    <mergeCell ref="F475:F478"/>
-    <mergeCell ref="G475:G478"/>
-    <mergeCell ref="H475:H478"/>
-    <mergeCell ref="F455:F458"/>
-    <mergeCell ref="G455:G458"/>
-    <mergeCell ref="H455:H458"/>
-    <mergeCell ref="F459:F462"/>
-    <mergeCell ref="G459:G462"/>
-    <mergeCell ref="H459:H462"/>
-    <mergeCell ref="F463:F466"/>
-    <mergeCell ref="G463:G466"/>
-    <mergeCell ref="H463:H466"/>
-    <mergeCell ref="F443:F446"/>
-    <mergeCell ref="G443:G446"/>
-    <mergeCell ref="H443:H446"/>
-    <mergeCell ref="F447:F450"/>
-    <mergeCell ref="G447:G450"/>
-    <mergeCell ref="H447:H450"/>
-    <mergeCell ref="F451:F454"/>
-    <mergeCell ref="G451:G454"/>
-    <mergeCell ref="H451:H454"/>
-    <mergeCell ref="F430:F434"/>
-    <mergeCell ref="G430:G434"/>
-    <mergeCell ref="H430:H434"/>
-    <mergeCell ref="F435:F438"/>
-    <mergeCell ref="G435:G438"/>
-    <mergeCell ref="H435:H438"/>
-    <mergeCell ref="F439:F442"/>
-    <mergeCell ref="G439:G442"/>
-    <mergeCell ref="H439:H442"/>
-    <mergeCell ref="F418:F421"/>
-    <mergeCell ref="G418:G421"/>
-    <mergeCell ref="H418:H421"/>
-    <mergeCell ref="F422:F425"/>
-    <mergeCell ref="G422:G425"/>
-    <mergeCell ref="H422:H425"/>
-    <mergeCell ref="F426:F429"/>
-    <mergeCell ref="G426:G429"/>
-    <mergeCell ref="H426:H429"/>
-    <mergeCell ref="F406:F409"/>
-    <mergeCell ref="G406:G409"/>
-    <mergeCell ref="H406:H409"/>
-    <mergeCell ref="F410:F413"/>
-    <mergeCell ref="G410:G413"/>
-    <mergeCell ref="H410:H413"/>
-    <mergeCell ref="F414:F417"/>
-    <mergeCell ref="G414:G417"/>
-    <mergeCell ref="H414:H417"/>
-    <mergeCell ref="F394:F397"/>
-    <mergeCell ref="G394:G397"/>
-    <mergeCell ref="H394:H397"/>
-    <mergeCell ref="F398:F401"/>
-    <mergeCell ref="G398:G401"/>
-    <mergeCell ref="H398:H401"/>
-    <mergeCell ref="F402:F405"/>
-    <mergeCell ref="G402:G405"/>
-    <mergeCell ref="H402:H405"/>
-    <mergeCell ref="F381:F385"/>
-    <mergeCell ref="G381:G385"/>
-    <mergeCell ref="H381:H385"/>
-    <mergeCell ref="F386:F389"/>
-    <mergeCell ref="G386:G389"/>
-    <mergeCell ref="H386:H389"/>
-    <mergeCell ref="F390:F393"/>
-    <mergeCell ref="G390:G393"/>
-    <mergeCell ref="H390:H393"/>
-    <mergeCell ref="F368:F372"/>
-    <mergeCell ref="G368:G372"/>
-    <mergeCell ref="H368:H372"/>
-    <mergeCell ref="F373:F376"/>
-    <mergeCell ref="G373:G376"/>
-    <mergeCell ref="H373:H376"/>
-    <mergeCell ref="F377:F380"/>
-    <mergeCell ref="G377:G380"/>
-    <mergeCell ref="H377:H380"/>
-    <mergeCell ref="F355:F358"/>
-    <mergeCell ref="G355:G358"/>
-    <mergeCell ref="H355:H358"/>
-    <mergeCell ref="F359:F362"/>
-    <mergeCell ref="G359:G362"/>
-    <mergeCell ref="H359:H362"/>
-    <mergeCell ref="F363:F367"/>
-    <mergeCell ref="G363:G367"/>
-    <mergeCell ref="H363:H367"/>
-    <mergeCell ref="F342:F345"/>
-    <mergeCell ref="G342:G345"/>
-    <mergeCell ref="H342:H345"/>
-    <mergeCell ref="F346:F349"/>
-    <mergeCell ref="G346:G349"/>
-    <mergeCell ref="H346:H349"/>
-    <mergeCell ref="F350:F354"/>
-    <mergeCell ref="G350:G354"/>
-    <mergeCell ref="H350:H354"/>
-    <mergeCell ref="F329:F332"/>
-    <mergeCell ref="G329:G332"/>
-    <mergeCell ref="H329:H332"/>
-    <mergeCell ref="F333:F337"/>
-    <mergeCell ref="G333:G337"/>
-    <mergeCell ref="H333:H337"/>
-    <mergeCell ref="F338:F341"/>
-    <mergeCell ref="G338:G341"/>
-    <mergeCell ref="H338:H341"/>
-    <mergeCell ref="F317:F320"/>
-    <mergeCell ref="G317:G320"/>
-    <mergeCell ref="H317:H320"/>
-    <mergeCell ref="F321:F324"/>
-    <mergeCell ref="G321:G324"/>
-    <mergeCell ref="H321:H324"/>
-    <mergeCell ref="F325:F328"/>
-    <mergeCell ref="G325:G328"/>
-    <mergeCell ref="H325:H328"/>
-    <mergeCell ref="F304:F308"/>
-    <mergeCell ref="G304:G308"/>
-    <mergeCell ref="H304:H308"/>
-    <mergeCell ref="F309:F312"/>
-    <mergeCell ref="G309:G312"/>
-    <mergeCell ref="H309:H312"/>
-    <mergeCell ref="F313:F316"/>
-    <mergeCell ref="G313:G316"/>
-    <mergeCell ref="H313:H316"/>
-    <mergeCell ref="F292:F295"/>
-    <mergeCell ref="G292:G295"/>
-    <mergeCell ref="H292:H295"/>
-    <mergeCell ref="F296:F299"/>
-    <mergeCell ref="G296:G299"/>
-    <mergeCell ref="H296:H299"/>
-    <mergeCell ref="F300:F303"/>
-    <mergeCell ref="G300:G303"/>
-    <mergeCell ref="H300:H303"/>
-    <mergeCell ref="F279:F282"/>
-    <mergeCell ref="G279:G282"/>
-    <mergeCell ref="H279:H282"/>
-    <mergeCell ref="F283:F286"/>
-    <mergeCell ref="G283:G286"/>
-    <mergeCell ref="H283:H286"/>
-    <mergeCell ref="F287:F291"/>
-    <mergeCell ref="G287:G291"/>
-    <mergeCell ref="H287:H291"/>
-    <mergeCell ref="F266:F269"/>
-    <mergeCell ref="G266:G269"/>
-    <mergeCell ref="H266:H269"/>
-    <mergeCell ref="F270:F273"/>
-    <mergeCell ref="G270:G273"/>
-    <mergeCell ref="H270:H273"/>
-    <mergeCell ref="F274:F278"/>
-    <mergeCell ref="G274:G278"/>
-    <mergeCell ref="H274:H278"/>
-    <mergeCell ref="F254:F257"/>
-    <mergeCell ref="G254:G257"/>
-    <mergeCell ref="H254:H257"/>
-    <mergeCell ref="F258:F261"/>
-    <mergeCell ref="G258:G261"/>
-    <mergeCell ref="H258:H261"/>
-    <mergeCell ref="F262:F265"/>
-    <mergeCell ref="G262:G265"/>
-    <mergeCell ref="H262:H265"/>
-    <mergeCell ref="F242:F245"/>
-    <mergeCell ref="G242:G245"/>
-    <mergeCell ref="H242:H245"/>
-    <mergeCell ref="F246:F249"/>
-    <mergeCell ref="G246:G249"/>
-    <mergeCell ref="H246:H249"/>
-    <mergeCell ref="F250:F253"/>
-    <mergeCell ref="G250:G253"/>
-    <mergeCell ref="H250:H253"/>
-    <mergeCell ref="F232:F235"/>
-    <mergeCell ref="G232:G235"/>
-    <mergeCell ref="H232:H235"/>
-    <mergeCell ref="F236:F238"/>
-    <mergeCell ref="G236:G238"/>
-    <mergeCell ref="H236:H238"/>
-    <mergeCell ref="F239:F241"/>
-    <mergeCell ref="G239:G241"/>
-    <mergeCell ref="H239:H241"/>
-    <mergeCell ref="F220:F223"/>
-    <mergeCell ref="G220:G223"/>
-    <mergeCell ref="H220:H223"/>
-    <mergeCell ref="F224:F227"/>
-    <mergeCell ref="G224:G227"/>
-    <mergeCell ref="H224:H227"/>
-    <mergeCell ref="F228:F231"/>
-    <mergeCell ref="G228:G231"/>
-    <mergeCell ref="H228:H231"/>
-    <mergeCell ref="F208:F211"/>
-    <mergeCell ref="G208:G211"/>
-    <mergeCell ref="H208:H211"/>
-    <mergeCell ref="F212:F215"/>
-    <mergeCell ref="G212:G215"/>
-    <mergeCell ref="H212:H215"/>
-    <mergeCell ref="F216:F219"/>
-    <mergeCell ref="G216:G219"/>
-    <mergeCell ref="H216:H219"/>
-    <mergeCell ref="F196:F199"/>
-    <mergeCell ref="G196:G199"/>
-    <mergeCell ref="H196:H199"/>
-    <mergeCell ref="F200:F203"/>
-    <mergeCell ref="G200:G203"/>
-    <mergeCell ref="H200:H203"/>
-    <mergeCell ref="F204:F207"/>
-    <mergeCell ref="G204:G207"/>
-    <mergeCell ref="H204:H207"/>
-    <mergeCell ref="F184:F187"/>
-    <mergeCell ref="G184:G187"/>
-    <mergeCell ref="H184:H187"/>
-    <mergeCell ref="F188:F191"/>
-    <mergeCell ref="G188:G191"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="F192:F195"/>
-    <mergeCell ref="G192:G195"/>
-    <mergeCell ref="H192:H195"/>
-    <mergeCell ref="F171:F174"/>
-    <mergeCell ref="G171:G174"/>
-    <mergeCell ref="H171:H174"/>
-    <mergeCell ref="F175:F178"/>
-    <mergeCell ref="G175:G178"/>
-    <mergeCell ref="H175:H178"/>
-    <mergeCell ref="F179:F183"/>
-    <mergeCell ref="G179:G183"/>
-    <mergeCell ref="H179:H183"/>
-    <mergeCell ref="F159:F162"/>
-    <mergeCell ref="G159:G162"/>
-    <mergeCell ref="H159:H162"/>
-    <mergeCell ref="F163:F166"/>
-    <mergeCell ref="G163:G166"/>
-    <mergeCell ref="H163:H166"/>
-    <mergeCell ref="F167:F170"/>
-    <mergeCell ref="G167:G170"/>
-    <mergeCell ref="H167:H170"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="G148:G151"/>
-    <mergeCell ref="H148:H151"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="G152:G154"/>
-    <mergeCell ref="H152:H154"/>
-    <mergeCell ref="F155:F158"/>
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="F136:F139"/>
-    <mergeCell ref="G136:G139"/>
-    <mergeCell ref="H136:H139"/>
-    <mergeCell ref="F140:F143"/>
-    <mergeCell ref="G140:G143"/>
-    <mergeCell ref="H140:H143"/>
-    <mergeCell ref="F144:F147"/>
-    <mergeCell ref="G144:G147"/>
-    <mergeCell ref="H144:H147"/>
-    <mergeCell ref="F123:F126"/>
-    <mergeCell ref="G123:G126"/>
-    <mergeCell ref="H123:H126"/>
-    <mergeCell ref="F127:F130"/>
-    <mergeCell ref="G127:G130"/>
-    <mergeCell ref="H127:H130"/>
-    <mergeCell ref="F131:F135"/>
-    <mergeCell ref="G131:G135"/>
-    <mergeCell ref="H131:H135"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:G118"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="F119:F122"/>
-    <mergeCell ref="G119:G122"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="F99:F102"/>
-    <mergeCell ref="G99:G102"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="G107:G110"/>
-    <mergeCell ref="H107:H110"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="G87:G90"/>
-    <mergeCell ref="H87:H90"/>
-    <mergeCell ref="F91:F94"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="H91:H94"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="G79:G82"/>
-    <mergeCell ref="H79:H82"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="G83:G86"/>
-    <mergeCell ref="H83:H86"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A139"/>
-    <mergeCell ref="A140:A143"/>
-    <mergeCell ref="A144:A147"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A171:A174"/>
-    <mergeCell ref="A175:A178"/>
-    <mergeCell ref="A179:A183"/>
-    <mergeCell ref="A184:A187"/>
-    <mergeCell ref="A188:A191"/>
-    <mergeCell ref="A192:A195"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A167:A170"/>
-    <mergeCell ref="A220:A223"/>
-    <mergeCell ref="A224:A227"/>
-    <mergeCell ref="A228:A231"/>
-    <mergeCell ref="A232:A235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A196:A199"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="A266:A269"/>
-    <mergeCell ref="A270:A273"/>
-    <mergeCell ref="A274:A278"/>
-    <mergeCell ref="A279:A282"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="A254:A257"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="A262:A265"/>
-    <mergeCell ref="A317:A320"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A329:A332"/>
-    <mergeCell ref="A333:A337"/>
-    <mergeCell ref="A338:A341"/>
-    <mergeCell ref="A292:A295"/>
-    <mergeCell ref="A296:A299"/>
-    <mergeCell ref="A300:A303"/>
-    <mergeCell ref="A304:A308"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="A313:A316"/>
-    <mergeCell ref="A368:A372"/>
-    <mergeCell ref="A373:A376"/>
-    <mergeCell ref="A377:A380"/>
-    <mergeCell ref="B377:B380"/>
-    <mergeCell ref="A381:A385"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="A342:A345"/>
-    <mergeCell ref="A346:A349"/>
-    <mergeCell ref="A350:A354"/>
-    <mergeCell ref="A355:A358"/>
-    <mergeCell ref="A359:A362"/>
-    <mergeCell ref="A363:A367"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="A430:A434"/>
-    <mergeCell ref="A435:A438"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="A475:A478"/>
-    <mergeCell ref="A479:A482"/>
-    <mergeCell ref="A483:A486"/>
-    <mergeCell ref="A439:A442"/>
-    <mergeCell ref="A443:A446"/>
-    <mergeCell ref="A447:A450"/>
-    <mergeCell ref="A451:A454"/>
-    <mergeCell ref="A455:A458"/>
-    <mergeCell ref="A459:A462"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="C539:C542"/>
+    <mergeCell ref="C543:C546"/>
+    <mergeCell ref="C547:C550"/>
+    <mergeCell ref="C515:C518"/>
+    <mergeCell ref="C519:C522"/>
+    <mergeCell ref="C523:C526"/>
+    <mergeCell ref="C527:C530"/>
+    <mergeCell ref="C531:C534"/>
+    <mergeCell ref="C535:C538"/>
+    <mergeCell ref="C491:C494"/>
+    <mergeCell ref="C495:C498"/>
+    <mergeCell ref="C499:C502"/>
+    <mergeCell ref="C503:C506"/>
+    <mergeCell ref="C507:C510"/>
+    <mergeCell ref="C511:C514"/>
+    <mergeCell ref="C467:C470"/>
+    <mergeCell ref="C471:C474"/>
+    <mergeCell ref="C475:C478"/>
+    <mergeCell ref="C479:C482"/>
+    <mergeCell ref="C483:C486"/>
+    <mergeCell ref="C487:C490"/>
+    <mergeCell ref="C443:C446"/>
+    <mergeCell ref="C447:C450"/>
+    <mergeCell ref="C451:C454"/>
+    <mergeCell ref="C455:C458"/>
+    <mergeCell ref="C459:C462"/>
+    <mergeCell ref="C463:C466"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="C422:C425"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C430:C434"/>
+    <mergeCell ref="C435:C438"/>
+    <mergeCell ref="C439:C442"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C368:C372"/>
+    <mergeCell ref="C373:C376"/>
+    <mergeCell ref="C377:C380"/>
+    <mergeCell ref="C381:C385"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="C342:C345"/>
+    <mergeCell ref="C346:C349"/>
+    <mergeCell ref="C350:C354"/>
+    <mergeCell ref="C355:C358"/>
+    <mergeCell ref="C359:C362"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="C317:C320"/>
+    <mergeCell ref="C321:C324"/>
+    <mergeCell ref="C325:C328"/>
+    <mergeCell ref="C329:C332"/>
+    <mergeCell ref="C333:C337"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C292:C295"/>
+    <mergeCell ref="C296:C299"/>
+    <mergeCell ref="C300:C303"/>
+    <mergeCell ref="C304:C308"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="C313:C316"/>
+    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="C274:C278"/>
+    <mergeCell ref="C279:C282"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="C287:C291"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C258:C261"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="C224:C227"/>
+    <mergeCell ref="C228:C231"/>
+    <mergeCell ref="C232:C235"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="C196:C199"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="C204:C207"/>
+    <mergeCell ref="C208:C211"/>
+    <mergeCell ref="C212:C215"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C188:C191"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="C155:C158"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="C136:C139"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C144:C147"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="E543:E546"/>
+    <mergeCell ref="E547:E550"/>
+    <mergeCell ref="E531:E534"/>
+    <mergeCell ref="E535:E538"/>
+    <mergeCell ref="E539:E542"/>
+    <mergeCell ref="E519:E522"/>
+    <mergeCell ref="E523:E526"/>
+    <mergeCell ref="E527:E530"/>
+    <mergeCell ref="E507:E510"/>
+    <mergeCell ref="E511:E514"/>
+    <mergeCell ref="E515:E518"/>
+    <mergeCell ref="E495:E498"/>
+    <mergeCell ref="E499:E502"/>
+    <mergeCell ref="E503:E506"/>
+    <mergeCell ref="E483:E486"/>
+    <mergeCell ref="E487:E490"/>
+    <mergeCell ref="E491:E494"/>
+    <mergeCell ref="E471:E474"/>
+    <mergeCell ref="E475:E478"/>
+    <mergeCell ref="E479:E482"/>
+    <mergeCell ref="E459:E462"/>
+    <mergeCell ref="E463:E466"/>
+    <mergeCell ref="E467:E470"/>
+    <mergeCell ref="E447:E450"/>
+    <mergeCell ref="E451:E454"/>
+    <mergeCell ref="E455:E458"/>
+    <mergeCell ref="E435:E438"/>
+    <mergeCell ref="E439:E442"/>
+    <mergeCell ref="E443:E446"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="E430:E434"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="E373:E376"/>
+    <mergeCell ref="E377:E380"/>
+    <mergeCell ref="E381:E385"/>
+    <mergeCell ref="E359:E362"/>
+    <mergeCell ref="E363:E367"/>
+    <mergeCell ref="E368:E372"/>
+    <mergeCell ref="E346:E349"/>
+    <mergeCell ref="E350:E354"/>
+    <mergeCell ref="E355:E358"/>
+    <mergeCell ref="E333:E337"/>
+    <mergeCell ref="E338:E341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="E321:E324"/>
+    <mergeCell ref="E325:E328"/>
+    <mergeCell ref="E329:E332"/>
+    <mergeCell ref="E309:E312"/>
+    <mergeCell ref="E313:E316"/>
+    <mergeCell ref="E317:E320"/>
+    <mergeCell ref="E296:E299"/>
+    <mergeCell ref="E300:E303"/>
+    <mergeCell ref="E304:E308"/>
+    <mergeCell ref="E283:E286"/>
+    <mergeCell ref="E287:E291"/>
+    <mergeCell ref="E292:E295"/>
+    <mergeCell ref="E270:E273"/>
+    <mergeCell ref="E274:E278"/>
+    <mergeCell ref="E279:E282"/>
+    <mergeCell ref="E258:E261"/>
+    <mergeCell ref="E262:E265"/>
+    <mergeCell ref="E266:E269"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="E250:E253"/>
+    <mergeCell ref="E254:E257"/>
+    <mergeCell ref="E236:E238"/>
+    <mergeCell ref="E239:E241"/>
+    <mergeCell ref="E242:E245"/>
+    <mergeCell ref="E224:E227"/>
+    <mergeCell ref="E228:E231"/>
+    <mergeCell ref="E232:E235"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="E216:E219"/>
+    <mergeCell ref="E220:E223"/>
+    <mergeCell ref="E200:E203"/>
+    <mergeCell ref="E204:E207"/>
+    <mergeCell ref="E208:E211"/>
+    <mergeCell ref="E188:E191"/>
+    <mergeCell ref="E192:E195"/>
+    <mergeCell ref="E196:E199"/>
+    <mergeCell ref="E175:E178"/>
+    <mergeCell ref="E179:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E163:E166"/>
+    <mergeCell ref="E167:E170"/>
+    <mergeCell ref="E171:E174"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="E155:E158"/>
+    <mergeCell ref="E159:E162"/>
+    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="E144:E147"/>
+    <mergeCell ref="E148:E151"/>
+    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="E131:E135"/>
+    <mergeCell ref="E136:E139"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="E99:E102"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B539:B542"/>
+    <mergeCell ref="B543:B546"/>
+    <mergeCell ref="B483:B486"/>
+    <mergeCell ref="B487:B490"/>
+    <mergeCell ref="B443:B446"/>
+    <mergeCell ref="B447:B450"/>
+    <mergeCell ref="B451:B454"/>
+    <mergeCell ref="B455:B458"/>
+    <mergeCell ref="B459:B462"/>
+    <mergeCell ref="B463:B466"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="B430:B434"/>
+    <mergeCell ref="B435:B438"/>
+    <mergeCell ref="B439:B442"/>
+    <mergeCell ref="B394:B397"/>
+    <mergeCell ref="B547:B550"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="B515:B518"/>
+    <mergeCell ref="B519:B522"/>
+    <mergeCell ref="B523:B526"/>
+    <mergeCell ref="B527:B530"/>
+    <mergeCell ref="B531:B534"/>
+    <mergeCell ref="B535:B538"/>
+    <mergeCell ref="B491:B494"/>
+    <mergeCell ref="B495:B498"/>
+    <mergeCell ref="B499:B502"/>
+    <mergeCell ref="B503:B506"/>
+    <mergeCell ref="B507:B510"/>
+    <mergeCell ref="B511:B514"/>
+    <mergeCell ref="B467:B470"/>
+    <mergeCell ref="B471:B474"/>
+    <mergeCell ref="B475:B478"/>
+    <mergeCell ref="B479:B482"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="B363:B367"/>
+    <mergeCell ref="B368:B372"/>
+    <mergeCell ref="B373:B376"/>
+    <mergeCell ref="B381:B385"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="B338:B341"/>
+    <mergeCell ref="B342:B345"/>
+    <mergeCell ref="B346:B349"/>
+    <mergeCell ref="B350:B354"/>
+    <mergeCell ref="B355:B358"/>
+    <mergeCell ref="B359:B362"/>
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="B317:B320"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B333:B337"/>
+    <mergeCell ref="B287:B291"/>
+    <mergeCell ref="B292:B295"/>
+    <mergeCell ref="B296:B299"/>
+    <mergeCell ref="B300:B303"/>
+    <mergeCell ref="B304:B308"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="B274:B278"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="B228:B231"/>
+    <mergeCell ref="B232:B235"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="B196:B199"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="B144:B147"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
     <mergeCell ref="A535:A538"/>
     <mergeCell ref="A539:A542"/>
     <mergeCell ref="A543:A546"/>
@@ -15127,437 +15722,496 @@
     <mergeCell ref="A463:A466"/>
     <mergeCell ref="A467:A470"/>
     <mergeCell ref="A471:A474"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B144:B147"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="B196:B199"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="B184:B187"/>
-    <mergeCell ref="B188:B191"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="B254:B257"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B228:B231"/>
-    <mergeCell ref="B232:B235"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="B287:B291"/>
-    <mergeCell ref="B292:B295"/>
-    <mergeCell ref="B296:B299"/>
-    <mergeCell ref="B300:B303"/>
-    <mergeCell ref="B304:B308"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="B266:B269"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="B274:B278"/>
-    <mergeCell ref="B279:B282"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="B338:B341"/>
-    <mergeCell ref="B342:B345"/>
-    <mergeCell ref="B346:B349"/>
-    <mergeCell ref="B350:B354"/>
-    <mergeCell ref="B355:B358"/>
-    <mergeCell ref="B359:B362"/>
-    <mergeCell ref="B313:B316"/>
-    <mergeCell ref="B317:B320"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B333:B337"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="B363:B367"/>
-    <mergeCell ref="B368:B372"/>
-    <mergeCell ref="B373:B376"/>
-    <mergeCell ref="B381:B385"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="B547:B550"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="B515:B518"/>
-    <mergeCell ref="B519:B522"/>
-    <mergeCell ref="B523:B526"/>
-    <mergeCell ref="B527:B530"/>
-    <mergeCell ref="B531:B534"/>
-    <mergeCell ref="B535:B538"/>
-    <mergeCell ref="B491:B494"/>
-    <mergeCell ref="B495:B498"/>
-    <mergeCell ref="B499:B502"/>
-    <mergeCell ref="B503:B506"/>
-    <mergeCell ref="B507:B510"/>
-    <mergeCell ref="B511:B514"/>
-    <mergeCell ref="B467:B470"/>
-    <mergeCell ref="B471:B474"/>
-    <mergeCell ref="B475:B478"/>
-    <mergeCell ref="B479:B482"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="B539:B542"/>
-    <mergeCell ref="B543:B546"/>
-    <mergeCell ref="B483:B486"/>
-    <mergeCell ref="B487:B490"/>
-    <mergeCell ref="B443:B446"/>
-    <mergeCell ref="B447:B450"/>
-    <mergeCell ref="B451:B454"/>
-    <mergeCell ref="B455:B458"/>
-    <mergeCell ref="B459:B462"/>
-    <mergeCell ref="B463:B466"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="B430:B434"/>
-    <mergeCell ref="B435:B438"/>
-    <mergeCell ref="B439:B442"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="E99:E102"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E127:E130"/>
-    <mergeCell ref="E131:E135"/>
-    <mergeCell ref="E136:E139"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="E163:E166"/>
-    <mergeCell ref="E167:E170"/>
-    <mergeCell ref="E171:E174"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="E155:E158"/>
-    <mergeCell ref="E159:E162"/>
-    <mergeCell ref="E140:E143"/>
-    <mergeCell ref="E144:E147"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="E200:E203"/>
-    <mergeCell ref="E204:E207"/>
-    <mergeCell ref="E208:E211"/>
-    <mergeCell ref="E188:E191"/>
-    <mergeCell ref="E192:E195"/>
-    <mergeCell ref="E196:E199"/>
-    <mergeCell ref="E175:E178"/>
-    <mergeCell ref="E179:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E236:E238"/>
-    <mergeCell ref="E239:E241"/>
-    <mergeCell ref="E242:E245"/>
-    <mergeCell ref="E224:E227"/>
-    <mergeCell ref="E228:E231"/>
-    <mergeCell ref="E232:E235"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="E216:E219"/>
-    <mergeCell ref="E220:E223"/>
-    <mergeCell ref="E270:E273"/>
-    <mergeCell ref="E274:E278"/>
-    <mergeCell ref="E279:E282"/>
-    <mergeCell ref="E258:E261"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="E266:E269"/>
-    <mergeCell ref="E246:E249"/>
-    <mergeCell ref="E250:E253"/>
-    <mergeCell ref="E254:E257"/>
-    <mergeCell ref="E309:E312"/>
-    <mergeCell ref="E313:E316"/>
-    <mergeCell ref="E317:E320"/>
-    <mergeCell ref="E296:E299"/>
-    <mergeCell ref="E300:E303"/>
-    <mergeCell ref="E304:E308"/>
-    <mergeCell ref="E283:E286"/>
-    <mergeCell ref="E287:E291"/>
-    <mergeCell ref="E292:E295"/>
-    <mergeCell ref="E346:E349"/>
-    <mergeCell ref="E350:E354"/>
-    <mergeCell ref="E355:E358"/>
-    <mergeCell ref="E333:E337"/>
-    <mergeCell ref="E338:E341"/>
-    <mergeCell ref="E342:E345"/>
-    <mergeCell ref="E321:E324"/>
-    <mergeCell ref="E325:E328"/>
-    <mergeCell ref="E329:E332"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="E373:E376"/>
-    <mergeCell ref="E377:E380"/>
-    <mergeCell ref="E381:E385"/>
-    <mergeCell ref="E359:E362"/>
-    <mergeCell ref="E363:E367"/>
-    <mergeCell ref="E368:E372"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="E426:E429"/>
-    <mergeCell ref="E430:E434"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="E475:E478"/>
-    <mergeCell ref="E479:E482"/>
-    <mergeCell ref="E459:E462"/>
-    <mergeCell ref="E463:E466"/>
-    <mergeCell ref="E467:E470"/>
-    <mergeCell ref="E447:E450"/>
-    <mergeCell ref="E451:E454"/>
-    <mergeCell ref="E455:E458"/>
-    <mergeCell ref="E435:E438"/>
-    <mergeCell ref="E439:E442"/>
-    <mergeCell ref="E443:E446"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="E543:E546"/>
-    <mergeCell ref="E547:E550"/>
-    <mergeCell ref="E531:E534"/>
-    <mergeCell ref="E535:E538"/>
-    <mergeCell ref="E539:E542"/>
-    <mergeCell ref="E519:E522"/>
-    <mergeCell ref="E523:E526"/>
-    <mergeCell ref="E527:E530"/>
-    <mergeCell ref="E507:E510"/>
-    <mergeCell ref="E511:E514"/>
-    <mergeCell ref="E515:E518"/>
-    <mergeCell ref="E495:E498"/>
-    <mergeCell ref="E499:E502"/>
-    <mergeCell ref="E503:E506"/>
-    <mergeCell ref="E483:E486"/>
-    <mergeCell ref="E487:E490"/>
-    <mergeCell ref="E491:E494"/>
-    <mergeCell ref="E471:E474"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="C155:C158"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="C167:C170"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C131:C135"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="C144:C147"/>
-    <mergeCell ref="C196:C199"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="C204:C207"/>
-    <mergeCell ref="C208:C211"/>
-    <mergeCell ref="C212:C215"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="C171:C174"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C188:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="C258:C261"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="C220:C223"/>
-    <mergeCell ref="C224:C227"/>
-    <mergeCell ref="C228:C231"/>
-    <mergeCell ref="C232:C235"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="C292:C295"/>
-    <mergeCell ref="C296:C299"/>
-    <mergeCell ref="C300:C303"/>
-    <mergeCell ref="C304:C308"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="C313:C316"/>
-    <mergeCell ref="C266:C269"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="C274:C278"/>
-    <mergeCell ref="C279:C282"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="C287:C291"/>
-    <mergeCell ref="C342:C345"/>
-    <mergeCell ref="C346:C349"/>
-    <mergeCell ref="C350:C354"/>
-    <mergeCell ref="C355:C358"/>
-    <mergeCell ref="C359:C362"/>
-    <mergeCell ref="C363:C367"/>
-    <mergeCell ref="C317:C320"/>
-    <mergeCell ref="C321:C324"/>
-    <mergeCell ref="C325:C328"/>
-    <mergeCell ref="C329:C332"/>
-    <mergeCell ref="C333:C337"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C368:C372"/>
-    <mergeCell ref="C373:C376"/>
-    <mergeCell ref="C377:C380"/>
-    <mergeCell ref="C381:C385"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="C443:C446"/>
-    <mergeCell ref="C447:C450"/>
-    <mergeCell ref="C451:C454"/>
-    <mergeCell ref="C455:C458"/>
-    <mergeCell ref="C459:C462"/>
-    <mergeCell ref="C463:C466"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C426:C429"/>
-    <mergeCell ref="C430:C434"/>
-    <mergeCell ref="C435:C438"/>
-    <mergeCell ref="C439:C442"/>
-    <mergeCell ref="C491:C494"/>
-    <mergeCell ref="C495:C498"/>
-    <mergeCell ref="C499:C502"/>
-    <mergeCell ref="C503:C506"/>
-    <mergeCell ref="C507:C510"/>
-    <mergeCell ref="C511:C514"/>
-    <mergeCell ref="C467:C470"/>
-    <mergeCell ref="C471:C474"/>
-    <mergeCell ref="C475:C478"/>
-    <mergeCell ref="C479:C482"/>
-    <mergeCell ref="C483:C486"/>
-    <mergeCell ref="C487:C490"/>
-    <mergeCell ref="C539:C542"/>
-    <mergeCell ref="C543:C546"/>
-    <mergeCell ref="C547:C550"/>
-    <mergeCell ref="C515:C518"/>
-    <mergeCell ref="C519:C522"/>
-    <mergeCell ref="C523:C526"/>
-    <mergeCell ref="C527:C530"/>
-    <mergeCell ref="C531:C534"/>
-    <mergeCell ref="C535:C538"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="A475:A478"/>
+    <mergeCell ref="A479:A482"/>
+    <mergeCell ref="A483:A486"/>
+    <mergeCell ref="A439:A442"/>
+    <mergeCell ref="A443:A446"/>
+    <mergeCell ref="A447:A450"/>
+    <mergeCell ref="A451:A454"/>
+    <mergeCell ref="A455:A458"/>
+    <mergeCell ref="A459:A462"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="A430:A434"/>
+    <mergeCell ref="A435:A438"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="A368:A372"/>
+    <mergeCell ref="A373:A376"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="B377:B380"/>
+    <mergeCell ref="A381:A385"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="A342:A345"/>
+    <mergeCell ref="A346:A349"/>
+    <mergeCell ref="A350:A354"/>
+    <mergeCell ref="A355:A358"/>
+    <mergeCell ref="A359:A362"/>
+    <mergeCell ref="A363:A367"/>
+    <mergeCell ref="A317:A320"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="A333:A337"/>
+    <mergeCell ref="A338:A341"/>
+    <mergeCell ref="A292:A295"/>
+    <mergeCell ref="A296:A299"/>
+    <mergeCell ref="A300:A303"/>
+    <mergeCell ref="A304:A308"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="A270:A273"/>
+    <mergeCell ref="A274:A278"/>
+    <mergeCell ref="A279:A282"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="A287:A291"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="A262:A265"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="A228:A231"/>
+    <mergeCell ref="A232:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A196:A199"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="A175:A178"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A184:A187"/>
+    <mergeCell ref="A188:A191"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="A140:A143"/>
+    <mergeCell ref="A144:A147"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="G79:G82"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="G83:G86"/>
+    <mergeCell ref="H83:H86"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="G87:G90"/>
+    <mergeCell ref="H87:H90"/>
+    <mergeCell ref="F91:F94"/>
+    <mergeCell ref="G91:G94"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="F99:F102"/>
+    <mergeCell ref="G99:G102"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="G103:G106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="G107:G110"/>
+    <mergeCell ref="H107:H110"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="F119:F122"/>
+    <mergeCell ref="G119:G122"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="F123:F126"/>
+    <mergeCell ref="G123:G126"/>
+    <mergeCell ref="H123:H126"/>
+    <mergeCell ref="F127:F130"/>
+    <mergeCell ref="G127:G130"/>
+    <mergeCell ref="H127:H130"/>
+    <mergeCell ref="F131:F135"/>
+    <mergeCell ref="G131:G135"/>
+    <mergeCell ref="H131:H135"/>
+    <mergeCell ref="F136:F139"/>
+    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="H136:H139"/>
+    <mergeCell ref="F140:F143"/>
+    <mergeCell ref="G140:G143"/>
+    <mergeCell ref="H140:H143"/>
+    <mergeCell ref="F144:F147"/>
+    <mergeCell ref="G144:G147"/>
+    <mergeCell ref="H144:H147"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="G148:G151"/>
+    <mergeCell ref="H148:H151"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="G152:G154"/>
+    <mergeCell ref="H152:H154"/>
+    <mergeCell ref="F155:F158"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="F159:F162"/>
+    <mergeCell ref="G159:G162"/>
+    <mergeCell ref="H159:H162"/>
+    <mergeCell ref="F163:F166"/>
+    <mergeCell ref="G163:G166"/>
+    <mergeCell ref="H163:H166"/>
+    <mergeCell ref="F167:F170"/>
+    <mergeCell ref="G167:G170"/>
+    <mergeCell ref="H167:H170"/>
+    <mergeCell ref="F171:F174"/>
+    <mergeCell ref="G171:G174"/>
+    <mergeCell ref="H171:H174"/>
+    <mergeCell ref="F175:F178"/>
+    <mergeCell ref="G175:G178"/>
+    <mergeCell ref="H175:H178"/>
+    <mergeCell ref="F179:F183"/>
+    <mergeCell ref="G179:G183"/>
+    <mergeCell ref="H179:H183"/>
+    <mergeCell ref="F184:F187"/>
+    <mergeCell ref="G184:G187"/>
+    <mergeCell ref="H184:H187"/>
+    <mergeCell ref="F188:F191"/>
+    <mergeCell ref="G188:G191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="F192:F195"/>
+    <mergeCell ref="G192:G195"/>
+    <mergeCell ref="H192:H195"/>
+    <mergeCell ref="F196:F199"/>
+    <mergeCell ref="G196:G199"/>
+    <mergeCell ref="H196:H199"/>
+    <mergeCell ref="F200:F203"/>
+    <mergeCell ref="G200:G203"/>
+    <mergeCell ref="H200:H203"/>
+    <mergeCell ref="F204:F207"/>
+    <mergeCell ref="G204:G207"/>
+    <mergeCell ref="H204:H207"/>
+    <mergeCell ref="F208:F211"/>
+    <mergeCell ref="G208:G211"/>
+    <mergeCell ref="H208:H211"/>
+    <mergeCell ref="F212:F215"/>
+    <mergeCell ref="G212:G215"/>
+    <mergeCell ref="H212:H215"/>
+    <mergeCell ref="F216:F219"/>
+    <mergeCell ref="G216:G219"/>
+    <mergeCell ref="H216:H219"/>
+    <mergeCell ref="F220:F223"/>
+    <mergeCell ref="G220:G223"/>
+    <mergeCell ref="H220:H223"/>
+    <mergeCell ref="F224:F227"/>
+    <mergeCell ref="G224:G227"/>
+    <mergeCell ref="H224:H227"/>
+    <mergeCell ref="F228:F231"/>
+    <mergeCell ref="G228:G231"/>
+    <mergeCell ref="H228:H231"/>
+    <mergeCell ref="F232:F235"/>
+    <mergeCell ref="G232:G235"/>
+    <mergeCell ref="H232:H235"/>
+    <mergeCell ref="F236:F238"/>
+    <mergeCell ref="G236:G238"/>
+    <mergeCell ref="H236:H238"/>
+    <mergeCell ref="F239:F241"/>
+    <mergeCell ref="G239:G241"/>
+    <mergeCell ref="H239:H241"/>
+    <mergeCell ref="F242:F245"/>
+    <mergeCell ref="G242:G245"/>
+    <mergeCell ref="H242:H245"/>
+    <mergeCell ref="F246:F249"/>
+    <mergeCell ref="G246:G249"/>
+    <mergeCell ref="H246:H249"/>
+    <mergeCell ref="F250:F253"/>
+    <mergeCell ref="G250:G253"/>
+    <mergeCell ref="H250:H253"/>
+    <mergeCell ref="F254:F257"/>
+    <mergeCell ref="G254:G257"/>
+    <mergeCell ref="H254:H257"/>
+    <mergeCell ref="F258:F261"/>
+    <mergeCell ref="G258:G261"/>
+    <mergeCell ref="H258:H261"/>
+    <mergeCell ref="F262:F265"/>
+    <mergeCell ref="G262:G265"/>
+    <mergeCell ref="H262:H265"/>
+    <mergeCell ref="F266:F269"/>
+    <mergeCell ref="G266:G269"/>
+    <mergeCell ref="H266:H269"/>
+    <mergeCell ref="F270:F273"/>
+    <mergeCell ref="G270:G273"/>
+    <mergeCell ref="H270:H273"/>
+    <mergeCell ref="F274:F278"/>
+    <mergeCell ref="G274:G278"/>
+    <mergeCell ref="H274:H278"/>
+    <mergeCell ref="F279:F282"/>
+    <mergeCell ref="G279:G282"/>
+    <mergeCell ref="H279:H282"/>
+    <mergeCell ref="F283:F286"/>
+    <mergeCell ref="G283:G286"/>
+    <mergeCell ref="H283:H286"/>
+    <mergeCell ref="F287:F291"/>
+    <mergeCell ref="G287:G291"/>
+    <mergeCell ref="H287:H291"/>
+    <mergeCell ref="F292:F295"/>
+    <mergeCell ref="G292:G295"/>
+    <mergeCell ref="H292:H295"/>
+    <mergeCell ref="F296:F299"/>
+    <mergeCell ref="G296:G299"/>
+    <mergeCell ref="H296:H299"/>
+    <mergeCell ref="F300:F303"/>
+    <mergeCell ref="G300:G303"/>
+    <mergeCell ref="H300:H303"/>
+    <mergeCell ref="F304:F308"/>
+    <mergeCell ref="G304:G308"/>
+    <mergeCell ref="H304:H308"/>
+    <mergeCell ref="F309:F312"/>
+    <mergeCell ref="G309:G312"/>
+    <mergeCell ref="H309:H312"/>
+    <mergeCell ref="F313:F316"/>
+    <mergeCell ref="G313:G316"/>
+    <mergeCell ref="H313:H316"/>
+    <mergeCell ref="F317:F320"/>
+    <mergeCell ref="G317:G320"/>
+    <mergeCell ref="H317:H320"/>
+    <mergeCell ref="F321:F324"/>
+    <mergeCell ref="G321:G324"/>
+    <mergeCell ref="H321:H324"/>
+    <mergeCell ref="F325:F328"/>
+    <mergeCell ref="G325:G328"/>
+    <mergeCell ref="H325:H328"/>
+    <mergeCell ref="F329:F332"/>
+    <mergeCell ref="G329:G332"/>
+    <mergeCell ref="H329:H332"/>
+    <mergeCell ref="F333:F337"/>
+    <mergeCell ref="G333:G337"/>
+    <mergeCell ref="H333:H337"/>
+    <mergeCell ref="F338:F341"/>
+    <mergeCell ref="G338:G341"/>
+    <mergeCell ref="H338:H341"/>
+    <mergeCell ref="F342:F345"/>
+    <mergeCell ref="G342:G345"/>
+    <mergeCell ref="H342:H345"/>
+    <mergeCell ref="F346:F349"/>
+    <mergeCell ref="G346:G349"/>
+    <mergeCell ref="H346:H349"/>
+    <mergeCell ref="F350:F354"/>
+    <mergeCell ref="G350:G354"/>
+    <mergeCell ref="H350:H354"/>
+    <mergeCell ref="F355:F358"/>
+    <mergeCell ref="G355:G358"/>
+    <mergeCell ref="H355:H358"/>
+    <mergeCell ref="F359:F362"/>
+    <mergeCell ref="G359:G362"/>
+    <mergeCell ref="H359:H362"/>
+    <mergeCell ref="F363:F367"/>
+    <mergeCell ref="G363:G367"/>
+    <mergeCell ref="H363:H367"/>
+    <mergeCell ref="F368:F372"/>
+    <mergeCell ref="G368:G372"/>
+    <mergeCell ref="H368:H372"/>
+    <mergeCell ref="F373:F376"/>
+    <mergeCell ref="G373:G376"/>
+    <mergeCell ref="H373:H376"/>
+    <mergeCell ref="F377:F380"/>
+    <mergeCell ref="G377:G380"/>
+    <mergeCell ref="H377:H380"/>
+    <mergeCell ref="F381:F385"/>
+    <mergeCell ref="G381:G385"/>
+    <mergeCell ref="H381:H385"/>
+    <mergeCell ref="F386:F389"/>
+    <mergeCell ref="G386:G389"/>
+    <mergeCell ref="H386:H389"/>
+    <mergeCell ref="F390:F393"/>
+    <mergeCell ref="G390:G393"/>
+    <mergeCell ref="H390:H393"/>
+    <mergeCell ref="F394:F397"/>
+    <mergeCell ref="G394:G397"/>
+    <mergeCell ref="H394:H397"/>
+    <mergeCell ref="F398:F401"/>
+    <mergeCell ref="G398:G401"/>
+    <mergeCell ref="H398:H401"/>
+    <mergeCell ref="F402:F405"/>
+    <mergeCell ref="G402:G405"/>
+    <mergeCell ref="H402:H405"/>
+    <mergeCell ref="F406:F409"/>
+    <mergeCell ref="G406:G409"/>
+    <mergeCell ref="H406:H409"/>
+    <mergeCell ref="F410:F413"/>
+    <mergeCell ref="G410:G413"/>
+    <mergeCell ref="H410:H413"/>
+    <mergeCell ref="F414:F417"/>
+    <mergeCell ref="G414:G417"/>
+    <mergeCell ref="H414:H417"/>
+    <mergeCell ref="F418:F421"/>
+    <mergeCell ref="G418:G421"/>
+    <mergeCell ref="H418:H421"/>
+    <mergeCell ref="F422:F425"/>
+    <mergeCell ref="G422:G425"/>
+    <mergeCell ref="H422:H425"/>
+    <mergeCell ref="F426:F429"/>
+    <mergeCell ref="G426:G429"/>
+    <mergeCell ref="H426:H429"/>
+    <mergeCell ref="F430:F434"/>
+    <mergeCell ref="G430:G434"/>
+    <mergeCell ref="H430:H434"/>
+    <mergeCell ref="F435:F438"/>
+    <mergeCell ref="G435:G438"/>
+    <mergeCell ref="H435:H438"/>
+    <mergeCell ref="F439:F442"/>
+    <mergeCell ref="G439:G442"/>
+    <mergeCell ref="H439:H442"/>
+    <mergeCell ref="F443:F446"/>
+    <mergeCell ref="G443:G446"/>
+    <mergeCell ref="H443:H446"/>
+    <mergeCell ref="F447:F450"/>
+    <mergeCell ref="G447:G450"/>
+    <mergeCell ref="H447:H450"/>
+    <mergeCell ref="F451:F454"/>
+    <mergeCell ref="G451:G454"/>
+    <mergeCell ref="H451:H454"/>
+    <mergeCell ref="F455:F458"/>
+    <mergeCell ref="G455:G458"/>
+    <mergeCell ref="H455:H458"/>
+    <mergeCell ref="F459:F462"/>
+    <mergeCell ref="G459:G462"/>
+    <mergeCell ref="H459:H462"/>
+    <mergeCell ref="F463:F466"/>
+    <mergeCell ref="G463:G466"/>
+    <mergeCell ref="H463:H466"/>
+    <mergeCell ref="F467:F470"/>
+    <mergeCell ref="G467:G470"/>
+    <mergeCell ref="H467:H470"/>
+    <mergeCell ref="F471:F474"/>
+    <mergeCell ref="G471:G474"/>
+    <mergeCell ref="H471:H474"/>
+    <mergeCell ref="F475:F478"/>
+    <mergeCell ref="G475:G478"/>
+    <mergeCell ref="H475:H478"/>
+    <mergeCell ref="F479:F482"/>
+    <mergeCell ref="G479:G482"/>
+    <mergeCell ref="H479:H482"/>
+    <mergeCell ref="F483:F486"/>
+    <mergeCell ref="G483:G486"/>
+    <mergeCell ref="H483:H486"/>
+    <mergeCell ref="F487:F490"/>
+    <mergeCell ref="G487:G490"/>
+    <mergeCell ref="H487:H490"/>
+    <mergeCell ref="F491:F494"/>
+    <mergeCell ref="G491:G494"/>
+    <mergeCell ref="H491:H494"/>
+    <mergeCell ref="F495:F498"/>
+    <mergeCell ref="G495:G498"/>
+    <mergeCell ref="H495:H498"/>
+    <mergeCell ref="F499:F502"/>
+    <mergeCell ref="G499:G502"/>
+    <mergeCell ref="H499:H502"/>
+    <mergeCell ref="F503:F506"/>
+    <mergeCell ref="G503:G506"/>
+    <mergeCell ref="H503:H506"/>
+    <mergeCell ref="F507:F510"/>
+    <mergeCell ref="G507:G510"/>
+    <mergeCell ref="H507:H510"/>
+    <mergeCell ref="F511:F514"/>
+    <mergeCell ref="G511:G514"/>
+    <mergeCell ref="H511:H514"/>
+    <mergeCell ref="F515:F518"/>
+    <mergeCell ref="G515:G518"/>
+    <mergeCell ref="H515:H518"/>
+    <mergeCell ref="F519:F522"/>
+    <mergeCell ref="G519:G522"/>
+    <mergeCell ref="H519:H522"/>
+    <mergeCell ref="F523:F526"/>
+    <mergeCell ref="G523:G526"/>
+    <mergeCell ref="H523:H526"/>
+    <mergeCell ref="F527:F530"/>
+    <mergeCell ref="G527:G530"/>
+    <mergeCell ref="H527:H530"/>
+    <mergeCell ref="F531:F534"/>
+    <mergeCell ref="G531:G534"/>
+    <mergeCell ref="H531:H534"/>
+    <mergeCell ref="F535:F538"/>
+    <mergeCell ref="G535:G538"/>
+    <mergeCell ref="H535:H538"/>
+    <mergeCell ref="F539:F542"/>
+    <mergeCell ref="G539:G542"/>
+    <mergeCell ref="H539:H542"/>
+    <mergeCell ref="F543:F546"/>
+    <mergeCell ref="G543:G546"/>
+    <mergeCell ref="H543:H546"/>
+    <mergeCell ref="F547:F550"/>
+    <mergeCell ref="G547:G550"/>
+    <mergeCell ref="H547:H550"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B175" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
@@ -26046,191 +26700,415 @@
     <sortCondition ref="A2:A586"/>
   </sortState>
   <mergeCells count="618">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C286:C289"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="C298:C301"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="C266:C269"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="C282:C285"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="C258:C261"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C358:C361"/>
-    <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C366:C369"/>
-    <mergeCell ref="C370:C373"/>
-    <mergeCell ref="C334:C337"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C342:C345"/>
-    <mergeCell ref="C346:C349"/>
-    <mergeCell ref="C374:C377"/>
-    <mergeCell ref="C378:C381"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C462:C465"/>
-    <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C434:C437"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C442:C445"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C446:C449"/>
-    <mergeCell ref="C450:C453"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C426:C429"/>
-    <mergeCell ref="C454:C457"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E246:E249"/>
-    <mergeCell ref="E238:E241"/>
-    <mergeCell ref="E218:E221"/>
-    <mergeCell ref="E222:E225"/>
-    <mergeCell ref="E226:E229"/>
-    <mergeCell ref="E250:E253"/>
-    <mergeCell ref="E254:E257"/>
-    <mergeCell ref="E258:E261"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="E338:E341"/>
-    <mergeCell ref="E342:E345"/>
-    <mergeCell ref="E334:E337"/>
-    <mergeCell ref="E314:E317"/>
-    <mergeCell ref="E318:E321"/>
-    <mergeCell ref="E322:E325"/>
-    <mergeCell ref="E290:E293"/>
-    <mergeCell ref="E294:E297"/>
-    <mergeCell ref="E286:E289"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="E462:E465"/>
-    <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E434:E437"/>
-    <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="E442:E445"/>
-    <mergeCell ref="E446:E449"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E454:E457"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="E426:E429"/>
-    <mergeCell ref="C562:C565"/>
-    <mergeCell ref="E562:E565"/>
-    <mergeCell ref="C566:C569"/>
-    <mergeCell ref="E566:E569"/>
-    <mergeCell ref="C554:C557"/>
-    <mergeCell ref="E554:E557"/>
-    <mergeCell ref="C558:C561"/>
-    <mergeCell ref="E558:E561"/>
-    <mergeCell ref="C546:C549"/>
-    <mergeCell ref="E546:E549"/>
-    <mergeCell ref="C550:C553"/>
-    <mergeCell ref="E550:E553"/>
-    <mergeCell ref="C586:C589"/>
-    <mergeCell ref="E586:E589"/>
-    <mergeCell ref="C578:C581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="C582:C585"/>
-    <mergeCell ref="E582:E585"/>
-    <mergeCell ref="C570:C573"/>
-    <mergeCell ref="E570:E573"/>
-    <mergeCell ref="C574:C577"/>
-    <mergeCell ref="E574:E577"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="B578:B581"/>
+    <mergeCell ref="A582:A585"/>
+    <mergeCell ref="B582:B585"/>
+    <mergeCell ref="A586:A589"/>
+    <mergeCell ref="B586:B589"/>
+    <mergeCell ref="A566:A569"/>
+    <mergeCell ref="B566:B569"/>
+    <mergeCell ref="A570:A573"/>
+    <mergeCell ref="B570:B573"/>
+    <mergeCell ref="A574:A577"/>
+    <mergeCell ref="B574:B577"/>
+    <mergeCell ref="A554:A557"/>
+    <mergeCell ref="B554:B557"/>
+    <mergeCell ref="A558:A561"/>
+    <mergeCell ref="B558:B561"/>
+    <mergeCell ref="A562:A565"/>
+    <mergeCell ref="B562:B565"/>
+    <mergeCell ref="A542:A545"/>
+    <mergeCell ref="B542:B545"/>
+    <mergeCell ref="A546:A549"/>
+    <mergeCell ref="B546:B549"/>
+    <mergeCell ref="A550:A553"/>
+    <mergeCell ref="B550:B553"/>
+    <mergeCell ref="A530:A533"/>
+    <mergeCell ref="B530:B533"/>
+    <mergeCell ref="A534:A537"/>
+    <mergeCell ref="B534:B537"/>
+    <mergeCell ref="A538:A541"/>
+    <mergeCell ref="B538:B541"/>
+    <mergeCell ref="A518:A521"/>
+    <mergeCell ref="B518:B521"/>
+    <mergeCell ref="A522:A525"/>
+    <mergeCell ref="B522:B525"/>
+    <mergeCell ref="A526:A529"/>
+    <mergeCell ref="B526:B529"/>
+    <mergeCell ref="A506:A509"/>
+    <mergeCell ref="B506:B509"/>
+    <mergeCell ref="A510:A513"/>
+    <mergeCell ref="B510:B513"/>
+    <mergeCell ref="A514:A517"/>
+    <mergeCell ref="B514:B517"/>
+    <mergeCell ref="A494:A497"/>
+    <mergeCell ref="B494:B497"/>
+    <mergeCell ref="A498:A501"/>
+    <mergeCell ref="B498:B501"/>
+    <mergeCell ref="A502:A505"/>
+    <mergeCell ref="B502:B505"/>
+    <mergeCell ref="A482:A485"/>
+    <mergeCell ref="B482:B485"/>
+    <mergeCell ref="A486:A489"/>
+    <mergeCell ref="B486:B489"/>
+    <mergeCell ref="A490:A493"/>
+    <mergeCell ref="B490:B493"/>
+    <mergeCell ref="A470:A473"/>
+    <mergeCell ref="B470:B473"/>
+    <mergeCell ref="A474:A477"/>
+    <mergeCell ref="B474:B477"/>
+    <mergeCell ref="A478:A481"/>
+    <mergeCell ref="B478:B481"/>
+    <mergeCell ref="A458:A461"/>
+    <mergeCell ref="B458:B461"/>
+    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="B462:B465"/>
+    <mergeCell ref="A466:A469"/>
+    <mergeCell ref="B466:B469"/>
+    <mergeCell ref="A446:A449"/>
+    <mergeCell ref="B446:B449"/>
+    <mergeCell ref="A450:A453"/>
+    <mergeCell ref="B450:B453"/>
+    <mergeCell ref="A454:A457"/>
+    <mergeCell ref="B454:B457"/>
+    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="B434:B437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="A442:A445"/>
+    <mergeCell ref="B442:B445"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="A430:A433"/>
+    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="B394:B397"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="A378:A381"/>
+    <mergeCell ref="B378:B381"/>
+    <mergeCell ref="A382:A385"/>
+    <mergeCell ref="B382:B385"/>
+    <mergeCell ref="A362:A365"/>
+    <mergeCell ref="B362:B365"/>
+    <mergeCell ref="A366:A369"/>
+    <mergeCell ref="B366:B369"/>
+    <mergeCell ref="A370:A373"/>
+    <mergeCell ref="B370:B373"/>
+    <mergeCell ref="A350:A353"/>
+    <mergeCell ref="B350:B353"/>
+    <mergeCell ref="A354:A357"/>
+    <mergeCell ref="B354:B357"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="A338:A341"/>
+    <mergeCell ref="B338:B341"/>
+    <mergeCell ref="A342:A345"/>
+    <mergeCell ref="B342:B345"/>
+    <mergeCell ref="A346:A349"/>
+    <mergeCell ref="B346:B349"/>
+    <mergeCell ref="A326:A329"/>
+    <mergeCell ref="B326:B329"/>
+    <mergeCell ref="A330:A333"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="A334:A337"/>
+    <mergeCell ref="B334:B337"/>
+    <mergeCell ref="A314:A317"/>
+    <mergeCell ref="B314:B317"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="B318:B321"/>
+    <mergeCell ref="A322:A325"/>
+    <mergeCell ref="B322:B325"/>
+    <mergeCell ref="A302:A305"/>
+    <mergeCell ref="B302:B305"/>
+    <mergeCell ref="A306:A309"/>
+    <mergeCell ref="B306:B309"/>
+    <mergeCell ref="A310:A313"/>
+    <mergeCell ref="B310:B313"/>
+    <mergeCell ref="A290:A293"/>
+    <mergeCell ref="B290:B293"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="A298:A301"/>
+    <mergeCell ref="B298:B301"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="B282:B285"/>
+    <mergeCell ref="A286:A289"/>
+    <mergeCell ref="B286:B289"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="A270:A273"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="A274:A277"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="A262:A265"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="A230:A233"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C542:C545"/>
+    <mergeCell ref="E542:E545"/>
+    <mergeCell ref="C534:C537"/>
+    <mergeCell ref="E534:E537"/>
+    <mergeCell ref="C538:C541"/>
+    <mergeCell ref="E538:E541"/>
+    <mergeCell ref="C526:C529"/>
+    <mergeCell ref="E526:E529"/>
+    <mergeCell ref="C530:C533"/>
+    <mergeCell ref="E530:E533"/>
+    <mergeCell ref="E514:E517"/>
+    <mergeCell ref="C518:C521"/>
+    <mergeCell ref="E518:E521"/>
+    <mergeCell ref="C522:C525"/>
+    <mergeCell ref="E522:E525"/>
+    <mergeCell ref="E490:E493"/>
+    <mergeCell ref="C494:C497"/>
+    <mergeCell ref="E494:E497"/>
+    <mergeCell ref="C498:C501"/>
+    <mergeCell ref="E498:E501"/>
+    <mergeCell ref="E506:E509"/>
+    <mergeCell ref="E510:E513"/>
+    <mergeCell ref="E502:E505"/>
+    <mergeCell ref="C510:C513"/>
+    <mergeCell ref="C514:C517"/>
+    <mergeCell ref="C470:C473"/>
+    <mergeCell ref="E470:E473"/>
+    <mergeCell ref="C474:C477"/>
+    <mergeCell ref="E474:E477"/>
+    <mergeCell ref="E482:E485"/>
+    <mergeCell ref="E486:E489"/>
+    <mergeCell ref="E478:E481"/>
+    <mergeCell ref="C502:C505"/>
+    <mergeCell ref="C506:C509"/>
+    <mergeCell ref="C478:C481"/>
+    <mergeCell ref="C482:C485"/>
+    <mergeCell ref="C486:C489"/>
+    <mergeCell ref="C490:C493"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="E346:E349"/>
+    <mergeCell ref="C350:C353"/>
+    <mergeCell ref="E350:E353"/>
+    <mergeCell ref="C354:C357"/>
+    <mergeCell ref="E354:E357"/>
+    <mergeCell ref="E358:E361"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E382:E385"/>
+    <mergeCell ref="E362:E365"/>
+    <mergeCell ref="E366:E369"/>
+    <mergeCell ref="E370:E373"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="E378:E381"/>
+    <mergeCell ref="C382:C385"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="E230:E233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="E234:E237"/>
+    <mergeCell ref="C326:C329"/>
+    <mergeCell ref="E326:E329"/>
+    <mergeCell ref="C330:C333"/>
+    <mergeCell ref="E330:E333"/>
+    <mergeCell ref="E298:E301"/>
+    <mergeCell ref="C302:C305"/>
+    <mergeCell ref="E302:E305"/>
+    <mergeCell ref="C306:C309"/>
+    <mergeCell ref="E306:E309"/>
+    <mergeCell ref="E310:E313"/>
+    <mergeCell ref="C310:C313"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="C318:C321"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="E266:E269"/>
+    <mergeCell ref="E270:E273"/>
+    <mergeCell ref="E274:E277"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="E282:E285"/>
+    <mergeCell ref="E242:E245"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="E210:E213"/>
+    <mergeCell ref="E214:E217"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="C222:C225"/>
     <mergeCell ref="C226:C229"/>
     <mergeCell ref="E154:E157"/>
     <mergeCell ref="C158:C161"/>
@@ -26255,415 +27133,191 @@
     <mergeCell ref="E142:E145"/>
     <mergeCell ref="C190:C193"/>
     <mergeCell ref="C194:C197"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="E210:E213"/>
-    <mergeCell ref="E214:E217"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="E230:E233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="E234:E237"/>
-    <mergeCell ref="C326:C329"/>
-    <mergeCell ref="E326:E329"/>
-    <mergeCell ref="C330:C333"/>
-    <mergeCell ref="E330:E333"/>
-    <mergeCell ref="E298:E301"/>
-    <mergeCell ref="C302:C305"/>
-    <mergeCell ref="E302:E305"/>
-    <mergeCell ref="C306:C309"/>
-    <mergeCell ref="E306:E309"/>
-    <mergeCell ref="E310:E313"/>
-    <mergeCell ref="C310:C313"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="C318:C321"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="E266:E269"/>
-    <mergeCell ref="E270:E273"/>
-    <mergeCell ref="E274:E277"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="E282:E285"/>
-    <mergeCell ref="E242:E245"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="E346:E349"/>
-    <mergeCell ref="C350:C353"/>
-    <mergeCell ref="E350:E353"/>
-    <mergeCell ref="C354:C357"/>
-    <mergeCell ref="E354:E357"/>
-    <mergeCell ref="E358:E361"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E382:E385"/>
-    <mergeCell ref="E362:E365"/>
-    <mergeCell ref="E366:E369"/>
-    <mergeCell ref="E370:E373"/>
-    <mergeCell ref="E374:E377"/>
-    <mergeCell ref="E378:E381"/>
-    <mergeCell ref="C382:C385"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="C498:C501"/>
-    <mergeCell ref="E498:E501"/>
-    <mergeCell ref="E506:E509"/>
-    <mergeCell ref="E510:E513"/>
-    <mergeCell ref="E502:E505"/>
-    <mergeCell ref="C510:C513"/>
-    <mergeCell ref="C514:C517"/>
-    <mergeCell ref="C470:C473"/>
-    <mergeCell ref="E470:E473"/>
-    <mergeCell ref="C474:C477"/>
-    <mergeCell ref="E474:E477"/>
-    <mergeCell ref="E482:E485"/>
-    <mergeCell ref="E486:E489"/>
-    <mergeCell ref="E478:E481"/>
-    <mergeCell ref="C502:C505"/>
-    <mergeCell ref="C506:C509"/>
-    <mergeCell ref="C478:C481"/>
-    <mergeCell ref="C482:C485"/>
-    <mergeCell ref="C486:C489"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C542:C545"/>
-    <mergeCell ref="E542:E545"/>
-    <mergeCell ref="C534:C537"/>
-    <mergeCell ref="E534:E537"/>
-    <mergeCell ref="C538:C541"/>
-    <mergeCell ref="E538:E541"/>
-    <mergeCell ref="C526:C529"/>
-    <mergeCell ref="E526:E529"/>
-    <mergeCell ref="C530:C533"/>
-    <mergeCell ref="E530:E533"/>
-    <mergeCell ref="E514:E517"/>
-    <mergeCell ref="C518:C521"/>
-    <mergeCell ref="E518:E521"/>
-    <mergeCell ref="C522:C525"/>
-    <mergeCell ref="E522:E525"/>
-    <mergeCell ref="E490:E493"/>
-    <mergeCell ref="C494:C497"/>
-    <mergeCell ref="E494:E497"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="A218:A221"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="A230:A233"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A266:A269"/>
-    <mergeCell ref="B266:B269"/>
-    <mergeCell ref="A270:A273"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="A274:A277"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="A254:A257"/>
-    <mergeCell ref="B254:B257"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="A262:A265"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="A290:A293"/>
-    <mergeCell ref="B290:B293"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="A298:A301"/>
-    <mergeCell ref="B298:B301"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="B282:B285"/>
-    <mergeCell ref="A286:A289"/>
-    <mergeCell ref="B286:B289"/>
-    <mergeCell ref="A314:A317"/>
-    <mergeCell ref="B314:B317"/>
-    <mergeCell ref="A318:A321"/>
-    <mergeCell ref="B318:B321"/>
-    <mergeCell ref="A322:A325"/>
-    <mergeCell ref="B322:B325"/>
-    <mergeCell ref="A302:A305"/>
-    <mergeCell ref="B302:B305"/>
-    <mergeCell ref="A306:A309"/>
-    <mergeCell ref="B306:B309"/>
-    <mergeCell ref="A310:A313"/>
-    <mergeCell ref="B310:B313"/>
-    <mergeCell ref="A338:A341"/>
-    <mergeCell ref="B338:B341"/>
-    <mergeCell ref="A342:A345"/>
-    <mergeCell ref="B342:B345"/>
-    <mergeCell ref="A346:A349"/>
-    <mergeCell ref="B346:B349"/>
-    <mergeCell ref="A326:A329"/>
-    <mergeCell ref="B326:B329"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="A334:A337"/>
-    <mergeCell ref="B334:B337"/>
-    <mergeCell ref="A362:A365"/>
-    <mergeCell ref="B362:B365"/>
-    <mergeCell ref="A366:A369"/>
-    <mergeCell ref="B366:B369"/>
-    <mergeCell ref="A370:A373"/>
-    <mergeCell ref="B370:B373"/>
-    <mergeCell ref="A350:A353"/>
-    <mergeCell ref="B350:B353"/>
-    <mergeCell ref="A354:A357"/>
-    <mergeCell ref="B354:B357"/>
-    <mergeCell ref="A358:A361"/>
-    <mergeCell ref="B358:B361"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="B374:B377"/>
-    <mergeCell ref="A378:A381"/>
-    <mergeCell ref="B378:B381"/>
-    <mergeCell ref="A382:A385"/>
-    <mergeCell ref="B382:B385"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="A434:A437"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="B442:B445"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="B430:B433"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="B458:B461"/>
-    <mergeCell ref="A462:A465"/>
-    <mergeCell ref="B462:B465"/>
-    <mergeCell ref="A466:A469"/>
-    <mergeCell ref="B466:B469"/>
-    <mergeCell ref="A446:A449"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="A482:A485"/>
-    <mergeCell ref="B482:B485"/>
-    <mergeCell ref="A486:A489"/>
-    <mergeCell ref="B486:B489"/>
-    <mergeCell ref="A490:A493"/>
-    <mergeCell ref="B490:B493"/>
-    <mergeCell ref="A470:A473"/>
-    <mergeCell ref="B470:B473"/>
-    <mergeCell ref="A474:A477"/>
-    <mergeCell ref="B474:B477"/>
-    <mergeCell ref="A478:A481"/>
-    <mergeCell ref="B478:B481"/>
-    <mergeCell ref="A506:A509"/>
-    <mergeCell ref="B506:B509"/>
-    <mergeCell ref="A510:A513"/>
-    <mergeCell ref="B510:B513"/>
-    <mergeCell ref="A514:A517"/>
-    <mergeCell ref="B514:B517"/>
-    <mergeCell ref="A494:A497"/>
-    <mergeCell ref="B494:B497"/>
-    <mergeCell ref="A498:A501"/>
-    <mergeCell ref="B498:B501"/>
-    <mergeCell ref="A502:A505"/>
-    <mergeCell ref="B502:B505"/>
-    <mergeCell ref="A530:A533"/>
-    <mergeCell ref="B530:B533"/>
-    <mergeCell ref="A534:A537"/>
-    <mergeCell ref="B534:B537"/>
-    <mergeCell ref="A538:A541"/>
-    <mergeCell ref="B538:B541"/>
-    <mergeCell ref="A518:A521"/>
-    <mergeCell ref="B518:B521"/>
-    <mergeCell ref="A522:A525"/>
-    <mergeCell ref="B522:B525"/>
-    <mergeCell ref="A526:A529"/>
-    <mergeCell ref="B526:B529"/>
-    <mergeCell ref="A554:A557"/>
-    <mergeCell ref="B554:B557"/>
-    <mergeCell ref="A558:A561"/>
-    <mergeCell ref="B558:B561"/>
-    <mergeCell ref="A562:A565"/>
-    <mergeCell ref="B562:B565"/>
-    <mergeCell ref="A542:A545"/>
-    <mergeCell ref="B542:B545"/>
-    <mergeCell ref="A546:A549"/>
-    <mergeCell ref="B546:B549"/>
-    <mergeCell ref="A550:A553"/>
-    <mergeCell ref="B550:B553"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="B578:B581"/>
-    <mergeCell ref="A582:A585"/>
-    <mergeCell ref="B582:B585"/>
-    <mergeCell ref="A586:A589"/>
-    <mergeCell ref="B586:B589"/>
-    <mergeCell ref="A566:A569"/>
-    <mergeCell ref="B566:B569"/>
-    <mergeCell ref="A570:A573"/>
-    <mergeCell ref="B570:B573"/>
-    <mergeCell ref="A574:A577"/>
-    <mergeCell ref="B574:B577"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="C586:C589"/>
+    <mergeCell ref="E586:E589"/>
+    <mergeCell ref="C578:C581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="C582:C585"/>
+    <mergeCell ref="E582:E585"/>
+    <mergeCell ref="C570:C573"/>
+    <mergeCell ref="E570:E573"/>
+    <mergeCell ref="C574:C577"/>
+    <mergeCell ref="E574:E577"/>
+    <mergeCell ref="C562:C565"/>
+    <mergeCell ref="E562:E565"/>
+    <mergeCell ref="C566:C569"/>
+    <mergeCell ref="E566:E569"/>
+    <mergeCell ref="C554:C557"/>
+    <mergeCell ref="E554:E557"/>
+    <mergeCell ref="C558:C561"/>
+    <mergeCell ref="E558:E561"/>
+    <mergeCell ref="C546:C549"/>
+    <mergeCell ref="E546:E549"/>
+    <mergeCell ref="C550:C553"/>
+    <mergeCell ref="E550:E553"/>
+    <mergeCell ref="E458:E461"/>
+    <mergeCell ref="E462:E465"/>
+    <mergeCell ref="E466:E469"/>
+    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E446:E449"/>
+    <mergeCell ref="E450:E453"/>
+    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="E338:E341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="E334:E337"/>
+    <mergeCell ref="E314:E317"/>
+    <mergeCell ref="E318:E321"/>
+    <mergeCell ref="E322:E325"/>
+    <mergeCell ref="E290:E293"/>
+    <mergeCell ref="E294:E297"/>
+    <mergeCell ref="E286:E289"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="E238:E241"/>
+    <mergeCell ref="E218:E221"/>
+    <mergeCell ref="E222:E225"/>
+    <mergeCell ref="E226:E229"/>
+    <mergeCell ref="E250:E253"/>
+    <mergeCell ref="E254:E257"/>
+    <mergeCell ref="E258:E261"/>
+    <mergeCell ref="E262:E265"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C458:C461"/>
+    <mergeCell ref="C462:C465"/>
+    <mergeCell ref="C466:C469"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C438:C441"/>
+    <mergeCell ref="C442:C445"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C446:C449"/>
+    <mergeCell ref="C450:C453"/>
+    <mergeCell ref="C422:C425"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C454:C457"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C358:C361"/>
+    <mergeCell ref="C362:C365"/>
+    <mergeCell ref="C366:C369"/>
+    <mergeCell ref="C370:C373"/>
+    <mergeCell ref="C334:C337"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C342:C345"/>
+    <mergeCell ref="C346:C349"/>
+    <mergeCell ref="C374:C377"/>
+    <mergeCell ref="C378:C381"/>
+    <mergeCell ref="C286:C289"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="C298:C301"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="C274:C277"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="C282:C285"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C258:C261"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B338" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
@@ -34569,45 +35223,132 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="H106:H109"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
     <mergeCell ref="E102:E105"/>
     <mergeCell ref="F102:F105"/>
     <mergeCell ref="E42:E45"/>
@@ -34632,132 +35373,45 @@
     <mergeCell ref="F86:F89"/>
     <mergeCell ref="F94:F97"/>
     <mergeCell ref="E54:E57"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="G106:G109"/>
-    <mergeCell ref="H106:H109"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="H98:H101"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C98:C101"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
@@ -41666,13 +42320,40 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="E2:E5"/>
@@ -41681,40 +42362,13 @@
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
@@ -48936,32 +49590,62 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="E50:E53"/>
     <mergeCell ref="F50:F53"/>
     <mergeCell ref="E2:E4"/>
@@ -48978,62 +49662,32 @@
     <mergeCell ref="F34:F37"/>
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
@@ -55866,11 +56520,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H2:H5"/>
@@ -55887,6 +56536,11 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{47819044-E1F3-45E4-893B-E194895BB40E}"/>
@@ -62828,20 +63482,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="H23:H26"/>
@@ -62858,18 +63510,20 @@
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>

--- a/DataCamp-Tracks.xlsx
+++ b/DataCamp-Tracks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144360FA-BCD7-4AF0-9093-1A5D0162FB0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E6619A-0CB4-4BE0-B74C-F1F37BF35162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5059,27 +5059,27 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>1448</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>1136</v>
+        <v>1025</v>
       </c>
       <c r="E6" s="31">
         <v>4</v>
       </c>
       <c r="F6" s="31">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G6" s="31">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="H6" s="31"/>
     </row>
@@ -5088,7 +5088,7 @@
       <c r="B7" s="38"/>
       <c r="C7" s="35"/>
       <c r="D7" s="8" t="s">
-        <v>1137</v>
+        <v>1026</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -5100,247 +5100,247 @@
       <c r="B8" s="38"/>
       <c r="C8" s="35"/>
       <c r="D8" s="8" t="s">
-        <v>1138</v>
+        <v>1027</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="30" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="34" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>1448</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="D11" s="29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E11" s="31">
         <v>4</v>
       </c>
-      <c r="F10" s="31">
-        <v>15</v>
-      </c>
-      <c r="G10" s="31">
-        <v>46</v>
-      </c>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="8" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="F11" s="31">
+        <v>13</v>
+      </c>
+      <c r="G11" s="31">
+        <v>44</v>
+      </c>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="38"/>
       <c r="C12" s="35"/>
       <c r="D12" s="8" t="s">
-        <v>1231</v>
+        <v>1137</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="30" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>616</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="C14" s="34" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="30" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>1448</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="D15" s="29" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E15" s="31">
         <v>4</v>
       </c>
-      <c r="F14" s="31">
-        <v>14</v>
-      </c>
-      <c r="G14" s="31">
-        <v>48</v>
-      </c>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="8" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="F15" s="31">
+        <v>15</v>
+      </c>
+      <c r="G15" s="31">
+        <v>46</v>
+      </c>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="38"/>
       <c r="C16" s="35"/>
       <c r="D16" s="8" t="s">
-        <v>1312</v>
+        <v>1230</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
     </row>
-    <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="30" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="34" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="30" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>1448</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E18" s="31">
+      <c r="D19" s="29" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E19" s="31">
         <v>4</v>
       </c>
-      <c r="F18" s="31">
-        <v>16</v>
-      </c>
-      <c r="G18" s="31">
-        <v>61</v>
-      </c>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="8" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+      <c r="F19" s="31">
+        <v>14</v>
+      </c>
+      <c r="G19" s="31">
+        <v>48</v>
+      </c>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="38"/>
       <c r="C20" s="35"/>
       <c r="D20" s="8" t="s">
-        <v>1142</v>
+        <v>1311</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
     </row>
-    <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="30" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="34" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="30" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>1448</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E22" s="31">
+      <c r="D23" s="29" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E23" s="31">
         <v>4</v>
       </c>
-      <c r="F22" s="31">
-        <v>18</v>
-      </c>
-      <c r="G22" s="31">
-        <v>87</v>
-      </c>
-      <c r="H22" s="31"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
+      <c r="F23" s="31">
+        <v>15</v>
+      </c>
+      <c r="G23" s="31">
+        <v>53</v>
+      </c>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
       <c r="B24" s="38"/>
       <c r="C24" s="35"/>
       <c r="D24" s="8" t="s">
-        <v>1027</v>
+        <v>1226</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -5352,7 +5352,7 @@
       <c r="B25" s="38"/>
       <c r="C25" s="35"/>
       <c r="D25" s="8" t="s">
-        <v>1028</v>
+        <v>1227</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -5364,7 +5364,7 @@
       <c r="B26" s="39"/>
       <c r="C26" s="36"/>
       <c r="D26" s="30" t="s">
-        <v>1029</v>
+        <v>1228</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
@@ -5373,25 +5373,25 @@
     </row>
     <row r="27" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>1448</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>1042</v>
+        <v>1140</v>
       </c>
       <c r="E27" s="31">
         <v>4</v>
       </c>
       <c r="F27" s="31">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G27" s="31">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H27" s="31"/>
     </row>
@@ -5400,7 +5400,7 @@
       <c r="B28" s="38"/>
       <c r="C28" s="35"/>
       <c r="D28" s="8" t="s">
-        <v>1043</v>
+        <v>1141</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -5412,67 +5412,67 @@
       <c r="B29" s="38"/>
       <c r="C29" s="35"/>
       <c r="D29" s="8" t="s">
-        <v>1044</v>
+        <v>1142</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="8" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="36"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="30" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
-        <v>598</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>597</v>
-      </c>
-      <c r="C32" s="34" t="s">
+    <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="36"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="30" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>1448</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E32" s="31">
+      <c r="D31" s="29" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E31" s="31">
         <v>4</v>
       </c>
-      <c r="F32" s="31">
-        <v>16</v>
-      </c>
-      <c r="G32" s="31">
-        <v>60</v>
-      </c>
-      <c r="H32" s="31"/>
+      <c r="F31" s="31">
+        <v>20</v>
+      </c>
+      <c r="G31" s="31">
+        <v>66</v>
+      </c>
+      <c r="H31" s="31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="35"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="38"/>
       <c r="C33" s="35"/>
       <c r="D33" s="8" t="s">
-        <v>1276</v>
+        <v>1044</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
@@ -5484,7 +5484,7 @@
       <c r="B34" s="38"/>
       <c r="C34" s="35"/>
       <c r="D34" s="8" t="s">
-        <v>1277</v>
+        <v>1045</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
@@ -5496,7 +5496,7 @@
       <c r="B35" s="39"/>
       <c r="C35" s="36"/>
       <c r="D35" s="30" t="s">
-        <v>1278</v>
+        <v>1046</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
@@ -5505,25 +5505,25 @@
     </row>
     <row r="36" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
-        <v>8</v>
+        <v>598</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>7</v>
+        <v>597</v>
       </c>
       <c r="C36" s="34" t="s">
         <v>1448</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>1144</v>
+        <v>1275</v>
       </c>
       <c r="E36" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G36" s="31">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H36" s="31"/>
     </row>
@@ -5532,175 +5532,175 @@
       <c r="B37" s="38"/>
       <c r="C37" s="35"/>
       <c r="D37" s="8" t="s">
-        <v>1145</v>
+        <v>1276</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
     </row>
-    <row r="38" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="36"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="30" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="35"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="30" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E40" s="31">
+        <v>3</v>
+      </c>
+      <c r="F40" s="31">
+        <v>12</v>
+      </c>
+      <c r="G40" s="31">
+        <v>46</v>
+      </c>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="35"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="36"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="30" t="s">
         <v>1146</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34" t="s">
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B43" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C43" s="34" t="s">
         <v>1448</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D43" s="29" t="s">
         <v>1147</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E43" s="31">
         <v>4</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F43" s="31">
         <v>12</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G43" s="31">
         <v>46</v>
       </c>
-      <c r="H39" s="31"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="8" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="36"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="30" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
-        <v>588</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E42" s="31">
-        <v>4</v>
-      </c>
-      <c r="F42" s="31">
-        <v>18</v>
-      </c>
-      <c r="G42" s="31">
-        <v>58</v>
-      </c>
-      <c r="H42" s="31"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="8" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
+      <c r="H43" s="31"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="38"/>
       <c r="C44" s="35"/>
       <c r="D44" s="8" t="s">
-        <v>1255</v>
+        <v>1148</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="36"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="30" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="C47" s="34" t="s">
+    <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="36"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="30" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="C46" s="34" t="s">
         <v>1448</v>
       </c>
-      <c r="D47" s="29" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E47" s="31">
-        <v>5</v>
-      </c>
-      <c r="F47" s="31">
-        <v>15</v>
-      </c>
-      <c r="G47" s="31">
-        <v>57</v>
-      </c>
-      <c r="H47" s="31"/>
+      <c r="D46" s="29" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E46" s="31">
+        <v>4</v>
+      </c>
+      <c r="F46" s="31">
+        <v>18</v>
+      </c>
+      <c r="G46" s="31">
+        <v>58</v>
+      </c>
+      <c r="H46" s="31"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="35"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="38"/>
       <c r="C48" s="35"/>
       <c r="D48" s="8" t="s">
-        <v>1272</v>
+        <v>1255</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
@@ -5712,67 +5712,67 @@
       <c r="B49" s="38"/>
       <c r="C49" s="35"/>
       <c r="D49" s="8" t="s">
-        <v>923</v>
+        <v>1256</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="8" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="36"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="30" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34" t="s">
-        <v>610</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>609</v>
-      </c>
-      <c r="C52" s="34" t="s">
+    <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="36"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="30" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="C51" s="34" t="s">
         <v>1448</v>
       </c>
-      <c r="D52" s="29" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E52" s="31">
-        <v>4</v>
-      </c>
-      <c r="F52" s="31">
+      <c r="D51" s="29" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E51" s="31">
+        <v>5</v>
+      </c>
+      <c r="F51" s="31">
         <v>15</v>
       </c>
-      <c r="G52" s="31">
-        <v>51</v>
-      </c>
-      <c r="H52" s="31"/>
+      <c r="G51" s="31">
+        <v>57</v>
+      </c>
+      <c r="H51" s="31"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="35"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="38"/>
       <c r="C53" s="35"/>
       <c r="D53" s="8" t="s">
-        <v>1299</v>
+        <v>923</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
@@ -5784,7 +5784,7 @@
       <c r="B54" s="38"/>
       <c r="C54" s="35"/>
       <c r="D54" s="8" t="s">
-        <v>1300</v>
+        <v>1273</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
@@ -5796,31 +5796,31 @@
       <c r="B55" s="39"/>
       <c r="C55" s="36"/>
       <c r="D55" s="30" t="s">
-        <v>1301</v>
+        <v>1274</v>
       </c>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="C56" s="34" t="s">
         <v>1448</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>1406</v>
+        <v>1298</v>
       </c>
       <c r="E56" s="31">
         <v>4</v>
       </c>
       <c r="F56" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G56" s="31">
         <v>51</v>
@@ -5832,7 +5832,7 @@
       <c r="B57" s="38"/>
       <c r="C57" s="35"/>
       <c r="D57" s="8" t="s">
-        <v>1407</v>
+        <v>1299</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
@@ -5844,7 +5844,7 @@
       <c r="B58" s="38"/>
       <c r="C58" s="35"/>
       <c r="D58" s="8" t="s">
-        <v>1408</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
@@ -5856,34 +5856,34 @@
       <c r="B59" s="39"/>
       <c r="C59" s="36"/>
       <c r="D59" s="30" t="s">
-        <v>1409</v>
+        <v>1301</v>
       </c>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="34" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C60" s="34" t="s">
         <v>1448</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="E60" s="31">
         <v>4</v>
       </c>
       <c r="F60" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G60" s="31">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H60" s="31"/>
     </row>
@@ -5892,7 +5892,7 @@
       <c r="B61" s="38"/>
       <c r="C61" s="35"/>
       <c r="D61" s="8" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
@@ -5904,7 +5904,7 @@
       <c r="B62" s="38"/>
       <c r="C62" s="35"/>
       <c r="D62" s="8" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
@@ -5916,7 +5916,7 @@
       <c r="B63" s="39"/>
       <c r="C63" s="36"/>
       <c r="D63" s="30" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
@@ -5925,25 +5925,25 @@
     </row>
     <row r="64" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
-        <v>104</v>
+        <v>664</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>103</v>
+        <v>663</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>1448</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>1197</v>
+        <v>1410</v>
       </c>
       <c r="E64" s="31">
         <v>4</v>
       </c>
       <c r="F64" s="31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G64" s="31">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H64" s="31"/>
     </row>
@@ -5952,7 +5952,7 @@
       <c r="B65" s="38"/>
       <c r="C65" s="35"/>
       <c r="D65" s="8" t="s">
-        <v>1198</v>
+        <v>1411</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
@@ -5964,7 +5964,7 @@
       <c r="B66" s="38"/>
       <c r="C66" s="35"/>
       <c r="D66" s="8" t="s">
-        <v>1199</v>
+        <v>1412</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="32"/>
@@ -5976,7 +5976,7 @@
       <c r="B67" s="39"/>
       <c r="C67" s="36"/>
       <c r="D67" s="30" t="s">
-        <v>1200</v>
+        <v>1413</v>
       </c>
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
@@ -5985,25 +5985,25 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>923</v>
+        <v>1197</v>
       </c>
       <c r="E68" s="31">
         <v>4</v>
       </c>
       <c r="F68" s="31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G68" s="31">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H68" s="31"/>
     </row>
@@ -6012,7 +6012,7 @@
       <c r="B69" s="38"/>
       <c r="C69" s="35"/>
       <c r="D69" s="8" t="s">
-        <v>924</v>
+        <v>1198</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="32"/>
@@ -6024,7 +6024,7 @@
       <c r="B70" s="38"/>
       <c r="C70" s="35"/>
       <c r="D70" s="8" t="s">
-        <v>925</v>
+        <v>1199</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="32"/>
@@ -6036,7 +6036,7 @@
       <c r="B71" s="39"/>
       <c r="C71" s="36"/>
       <c r="D71" s="30" t="s">
-        <v>926</v>
+        <v>1200</v>
       </c>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
@@ -6045,25 +6045,25 @@
     </row>
     <row r="72" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C72" s="34" t="s">
         <v>1449</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E72" s="31">
         <v>4</v>
       </c>
       <c r="F72" s="31">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G72" s="31">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H72" s="31"/>
     </row>
@@ -6072,7 +6072,7 @@
       <c r="B73" s="38"/>
       <c r="C73" s="35"/>
       <c r="D73" s="8" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
@@ -6084,7 +6084,7 @@
       <c r="B74" s="38"/>
       <c r="C74" s="35"/>
       <c r="D74" s="8" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
@@ -6096,7 +6096,7 @@
       <c r="B75" s="39"/>
       <c r="C75" s="36"/>
       <c r="D75" s="30" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
@@ -6105,25 +6105,25 @@
     </row>
     <row r="76" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="34" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="C76" s="34" t="s">
         <v>1449</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E76" s="31">
         <v>4</v>
       </c>
       <c r="F76" s="31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G76" s="31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H76" s="31"/>
     </row>
@@ -6132,7 +6132,7 @@
       <c r="B77" s="38"/>
       <c r="C77" s="35"/>
       <c r="D77" s="8" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
@@ -6144,7 +6144,7 @@
       <c r="B78" s="38"/>
       <c r="C78" s="35"/>
       <c r="D78" s="8" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
@@ -6156,34 +6156,34 @@
       <c r="B79" s="39"/>
       <c r="C79" s="36"/>
       <c r="D79" s="30" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
       <c r="H79" s="33"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C80" s="34" t="s">
         <v>1449</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E80" s="31">
         <v>4</v>
       </c>
       <c r="F80" s="31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" s="31">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H80" s="31"/>
     </row>
@@ -6192,7 +6192,7 @@
       <c r="B81" s="38"/>
       <c r="C81" s="35"/>
       <c r="D81" s="8" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
@@ -6204,7 +6204,7 @@
       <c r="B82" s="38"/>
       <c r="C82" s="35"/>
       <c r="D82" s="8" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
@@ -6216,34 +6216,34 @@
       <c r="B83" s="39"/>
       <c r="C83" s="36"/>
       <c r="D83" s="30" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E83" s="33"/>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="34" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C84" s="34" t="s">
         <v>1449</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>980</v>
+        <v>935</v>
       </c>
       <c r="E84" s="31">
         <v>4</v>
       </c>
       <c r="F84" s="31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G84" s="31">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H84" s="31"/>
     </row>
@@ -6252,7 +6252,7 @@
       <c r="B85" s="38"/>
       <c r="C85" s="35"/>
       <c r="D85" s="8" t="s">
-        <v>981</v>
+        <v>936</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="32"/>
@@ -6264,7 +6264,7 @@
       <c r="B86" s="38"/>
       <c r="C86" s="35"/>
       <c r="D86" s="8" t="s">
-        <v>982</v>
+        <v>937</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="32"/>
@@ -6276,34 +6276,34 @@
       <c r="B87" s="39"/>
       <c r="C87" s="36"/>
       <c r="D87" s="30" t="s">
-        <v>983</v>
+        <v>938</v>
       </c>
       <c r="E87" s="33"/>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
       <c r="H87" s="33"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="34" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C88" s="34" t="s">
         <v>1449</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>1125</v>
+        <v>980</v>
       </c>
       <c r="E88" s="31">
         <v>4</v>
       </c>
       <c r="F88" s="31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G88" s="31">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H88" s="31"/>
     </row>
@@ -6312,7 +6312,7 @@
       <c r="B89" s="38"/>
       <c r="C89" s="35"/>
       <c r="D89" s="8" t="s">
-        <v>1126</v>
+        <v>981</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="32"/>
@@ -6324,7 +6324,7 @@
       <c r="B90" s="38"/>
       <c r="C90" s="35"/>
       <c r="D90" s="8" t="s">
-        <v>1127</v>
+        <v>982</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
@@ -6336,34 +6336,34 @@
       <c r="B91" s="39"/>
       <c r="C91" s="36"/>
       <c r="D91" s="30" t="s">
-        <v>1128</v>
+        <v>983</v>
       </c>
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="34" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C92" s="34" t="s">
         <v>1449</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>994</v>
+        <v>1125</v>
       </c>
       <c r="E92" s="31">
         <v>4</v>
       </c>
       <c r="F92" s="31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G92" s="31">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H92" s="31"/>
     </row>
@@ -6372,7 +6372,7 @@
       <c r="B93" s="38"/>
       <c r="C93" s="35"/>
       <c r="D93" s="8" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
@@ -6384,7 +6384,7 @@
       <c r="B94" s="38"/>
       <c r="C94" s="35"/>
       <c r="D94" s="8" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="32"/>
@@ -6396,7 +6396,7 @@
       <c r="B95" s="39"/>
       <c r="C95" s="36"/>
       <c r="D95" s="30" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="E95" s="33"/>
       <c r="F95" s="33"/>
@@ -6405,25 +6405,25 @@
     </row>
     <row r="96" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="34" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>1225</v>
+        <v>994</v>
       </c>
       <c r="E96" s="31">
         <v>4</v>
       </c>
       <c r="F96" s="31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G96" s="31">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H96" s="31"/>
     </row>
@@ -6432,7 +6432,7 @@
       <c r="B97" s="38"/>
       <c r="C97" s="35"/>
       <c r="D97" s="8" t="s">
-        <v>1226</v>
+        <v>1129</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="32"/>
@@ -6444,7 +6444,7 @@
       <c r="B98" s="38"/>
       <c r="C98" s="35"/>
       <c r="D98" s="8" t="s">
-        <v>1227</v>
+        <v>1130</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="32"/>
@@ -6456,7 +6456,7 @@
       <c r="B99" s="39"/>
       <c r="C99" s="36"/>
       <c r="D99" s="30" t="s">
-        <v>1228</v>
+        <v>1131</v>
       </c>
       <c r="E99" s="33"/>
       <c r="F99" s="33"/>
@@ -15275,26 +15275,26 @@
     </row>
   </sheetData>
   <mergeCells count="945">
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="G237:G240"/>
-    <mergeCell ref="H237:H240"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:H45"/>
     <mergeCell ref="F96:F99"/>
     <mergeCell ref="G96:G99"/>
     <mergeCell ref="H96:H99"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="G237:G240"/>
+    <mergeCell ref="H237:H240"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
     <mergeCell ref="F539:F542"/>
     <mergeCell ref="G539:G542"/>
     <mergeCell ref="H539:H542"/>
@@ -15327,8 +15327,8 @@
     <mergeCell ref="F250:F253"/>
     <mergeCell ref="G250:G253"/>
     <mergeCell ref="H250:H253"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="H46:H50"/>
     <mergeCell ref="F241:F244"/>
     <mergeCell ref="G241:G244"/>
     <mergeCell ref="H241:H244"/>
@@ -15344,12 +15344,12 @@
     <mergeCell ref="F169:F172"/>
     <mergeCell ref="G169:G172"/>
     <mergeCell ref="H169:H172"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:H67"/>
     <mergeCell ref="F60:F63"/>
     <mergeCell ref="G60:G63"/>
     <mergeCell ref="H60:H63"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
     <mergeCell ref="F237:F240"/>
     <mergeCell ref="G515:G518"/>
     <mergeCell ref="H515:H518"/>
@@ -15364,9 +15364,9 @@
     <mergeCell ref="H378:H381"/>
     <mergeCell ref="G112:G115"/>
     <mergeCell ref="H112:H115"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
     <mergeCell ref="F195:F198"/>
     <mergeCell ref="G195:G198"/>
     <mergeCell ref="H195:H198"/>
@@ -15385,13 +15385,13 @@
     <mergeCell ref="F124:F127"/>
     <mergeCell ref="G124:G127"/>
     <mergeCell ref="H124:H127"/>
-    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F46:F50"/>
     <mergeCell ref="F503:F506"/>
     <mergeCell ref="G503:G506"/>
     <mergeCell ref="H503:H506"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
     <mergeCell ref="F100:F103"/>
     <mergeCell ref="G100:G103"/>
     <mergeCell ref="H100:H103"/>
@@ -15418,15 +15418,15 @@
     <mergeCell ref="F104:F107"/>
     <mergeCell ref="G104:G107"/>
     <mergeCell ref="H104:H107"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
     <mergeCell ref="F362:F365"/>
     <mergeCell ref="G362:G365"/>
     <mergeCell ref="H362:H365"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="H51:H55"/>
     <mergeCell ref="F120:F123"/>
     <mergeCell ref="G120:G123"/>
     <mergeCell ref="H120:H123"/>
@@ -15520,24 +15520,24 @@
     <mergeCell ref="F156:F160"/>
     <mergeCell ref="G156:G160"/>
     <mergeCell ref="H156:H160"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="H68:H71"/>
     <mergeCell ref="G466:G469"/>
     <mergeCell ref="H466:H469"/>
     <mergeCell ref="F186:F189"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
     <mergeCell ref="F410:F413"/>
     <mergeCell ref="G410:G413"/>
     <mergeCell ref="H410:H413"/>
     <mergeCell ref="F229:F232"/>
     <mergeCell ref="G229:G232"/>
     <mergeCell ref="H229:H232"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="H92:H95"/>
     <mergeCell ref="F438:F441"/>
     <mergeCell ref="G438:G441"/>
     <mergeCell ref="H438:H441"/>
@@ -15580,9 +15580,9 @@
     <mergeCell ref="F266:F269"/>
     <mergeCell ref="G266:G269"/>
     <mergeCell ref="H266:H269"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="H6:H10"/>
     <mergeCell ref="F475:F478"/>
     <mergeCell ref="G475:G478"/>
     <mergeCell ref="H475:H478"/>
@@ -15598,9 +15598,9 @@
     <mergeCell ref="F161:F164"/>
     <mergeCell ref="G161:G164"/>
     <mergeCell ref="H161:H164"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="H31:H35"/>
     <mergeCell ref="F470:F474"/>
     <mergeCell ref="G470:G474"/>
     <mergeCell ref="H470:H474"/>
@@ -15610,9 +15610,9 @@
     <mergeCell ref="H418:H421"/>
     <mergeCell ref="G186:G189"/>
     <mergeCell ref="H186:H189"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
     <mergeCell ref="F217:F220"/>
     <mergeCell ref="G217:G220"/>
     <mergeCell ref="H217:H220"/>
@@ -15628,7 +15628,7 @@
     <mergeCell ref="G221:G224"/>
     <mergeCell ref="H221:H224"/>
     <mergeCell ref="F523:F526"/>
-    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A31:A35"/>
     <mergeCell ref="A426:A429"/>
     <mergeCell ref="A430:A433"/>
     <mergeCell ref="A434:A437"/>
@@ -15637,17 +15637,17 @@
     <mergeCell ref="A531:A534"/>
     <mergeCell ref="A410:A413"/>
     <mergeCell ref="A229:A232"/>
-    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
     <mergeCell ref="A519:A522"/>
     <mergeCell ref="A418:A421"/>
     <mergeCell ref="A535:A538"/>
     <mergeCell ref="A181:A185"/>
     <mergeCell ref="A333:A336"/>
     <mergeCell ref="A422:A425"/>
-    <mergeCell ref="A68:A71"/>
     <mergeCell ref="A72:A75"/>
     <mergeCell ref="A76:A79"/>
     <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A470:A474"/>
     <mergeCell ref="A438:A441"/>
@@ -15657,12 +15657,12 @@
     <mergeCell ref="A199:A201"/>
     <mergeCell ref="A161:A164"/>
     <mergeCell ref="A390:A393"/>
-    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A96:A99"/>
     <mergeCell ref="A402:A405"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A221:A224"/>
     <mergeCell ref="A406:A409"/>
     <mergeCell ref="A523:A526"/>
@@ -15672,11 +15672,11 @@
     <mergeCell ref="A527:A530"/>
     <mergeCell ref="A466:A469"/>
     <mergeCell ref="A186:A189"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A241:A244"/>
     <mergeCell ref="A245:A249"/>
     <mergeCell ref="A250:A253"/>
-    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A71"/>
     <mergeCell ref="A308:A311"/>
     <mergeCell ref="A282:A285"/>
     <mergeCell ref="A286:A290"/>
@@ -15691,37 +15691,37 @@
     <mergeCell ref="A274:A277"/>
     <mergeCell ref="A278:A281"/>
     <mergeCell ref="A202:A204"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A88:A91"/>
     <mergeCell ref="A217:A220"/>
     <mergeCell ref="A262:A265"/>
     <mergeCell ref="A266:A269"/>
-    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A59"/>
     <mergeCell ref="A100:A103"/>
     <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="A370:A373"/>
     <mergeCell ref="A374:A377"/>
     <mergeCell ref="A378:A381"/>
     <mergeCell ref="A329:A332"/>
     <mergeCell ref="B462:B465"/>
     <mergeCell ref="B422:B425"/>
-    <mergeCell ref="B68:B71"/>
     <mergeCell ref="B72:B75"/>
     <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B80:B83"/>
     <mergeCell ref="A366:A369"/>
     <mergeCell ref="A291:A294"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A36:A39"/>
     <mergeCell ref="A345:A348"/>
     <mergeCell ref="B345:B348"/>
     <mergeCell ref="A316:A320"/>
     <mergeCell ref="A321:A324"/>
     <mergeCell ref="A258:A261"/>
     <mergeCell ref="A165:A168"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A46:A50"/>
     <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
     <mergeCell ref="B286:B290"/>
     <mergeCell ref="A362:A365"/>
     <mergeCell ref="A108:A111"/>
@@ -15738,7 +15738,7 @@
     <mergeCell ref="B221:B224"/>
     <mergeCell ref="B523:B526"/>
     <mergeCell ref="A237:A240"/>
-    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A312:A315"/>
     <mergeCell ref="A116:A119"/>
     <mergeCell ref="A120:A123"/>
@@ -15779,8 +15779,8 @@
     <mergeCell ref="B527:B530"/>
     <mergeCell ref="B466:B469"/>
     <mergeCell ref="B186:B189"/>
+    <mergeCell ref="B88:B91"/>
     <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B80:B83"/>
     <mergeCell ref="B519:B522"/>
     <mergeCell ref="B458:B461"/>
     <mergeCell ref="B418:B421"/>
@@ -15798,9 +15798,9 @@
     <mergeCell ref="B390:B393"/>
     <mergeCell ref="B262:B265"/>
     <mergeCell ref="B266:B269"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B40:B42"/>
     <mergeCell ref="B190:B194"/>
     <mergeCell ref="B426:B429"/>
     <mergeCell ref="B430:B433"/>
@@ -15811,12 +15811,12 @@
     <mergeCell ref="B410:B413"/>
     <mergeCell ref="B229:B232"/>
     <mergeCell ref="B507:B510"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="B241:B244"/>
     <mergeCell ref="B245:B249"/>
-    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B71"/>
     <mergeCell ref="B308:B311"/>
     <mergeCell ref="B282:B285"/>
     <mergeCell ref="B213:B216"/>
@@ -15829,21 +15829,21 @@
     <mergeCell ref="B270:B273"/>
     <mergeCell ref="B438:B441"/>
     <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B43:B45"/>
     <mergeCell ref="B394:B397"/>
     <mergeCell ref="B398:B401"/>
     <mergeCell ref="B295:B298"/>
-    <mergeCell ref="B88:B91"/>
     <mergeCell ref="B92:B95"/>
+    <mergeCell ref="B96:B99"/>
     <mergeCell ref="B402:B405"/>
-    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
     <mergeCell ref="B100:B103"/>
     <mergeCell ref="B104:B107"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B362:B365"/>
     <mergeCell ref="B357:B361"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B316:B320"/>
     <mergeCell ref="B321:B324"/>
     <mergeCell ref="B144:B147"/>
@@ -15853,26 +15853,26 @@
     <mergeCell ref="B250:B253"/>
     <mergeCell ref="B258:B261"/>
     <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B46:B50"/>
     <mergeCell ref="B195:B198"/>
     <mergeCell ref="B353:B356"/>
     <mergeCell ref="B233:B236"/>
     <mergeCell ref="B237:B240"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="B64:B67"/>
     <mergeCell ref="B547:B550"/>
     <mergeCell ref="B382:B385"/>
     <mergeCell ref="B291:B294"/>
     <mergeCell ref="B515:B518"/>
     <mergeCell ref="B370:B373"/>
     <mergeCell ref="B374:B377"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="E76:E79"/>
     <mergeCell ref="F76:F79"/>
     <mergeCell ref="E80:E83"/>
     <mergeCell ref="F80:F83"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
     <mergeCell ref="E519:E522"/>
     <mergeCell ref="F519:F522"/>
     <mergeCell ref="B378:B381"/>
@@ -15891,7 +15891,7 @@
     <mergeCell ref="B173:B176"/>
     <mergeCell ref="B177:B180"/>
     <mergeCell ref="B136:B139"/>
-    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B63"/>
     <mergeCell ref="B539:B542"/>
     <mergeCell ref="B543:B546"/>
     <mergeCell ref="B132:B135"/>
@@ -15934,11 +15934,11 @@
     <mergeCell ref="E406:E409"/>
     <mergeCell ref="E523:E526"/>
     <mergeCell ref="E495:E498"/>
-    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="E88:E91"/>
     <mergeCell ref="E217:E220"/>
     <mergeCell ref="E221:E224"/>
     <mergeCell ref="E266:E269"/>
-    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E31:E35"/>
     <mergeCell ref="E426:E429"/>
     <mergeCell ref="E527:E530"/>
     <mergeCell ref="E466:E469"/>
@@ -15947,7 +15947,7 @@
     <mergeCell ref="E333:E336"/>
     <mergeCell ref="E209:E212"/>
     <mergeCell ref="E458:E461"/>
-    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="E72:E75"/>
     <mergeCell ref="E434:E437"/>
     <mergeCell ref="E479:E482"/>
     <mergeCell ref="E337:E340"/>
@@ -15960,12 +15960,12 @@
     <mergeCell ref="E205:E208"/>
     <mergeCell ref="E213:E216"/>
     <mergeCell ref="E270:E273"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E27:E30"/>
     <mergeCell ref="E229:E232"/>
-    <mergeCell ref="E88:E91"/>
     <mergeCell ref="E92:E95"/>
+    <mergeCell ref="E96:E99"/>
     <mergeCell ref="E152:E155"/>
     <mergeCell ref="E156:E160"/>
     <mergeCell ref="E295:E298"/>
@@ -15981,7 +15981,7 @@
     <mergeCell ref="E199:E201"/>
     <mergeCell ref="E161:E164"/>
     <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="E241:E244"/>
     <mergeCell ref="E321:E324"/>
     <mergeCell ref="E503:E506"/>
@@ -15992,12 +15992,12 @@
     <mergeCell ref="E286:E290"/>
     <mergeCell ref="E312:E315"/>
     <mergeCell ref="E190:E194"/>
-    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="E68:E71"/>
     <mergeCell ref="E165:E168"/>
     <mergeCell ref="E470:E474"/>
     <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E45"/>
     <mergeCell ref="E499:E502"/>
     <mergeCell ref="E402:E405"/>
     <mergeCell ref="E442:E445"/>
@@ -16005,29 +16005,29 @@
     <mergeCell ref="E483:E486"/>
     <mergeCell ref="E487:E490"/>
     <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E19:E22"/>
     <mergeCell ref="E362:E365"/>
     <mergeCell ref="E108:E111"/>
-    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E56:E59"/>
     <mergeCell ref="E100:E103"/>
     <mergeCell ref="E104:E107"/>
     <mergeCell ref="E370:E373"/>
     <mergeCell ref="E374:E377"/>
-    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="E46:E50"/>
     <mergeCell ref="E195:E198"/>
     <mergeCell ref="E245:E249"/>
     <mergeCell ref="E250:E253"/>
     <mergeCell ref="E258:E261"/>
-    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="E23:E26"/>
     <mergeCell ref="E325:E328"/>
     <mergeCell ref="E329:E332"/>
     <mergeCell ref="E116:E119"/>
-    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E39"/>
     <mergeCell ref="E345:E348"/>
     <mergeCell ref="E316:E320"/>
     <mergeCell ref="E353:E356"/>
     <mergeCell ref="E357:E361"/>
-    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E51:E55"/>
     <mergeCell ref="E112:E115"/>
     <mergeCell ref="E349:E352"/>
     <mergeCell ref="E299:E303"/>
@@ -16038,10 +16038,10 @@
     <mergeCell ref="C479:C482"/>
     <mergeCell ref="C483:C486"/>
     <mergeCell ref="C487:C490"/>
-    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C31:C35"/>
     <mergeCell ref="C426:C429"/>
-    <mergeCell ref="E56:E59"/>
     <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E64:E67"/>
     <mergeCell ref="E386:E389"/>
     <mergeCell ref="E173:E176"/>
     <mergeCell ref="E177:E180"/>
@@ -16049,10 +16049,10 @@
     <mergeCell ref="E169:E172"/>
     <mergeCell ref="C462:C465"/>
     <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C68:C71"/>
     <mergeCell ref="C72:C75"/>
     <mergeCell ref="C76:C79"/>
     <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
     <mergeCell ref="E144:E147"/>
     <mergeCell ref="E254:E257"/>
     <mergeCell ref="E446:E449"/>
@@ -16069,7 +16069,7 @@
     <mergeCell ref="C527:C530"/>
     <mergeCell ref="C466:C469"/>
     <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C88:C91"/>
     <mergeCell ref="C217:C220"/>
     <mergeCell ref="C519:C522"/>
     <mergeCell ref="C458:C461"/>
@@ -16088,27 +16088,27 @@
     <mergeCell ref="C390:C393"/>
     <mergeCell ref="C262:C265"/>
     <mergeCell ref="C266:C269"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
     <mergeCell ref="C434:C437"/>
     <mergeCell ref="C341:C344"/>
     <mergeCell ref="C337:C340"/>
     <mergeCell ref="C531:C534"/>
     <mergeCell ref="C410:C413"/>
     <mergeCell ref="C229:C232"/>
-    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C95"/>
     <mergeCell ref="C507:C510"/>
     <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C15:C18"/>
     <mergeCell ref="C241:C244"/>
     <mergeCell ref="C245:C249"/>
     <mergeCell ref="C250:C253"/>
     <mergeCell ref="C503:C506"/>
     <mergeCell ref="C270:C273"/>
-    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
     <mergeCell ref="C308:C311"/>
     <mergeCell ref="C282:C285"/>
     <mergeCell ref="C286:C290"/>
@@ -16126,13 +16126,13 @@
     <mergeCell ref="C394:C397"/>
     <mergeCell ref="C398:C401"/>
     <mergeCell ref="C295:C298"/>
-    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
     <mergeCell ref="C100:C103"/>
     <mergeCell ref="C104:C107"/>
-    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C36:C39"/>
     <mergeCell ref="C345:C348"/>
     <mergeCell ref="C316:C320"/>
     <mergeCell ref="C321:C324"/>
@@ -16141,14 +16141,14 @@
     <mergeCell ref="C190:C194"/>
     <mergeCell ref="C258:C261"/>
     <mergeCell ref="C165:C168"/>
-    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C46:C50"/>
     <mergeCell ref="C195:C198"/>
     <mergeCell ref="C353:C356"/>
     <mergeCell ref="C357:C361"/>
     <mergeCell ref="C237:C240"/>
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="C96:C99"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
     <mergeCell ref="C291:C294"/>
     <mergeCell ref="C515:C518"/>
     <mergeCell ref="C370:C373"/>
@@ -16174,7 +16174,7 @@
     <mergeCell ref="C177:C180"/>
     <mergeCell ref="C543:C546"/>
     <mergeCell ref="C144:C147"/>
-    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
     <mergeCell ref="C547:C550"/>
     <mergeCell ref="C382:C385"/>
     <mergeCell ref="C511:C514"/>
@@ -16182,7 +16182,7 @@
     <mergeCell ref="C446:C449"/>
     <mergeCell ref="G462:G465"/>
     <mergeCell ref="G422:G425"/>
-    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="G72:G75"/>
     <mergeCell ref="G458:G461"/>
     <mergeCell ref="G418:G421"/>
     <mergeCell ref="G535:G538"/>
@@ -16197,13 +16197,13 @@
     <mergeCell ref="E539:E542"/>
     <mergeCell ref="C491:C494"/>
     <mergeCell ref="H535:H538"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="G72:G75"/>
     <mergeCell ref="H72:H75"/>
     <mergeCell ref="G76:G79"/>
     <mergeCell ref="H76:H79"/>
     <mergeCell ref="G80:G83"/>
     <mergeCell ref="H80:H83"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
     <mergeCell ref="G519:G522"/>
     <mergeCell ref="H519:H522"/>
     <mergeCell ref="G333:G336"/>
@@ -16223,9 +16223,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B36" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B43" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="B199" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="B202" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="B209" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
@@ -16233,8 +16233,8 @@
     <hyperlink ref="B213" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="B217" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="B225" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B72" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B76" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="B312" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="B308" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="B304" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
@@ -16242,7 +16242,7 @@
     <hyperlink ref="B229" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="B190" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="B286" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B80" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B84" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="B337" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="B152" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="B156" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
@@ -16260,25 +16260,25 @@
     <hyperlink ref="B221" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="B233" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="B394" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B18" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B27" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="B507" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="B519" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="B527" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="B523" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="B531" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="B535" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B96" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B23" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="B237" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B10" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B15" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
     <hyperlink ref="B295" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B64" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B6" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B76" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B88" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B11" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B80" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B92" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="B341" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B84" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B92" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B88" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B96" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="B186" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="B426" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="B438" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
@@ -16308,20 +16308,20 @@
     <hyperlink ref="B250" r:id="rId84" xr:uid="{CA605F07-19EE-4EAB-9B95-4EACFFF490A4}"/>
     <hyperlink ref="B258" r:id="rId85" xr:uid="{D3886004-460D-4284-AE74-FFEBAEFFBF19}"/>
     <hyperlink ref="B165" r:id="rId86" xr:uid="{9F77286F-6EC0-48F1-8246-2ABB3AFECF4F}"/>
-    <hyperlink ref="B42" r:id="rId87" xr:uid="{8509003E-9089-4A16-881E-2CA893AEB870}"/>
+    <hyperlink ref="B46" r:id="rId87" xr:uid="{8509003E-9089-4A16-881E-2CA893AEB870}"/>
     <hyperlink ref="B195" r:id="rId88" xr:uid="{96C51C1D-8A7B-4CF2-88CD-C22E94DF9645}"/>
     <hyperlink ref="B353" r:id="rId89" xr:uid="{7AD6C6C5-2FDC-404B-8A81-2A22D7FA2AFF}"/>
     <hyperlink ref="B357" r:id="rId90" xr:uid="{A0D6817E-9B7D-42B1-99C5-DEA2C291B912}"/>
-    <hyperlink ref="B47" r:id="rId91" xr:uid="{5FEB8EC7-E6D0-4F3D-8EA3-43E20F3D77BA}"/>
-    <hyperlink ref="B32" r:id="rId92" xr:uid="{E56684F8-9496-4DFC-A788-890673DBC84A}"/>
+    <hyperlink ref="B51" r:id="rId91" xr:uid="{5FEB8EC7-E6D0-4F3D-8EA3-43E20F3D77BA}"/>
+    <hyperlink ref="B36" r:id="rId92" xr:uid="{E56684F8-9496-4DFC-A788-890673DBC84A}"/>
     <hyperlink ref="B316" r:id="rId93" xr:uid="{6F9D1818-1B86-426D-B814-CCDBFABBFEF6}"/>
     <hyperlink ref="B321" r:id="rId94" xr:uid="{DE2F3986-14F8-4DF8-8F8A-1F7B05E74677}"/>
     <hyperlink ref="B270" r:id="rId95" xr:uid="{8D13A2B2-EFC5-4E93-A08F-6946F6846EFD}"/>
     <hyperlink ref="B503" r:id="rId96" xr:uid="{D5C6CE4B-5BCC-4C77-A44C-BAEAF1FF0D7C}"/>
-    <hyperlink ref="B52" r:id="rId97" xr:uid="{50D0C593-4444-4F99-8455-2BAD2352D35E}"/>
+    <hyperlink ref="B56" r:id="rId97" xr:uid="{50D0C593-4444-4F99-8455-2BAD2352D35E}"/>
     <hyperlink ref="B100" r:id="rId98" xr:uid="{A15FCB6A-AEC9-4B91-A032-0A1069CB0396}"/>
     <hyperlink ref="B104" r:id="rId99" xr:uid="{1BDF2532-0DF5-41DE-A330-AF333DB67EF8}"/>
-    <hyperlink ref="B14" r:id="rId100" xr:uid="{C950A5D3-5E85-44A5-AA1E-A0CC185E7F05}"/>
+    <hyperlink ref="B19" r:id="rId100" xr:uid="{C950A5D3-5E85-44A5-AA1E-A0CC185E7F05}"/>
     <hyperlink ref="B362" r:id="rId101" xr:uid="{6DB97736-F490-4F99-BE9C-E313D760A6B0}"/>
     <hyperlink ref="B108" r:id="rId102" xr:uid="{40B7F5E5-159C-4964-BAED-DBD2B27008CC}"/>
     <hyperlink ref="B112" r:id="rId103" xr:uid="{BD704D7B-4541-4AE4-B065-A3990AC2D12D}"/>
@@ -16346,8 +16346,8 @@
     <hyperlink ref="B173" r:id="rId122" xr:uid="{79C86A53-37B4-4C14-B488-3420C0C47255}"/>
     <hyperlink ref="B177" r:id="rId123" xr:uid="{F37FA534-F8AD-4BA1-8677-C0D3F997DE33}"/>
     <hyperlink ref="B136" r:id="rId124" xr:uid="{F5612779-F999-42F7-8B48-5AA5EFCC0E05}"/>
-    <hyperlink ref="B56" r:id="rId125" xr:uid="{8D0E2CCC-D514-4906-B752-A1E01077ABDA}"/>
-    <hyperlink ref="B60" r:id="rId126" xr:uid="{8ECD43FC-0857-469E-8FBA-DB7C60459BAB}"/>
+    <hyperlink ref="B60" r:id="rId125" xr:uid="{8D0E2CCC-D514-4906-B752-A1E01077ABDA}"/>
+    <hyperlink ref="B64" r:id="rId126" xr:uid="{8ECD43FC-0857-469E-8FBA-DB7C60459BAB}"/>
     <hyperlink ref="B547" r:id="rId127" xr:uid="{DBBE4738-E842-41D1-8644-A8ACE07B37EE}"/>
     <hyperlink ref="B382" r:id="rId128" xr:uid="{735EDB11-9188-4EA1-8A75-139413E0FF82}"/>
     <hyperlink ref="B511" r:id="rId129" xr:uid="{00F24F66-F411-4801-A125-9B85B12F1FDE}"/>

--- a/DataCamp-Tracks.xlsx
+++ b/DataCamp-Tracks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E6619A-0CB4-4BE0-B74C-F1F37BF35162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97A8F15-100B-49E6-A63E-F89261456099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6045,25 +6045,25 @@
     </row>
     <row r="72" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
-        <v>108</v>
+        <v>636</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>107</v>
+        <v>635</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>923</v>
+        <v>1353</v>
       </c>
       <c r="E72" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F72" s="31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G72" s="31">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H72" s="31"/>
     </row>
@@ -6072,7 +6072,7 @@
       <c r="B73" s="38"/>
       <c r="C73" s="35"/>
       <c r="D73" s="8" t="s">
-        <v>924</v>
+        <v>1354</v>
       </c>
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
@@ -6084,7 +6084,7 @@
       <c r="B74" s="38"/>
       <c r="C74" s="35"/>
       <c r="D74" s="8" t="s">
-        <v>925</v>
+        <v>1355</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
@@ -6096,34 +6096,34 @@
       <c r="B75" s="39"/>
       <c r="C75" s="36"/>
       <c r="D75" s="30" t="s">
-        <v>926</v>
+        <v>1356</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
       <c r="H75" s="33"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="34" t="s">
-        <v>26</v>
+        <v>680</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>25</v>
+        <v>679</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>927</v>
+        <v>1438</v>
       </c>
       <c r="E76" s="31">
         <v>4</v>
       </c>
       <c r="F76" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G76" s="31">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H76" s="31"/>
     </row>
@@ -6132,7 +6132,7 @@
       <c r="B77" s="38"/>
       <c r="C77" s="35"/>
       <c r="D77" s="8" t="s">
-        <v>928</v>
+        <v>1439</v>
       </c>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
@@ -6144,7 +6144,7 @@
       <c r="B78" s="38"/>
       <c r="C78" s="35"/>
       <c r="D78" s="8" t="s">
-        <v>929</v>
+        <v>1440</v>
       </c>
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
@@ -6156,34 +6156,34 @@
       <c r="B79" s="39"/>
       <c r="C79" s="36"/>
       <c r="D79" s="30" t="s">
-        <v>930</v>
+        <v>1441</v>
       </c>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
       <c r="H79" s="33"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>931</v>
+        <v>1174</v>
       </c>
       <c r="E80" s="31">
         <v>4</v>
       </c>
       <c r="F80" s="31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G80" s="31">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H80" s="31"/>
     </row>
@@ -6192,7 +6192,7 @@
       <c r="B81" s="38"/>
       <c r="C81" s="35"/>
       <c r="D81" s="8" t="s">
-        <v>932</v>
+        <v>1175</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
@@ -6204,7 +6204,7 @@
       <c r="B82" s="38"/>
       <c r="C82" s="35"/>
       <c r="D82" s="8" t="s">
-        <v>933</v>
+        <v>1176</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
@@ -6216,34 +6216,34 @@
       <c r="B83" s="39"/>
       <c r="C83" s="36"/>
       <c r="D83" s="30" t="s">
-        <v>934</v>
+        <v>1177</v>
       </c>
       <c r="E83" s="33"/>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>935</v>
+        <v>1178</v>
       </c>
       <c r="E84" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" s="31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G84" s="31">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H84" s="31"/>
     </row>
@@ -6252,7 +6252,7 @@
       <c r="B85" s="38"/>
       <c r="C85" s="35"/>
       <c r="D85" s="8" t="s">
-        <v>936</v>
+        <v>1179</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="32"/>
@@ -6264,7 +6264,7 @@
       <c r="B86" s="38"/>
       <c r="C86" s="35"/>
       <c r="D86" s="8" t="s">
-        <v>937</v>
+        <v>1180</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="32"/>
@@ -6276,7 +6276,7 @@
       <c r="B87" s="39"/>
       <c r="C87" s="36"/>
       <c r="D87" s="30" t="s">
-        <v>938</v>
+        <v>1181</v>
       </c>
       <c r="E87" s="33"/>
       <c r="F87" s="33"/>
@@ -6285,34 +6285,34 @@
     </row>
     <row r="88" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="34" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>980</v>
+        <v>1182</v>
       </c>
       <c r="E88" s="31">
         <v>4</v>
       </c>
       <c r="F88" s="31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G88" s="31">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H88" s="31"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="35"/>
       <c r="B89" s="38"/>
       <c r="C89" s="35"/>
       <c r="D89" s="8" t="s">
-        <v>981</v>
+        <v>1183</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="32"/>
@@ -6324,1027 +6324,1027 @@
       <c r="B90" s="38"/>
       <c r="C90" s="35"/>
       <c r="D90" s="8" t="s">
-        <v>982</v>
+        <v>1184</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
       <c r="G90" s="32"/>
       <c r="H90" s="32"/>
     </row>
-    <row r="91" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="36"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="30" t="s">
-        <v>983</v>
-      </c>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D92" s="29" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E92" s="31">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="35"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+    </row>
+    <row r="92" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="36"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="30" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E93" s="31">
         <v>4</v>
       </c>
-      <c r="F92" s="31">
-        <v>15</v>
-      </c>
-      <c r="G92" s="31">
-        <v>52</v>
-      </c>
-      <c r="H92" s="31"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="35"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
+      <c r="F93" s="31">
+        <v>16</v>
+      </c>
+      <c r="G93" s="31">
+        <v>59</v>
+      </c>
+      <c r="H93" s="31"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="35"/>
       <c r="B94" s="38"/>
       <c r="C94" s="35"/>
       <c r="D94" s="8" t="s">
-        <v>1127</v>
+        <v>1066</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="32"/>
       <c r="G94" s="32"/>
       <c r="H94" s="32"/>
     </row>
-    <row r="95" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="36"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="30" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-    </row>
-    <row r="96" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B96" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D96" s="29" t="s">
-        <v>994</v>
-      </c>
-      <c r="E96" s="31">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="35"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+    </row>
+    <row r="96" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="36"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E97" s="31">
         <v>4</v>
       </c>
-      <c r="F96" s="31">
-        <v>13</v>
-      </c>
-      <c r="G96" s="31">
-        <v>45</v>
-      </c>
-      <c r="H96" s="31"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="35"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
+      <c r="F97" s="31">
+        <v>14</v>
+      </c>
+      <c r="G97" s="31">
+        <v>50</v>
+      </c>
+      <c r="H97" s="31"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="35"/>
       <c r="B98" s="38"/>
       <c r="C98" s="35"/>
       <c r="D98" s="8" t="s">
-        <v>1130</v>
+        <v>1251</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
       <c r="H98" s="32"/>
     </row>
-    <row r="99" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="36"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="30" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-    </row>
-    <row r="100" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="34" t="s">
-        <v>612</v>
-      </c>
-      <c r="B100" s="37" t="s">
-        <v>611</v>
-      </c>
-      <c r="C100" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D100" s="29" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E100" s="31">
-        <v>4</v>
-      </c>
-      <c r="F100" s="31">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="35"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+    </row>
+    <row r="100" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="36"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="30" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E101" s="31">
+        <v>5</v>
+      </c>
+      <c r="F101" s="31">
         <v>16</v>
       </c>
-      <c r="G100" s="31">
-        <v>53</v>
-      </c>
-      <c r="H100" s="31"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="35"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="8" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
+      <c r="G101" s="31">
+        <v>59</v>
+      </c>
+      <c r="H101" s="31"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="35"/>
       <c r="B102" s="38"/>
       <c r="C102" s="35"/>
       <c r="D102" s="8" t="s">
-        <v>1304</v>
+        <v>1389</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="32"/>
       <c r="G102" s="32"/>
       <c r="H102" s="32"/>
     </row>
-    <row r="103" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="36"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="30" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-    </row>
-    <row r="104" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="34" t="s">
-        <v>614</v>
-      </c>
-      <c r="B104" s="37" t="s">
-        <v>613</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D104" s="29" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E104" s="31">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="35"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+    </row>
+    <row r="104" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="36"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="30" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+    </row>
+    <row r="105" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>655</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E105" s="31">
         <v>4</v>
       </c>
-      <c r="F104" s="31">
-        <v>16</v>
-      </c>
-      <c r="G104" s="31">
-        <v>48</v>
-      </c>
-      <c r="H104" s="31"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="35"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="8" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
+      <c r="F105" s="31">
+        <v>15</v>
+      </c>
+      <c r="G105" s="31">
+        <v>46</v>
+      </c>
+      <c r="H105" s="31"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="35"/>
       <c r="B106" s="38"/>
       <c r="C106" s="35"/>
       <c r="D106" s="8" t="s">
-        <v>1308</v>
+        <v>994</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
       <c r="H106" s="32"/>
     </row>
-    <row r="107" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="36"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="30" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="B108" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="C108" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D108" s="29" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E108" s="31">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="35"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+    </row>
+    <row r="108" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="36"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="30" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>657</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E109" s="31">
         <v>4</v>
       </c>
-      <c r="F108" s="31">
-        <v>15</v>
-      </c>
-      <c r="G108" s="31">
-        <v>56</v>
-      </c>
-      <c r="H108" s="31"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="35"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="8" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E109" s="32"/>
-      <c r="F109" s="32"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="32"/>
+      <c r="F109" s="31">
+        <v>16</v>
+      </c>
+      <c r="G109" s="31">
+        <v>53</v>
+      </c>
+      <c r="H109" s="31"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="35"/>
       <c r="B110" s="38"/>
       <c r="C110" s="35"/>
       <c r="D110" s="8" t="s">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="32"/>
       <c r="G110" s="32"/>
       <c r="H110" s="32"/>
     </row>
-    <row r="111" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="36"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="30" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-    </row>
-    <row r="112" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="34" t="s">
-        <v>622</v>
-      </c>
-      <c r="B112" s="37" t="s">
-        <v>621</v>
-      </c>
-      <c r="C112" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E112" s="31">
-        <v>5</v>
-      </c>
-      <c r="F112" s="31">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="35"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+    </row>
+    <row r="112" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="36"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="30" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="E113" s="31">
+        <v>4</v>
+      </c>
+      <c r="F113" s="31">
         <v>16</v>
       </c>
-      <c r="G112" s="31">
-        <v>57</v>
-      </c>
-      <c r="H112" s="31"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="35"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="8" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
+      <c r="G113" s="31">
+        <v>61</v>
+      </c>
+      <c r="H113" s="31"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="35"/>
       <c r="B114" s="38"/>
       <c r="C114" s="35"/>
       <c r="D114" s="8" t="s">
-        <v>1324</v>
+        <v>956</v>
       </c>
       <c r="E114" s="32"/>
       <c r="F114" s="32"/>
       <c r="G114" s="32"/>
       <c r="H114" s="32"/>
     </row>
-    <row r="115" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="36"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B116" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C116" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E116" s="31">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="35"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="35"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+    </row>
+    <row r="117" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="36"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="30" t="s">
+        <v>959</v>
+      </c>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+    </row>
+    <row r="118" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>976</v>
+      </c>
+      <c r="E118" s="31">
         <v>4</v>
       </c>
-      <c r="F116" s="31">
-        <v>13</v>
-      </c>
-      <c r="G116" s="31">
-        <v>44</v>
-      </c>
-      <c r="H116" s="31"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="35"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="8" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="35"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="8" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-    </row>
-    <row r="119" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="36"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="30" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-    </row>
-    <row r="120" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="34" t="s">
-        <v>632</v>
-      </c>
-      <c r="B120" s="37" t="s">
-        <v>631</v>
-      </c>
-      <c r="C120" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E120" s="31">
+      <c r="F118" s="31">
+        <v>16</v>
+      </c>
+      <c r="G118" s="31">
+        <v>49</v>
+      </c>
+      <c r="H118" s="31"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="35"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="35"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+    </row>
+    <row r="121" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="36"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="30" t="s">
+        <v>979</v>
+      </c>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E122" s="31">
         <v>4</v>
       </c>
-      <c r="F120" s="31">
-        <v>16</v>
-      </c>
-      <c r="G120" s="31">
-        <v>53</v>
-      </c>
-      <c r="H120" s="31"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="35"/>
-      <c r="B121" s="38"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="8" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="32"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="35"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="8" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-    </row>
-    <row r="123" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="36"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="30" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-    </row>
-    <row r="124" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="34" t="s">
-        <v>634</v>
-      </c>
-      <c r="B124" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="C124" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D124" s="29" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E124" s="31">
-        <v>4</v>
-      </c>
-      <c r="F124" s="31">
-        <v>16</v>
-      </c>
-      <c r="G124" s="31">
-        <v>47</v>
-      </c>
-      <c r="H124" s="31"/>
+      <c r="F122" s="31">
+        <v>17</v>
+      </c>
+      <c r="G122" s="31">
+        <v>59</v>
+      </c>
+      <c r="H122" s="31"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="35"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="35"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="32"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="35"/>
       <c r="B125" s="38"/>
       <c r="C125" s="35"/>
       <c r="D125" s="8" t="s">
-        <v>1350</v>
+        <v>1196</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="32"/>
       <c r="G125" s="32"/>
       <c r="H125" s="32"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="35"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="8" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="32"/>
-    </row>
-    <row r="127" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="36"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="30" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="34" t="s">
-        <v>638</v>
-      </c>
-      <c r="B128" s="37" t="s">
-        <v>637</v>
-      </c>
-      <c r="C128" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D128" s="29" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E128" s="31">
+    <row r="126" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="36"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
+    </row>
+    <row r="127" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E127" s="31">
         <v>4</v>
       </c>
-      <c r="F128" s="31">
+      <c r="F127" s="31">
         <v>13</v>
       </c>
-      <c r="G128" s="31">
-        <v>48</v>
-      </c>
-      <c r="H128" s="31"/>
+      <c r="G127" s="31">
+        <v>46</v>
+      </c>
+      <c r="H127" s="31"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="35"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="35"/>
       <c r="B129" s="38"/>
       <c r="C129" s="35"/>
       <c r="D129" s="8" t="s">
-        <v>1358</v>
+        <v>1260</v>
       </c>
       <c r="E129" s="32"/>
       <c r="F129" s="32"/>
       <c r="G129" s="32"/>
       <c r="H129" s="32"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="35"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="8" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="32"/>
-    </row>
-    <row r="131" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="36"/>
-      <c r="B131" s="39"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="30" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33"/>
-    </row>
-    <row r="132" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="34" t="s">
-        <v>650</v>
-      </c>
-      <c r="B132" s="37" t="s">
-        <v>649</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D132" s="29" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E132" s="31">
+    <row r="130" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="36"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="30" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
+    </row>
+    <row r="131" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="34" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E131" s="31">
+        <v>3</v>
+      </c>
+      <c r="F131" s="31">
+        <v>15</v>
+      </c>
+      <c r="G131" s="31">
+        <v>54</v>
+      </c>
+      <c r="H131" s="31"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="35"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+    </row>
+    <row r="133" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="36"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="30" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+    </row>
+    <row r="134" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E134" s="31">
+        <v>2</v>
+      </c>
+      <c r="F134" s="31">
+        <v>7</v>
+      </c>
+      <c r="G134" s="31">
+        <v>29</v>
+      </c>
+      <c r="H134" s="31"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="35"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+    </row>
+    <row r="136" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="36"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="30" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+    </row>
+    <row r="137" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E137" s="31">
         <v>4</v>
       </c>
-      <c r="F132" s="31">
+      <c r="F137" s="31">
         <v>16</v>
       </c>
-      <c r="G132" s="31">
-        <v>52</v>
-      </c>
-      <c r="H132" s="31"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="35"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="8" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
-      <c r="G133" s="32"/>
-      <c r="H133" s="32"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="35"/>
-      <c r="B134" s="38"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="8" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="32"/>
-    </row>
-    <row r="135" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="36"/>
-      <c r="B135" s="39"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="30" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
-    </row>
-    <row r="136" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="34" t="s">
-        <v>660</v>
-      </c>
-      <c r="B136" s="37" t="s">
-        <v>659</v>
-      </c>
-      <c r="C136" s="34" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D136" s="29" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E136" s="31">
-        <v>4</v>
-      </c>
-      <c r="F136" s="31">
-        <v>16</v>
-      </c>
-      <c r="G136" s="31">
-        <v>52</v>
-      </c>
-      <c r="H136" s="31"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="35"/>
-      <c r="B137" s="38"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="8" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32"/>
+      <c r="G137" s="31">
+        <v>53</v>
+      </c>
+      <c r="H137" s="31"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="35"/>
       <c r="B138" s="38"/>
       <c r="C138" s="35"/>
       <c r="D138" s="8" t="s">
-        <v>996</v>
+        <v>1188</v>
       </c>
       <c r="E138" s="32"/>
       <c r="F138" s="32"/>
       <c r="G138" s="32"/>
       <c r="H138" s="32"/>
     </row>
-    <row r="139" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="36"/>
-      <c r="B139" s="39"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="30" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
-    </row>
-    <row r="140" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="34" t="s">
-        <v>636</v>
-      </c>
-      <c r="B140" s="37" t="s">
-        <v>635</v>
-      </c>
-      <c r="C140" s="34" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D140" s="29" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E140" s="31">
-        <v>5</v>
-      </c>
-      <c r="F140" s="31">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="35"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+    </row>
+    <row r="140" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="36"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="30" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G140" s="31">
-        <v>61</v>
-      </c>
-      <c r="H140" s="31"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="35"/>
-      <c r="B141" s="38"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="8" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="32"/>
+      <c r="B141" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="34" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>964</v>
+      </c>
+      <c r="E141" s="31">
+        <v>4</v>
+      </c>
+      <c r="F141" s="31">
+        <v>13</v>
+      </c>
+      <c r="G141" s="31">
+        <v>44</v>
+      </c>
+      <c r="H141" s="31"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="35"/>
       <c r="B142" s="38"/>
       <c r="C142" s="35"/>
       <c r="D142" s="8" t="s">
-        <v>1355</v>
+        <v>965</v>
       </c>
       <c r="E142" s="32"/>
       <c r="F142" s="32"/>
       <c r="G142" s="32"/>
       <c r="H142" s="32"/>
     </row>
-    <row r="143" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="36"/>
-      <c r="B143" s="39"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="30" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
-    </row>
-    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="34" t="s">
-        <v>680</v>
-      </c>
-      <c r="B144" s="37" t="s">
-        <v>679</v>
-      </c>
-      <c r="C144" s="34" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D144" s="29" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E144" s="31">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="35"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+    </row>
+    <row r="144" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="36"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="30" t="s">
+        <v>967</v>
+      </c>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="33"/>
+    </row>
+    <row r="145" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="34" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D145" s="29" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E145" s="31">
         <v>4</v>
       </c>
-      <c r="F144" s="31">
-        <v>15</v>
-      </c>
-      <c r="G144" s="31">
-        <v>54</v>
-      </c>
-      <c r="H144" s="31"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="35"/>
-      <c r="B145" s="38"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="8" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="32"/>
+      <c r="F145" s="31">
+        <v>17</v>
+      </c>
+      <c r="G145" s="31">
+        <v>56</v>
+      </c>
+      <c r="H145" s="31"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="35"/>
       <c r="B146" s="38"/>
       <c r="C146" s="35"/>
       <c r="D146" s="8" t="s">
-        <v>1440</v>
+        <v>1214</v>
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="32"/>
       <c r="G146" s="32"/>
       <c r="H146" s="32"/>
     </row>
-    <row r="147" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="36"/>
-      <c r="B147" s="39"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="30" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="33"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="34" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="35"/>
+      <c r="B147" s="38"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+    </row>
+    <row r="148" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="36"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="30" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="E149" s="31">
+        <v>4</v>
+      </c>
+      <c r="F149" s="31">
+        <v>15</v>
+      </c>
+      <c r="G149" s="31">
         <v>56</v>
       </c>
-      <c r="B148" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C148" s="34" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D148" s="29" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E148" s="31">
-        <v>4</v>
-      </c>
-      <c r="F148" s="31">
-        <v>16</v>
-      </c>
-      <c r="G148" s="31">
-        <v>58</v>
-      </c>
-      <c r="H148" s="31"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="35"/>
-      <c r="B149" s="38"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="8" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
-      <c r="G149" s="32"/>
-      <c r="H149" s="32"/>
+      <c r="H149" s="31"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="35"/>
       <c r="B150" s="38"/>
       <c r="C150" s="35"/>
       <c r="D150" s="8" t="s">
-        <v>1176</v>
+        <v>848</v>
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="32"/>
       <c r="G150" s="32"/>
       <c r="H150" s="32"/>
     </row>
-    <row r="151" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="36"/>
-      <c r="B151" s="39"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="30" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
-    </row>
-    <row r="152" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B152" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C152" s="34" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D152" s="29" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E152" s="31">
-        <v>3</v>
-      </c>
-      <c r="F152" s="31">
-        <v>18</v>
-      </c>
-      <c r="G152" s="31">
-        <v>61</v>
-      </c>
-      <c r="H152" s="31"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="35"/>
-      <c r="B153" s="38"/>
-      <c r="C153" s="35"/>
-      <c r="D153" s="8" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
-      <c r="G153" s="32"/>
-      <c r="H153" s="32"/>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="35"/>
+      <c r="B151" s="38"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
+    </row>
+    <row r="152" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="36"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="30" t="s">
+        <v>985</v>
+      </c>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="33"/>
+    </row>
+    <row r="153" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B153" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C153" s="34" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>986</v>
+      </c>
+      <c r="E153" s="31">
+        <v>4</v>
+      </c>
+      <c r="F153" s="31">
+        <v>14</v>
+      </c>
+      <c r="G153" s="31">
+        <v>46</v>
+      </c>
+      <c r="H153" s="31"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="35"/>
       <c r="B154" s="38"/>
       <c r="C154" s="35"/>
       <c r="D154" s="8" t="s">
-        <v>1180</v>
+        <v>987</v>
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="32"/>
       <c r="G154" s="32"/>
       <c r="H154" s="32"/>
     </row>
-    <row r="155" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="36"/>
-      <c r="B155" s="39"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="30" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-    </row>
-    <row r="156" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="34" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="35"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
+      <c r="G155" s="32"/>
+      <c r="H155" s="32"/>
+    </row>
+    <row r="156" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="36"/>
+      <c r="B156" s="39"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="30" t="s">
+        <v>989</v>
+      </c>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="33"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="34" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D157" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E157" s="31">
+        <v>4</v>
+      </c>
+      <c r="F157" s="31">
+        <v>15</v>
+      </c>
+      <c r="G157" s="31">
         <v>52</v>
       </c>
-      <c r="B156" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C156" s="34" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D156" s="29" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E156" s="31">
-        <v>4</v>
-      </c>
-      <c r="F156" s="31">
-        <v>15</v>
-      </c>
-      <c r="G156" s="31">
-        <v>66</v>
-      </c>
-      <c r="H156" s="31"/>
-    </row>
-    <row r="157" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="35"/>
-      <c r="B157" s="38"/>
-      <c r="C157" s="35"/>
-      <c r="D157" s="8" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E157" s="32"/>
-      <c r="F157" s="32"/>
-      <c r="G157" s="32"/>
-      <c r="H157" s="32"/>
+      <c r="H157" s="31"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="35"/>
       <c r="B158" s="38"/>
       <c r="C158" s="35"/>
       <c r="D158" s="8" t="s">
-        <v>1184</v>
+        <v>1098</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="32"/>
@@ -7356,7 +7356,7 @@
       <c r="B159" s="38"/>
       <c r="C159" s="35"/>
       <c r="D159" s="8" t="s">
-        <v>1185</v>
+        <v>1099</v>
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="32"/>
@@ -7368,7 +7368,7 @@
       <c r="B160" s="39"/>
       <c r="C160" s="36"/>
       <c r="D160" s="30" t="s">
-        <v>1186</v>
+        <v>1100</v>
       </c>
       <c r="E160" s="33"/>
       <c r="F160" s="33"/>
@@ -7377,16 +7377,16 @@
     </row>
     <row r="161" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="34" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B161" s="37" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C161" s="34" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D161" s="29" t="s">
-        <v>1065</v>
+        <v>1121</v>
       </c>
       <c r="E161" s="31">
         <v>4</v>
@@ -7395,7 +7395,7 @@
         <v>16</v>
       </c>
       <c r="G161" s="31">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H161" s="31"/>
     </row>
@@ -7404,7 +7404,7 @@
       <c r="B162" s="38"/>
       <c r="C162" s="35"/>
       <c r="D162" s="8" t="s">
-        <v>1066</v>
+        <v>1122</v>
       </c>
       <c r="E162" s="32"/>
       <c r="F162" s="32"/>
@@ -7416,7 +7416,7 @@
       <c r="B163" s="38"/>
       <c r="C163" s="35"/>
       <c r="D163" s="8" t="s">
-        <v>1067</v>
+        <v>1123</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="32"/>
@@ -7428,7 +7428,7 @@
       <c r="B164" s="39"/>
       <c r="C164" s="36"/>
       <c r="D164" s="30" t="s">
-        <v>1068</v>
+        <v>1124</v>
       </c>
       <c r="E164" s="33"/>
       <c r="F164" s="33"/>
@@ -7437,16 +7437,16 @@
     </row>
     <row r="165" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="34" t="s">
-        <v>586</v>
+        <v>78</v>
       </c>
       <c r="B165" s="37" t="s">
-        <v>585</v>
+        <v>77</v>
       </c>
       <c r="C165" s="34" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D165" s="29" t="s">
-        <v>1250</v>
+        <v>1217</v>
       </c>
       <c r="E165" s="31">
         <v>4</v>
@@ -7455,7 +7455,7 @@
         <v>14</v>
       </c>
       <c r="G165" s="31">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H165" s="31"/>
     </row>
@@ -7464,7 +7464,7 @@
       <c r="B166" s="38"/>
       <c r="C166" s="35"/>
       <c r="D166" s="8" t="s">
-        <v>1251</v>
+        <v>1218</v>
       </c>
       <c r="E166" s="32"/>
       <c r="F166" s="32"/>
@@ -7476,7 +7476,7 @@
       <c r="B167" s="38"/>
       <c r="C167" s="35"/>
       <c r="D167" s="8" t="s">
-        <v>1252</v>
+        <v>1219</v>
       </c>
       <c r="E167" s="32"/>
       <c r="F167" s="32"/>
@@ -7488,34 +7488,34 @@
       <c r="B168" s="39"/>
       <c r="C168" s="36"/>
       <c r="D168" s="30" t="s">
-        <v>1241</v>
+        <v>1220</v>
       </c>
       <c r="E168" s="33"/>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
       <c r="H168" s="33"/>
     </row>
-    <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="34" t="s">
-        <v>652</v>
+        <v>98</v>
       </c>
       <c r="B169" s="37" t="s">
-        <v>651</v>
+        <v>97</v>
       </c>
       <c r="C169" s="34" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D169" s="29" t="s">
-        <v>1388</v>
+        <v>1221</v>
       </c>
       <c r="E169" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F169" s="31">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G169" s="31">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H169" s="31"/>
     </row>
@@ -7524,7 +7524,7 @@
       <c r="B170" s="38"/>
       <c r="C170" s="35"/>
       <c r="D170" s="8" t="s">
-        <v>1389</v>
+        <v>1222</v>
       </c>
       <c r="E170" s="32"/>
       <c r="F170" s="32"/>
@@ -7536,7 +7536,7 @@
       <c r="B171" s="38"/>
       <c r="C171" s="35"/>
       <c r="D171" s="8" t="s">
-        <v>1390</v>
+        <v>1223</v>
       </c>
       <c r="E171" s="32"/>
       <c r="F171" s="32"/>
@@ -7548,7 +7548,7 @@
       <c r="B172" s="39"/>
       <c r="C172" s="36"/>
       <c r="D172" s="30" t="s">
-        <v>1391</v>
+        <v>1224</v>
       </c>
       <c r="E172" s="33"/>
       <c r="F172" s="33"/>
@@ -7557,16 +7557,16 @@
     </row>
     <row r="173" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="34" t="s">
-        <v>656</v>
+        <v>578</v>
       </c>
       <c r="B173" s="37" t="s">
-        <v>655</v>
+        <v>577</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D173" s="29" t="s">
-        <v>1396</v>
+        <v>1233</v>
       </c>
       <c r="E173" s="31">
         <v>4</v>
@@ -7575,7 +7575,7 @@
         <v>15</v>
       </c>
       <c r="G173" s="31">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H173" s="31"/>
     </row>
@@ -7584,7 +7584,7 @@
       <c r="B174" s="38"/>
       <c r="C174" s="35"/>
       <c r="D174" s="8" t="s">
-        <v>994</v>
+        <v>1234</v>
       </c>
       <c r="E174" s="32"/>
       <c r="F174" s="32"/>
@@ -7596,7 +7596,7 @@
       <c r="B175" s="38"/>
       <c r="C175" s="35"/>
       <c r="D175" s="8" t="s">
-        <v>1397</v>
+        <v>1235</v>
       </c>
       <c r="E175" s="32"/>
       <c r="F175" s="32"/>
@@ -7608,7 +7608,7 @@
       <c r="B176" s="39"/>
       <c r="C176" s="36"/>
       <c r="D176" s="30" t="s">
-        <v>1398</v>
+        <v>1236</v>
       </c>
       <c r="E176" s="33"/>
       <c r="F176" s="33"/>
@@ -7617,34 +7617,34 @@
     </row>
     <row r="177" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="34" t="s">
-        <v>658</v>
+        <v>580</v>
       </c>
       <c r="B177" s="37" t="s">
-        <v>657</v>
+        <v>579</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D177" s="29" t="s">
-        <v>1399</v>
+        <v>1237</v>
       </c>
       <c r="E177" s="31">
         <v>4</v>
       </c>
       <c r="F177" s="31">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G177" s="31">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="H177" s="31"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="35"/>
       <c r="B178" s="38"/>
       <c r="C178" s="35"/>
       <c r="D178" s="8" t="s">
-        <v>1400</v>
+        <v>1238</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="32"/>
@@ -7656,67 +7656,67 @@
       <c r="B179" s="38"/>
       <c r="C179" s="35"/>
       <c r="D179" s="8" t="s">
-        <v>1401</v>
+        <v>1239</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="32"/>
       <c r="G179" s="32"/>
       <c r="H179" s="32"/>
     </row>
-    <row r="180" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="36"/>
-      <c r="B180" s="39"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="30" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33"/>
-      <c r="G180" s="33"/>
-      <c r="H180" s="33"/>
-    </row>
-    <row r="181" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B181" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C181" s="34" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D181" s="29" t="s">
-        <v>955</v>
-      </c>
-      <c r="E181" s="31">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="35"/>
+      <c r="B180" s="38"/>
+      <c r="C180" s="35"/>
+      <c r="D180" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E180" s="32"/>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32"/>
+    </row>
+    <row r="181" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="36"/>
+      <c r="B181" s="39"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="30" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33"/>
+      <c r="G181" s="33"/>
+      <c r="H181" s="33"/>
+    </row>
+    <row r="182" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="B182" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="C182" s="34" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E182" s="31">
         <v>4</v>
       </c>
-      <c r="F181" s="31">
-        <v>16</v>
-      </c>
-      <c r="G181" s="31">
-        <v>61</v>
-      </c>
-      <c r="H181" s="31"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="35"/>
-      <c r="B182" s="38"/>
-      <c r="C182" s="35"/>
-      <c r="D182" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="E182" s="32"/>
-      <c r="F182" s="32"/>
-      <c r="G182" s="32"/>
-      <c r="H182" s="32"/>
+      <c r="F182" s="31">
+        <v>14</v>
+      </c>
+      <c r="G182" s="31">
+        <v>56</v>
+      </c>
+      <c r="H182" s="31"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="35"/>
       <c r="B183" s="38"/>
       <c r="C183" s="35"/>
       <c r="D183" s="8" t="s">
-        <v>957</v>
+        <v>1243</v>
       </c>
       <c r="E183" s="32"/>
       <c r="F183" s="32"/>
@@ -7728,7 +7728,7 @@
       <c r="B184" s="38"/>
       <c r="C184" s="35"/>
       <c r="D184" s="8" t="s">
-        <v>958</v>
+        <v>1244</v>
       </c>
       <c r="E184" s="32"/>
       <c r="F184" s="32"/>
@@ -7740,7 +7740,7 @@
       <c r="B185" s="39"/>
       <c r="C185" s="36"/>
       <c r="D185" s="30" t="s">
-        <v>959</v>
+        <v>1245</v>
       </c>
       <c r="E185" s="33"/>
       <c r="F185" s="33"/>
@@ -7749,25 +7749,25 @@
     </row>
     <row r="186" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="34" t="s">
-        <v>120</v>
+        <v>672</v>
       </c>
       <c r="B186" s="37" t="s">
-        <v>119</v>
+        <v>671</v>
       </c>
       <c r="C186" s="34" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D186" s="29" t="s">
-        <v>976</v>
+        <v>1423</v>
       </c>
       <c r="E186" s="31">
         <v>4</v>
       </c>
       <c r="F186" s="31">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G186" s="31">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H186" s="31"/>
     </row>
@@ -7776,7 +7776,7 @@
       <c r="B187" s="38"/>
       <c r="C187" s="35"/>
       <c r="D187" s="8" t="s">
-        <v>977</v>
+        <v>1424</v>
       </c>
       <c r="E187" s="32"/>
       <c r="F187" s="32"/>
@@ -7788,7 +7788,7 @@
       <c r="B188" s="38"/>
       <c r="C188" s="35"/>
       <c r="D188" s="8" t="s">
-        <v>978</v>
+        <v>1425</v>
       </c>
       <c r="E188" s="32"/>
       <c r="F188" s="32"/>
@@ -7800,34 +7800,34 @@
       <c r="B189" s="39"/>
       <c r="C189" s="36"/>
       <c r="D189" s="30" t="s">
-        <v>979</v>
+        <v>1426</v>
       </c>
       <c r="E189" s="33"/>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
       <c r="H189" s="33"/>
     </row>
-    <row r="190" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="34" t="s">
-        <v>42</v>
+        <v>584</v>
       </c>
       <c r="B190" s="37" t="s">
-        <v>41</v>
+        <v>583</v>
       </c>
       <c r="C190" s="34" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D190" s="29" t="s">
-        <v>1193</v>
+        <v>1246</v>
       </c>
       <c r="E190" s="31">
         <v>4</v>
       </c>
       <c r="F190" s="31">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G190" s="31">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H190" s="31"/>
     </row>
@@ -7836,7 +7836,7 @@
       <c r="B191" s="38"/>
       <c r="C191" s="35"/>
       <c r="D191" s="8" t="s">
-        <v>1194</v>
+        <v>1247</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="32"/>
@@ -7848,127 +7848,127 @@
       <c r="B192" s="38"/>
       <c r="C192" s="35"/>
       <c r="D192" s="8" t="s">
-        <v>1195</v>
+        <v>1248</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="32"/>
       <c r="G192" s="32"/>
       <c r="H192" s="32"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="35"/>
-      <c r="B193" s="38"/>
-      <c r="C193" s="35"/>
-      <c r="D193" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
-      <c r="G193" s="32"/>
-      <c r="H193" s="32"/>
-    </row>
-    <row r="194" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="36"/>
-      <c r="B194" s="39"/>
-      <c r="C194" s="36"/>
-      <c r="D194" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="E194" s="33"/>
-      <c r="F194" s="33"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-    </row>
-    <row r="195" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="34" t="s">
-        <v>590</v>
-      </c>
-      <c r="B195" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="C195" s="34" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D195" s="29" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E195" s="31">
+    <row r="193" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="36"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="36"/>
+      <c r="D193" s="30" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E193" s="33"/>
+      <c r="F193" s="33"/>
+      <c r="G193" s="33"/>
+      <c r="H193" s="33"/>
+    </row>
+    <row r="194" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B194" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C194" s="34" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E194" s="31">
         <v>4</v>
       </c>
-      <c r="F195" s="31">
-        <v>13</v>
-      </c>
-      <c r="G195" s="31">
-        <v>46</v>
-      </c>
-      <c r="H195" s="31"/>
+      <c r="F194" s="31">
+        <v>14</v>
+      </c>
+      <c r="G194" s="31">
+        <v>44</v>
+      </c>
+      <c r="H194" s="31"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="35"/>
+      <c r="B195" s="38"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E195" s="32"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="32"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="35"/>
       <c r="B196" s="38"/>
       <c r="C196" s="35"/>
       <c r="D196" s="8" t="s">
-        <v>1259</v>
+        <v>1036</v>
       </c>
       <c r="E196" s="32"/>
       <c r="F196" s="32"/>
       <c r="G196" s="32"/>
       <c r="H196" s="32"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="35"/>
-      <c r="B197" s="38"/>
-      <c r="C197" s="35"/>
-      <c r="D197" s="8" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E197" s="32"/>
-      <c r="F197" s="32"/>
-      <c r="G197" s="32"/>
-      <c r="H197" s="32"/>
-    </row>
-    <row r="198" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="36"/>
-      <c r="B198" s="39"/>
-      <c r="C198" s="36"/>
-      <c r="D198" s="30" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E198" s="33"/>
-      <c r="F198" s="33"/>
-      <c r="G198" s="33"/>
-      <c r="H198" s="33"/>
-    </row>
-    <row r="199" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B199" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C199" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D199" s="29" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E199" s="31">
-        <v>3</v>
-      </c>
-      <c r="F199" s="31">
-        <v>15</v>
-      </c>
-      <c r="G199" s="31">
-        <v>54</v>
-      </c>
-      <c r="H199" s="31"/>
+    <row r="197" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="36"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E197" s="33"/>
+      <c r="F197" s="33"/>
+      <c r="G197" s="33"/>
+      <c r="H197" s="33"/>
+    </row>
+    <row r="198" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B198" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C198" s="34" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E198" s="31">
+        <v>4</v>
+      </c>
+      <c r="F198" s="31">
+        <v>14</v>
+      </c>
+      <c r="G198" s="31">
+        <v>44</v>
+      </c>
+      <c r="H198" s="31"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="35"/>
+      <c r="B199" s="38"/>
+      <c r="C199" s="35"/>
+      <c r="D199" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="32"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="35"/>
       <c r="B200" s="38"/>
       <c r="C200" s="35"/>
       <c r="D200" s="8" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
       <c r="E200" s="32"/>
       <c r="F200" s="32"/>
@@ -7980,7 +7980,7 @@
       <c r="B201" s="39"/>
       <c r="C201" s="36"/>
       <c r="D201" s="30" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
       <c r="E201" s="33"/>
       <c r="F201" s="33"/>
@@ -7989,25 +7989,25 @@
     </row>
     <row r="202" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="B202" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="C202" s="34" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E202" s="31">
+        <v>4</v>
+      </c>
+      <c r="F202" s="31">
         <v>13</v>
       </c>
-      <c r="B202" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C202" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D202" s="29" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E202" s="31">
-        <v>2</v>
-      </c>
-      <c r="F202" s="31">
-        <v>7</v>
-      </c>
       <c r="G202" s="31">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H202" s="31"/>
     </row>
@@ -8016,1279 +8016,1279 @@
       <c r="B203" s="38"/>
       <c r="C203" s="35"/>
       <c r="D203" s="8" t="s">
-        <v>1023</v>
+        <v>1041</v>
       </c>
       <c r="E203" s="32"/>
       <c r="F203" s="32"/>
       <c r="G203" s="32"/>
       <c r="H203" s="32"/>
     </row>
-    <row r="204" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="36"/>
-      <c r="B204" s="39"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="30" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33"/>
-      <c r="G204" s="33"/>
-      <c r="H204" s="33"/>
-    </row>
-    <row r="205" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B205" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C205" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D205" s="29" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E205" s="31">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="35"/>
+      <c r="B204" s="38"/>
+      <c r="C204" s="35"/>
+      <c r="D204" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E204" s="32"/>
+      <c r="F204" s="32"/>
+      <c r="G204" s="32"/>
+      <c r="H204" s="32"/>
+    </row>
+    <row r="205" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="36"/>
+      <c r="B205" s="39"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="30" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E205" s="33"/>
+      <c r="F205" s="33"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="33"/>
+    </row>
+    <row r="206" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B206" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C206" s="34" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E206" s="31">
         <v>4</v>
       </c>
-      <c r="F205" s="31">
-        <v>16</v>
-      </c>
-      <c r="G205" s="31">
-        <v>53</v>
-      </c>
-      <c r="H205" s="31"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="35"/>
-      <c r="B206" s="38"/>
-      <c r="C206" s="35"/>
-      <c r="D206" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E206" s="32"/>
-      <c r="F206" s="32"/>
-      <c r="G206" s="32"/>
-      <c r="H206" s="32"/>
+      <c r="F206" s="31">
+        <v>15</v>
+      </c>
+      <c r="G206" s="31">
+        <v>54</v>
+      </c>
+      <c r="H206" s="31"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="35"/>
       <c r="B207" s="38"/>
       <c r="C207" s="35"/>
       <c r="D207" s="8" t="s">
-        <v>1189</v>
+        <v>1015</v>
       </c>
       <c r="E207" s="32"/>
       <c r="F207" s="32"/>
       <c r="G207" s="32"/>
       <c r="H207" s="32"/>
     </row>
-    <row r="208" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="36"/>
-      <c r="B208" s="39"/>
-      <c r="C208" s="36"/>
-      <c r="D208" s="30" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="33"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B209" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C209" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D209" s="29" t="s">
-        <v>964</v>
-      </c>
-      <c r="E209" s="31">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="35"/>
+      <c r="B208" s="38"/>
+      <c r="C208" s="35"/>
+      <c r="D208" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32"/>
+      <c r="H208" s="32"/>
+    </row>
+    <row r="209" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="36"/>
+      <c r="B209" s="39"/>
+      <c r="C209" s="36"/>
+      <c r="D209" s="30" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E209" s="33"/>
+      <c r="F209" s="33"/>
+      <c r="G209" s="33"/>
+      <c r="H209" s="33"/>
+    </row>
+    <row r="210" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B210" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C210" s="34" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E210" s="31">
         <v>4</v>
       </c>
-      <c r="F209" s="31">
-        <v>13</v>
-      </c>
-      <c r="G209" s="31">
-        <v>44</v>
-      </c>
-      <c r="H209" s="31"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="35"/>
-      <c r="B210" s="38"/>
-      <c r="C210" s="35"/>
-      <c r="D210" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E210" s="32"/>
-      <c r="F210" s="32"/>
-      <c r="G210" s="32"/>
-      <c r="H210" s="32"/>
+      <c r="F210" s="31">
+        <v>17</v>
+      </c>
+      <c r="G210" s="31">
+        <v>63</v>
+      </c>
+      <c r="H210" s="31"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="35"/>
       <c r="B211" s="38"/>
       <c r="C211" s="35"/>
       <c r="D211" s="8" t="s">
-        <v>966</v>
+        <v>1019</v>
       </c>
       <c r="E211" s="32"/>
       <c r="F211" s="32"/>
       <c r="G211" s="32"/>
       <c r="H211" s="32"/>
     </row>
-    <row r="212" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="36"/>
-      <c r="B212" s="39"/>
-      <c r="C212" s="36"/>
-      <c r="D212" s="30" t="s">
-        <v>967</v>
-      </c>
-      <c r="E212" s="33"/>
-      <c r="F212" s="33"/>
-      <c r="G212" s="33"/>
-      <c r="H212" s="33"/>
-    </row>
-    <row r="213" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B213" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C213" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D213" s="29" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E213" s="31">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="35"/>
+      <c r="B212" s="38"/>
+      <c r="C212" s="35"/>
+      <c r="D212" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E212" s="32"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="32"/>
+      <c r="H212" s="32"/>
+    </row>
+    <row r="213" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="36"/>
+      <c r="B213" s="39"/>
+      <c r="C213" s="36"/>
+      <c r="D213" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E213" s="33"/>
+      <c r="F213" s="33"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="33"/>
+    </row>
+    <row r="214" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B214" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C214" s="34" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D214" s="29" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E214" s="31">
         <v>4</v>
       </c>
-      <c r="F213" s="31">
-        <v>17</v>
-      </c>
-      <c r="G213" s="31">
-        <v>56</v>
-      </c>
-      <c r="H213" s="31"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="35"/>
-      <c r="B214" s="38"/>
-      <c r="C214" s="35"/>
-      <c r="D214" s="8" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E214" s="32"/>
-      <c r="F214" s="32"/>
-      <c r="G214" s="32"/>
-      <c r="H214" s="32"/>
+      <c r="F214" s="31">
+        <v>14</v>
+      </c>
+      <c r="G214" s="31">
+        <v>51</v>
+      </c>
+      <c r="H214" s="31"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="35"/>
       <c r="B215" s="38"/>
       <c r="C215" s="35"/>
       <c r="D215" s="8" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="E215" s="32"/>
       <c r="F215" s="32"/>
       <c r="G215" s="32"/>
       <c r="H215" s="32"/>
     </row>
-    <row r="216" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="36"/>
-      <c r="B216" s="39"/>
-      <c r="C216" s="36"/>
-      <c r="D216" s="30" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="33"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B217" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C217" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D217" s="29" t="s">
-        <v>862</v>
-      </c>
-      <c r="E217" s="31">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="35"/>
+      <c r="B216" s="38"/>
+      <c r="C216" s="35"/>
+      <c r="D216" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E216" s="32"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="32"/>
+      <c r="H216" s="32"/>
+    </row>
+    <row r="217" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="36"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="36"/>
+      <c r="D217" s="30" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E217" s="33"/>
+      <c r="F217" s="33"/>
+      <c r="G217" s="33"/>
+      <c r="H217" s="33"/>
+    </row>
+    <row r="218" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B218" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C218" s="34" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E218" s="31">
         <v>4</v>
       </c>
-      <c r="F217" s="31">
-        <v>15</v>
-      </c>
-      <c r="G217" s="31">
-        <v>56</v>
-      </c>
-      <c r="H217" s="31"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="35"/>
-      <c r="B218" s="38"/>
-      <c r="C218" s="35"/>
-      <c r="D218" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="E218" s="32"/>
-      <c r="F218" s="32"/>
-      <c r="G218" s="32"/>
-      <c r="H218" s="32"/>
+      <c r="F218" s="31">
+        <v>17</v>
+      </c>
+      <c r="G218" s="31">
+        <v>59</v>
+      </c>
+      <c r="H218" s="31"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="35"/>
       <c r="B219" s="38"/>
       <c r="C219" s="35"/>
       <c r="D219" s="8" t="s">
-        <v>984</v>
+        <v>1209</v>
       </c>
       <c r="E219" s="32"/>
       <c r="F219" s="32"/>
       <c r="G219" s="32"/>
       <c r="H219" s="32"/>
     </row>
-    <row r="220" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="36"/>
-      <c r="B220" s="39"/>
-      <c r="C220" s="36"/>
-      <c r="D220" s="30" t="s">
-        <v>985</v>
-      </c>
-      <c r="E220" s="33"/>
-      <c r="F220" s="33"/>
-      <c r="G220" s="33"/>
-      <c r="H220" s="33"/>
-    </row>
-    <row r="221" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B221" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C221" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D221" s="29" t="s">
-        <v>986</v>
-      </c>
-      <c r="E221" s="31">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="35"/>
+      <c r="B220" s="38"/>
+      <c r="C220" s="35"/>
+      <c r="D220" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="32"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="35"/>
+      <c r="B221" s="38"/>
+      <c r="C221" s="35"/>
+      <c r="D221" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E221" s="32"/>
+      <c r="F221" s="32"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="32"/>
+    </row>
+    <row r="222" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="36"/>
+      <c r="B222" s="39"/>
+      <c r="C222" s="36"/>
+      <c r="D222" s="30" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E222" s="33"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="33"/>
+    </row>
+    <row r="223" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B223" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C223" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D223" s="29" t="s">
+        <v>923</v>
+      </c>
+      <c r="E223" s="31">
         <v>4</v>
       </c>
-      <c r="F221" s="31">
+      <c r="F223" s="31">
         <v>14</v>
       </c>
-      <c r="G221" s="31">
+      <c r="G223" s="31">
+        <v>53</v>
+      </c>
+      <c r="H223" s="31"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="35"/>
+      <c r="B224" s="38"/>
+      <c r="C224" s="35"/>
+      <c r="D224" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="E224" s="32"/>
+      <c r="F224" s="32"/>
+      <c r="G224" s="32"/>
+      <c r="H224" s="32"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="35"/>
+      <c r="B225" s="38"/>
+      <c r="C225" s="35"/>
+      <c r="D225" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="E225" s="32"/>
+      <c r="F225" s="32"/>
+      <c r="G225" s="32"/>
+      <c r="H225" s="32"/>
+    </row>
+    <row r="226" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="36"/>
+      <c r="B226" s="39"/>
+      <c r="C226" s="36"/>
+      <c r="D226" s="30" t="s">
+        <v>926</v>
+      </c>
+      <c r="E226" s="33"/>
+      <c r="F226" s="33"/>
+      <c r="G226" s="33"/>
+      <c r="H226" s="33"/>
+    </row>
+    <row r="227" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B227" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D227" s="29" t="s">
+        <v>927</v>
+      </c>
+      <c r="E227" s="31">
+        <v>4</v>
+      </c>
+      <c r="F227" s="31">
+        <v>16</v>
+      </c>
+      <c r="G227" s="31">
+        <v>50</v>
+      </c>
+      <c r="H227" s="31"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="35"/>
+      <c r="B228" s="38"/>
+      <c r="C228" s="35"/>
+      <c r="D228" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="E228" s="32"/>
+      <c r="F228" s="32"/>
+      <c r="G228" s="32"/>
+      <c r="H228" s="32"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="35"/>
+      <c r="B229" s="38"/>
+      <c r="C229" s="35"/>
+      <c r="D229" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="E229" s="32"/>
+      <c r="F229" s="32"/>
+      <c r="G229" s="32"/>
+      <c r="H229" s="32"/>
+    </row>
+    <row r="230" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="36"/>
+      <c r="B230" s="39"/>
+      <c r="C230" s="36"/>
+      <c r="D230" s="30" t="s">
+        <v>930</v>
+      </c>
+      <c r="E230" s="33"/>
+      <c r="F230" s="33"/>
+      <c r="G230" s="33"/>
+      <c r="H230" s="33"/>
+    </row>
+    <row r="231" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B231" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C231" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D231" s="29" t="s">
+        <v>931</v>
+      </c>
+      <c r="E231" s="31">
+        <v>4</v>
+      </c>
+      <c r="F231" s="31">
+        <v>14</v>
+      </c>
+      <c r="G231" s="31">
+        <v>51</v>
+      </c>
+      <c r="H231" s="31"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="35"/>
+      <c r="B232" s="38"/>
+      <c r="C232" s="35"/>
+      <c r="D232" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="E232" s="32"/>
+      <c r="F232" s="32"/>
+      <c r="G232" s="32"/>
+      <c r="H232" s="32"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="35"/>
+      <c r="B233" s="38"/>
+      <c r="C233" s="35"/>
+      <c r="D233" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="E233" s="32"/>
+      <c r="F233" s="32"/>
+      <c r="G233" s="32"/>
+      <c r="H233" s="32"/>
+    </row>
+    <row r="234" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="36"/>
+      <c r="B234" s="39"/>
+      <c r="C234" s="36"/>
+      <c r="D234" s="30" t="s">
+        <v>934</v>
+      </c>
+      <c r="E234" s="33"/>
+      <c r="F234" s="33"/>
+      <c r="G234" s="33"/>
+      <c r="H234" s="33"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H221" s="31"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="35"/>
-      <c r="B222" s="38"/>
-      <c r="C222" s="35"/>
-      <c r="D222" s="8" t="s">
-        <v>987</v>
-      </c>
-      <c r="E222" s="32"/>
-      <c r="F222" s="32"/>
-      <c r="G222" s="32"/>
-      <c r="H222" s="32"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="35"/>
-      <c r="B223" s="38"/>
-      <c r="C223" s="35"/>
-      <c r="D223" s="8" t="s">
-        <v>988</v>
-      </c>
-      <c r="E223" s="32"/>
-      <c r="F223" s="32"/>
-      <c r="G223" s="32"/>
-      <c r="H223" s="32"/>
-    </row>
-    <row r="224" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="36"/>
-      <c r="B224" s="39"/>
-      <c r="C224" s="36"/>
-      <c r="D224" s="30" t="s">
-        <v>989</v>
-      </c>
-      <c r="E224" s="33"/>
-      <c r="F224" s="33"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="33"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A225" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B225" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C225" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D225" s="29" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E225" s="31">
+      <c r="B235" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C235" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D235" s="29" t="s">
+        <v>935</v>
+      </c>
+      <c r="E235" s="31">
         <v>4</v>
       </c>
-      <c r="F225" s="31">
+      <c r="F235" s="31">
         <v>15</v>
       </c>
-      <c r="G225" s="31">
+      <c r="G235" s="31">
+        <v>57</v>
+      </c>
+      <c r="H235" s="31"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="35"/>
+      <c r="B236" s="38"/>
+      <c r="C236" s="35"/>
+      <c r="D236" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="E236" s="32"/>
+      <c r="F236" s="32"/>
+      <c r="G236" s="32"/>
+      <c r="H236" s="32"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="35"/>
+      <c r="B237" s="38"/>
+      <c r="C237" s="35"/>
+      <c r="D237" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="E237" s="32"/>
+      <c r="F237" s="32"/>
+      <c r="G237" s="32"/>
+      <c r="H237" s="32"/>
+    </row>
+    <row r="238" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="36"/>
+      <c r="B238" s="39"/>
+      <c r="C238" s="36"/>
+      <c r="D238" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="E238" s="33"/>
+      <c r="F238" s="33"/>
+      <c r="G238" s="33"/>
+      <c r="H238" s="33"/>
+    </row>
+    <row r="239" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B239" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C239" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D239" s="29" t="s">
+        <v>980</v>
+      </c>
+      <c r="E239" s="31">
+        <v>4</v>
+      </c>
+      <c r="F239" s="31">
+        <v>17</v>
+      </c>
+      <c r="G239" s="31">
+        <v>55</v>
+      </c>
+      <c r="H239" s="31"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="35"/>
+      <c r="B240" s="38"/>
+      <c r="C240" s="35"/>
+      <c r="D240" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="E240" s="32"/>
+      <c r="F240" s="32"/>
+      <c r="G240" s="32"/>
+      <c r="H240" s="32"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="35"/>
+      <c r="B241" s="38"/>
+      <c r="C241" s="35"/>
+      <c r="D241" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="E241" s="32"/>
+      <c r="F241" s="32"/>
+      <c r="G241" s="32"/>
+      <c r="H241" s="32"/>
+    </row>
+    <row r="242" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="36"/>
+      <c r="B242" s="39"/>
+      <c r="C242" s="36"/>
+      <c r="D242" s="30" t="s">
+        <v>983</v>
+      </c>
+      <c r="E242" s="33"/>
+      <c r="F242" s="33"/>
+      <c r="G242" s="33"/>
+      <c r="H242" s="33"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B243" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C243" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D243" s="29" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E243" s="31">
+        <v>4</v>
+      </c>
+      <c r="F243" s="31">
+        <v>15</v>
+      </c>
+      <c r="G243" s="31">
         <v>52</v>
       </c>
-      <c r="H225" s="31"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="35"/>
-      <c r="B226" s="38"/>
-      <c r="C226" s="35"/>
-      <c r="D226" s="8" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E226" s="32"/>
-      <c r="F226" s="32"/>
-      <c r="G226" s="32"/>
-      <c r="H226" s="32"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="35"/>
-      <c r="B227" s="38"/>
-      <c r="C227" s="35"/>
-      <c r="D227" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E227" s="32"/>
-      <c r="F227" s="32"/>
-      <c r="G227" s="32"/>
-      <c r="H227" s="32"/>
-    </row>
-    <row r="228" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="36"/>
-      <c r="B228" s="39"/>
-      <c r="C228" s="36"/>
-      <c r="D228" s="30" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E228" s="33"/>
-      <c r="F228" s="33"/>
-      <c r="G228" s="33"/>
-      <c r="H228" s="33"/>
-    </row>
-    <row r="229" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B229" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C229" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D229" s="29" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E229" s="31">
+      <c r="H243" s="31"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="35"/>
+      <c r="B244" s="38"/>
+      <c r="C244" s="35"/>
+      <c r="D244" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E244" s="32"/>
+      <c r="F244" s="32"/>
+      <c r="G244" s="32"/>
+      <c r="H244" s="32"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="35"/>
+      <c r="B245" s="38"/>
+      <c r="C245" s="35"/>
+      <c r="D245" s="8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E245" s="32"/>
+      <c r="F245" s="32"/>
+      <c r="G245" s="32"/>
+      <c r="H245" s="32"/>
+    </row>
+    <row r="246" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="36"/>
+      <c r="B246" s="39"/>
+      <c r="C246" s="36"/>
+      <c r="D246" s="30" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E246" s="33"/>
+      <c r="F246" s="33"/>
+      <c r="G246" s="33"/>
+      <c r="H246" s="33"/>
+    </row>
+    <row r="247" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B247" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C247" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D247" s="29" t="s">
+        <v>994</v>
+      </c>
+      <c r="E247" s="31">
         <v>4</v>
       </c>
-      <c r="F229" s="31">
-        <v>16</v>
-      </c>
-      <c r="G229" s="31">
-        <v>55</v>
-      </c>
-      <c r="H229" s="31"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230" s="35"/>
-      <c r="B230" s="38"/>
-      <c r="C230" s="35"/>
-      <c r="D230" s="8" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E230" s="32"/>
-      <c r="F230" s="32"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="32"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A231" s="35"/>
-      <c r="B231" s="38"/>
-      <c r="C231" s="35"/>
-      <c r="D231" s="8" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E231" s="32"/>
-      <c r="F231" s="32"/>
-      <c r="G231" s="32"/>
-      <c r="H231" s="32"/>
-    </row>
-    <row r="232" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="36"/>
-      <c r="B232" s="39"/>
-      <c r="C232" s="36"/>
-      <c r="D232" s="30" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E232" s="33"/>
-      <c r="F232" s="33"/>
-      <c r="G232" s="33"/>
-      <c r="H232" s="33"/>
-    </row>
-    <row r="233" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B233" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C233" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D233" s="29" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E233" s="31">
-        <v>4</v>
-      </c>
-      <c r="F233" s="31">
-        <v>14</v>
-      </c>
-      <c r="G233" s="31">
-        <v>48</v>
-      </c>
-      <c r="H233" s="31"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A234" s="35"/>
-      <c r="B234" s="38"/>
-      <c r="C234" s="35"/>
-      <c r="D234" s="8" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E234" s="32"/>
-      <c r="F234" s="32"/>
-      <c r="G234" s="32"/>
-      <c r="H234" s="32"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="35"/>
-      <c r="B235" s="38"/>
-      <c r="C235" s="35"/>
-      <c r="D235" s="8" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E235" s="32"/>
-      <c r="F235" s="32"/>
-      <c r="G235" s="32"/>
-      <c r="H235" s="32"/>
-    </row>
-    <row r="236" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="36"/>
-      <c r="B236" s="39"/>
-      <c r="C236" s="36"/>
-      <c r="D236" s="30" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E236" s="33"/>
-      <c r="F236" s="33"/>
-      <c r="G236" s="33"/>
-      <c r="H236" s="33"/>
-    </row>
-    <row r="237" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B237" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C237" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D237" s="29" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E237" s="31">
-        <v>4</v>
-      </c>
-      <c r="F237" s="31">
-        <v>14</v>
-      </c>
-      <c r="G237" s="31">
+      <c r="F247" s="31">
+        <v>13</v>
+      </c>
+      <c r="G247" s="31">
         <v>45</v>
       </c>
-      <c r="H237" s="31"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="35"/>
-      <c r="B238" s="38"/>
-      <c r="C238" s="35"/>
-      <c r="D238" s="8" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E238" s="32"/>
-      <c r="F238" s="32"/>
-      <c r="G238" s="32"/>
-      <c r="H238" s="32"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A239" s="35"/>
-      <c r="B239" s="38"/>
-      <c r="C239" s="35"/>
-      <c r="D239" s="8" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
-      <c r="G239" s="32"/>
-      <c r="H239" s="32"/>
-    </row>
-    <row r="240" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="36"/>
-      <c r="B240" s="39"/>
-      <c r="C240" s="36"/>
-      <c r="D240" s="30" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E240" s="33"/>
-      <c r="F240" s="33"/>
-      <c r="G240" s="33"/>
-      <c r="H240" s="33"/>
-    </row>
-    <row r="241" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="34" t="s">
-        <v>578</v>
-      </c>
-      <c r="B241" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="C241" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D241" s="29" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E241" s="31">
-        <v>4</v>
-      </c>
-      <c r="F241" s="31">
-        <v>15</v>
-      </c>
-      <c r="G241" s="31">
-        <v>62</v>
-      </c>
-      <c r="H241" s="31"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="35"/>
-      <c r="B242" s="38"/>
-      <c r="C242" s="35"/>
-      <c r="D242" s="8" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E242" s="32"/>
-      <c r="F242" s="32"/>
-      <c r="G242" s="32"/>
-      <c r="H242" s="32"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="35"/>
-      <c r="B243" s="38"/>
-      <c r="C243" s="35"/>
-      <c r="D243" s="8" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E243" s="32"/>
-      <c r="F243" s="32"/>
-      <c r="G243" s="32"/>
-      <c r="H243" s="32"/>
-    </row>
-    <row r="244" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="36"/>
-      <c r="B244" s="39"/>
-      <c r="C244" s="36"/>
-      <c r="D244" s="30" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E244" s="33"/>
-      <c r="F244" s="33"/>
-      <c r="G244" s="33"/>
-      <c r="H244" s="33"/>
-    </row>
-    <row r="245" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="34" t="s">
-        <v>580</v>
-      </c>
-      <c r="B245" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="C245" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D245" s="29" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E245" s="31">
-        <v>4</v>
-      </c>
-      <c r="F245" s="31">
-        <v>19</v>
-      </c>
-      <c r="G245" s="31">
-        <v>75</v>
-      </c>
-      <c r="H245" s="31"/>
-    </row>
-    <row r="246" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="35"/>
-      <c r="B246" s="38"/>
-      <c r="C246" s="35"/>
-      <c r="D246" s="8" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E246" s="32"/>
-      <c r="F246" s="32"/>
-      <c r="G246" s="32"/>
-      <c r="H246" s="32"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="35"/>
-      <c r="B247" s="38"/>
-      <c r="C247" s="35"/>
-      <c r="D247" s="8" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E247" s="32"/>
-      <c r="F247" s="32"/>
-      <c r="G247" s="32"/>
-      <c r="H247" s="32"/>
+      <c r="H247" s="31"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="35"/>
       <c r="B248" s="38"/>
       <c r="C248" s="35"/>
       <c r="D248" s="8" t="s">
-        <v>1240</v>
+        <v>1129</v>
       </c>
       <c r="E248" s="32"/>
       <c r="F248" s="32"/>
       <c r="G248" s="32"/>
       <c r="H248" s="32"/>
     </row>
-    <row r="249" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="36"/>
-      <c r="B249" s="39"/>
-      <c r="C249" s="36"/>
-      <c r="D249" s="30" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E249" s="33"/>
-      <c r="F249" s="33"/>
-      <c r="G249" s="33"/>
-      <c r="H249" s="33"/>
-    </row>
-    <row r="250" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="34" t="s">
-        <v>582</v>
-      </c>
-      <c r="B250" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="C250" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D250" s="29" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E250" s="31">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="35"/>
+      <c r="B249" s="38"/>
+      <c r="C249" s="35"/>
+      <c r="D249" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E249" s="32"/>
+      <c r="F249" s="32"/>
+      <c r="G249" s="32"/>
+      <c r="H249" s="32"/>
+    </row>
+    <row r="250" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="36"/>
+      <c r="B250" s="39"/>
+      <c r="C250" s="36"/>
+      <c r="D250" s="30" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E250" s="33"/>
+      <c r="F250" s="33"/>
+      <c r="G250" s="33"/>
+      <c r="H250" s="33"/>
+    </row>
+    <row r="251" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="34" t="s">
+        <v>612</v>
+      </c>
+      <c r="B251" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C251" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D251" s="29" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E251" s="31">
         <v>4</v>
       </c>
-      <c r="F250" s="31">
-        <v>14</v>
-      </c>
-      <c r="G250" s="31">
-        <v>56</v>
-      </c>
-      <c r="H250" s="31"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251" s="35"/>
-      <c r="B251" s="38"/>
-      <c r="C251" s="35"/>
-      <c r="D251" s="8" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E251" s="32"/>
-      <c r="F251" s="32"/>
-      <c r="G251" s="32"/>
-      <c r="H251" s="32"/>
+      <c r="F251" s="31">
+        <v>16</v>
+      </c>
+      <c r="G251" s="31">
+        <v>53</v>
+      </c>
+      <c r="H251" s="31"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="35"/>
       <c r="B252" s="38"/>
       <c r="C252" s="35"/>
       <c r="D252" s="8" t="s">
-        <v>1244</v>
+        <v>1303</v>
       </c>
       <c r="E252" s="32"/>
       <c r="F252" s="32"/>
       <c r="G252" s="32"/>
       <c r="H252" s="32"/>
     </row>
-    <row r="253" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="36"/>
-      <c r="B253" s="39"/>
-      <c r="C253" s="36"/>
-      <c r="D253" s="30" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E253" s="33"/>
-      <c r="F253" s="33"/>
-      <c r="G253" s="33"/>
-      <c r="H253" s="33"/>
-    </row>
-    <row r="254" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="34" t="s">
-        <v>672</v>
-      </c>
-      <c r="B254" s="37" t="s">
-        <v>671</v>
-      </c>
-      <c r="C254" s="34" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D254" s="29" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E254" s="31">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="35"/>
+      <c r="B253" s="38"/>
+      <c r="C253" s="35"/>
+      <c r="D253" s="8" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E253" s="32"/>
+      <c r="F253" s="32"/>
+      <c r="G253" s="32"/>
+      <c r="H253" s="32"/>
+    </row>
+    <row r="254" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="36"/>
+      <c r="B254" s="39"/>
+      <c r="C254" s="36"/>
+      <c r="D254" s="30" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E254" s="33"/>
+      <c r="F254" s="33"/>
+      <c r="G254" s="33"/>
+      <c r="H254" s="33"/>
+    </row>
+    <row r="255" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="B255" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="C255" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D255" s="29" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E255" s="31">
         <v>4</v>
       </c>
-      <c r="F254" s="31">
-        <v>12</v>
-      </c>
-      <c r="G254" s="31">
-        <v>44</v>
-      </c>
-      <c r="H254" s="31"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A255" s="35"/>
-      <c r="B255" s="38"/>
-      <c r="C255" s="35"/>
-      <c r="D255" s="8" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E255" s="32"/>
-      <c r="F255" s="32"/>
-      <c r="G255" s="32"/>
-      <c r="H255" s="32"/>
+      <c r="F255" s="31">
+        <v>16</v>
+      </c>
+      <c r="G255" s="31">
+        <v>48</v>
+      </c>
+      <c r="H255" s="31"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="35"/>
       <c r="B256" s="38"/>
       <c r="C256" s="35"/>
       <c r="D256" s="8" t="s">
-        <v>1425</v>
+        <v>1307</v>
       </c>
       <c r="E256" s="32"/>
       <c r="F256" s="32"/>
       <c r="G256" s="32"/>
       <c r="H256" s="32"/>
     </row>
-    <row r="257" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="36"/>
-      <c r="B257" s="39"/>
-      <c r="C257" s="36"/>
-      <c r="D257" s="30" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E257" s="33"/>
-      <c r="F257" s="33"/>
-      <c r="G257" s="33"/>
-      <c r="H257" s="33"/>
-    </row>
-    <row r="258" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="34" t="s">
-        <v>584</v>
-      </c>
-      <c r="B258" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="C258" s="34" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D258" s="29" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E258" s="31">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="35"/>
+      <c r="B257" s="38"/>
+      <c r="C257" s="35"/>
+      <c r="D257" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E257" s="32"/>
+      <c r="F257" s="32"/>
+      <c r="G257" s="32"/>
+      <c r="H257" s="32"/>
+    </row>
+    <row r="258" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="36"/>
+      <c r="B258" s="39"/>
+      <c r="C258" s="36"/>
+      <c r="D258" s="30" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E258" s="33"/>
+      <c r="F258" s="33"/>
+      <c r="G258" s="33"/>
+      <c r="H258" s="33"/>
+    </row>
+    <row r="259" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="B259" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="C259" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D259" s="29" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E259" s="31">
         <v>4</v>
       </c>
-      <c r="F258" s="31">
-        <v>14</v>
-      </c>
-      <c r="G258" s="31">
-        <v>58</v>
-      </c>
-      <c r="H258" s="31"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A259" s="35"/>
-      <c r="B259" s="38"/>
-      <c r="C259" s="35"/>
-      <c r="D259" s="8" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E259" s="32"/>
-      <c r="F259" s="32"/>
-      <c r="G259" s="32"/>
-      <c r="H259" s="32"/>
+      <c r="F259" s="31">
+        <v>15</v>
+      </c>
+      <c r="G259" s="31">
+        <v>56</v>
+      </c>
+      <c r="H259" s="31"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="35"/>
       <c r="B260" s="38"/>
       <c r="C260" s="35"/>
       <c r="D260" s="8" t="s">
-        <v>1248</v>
+        <v>1319</v>
       </c>
       <c r="E260" s="32"/>
       <c r="F260" s="32"/>
       <c r="G260" s="32"/>
       <c r="H260" s="32"/>
     </row>
-    <row r="261" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="36"/>
-      <c r="B261" s="39"/>
-      <c r="C261" s="36"/>
-      <c r="D261" s="30" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E261" s="33"/>
-      <c r="F261" s="33"/>
-      <c r="G261" s="33"/>
-      <c r="H261" s="33"/>
-    </row>
-    <row r="262" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B262" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C262" s="34" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D262" s="29" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E262" s="31">
-        <v>4</v>
-      </c>
-      <c r="F262" s="31">
-        <v>14</v>
-      </c>
-      <c r="G262" s="31">
-        <v>44</v>
-      </c>
-      <c r="H262" s="31"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A263" s="35"/>
-      <c r="B263" s="38"/>
-      <c r="C263" s="35"/>
-      <c r="D263" s="8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E263" s="32"/>
-      <c r="F263" s="32"/>
-      <c r="G263" s="32"/>
-      <c r="H263" s="32"/>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="35"/>
+      <c r="B261" s="38"/>
+      <c r="C261" s="35"/>
+      <c r="D261" s="8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E261" s="32"/>
+      <c r="F261" s="32"/>
+      <c r="G261" s="32"/>
+      <c r="H261" s="32"/>
+    </row>
+    <row r="262" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="36"/>
+      <c r="B262" s="39"/>
+      <c r="C262" s="36"/>
+      <c r="D262" s="30" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E262" s="33"/>
+      <c r="F262" s="33"/>
+      <c r="G262" s="33"/>
+      <c r="H262" s="33"/>
+    </row>
+    <row r="263" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="34" t="s">
+        <v>622</v>
+      </c>
+      <c r="B263" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="C263" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D263" s="29" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E263" s="31">
+        <v>5</v>
+      </c>
+      <c r="F263" s="31">
+        <v>16</v>
+      </c>
+      <c r="G263" s="31">
+        <v>57</v>
+      </c>
+      <c r="H263" s="31"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="35"/>
       <c r="B264" s="38"/>
       <c r="C264" s="35"/>
       <c r="D264" s="8" t="s">
-        <v>1036</v>
+        <v>1323</v>
       </c>
       <c r="E264" s="32"/>
       <c r="F264" s="32"/>
       <c r="G264" s="32"/>
       <c r="H264" s="32"/>
     </row>
-    <row r="265" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="36"/>
-      <c r="B265" s="39"/>
-      <c r="C265" s="36"/>
-      <c r="D265" s="30" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E265" s="33"/>
-      <c r="F265" s="33"/>
-      <c r="G265" s="33"/>
-      <c r="H265" s="33"/>
-    </row>
-    <row r="266" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B266" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C266" s="34" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D266" s="29" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E266" s="31">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="35"/>
+      <c r="B265" s="38"/>
+      <c r="C265" s="35"/>
+      <c r="D265" s="8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E265" s="32"/>
+      <c r="F265" s="32"/>
+      <c r="G265" s="32"/>
+      <c r="H265" s="32"/>
+    </row>
+    <row r="266" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="36"/>
+      <c r="B266" s="39"/>
+      <c r="C266" s="36"/>
+      <c r="D266" s="30" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E266" s="33"/>
+      <c r="F266" s="33"/>
+      <c r="G266" s="33"/>
+      <c r="H266" s="33"/>
+    </row>
+    <row r="267" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B267" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C267" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D267" s="29" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E267" s="31">
         <v>4</v>
       </c>
-      <c r="F266" s="31">
-        <v>14</v>
-      </c>
-      <c r="G266" s="31">
+      <c r="F267" s="31">
+        <v>13</v>
+      </c>
+      <c r="G267" s="31">
         <v>44</v>
       </c>
-      <c r="H266" s="31"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A267" s="35"/>
-      <c r="B267" s="38"/>
-      <c r="C267" s="35"/>
-      <c r="D267" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E267" s="32"/>
-      <c r="F267" s="32"/>
-      <c r="G267" s="32"/>
-      <c r="H267" s="32"/>
+      <c r="H267" s="31"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="35"/>
       <c r="B268" s="38"/>
       <c r="C268" s="35"/>
       <c r="D268" s="8" t="s">
-        <v>1040</v>
+        <v>1342</v>
       </c>
       <c r="E268" s="32"/>
       <c r="F268" s="32"/>
       <c r="G268" s="32"/>
       <c r="H268" s="32"/>
     </row>
-    <row r="269" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="36"/>
-      <c r="B269" s="39"/>
-      <c r="C269" s="36"/>
-      <c r="D269" s="30" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E269" s="33"/>
-      <c r="F269" s="33"/>
-      <c r="G269" s="33"/>
-      <c r="H269" s="33"/>
-    </row>
-    <row r="270" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="34" t="s">
-        <v>606</v>
-      </c>
-      <c r="B270" s="37" t="s">
-        <v>605</v>
-      </c>
-      <c r="C270" s="34" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D270" s="29" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E270" s="31">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="35"/>
+      <c r="B269" s="38"/>
+      <c r="C269" s="35"/>
+      <c r="D269" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E269" s="32"/>
+      <c r="F269" s="32"/>
+      <c r="G269" s="32"/>
+      <c r="H269" s="32"/>
+    </row>
+    <row r="270" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="36"/>
+      <c r="B270" s="39"/>
+      <c r="C270" s="36"/>
+      <c r="D270" s="30" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E270" s="33"/>
+      <c r="F270" s="33"/>
+      <c r="G270" s="33"/>
+      <c r="H270" s="33"/>
+    </row>
+    <row r="271" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="B271" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="C271" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D271" s="29" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E271" s="31">
         <v>4</v>
       </c>
-      <c r="F270" s="31">
-        <v>13</v>
-      </c>
-      <c r="G270" s="31">
-        <v>50</v>
-      </c>
-      <c r="H270" s="31"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A271" s="35"/>
-      <c r="B271" s="38"/>
-      <c r="C271" s="35"/>
-      <c r="D271" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E271" s="32"/>
-      <c r="F271" s="32"/>
-      <c r="G271" s="32"/>
-      <c r="H271" s="32"/>
+      <c r="F271" s="31">
+        <v>16</v>
+      </c>
+      <c r="G271" s="31">
+        <v>53</v>
+      </c>
+      <c r="H271" s="31"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="35"/>
       <c r="B272" s="38"/>
       <c r="C272" s="35"/>
       <c r="D272" s="8" t="s">
-        <v>1292</v>
+        <v>1346</v>
       </c>
       <c r="E272" s="32"/>
       <c r="F272" s="32"/>
       <c r="G272" s="32"/>
       <c r="H272" s="32"/>
     </row>
-    <row r="273" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="36"/>
-      <c r="B273" s="39"/>
-      <c r="C273" s="36"/>
-      <c r="D273" s="30" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E273" s="33"/>
-      <c r="F273" s="33"/>
-      <c r="G273" s="33"/>
-      <c r="H273" s="33"/>
-    </row>
-    <row r="274" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B274" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C274" s="34" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D274" s="29" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E274" s="31">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="35"/>
+      <c r="B273" s="38"/>
+      <c r="C273" s="35"/>
+      <c r="D273" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E273" s="32"/>
+      <c r="F273" s="32"/>
+      <c r="G273" s="32"/>
+      <c r="H273" s="32"/>
+    </row>
+    <row r="274" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="36"/>
+      <c r="B274" s="39"/>
+      <c r="C274" s="36"/>
+      <c r="D274" s="30" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E274" s="33"/>
+      <c r="F274" s="33"/>
+      <c r="G274" s="33"/>
+      <c r="H274" s="33"/>
+    </row>
+    <row r="275" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="B275" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="C275" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D275" s="29" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E275" s="31">
         <v>4</v>
       </c>
-      <c r="F274" s="31">
-        <v>15</v>
-      </c>
-      <c r="G274" s="31">
-        <v>54</v>
-      </c>
-      <c r="H274" s="31"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A275" s="35"/>
-      <c r="B275" s="38"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="8" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E275" s="32"/>
-      <c r="F275" s="32"/>
-      <c r="G275" s="32"/>
-      <c r="H275" s="32"/>
+      <c r="F275" s="31">
+        <v>16</v>
+      </c>
+      <c r="G275" s="31">
+        <v>47</v>
+      </c>
+      <c r="H275" s="31"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="35"/>
       <c r="B276" s="38"/>
       <c r="C276" s="35"/>
       <c r="D276" s="8" t="s">
-        <v>1016</v>
+        <v>1350</v>
       </c>
       <c r="E276" s="32"/>
       <c r="F276" s="32"/>
       <c r="G276" s="32"/>
       <c r="H276" s="32"/>
     </row>
-    <row r="277" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="36"/>
-      <c r="B277" s="39"/>
-      <c r="C277" s="36"/>
-      <c r="D277" s="30" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E277" s="33"/>
-      <c r="F277" s="33"/>
-      <c r="G277" s="33"/>
-      <c r="H277" s="33"/>
-    </row>
-    <row r="278" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B278" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C278" s="34" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D278" s="29" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E278" s="31">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="35"/>
+      <c r="B277" s="38"/>
+      <c r="C277" s="35"/>
+      <c r="D277" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E277" s="32"/>
+      <c r="F277" s="32"/>
+      <c r="G277" s="32"/>
+      <c r="H277" s="32"/>
+    </row>
+    <row r="278" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="36"/>
+      <c r="B278" s="39"/>
+      <c r="C278" s="36"/>
+      <c r="D278" s="30" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E278" s="33"/>
+      <c r="F278" s="33"/>
+      <c r="G278" s="33"/>
+      <c r="H278" s="33"/>
+    </row>
+    <row r="279" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="B279" s="37" t="s">
+        <v>637</v>
+      </c>
+      <c r="C279" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D279" s="29" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E279" s="31">
         <v>4</v>
       </c>
-      <c r="F278" s="31">
-        <v>17</v>
-      </c>
-      <c r="G278" s="31">
-        <v>63</v>
-      </c>
-      <c r="H278" s="31"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A279" s="35"/>
-      <c r="B279" s="38"/>
-      <c r="C279" s="35"/>
-      <c r="D279" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E279" s="32"/>
-      <c r="F279" s="32"/>
-      <c r="G279" s="32"/>
-      <c r="H279" s="32"/>
+      <c r="F279" s="31">
+        <v>13</v>
+      </c>
+      <c r="G279" s="31">
+        <v>48</v>
+      </c>
+      <c r="H279" s="31"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="35"/>
       <c r="B280" s="38"/>
       <c r="C280" s="35"/>
       <c r="D280" s="8" t="s">
-        <v>1020</v>
+        <v>1358</v>
       </c>
       <c r="E280" s="32"/>
       <c r="F280" s="32"/>
       <c r="G280" s="32"/>
       <c r="H280" s="32"/>
     </row>
-    <row r="281" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="36"/>
-      <c r="B281" s="39"/>
-      <c r="C281" s="36"/>
-      <c r="D281" s="30" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E281" s="33"/>
-      <c r="F281" s="33"/>
-      <c r="G281" s="33"/>
-      <c r="H281" s="33"/>
-    </row>
-    <row r="282" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B282" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C282" s="34" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D282" s="29" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E282" s="31">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="35"/>
+      <c r="B281" s="38"/>
+      <c r="C281" s="35"/>
+      <c r="D281" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E281" s="32"/>
+      <c r="F281" s="32"/>
+      <c r="G281" s="32"/>
+      <c r="H281" s="32"/>
+    </row>
+    <row r="282" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="36"/>
+      <c r="B282" s="39"/>
+      <c r="C282" s="36"/>
+      <c r="D282" s="30" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E282" s="33"/>
+      <c r="F282" s="33"/>
+      <c r="G282" s="33"/>
+      <c r="H282" s="33"/>
+    </row>
+    <row r="283" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="B283" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="C283" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D283" s="29" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E283" s="31">
         <v>4</v>
       </c>
-      <c r="F282" s="31">
-        <v>14</v>
-      </c>
-      <c r="G282" s="31">
-        <v>51</v>
-      </c>
-      <c r="H282" s="31"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A283" s="35"/>
-      <c r="B283" s="38"/>
-      <c r="C283" s="35"/>
-      <c r="D283" s="8" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E283" s="32"/>
-      <c r="F283" s="32"/>
-      <c r="G283" s="32"/>
-      <c r="H283" s="32"/>
+      <c r="F283" s="31">
+        <v>16</v>
+      </c>
+      <c r="G283" s="31">
+        <v>52</v>
+      </c>
+      <c r="H283" s="31"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="35"/>
       <c r="B284" s="38"/>
       <c r="C284" s="35"/>
       <c r="D284" s="8" t="s">
-        <v>1207</v>
+        <v>1385</v>
       </c>
       <c r="E284" s="32"/>
       <c r="F284" s="32"/>
       <c r="G284" s="32"/>
       <c r="H284" s="32"/>
     </row>
-    <row r="285" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="36"/>
-      <c r="B285" s="39"/>
-      <c r="C285" s="36"/>
-      <c r="D285" s="30" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E285" s="33"/>
-      <c r="F285" s="33"/>
-      <c r="G285" s="33"/>
-      <c r="H285" s="33"/>
-    </row>
-    <row r="286" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B286" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C286" s="34" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D286" s="29" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E286" s="31">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" s="35"/>
+      <c r="B285" s="38"/>
+      <c r="C285" s="35"/>
+      <c r="D285" s="8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E285" s="32"/>
+      <c r="F285" s="32"/>
+      <c r="G285" s="32"/>
+      <c r="H285" s="32"/>
+    </row>
+    <row r="286" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="36"/>
+      <c r="B286" s="39"/>
+      <c r="C286" s="36"/>
+      <c r="D286" s="30" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E286" s="33"/>
+      <c r="F286" s="33"/>
+      <c r="G286" s="33"/>
+      <c r="H286" s="33"/>
+    </row>
+    <row r="287" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="34" t="s">
+        <v>660</v>
+      </c>
+      <c r="B287" s="37" t="s">
+        <v>659</v>
+      </c>
+      <c r="C287" s="34" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D287" s="29" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E287" s="31">
         <v>4</v>
       </c>
-      <c r="F286" s="31">
-        <v>17</v>
-      </c>
-      <c r="G286" s="31">
-        <v>59</v>
-      </c>
-      <c r="H286" s="31"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A287" s="35"/>
-      <c r="B287" s="38"/>
-      <c r="C287" s="35"/>
-      <c r="D287" s="8" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E287" s="32"/>
-      <c r="F287" s="32"/>
-      <c r="G287" s="32"/>
-      <c r="H287" s="32"/>
+      <c r="F287" s="31">
+        <v>16</v>
+      </c>
+      <c r="G287" s="31">
+        <v>52</v>
+      </c>
+      <c r="H287" s="31"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="35"/>
       <c r="B288" s="38"/>
       <c r="C288" s="35"/>
       <c r="D288" s="8" t="s">
-        <v>1210</v>
+        <v>1404</v>
       </c>
       <c r="E288" s="32"/>
       <c r="F288" s="32"/>
@@ -9300,7 +9300,7 @@
       <c r="B289" s="38"/>
       <c r="C289" s="35"/>
       <c r="D289" s="8" t="s">
-        <v>1211</v>
+        <v>996</v>
       </c>
       <c r="E289" s="32"/>
       <c r="F289" s="32"/>
@@ -9312,7 +9312,7 @@
       <c r="B290" s="39"/>
       <c r="C290" s="36"/>
       <c r="D290" s="30" t="s">
-        <v>1212</v>
+        <v>1405</v>
       </c>
       <c r="E290" s="33"/>
       <c r="F290" s="33"/>
@@ -10797,25 +10797,25 @@
     </row>
     <row r="390" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="34" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="B390" s="37" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="C390" s="34" t="s">
-        <v>1450</v>
+        <v>790</v>
       </c>
       <c r="D390" s="29" t="s">
-        <v>1069</v>
+        <v>1047</v>
       </c>
       <c r="E390" s="31">
         <v>4</v>
       </c>
       <c r="F390" s="31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G390" s="31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H390" s="31"/>
     </row>
@@ -10824,7 +10824,7 @@
       <c r="B391" s="38"/>
       <c r="C391" s="35"/>
       <c r="D391" s="8" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="E391" s="32"/>
       <c r="F391" s="32"/>
@@ -10836,7 +10836,7 @@
       <c r="B392" s="38"/>
       <c r="C392" s="35"/>
       <c r="D392" s="8" t="s">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="E392" s="32"/>
       <c r="F392" s="32"/>
@@ -10848,7 +10848,7 @@
       <c r="B393" s="39"/>
       <c r="C393" s="36"/>
       <c r="D393" s="30" t="s">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="E393" s="33"/>
       <c r="F393" s="33"/>
@@ -10857,16 +10857,16 @@
     </row>
     <row r="394" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="34" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B394" s="37" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C394" s="34" t="s">
-        <v>1450</v>
+        <v>790</v>
       </c>
       <c r="D394" s="29" t="s">
-        <v>1158</v>
+        <v>1051</v>
       </c>
       <c r="E394" s="31">
         <v>4</v>
@@ -10875,7 +10875,7 @@
         <v>15</v>
       </c>
       <c r="G394" s="31">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H394" s="31"/>
     </row>
@@ -10884,7 +10884,7 @@
       <c r="B395" s="38"/>
       <c r="C395" s="35"/>
       <c r="D395" s="8" t="s">
-        <v>1159</v>
+        <v>1008</v>
       </c>
       <c r="E395" s="32"/>
       <c r="F395" s="32"/>
@@ -10896,7 +10896,7 @@
       <c r="B396" s="38"/>
       <c r="C396" s="35"/>
       <c r="D396" s="8" t="s">
-        <v>1160</v>
+        <v>1052</v>
       </c>
       <c r="E396" s="32"/>
       <c r="F396" s="32"/>
@@ -10908,7 +10908,7 @@
       <c r="B397" s="39"/>
       <c r="C397" s="36"/>
       <c r="D397" s="30" t="s">
-        <v>1161</v>
+        <v>1053</v>
       </c>
       <c r="E397" s="33"/>
       <c r="F397" s="33"/>
@@ -10917,25 +10917,25 @@
     </row>
     <row r="398" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="34" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B398" s="37" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C398" s="34" t="s">
-        <v>1450</v>
+        <v>790</v>
       </c>
       <c r="D398" s="29" t="s">
-        <v>1162</v>
+        <v>1054</v>
       </c>
       <c r="E398" s="31">
         <v>4</v>
       </c>
       <c r="F398" s="31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G398" s="31">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H398" s="31"/>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="B399" s="38"/>
       <c r="C399" s="35"/>
       <c r="D399" s="8" t="s">
-        <v>1163</v>
+        <v>1055</v>
       </c>
       <c r="E399" s="32"/>
       <c r="F399" s="32"/>
@@ -10956,7 +10956,7 @@
       <c r="B400" s="38"/>
       <c r="C400" s="35"/>
       <c r="D400" s="8" t="s">
-        <v>1164</v>
+        <v>1056</v>
       </c>
       <c r="E400" s="32"/>
       <c r="F400" s="32"/>
@@ -10968,7 +10968,7 @@
       <c r="B401" s="39"/>
       <c r="C401" s="36"/>
       <c r="D401" s="30" t="s">
-        <v>1165</v>
+        <v>1057</v>
       </c>
       <c r="E401" s="33"/>
       <c r="F401" s="33"/>
@@ -10977,25 +10977,25 @@
     </row>
     <row r="402" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="34" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B402" s="37" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C402" s="34" t="s">
-        <v>1450</v>
+        <v>790</v>
       </c>
       <c r="D402" s="29" t="s">
-        <v>1132</v>
+        <v>1093</v>
       </c>
       <c r="E402" s="31">
         <v>4</v>
       </c>
       <c r="F402" s="31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G402" s="31">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H402" s="31"/>
     </row>
@@ -11004,7 +11004,7 @@
       <c r="B403" s="38"/>
       <c r="C403" s="35"/>
       <c r="D403" s="8" t="s">
-        <v>1133</v>
+        <v>1094</v>
       </c>
       <c r="E403" s="32"/>
       <c r="F403" s="32"/>
@@ -11016,7 +11016,7 @@
       <c r="B404" s="38"/>
       <c r="C404" s="35"/>
       <c r="D404" s="8" t="s">
-        <v>1134</v>
+        <v>1095</v>
       </c>
       <c r="E404" s="32"/>
       <c r="F404" s="32"/>
@@ -11028,7 +11028,7 @@
       <c r="B405" s="39"/>
       <c r="C405" s="36"/>
       <c r="D405" s="30" t="s">
-        <v>1135</v>
+        <v>1096</v>
       </c>
       <c r="E405" s="33"/>
       <c r="F405" s="33"/>
@@ -11037,25 +11037,25 @@
     </row>
     <row r="406" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B406" s="37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C406" s="34" t="s">
-        <v>1450</v>
+        <v>790</v>
       </c>
       <c r="D406" s="29" t="s">
-        <v>990</v>
+        <v>1154</v>
       </c>
       <c r="E406" s="31">
         <v>4</v>
       </c>
       <c r="F406" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G406" s="31">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H406" s="31"/>
     </row>
@@ -11064,7 +11064,7 @@
       <c r="B407" s="38"/>
       <c r="C407" s="35"/>
       <c r="D407" s="8" t="s">
-        <v>991</v>
+        <v>1155</v>
       </c>
       <c r="E407" s="32"/>
       <c r="F407" s="32"/>
@@ -11076,7 +11076,7 @@
       <c r="B408" s="38"/>
       <c r="C408" s="35"/>
       <c r="D408" s="8" t="s">
-        <v>992</v>
+        <v>1156</v>
       </c>
       <c r="E408" s="32"/>
       <c r="F408" s="32"/>
@@ -11088,34 +11088,34 @@
       <c r="B409" s="39"/>
       <c r="C409" s="36"/>
       <c r="D409" s="30" t="s">
-        <v>993</v>
+        <v>1157</v>
       </c>
       <c r="E409" s="33"/>
       <c r="F409" s="33"/>
       <c r="G409" s="33"/>
       <c r="H409" s="33"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="34" t="s">
-        <v>144</v>
+        <v>674</v>
       </c>
       <c r="B410" s="37" t="s">
-        <v>143</v>
+        <v>673</v>
       </c>
       <c r="C410" s="34" t="s">
-        <v>1450</v>
+        <v>790</v>
       </c>
       <c r="D410" s="29" t="s">
-        <v>1117</v>
+        <v>1427</v>
       </c>
       <c r="E410" s="31">
         <v>4</v>
       </c>
       <c r="F410" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G410" s="31">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H410" s="31"/>
     </row>
@@ -11124,7 +11124,7 @@
       <c r="B411" s="38"/>
       <c r="C411" s="35"/>
       <c r="D411" s="8" t="s">
-        <v>1118</v>
+        <v>1428</v>
       </c>
       <c r="E411" s="32"/>
       <c r="F411" s="32"/>
@@ -11136,7 +11136,7 @@
       <c r="B412" s="38"/>
       <c r="C412" s="35"/>
       <c r="D412" s="8" t="s">
-        <v>1119</v>
+        <v>1429</v>
       </c>
       <c r="E412" s="32"/>
       <c r="F412" s="32"/>
@@ -11148,34 +11148,34 @@
       <c r="B413" s="39"/>
       <c r="C413" s="36"/>
       <c r="D413" s="30" t="s">
-        <v>1120</v>
+        <v>790</v>
       </c>
       <c r="E413" s="33"/>
       <c r="F413" s="33"/>
       <c r="G413" s="33"/>
       <c r="H413" s="33"/>
     </row>
-    <row r="414" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="34" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="B414" s="37" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="C414" s="34" t="s">
-        <v>1450</v>
+        <v>790</v>
       </c>
       <c r="D414" s="29" t="s">
-        <v>1170</v>
+        <v>1002</v>
       </c>
       <c r="E414" s="31">
         <v>4</v>
       </c>
       <c r="F414" s="31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G414" s="31">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H414" s="31"/>
     </row>
@@ -11184,7 +11184,7 @@
       <c r="B415" s="38"/>
       <c r="C415" s="35"/>
       <c r="D415" s="8" t="s">
-        <v>1171</v>
+        <v>1003</v>
       </c>
       <c r="E415" s="32"/>
       <c r="F415" s="32"/>
@@ -11196,7 +11196,7 @@
       <c r="B416" s="38"/>
       <c r="C416" s="35"/>
       <c r="D416" s="8" t="s">
-        <v>1172</v>
+        <v>1004</v>
       </c>
       <c r="E416" s="32"/>
       <c r="F416" s="32"/>
@@ -11208,7 +11208,7 @@
       <c r="B417" s="39"/>
       <c r="C417" s="36"/>
       <c r="D417" s="30" t="s">
-        <v>1173</v>
+        <v>1005</v>
       </c>
       <c r="E417" s="33"/>
       <c r="F417" s="33"/>
@@ -11217,25 +11217,25 @@
     </row>
     <row r="418" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="34" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="B418" s="37" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="C418" s="34" t="s">
-        <v>1450</v>
+        <v>790</v>
       </c>
       <c r="D418" s="29" t="s">
-        <v>947</v>
+        <v>1006</v>
       </c>
       <c r="E418" s="31">
         <v>4</v>
       </c>
       <c r="F418" s="31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G418" s="31">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H418" s="31"/>
     </row>
@@ -11244,7 +11244,7 @@
       <c r="B419" s="38"/>
       <c r="C419" s="35"/>
       <c r="D419" s="8" t="s">
-        <v>948</v>
+        <v>1007</v>
       </c>
       <c r="E419" s="32"/>
       <c r="F419" s="32"/>
@@ -11256,7 +11256,7 @@
       <c r="B420" s="38"/>
       <c r="C420" s="35"/>
       <c r="D420" s="8" t="s">
-        <v>949</v>
+        <v>1008</v>
       </c>
       <c r="E420" s="32"/>
       <c r="F420" s="32"/>
@@ -11268,7 +11268,7 @@
       <c r="B421" s="39"/>
       <c r="C421" s="36"/>
       <c r="D421" s="30" t="s">
-        <v>950</v>
+        <v>1009</v>
       </c>
       <c r="E421" s="33"/>
       <c r="F421" s="33"/>
@@ -11277,25 +11277,25 @@
     </row>
     <row r="422" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="34" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="B422" s="37" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C422" s="34" t="s">
-        <v>1450</v>
+        <v>790</v>
       </c>
       <c r="D422" s="29" t="s">
-        <v>919</v>
+        <v>943</v>
       </c>
       <c r="E422" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F422" s="31">
         <v>15</v>
       </c>
       <c r="G422" s="31">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H422" s="31"/>
     </row>
@@ -11304,7 +11304,7 @@
       <c r="B423" s="38"/>
       <c r="C423" s="35"/>
       <c r="D423" s="8" t="s">
-        <v>920</v>
+        <v>944</v>
       </c>
       <c r="E423" s="32"/>
       <c r="F423" s="32"/>
@@ -11316,7 +11316,7 @@
       <c r="B424" s="38"/>
       <c r="C424" s="35"/>
       <c r="D424" s="8" t="s">
-        <v>921</v>
+        <v>945</v>
       </c>
       <c r="E424" s="32"/>
       <c r="F424" s="32"/>
@@ -11328,34 +11328,34 @@
       <c r="B425" s="39"/>
       <c r="C425" s="36"/>
       <c r="D425" s="30" t="s">
-        <v>922</v>
+        <v>946</v>
       </c>
       <c r="E425" s="33"/>
       <c r="F425" s="33"/>
       <c r="G425" s="33"/>
       <c r="H425" s="33"/>
     </row>
-    <row r="426" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="34" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B426" s="37" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="C426" s="34" t="s">
         <v>790</v>
       </c>
       <c r="D426" s="29" t="s">
-        <v>1047</v>
+        <v>915</v>
       </c>
       <c r="E426" s="31">
         <v>4</v>
       </c>
       <c r="F426" s="31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G426" s="31">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H426" s="31"/>
     </row>
@@ -11364,7 +11364,7 @@
       <c r="B427" s="38"/>
       <c r="C427" s="35"/>
       <c r="D427" s="8" t="s">
-        <v>1048</v>
+        <v>916</v>
       </c>
       <c r="E427" s="32"/>
       <c r="F427" s="32"/>
@@ -11376,7 +11376,7 @@
       <c r="B428" s="38"/>
       <c r="C428" s="35"/>
       <c r="D428" s="8" t="s">
-        <v>1049</v>
+        <v>917</v>
       </c>
       <c r="E428" s="32"/>
       <c r="F428" s="32"/>
@@ -11388,7 +11388,7 @@
       <c r="B429" s="39"/>
       <c r="C429" s="36"/>
       <c r="D429" s="30" t="s">
-        <v>1050</v>
+        <v>918</v>
       </c>
       <c r="E429" s="33"/>
       <c r="F429" s="33"/>
@@ -11397,16 +11397,16 @@
     </row>
     <row r="430" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B430" s="37" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C430" s="34" t="s">
-        <v>790</v>
+        <v>1450</v>
       </c>
       <c r="D430" s="29" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="E430" s="31">
         <v>4</v>
@@ -11415,7 +11415,7 @@
         <v>15</v>
       </c>
       <c r="G430" s="31">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H430" s="31"/>
     </row>
@@ -11424,7 +11424,7 @@
       <c r="B431" s="38"/>
       <c r="C431" s="35"/>
       <c r="D431" s="8" t="s">
-        <v>1008</v>
+        <v>1070</v>
       </c>
       <c r="E431" s="32"/>
       <c r="F431" s="32"/>
@@ -11436,7 +11436,7 @@
       <c r="B432" s="38"/>
       <c r="C432" s="35"/>
       <c r="D432" s="8" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="E432" s="32"/>
       <c r="F432" s="32"/>
@@ -11448,7 +11448,7 @@
       <c r="B433" s="39"/>
       <c r="C433" s="36"/>
       <c r="D433" s="30" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="E433" s="33"/>
       <c r="F433" s="33"/>
@@ -11457,25 +11457,25 @@
     </row>
     <row r="434" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="34" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="B434" s="37" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C434" s="34" t="s">
-        <v>790</v>
+        <v>1450</v>
       </c>
       <c r="D434" s="29" t="s">
-        <v>1054</v>
+        <v>1158</v>
       </c>
       <c r="E434" s="31">
         <v>4</v>
       </c>
       <c r="F434" s="31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G434" s="31">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H434" s="31"/>
     </row>
@@ -11484,7 +11484,7 @@
       <c r="B435" s="38"/>
       <c r="C435" s="35"/>
       <c r="D435" s="8" t="s">
-        <v>1055</v>
+        <v>1159</v>
       </c>
       <c r="E435" s="32"/>
       <c r="F435" s="32"/>
@@ -11496,7 +11496,7 @@
       <c r="B436" s="38"/>
       <c r="C436" s="35"/>
       <c r="D436" s="8" t="s">
-        <v>1056</v>
+        <v>1160</v>
       </c>
       <c r="E436" s="32"/>
       <c r="F436" s="32"/>
@@ -11508,7 +11508,7 @@
       <c r="B437" s="39"/>
       <c r="C437" s="36"/>
       <c r="D437" s="30" t="s">
-        <v>1057</v>
+        <v>1161</v>
       </c>
       <c r="E437" s="33"/>
       <c r="F437" s="33"/>
@@ -11517,25 +11517,25 @@
     </row>
     <row r="438" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="34" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B438" s="37" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C438" s="34" t="s">
-        <v>790</v>
+        <v>1450</v>
       </c>
       <c r="D438" s="29" t="s">
-        <v>1093</v>
+        <v>1162</v>
       </c>
       <c r="E438" s="31">
         <v>4</v>
       </c>
       <c r="F438" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G438" s="31">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H438" s="31"/>
     </row>
@@ -11544,7 +11544,7 @@
       <c r="B439" s="38"/>
       <c r="C439" s="35"/>
       <c r="D439" s="8" t="s">
-        <v>1094</v>
+        <v>1163</v>
       </c>
       <c r="E439" s="32"/>
       <c r="F439" s="32"/>
@@ -11556,7 +11556,7 @@
       <c r="B440" s="38"/>
       <c r="C440" s="35"/>
       <c r="D440" s="8" t="s">
-        <v>1095</v>
+        <v>1164</v>
       </c>
       <c r="E440" s="32"/>
       <c r="F440" s="32"/>
@@ -11568,7 +11568,7 @@
       <c r="B441" s="39"/>
       <c r="C441" s="36"/>
       <c r="D441" s="30" t="s">
-        <v>1096</v>
+        <v>1165</v>
       </c>
       <c r="E441" s="33"/>
       <c r="F441" s="33"/>
@@ -11577,25 +11577,25 @@
     </row>
     <row r="442" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="34" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B442" s="37" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C442" s="34" t="s">
-        <v>790</v>
+        <v>1450</v>
       </c>
       <c r="D442" s="29" t="s">
-        <v>1154</v>
+        <v>1132</v>
       </c>
       <c r="E442" s="31">
         <v>4</v>
       </c>
       <c r="F442" s="31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G442" s="31">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H442" s="31"/>
     </row>
@@ -11604,7 +11604,7 @@
       <c r="B443" s="38"/>
       <c r="C443" s="35"/>
       <c r="D443" s="8" t="s">
-        <v>1155</v>
+        <v>1133</v>
       </c>
       <c r="E443" s="32"/>
       <c r="F443" s="32"/>
@@ -11616,7 +11616,7 @@
       <c r="B444" s="38"/>
       <c r="C444" s="35"/>
       <c r="D444" s="8" t="s">
-        <v>1156</v>
+        <v>1134</v>
       </c>
       <c r="E444" s="32"/>
       <c r="F444" s="32"/>
@@ -11628,25 +11628,25 @@
       <c r="B445" s="39"/>
       <c r="C445" s="36"/>
       <c r="D445" s="30" t="s">
-        <v>1157</v>
+        <v>1135</v>
       </c>
       <c r="E445" s="33"/>
       <c r="F445" s="33"/>
       <c r="G445" s="33"/>
       <c r="H445" s="33"/>
     </row>
-    <row r="446" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="34" t="s">
-        <v>674</v>
+        <v>140</v>
       </c>
       <c r="B446" s="37" t="s">
-        <v>673</v>
+        <v>139</v>
       </c>
       <c r="C446" s="34" t="s">
-        <v>790</v>
+        <v>1450</v>
       </c>
       <c r="D446" s="29" t="s">
-        <v>1427</v>
+        <v>990</v>
       </c>
       <c r="E446" s="31">
         <v>4</v>
@@ -11655,7 +11655,7 @@
         <v>15</v>
       </c>
       <c r="G446" s="31">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H446" s="31"/>
     </row>
@@ -11664,7 +11664,7 @@
       <c r="B447" s="38"/>
       <c r="C447" s="35"/>
       <c r="D447" s="8" t="s">
-        <v>1428</v>
+        <v>991</v>
       </c>
       <c r="E447" s="32"/>
       <c r="F447" s="32"/>
@@ -11676,7 +11676,7 @@
       <c r="B448" s="38"/>
       <c r="C448" s="35"/>
       <c r="D448" s="8" t="s">
-        <v>1429</v>
+        <v>992</v>
       </c>
       <c r="E448" s="32"/>
       <c r="F448" s="32"/>
@@ -11688,7 +11688,7 @@
       <c r="B449" s="39"/>
       <c r="C449" s="36"/>
       <c r="D449" s="30" t="s">
-        <v>790</v>
+        <v>993</v>
       </c>
       <c r="E449" s="33"/>
       <c r="F449" s="33"/>
@@ -11697,16 +11697,16 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="34" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="B450" s="37" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="C450" s="34" t="s">
-        <v>790</v>
+        <v>1450</v>
       </c>
       <c r="D450" s="29" t="s">
-        <v>1002</v>
+        <v>1117</v>
       </c>
       <c r="E450" s="31">
         <v>4</v>
@@ -11715,7 +11715,7 @@
         <v>16</v>
       </c>
       <c r="G450" s="31">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H450" s="31"/>
     </row>
@@ -11724,7 +11724,7 @@
       <c r="B451" s="38"/>
       <c r="C451" s="35"/>
       <c r="D451" s="8" t="s">
-        <v>1003</v>
+        <v>1118</v>
       </c>
       <c r="E451" s="32"/>
       <c r="F451" s="32"/>
@@ -11736,7 +11736,7 @@
       <c r="B452" s="38"/>
       <c r="C452" s="35"/>
       <c r="D452" s="8" t="s">
-        <v>1004</v>
+        <v>1119</v>
       </c>
       <c r="E452" s="32"/>
       <c r="F452" s="32"/>
@@ -11748,7 +11748,7 @@
       <c r="B453" s="39"/>
       <c r="C453" s="36"/>
       <c r="D453" s="30" t="s">
-        <v>1005</v>
+        <v>1120</v>
       </c>
       <c r="E453" s="33"/>
       <c r="F453" s="33"/>
@@ -11757,25 +11757,25 @@
     </row>
     <row r="454" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="34" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B454" s="37" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C454" s="34" t="s">
-        <v>790</v>
+        <v>1450</v>
       </c>
       <c r="D454" s="29" t="s">
-        <v>1006</v>
+        <v>1170</v>
       </c>
       <c r="E454" s="31">
         <v>4</v>
       </c>
       <c r="F454" s="31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G454" s="31">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H454" s="31"/>
     </row>
@@ -11784,7 +11784,7 @@
       <c r="B455" s="38"/>
       <c r="C455" s="35"/>
       <c r="D455" s="8" t="s">
-        <v>1007</v>
+        <v>1171</v>
       </c>
       <c r="E455" s="32"/>
       <c r="F455" s="32"/>
@@ -11796,7 +11796,7 @@
       <c r="B456" s="38"/>
       <c r="C456" s="35"/>
       <c r="D456" s="8" t="s">
-        <v>1008</v>
+        <v>1172</v>
       </c>
       <c r="E456" s="32"/>
       <c r="F456" s="32"/>
@@ -11808,7 +11808,7 @@
       <c r="B457" s="39"/>
       <c r="C457" s="36"/>
       <c r="D457" s="30" t="s">
-        <v>1009</v>
+        <v>1173</v>
       </c>
       <c r="E457" s="33"/>
       <c r="F457" s="33"/>
@@ -11817,16 +11817,16 @@
     </row>
     <row r="458" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="34" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="B458" s="37" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="C458" s="34" t="s">
-        <v>790</v>
+        <v>1450</v>
       </c>
       <c r="D458" s="29" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="E458" s="31">
         <v>4</v>
@@ -11835,7 +11835,7 @@
         <v>15</v>
       </c>
       <c r="G458" s="31">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H458" s="31"/>
     </row>
@@ -11844,7 +11844,7 @@
       <c r="B459" s="38"/>
       <c r="C459" s="35"/>
       <c r="D459" s="8" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="E459" s="32"/>
       <c r="F459" s="32"/>
@@ -11856,7 +11856,7 @@
       <c r="B460" s="38"/>
       <c r="C460" s="35"/>
       <c r="D460" s="8" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="E460" s="32"/>
       <c r="F460" s="32"/>
@@ -11868,34 +11868,34 @@
       <c r="B461" s="39"/>
       <c r="C461" s="36"/>
       <c r="D461" s="30" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="E461" s="33"/>
       <c r="F461" s="33"/>
       <c r="G461" s="33"/>
       <c r="H461" s="33"/>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="34" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B462" s="37" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C462" s="34" t="s">
-        <v>790</v>
+        <v>1450</v>
       </c>
       <c r="D462" s="29" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="E462" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F462" s="31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G462" s="31">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H462" s="31"/>
     </row>
@@ -11904,7 +11904,7 @@
       <c r="B463" s="38"/>
       <c r="C463" s="35"/>
       <c r="D463" s="8" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="E463" s="32"/>
       <c r="F463" s="32"/>
@@ -11916,7 +11916,7 @@
       <c r="B464" s="38"/>
       <c r="C464" s="35"/>
       <c r="D464" s="8" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="E464" s="32"/>
       <c r="F464" s="32"/>
@@ -11928,7 +11928,7 @@
       <c r="B465" s="39"/>
       <c r="C465" s="36"/>
       <c r="D465" s="30" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E465" s="33"/>
       <c r="F465" s="33"/>
@@ -15278,9 +15278,9 @@
     <mergeCell ref="F43:F45"/>
     <mergeCell ref="G43:G45"/>
     <mergeCell ref="H43:H45"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="F247:F250"/>
+    <mergeCell ref="G247:G250"/>
+    <mergeCell ref="H247:H250"/>
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="G15:G18"/>
     <mergeCell ref="H15:H18"/>
@@ -15290,8 +15290,8 @@
     <mergeCell ref="F40:F42"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="H40:H42"/>
-    <mergeCell ref="G237:G240"/>
-    <mergeCell ref="H237:H240"/>
+    <mergeCell ref="G169:G172"/>
+    <mergeCell ref="H169:H172"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
     <mergeCell ref="H23:H26"/>
@@ -15301,56 +15301,56 @@
     <mergeCell ref="F543:F546"/>
     <mergeCell ref="G543:G546"/>
     <mergeCell ref="H543:H546"/>
-    <mergeCell ref="F144:F147"/>
-    <mergeCell ref="G144:G147"/>
-    <mergeCell ref="H144:H147"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="H76:H79"/>
     <mergeCell ref="F511:F514"/>
     <mergeCell ref="G511:G514"/>
     <mergeCell ref="H511:H514"/>
-    <mergeCell ref="F254:F257"/>
-    <mergeCell ref="G254:G257"/>
-    <mergeCell ref="H254:H257"/>
-    <mergeCell ref="F446:F449"/>
-    <mergeCell ref="G446:G449"/>
-    <mergeCell ref="H446:H449"/>
+    <mergeCell ref="F186:F189"/>
+    <mergeCell ref="G186:G189"/>
+    <mergeCell ref="H186:H189"/>
+    <mergeCell ref="F410:F413"/>
+    <mergeCell ref="G410:G413"/>
+    <mergeCell ref="H410:H413"/>
     <mergeCell ref="F547:F550"/>
     <mergeCell ref="G547:G550"/>
     <mergeCell ref="H547:H550"/>
     <mergeCell ref="G386:G389"/>
     <mergeCell ref="H386:H389"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="G105:G108"/>
+    <mergeCell ref="H105:H108"/>
+    <mergeCell ref="F177:F181"/>
+    <mergeCell ref="G177:G181"/>
+    <mergeCell ref="H177:H181"/>
+    <mergeCell ref="F182:F185"/>
+    <mergeCell ref="G182:G185"/>
+    <mergeCell ref="H182:H185"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="H46:H50"/>
     <mergeCell ref="F173:F176"/>
     <mergeCell ref="G173:G176"/>
     <mergeCell ref="H173:H176"/>
-    <mergeCell ref="F245:F249"/>
-    <mergeCell ref="G245:G249"/>
-    <mergeCell ref="H245:H249"/>
-    <mergeCell ref="F250:F253"/>
-    <mergeCell ref="G250:G253"/>
-    <mergeCell ref="H250:H253"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="F241:F244"/>
-    <mergeCell ref="G241:G244"/>
-    <mergeCell ref="H241:H244"/>
     <mergeCell ref="F382:F385"/>
     <mergeCell ref="G382:G385"/>
     <mergeCell ref="H382:H385"/>
-    <mergeCell ref="F177:F180"/>
-    <mergeCell ref="G177:G180"/>
-    <mergeCell ref="H177:H180"/>
-    <mergeCell ref="F136:F139"/>
-    <mergeCell ref="G136:G139"/>
-    <mergeCell ref="H136:H139"/>
-    <mergeCell ref="F169:F172"/>
-    <mergeCell ref="G169:G172"/>
-    <mergeCell ref="H169:H172"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="F287:F290"/>
+    <mergeCell ref="G287:G290"/>
+    <mergeCell ref="H287:H290"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="H101:H104"/>
     <mergeCell ref="F64:F67"/>
     <mergeCell ref="G64:G67"/>
     <mergeCell ref="H64:H67"/>
     <mergeCell ref="F60:F63"/>
     <mergeCell ref="G60:G63"/>
     <mergeCell ref="H60:H63"/>
-    <mergeCell ref="F237:F240"/>
+    <mergeCell ref="F169:F172"/>
     <mergeCell ref="G515:G518"/>
     <mergeCell ref="H515:H518"/>
     <mergeCell ref="F370:F373"/>
@@ -15362,29 +15362,29 @@
     <mergeCell ref="F378:F381"/>
     <mergeCell ref="G378:G381"/>
     <mergeCell ref="H378:H381"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="H263:H266"/>
     <mergeCell ref="F36:F39"/>
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="H36:H39"/>
-    <mergeCell ref="F195:F198"/>
-    <mergeCell ref="G195:G198"/>
-    <mergeCell ref="H195:H198"/>
-    <mergeCell ref="F165:F168"/>
-    <mergeCell ref="G165:G168"/>
-    <mergeCell ref="H165:H168"/>
-    <mergeCell ref="F132:F135"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="H132:H135"/>
-    <mergeCell ref="F140:F143"/>
-    <mergeCell ref="G140:G143"/>
-    <mergeCell ref="H140:H143"/>
-    <mergeCell ref="F128:F131"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="H128:H131"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="G124:G127"/>
-    <mergeCell ref="H124:H127"/>
+    <mergeCell ref="F127:F130"/>
+    <mergeCell ref="G127:G130"/>
+    <mergeCell ref="H127:H130"/>
+    <mergeCell ref="F97:F100"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="H97:H100"/>
+    <mergeCell ref="F283:F286"/>
+    <mergeCell ref="G283:G286"/>
+    <mergeCell ref="H283:H286"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="F279:F282"/>
+    <mergeCell ref="G279:G282"/>
+    <mergeCell ref="H279:H282"/>
+    <mergeCell ref="F275:F278"/>
+    <mergeCell ref="G275:G278"/>
+    <mergeCell ref="H275:H278"/>
     <mergeCell ref="F46:F50"/>
     <mergeCell ref="F503:F506"/>
     <mergeCell ref="G503:G506"/>
@@ -15392,9 +15392,9 @@
     <mergeCell ref="F56:F59"/>
     <mergeCell ref="G56:G59"/>
     <mergeCell ref="H56:H59"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="F251:F254"/>
+    <mergeCell ref="G251:G254"/>
+    <mergeCell ref="H251:H254"/>
     <mergeCell ref="F299:F303"/>
     <mergeCell ref="G299:G303"/>
     <mergeCell ref="H299:H303"/>
@@ -15407,17 +15407,17 @@
     <mergeCell ref="F366:F369"/>
     <mergeCell ref="G366:G369"/>
     <mergeCell ref="H366:H369"/>
-    <mergeCell ref="F116:F119"/>
-    <mergeCell ref="G116:G119"/>
-    <mergeCell ref="H116:H119"/>
-    <mergeCell ref="G406:G409"/>
-    <mergeCell ref="H406:H409"/>
+    <mergeCell ref="F267:F270"/>
+    <mergeCell ref="G267:G270"/>
+    <mergeCell ref="H267:H270"/>
+    <mergeCell ref="G446:G449"/>
+    <mergeCell ref="H446:H449"/>
     <mergeCell ref="F349:F352"/>
     <mergeCell ref="G349:G352"/>
     <mergeCell ref="H349:H352"/>
-    <mergeCell ref="F104:F107"/>
-    <mergeCell ref="G104:G107"/>
-    <mergeCell ref="H104:H107"/>
+    <mergeCell ref="F255:F258"/>
+    <mergeCell ref="G255:G258"/>
+    <mergeCell ref="H255:H258"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="H19:H22"/>
@@ -15427,74 +15427,74 @@
     <mergeCell ref="F51:F55"/>
     <mergeCell ref="G51:G55"/>
     <mergeCell ref="H51:H55"/>
-    <mergeCell ref="F120:F123"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="H120:H123"/>
-    <mergeCell ref="F108:F111"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="F112:F115"/>
+    <mergeCell ref="F271:F274"/>
+    <mergeCell ref="G271:G274"/>
+    <mergeCell ref="H271:H274"/>
+    <mergeCell ref="F259:F262"/>
+    <mergeCell ref="G259:G262"/>
+    <mergeCell ref="H259:H262"/>
+    <mergeCell ref="F263:F266"/>
     <mergeCell ref="G321:G324"/>
     <mergeCell ref="H321:H324"/>
-    <mergeCell ref="F270:F273"/>
-    <mergeCell ref="G270:G273"/>
-    <mergeCell ref="H270:H273"/>
+    <mergeCell ref="F202:F205"/>
+    <mergeCell ref="G202:G205"/>
+    <mergeCell ref="H202:H205"/>
     <mergeCell ref="F345:F348"/>
     <mergeCell ref="G345:G348"/>
     <mergeCell ref="H345:H348"/>
-    <mergeCell ref="F286:F290"/>
-    <mergeCell ref="G286:G290"/>
-    <mergeCell ref="H286:H290"/>
+    <mergeCell ref="F218:F222"/>
+    <mergeCell ref="G218:G222"/>
+    <mergeCell ref="H218:H222"/>
     <mergeCell ref="F304:F307"/>
     <mergeCell ref="G304:G307"/>
     <mergeCell ref="H304:H307"/>
     <mergeCell ref="F291:F294"/>
     <mergeCell ref="G291:G294"/>
     <mergeCell ref="H291:H294"/>
-    <mergeCell ref="G414:G417"/>
-    <mergeCell ref="H414:H417"/>
+    <mergeCell ref="G454:G457"/>
+    <mergeCell ref="H454:H457"/>
     <mergeCell ref="F499:F502"/>
     <mergeCell ref="G499:G502"/>
     <mergeCell ref="H499:H502"/>
-    <mergeCell ref="F442:F445"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="H442:H445"/>
+    <mergeCell ref="F406:F409"/>
+    <mergeCell ref="G406:G409"/>
+    <mergeCell ref="H406:H409"/>
     <mergeCell ref="F353:F356"/>
     <mergeCell ref="G353:G356"/>
     <mergeCell ref="H353:H356"/>
     <mergeCell ref="F357:F361"/>
     <mergeCell ref="G357:G361"/>
     <mergeCell ref="H357:H361"/>
-    <mergeCell ref="F394:F397"/>
-    <mergeCell ref="G394:G397"/>
-    <mergeCell ref="H394:H397"/>
-    <mergeCell ref="F402:F405"/>
-    <mergeCell ref="G402:G405"/>
-    <mergeCell ref="H402:H405"/>
-    <mergeCell ref="F454:F457"/>
-    <mergeCell ref="G454:G457"/>
-    <mergeCell ref="H454:H457"/>
-    <mergeCell ref="F406:F409"/>
-    <mergeCell ref="G398:G401"/>
-    <mergeCell ref="H398:H401"/>
+    <mergeCell ref="F434:F437"/>
+    <mergeCell ref="G434:G437"/>
+    <mergeCell ref="H434:H437"/>
+    <mergeCell ref="F442:F445"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="H442:H445"/>
+    <mergeCell ref="F418:F421"/>
+    <mergeCell ref="G418:G421"/>
+    <mergeCell ref="H418:H421"/>
+    <mergeCell ref="F446:F449"/>
+    <mergeCell ref="G438:G441"/>
+    <mergeCell ref="H438:H441"/>
     <mergeCell ref="F295:F298"/>
     <mergeCell ref="G295:G298"/>
     <mergeCell ref="H295:H298"/>
-    <mergeCell ref="F213:F216"/>
-    <mergeCell ref="G213:G216"/>
-    <mergeCell ref="H213:H216"/>
-    <mergeCell ref="F233:F236"/>
-    <mergeCell ref="G233:G236"/>
-    <mergeCell ref="H233:H236"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="H145:H148"/>
+    <mergeCell ref="F165:F168"/>
+    <mergeCell ref="G165:G168"/>
+    <mergeCell ref="H165:H168"/>
     <mergeCell ref="F308:F311"/>
     <mergeCell ref="G308:G311"/>
     <mergeCell ref="H308:H311"/>
-    <mergeCell ref="F282:F285"/>
-    <mergeCell ref="G282:G285"/>
-    <mergeCell ref="H282:H285"/>
-    <mergeCell ref="F258:F261"/>
-    <mergeCell ref="G258:G261"/>
-    <mergeCell ref="H258:H261"/>
+    <mergeCell ref="F214:F217"/>
+    <mergeCell ref="G214:G217"/>
+    <mergeCell ref="H214:H217"/>
+    <mergeCell ref="F190:F193"/>
+    <mergeCell ref="G190:G193"/>
+    <mergeCell ref="H190:H193"/>
     <mergeCell ref="F341:F344"/>
     <mergeCell ref="G341:G344"/>
     <mergeCell ref="H341:H344"/>
@@ -15502,48 +15502,48 @@
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
-    <mergeCell ref="F205:F208"/>
-    <mergeCell ref="G205:G208"/>
-    <mergeCell ref="H205:H208"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="H137:H140"/>
     <mergeCell ref="F312:F315"/>
     <mergeCell ref="G312:G315"/>
     <mergeCell ref="H312:H315"/>
-    <mergeCell ref="F190:F194"/>
-    <mergeCell ref="G190:G194"/>
-    <mergeCell ref="H190:H194"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="G148:G151"/>
-    <mergeCell ref="H148:H151"/>
-    <mergeCell ref="F152:F155"/>
-    <mergeCell ref="G152:G155"/>
-    <mergeCell ref="H152:H155"/>
-    <mergeCell ref="F156:F160"/>
-    <mergeCell ref="G156:G160"/>
-    <mergeCell ref="H156:H160"/>
+    <mergeCell ref="F122:F126"/>
+    <mergeCell ref="G122:G126"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="G88:G92"/>
+    <mergeCell ref="H88:H92"/>
     <mergeCell ref="F68:F71"/>
     <mergeCell ref="G68:G71"/>
     <mergeCell ref="H68:H71"/>
     <mergeCell ref="G466:G469"/>
     <mergeCell ref="H466:H469"/>
-    <mergeCell ref="F186:F189"/>
+    <mergeCell ref="F118:F121"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F410:F413"/>
-    <mergeCell ref="G410:G413"/>
-    <mergeCell ref="H410:H413"/>
-    <mergeCell ref="F229:F232"/>
-    <mergeCell ref="G229:G232"/>
-    <mergeCell ref="H229:H232"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="F438:F441"/>
-    <mergeCell ref="G438:G441"/>
-    <mergeCell ref="H438:H441"/>
-    <mergeCell ref="F225:F228"/>
-    <mergeCell ref="G225:G228"/>
-    <mergeCell ref="H225:H228"/>
+    <mergeCell ref="F450:F453"/>
+    <mergeCell ref="G450:G453"/>
+    <mergeCell ref="H450:H453"/>
+    <mergeCell ref="F161:F164"/>
+    <mergeCell ref="G161:G164"/>
+    <mergeCell ref="H161:H164"/>
+    <mergeCell ref="F243:F246"/>
+    <mergeCell ref="G243:G246"/>
+    <mergeCell ref="H243:H246"/>
+    <mergeCell ref="F402:F405"/>
+    <mergeCell ref="G402:G405"/>
+    <mergeCell ref="H402:H405"/>
+    <mergeCell ref="F157:F160"/>
+    <mergeCell ref="G157:G160"/>
+    <mergeCell ref="H157:H160"/>
     <mergeCell ref="F507:F510"/>
     <mergeCell ref="G507:G510"/>
     <mergeCell ref="H507:H510"/>
@@ -15559,27 +15559,27 @@
     <mergeCell ref="F495:F498"/>
     <mergeCell ref="G495:G498"/>
     <mergeCell ref="H495:H498"/>
-    <mergeCell ref="F450:F453"/>
-    <mergeCell ref="G450:G453"/>
-    <mergeCell ref="H450:H453"/>
-    <mergeCell ref="F199:F201"/>
-    <mergeCell ref="G199:G201"/>
-    <mergeCell ref="H199:H201"/>
-    <mergeCell ref="F426:F429"/>
-    <mergeCell ref="G426:G429"/>
-    <mergeCell ref="H426:H429"/>
-    <mergeCell ref="F430:F433"/>
-    <mergeCell ref="G430:G433"/>
-    <mergeCell ref="H430:H433"/>
-    <mergeCell ref="F434:F437"/>
-    <mergeCell ref="G434:G437"/>
-    <mergeCell ref="H434:H437"/>
-    <mergeCell ref="F262:F265"/>
-    <mergeCell ref="G262:G265"/>
-    <mergeCell ref="H262:H265"/>
-    <mergeCell ref="F266:F269"/>
-    <mergeCell ref="G266:G269"/>
-    <mergeCell ref="H266:H269"/>
+    <mergeCell ref="F414:F417"/>
+    <mergeCell ref="G414:G417"/>
+    <mergeCell ref="H414:H417"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="G131:G133"/>
+    <mergeCell ref="H131:H133"/>
+    <mergeCell ref="F390:F393"/>
+    <mergeCell ref="G390:G393"/>
+    <mergeCell ref="H390:H393"/>
+    <mergeCell ref="F394:F397"/>
+    <mergeCell ref="G394:G397"/>
+    <mergeCell ref="H394:H397"/>
+    <mergeCell ref="F398:F401"/>
+    <mergeCell ref="G398:G401"/>
+    <mergeCell ref="H398:H401"/>
+    <mergeCell ref="F194:F197"/>
+    <mergeCell ref="G194:G197"/>
+    <mergeCell ref="H194:H197"/>
+    <mergeCell ref="F198:F201"/>
+    <mergeCell ref="G198:G201"/>
+    <mergeCell ref="H198:H201"/>
     <mergeCell ref="F6:F10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="H6:H10"/>
@@ -15589,126 +15589,126 @@
     <mergeCell ref="F491:F494"/>
     <mergeCell ref="G491:G494"/>
     <mergeCell ref="H491:H494"/>
-    <mergeCell ref="F274:F277"/>
-    <mergeCell ref="G274:G277"/>
-    <mergeCell ref="H274:H277"/>
-    <mergeCell ref="F278:F281"/>
-    <mergeCell ref="G278:G281"/>
-    <mergeCell ref="H278:H281"/>
-    <mergeCell ref="F161:F164"/>
-    <mergeCell ref="G161:G164"/>
-    <mergeCell ref="H161:H164"/>
+    <mergeCell ref="F206:F209"/>
+    <mergeCell ref="G206:G209"/>
+    <mergeCell ref="H206:H209"/>
+    <mergeCell ref="F210:F213"/>
+    <mergeCell ref="G210:G213"/>
+    <mergeCell ref="H210:H213"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="H93:H96"/>
     <mergeCell ref="F31:F35"/>
     <mergeCell ref="G31:G35"/>
     <mergeCell ref="H31:H35"/>
     <mergeCell ref="F470:F474"/>
     <mergeCell ref="G470:G474"/>
     <mergeCell ref="H470:H474"/>
+    <mergeCell ref="H426:H429"/>
     <mergeCell ref="H462:H465"/>
     <mergeCell ref="H422:H425"/>
     <mergeCell ref="H458:H461"/>
-    <mergeCell ref="H418:H421"/>
-    <mergeCell ref="G186:G189"/>
-    <mergeCell ref="H186:H189"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="F217:F220"/>
-    <mergeCell ref="G217:G220"/>
-    <mergeCell ref="H217:H220"/>
-    <mergeCell ref="G181:G185"/>
-    <mergeCell ref="H181:H185"/>
-    <mergeCell ref="F202:F204"/>
-    <mergeCell ref="G202:G204"/>
-    <mergeCell ref="H202:H204"/>
-    <mergeCell ref="F390:F393"/>
-    <mergeCell ref="G390:G393"/>
-    <mergeCell ref="H390:H393"/>
-    <mergeCell ref="F221:F224"/>
-    <mergeCell ref="G221:G224"/>
-    <mergeCell ref="H221:H224"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="F239:F242"/>
+    <mergeCell ref="G239:G242"/>
+    <mergeCell ref="H239:H242"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="H149:H152"/>
+    <mergeCell ref="G113:G117"/>
+    <mergeCell ref="H113:H117"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="H134:H136"/>
+    <mergeCell ref="F430:F433"/>
+    <mergeCell ref="G430:G433"/>
+    <mergeCell ref="H430:H433"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="H153:H156"/>
     <mergeCell ref="F523:F526"/>
     <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="A398:A401"/>
     <mergeCell ref="A341:A344"/>
     <mergeCell ref="A337:A340"/>
     <mergeCell ref="A531:A534"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="A229:A232"/>
-    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A450:A453"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A243:A246"/>
     <mergeCell ref="A519:A522"/>
-    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="A458:A461"/>
     <mergeCell ref="A535:A538"/>
-    <mergeCell ref="A181:A185"/>
+    <mergeCell ref="A113:A117"/>
     <mergeCell ref="A333:A336"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A238"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A470:A474"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="A157:A160"/>
     <mergeCell ref="A304:A307"/>
     <mergeCell ref="A479:A482"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A430:A433"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="A442:A445"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A446:A449"/>
     <mergeCell ref="A523:A526"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="A141:A144"/>
     <mergeCell ref="A527:A530"/>
     <mergeCell ref="A466:A469"/>
-    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="A118:A121"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="A245:A249"/>
-    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A182:A185"/>
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="A308:A311"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="A286:A290"/>
-    <mergeCell ref="A233:A236"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A190:A194"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A122:A126"/>
     <mergeCell ref="A295:A298"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A274:A277"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="A134:A136"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A262:A265"/>
-    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A198:A201"/>
     <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A251:A254"/>
+    <mergeCell ref="A255:A258"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A370:A373"/>
     <mergeCell ref="A374:A377"/>
     <mergeCell ref="A378:A381"/>
     <mergeCell ref="A329:A332"/>
+    <mergeCell ref="B426:B429"/>
     <mergeCell ref="B462:B465"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="B231:B234"/>
     <mergeCell ref="A366:A369"/>
     <mergeCell ref="A291:A294"/>
     <mergeCell ref="A51:A55"/>
@@ -15717,128 +15717,128 @@
     <mergeCell ref="B345:B348"/>
     <mergeCell ref="A316:A320"/>
     <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="A97:A100"/>
     <mergeCell ref="A46:A50"/>
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B286:B290"/>
+    <mergeCell ref="B218:B222"/>
     <mergeCell ref="A362:A365"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="A263:A266"/>
     <mergeCell ref="A349:A352"/>
     <mergeCell ref="A299:A303"/>
     <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A270:A273"/>
-    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="A127:A130"/>
     <mergeCell ref="A353:A356"/>
     <mergeCell ref="A357:A361"/>
     <mergeCell ref="B333:B336"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B153:B156"/>
     <mergeCell ref="B523:B526"/>
-    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="A169:A172"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A312:A315"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A140:A143"/>
-    <mergeCell ref="A128:A131"/>
-    <mergeCell ref="A446:A449"/>
+    <mergeCell ref="A267:A270"/>
+    <mergeCell ref="A271:A274"/>
+    <mergeCell ref="A275:A278"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A279:A282"/>
+    <mergeCell ref="A410:A413"/>
     <mergeCell ref="A539:A542"/>
     <mergeCell ref="A543:A546"/>
-    <mergeCell ref="A144:A147"/>
+    <mergeCell ref="A76:A79"/>
     <mergeCell ref="A503:A506"/>
     <mergeCell ref="A515:A518"/>
     <mergeCell ref="A499:A502"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="A454:A457"/>
     <mergeCell ref="A491:A494"/>
     <mergeCell ref="A475:A478"/>
     <mergeCell ref="A507:A510"/>
     <mergeCell ref="A483:A486"/>
     <mergeCell ref="A487:A490"/>
     <mergeCell ref="A495:A498"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="A426:A429"/>
     <mergeCell ref="A547:A550"/>
     <mergeCell ref="A382:A385"/>
     <mergeCell ref="A511:A514"/>
-    <mergeCell ref="A254:A257"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="A101:A104"/>
     <mergeCell ref="A386:A389"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A287:A290"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="B141:B144"/>
     <mergeCell ref="B527:B530"/>
     <mergeCell ref="B466:B469"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B235:B238"/>
     <mergeCell ref="B519:B522"/>
+    <mergeCell ref="B422:B425"/>
     <mergeCell ref="B458:B461"/>
+    <mergeCell ref="B535:B538"/>
+    <mergeCell ref="B113:B117"/>
     <mergeCell ref="B418:B421"/>
-    <mergeCell ref="B535:B538"/>
-    <mergeCell ref="B181:B185"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B446:B449"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="B198:B201"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B190:B194"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="B394:B397"/>
     <mergeCell ref="B304:B307"/>
     <mergeCell ref="B341:B344"/>
     <mergeCell ref="B337:B340"/>
     <mergeCell ref="B531:B534"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="B450:B453"/>
+    <mergeCell ref="B161:B164"/>
     <mergeCell ref="B507:B510"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B31:B35"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B241:B244"/>
-    <mergeCell ref="B245:B249"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B177:B181"/>
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B308:B311"/>
-    <mergeCell ref="B282:B285"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B454:B457"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B137:B140"/>
     <mergeCell ref="B312:B315"/>
-    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B434:B437"/>
     <mergeCell ref="B438:B441"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="B398:B401"/>
     <mergeCell ref="B295:B298"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="B243:B246"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="B442:B445"/>
     <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="B251:B254"/>
+    <mergeCell ref="B255:B258"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B362:B365"/>
     <mergeCell ref="B357:B361"/>
@@ -15846,21 +15846,21 @@
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="B316:B320"/>
     <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B144:B147"/>
+    <mergeCell ref="B76:B79"/>
     <mergeCell ref="B299:B303"/>
     <mergeCell ref="B325:B328"/>
     <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B353:B356"/>
     <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B233:B236"/>
-    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="B169:B172"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F223:F226"/>
+    <mergeCell ref="E227:E230"/>
     <mergeCell ref="B64:B67"/>
     <mergeCell ref="B547:B550"/>
     <mergeCell ref="B382:B385"/>
@@ -15868,11 +15868,11 @@
     <mergeCell ref="B515:B518"/>
     <mergeCell ref="B370:B373"/>
     <mergeCell ref="B374:B377"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="F227:F230"/>
+    <mergeCell ref="E231:E234"/>
+    <mergeCell ref="F231:F234"/>
+    <mergeCell ref="E235:E238"/>
+    <mergeCell ref="F235:F238"/>
     <mergeCell ref="E519:E522"/>
     <mergeCell ref="F519:F522"/>
     <mergeCell ref="B378:B381"/>
@@ -15880,255 +15880,255 @@
     <mergeCell ref="B349:B352"/>
     <mergeCell ref="B470:B474"/>
     <mergeCell ref="B499:B502"/>
-    <mergeCell ref="B442:B445"/>
+    <mergeCell ref="B406:B409"/>
     <mergeCell ref="B487:B490"/>
     <mergeCell ref="B491:B494"/>
     <mergeCell ref="B511:B514"/>
-    <mergeCell ref="B254:B257"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="B101:B104"/>
     <mergeCell ref="B386:B389"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B287:B290"/>
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="B539:B542"/>
     <mergeCell ref="B543:B546"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="B267:B270"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="B275:B278"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="B263:B266"/>
     <mergeCell ref="B503:B506"/>
     <mergeCell ref="B495:B498"/>
     <mergeCell ref="B479:B482"/>
     <mergeCell ref="B483:B486"/>
     <mergeCell ref="B475:B478"/>
+    <mergeCell ref="F422:F425"/>
+    <mergeCell ref="E458:E461"/>
     <mergeCell ref="F458:F461"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="F418:F421"/>
     <mergeCell ref="E535:E538"/>
     <mergeCell ref="F535:F538"/>
-    <mergeCell ref="F181:F185"/>
+    <mergeCell ref="F113:F117"/>
     <mergeCell ref="F466:F469"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="F426:F429"/>
     <mergeCell ref="E462:E465"/>
     <mergeCell ref="F462:F465"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="F422:F425"/>
     <mergeCell ref="F333:F336"/>
-    <mergeCell ref="F209:F212"/>
+    <mergeCell ref="F141:F144"/>
     <mergeCell ref="F527:F530"/>
-    <mergeCell ref="F398:F401"/>
-    <mergeCell ref="F414:F417"/>
+    <mergeCell ref="F438:F441"/>
+    <mergeCell ref="F454:F457"/>
     <mergeCell ref="F531:F534"/>
     <mergeCell ref="F316:F320"/>
     <mergeCell ref="F321:F324"/>
     <mergeCell ref="F515:F518"/>
     <mergeCell ref="F386:F389"/>
     <mergeCell ref="E491:E494"/>
-    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="E446:E449"/>
     <mergeCell ref="E523:E526"/>
     <mergeCell ref="E495:E498"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="E217:E220"/>
-    <mergeCell ref="E221:E224"/>
-    <mergeCell ref="E266:E269"/>
+    <mergeCell ref="E239:E242"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="E198:E201"/>
     <mergeCell ref="E31:E35"/>
-    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="E390:E393"/>
     <mergeCell ref="E527:E530"/>
     <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="E181:E185"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E113:E117"/>
     <mergeCell ref="E333:E336"/>
-    <mergeCell ref="E209:E212"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E141:E144"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E223:E226"/>
+    <mergeCell ref="E398:E401"/>
     <mergeCell ref="E479:E482"/>
     <mergeCell ref="E337:E340"/>
     <mergeCell ref="E531:E534"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E225:E228"/>
+    <mergeCell ref="E450:E453"/>
+    <mergeCell ref="E157:E160"/>
     <mergeCell ref="E304:E307"/>
     <mergeCell ref="E341:E344"/>
     <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E205:E208"/>
-    <mergeCell ref="E213:E216"/>
-    <mergeCell ref="E270:E273"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="E202:E205"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E229:E232"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="E152:E155"/>
-    <mergeCell ref="E156:E160"/>
+    <mergeCell ref="E161:E164"/>
+    <mergeCell ref="E243:E246"/>
+    <mergeCell ref="E247:E250"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="E88:E92"/>
     <mergeCell ref="E295:E298"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="E274:E277"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="E210:E213"/>
+    <mergeCell ref="E134:E136"/>
     <mergeCell ref="E507:E510"/>
-    <mergeCell ref="E199:E201"/>
-    <mergeCell ref="E161:E164"/>
-    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="E430:E433"/>
     <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E241:E244"/>
+    <mergeCell ref="E173:E176"/>
     <mergeCell ref="E321:E324"/>
     <mergeCell ref="E503:E506"/>
-    <mergeCell ref="E233:E236"/>
-    <mergeCell ref="E237:E240"/>
+    <mergeCell ref="E165:E168"/>
+    <mergeCell ref="E169:E172"/>
     <mergeCell ref="E308:E311"/>
-    <mergeCell ref="E282:E285"/>
-    <mergeCell ref="E286:E290"/>
+    <mergeCell ref="E214:E217"/>
+    <mergeCell ref="E218:E222"/>
     <mergeCell ref="E312:E315"/>
-    <mergeCell ref="E190:E194"/>
+    <mergeCell ref="E122:E126"/>
     <mergeCell ref="E68:E71"/>
-    <mergeCell ref="E165:E168"/>
+    <mergeCell ref="E97:E100"/>
     <mergeCell ref="E470:E474"/>
-    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E402:E405"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="E43:E45"/>
     <mergeCell ref="E499:E502"/>
-    <mergeCell ref="E402:E405"/>
     <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E406:E409"/>
     <mergeCell ref="E475:E478"/>
     <mergeCell ref="E483:E486"/>
     <mergeCell ref="E487:E490"/>
-    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="E394:E397"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="E362:E365"/>
-    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="E259:E262"/>
     <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="E104:E107"/>
+    <mergeCell ref="E251:E254"/>
+    <mergeCell ref="E255:E258"/>
     <mergeCell ref="E370:E373"/>
     <mergeCell ref="E374:E377"/>
     <mergeCell ref="E46:E50"/>
-    <mergeCell ref="E195:E198"/>
-    <mergeCell ref="E245:E249"/>
-    <mergeCell ref="E250:E253"/>
-    <mergeCell ref="E258:E261"/>
+    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="E177:E181"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="E190:E193"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="E325:E328"/>
     <mergeCell ref="E329:E332"/>
-    <mergeCell ref="E116:E119"/>
+    <mergeCell ref="E267:E270"/>
     <mergeCell ref="E36:E39"/>
     <mergeCell ref="E345:E348"/>
     <mergeCell ref="E316:E320"/>
     <mergeCell ref="E353:E356"/>
     <mergeCell ref="E357:E361"/>
     <mergeCell ref="E51:E55"/>
-    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="E263:E266"/>
     <mergeCell ref="E349:E352"/>
     <mergeCell ref="E299:E303"/>
     <mergeCell ref="C475:C478"/>
-    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="C153:C156"/>
     <mergeCell ref="C523:C526"/>
     <mergeCell ref="C495:C498"/>
     <mergeCell ref="C479:C482"/>
     <mergeCell ref="C483:C486"/>
     <mergeCell ref="C487:C490"/>
     <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C390:C393"/>
     <mergeCell ref="E60:E63"/>
     <mergeCell ref="E64:E67"/>
     <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E173:E176"/>
-    <mergeCell ref="E177:E180"/>
-    <mergeCell ref="E132:E135"/>
-    <mergeCell ref="E169:E172"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="E283:E286"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="C426:C429"/>
     <mergeCell ref="C462:C465"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="E144:E147"/>
-    <mergeCell ref="E254:E257"/>
-    <mergeCell ref="E446:E449"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="C235:C238"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="E410:E413"/>
     <mergeCell ref="E378:E381"/>
     <mergeCell ref="E515:E518"/>
-    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="E279:E282"/>
     <mergeCell ref="E366:E369"/>
     <mergeCell ref="E291:E294"/>
-    <mergeCell ref="E120:E123"/>
-    <mergeCell ref="E124:E127"/>
-    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="E271:E274"/>
+    <mergeCell ref="E275:E278"/>
+    <mergeCell ref="E72:E75"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C209:C212"/>
+    <mergeCell ref="C141:C144"/>
     <mergeCell ref="C527:C530"/>
     <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C217:C220"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C239:C242"/>
+    <mergeCell ref="C149:C152"/>
     <mergeCell ref="C519:C522"/>
+    <mergeCell ref="C422:C425"/>
     <mergeCell ref="C458:C461"/>
+    <mergeCell ref="C535:C538"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C333:C336"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C446:C449"/>
+    <mergeCell ref="C414:C417"/>
     <mergeCell ref="C418:C421"/>
-    <mergeCell ref="C535:C538"/>
-    <mergeCell ref="C181:C185"/>
-    <mergeCell ref="C333:C336"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C450:C453"/>
-    <mergeCell ref="C454:C457"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="C198:C201"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C398:C401"/>
     <mergeCell ref="C341:C344"/>
     <mergeCell ref="C337:C340"/>
     <mergeCell ref="C531:C534"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="C229:C232"/>
-    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C450:C453"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C243:C246"/>
     <mergeCell ref="C507:C510"/>
-    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C394:C397"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C241:C244"/>
-    <mergeCell ref="C245:C249"/>
-    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C177:C181"/>
+    <mergeCell ref="C182:C185"/>
     <mergeCell ref="C503:C506"/>
-    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="C202:C205"/>
     <mergeCell ref="C68:C71"/>
     <mergeCell ref="C308:C311"/>
-    <mergeCell ref="C282:C285"/>
-    <mergeCell ref="C286:C290"/>
-    <mergeCell ref="C213:C216"/>
-    <mergeCell ref="C233:C236"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C88:C92"/>
     <mergeCell ref="C470:C474"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C225:C228"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="C157:C160"/>
     <mergeCell ref="C304:C307"/>
     <mergeCell ref="C499:C502"/>
-    <mergeCell ref="C442:C445"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C438:C441"/>
     <mergeCell ref="C295:C298"/>
     <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="C251:C254"/>
+    <mergeCell ref="C255:C258"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C362:C365"/>
     <mergeCell ref="C51:C55"/>
@@ -16136,80 +16136,80 @@
     <mergeCell ref="C345:C348"/>
     <mergeCell ref="C316:C320"/>
     <mergeCell ref="C321:C324"/>
-    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="C137:C140"/>
     <mergeCell ref="C312:C315"/>
-    <mergeCell ref="C190:C194"/>
-    <mergeCell ref="C258:C261"/>
-    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C97:C100"/>
     <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="C127:C130"/>
     <mergeCell ref="C353:C356"/>
     <mergeCell ref="C357:C361"/>
-    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="C169:C172"/>
     <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C247:C250"/>
     <mergeCell ref="C60:C63"/>
     <mergeCell ref="C291:C294"/>
     <mergeCell ref="C515:C518"/>
     <mergeCell ref="C370:C373"/>
     <mergeCell ref="C374:C377"/>
     <mergeCell ref="C378:C381"/>
-    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="C283:C286"/>
     <mergeCell ref="C539:C542"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="C267:C270"/>
+    <mergeCell ref="C271:C274"/>
+    <mergeCell ref="C275:C278"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C279:C282"/>
     <mergeCell ref="C366:C369"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="C259:C262"/>
+    <mergeCell ref="C263:C266"/>
     <mergeCell ref="C349:C352"/>
     <mergeCell ref="C299:C303"/>
     <mergeCell ref="C325:C328"/>
     <mergeCell ref="C329:C332"/>
-    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="C101:C104"/>
     <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C109:C112"/>
     <mergeCell ref="C543:C546"/>
-    <mergeCell ref="C144:C147"/>
+    <mergeCell ref="C76:C79"/>
     <mergeCell ref="C64:C67"/>
     <mergeCell ref="C547:C550"/>
     <mergeCell ref="C382:C385"/>
     <mergeCell ref="C511:C514"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="C446:C449"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="G426:G429"/>
     <mergeCell ref="G462:G465"/>
+    <mergeCell ref="G223:G226"/>
     <mergeCell ref="G422:G425"/>
-    <mergeCell ref="G72:G75"/>
     <mergeCell ref="G458:G461"/>
-    <mergeCell ref="G418:G421"/>
     <mergeCell ref="G535:G538"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="C287:C290"/>
+    <mergeCell ref="C454:C457"/>
+    <mergeCell ref="C442:C445"/>
     <mergeCell ref="E547:E550"/>
     <mergeCell ref="E382:E385"/>
     <mergeCell ref="E511:E514"/>
-    <mergeCell ref="E136:E139"/>
+    <mergeCell ref="E287:E290"/>
     <mergeCell ref="E543:E546"/>
     <mergeCell ref="E539:E542"/>
     <mergeCell ref="C491:C494"/>
     <mergeCell ref="H535:H538"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="H223:H226"/>
+    <mergeCell ref="G227:G230"/>
+    <mergeCell ref="H227:H230"/>
+    <mergeCell ref="G231:G234"/>
+    <mergeCell ref="H231:H234"/>
+    <mergeCell ref="G235:G238"/>
+    <mergeCell ref="H235:H238"/>
     <mergeCell ref="G519:G522"/>
     <mergeCell ref="H519:H522"/>
     <mergeCell ref="G333:G336"/>
     <mergeCell ref="H333:H336"/>
-    <mergeCell ref="G209:G212"/>
-    <mergeCell ref="H209:H212"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="H141:H144"/>
     <mergeCell ref="G527:G530"/>
     <mergeCell ref="H527:H530"/>
     <mergeCell ref="G523:G526"/>
@@ -16226,40 +16226,40 @@
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="B40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="B43" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B199" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B202" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B209" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B205" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B213" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B217" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B225" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B76" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B131" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B134" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B141" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B137" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B145" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B149" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B157" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B227" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="B31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="B312" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="B308" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="B304" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="B333" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B229" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B190" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B286" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B84" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B161" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B122" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B218" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B235" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="B337" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B152" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B156" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B161" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B148" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B181" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B262" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B266" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B274" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B278" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B282" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B450" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B458" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B454" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B221" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B233" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B394" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B84" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B88" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B93" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B80" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B113" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B194" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B198" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B206" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B210" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B214" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B414" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B422" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B418" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B153" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B165" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B434" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="B27" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="B507" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="B519" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
@@ -16268,32 +16268,32 @@
     <hyperlink ref="B531" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="B535" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="B23" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B237" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B169" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="B15" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
     <hyperlink ref="B295" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="B68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="B11" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B72" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B80" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B92" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B223" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B231" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B243" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="B341" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B88" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B96" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B186" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B426" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B438" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B434" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B430" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B462" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B390" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B398" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B418" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B422" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B414" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B406" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B442" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B410" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B402" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B239" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B247" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B118" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B390" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B402" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B398" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B394" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B426" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B430" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B438" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B458" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B462" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B454" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B446" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B406" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B450" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B442" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="B470" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="B475" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="B479" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
@@ -16303,59 +16303,59 @@
     <hyperlink ref="B499" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="B466" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="B495" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B241" r:id="rId82" xr:uid="{5DFA3D35-E3CE-443B-B7C7-36D266F8AE39}"/>
-    <hyperlink ref="B245" r:id="rId83" xr:uid="{8DD99C6A-7343-4C56-B40C-E6FEF89BB218}"/>
-    <hyperlink ref="B250" r:id="rId84" xr:uid="{CA605F07-19EE-4EAB-9B95-4EACFFF490A4}"/>
-    <hyperlink ref="B258" r:id="rId85" xr:uid="{D3886004-460D-4284-AE74-FFEBAEFFBF19}"/>
-    <hyperlink ref="B165" r:id="rId86" xr:uid="{9F77286F-6EC0-48F1-8246-2ABB3AFECF4F}"/>
+    <hyperlink ref="B173" r:id="rId82" xr:uid="{5DFA3D35-E3CE-443B-B7C7-36D266F8AE39}"/>
+    <hyperlink ref="B177" r:id="rId83" xr:uid="{8DD99C6A-7343-4C56-B40C-E6FEF89BB218}"/>
+    <hyperlink ref="B182" r:id="rId84" xr:uid="{CA605F07-19EE-4EAB-9B95-4EACFFF490A4}"/>
+    <hyperlink ref="B190" r:id="rId85" xr:uid="{D3886004-460D-4284-AE74-FFEBAEFFBF19}"/>
+    <hyperlink ref="B97" r:id="rId86" xr:uid="{9F77286F-6EC0-48F1-8246-2ABB3AFECF4F}"/>
     <hyperlink ref="B46" r:id="rId87" xr:uid="{8509003E-9089-4A16-881E-2CA893AEB870}"/>
-    <hyperlink ref="B195" r:id="rId88" xr:uid="{96C51C1D-8A7B-4CF2-88CD-C22E94DF9645}"/>
+    <hyperlink ref="B127" r:id="rId88" xr:uid="{96C51C1D-8A7B-4CF2-88CD-C22E94DF9645}"/>
     <hyperlink ref="B353" r:id="rId89" xr:uid="{7AD6C6C5-2FDC-404B-8A81-2A22D7FA2AFF}"/>
     <hyperlink ref="B357" r:id="rId90" xr:uid="{A0D6817E-9B7D-42B1-99C5-DEA2C291B912}"/>
     <hyperlink ref="B51" r:id="rId91" xr:uid="{5FEB8EC7-E6D0-4F3D-8EA3-43E20F3D77BA}"/>
     <hyperlink ref="B36" r:id="rId92" xr:uid="{E56684F8-9496-4DFC-A788-890673DBC84A}"/>
     <hyperlink ref="B316" r:id="rId93" xr:uid="{6F9D1818-1B86-426D-B814-CCDBFABBFEF6}"/>
     <hyperlink ref="B321" r:id="rId94" xr:uid="{DE2F3986-14F8-4DF8-8F8A-1F7B05E74677}"/>
-    <hyperlink ref="B270" r:id="rId95" xr:uid="{8D13A2B2-EFC5-4E93-A08F-6946F6846EFD}"/>
+    <hyperlink ref="B202" r:id="rId95" xr:uid="{8D13A2B2-EFC5-4E93-A08F-6946F6846EFD}"/>
     <hyperlink ref="B503" r:id="rId96" xr:uid="{D5C6CE4B-5BCC-4C77-A44C-BAEAF1FF0D7C}"/>
     <hyperlink ref="B56" r:id="rId97" xr:uid="{50D0C593-4444-4F99-8455-2BAD2352D35E}"/>
-    <hyperlink ref="B100" r:id="rId98" xr:uid="{A15FCB6A-AEC9-4B91-A032-0A1069CB0396}"/>
-    <hyperlink ref="B104" r:id="rId99" xr:uid="{1BDF2532-0DF5-41DE-A330-AF333DB67EF8}"/>
+    <hyperlink ref="B251" r:id="rId98" xr:uid="{A15FCB6A-AEC9-4B91-A032-0A1069CB0396}"/>
+    <hyperlink ref="B255" r:id="rId99" xr:uid="{1BDF2532-0DF5-41DE-A330-AF333DB67EF8}"/>
     <hyperlink ref="B19" r:id="rId100" xr:uid="{C950A5D3-5E85-44A5-AA1E-A0CC185E7F05}"/>
     <hyperlink ref="B362" r:id="rId101" xr:uid="{6DB97736-F490-4F99-BE9C-E313D760A6B0}"/>
-    <hyperlink ref="B108" r:id="rId102" xr:uid="{40B7F5E5-159C-4964-BAED-DBD2B27008CC}"/>
-    <hyperlink ref="B112" r:id="rId103" xr:uid="{BD704D7B-4541-4AE4-B065-A3990AC2D12D}"/>
+    <hyperlink ref="B259" r:id="rId102" xr:uid="{40B7F5E5-159C-4964-BAED-DBD2B27008CC}"/>
+    <hyperlink ref="B263" r:id="rId103" xr:uid="{BD704D7B-4541-4AE4-B065-A3990AC2D12D}"/>
     <hyperlink ref="B349" r:id="rId104" xr:uid="{6EBD0AB5-CDFD-48B4-B023-B36D6D4448BD}"/>
     <hyperlink ref="B299" r:id="rId105" xr:uid="{6771ADF7-02F9-4169-A1BD-BFF01E607080}"/>
     <hyperlink ref="B325" r:id="rId106" xr:uid="{91634374-A088-4AA2-94A5-AD8B342CCDF6}"/>
     <hyperlink ref="B329" r:id="rId107" xr:uid="{EE31A9D6-30AF-4257-A90A-A876A2318F49}"/>
-    <hyperlink ref="B116" r:id="rId108" xr:uid="{9A6FDCFD-A99F-44F7-8AEA-A05F204B90FA}"/>
-    <hyperlink ref="B120" r:id="rId109" xr:uid="{78F3AC75-6D77-42F3-8F72-F24C5ADE7B4D}"/>
-    <hyperlink ref="B124" r:id="rId110" xr:uid="{E109B2F7-B9A2-4CBD-8F73-5DBE9700D45A}"/>
-    <hyperlink ref="B140" r:id="rId111" xr:uid="{5EAD77B6-E0DB-4435-B0CB-726D6800DE2F}"/>
-    <hyperlink ref="B128" r:id="rId112" xr:uid="{9C05DAF7-8F96-440E-964F-57A42D69550B}"/>
+    <hyperlink ref="B267" r:id="rId108" xr:uid="{9A6FDCFD-A99F-44F7-8AEA-A05F204B90FA}"/>
+    <hyperlink ref="B271" r:id="rId109" xr:uid="{78F3AC75-6D77-42F3-8F72-F24C5ADE7B4D}"/>
+    <hyperlink ref="B275" r:id="rId110" xr:uid="{E109B2F7-B9A2-4CBD-8F73-5DBE9700D45A}"/>
+    <hyperlink ref="B72" r:id="rId111" xr:uid="{5EAD77B6-E0DB-4435-B0CB-726D6800DE2F}"/>
+    <hyperlink ref="B279" r:id="rId112" xr:uid="{9C05DAF7-8F96-440E-964F-57A42D69550B}"/>
     <hyperlink ref="B366" r:id="rId113" xr:uid="{E61FE19C-7CA9-489D-BF87-FC6904B13A1B}"/>
     <hyperlink ref="B291" r:id="rId114" xr:uid="{D10989DB-3645-4399-BB32-94CB112E8A00}"/>
     <hyperlink ref="B515" r:id="rId115" xr:uid="{967405F3-BD41-4BE0-9199-EC4FA985F54E}"/>
     <hyperlink ref="B370" r:id="rId116" xr:uid="{F87AC76D-F3BF-4612-9224-41EE59A2585B}"/>
     <hyperlink ref="B374" r:id="rId117" xr:uid="{840D9884-A9CD-4438-B648-A666B9000FBA}"/>
     <hyperlink ref="B378" r:id="rId118" xr:uid="{65335A14-2CAF-457B-9D39-0657CD853A39}"/>
-    <hyperlink ref="B132" r:id="rId119" xr:uid="{DF732760-59D2-4714-BDFE-7F4492DB6B52}"/>
-    <hyperlink ref="B169" r:id="rId120" xr:uid="{C89CAD92-D09F-4A40-AEC9-36AF16DD2FE2}"/>
+    <hyperlink ref="B283" r:id="rId119" xr:uid="{DF732760-59D2-4714-BDFE-7F4492DB6B52}"/>
+    <hyperlink ref="B101" r:id="rId120" xr:uid="{C89CAD92-D09F-4A40-AEC9-36AF16DD2FE2}"/>
     <hyperlink ref="B386" r:id="rId121" xr:uid="{935E95F2-3288-439D-832B-1204F5561FAC}"/>
-    <hyperlink ref="B173" r:id="rId122" xr:uid="{79C86A53-37B4-4C14-B488-3420C0C47255}"/>
-    <hyperlink ref="B177" r:id="rId123" xr:uid="{F37FA534-F8AD-4BA1-8677-C0D3F997DE33}"/>
-    <hyperlink ref="B136" r:id="rId124" xr:uid="{F5612779-F999-42F7-8B48-5AA5EFCC0E05}"/>
+    <hyperlink ref="B105" r:id="rId122" xr:uid="{79C86A53-37B4-4C14-B488-3420C0C47255}"/>
+    <hyperlink ref="B109" r:id="rId123" xr:uid="{F37FA534-F8AD-4BA1-8677-C0D3F997DE33}"/>
+    <hyperlink ref="B287" r:id="rId124" xr:uid="{F5612779-F999-42F7-8B48-5AA5EFCC0E05}"/>
     <hyperlink ref="B60" r:id="rId125" xr:uid="{8D0E2CCC-D514-4906-B752-A1E01077ABDA}"/>
     <hyperlink ref="B64" r:id="rId126" xr:uid="{8ECD43FC-0857-469E-8FBA-DB7C60459BAB}"/>
     <hyperlink ref="B547" r:id="rId127" xr:uid="{DBBE4738-E842-41D1-8644-A8ACE07B37EE}"/>
     <hyperlink ref="B382" r:id="rId128" xr:uid="{735EDB11-9188-4EA1-8A75-139413E0FF82}"/>
     <hyperlink ref="B511" r:id="rId129" xr:uid="{00F24F66-F411-4801-A125-9B85B12F1FDE}"/>
-    <hyperlink ref="B254" r:id="rId130" xr:uid="{9830D7FC-7F3C-4415-A727-D2425181A876}"/>
-    <hyperlink ref="B446" r:id="rId131" xr:uid="{93BD82F8-E8C1-4A2A-BB4A-365C73A75A29}"/>
+    <hyperlink ref="B186" r:id="rId130" xr:uid="{9830D7FC-7F3C-4415-A727-D2425181A876}"/>
+    <hyperlink ref="B410" r:id="rId131" xr:uid="{93BD82F8-E8C1-4A2A-BB4A-365C73A75A29}"/>
     <hyperlink ref="B539" r:id="rId132" xr:uid="{7DC668B8-9D43-4BD3-A7B2-E231AAA8879F}"/>
     <hyperlink ref="B543" r:id="rId133" xr:uid="{C301C90A-50AA-4211-AADC-C2A094CAD25C}"/>
-    <hyperlink ref="B144" r:id="rId134" xr:uid="{BAA871EB-0E81-4A95-9CFD-D3CCEAC481BB}"/>
+    <hyperlink ref="B76" r:id="rId134" xr:uid="{BAA871EB-0E81-4A95-9CFD-D3CCEAC481BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId135"/>

--- a/DataCamp-Tracks.xlsx
+++ b/DataCamp-Tracks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97A8F15-100B-49E6-A63E-F89261456099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29725084-AD38-482D-9BAE-AB0BEB51E839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4665,15 +4665,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -6475,27 +6467,27 @@
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="34" t="s">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>651</v>
+        <v>589</v>
       </c>
       <c r="C101" s="34" t="s">
         <v>1446</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>1388</v>
+        <v>1258</v>
       </c>
       <c r="E101" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F101" s="31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G101" s="31">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H101" s="31"/>
     </row>
@@ -6504,7 +6496,7 @@
       <c r="B102" s="38"/>
       <c r="C102" s="35"/>
       <c r="D102" s="8" t="s">
-        <v>1389</v>
+        <v>1259</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="32"/>
@@ -6516,7 +6508,7 @@
       <c r="B103" s="38"/>
       <c r="C103" s="35"/>
       <c r="D103" s="8" t="s">
-        <v>1390</v>
+        <v>1260</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="32"/>
@@ -6528,34 +6520,34 @@
       <c r="B104" s="39"/>
       <c r="C104" s="36"/>
       <c r="D104" s="30" t="s">
-        <v>1391</v>
+        <v>1261</v>
       </c>
       <c r="E104" s="33"/>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="34" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C105" s="34" t="s">
         <v>1446</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="E105" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F105" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G105" s="31">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H105" s="31"/>
     </row>
@@ -6564,7 +6556,7 @@
       <c r="B106" s="38"/>
       <c r="C106" s="35"/>
       <c r="D106" s="8" t="s">
-        <v>994</v>
+        <v>1389</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="32"/>
@@ -6576,7 +6568,7 @@
       <c r="B107" s="38"/>
       <c r="C107" s="35"/>
       <c r="D107" s="8" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="E107" s="32"/>
       <c r="F107" s="32"/>
@@ -6588,7 +6580,7 @@
       <c r="B108" s="39"/>
       <c r="C108" s="36"/>
       <c r="D108" s="30" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="E108" s="33"/>
       <c r="F108" s="33"/>
@@ -6597,25 +6589,25 @@
     </row>
     <row r="109" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="34" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C109" s="34" t="s">
         <v>1446</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E109" s="31">
         <v>4</v>
       </c>
       <c r="F109" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G109" s="31">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H109" s="31"/>
     </row>
@@ -6624,7 +6616,7 @@
       <c r="B110" s="38"/>
       <c r="C110" s="35"/>
       <c r="D110" s="8" t="s">
-        <v>1400</v>
+        <v>994</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="32"/>
@@ -6636,7 +6628,7 @@
       <c r="B111" s="38"/>
       <c r="C111" s="35"/>
       <c r="D111" s="8" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="32"/>
@@ -6648,7 +6640,7 @@
       <c r="B112" s="39"/>
       <c r="C112" s="36"/>
       <c r="D112" s="30" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="E112" s="33"/>
       <c r="F112" s="33"/>
@@ -6657,16 +6649,16 @@
     </row>
     <row r="113" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="34" t="s">
-        <v>58</v>
+        <v>658</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>57</v>
+        <v>657</v>
       </c>
       <c r="C113" s="34" t="s">
         <v>1446</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>955</v>
+        <v>1399</v>
       </c>
       <c r="E113" s="31">
         <v>4</v>
@@ -6675,7 +6667,7 @@
         <v>16</v>
       </c>
       <c r="G113" s="31">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H113" s="31"/>
     </row>
@@ -6684,7 +6676,7 @@
       <c r="B114" s="38"/>
       <c r="C114" s="35"/>
       <c r="D114" s="8" t="s">
-        <v>956</v>
+        <v>1400</v>
       </c>
       <c r="E114" s="32"/>
       <c r="F114" s="32"/>
@@ -6696,67 +6688,67 @@
       <c r="B115" s="38"/>
       <c r="C115" s="35"/>
       <c r="D115" s="8" t="s">
-        <v>957</v>
+        <v>1401</v>
       </c>
       <c r="E115" s="32"/>
       <c r="F115" s="32"/>
       <c r="G115" s="32"/>
       <c r="H115" s="32"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="35"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="8" t="s">
-        <v>958</v>
-      </c>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-    </row>
-    <row r="117" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="36"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="30" t="s">
-        <v>959</v>
-      </c>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-    </row>
-    <row r="118" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118" s="34" t="s">
+    <row r="116" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="36"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="30" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+    </row>
+    <row r="117" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117" s="34" t="s">
         <v>1446</v>
       </c>
-      <c r="D118" s="29" t="s">
-        <v>976</v>
-      </c>
-      <c r="E118" s="31">
+      <c r="D117" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="E117" s="31">
         <v>4</v>
       </c>
-      <c r="F118" s="31">
+      <c r="F117" s="31">
         <v>16</v>
       </c>
-      <c r="G118" s="31">
-        <v>49</v>
-      </c>
-      <c r="H118" s="31"/>
+      <c r="G117" s="31">
+        <v>61</v>
+      </c>
+      <c r="H117" s="31"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="35"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="35"/>
       <c r="B119" s="38"/>
       <c r="C119" s="35"/>
       <c r="D119" s="8" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
       <c r="E119" s="32"/>
       <c r="F119" s="32"/>
@@ -6768,7 +6760,7 @@
       <c r="B120" s="38"/>
       <c r="C120" s="35"/>
       <c r="D120" s="8" t="s">
-        <v>978</v>
+        <v>958</v>
       </c>
       <c r="E120" s="32"/>
       <c r="F120" s="32"/>
@@ -6780,7 +6772,7 @@
       <c r="B121" s="39"/>
       <c r="C121" s="36"/>
       <c r="D121" s="30" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
       <c r="E121" s="33"/>
       <c r="F121" s="33"/>
@@ -6789,25 +6781,25 @@
     </row>
     <row r="122" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="34" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C122" s="34" t="s">
         <v>1446</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>1193</v>
+        <v>976</v>
       </c>
       <c r="E122" s="31">
         <v>4</v>
       </c>
       <c r="F122" s="31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G122" s="31">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H122" s="31"/>
     </row>
@@ -6816,7 +6808,7 @@
       <c r="B123" s="38"/>
       <c r="C123" s="35"/>
       <c r="D123" s="8" t="s">
-        <v>1194</v>
+        <v>977</v>
       </c>
       <c r="E123" s="32"/>
       <c r="F123" s="32"/>
@@ -6828,67 +6820,67 @@
       <c r="B124" s="38"/>
       <c r="C124" s="35"/>
       <c r="D124" s="8" t="s">
-        <v>1195</v>
+        <v>978</v>
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="32"/>
       <c r="G124" s="32"/>
       <c r="H124" s="32"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="35"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-    </row>
-    <row r="126" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="36"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-    </row>
-    <row r="127" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="34" t="s">
-        <v>590</v>
-      </c>
-      <c r="B127" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="C127" s="34" t="s">
+    <row r="125" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="36"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="30" t="s">
+        <v>979</v>
+      </c>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126" s="34" t="s">
         <v>1446</v>
       </c>
-      <c r="D127" s="29" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E127" s="31">
+      <c r="D126" s="29" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E126" s="31">
         <v>4</v>
       </c>
-      <c r="F127" s="31">
-        <v>13</v>
-      </c>
-      <c r="G127" s="31">
-        <v>46</v>
-      </c>
-      <c r="H127" s="31"/>
+      <c r="F126" s="31">
+        <v>17</v>
+      </c>
+      <c r="G126" s="31">
+        <v>59</v>
+      </c>
+      <c r="H126" s="31"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="35"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="35"/>
       <c r="B128" s="38"/>
       <c r="C128" s="35"/>
       <c r="D128" s="8" t="s">
-        <v>1259</v>
+        <v>1195</v>
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="32"/>
@@ -6900,7 +6892,7 @@
       <c r="B129" s="38"/>
       <c r="C129" s="35"/>
       <c r="D129" s="8" t="s">
-        <v>1260</v>
+        <v>1196</v>
       </c>
       <c r="E129" s="32"/>
       <c r="F129" s="32"/>
@@ -6912,7 +6904,7 @@
       <c r="B130" s="39"/>
       <c r="C130" s="36"/>
       <c r="D130" s="30" t="s">
-        <v>1261</v>
+        <v>751</v>
       </c>
       <c r="E130" s="33"/>
       <c r="F130" s="33"/>
@@ -15275,114 +15267,816 @@
     </row>
   </sheetData>
   <mergeCells count="945">
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="F247:F250"/>
-    <mergeCell ref="G247:G250"/>
-    <mergeCell ref="H247:H250"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="G169:G172"/>
-    <mergeCell ref="H169:H172"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="F539:F542"/>
-    <mergeCell ref="G539:G542"/>
-    <mergeCell ref="H539:H542"/>
-    <mergeCell ref="F543:F546"/>
-    <mergeCell ref="G543:G546"/>
-    <mergeCell ref="H543:H546"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="F511:F514"/>
-    <mergeCell ref="G511:G514"/>
-    <mergeCell ref="H511:H514"/>
-    <mergeCell ref="F186:F189"/>
-    <mergeCell ref="G186:G189"/>
-    <mergeCell ref="H186:H189"/>
-    <mergeCell ref="F410:F413"/>
-    <mergeCell ref="G410:G413"/>
-    <mergeCell ref="H410:H413"/>
-    <mergeCell ref="F547:F550"/>
-    <mergeCell ref="G547:G550"/>
-    <mergeCell ref="H547:H550"/>
-    <mergeCell ref="G386:G389"/>
-    <mergeCell ref="H386:H389"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="G105:G108"/>
-    <mergeCell ref="H105:H108"/>
-    <mergeCell ref="F177:F181"/>
-    <mergeCell ref="G177:G181"/>
-    <mergeCell ref="H177:H181"/>
-    <mergeCell ref="F182:F185"/>
-    <mergeCell ref="G182:G185"/>
-    <mergeCell ref="H182:H185"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="F173:F176"/>
-    <mergeCell ref="G173:G176"/>
-    <mergeCell ref="H173:H176"/>
-    <mergeCell ref="F382:F385"/>
-    <mergeCell ref="G382:G385"/>
-    <mergeCell ref="H382:H385"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="H109:H112"/>
-    <mergeCell ref="F287:F290"/>
-    <mergeCell ref="G287:G290"/>
-    <mergeCell ref="H287:H290"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="G101:G104"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="F169:F172"/>
-    <mergeCell ref="G515:G518"/>
-    <mergeCell ref="H515:H518"/>
-    <mergeCell ref="F370:F373"/>
-    <mergeCell ref="G370:G373"/>
-    <mergeCell ref="H370:H373"/>
-    <mergeCell ref="F374:F377"/>
-    <mergeCell ref="G374:G377"/>
-    <mergeCell ref="H374:H377"/>
-    <mergeCell ref="F378:F381"/>
-    <mergeCell ref="G378:G381"/>
-    <mergeCell ref="H378:H381"/>
-    <mergeCell ref="G263:G266"/>
-    <mergeCell ref="H263:H266"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="F127:F130"/>
-    <mergeCell ref="G127:G130"/>
-    <mergeCell ref="H127:H130"/>
-    <mergeCell ref="F97:F100"/>
-    <mergeCell ref="G97:G100"/>
-    <mergeCell ref="H97:H100"/>
-    <mergeCell ref="F283:F286"/>
-    <mergeCell ref="G283:G286"/>
-    <mergeCell ref="H283:H286"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="F279:F282"/>
-    <mergeCell ref="G279:G282"/>
-    <mergeCell ref="H279:H282"/>
-    <mergeCell ref="F275:F278"/>
+    <mergeCell ref="H535:H538"/>
+    <mergeCell ref="H223:H226"/>
+    <mergeCell ref="G227:G230"/>
+    <mergeCell ref="H227:H230"/>
+    <mergeCell ref="G231:G234"/>
+    <mergeCell ref="H231:H234"/>
+    <mergeCell ref="G235:G238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="G519:G522"/>
+    <mergeCell ref="H519:H522"/>
+    <mergeCell ref="G333:G336"/>
+    <mergeCell ref="H333:H336"/>
+    <mergeCell ref="G527:G530"/>
+    <mergeCell ref="H527:H530"/>
+    <mergeCell ref="G523:G526"/>
+    <mergeCell ref="H523:H526"/>
+    <mergeCell ref="G337:G340"/>
+    <mergeCell ref="H337:H340"/>
+    <mergeCell ref="G531:G534"/>
+    <mergeCell ref="H531:H534"/>
+    <mergeCell ref="G316:G320"/>
+    <mergeCell ref="H316:H320"/>
+    <mergeCell ref="C543:C546"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C547:C550"/>
+    <mergeCell ref="C382:C385"/>
+    <mergeCell ref="C511:C514"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="G426:G429"/>
+    <mergeCell ref="G462:G465"/>
+    <mergeCell ref="G223:G226"/>
+    <mergeCell ref="G422:G425"/>
+    <mergeCell ref="G458:G461"/>
+    <mergeCell ref="G535:G538"/>
+    <mergeCell ref="C287:C290"/>
+    <mergeCell ref="C454:C457"/>
+    <mergeCell ref="C442:C445"/>
+    <mergeCell ref="E547:E550"/>
+    <mergeCell ref="E382:E385"/>
+    <mergeCell ref="E511:E514"/>
+    <mergeCell ref="E287:E290"/>
+    <mergeCell ref="E543:E546"/>
+    <mergeCell ref="E539:E542"/>
+    <mergeCell ref="C491:C494"/>
+    <mergeCell ref="C539:C542"/>
+    <mergeCell ref="C267:C270"/>
+    <mergeCell ref="C271:C274"/>
+    <mergeCell ref="C275:C278"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C279:C282"/>
+    <mergeCell ref="C366:C369"/>
+    <mergeCell ref="C259:C262"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="C349:C352"/>
+    <mergeCell ref="C299:C303"/>
+    <mergeCell ref="C325:C328"/>
+    <mergeCell ref="C329:C332"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C251:C254"/>
+    <mergeCell ref="C255:C258"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C362:C365"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C345:C348"/>
+    <mergeCell ref="C316:C320"/>
+    <mergeCell ref="C321:C324"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="C312:C315"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C353:C356"/>
+    <mergeCell ref="C357:C361"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C291:C294"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="C470:C474"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="C157:C160"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="C499:C502"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C438:C441"/>
+    <mergeCell ref="C295:C298"/>
+    <mergeCell ref="C370:C373"/>
+    <mergeCell ref="C374:C377"/>
+    <mergeCell ref="C378:C381"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="C535:C538"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C333:C336"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C446:C449"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="C341:C344"/>
+    <mergeCell ref="C337:C340"/>
+    <mergeCell ref="C531:C534"/>
+    <mergeCell ref="C450:C453"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C243:C246"/>
+    <mergeCell ref="C507:C510"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C177:C181"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="C527:C530"/>
+    <mergeCell ref="C466:C469"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C239:C242"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C519:C522"/>
+    <mergeCell ref="C422:C425"/>
+    <mergeCell ref="C458:C461"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C503:C506"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C308:C311"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="E283:E286"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="C235:C238"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="E378:E381"/>
+    <mergeCell ref="E279:E282"/>
+    <mergeCell ref="E366:E369"/>
+    <mergeCell ref="E291:E294"/>
+    <mergeCell ref="E271:E274"/>
+    <mergeCell ref="E275:E278"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="E263:E266"/>
+    <mergeCell ref="E349:E352"/>
+    <mergeCell ref="E299:E303"/>
+    <mergeCell ref="C475:C478"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="C523:C526"/>
+    <mergeCell ref="C495:C498"/>
+    <mergeCell ref="C479:C482"/>
+    <mergeCell ref="C483:C486"/>
+    <mergeCell ref="C487:C490"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C462:C465"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E515:E518"/>
+    <mergeCell ref="C515:C518"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E362:E365"/>
+    <mergeCell ref="E259:E262"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E251:E254"/>
+    <mergeCell ref="E255:E258"/>
+    <mergeCell ref="E370:E373"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="E177:E181"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E325:E328"/>
+    <mergeCell ref="E329:E332"/>
+    <mergeCell ref="E267:E270"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E345:E348"/>
+    <mergeCell ref="E316:E320"/>
+    <mergeCell ref="E353:E356"/>
+    <mergeCell ref="E357:E361"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E173:E176"/>
+    <mergeCell ref="E321:E324"/>
+    <mergeCell ref="E503:E506"/>
+    <mergeCell ref="E165:E168"/>
+    <mergeCell ref="E169:E172"/>
+    <mergeCell ref="E308:E311"/>
+    <mergeCell ref="E214:E217"/>
+    <mergeCell ref="E218:E222"/>
+    <mergeCell ref="E312:E315"/>
+    <mergeCell ref="E126:E130"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="E470:E474"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E499:E502"/>
+    <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="E475:E478"/>
+    <mergeCell ref="E483:E486"/>
+    <mergeCell ref="E487:E490"/>
+    <mergeCell ref="E531:E534"/>
+    <mergeCell ref="E450:E453"/>
+    <mergeCell ref="E157:E160"/>
+    <mergeCell ref="E304:E307"/>
+    <mergeCell ref="E341:E344"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E161:E164"/>
+    <mergeCell ref="E243:E246"/>
+    <mergeCell ref="E247:E250"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="E88:E92"/>
+    <mergeCell ref="E295:E298"/>
+    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="E523:E526"/>
+    <mergeCell ref="E495:E498"/>
+    <mergeCell ref="E239:E242"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E527:E530"/>
+    <mergeCell ref="E466:E469"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="E333:E336"/>
+    <mergeCell ref="E141:E144"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E223:E226"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="E479:E482"/>
+    <mergeCell ref="E337:E340"/>
+    <mergeCell ref="E210:E213"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="E507:E510"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="E458:E461"/>
+    <mergeCell ref="F458:F461"/>
+    <mergeCell ref="E535:E538"/>
+    <mergeCell ref="F535:F538"/>
+    <mergeCell ref="F117:F121"/>
+    <mergeCell ref="F466:F469"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="F426:F429"/>
+    <mergeCell ref="E462:E465"/>
+    <mergeCell ref="F462:F465"/>
+    <mergeCell ref="F333:F336"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="F527:F530"/>
+    <mergeCell ref="F438:F441"/>
+    <mergeCell ref="F454:F457"/>
+    <mergeCell ref="F531:F534"/>
+    <mergeCell ref="F316:F320"/>
+    <mergeCell ref="F321:F324"/>
+    <mergeCell ref="F515:F518"/>
+    <mergeCell ref="F386:F389"/>
+    <mergeCell ref="E491:E494"/>
+    <mergeCell ref="E446:E449"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B539:B542"/>
+    <mergeCell ref="B543:B546"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="B267:B270"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="B275:B278"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="B503:B506"/>
+    <mergeCell ref="B495:B498"/>
+    <mergeCell ref="B479:B482"/>
+    <mergeCell ref="B483:B486"/>
+    <mergeCell ref="B475:B478"/>
+    <mergeCell ref="B499:B502"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="B487:B490"/>
+    <mergeCell ref="B491:B494"/>
+    <mergeCell ref="B511:B514"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B287:B290"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="F223:F226"/>
+    <mergeCell ref="E227:E230"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B547:B550"/>
+    <mergeCell ref="B382:B385"/>
+    <mergeCell ref="B291:B294"/>
+    <mergeCell ref="B515:B518"/>
+    <mergeCell ref="B370:B373"/>
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="F227:F230"/>
+    <mergeCell ref="E231:E234"/>
+    <mergeCell ref="F231:F234"/>
+    <mergeCell ref="E235:E238"/>
+    <mergeCell ref="F235:F238"/>
+    <mergeCell ref="E519:E522"/>
+    <mergeCell ref="F519:F522"/>
+    <mergeCell ref="B378:B381"/>
+    <mergeCell ref="B366:B369"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="B470:B474"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="B243:B246"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="B442:B445"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B251:B254"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B362:B365"/>
+    <mergeCell ref="B357:B361"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B316:B320"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B299:B303"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B535:B538"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B446:B449"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="B394:B397"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="B341:B344"/>
+    <mergeCell ref="B337:B340"/>
+    <mergeCell ref="B531:B534"/>
+    <mergeCell ref="B450:B453"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B507:B510"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="B527:B530"/>
+    <mergeCell ref="B466:B469"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="B519:B522"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="B458:B461"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B177:B181"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B308:B311"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B454:B457"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="A547:A550"/>
+    <mergeCell ref="A382:A385"/>
+    <mergeCell ref="A511:A514"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A287:A290"/>
+    <mergeCell ref="A539:A542"/>
+    <mergeCell ref="A543:A546"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A503:A506"/>
+    <mergeCell ref="A515:A518"/>
+    <mergeCell ref="A499:A502"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="A454:A457"/>
+    <mergeCell ref="A491:A494"/>
+    <mergeCell ref="A475:A478"/>
+    <mergeCell ref="A507:A510"/>
+    <mergeCell ref="A483:A486"/>
+    <mergeCell ref="A487:A490"/>
+    <mergeCell ref="A495:A498"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="A353:A356"/>
+    <mergeCell ref="A357:A361"/>
+    <mergeCell ref="B333:B336"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B523:B526"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A312:A315"/>
+    <mergeCell ref="A267:A270"/>
+    <mergeCell ref="A271:A274"/>
+    <mergeCell ref="A275:A278"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A279:A282"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B312:B315"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B434:B437"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="B462:B465"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="A366:A369"/>
+    <mergeCell ref="A291:A294"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A345:A348"/>
+    <mergeCell ref="B345:B348"/>
+    <mergeCell ref="A316:A320"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B218:B222"/>
+    <mergeCell ref="A362:A365"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="A349:A352"/>
+    <mergeCell ref="A299:A303"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A251:A254"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A308:A311"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A535:A538"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A470:A474"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="A479:A482"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A430:A433"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="A442:A445"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="F523:F526"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="A341:A344"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="A531:A534"/>
+    <mergeCell ref="A450:A453"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A243:A246"/>
+    <mergeCell ref="A519:A522"/>
+    <mergeCell ref="A458:A461"/>
+    <mergeCell ref="A446:A449"/>
+    <mergeCell ref="A523:A526"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A527:A530"/>
+    <mergeCell ref="A466:A469"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A370:A373"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="A378:A381"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="H134:H136"/>
+    <mergeCell ref="F430:F433"/>
+    <mergeCell ref="G430:G433"/>
+    <mergeCell ref="H430:H433"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="H153:H156"/>
+    <mergeCell ref="F422:F425"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="H141:H144"/>
+    <mergeCell ref="G398:G401"/>
+    <mergeCell ref="H398:H401"/>
+    <mergeCell ref="F194:F197"/>
+    <mergeCell ref="G194:G197"/>
+    <mergeCell ref="H194:H197"/>
+    <mergeCell ref="F198:F201"/>
+    <mergeCell ref="G198:G201"/>
+    <mergeCell ref="H198:H201"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="F206:F209"/>
+    <mergeCell ref="G206:G209"/>
+    <mergeCell ref="H206:H209"/>
+    <mergeCell ref="F210:F213"/>
+    <mergeCell ref="G210:G213"/>
+    <mergeCell ref="H210:H213"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="H93:H96"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="F479:F482"/>
+    <mergeCell ref="G479:G482"/>
+    <mergeCell ref="H479:H482"/>
+    <mergeCell ref="F495:F498"/>
+    <mergeCell ref="G495:G498"/>
+    <mergeCell ref="H495:H498"/>
+    <mergeCell ref="F414:F417"/>
+    <mergeCell ref="G414:G417"/>
+    <mergeCell ref="H414:H417"/>
+    <mergeCell ref="F475:F478"/>
+    <mergeCell ref="G475:G478"/>
+    <mergeCell ref="H475:H478"/>
+    <mergeCell ref="F491:F494"/>
+    <mergeCell ref="G491:G494"/>
+    <mergeCell ref="H491:H494"/>
+    <mergeCell ref="F470:F474"/>
+    <mergeCell ref="G470:G474"/>
+    <mergeCell ref="H470:H474"/>
+    <mergeCell ref="H426:H429"/>
+    <mergeCell ref="H462:H465"/>
+    <mergeCell ref="H422:H425"/>
+    <mergeCell ref="H458:H461"/>
+    <mergeCell ref="F507:F510"/>
+    <mergeCell ref="G507:G510"/>
+    <mergeCell ref="H507:H510"/>
+    <mergeCell ref="F483:F486"/>
+    <mergeCell ref="G483:G486"/>
+    <mergeCell ref="H483:H486"/>
+    <mergeCell ref="F487:F490"/>
+    <mergeCell ref="G487:G490"/>
+    <mergeCell ref="H487:H490"/>
+    <mergeCell ref="G466:G469"/>
+    <mergeCell ref="H466:H469"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="F450:F453"/>
+    <mergeCell ref="G450:G453"/>
+    <mergeCell ref="H450:H453"/>
+    <mergeCell ref="F161:F164"/>
+    <mergeCell ref="G161:G164"/>
+    <mergeCell ref="H161:H164"/>
+    <mergeCell ref="F243:F246"/>
+    <mergeCell ref="G243:G246"/>
+    <mergeCell ref="H243:H246"/>
+    <mergeCell ref="F402:F405"/>
+    <mergeCell ref="G402:G405"/>
+    <mergeCell ref="H402:H405"/>
+    <mergeCell ref="F157:F160"/>
+    <mergeCell ref="G157:G160"/>
+    <mergeCell ref="H157:H160"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="G131:G133"/>
+    <mergeCell ref="H131:H133"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="H137:H140"/>
+    <mergeCell ref="F312:F315"/>
+    <mergeCell ref="G312:G315"/>
+    <mergeCell ref="H312:H315"/>
+    <mergeCell ref="F126:F130"/>
+    <mergeCell ref="G126:G130"/>
+    <mergeCell ref="H126:H130"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="G88:G92"/>
+    <mergeCell ref="H88:H92"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="H145:H148"/>
+    <mergeCell ref="F165:F168"/>
+    <mergeCell ref="G165:G168"/>
+    <mergeCell ref="H165:H168"/>
+    <mergeCell ref="F308:F311"/>
+    <mergeCell ref="G308:G311"/>
+    <mergeCell ref="H308:H311"/>
+    <mergeCell ref="F214:F217"/>
+    <mergeCell ref="G214:G217"/>
+    <mergeCell ref="H214:H217"/>
+    <mergeCell ref="F190:F193"/>
+    <mergeCell ref="G190:G193"/>
+    <mergeCell ref="H190:H193"/>
+    <mergeCell ref="F239:F242"/>
+    <mergeCell ref="G239:G242"/>
+    <mergeCell ref="H239:H242"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="H149:H152"/>
+    <mergeCell ref="G454:G457"/>
+    <mergeCell ref="H454:H457"/>
+    <mergeCell ref="F499:F502"/>
+    <mergeCell ref="G499:G502"/>
+    <mergeCell ref="H499:H502"/>
+    <mergeCell ref="F406:F409"/>
+    <mergeCell ref="G406:G409"/>
+    <mergeCell ref="H406:H409"/>
+    <mergeCell ref="F353:F356"/>
+    <mergeCell ref="G353:G356"/>
+    <mergeCell ref="H353:H356"/>
+    <mergeCell ref="F357:F361"/>
+    <mergeCell ref="G357:G361"/>
+    <mergeCell ref="H357:H361"/>
+    <mergeCell ref="F434:F437"/>
+    <mergeCell ref="G434:G437"/>
+    <mergeCell ref="H434:H437"/>
+    <mergeCell ref="F442:F445"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="H442:H445"/>
+    <mergeCell ref="F418:F421"/>
+    <mergeCell ref="G418:G421"/>
+    <mergeCell ref="H418:H421"/>
+    <mergeCell ref="F446:F449"/>
+    <mergeCell ref="F218:F222"/>
+    <mergeCell ref="G218:G222"/>
+    <mergeCell ref="H218:H222"/>
+    <mergeCell ref="F304:F307"/>
+    <mergeCell ref="G304:G307"/>
+    <mergeCell ref="H304:H307"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="G291:G294"/>
+    <mergeCell ref="H291:H294"/>
+    <mergeCell ref="F295:F298"/>
+    <mergeCell ref="G295:G298"/>
+    <mergeCell ref="H295:H298"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="F362:F365"/>
+    <mergeCell ref="G362:G365"/>
+    <mergeCell ref="H362:H365"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="F271:F274"/>
+    <mergeCell ref="G271:G274"/>
+    <mergeCell ref="H271:H274"/>
+    <mergeCell ref="F259:F262"/>
+    <mergeCell ref="G259:G262"/>
+    <mergeCell ref="H259:H262"/>
+    <mergeCell ref="F263:F266"/>
+    <mergeCell ref="G321:G324"/>
+    <mergeCell ref="H321:H324"/>
+    <mergeCell ref="F202:F205"/>
+    <mergeCell ref="G202:G205"/>
+    <mergeCell ref="H202:H205"/>
+    <mergeCell ref="F345:F348"/>
+    <mergeCell ref="G345:G348"/>
+    <mergeCell ref="H345:H348"/>
+    <mergeCell ref="F267:F270"/>
+    <mergeCell ref="G267:G270"/>
+    <mergeCell ref="H267:H270"/>
+    <mergeCell ref="G446:G449"/>
+    <mergeCell ref="H446:H449"/>
+    <mergeCell ref="F349:F352"/>
+    <mergeCell ref="G349:G352"/>
+    <mergeCell ref="H349:H352"/>
+    <mergeCell ref="F255:F258"/>
+    <mergeCell ref="G255:G258"/>
+    <mergeCell ref="H255:H258"/>
+    <mergeCell ref="G438:G441"/>
+    <mergeCell ref="H438:H441"/>
+    <mergeCell ref="F341:F344"/>
+    <mergeCell ref="G341:G344"/>
+    <mergeCell ref="H341:H344"/>
+    <mergeCell ref="F337:F340"/>
+    <mergeCell ref="F390:F393"/>
+    <mergeCell ref="G390:G393"/>
+    <mergeCell ref="H390:H393"/>
+    <mergeCell ref="F394:F397"/>
+    <mergeCell ref="G394:G397"/>
+    <mergeCell ref="H394:H397"/>
+    <mergeCell ref="F398:F401"/>
     <mergeCell ref="G275:G278"/>
     <mergeCell ref="H275:H278"/>
     <mergeCell ref="F46:F50"/>
@@ -15407,819 +16101,117 @@
     <mergeCell ref="F366:F369"/>
     <mergeCell ref="G366:G369"/>
     <mergeCell ref="H366:H369"/>
-    <mergeCell ref="F267:F270"/>
-    <mergeCell ref="G267:G270"/>
-    <mergeCell ref="H267:H270"/>
-    <mergeCell ref="G446:G449"/>
-    <mergeCell ref="H446:H449"/>
-    <mergeCell ref="F349:F352"/>
-    <mergeCell ref="G349:G352"/>
-    <mergeCell ref="H349:H352"/>
-    <mergeCell ref="F255:F258"/>
-    <mergeCell ref="G255:G258"/>
-    <mergeCell ref="H255:H258"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="F362:F365"/>
-    <mergeCell ref="G362:G365"/>
-    <mergeCell ref="H362:H365"/>
-    <mergeCell ref="F51:F55"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="F271:F274"/>
-    <mergeCell ref="G271:G274"/>
-    <mergeCell ref="H271:H274"/>
-    <mergeCell ref="F259:F262"/>
-    <mergeCell ref="G259:G262"/>
-    <mergeCell ref="H259:H262"/>
-    <mergeCell ref="F263:F266"/>
-    <mergeCell ref="G321:G324"/>
-    <mergeCell ref="H321:H324"/>
-    <mergeCell ref="F202:F205"/>
-    <mergeCell ref="G202:G205"/>
-    <mergeCell ref="H202:H205"/>
-    <mergeCell ref="F345:F348"/>
-    <mergeCell ref="G345:G348"/>
-    <mergeCell ref="H345:H348"/>
-    <mergeCell ref="F218:F222"/>
-    <mergeCell ref="G218:G222"/>
-    <mergeCell ref="H218:H222"/>
-    <mergeCell ref="F304:F307"/>
-    <mergeCell ref="G304:G307"/>
-    <mergeCell ref="H304:H307"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="G291:G294"/>
-    <mergeCell ref="H291:H294"/>
-    <mergeCell ref="G454:G457"/>
-    <mergeCell ref="H454:H457"/>
-    <mergeCell ref="F499:F502"/>
-    <mergeCell ref="G499:G502"/>
-    <mergeCell ref="H499:H502"/>
-    <mergeCell ref="F406:F409"/>
-    <mergeCell ref="G406:G409"/>
-    <mergeCell ref="H406:H409"/>
-    <mergeCell ref="F353:F356"/>
-    <mergeCell ref="G353:G356"/>
-    <mergeCell ref="H353:H356"/>
-    <mergeCell ref="F357:F361"/>
-    <mergeCell ref="G357:G361"/>
-    <mergeCell ref="H357:H361"/>
-    <mergeCell ref="F434:F437"/>
-    <mergeCell ref="G434:G437"/>
-    <mergeCell ref="H434:H437"/>
-    <mergeCell ref="F442:F445"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="H442:H445"/>
-    <mergeCell ref="F418:F421"/>
-    <mergeCell ref="G418:G421"/>
-    <mergeCell ref="H418:H421"/>
-    <mergeCell ref="F446:F449"/>
-    <mergeCell ref="G438:G441"/>
-    <mergeCell ref="H438:H441"/>
-    <mergeCell ref="F295:F298"/>
-    <mergeCell ref="G295:G298"/>
-    <mergeCell ref="H295:H298"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="H145:H148"/>
-    <mergeCell ref="F165:F168"/>
-    <mergeCell ref="G165:G168"/>
-    <mergeCell ref="H165:H168"/>
-    <mergeCell ref="F308:F311"/>
-    <mergeCell ref="G308:G311"/>
-    <mergeCell ref="H308:H311"/>
-    <mergeCell ref="F214:F217"/>
-    <mergeCell ref="G214:G217"/>
-    <mergeCell ref="H214:H217"/>
-    <mergeCell ref="F190:F193"/>
-    <mergeCell ref="G190:G193"/>
-    <mergeCell ref="H190:H193"/>
-    <mergeCell ref="F341:F344"/>
-    <mergeCell ref="G341:G344"/>
-    <mergeCell ref="H341:H344"/>
-    <mergeCell ref="F337:F340"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="G137:G140"/>
-    <mergeCell ref="H137:H140"/>
-    <mergeCell ref="F312:F315"/>
-    <mergeCell ref="G312:G315"/>
-    <mergeCell ref="H312:H315"/>
-    <mergeCell ref="F122:F126"/>
-    <mergeCell ref="G122:G126"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="G88:G92"/>
-    <mergeCell ref="H88:H92"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="G466:G469"/>
-    <mergeCell ref="H466:H469"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F450:F453"/>
-    <mergeCell ref="G450:G453"/>
-    <mergeCell ref="H450:H453"/>
-    <mergeCell ref="F161:F164"/>
-    <mergeCell ref="G161:G164"/>
-    <mergeCell ref="H161:H164"/>
-    <mergeCell ref="F243:F246"/>
-    <mergeCell ref="G243:G246"/>
-    <mergeCell ref="H243:H246"/>
-    <mergeCell ref="F402:F405"/>
-    <mergeCell ref="G402:G405"/>
-    <mergeCell ref="H402:H405"/>
-    <mergeCell ref="F157:F160"/>
-    <mergeCell ref="G157:G160"/>
-    <mergeCell ref="H157:H160"/>
-    <mergeCell ref="F507:F510"/>
-    <mergeCell ref="G507:G510"/>
-    <mergeCell ref="H507:H510"/>
-    <mergeCell ref="F483:F486"/>
-    <mergeCell ref="G483:G486"/>
-    <mergeCell ref="H483:H486"/>
-    <mergeCell ref="F487:F490"/>
-    <mergeCell ref="G487:G490"/>
-    <mergeCell ref="H487:H490"/>
-    <mergeCell ref="F479:F482"/>
-    <mergeCell ref="G479:G482"/>
-    <mergeCell ref="H479:H482"/>
-    <mergeCell ref="F495:F498"/>
-    <mergeCell ref="G495:G498"/>
-    <mergeCell ref="H495:H498"/>
-    <mergeCell ref="F414:F417"/>
-    <mergeCell ref="G414:G417"/>
-    <mergeCell ref="H414:H417"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="G131:G133"/>
-    <mergeCell ref="H131:H133"/>
-    <mergeCell ref="F390:F393"/>
-    <mergeCell ref="G390:G393"/>
-    <mergeCell ref="H390:H393"/>
-    <mergeCell ref="F394:F397"/>
-    <mergeCell ref="G394:G397"/>
-    <mergeCell ref="H394:H397"/>
-    <mergeCell ref="F398:F401"/>
-    <mergeCell ref="G398:G401"/>
-    <mergeCell ref="H398:H401"/>
-    <mergeCell ref="F194:F197"/>
-    <mergeCell ref="G194:G197"/>
-    <mergeCell ref="H194:H197"/>
-    <mergeCell ref="F198:F201"/>
-    <mergeCell ref="G198:G201"/>
-    <mergeCell ref="H198:H201"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="F475:F478"/>
-    <mergeCell ref="G475:G478"/>
-    <mergeCell ref="H475:H478"/>
-    <mergeCell ref="F491:F494"/>
-    <mergeCell ref="G491:G494"/>
-    <mergeCell ref="H491:H494"/>
-    <mergeCell ref="F206:F209"/>
-    <mergeCell ref="G206:G209"/>
-    <mergeCell ref="H206:H209"/>
-    <mergeCell ref="F210:F213"/>
-    <mergeCell ref="G210:G213"/>
-    <mergeCell ref="H210:H213"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="H93:H96"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="F470:F474"/>
-    <mergeCell ref="G470:G474"/>
-    <mergeCell ref="H470:H474"/>
-    <mergeCell ref="H426:H429"/>
-    <mergeCell ref="H462:H465"/>
-    <mergeCell ref="H422:H425"/>
-    <mergeCell ref="H458:H461"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="H118:H121"/>
-    <mergeCell ref="F239:F242"/>
-    <mergeCell ref="G239:G242"/>
-    <mergeCell ref="H239:H242"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="G149:G152"/>
-    <mergeCell ref="H149:H152"/>
-    <mergeCell ref="G113:G117"/>
-    <mergeCell ref="H113:H117"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="H134:H136"/>
-    <mergeCell ref="F430:F433"/>
-    <mergeCell ref="G430:G433"/>
-    <mergeCell ref="H430:H433"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="G153:G156"/>
-    <mergeCell ref="H153:H156"/>
-    <mergeCell ref="F523:F526"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="A341:A344"/>
-    <mergeCell ref="A337:A340"/>
-    <mergeCell ref="A531:A534"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A243:A246"/>
-    <mergeCell ref="A519:A522"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="A535:A538"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A333:A336"/>
-    <mergeCell ref="A462:A465"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A470:A474"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="A479:A482"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A446:A449"/>
-    <mergeCell ref="A523:A526"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A527:A530"/>
-    <mergeCell ref="A466:A469"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A308:A311"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="A218:A222"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A239:A242"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A370:A373"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="A378:A381"/>
-    <mergeCell ref="A329:A332"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="B462:B465"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="A366:A369"/>
-    <mergeCell ref="A291:A294"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A345:A348"/>
-    <mergeCell ref="B345:B348"/>
-    <mergeCell ref="A316:A320"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B218:B222"/>
-    <mergeCell ref="A362:A365"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="A349:A352"/>
-    <mergeCell ref="A299:A303"/>
-    <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A353:A356"/>
-    <mergeCell ref="A357:A361"/>
-    <mergeCell ref="B333:B336"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B523:B526"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A312:A315"/>
-    <mergeCell ref="A267:A270"/>
-    <mergeCell ref="A271:A274"/>
-    <mergeCell ref="A275:A278"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A279:A282"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="A539:A542"/>
-    <mergeCell ref="A543:A546"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A503:A506"/>
-    <mergeCell ref="A515:A518"/>
-    <mergeCell ref="A499:A502"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="A434:A437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="A491:A494"/>
-    <mergeCell ref="A475:A478"/>
-    <mergeCell ref="A507:A510"/>
-    <mergeCell ref="A483:A486"/>
-    <mergeCell ref="A487:A490"/>
-    <mergeCell ref="A495:A498"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="A547:A550"/>
-    <mergeCell ref="A382:A385"/>
-    <mergeCell ref="A511:A514"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A287:A290"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="B527:B530"/>
-    <mergeCell ref="B466:B469"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="B519:B522"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="B458:B461"/>
-    <mergeCell ref="B535:B538"/>
-    <mergeCell ref="B113:B117"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B430:B433"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="B341:B344"/>
-    <mergeCell ref="B337:B340"/>
-    <mergeCell ref="B531:B534"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B507:B510"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B177:B181"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B308:B311"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B312:B315"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="B243:B246"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="B442:B445"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B362:B365"/>
-    <mergeCell ref="B357:B361"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B316:B320"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B299:B303"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="F223:F226"/>
-    <mergeCell ref="E227:E230"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B547:B550"/>
-    <mergeCell ref="B382:B385"/>
-    <mergeCell ref="B291:B294"/>
-    <mergeCell ref="B515:B518"/>
-    <mergeCell ref="B370:B373"/>
-    <mergeCell ref="B374:B377"/>
-    <mergeCell ref="F227:F230"/>
-    <mergeCell ref="E231:E234"/>
-    <mergeCell ref="F231:F234"/>
-    <mergeCell ref="E235:E238"/>
-    <mergeCell ref="F235:F238"/>
-    <mergeCell ref="E519:E522"/>
-    <mergeCell ref="F519:F522"/>
-    <mergeCell ref="B378:B381"/>
-    <mergeCell ref="B366:B369"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="B470:B474"/>
-    <mergeCell ref="B499:B502"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="B487:B490"/>
-    <mergeCell ref="B491:B494"/>
-    <mergeCell ref="B511:B514"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B287:B290"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B539:B542"/>
-    <mergeCell ref="B543:B546"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="B267:B270"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="B275:B278"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B279:B282"/>
-    <mergeCell ref="B259:B262"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="B503:B506"/>
-    <mergeCell ref="B495:B498"/>
-    <mergeCell ref="B479:B482"/>
-    <mergeCell ref="B483:B486"/>
-    <mergeCell ref="B475:B478"/>
-    <mergeCell ref="F422:F425"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="F458:F461"/>
-    <mergeCell ref="E535:E538"/>
-    <mergeCell ref="F535:F538"/>
-    <mergeCell ref="F113:F117"/>
-    <mergeCell ref="F466:F469"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="E426:E429"/>
-    <mergeCell ref="F426:F429"/>
-    <mergeCell ref="E462:E465"/>
-    <mergeCell ref="F462:F465"/>
-    <mergeCell ref="F333:F336"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="F527:F530"/>
-    <mergeCell ref="F438:F441"/>
-    <mergeCell ref="F454:F457"/>
-    <mergeCell ref="F531:F534"/>
-    <mergeCell ref="F316:F320"/>
-    <mergeCell ref="F321:F324"/>
-    <mergeCell ref="F515:F518"/>
-    <mergeCell ref="F386:F389"/>
-    <mergeCell ref="E491:E494"/>
-    <mergeCell ref="E446:E449"/>
-    <mergeCell ref="E523:E526"/>
-    <mergeCell ref="E495:E498"/>
-    <mergeCell ref="E239:E242"/>
-    <mergeCell ref="E149:E152"/>
-    <mergeCell ref="E153:E156"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E527:E530"/>
-    <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E113:E117"/>
-    <mergeCell ref="E333:E336"/>
-    <mergeCell ref="E141:E144"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="E223:E226"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="E479:E482"/>
-    <mergeCell ref="E337:E340"/>
-    <mergeCell ref="E531:E534"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E157:E160"/>
-    <mergeCell ref="E304:E307"/>
-    <mergeCell ref="E341:E344"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="E145:E148"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E161:E164"/>
-    <mergeCell ref="E243:E246"/>
-    <mergeCell ref="E247:E250"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="E88:E92"/>
-    <mergeCell ref="E295:E298"/>
-    <mergeCell ref="E454:E457"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="E434:E437"/>
-    <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="E210:E213"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="E507:E510"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E173:E176"/>
-    <mergeCell ref="E321:E324"/>
-    <mergeCell ref="E503:E506"/>
-    <mergeCell ref="E165:E168"/>
-    <mergeCell ref="E169:E172"/>
-    <mergeCell ref="E308:E311"/>
-    <mergeCell ref="E214:E217"/>
-    <mergeCell ref="E218:E222"/>
-    <mergeCell ref="E312:E315"/>
-    <mergeCell ref="E122:E126"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="E97:E100"/>
-    <mergeCell ref="E470:E474"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E499:E502"/>
-    <mergeCell ref="E442:E445"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="E475:E478"/>
-    <mergeCell ref="E483:E486"/>
-    <mergeCell ref="E487:E490"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E362:E365"/>
-    <mergeCell ref="E259:E262"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E251:E254"/>
-    <mergeCell ref="E255:E258"/>
-    <mergeCell ref="E370:E373"/>
-    <mergeCell ref="E374:E377"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="E127:E130"/>
-    <mergeCell ref="E177:E181"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E325:E328"/>
-    <mergeCell ref="E329:E332"/>
-    <mergeCell ref="E267:E270"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E345:E348"/>
-    <mergeCell ref="E316:E320"/>
-    <mergeCell ref="E353:E356"/>
-    <mergeCell ref="E357:E361"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="E263:E266"/>
-    <mergeCell ref="E349:E352"/>
-    <mergeCell ref="E299:E303"/>
-    <mergeCell ref="C475:C478"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="C523:C526"/>
-    <mergeCell ref="C495:C498"/>
-    <mergeCell ref="C479:C482"/>
-    <mergeCell ref="C483:C486"/>
-    <mergeCell ref="C487:C490"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="E283:E286"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="C426:C429"/>
-    <mergeCell ref="C462:C465"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="C235:C238"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E378:E381"/>
-    <mergeCell ref="E515:E518"/>
-    <mergeCell ref="E279:E282"/>
-    <mergeCell ref="E366:E369"/>
-    <mergeCell ref="E291:E294"/>
-    <mergeCell ref="E271:E274"/>
-    <mergeCell ref="E275:E278"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="C527:C530"/>
-    <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C239:C242"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="C519:C522"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C535:C538"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="C333:C336"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C446:C449"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="C341:C344"/>
-    <mergeCell ref="C337:C340"/>
-    <mergeCell ref="C531:C534"/>
-    <mergeCell ref="C450:C453"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C243:C246"/>
-    <mergeCell ref="C507:C510"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C177:C181"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C503:C506"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C308:C311"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="C218:C222"/>
-    <mergeCell ref="C145:C148"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="C470:C474"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="C157:C160"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="C499:C502"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C434:C437"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C295:C298"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C251:C254"/>
-    <mergeCell ref="C255:C258"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C345:C348"/>
-    <mergeCell ref="C316:C320"/>
-    <mergeCell ref="C321:C324"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="C312:C315"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C353:C356"/>
-    <mergeCell ref="C357:C361"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C291:C294"/>
-    <mergeCell ref="C515:C518"/>
-    <mergeCell ref="C370:C373"/>
-    <mergeCell ref="C374:C377"/>
-    <mergeCell ref="C378:C381"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="C539:C542"/>
-    <mergeCell ref="C267:C270"/>
-    <mergeCell ref="C271:C274"/>
-    <mergeCell ref="C275:C278"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C279:C282"/>
-    <mergeCell ref="C366:C369"/>
-    <mergeCell ref="C259:C262"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="C349:C352"/>
-    <mergeCell ref="C299:C303"/>
-    <mergeCell ref="C325:C328"/>
-    <mergeCell ref="C329:C332"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C543:C546"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C547:C550"/>
-    <mergeCell ref="C382:C385"/>
-    <mergeCell ref="C511:C514"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="G426:G429"/>
-    <mergeCell ref="G462:G465"/>
-    <mergeCell ref="G223:G226"/>
-    <mergeCell ref="G422:G425"/>
-    <mergeCell ref="G458:G461"/>
-    <mergeCell ref="G535:G538"/>
-    <mergeCell ref="C287:C290"/>
-    <mergeCell ref="C454:C457"/>
-    <mergeCell ref="C442:C445"/>
-    <mergeCell ref="E547:E550"/>
-    <mergeCell ref="E382:E385"/>
-    <mergeCell ref="E511:E514"/>
-    <mergeCell ref="E287:E290"/>
-    <mergeCell ref="E543:E546"/>
-    <mergeCell ref="E539:E542"/>
-    <mergeCell ref="C491:C494"/>
-    <mergeCell ref="H535:H538"/>
-    <mergeCell ref="H223:H226"/>
-    <mergeCell ref="G227:G230"/>
-    <mergeCell ref="H227:H230"/>
-    <mergeCell ref="G231:G234"/>
-    <mergeCell ref="H231:H234"/>
-    <mergeCell ref="G235:G238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="G519:G522"/>
-    <mergeCell ref="H519:H522"/>
-    <mergeCell ref="G333:G336"/>
-    <mergeCell ref="H333:H336"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="H141:H144"/>
-    <mergeCell ref="G527:G530"/>
-    <mergeCell ref="H527:H530"/>
-    <mergeCell ref="G523:G526"/>
-    <mergeCell ref="H523:H526"/>
-    <mergeCell ref="G337:G340"/>
-    <mergeCell ref="H337:H340"/>
-    <mergeCell ref="G531:G534"/>
-    <mergeCell ref="H531:H534"/>
-    <mergeCell ref="G316:G320"/>
-    <mergeCell ref="H316:H320"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="F97:F100"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="H97:H100"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="G117:G121"/>
+    <mergeCell ref="H117:H121"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="F169:F172"/>
+    <mergeCell ref="G515:G518"/>
+    <mergeCell ref="H515:H518"/>
+    <mergeCell ref="F370:F373"/>
+    <mergeCell ref="G370:G373"/>
+    <mergeCell ref="H370:H373"/>
+    <mergeCell ref="F374:F377"/>
+    <mergeCell ref="G374:G377"/>
+    <mergeCell ref="H374:H377"/>
+    <mergeCell ref="F378:F381"/>
+    <mergeCell ref="G378:G381"/>
+    <mergeCell ref="H378:H381"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="H263:H266"/>
+    <mergeCell ref="F283:F286"/>
+    <mergeCell ref="G283:G286"/>
+    <mergeCell ref="H283:H286"/>
+    <mergeCell ref="F279:F282"/>
+    <mergeCell ref="G279:G282"/>
+    <mergeCell ref="H279:H282"/>
+    <mergeCell ref="F547:F550"/>
+    <mergeCell ref="G547:G550"/>
+    <mergeCell ref="H547:H550"/>
+    <mergeCell ref="G386:G389"/>
+    <mergeCell ref="H386:H389"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="F177:F181"/>
+    <mergeCell ref="G177:G181"/>
+    <mergeCell ref="H177:H181"/>
+    <mergeCell ref="F182:F185"/>
+    <mergeCell ref="G182:G185"/>
+    <mergeCell ref="H182:H185"/>
+    <mergeCell ref="F173:F176"/>
+    <mergeCell ref="G173:G176"/>
+    <mergeCell ref="H173:H176"/>
+    <mergeCell ref="F382:F385"/>
+    <mergeCell ref="G382:G385"/>
+    <mergeCell ref="H382:H385"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="G113:G116"/>
+    <mergeCell ref="H113:H116"/>
+    <mergeCell ref="F287:F290"/>
+    <mergeCell ref="F539:F542"/>
+    <mergeCell ref="G539:G542"/>
+    <mergeCell ref="H539:H542"/>
+    <mergeCell ref="F543:F546"/>
+    <mergeCell ref="G543:G546"/>
+    <mergeCell ref="H543:H546"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="F511:F514"/>
+    <mergeCell ref="G511:G514"/>
+    <mergeCell ref="H511:H514"/>
+    <mergeCell ref="F186:F189"/>
+    <mergeCell ref="G186:G189"/>
+    <mergeCell ref="H186:H189"/>
+    <mergeCell ref="F410:F413"/>
+    <mergeCell ref="G410:G413"/>
+    <mergeCell ref="H410:H413"/>
+    <mergeCell ref="G287:G290"/>
+    <mergeCell ref="H287:H290"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="G105:G108"/>
+    <mergeCell ref="H105:H108"/>
+    <mergeCell ref="F275:F278"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="F247:F250"/>
+    <mergeCell ref="G247:G250"/>
+    <mergeCell ref="H247:H250"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="G169:G172"/>
+    <mergeCell ref="H169:H172"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="G64:G67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
@@ -16240,7 +16232,7 @@
     <hyperlink ref="B304" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="B333" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="B161" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B122" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B126" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="B218" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="B235" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="B337" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
@@ -16248,7 +16240,7 @@
     <hyperlink ref="B88" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="B93" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="B80" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B113" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B117" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="B194" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="B198" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="B206" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
@@ -16279,7 +16271,7 @@
     <hyperlink ref="B341" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="B239" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="B247" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B118" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B122" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="B390" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="B402" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="B398" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
@@ -16309,7 +16301,7 @@
     <hyperlink ref="B190" r:id="rId85" xr:uid="{D3886004-460D-4284-AE74-FFEBAEFFBF19}"/>
     <hyperlink ref="B97" r:id="rId86" xr:uid="{9F77286F-6EC0-48F1-8246-2ABB3AFECF4F}"/>
     <hyperlink ref="B46" r:id="rId87" xr:uid="{8509003E-9089-4A16-881E-2CA893AEB870}"/>
-    <hyperlink ref="B127" r:id="rId88" xr:uid="{96C51C1D-8A7B-4CF2-88CD-C22E94DF9645}"/>
+    <hyperlink ref="B101" r:id="rId88" xr:uid="{96C51C1D-8A7B-4CF2-88CD-C22E94DF9645}"/>
     <hyperlink ref="B353" r:id="rId89" xr:uid="{7AD6C6C5-2FDC-404B-8A81-2A22D7FA2AFF}"/>
     <hyperlink ref="B357" r:id="rId90" xr:uid="{A0D6817E-9B7D-42B1-99C5-DEA2C291B912}"/>
     <hyperlink ref="B51" r:id="rId91" xr:uid="{5FEB8EC7-E6D0-4F3D-8EA3-43E20F3D77BA}"/>
@@ -16341,10 +16333,10 @@
     <hyperlink ref="B374" r:id="rId117" xr:uid="{840D9884-A9CD-4438-B648-A666B9000FBA}"/>
     <hyperlink ref="B378" r:id="rId118" xr:uid="{65335A14-2CAF-457B-9D39-0657CD853A39}"/>
     <hyperlink ref="B283" r:id="rId119" xr:uid="{DF732760-59D2-4714-BDFE-7F4492DB6B52}"/>
-    <hyperlink ref="B101" r:id="rId120" xr:uid="{C89CAD92-D09F-4A40-AEC9-36AF16DD2FE2}"/>
+    <hyperlink ref="B105" r:id="rId120" xr:uid="{C89CAD92-D09F-4A40-AEC9-36AF16DD2FE2}"/>
     <hyperlink ref="B386" r:id="rId121" xr:uid="{935E95F2-3288-439D-832B-1204F5561FAC}"/>
-    <hyperlink ref="B105" r:id="rId122" xr:uid="{79C86A53-37B4-4C14-B488-3420C0C47255}"/>
-    <hyperlink ref="B109" r:id="rId123" xr:uid="{F37FA534-F8AD-4BA1-8677-C0D3F997DE33}"/>
+    <hyperlink ref="B109" r:id="rId122" xr:uid="{79C86A53-37B4-4C14-B488-3420C0C47255}"/>
+    <hyperlink ref="B113" r:id="rId123" xr:uid="{F37FA534-F8AD-4BA1-8677-C0D3F997DE33}"/>
     <hyperlink ref="B287" r:id="rId124" xr:uid="{F5612779-F999-42F7-8B48-5AA5EFCC0E05}"/>
     <hyperlink ref="B60" r:id="rId125" xr:uid="{8D0E2CCC-D514-4906-B752-A1E01077ABDA}"/>
     <hyperlink ref="B64" r:id="rId126" xr:uid="{8ECD43FC-0857-469E-8FBA-DB7C60459BAB}"/>
@@ -26708,191 +26700,415 @@
     <sortCondition ref="A2:A586"/>
   </sortState>
   <mergeCells count="618">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C286:C289"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="C298:C301"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="C266:C269"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="C282:C285"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="C258:C261"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C358:C361"/>
-    <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C366:C369"/>
-    <mergeCell ref="C370:C373"/>
-    <mergeCell ref="C334:C337"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C342:C345"/>
-    <mergeCell ref="C346:C349"/>
-    <mergeCell ref="C374:C377"/>
-    <mergeCell ref="C378:C381"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C462:C465"/>
-    <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C434:C437"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C442:C445"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C446:C449"/>
-    <mergeCell ref="C450:C453"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C426:C429"/>
-    <mergeCell ref="C454:C457"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E246:E249"/>
-    <mergeCell ref="E238:E241"/>
-    <mergeCell ref="E218:E221"/>
-    <mergeCell ref="E222:E225"/>
-    <mergeCell ref="E226:E229"/>
-    <mergeCell ref="E250:E253"/>
-    <mergeCell ref="E254:E257"/>
-    <mergeCell ref="E258:E261"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="E338:E341"/>
-    <mergeCell ref="E342:E345"/>
-    <mergeCell ref="E334:E337"/>
-    <mergeCell ref="E314:E317"/>
-    <mergeCell ref="E318:E321"/>
-    <mergeCell ref="E322:E325"/>
-    <mergeCell ref="E290:E293"/>
-    <mergeCell ref="E294:E297"/>
-    <mergeCell ref="E286:E289"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="E462:E465"/>
-    <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E434:E437"/>
-    <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="E442:E445"/>
-    <mergeCell ref="E446:E449"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E454:E457"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="E426:E429"/>
-    <mergeCell ref="C562:C565"/>
-    <mergeCell ref="E562:E565"/>
-    <mergeCell ref="C566:C569"/>
-    <mergeCell ref="E566:E569"/>
-    <mergeCell ref="C554:C557"/>
-    <mergeCell ref="E554:E557"/>
-    <mergeCell ref="C558:C561"/>
-    <mergeCell ref="E558:E561"/>
-    <mergeCell ref="C546:C549"/>
-    <mergeCell ref="E546:E549"/>
-    <mergeCell ref="C550:C553"/>
-    <mergeCell ref="E550:E553"/>
-    <mergeCell ref="C586:C589"/>
-    <mergeCell ref="E586:E589"/>
-    <mergeCell ref="C578:C581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="C582:C585"/>
-    <mergeCell ref="E582:E585"/>
-    <mergeCell ref="C570:C573"/>
-    <mergeCell ref="E570:E573"/>
-    <mergeCell ref="C574:C577"/>
-    <mergeCell ref="E574:E577"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="B578:B581"/>
+    <mergeCell ref="A582:A585"/>
+    <mergeCell ref="B582:B585"/>
+    <mergeCell ref="A586:A589"/>
+    <mergeCell ref="B586:B589"/>
+    <mergeCell ref="A566:A569"/>
+    <mergeCell ref="B566:B569"/>
+    <mergeCell ref="A570:A573"/>
+    <mergeCell ref="B570:B573"/>
+    <mergeCell ref="A574:A577"/>
+    <mergeCell ref="B574:B577"/>
+    <mergeCell ref="A554:A557"/>
+    <mergeCell ref="B554:B557"/>
+    <mergeCell ref="A558:A561"/>
+    <mergeCell ref="B558:B561"/>
+    <mergeCell ref="A562:A565"/>
+    <mergeCell ref="B562:B565"/>
+    <mergeCell ref="A542:A545"/>
+    <mergeCell ref="B542:B545"/>
+    <mergeCell ref="A546:A549"/>
+    <mergeCell ref="B546:B549"/>
+    <mergeCell ref="A550:A553"/>
+    <mergeCell ref="B550:B553"/>
+    <mergeCell ref="A530:A533"/>
+    <mergeCell ref="B530:B533"/>
+    <mergeCell ref="A534:A537"/>
+    <mergeCell ref="B534:B537"/>
+    <mergeCell ref="A538:A541"/>
+    <mergeCell ref="B538:B541"/>
+    <mergeCell ref="A518:A521"/>
+    <mergeCell ref="B518:B521"/>
+    <mergeCell ref="A522:A525"/>
+    <mergeCell ref="B522:B525"/>
+    <mergeCell ref="A526:A529"/>
+    <mergeCell ref="B526:B529"/>
+    <mergeCell ref="A506:A509"/>
+    <mergeCell ref="B506:B509"/>
+    <mergeCell ref="A510:A513"/>
+    <mergeCell ref="B510:B513"/>
+    <mergeCell ref="A514:A517"/>
+    <mergeCell ref="B514:B517"/>
+    <mergeCell ref="A494:A497"/>
+    <mergeCell ref="B494:B497"/>
+    <mergeCell ref="A498:A501"/>
+    <mergeCell ref="B498:B501"/>
+    <mergeCell ref="A502:A505"/>
+    <mergeCell ref="B502:B505"/>
+    <mergeCell ref="A482:A485"/>
+    <mergeCell ref="B482:B485"/>
+    <mergeCell ref="A486:A489"/>
+    <mergeCell ref="B486:B489"/>
+    <mergeCell ref="A490:A493"/>
+    <mergeCell ref="B490:B493"/>
+    <mergeCell ref="A470:A473"/>
+    <mergeCell ref="B470:B473"/>
+    <mergeCell ref="A474:A477"/>
+    <mergeCell ref="B474:B477"/>
+    <mergeCell ref="A478:A481"/>
+    <mergeCell ref="B478:B481"/>
+    <mergeCell ref="A458:A461"/>
+    <mergeCell ref="B458:B461"/>
+    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="B462:B465"/>
+    <mergeCell ref="A466:A469"/>
+    <mergeCell ref="B466:B469"/>
+    <mergeCell ref="A446:A449"/>
+    <mergeCell ref="B446:B449"/>
+    <mergeCell ref="A450:A453"/>
+    <mergeCell ref="B450:B453"/>
+    <mergeCell ref="A454:A457"/>
+    <mergeCell ref="B454:B457"/>
+    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="B434:B437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="A442:A445"/>
+    <mergeCell ref="B442:B445"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="A430:A433"/>
+    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="B394:B397"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="A378:A381"/>
+    <mergeCell ref="B378:B381"/>
+    <mergeCell ref="A382:A385"/>
+    <mergeCell ref="B382:B385"/>
+    <mergeCell ref="A362:A365"/>
+    <mergeCell ref="B362:B365"/>
+    <mergeCell ref="A366:A369"/>
+    <mergeCell ref="B366:B369"/>
+    <mergeCell ref="A370:A373"/>
+    <mergeCell ref="B370:B373"/>
+    <mergeCell ref="A350:A353"/>
+    <mergeCell ref="B350:B353"/>
+    <mergeCell ref="A354:A357"/>
+    <mergeCell ref="B354:B357"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="A338:A341"/>
+    <mergeCell ref="B338:B341"/>
+    <mergeCell ref="A342:A345"/>
+    <mergeCell ref="B342:B345"/>
+    <mergeCell ref="A346:A349"/>
+    <mergeCell ref="B346:B349"/>
+    <mergeCell ref="A326:A329"/>
+    <mergeCell ref="B326:B329"/>
+    <mergeCell ref="A330:A333"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="A334:A337"/>
+    <mergeCell ref="B334:B337"/>
+    <mergeCell ref="A314:A317"/>
+    <mergeCell ref="B314:B317"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="B318:B321"/>
+    <mergeCell ref="A322:A325"/>
+    <mergeCell ref="B322:B325"/>
+    <mergeCell ref="A302:A305"/>
+    <mergeCell ref="B302:B305"/>
+    <mergeCell ref="A306:A309"/>
+    <mergeCell ref="B306:B309"/>
+    <mergeCell ref="A310:A313"/>
+    <mergeCell ref="B310:B313"/>
+    <mergeCell ref="A290:A293"/>
+    <mergeCell ref="B290:B293"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="A298:A301"/>
+    <mergeCell ref="B298:B301"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="B282:B285"/>
+    <mergeCell ref="A286:A289"/>
+    <mergeCell ref="B286:B289"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="A270:A273"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="A274:A277"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="A262:A265"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="A230:A233"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C542:C545"/>
+    <mergeCell ref="E542:E545"/>
+    <mergeCell ref="C534:C537"/>
+    <mergeCell ref="E534:E537"/>
+    <mergeCell ref="C538:C541"/>
+    <mergeCell ref="E538:E541"/>
+    <mergeCell ref="C526:C529"/>
+    <mergeCell ref="E526:E529"/>
+    <mergeCell ref="C530:C533"/>
+    <mergeCell ref="E530:E533"/>
+    <mergeCell ref="E514:E517"/>
+    <mergeCell ref="C518:C521"/>
+    <mergeCell ref="E518:E521"/>
+    <mergeCell ref="C522:C525"/>
+    <mergeCell ref="E522:E525"/>
+    <mergeCell ref="E490:E493"/>
+    <mergeCell ref="C494:C497"/>
+    <mergeCell ref="E494:E497"/>
+    <mergeCell ref="C498:C501"/>
+    <mergeCell ref="E498:E501"/>
+    <mergeCell ref="E506:E509"/>
+    <mergeCell ref="E510:E513"/>
+    <mergeCell ref="E502:E505"/>
+    <mergeCell ref="C510:C513"/>
+    <mergeCell ref="C514:C517"/>
+    <mergeCell ref="C470:C473"/>
+    <mergeCell ref="E470:E473"/>
+    <mergeCell ref="C474:C477"/>
+    <mergeCell ref="E474:E477"/>
+    <mergeCell ref="E482:E485"/>
+    <mergeCell ref="E486:E489"/>
+    <mergeCell ref="E478:E481"/>
+    <mergeCell ref="C502:C505"/>
+    <mergeCell ref="C506:C509"/>
+    <mergeCell ref="C478:C481"/>
+    <mergeCell ref="C482:C485"/>
+    <mergeCell ref="C486:C489"/>
+    <mergeCell ref="C490:C493"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="E346:E349"/>
+    <mergeCell ref="C350:C353"/>
+    <mergeCell ref="E350:E353"/>
+    <mergeCell ref="C354:C357"/>
+    <mergeCell ref="E354:E357"/>
+    <mergeCell ref="E358:E361"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E382:E385"/>
+    <mergeCell ref="E362:E365"/>
+    <mergeCell ref="E366:E369"/>
+    <mergeCell ref="E370:E373"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="E378:E381"/>
+    <mergeCell ref="C382:C385"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="E230:E233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="E234:E237"/>
+    <mergeCell ref="C326:C329"/>
+    <mergeCell ref="E326:E329"/>
+    <mergeCell ref="C330:C333"/>
+    <mergeCell ref="E330:E333"/>
+    <mergeCell ref="E298:E301"/>
+    <mergeCell ref="C302:C305"/>
+    <mergeCell ref="E302:E305"/>
+    <mergeCell ref="C306:C309"/>
+    <mergeCell ref="E306:E309"/>
+    <mergeCell ref="E310:E313"/>
+    <mergeCell ref="C310:C313"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="C318:C321"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="E266:E269"/>
+    <mergeCell ref="E270:E273"/>
+    <mergeCell ref="E274:E277"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="E282:E285"/>
+    <mergeCell ref="E242:E245"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="E210:E213"/>
+    <mergeCell ref="E214:E217"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="C222:C225"/>
     <mergeCell ref="C226:C229"/>
     <mergeCell ref="E154:E157"/>
     <mergeCell ref="C158:C161"/>
@@ -26917,415 +27133,191 @@
     <mergeCell ref="E142:E145"/>
     <mergeCell ref="C190:C193"/>
     <mergeCell ref="C194:C197"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="E210:E213"/>
-    <mergeCell ref="E214:E217"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="E230:E233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="E234:E237"/>
-    <mergeCell ref="C326:C329"/>
-    <mergeCell ref="E326:E329"/>
-    <mergeCell ref="C330:C333"/>
-    <mergeCell ref="E330:E333"/>
-    <mergeCell ref="E298:E301"/>
-    <mergeCell ref="C302:C305"/>
-    <mergeCell ref="E302:E305"/>
-    <mergeCell ref="C306:C309"/>
-    <mergeCell ref="E306:E309"/>
-    <mergeCell ref="E310:E313"/>
-    <mergeCell ref="C310:C313"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="C318:C321"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="E266:E269"/>
-    <mergeCell ref="E270:E273"/>
-    <mergeCell ref="E274:E277"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="E282:E285"/>
-    <mergeCell ref="E242:E245"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="E346:E349"/>
-    <mergeCell ref="C350:C353"/>
-    <mergeCell ref="E350:E353"/>
-    <mergeCell ref="C354:C357"/>
-    <mergeCell ref="E354:E357"/>
-    <mergeCell ref="E358:E361"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E382:E385"/>
-    <mergeCell ref="E362:E365"/>
-    <mergeCell ref="E366:E369"/>
-    <mergeCell ref="E370:E373"/>
-    <mergeCell ref="E374:E377"/>
-    <mergeCell ref="E378:E381"/>
-    <mergeCell ref="C382:C385"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="C498:C501"/>
-    <mergeCell ref="E498:E501"/>
-    <mergeCell ref="E506:E509"/>
-    <mergeCell ref="E510:E513"/>
-    <mergeCell ref="E502:E505"/>
-    <mergeCell ref="C510:C513"/>
-    <mergeCell ref="C514:C517"/>
-    <mergeCell ref="C470:C473"/>
-    <mergeCell ref="E470:E473"/>
-    <mergeCell ref="C474:C477"/>
-    <mergeCell ref="E474:E477"/>
-    <mergeCell ref="E482:E485"/>
-    <mergeCell ref="E486:E489"/>
-    <mergeCell ref="E478:E481"/>
-    <mergeCell ref="C502:C505"/>
-    <mergeCell ref="C506:C509"/>
-    <mergeCell ref="C478:C481"/>
-    <mergeCell ref="C482:C485"/>
-    <mergeCell ref="C486:C489"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C542:C545"/>
-    <mergeCell ref="E542:E545"/>
-    <mergeCell ref="C534:C537"/>
-    <mergeCell ref="E534:E537"/>
-    <mergeCell ref="C538:C541"/>
-    <mergeCell ref="E538:E541"/>
-    <mergeCell ref="C526:C529"/>
-    <mergeCell ref="E526:E529"/>
-    <mergeCell ref="C530:C533"/>
-    <mergeCell ref="E530:E533"/>
-    <mergeCell ref="E514:E517"/>
-    <mergeCell ref="C518:C521"/>
-    <mergeCell ref="E518:E521"/>
-    <mergeCell ref="C522:C525"/>
-    <mergeCell ref="E522:E525"/>
-    <mergeCell ref="E490:E493"/>
-    <mergeCell ref="C494:C497"/>
-    <mergeCell ref="E494:E497"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="A218:A221"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="A230:A233"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A266:A269"/>
-    <mergeCell ref="B266:B269"/>
-    <mergeCell ref="A270:A273"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="A274:A277"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="A254:A257"/>
-    <mergeCell ref="B254:B257"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="A262:A265"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="A290:A293"/>
-    <mergeCell ref="B290:B293"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="A298:A301"/>
-    <mergeCell ref="B298:B301"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="B282:B285"/>
-    <mergeCell ref="A286:A289"/>
-    <mergeCell ref="B286:B289"/>
-    <mergeCell ref="A314:A317"/>
-    <mergeCell ref="B314:B317"/>
-    <mergeCell ref="A318:A321"/>
-    <mergeCell ref="B318:B321"/>
-    <mergeCell ref="A322:A325"/>
-    <mergeCell ref="B322:B325"/>
-    <mergeCell ref="A302:A305"/>
-    <mergeCell ref="B302:B305"/>
-    <mergeCell ref="A306:A309"/>
-    <mergeCell ref="B306:B309"/>
-    <mergeCell ref="A310:A313"/>
-    <mergeCell ref="B310:B313"/>
-    <mergeCell ref="A338:A341"/>
-    <mergeCell ref="B338:B341"/>
-    <mergeCell ref="A342:A345"/>
-    <mergeCell ref="B342:B345"/>
-    <mergeCell ref="A346:A349"/>
-    <mergeCell ref="B346:B349"/>
-    <mergeCell ref="A326:A329"/>
-    <mergeCell ref="B326:B329"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="A334:A337"/>
-    <mergeCell ref="B334:B337"/>
-    <mergeCell ref="A362:A365"/>
-    <mergeCell ref="B362:B365"/>
-    <mergeCell ref="A366:A369"/>
-    <mergeCell ref="B366:B369"/>
-    <mergeCell ref="A370:A373"/>
-    <mergeCell ref="B370:B373"/>
-    <mergeCell ref="A350:A353"/>
-    <mergeCell ref="B350:B353"/>
-    <mergeCell ref="A354:A357"/>
-    <mergeCell ref="B354:B357"/>
-    <mergeCell ref="A358:A361"/>
-    <mergeCell ref="B358:B361"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="B374:B377"/>
-    <mergeCell ref="A378:A381"/>
-    <mergeCell ref="B378:B381"/>
-    <mergeCell ref="A382:A385"/>
-    <mergeCell ref="B382:B385"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="A434:A437"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="B442:B445"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="B430:B433"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="B458:B461"/>
-    <mergeCell ref="A462:A465"/>
-    <mergeCell ref="B462:B465"/>
-    <mergeCell ref="A466:A469"/>
-    <mergeCell ref="B466:B469"/>
-    <mergeCell ref="A446:A449"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="A482:A485"/>
-    <mergeCell ref="B482:B485"/>
-    <mergeCell ref="A486:A489"/>
-    <mergeCell ref="B486:B489"/>
-    <mergeCell ref="A490:A493"/>
-    <mergeCell ref="B490:B493"/>
-    <mergeCell ref="A470:A473"/>
-    <mergeCell ref="B470:B473"/>
-    <mergeCell ref="A474:A477"/>
-    <mergeCell ref="B474:B477"/>
-    <mergeCell ref="A478:A481"/>
-    <mergeCell ref="B478:B481"/>
-    <mergeCell ref="A506:A509"/>
-    <mergeCell ref="B506:B509"/>
-    <mergeCell ref="A510:A513"/>
-    <mergeCell ref="B510:B513"/>
-    <mergeCell ref="A514:A517"/>
-    <mergeCell ref="B514:B517"/>
-    <mergeCell ref="A494:A497"/>
-    <mergeCell ref="B494:B497"/>
-    <mergeCell ref="A498:A501"/>
-    <mergeCell ref="B498:B501"/>
-    <mergeCell ref="A502:A505"/>
-    <mergeCell ref="B502:B505"/>
-    <mergeCell ref="A530:A533"/>
-    <mergeCell ref="B530:B533"/>
-    <mergeCell ref="A534:A537"/>
-    <mergeCell ref="B534:B537"/>
-    <mergeCell ref="A538:A541"/>
-    <mergeCell ref="B538:B541"/>
-    <mergeCell ref="A518:A521"/>
-    <mergeCell ref="B518:B521"/>
-    <mergeCell ref="A522:A525"/>
-    <mergeCell ref="B522:B525"/>
-    <mergeCell ref="A526:A529"/>
-    <mergeCell ref="B526:B529"/>
-    <mergeCell ref="A554:A557"/>
-    <mergeCell ref="B554:B557"/>
-    <mergeCell ref="A558:A561"/>
-    <mergeCell ref="B558:B561"/>
-    <mergeCell ref="A562:A565"/>
-    <mergeCell ref="B562:B565"/>
-    <mergeCell ref="A542:A545"/>
-    <mergeCell ref="B542:B545"/>
-    <mergeCell ref="A546:A549"/>
-    <mergeCell ref="B546:B549"/>
-    <mergeCell ref="A550:A553"/>
-    <mergeCell ref="B550:B553"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="B578:B581"/>
-    <mergeCell ref="A582:A585"/>
-    <mergeCell ref="B582:B585"/>
-    <mergeCell ref="A586:A589"/>
-    <mergeCell ref="B586:B589"/>
-    <mergeCell ref="A566:A569"/>
-    <mergeCell ref="B566:B569"/>
-    <mergeCell ref="A570:A573"/>
-    <mergeCell ref="B570:B573"/>
-    <mergeCell ref="A574:A577"/>
-    <mergeCell ref="B574:B577"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="C586:C589"/>
+    <mergeCell ref="E586:E589"/>
+    <mergeCell ref="C578:C581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="C582:C585"/>
+    <mergeCell ref="E582:E585"/>
+    <mergeCell ref="C570:C573"/>
+    <mergeCell ref="E570:E573"/>
+    <mergeCell ref="C574:C577"/>
+    <mergeCell ref="E574:E577"/>
+    <mergeCell ref="C562:C565"/>
+    <mergeCell ref="E562:E565"/>
+    <mergeCell ref="C566:C569"/>
+    <mergeCell ref="E566:E569"/>
+    <mergeCell ref="C554:C557"/>
+    <mergeCell ref="E554:E557"/>
+    <mergeCell ref="C558:C561"/>
+    <mergeCell ref="E558:E561"/>
+    <mergeCell ref="C546:C549"/>
+    <mergeCell ref="E546:E549"/>
+    <mergeCell ref="C550:C553"/>
+    <mergeCell ref="E550:E553"/>
+    <mergeCell ref="E458:E461"/>
+    <mergeCell ref="E462:E465"/>
+    <mergeCell ref="E466:E469"/>
+    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E446:E449"/>
+    <mergeCell ref="E450:E453"/>
+    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="E338:E341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="E334:E337"/>
+    <mergeCell ref="E314:E317"/>
+    <mergeCell ref="E318:E321"/>
+    <mergeCell ref="E322:E325"/>
+    <mergeCell ref="E290:E293"/>
+    <mergeCell ref="E294:E297"/>
+    <mergeCell ref="E286:E289"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="E238:E241"/>
+    <mergeCell ref="E218:E221"/>
+    <mergeCell ref="E222:E225"/>
+    <mergeCell ref="E226:E229"/>
+    <mergeCell ref="E250:E253"/>
+    <mergeCell ref="E254:E257"/>
+    <mergeCell ref="E258:E261"/>
+    <mergeCell ref="E262:E265"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C458:C461"/>
+    <mergeCell ref="C462:C465"/>
+    <mergeCell ref="C466:C469"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C438:C441"/>
+    <mergeCell ref="C442:C445"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C446:C449"/>
+    <mergeCell ref="C450:C453"/>
+    <mergeCell ref="C422:C425"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C454:C457"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C358:C361"/>
+    <mergeCell ref="C362:C365"/>
+    <mergeCell ref="C366:C369"/>
+    <mergeCell ref="C370:C373"/>
+    <mergeCell ref="C334:C337"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C342:C345"/>
+    <mergeCell ref="C346:C349"/>
+    <mergeCell ref="C374:C377"/>
+    <mergeCell ref="C378:C381"/>
+    <mergeCell ref="C286:C289"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="C298:C301"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="C274:C277"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="C282:C285"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C258:C261"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B338" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
@@ -35231,45 +35223,132 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="H106:H109"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
     <mergeCell ref="E102:E105"/>
     <mergeCell ref="F102:F105"/>
     <mergeCell ref="E42:E45"/>
@@ -35294,132 +35373,45 @@
     <mergeCell ref="F86:F89"/>
     <mergeCell ref="F94:F97"/>
     <mergeCell ref="E54:E57"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="G106:G109"/>
-    <mergeCell ref="H106:H109"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="H98:H101"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C98:C101"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
@@ -42328,13 +42320,40 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="E2:E5"/>
@@ -42343,40 +42362,13 @@
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
@@ -49598,32 +49590,62 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="E50:E53"/>
     <mergeCell ref="F50:F53"/>
     <mergeCell ref="E2:E4"/>
@@ -49640,62 +49662,32 @@
     <mergeCell ref="F34:F37"/>
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
@@ -56528,11 +56520,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H2:H5"/>
@@ -56549,6 +56536,11 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{47819044-E1F3-45E4-893B-E194895BB40E}"/>
@@ -63490,20 +63482,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="H23:H26"/>
@@ -63520,18 +63510,20 @@
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>

--- a/DataCamp-Tracks.xlsx
+++ b/DataCamp-Tracks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29725084-AD38-482D-9BAE-AB0BEB51E839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD51699-1500-4644-98F1-392B60EE52B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Python Skill" sheetId="2" r:id="rId1"/>
-    <sheet name="R Skill" sheetId="9" r:id="rId2"/>
-    <sheet name="SQL Skill" sheetId="8" r:id="rId3"/>
+    <sheet name="Python" sheetId="2" r:id="rId1"/>
+    <sheet name="R" sheetId="9" r:id="rId2"/>
+    <sheet name="SQL" sheetId="8" r:id="rId3"/>
     <sheet name="Theory" sheetId="4" r:id="rId4"/>
     <sheet name="Spreadsheets &amp; Excel" sheetId="6" r:id="rId5"/>
     <sheet name="Tableau &amp; Power BI" sheetId="13" r:id="rId6"/>
@@ -15267,28 +15267,903 @@
     </row>
   </sheetData>
   <mergeCells count="945">
-    <mergeCell ref="H535:H538"/>
-    <mergeCell ref="H223:H226"/>
-    <mergeCell ref="G227:G230"/>
-    <mergeCell ref="H227:H230"/>
-    <mergeCell ref="G231:G234"/>
-    <mergeCell ref="H231:H234"/>
-    <mergeCell ref="G235:G238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="G519:G522"/>
-    <mergeCell ref="H519:H522"/>
-    <mergeCell ref="G333:G336"/>
-    <mergeCell ref="H333:H336"/>
-    <mergeCell ref="G527:G530"/>
-    <mergeCell ref="H527:H530"/>
-    <mergeCell ref="G523:G526"/>
-    <mergeCell ref="H523:H526"/>
-    <mergeCell ref="G337:G340"/>
-    <mergeCell ref="H337:H340"/>
-    <mergeCell ref="G531:G534"/>
-    <mergeCell ref="H531:H534"/>
-    <mergeCell ref="G316:G320"/>
-    <mergeCell ref="H316:H320"/>
+    <mergeCell ref="H247:H250"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="G169:G172"/>
+    <mergeCell ref="H169:H172"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="F539:F542"/>
+    <mergeCell ref="G539:G542"/>
+    <mergeCell ref="H539:H542"/>
+    <mergeCell ref="F543:F546"/>
+    <mergeCell ref="G543:G546"/>
+    <mergeCell ref="H543:H546"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="F511:F514"/>
+    <mergeCell ref="G511:G514"/>
+    <mergeCell ref="H511:H514"/>
+    <mergeCell ref="F186:F189"/>
+    <mergeCell ref="G186:G189"/>
+    <mergeCell ref="H186:H189"/>
+    <mergeCell ref="F410:F413"/>
+    <mergeCell ref="G410:G413"/>
+    <mergeCell ref="H410:H413"/>
+    <mergeCell ref="G287:G290"/>
+    <mergeCell ref="H287:H290"/>
+    <mergeCell ref="F105:F108"/>
+    <mergeCell ref="G105:G108"/>
+    <mergeCell ref="H105:H108"/>
+    <mergeCell ref="F275:F278"/>
+    <mergeCell ref="F547:F550"/>
+    <mergeCell ref="G547:G550"/>
+    <mergeCell ref="H547:H550"/>
+    <mergeCell ref="G386:G389"/>
+    <mergeCell ref="H386:H389"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="F177:F181"/>
+    <mergeCell ref="G177:G181"/>
+    <mergeCell ref="H177:H181"/>
+    <mergeCell ref="F182:F185"/>
+    <mergeCell ref="G182:G185"/>
+    <mergeCell ref="H182:H185"/>
+    <mergeCell ref="F173:F176"/>
+    <mergeCell ref="G173:G176"/>
+    <mergeCell ref="H173:H176"/>
+    <mergeCell ref="F382:F385"/>
+    <mergeCell ref="G382:G385"/>
+    <mergeCell ref="H382:H385"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="G113:G116"/>
+    <mergeCell ref="H113:H116"/>
+    <mergeCell ref="F287:F290"/>
+    <mergeCell ref="H515:H518"/>
+    <mergeCell ref="F370:F373"/>
+    <mergeCell ref="G370:G373"/>
+    <mergeCell ref="H370:H373"/>
+    <mergeCell ref="F374:F377"/>
+    <mergeCell ref="G374:G377"/>
+    <mergeCell ref="H374:H377"/>
+    <mergeCell ref="F378:F381"/>
+    <mergeCell ref="G378:G381"/>
+    <mergeCell ref="H378:H381"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="F97:F100"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="H97:H100"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="F251:F254"/>
+    <mergeCell ref="G251:G254"/>
+    <mergeCell ref="H251:H254"/>
+    <mergeCell ref="F299:F303"/>
+    <mergeCell ref="G299:G303"/>
+    <mergeCell ref="H299:H303"/>
+    <mergeCell ref="F325:F328"/>
+    <mergeCell ref="G325:G328"/>
+    <mergeCell ref="H325:H328"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="G117:G121"/>
+    <mergeCell ref="H117:H121"/>
+    <mergeCell ref="F169:F172"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="H263:H266"/>
+    <mergeCell ref="F283:F286"/>
+    <mergeCell ref="G283:G286"/>
+    <mergeCell ref="H283:H286"/>
+    <mergeCell ref="F279:F282"/>
+    <mergeCell ref="G279:G282"/>
+    <mergeCell ref="H279:H282"/>
+    <mergeCell ref="F247:F250"/>
+    <mergeCell ref="H255:H258"/>
+    <mergeCell ref="G438:G441"/>
+    <mergeCell ref="H438:H441"/>
+    <mergeCell ref="F341:F344"/>
+    <mergeCell ref="G341:G344"/>
+    <mergeCell ref="H341:H344"/>
+    <mergeCell ref="F337:F340"/>
+    <mergeCell ref="F390:F393"/>
+    <mergeCell ref="G390:G393"/>
+    <mergeCell ref="H390:H393"/>
+    <mergeCell ref="F394:F397"/>
+    <mergeCell ref="G394:G397"/>
+    <mergeCell ref="H394:H397"/>
+    <mergeCell ref="F398:F401"/>
+    <mergeCell ref="G275:G278"/>
+    <mergeCell ref="H275:H278"/>
+    <mergeCell ref="F329:F332"/>
+    <mergeCell ref="G329:G332"/>
+    <mergeCell ref="H329:H332"/>
+    <mergeCell ref="F366:F369"/>
+    <mergeCell ref="G366:G369"/>
+    <mergeCell ref="H366:H369"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="F362:F365"/>
+    <mergeCell ref="G362:G365"/>
+    <mergeCell ref="H362:H365"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="F271:F274"/>
+    <mergeCell ref="G271:G274"/>
+    <mergeCell ref="H271:H274"/>
+    <mergeCell ref="F259:F262"/>
+    <mergeCell ref="G259:G262"/>
+    <mergeCell ref="H259:H262"/>
+    <mergeCell ref="F263:F266"/>
+    <mergeCell ref="G321:G324"/>
+    <mergeCell ref="H321:H324"/>
+    <mergeCell ref="F202:F205"/>
+    <mergeCell ref="G202:G205"/>
+    <mergeCell ref="H202:H205"/>
+    <mergeCell ref="F345:F348"/>
+    <mergeCell ref="G345:G348"/>
+    <mergeCell ref="H345:H348"/>
+    <mergeCell ref="H418:H421"/>
+    <mergeCell ref="F446:F449"/>
+    <mergeCell ref="F218:F222"/>
+    <mergeCell ref="G218:G222"/>
+    <mergeCell ref="H218:H222"/>
+    <mergeCell ref="F304:F307"/>
+    <mergeCell ref="G304:G307"/>
+    <mergeCell ref="H304:H307"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="G291:G294"/>
+    <mergeCell ref="H291:H294"/>
+    <mergeCell ref="F295:F298"/>
+    <mergeCell ref="G295:G298"/>
+    <mergeCell ref="H295:H298"/>
+    <mergeCell ref="F267:F270"/>
+    <mergeCell ref="G267:G270"/>
+    <mergeCell ref="H267:H270"/>
+    <mergeCell ref="G446:G449"/>
+    <mergeCell ref="H446:H449"/>
+    <mergeCell ref="F349:F352"/>
+    <mergeCell ref="G349:G352"/>
+    <mergeCell ref="H349:H352"/>
+    <mergeCell ref="F255:F258"/>
+    <mergeCell ref="G255:G258"/>
+    <mergeCell ref="H239:H242"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="H149:H152"/>
+    <mergeCell ref="G454:G457"/>
+    <mergeCell ref="H454:H457"/>
+    <mergeCell ref="F499:F502"/>
+    <mergeCell ref="G499:G502"/>
+    <mergeCell ref="H499:H502"/>
+    <mergeCell ref="F406:F409"/>
+    <mergeCell ref="G406:G409"/>
+    <mergeCell ref="H406:H409"/>
+    <mergeCell ref="F353:F356"/>
+    <mergeCell ref="G353:G356"/>
+    <mergeCell ref="H353:H356"/>
+    <mergeCell ref="F357:F361"/>
+    <mergeCell ref="G357:G361"/>
+    <mergeCell ref="H357:H361"/>
+    <mergeCell ref="F434:F437"/>
+    <mergeCell ref="G434:G437"/>
+    <mergeCell ref="H434:H437"/>
+    <mergeCell ref="F442:F445"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="H442:H445"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="H137:H140"/>
+    <mergeCell ref="F312:F315"/>
+    <mergeCell ref="G312:G315"/>
+    <mergeCell ref="H312:H315"/>
+    <mergeCell ref="F126:F130"/>
+    <mergeCell ref="G126:G130"/>
+    <mergeCell ref="H126:H130"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="G88:G92"/>
+    <mergeCell ref="H88:H92"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="H243:H246"/>
+    <mergeCell ref="F402:F405"/>
+    <mergeCell ref="G402:G405"/>
+    <mergeCell ref="H402:H405"/>
+    <mergeCell ref="F157:F160"/>
+    <mergeCell ref="G157:G160"/>
+    <mergeCell ref="H157:H160"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="G131:G133"/>
+    <mergeCell ref="H131:H133"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="H145:H148"/>
+    <mergeCell ref="F165:F168"/>
+    <mergeCell ref="G165:G168"/>
+    <mergeCell ref="H165:H168"/>
+    <mergeCell ref="F308:F311"/>
+    <mergeCell ref="G308:G311"/>
+    <mergeCell ref="H308:H311"/>
+    <mergeCell ref="F214:F217"/>
+    <mergeCell ref="G214:G217"/>
+    <mergeCell ref="H214:H217"/>
+    <mergeCell ref="F190:F193"/>
+    <mergeCell ref="G190:G193"/>
+    <mergeCell ref="H507:H510"/>
+    <mergeCell ref="F483:F486"/>
+    <mergeCell ref="G483:G486"/>
+    <mergeCell ref="H483:H486"/>
+    <mergeCell ref="F487:F490"/>
+    <mergeCell ref="G487:G490"/>
+    <mergeCell ref="H487:H490"/>
+    <mergeCell ref="G466:G469"/>
+    <mergeCell ref="H466:H469"/>
+    <mergeCell ref="F503:F506"/>
+    <mergeCell ref="G503:G506"/>
+    <mergeCell ref="H503:H506"/>
+    <mergeCell ref="H475:H478"/>
+    <mergeCell ref="F491:F494"/>
+    <mergeCell ref="G491:G494"/>
+    <mergeCell ref="H491:H494"/>
+    <mergeCell ref="F470:F474"/>
+    <mergeCell ref="G470:G474"/>
+    <mergeCell ref="H470:H474"/>
+    <mergeCell ref="H426:H429"/>
+    <mergeCell ref="H462:H465"/>
+    <mergeCell ref="H458:H461"/>
+    <mergeCell ref="F450:F453"/>
+    <mergeCell ref="G450:G453"/>
+    <mergeCell ref="H450:H453"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="F206:F209"/>
+    <mergeCell ref="G206:G209"/>
+    <mergeCell ref="H206:H209"/>
+    <mergeCell ref="F210:F213"/>
+    <mergeCell ref="G210:G213"/>
+    <mergeCell ref="H210:H213"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="H93:H96"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="F161:F164"/>
+    <mergeCell ref="G161:G164"/>
+    <mergeCell ref="H161:H164"/>
+    <mergeCell ref="H190:H193"/>
+    <mergeCell ref="H134:H136"/>
+    <mergeCell ref="F430:F433"/>
+    <mergeCell ref="G430:G433"/>
+    <mergeCell ref="H430:H433"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="H153:H156"/>
+    <mergeCell ref="F422:F425"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="H141:H144"/>
+    <mergeCell ref="G398:G401"/>
+    <mergeCell ref="H398:H401"/>
+    <mergeCell ref="F194:F197"/>
+    <mergeCell ref="G194:G197"/>
+    <mergeCell ref="H194:H197"/>
+    <mergeCell ref="F198:F201"/>
+    <mergeCell ref="G198:G201"/>
+    <mergeCell ref="H198:H201"/>
+    <mergeCell ref="F414:F417"/>
+    <mergeCell ref="G414:G417"/>
+    <mergeCell ref="H414:H417"/>
+    <mergeCell ref="H422:H425"/>
+    <mergeCell ref="F243:F246"/>
+    <mergeCell ref="G243:G246"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A527:A530"/>
+    <mergeCell ref="A466:A469"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A370:A373"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="A378:A381"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="F479:F482"/>
+    <mergeCell ref="G479:G482"/>
+    <mergeCell ref="F495:F498"/>
+    <mergeCell ref="G495:G498"/>
+    <mergeCell ref="F475:F478"/>
+    <mergeCell ref="G475:G478"/>
+    <mergeCell ref="F507:F510"/>
+    <mergeCell ref="G507:G510"/>
+    <mergeCell ref="F239:F242"/>
+    <mergeCell ref="G239:G242"/>
+    <mergeCell ref="F418:F421"/>
+    <mergeCell ref="G418:G421"/>
+    <mergeCell ref="G515:G518"/>
+    <mergeCell ref="G247:G250"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A470:A474"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="A479:A482"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A430:A433"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="A442:A445"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="A341:A344"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="A450:A453"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A251:A254"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A345:A348"/>
+    <mergeCell ref="B345:B348"/>
+    <mergeCell ref="A316:A320"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B218:B222"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="A299:A303"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A308:A311"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="B523:B526"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A312:A315"/>
+    <mergeCell ref="A267:A270"/>
+    <mergeCell ref="A271:A274"/>
+    <mergeCell ref="A275:A278"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A279:A282"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B312:B315"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B434:B437"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="B462:B465"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A503:A506"/>
+    <mergeCell ref="A515:A518"/>
+    <mergeCell ref="A499:A502"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="A454:A457"/>
+    <mergeCell ref="A491:A494"/>
+    <mergeCell ref="A475:A478"/>
+    <mergeCell ref="A507:A510"/>
+    <mergeCell ref="A483:A486"/>
+    <mergeCell ref="A487:A490"/>
+    <mergeCell ref="A495:A498"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="A353:A356"/>
+    <mergeCell ref="A357:A361"/>
+    <mergeCell ref="A366:A369"/>
+    <mergeCell ref="A291:A294"/>
+    <mergeCell ref="A362:A365"/>
+    <mergeCell ref="A349:A352"/>
+    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="A547:A550"/>
+    <mergeCell ref="A382:A385"/>
+    <mergeCell ref="A511:A514"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A287:A290"/>
+    <mergeCell ref="A539:A542"/>
+    <mergeCell ref="A543:A546"/>
+    <mergeCell ref="A535:A538"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A531:A534"/>
+    <mergeCell ref="A243:A246"/>
+    <mergeCell ref="A519:A522"/>
+    <mergeCell ref="A458:A461"/>
+    <mergeCell ref="A446:A449"/>
+    <mergeCell ref="A523:A526"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="B527:B530"/>
+    <mergeCell ref="B466:B469"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="B519:B522"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="B458:B461"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B177:B181"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B308:B311"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B454:B457"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B535:B538"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B446:B449"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="B394:B397"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="B341:B344"/>
+    <mergeCell ref="B337:B340"/>
+    <mergeCell ref="B531:B534"/>
+    <mergeCell ref="B450:B453"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B507:B510"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B362:B365"/>
+    <mergeCell ref="B357:B361"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B316:B320"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B299:B303"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B333:B336"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="B547:B550"/>
+    <mergeCell ref="B382:B385"/>
+    <mergeCell ref="B291:B294"/>
+    <mergeCell ref="B515:B518"/>
+    <mergeCell ref="B370:B373"/>
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="F227:F230"/>
+    <mergeCell ref="E231:E234"/>
+    <mergeCell ref="F231:F234"/>
+    <mergeCell ref="E235:E238"/>
+    <mergeCell ref="F235:F238"/>
+    <mergeCell ref="E519:E522"/>
+    <mergeCell ref="F519:F522"/>
+    <mergeCell ref="B378:B381"/>
+    <mergeCell ref="B366:B369"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="B470:B474"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="B243:B246"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="B442:B445"/>
+    <mergeCell ref="B251:B254"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B287:B290"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="F223:F226"/>
+    <mergeCell ref="E227:E230"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B539:B542"/>
+    <mergeCell ref="B543:B546"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="B267:B270"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="B275:B278"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="B503:B506"/>
+    <mergeCell ref="B495:B498"/>
+    <mergeCell ref="B479:B482"/>
+    <mergeCell ref="B483:B486"/>
+    <mergeCell ref="B475:B478"/>
+    <mergeCell ref="B499:B502"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="B487:B490"/>
+    <mergeCell ref="B491:B494"/>
+    <mergeCell ref="B511:B514"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="F458:F461"/>
+    <mergeCell ref="E535:E538"/>
+    <mergeCell ref="F535:F538"/>
+    <mergeCell ref="F117:F121"/>
+    <mergeCell ref="F466:F469"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="F426:F429"/>
+    <mergeCell ref="E462:E465"/>
+    <mergeCell ref="F462:F465"/>
+    <mergeCell ref="F333:F336"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="F527:F530"/>
+    <mergeCell ref="F438:F441"/>
+    <mergeCell ref="F454:F457"/>
+    <mergeCell ref="F531:F534"/>
+    <mergeCell ref="F316:F320"/>
+    <mergeCell ref="F321:F324"/>
+    <mergeCell ref="F515:F518"/>
+    <mergeCell ref="F386:F389"/>
+    <mergeCell ref="E491:E494"/>
+    <mergeCell ref="E446:E449"/>
+    <mergeCell ref="F523:F526"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E527:E530"/>
+    <mergeCell ref="E466:E469"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="E333:E336"/>
+    <mergeCell ref="E141:E144"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E223:E226"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="E479:E482"/>
+    <mergeCell ref="E337:E340"/>
+    <mergeCell ref="E210:E213"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="E507:E510"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="E458:E461"/>
+    <mergeCell ref="E531:E534"/>
+    <mergeCell ref="E450:E453"/>
+    <mergeCell ref="E157:E160"/>
+    <mergeCell ref="E304:E307"/>
+    <mergeCell ref="E341:E344"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E161:E164"/>
+    <mergeCell ref="E243:E246"/>
+    <mergeCell ref="E247:E250"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="E88:E92"/>
+    <mergeCell ref="E295:E298"/>
+    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E173:E176"/>
+    <mergeCell ref="E321:E324"/>
+    <mergeCell ref="E503:E506"/>
+    <mergeCell ref="E165:E168"/>
+    <mergeCell ref="E169:E172"/>
+    <mergeCell ref="E308:E311"/>
+    <mergeCell ref="E214:E217"/>
+    <mergeCell ref="E218:E222"/>
+    <mergeCell ref="E312:E315"/>
+    <mergeCell ref="E126:E130"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="E470:E474"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E499:E502"/>
+    <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="E475:E478"/>
+    <mergeCell ref="E483:E486"/>
+    <mergeCell ref="E487:E490"/>
+    <mergeCell ref="E495:E498"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E362:E365"/>
+    <mergeCell ref="E259:E262"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E251:E254"/>
+    <mergeCell ref="E255:E258"/>
+    <mergeCell ref="E370:E373"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="E177:E181"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E325:E328"/>
+    <mergeCell ref="E329:E332"/>
+    <mergeCell ref="E267:E270"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E345:E348"/>
+    <mergeCell ref="E316:E320"/>
+    <mergeCell ref="E353:E356"/>
+    <mergeCell ref="E357:E361"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="E239:E242"/>
+    <mergeCell ref="E263:E266"/>
+    <mergeCell ref="E349:E352"/>
+    <mergeCell ref="E299:E303"/>
+    <mergeCell ref="C475:C478"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="C523:C526"/>
+    <mergeCell ref="C495:C498"/>
+    <mergeCell ref="C479:C482"/>
+    <mergeCell ref="C483:C486"/>
+    <mergeCell ref="C487:C490"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C462:C465"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E515:E518"/>
+    <mergeCell ref="C515:C518"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="E523:E526"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="E283:E286"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="C235:C238"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="E378:E381"/>
+    <mergeCell ref="E279:E282"/>
+    <mergeCell ref="E366:E369"/>
+    <mergeCell ref="E291:E294"/>
+    <mergeCell ref="E271:E274"/>
+    <mergeCell ref="E275:E278"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="C527:C530"/>
+    <mergeCell ref="C466:C469"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C239:C242"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C519:C522"/>
+    <mergeCell ref="C422:C425"/>
+    <mergeCell ref="C458:C461"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C503:C506"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C308:C311"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="C535:C538"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C333:C336"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C446:C449"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="C341:C344"/>
+    <mergeCell ref="C337:C340"/>
+    <mergeCell ref="C531:C534"/>
+    <mergeCell ref="C450:C453"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C243:C246"/>
+    <mergeCell ref="C507:C510"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C177:C181"/>
+    <mergeCell ref="C499:C502"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C438:C441"/>
+    <mergeCell ref="C295:C298"/>
+    <mergeCell ref="C370:C373"/>
+    <mergeCell ref="C374:C377"/>
+    <mergeCell ref="C378:C381"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C251:C254"/>
+    <mergeCell ref="C255:C258"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C362:C365"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C345:C348"/>
+    <mergeCell ref="C316:C320"/>
+    <mergeCell ref="C321:C324"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="C312:C315"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C353:C356"/>
+    <mergeCell ref="C357:C361"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C291:C294"/>
+    <mergeCell ref="C539:C542"/>
+    <mergeCell ref="C267:C270"/>
+    <mergeCell ref="C271:C274"/>
+    <mergeCell ref="C275:C278"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C279:C282"/>
+    <mergeCell ref="C366:C369"/>
+    <mergeCell ref="C259:C262"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="C349:C352"/>
+    <mergeCell ref="C299:C303"/>
+    <mergeCell ref="C325:C328"/>
+    <mergeCell ref="C329:C332"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="C470:C474"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="C157:C160"/>
+    <mergeCell ref="C304:C307"/>
     <mergeCell ref="C543:C546"/>
     <mergeCell ref="C76:C79"/>
     <mergeCell ref="C64:C67"/>
@@ -15313,905 +16188,30 @@
     <mergeCell ref="E543:E546"/>
     <mergeCell ref="E539:E542"/>
     <mergeCell ref="C491:C494"/>
-    <mergeCell ref="C539:C542"/>
-    <mergeCell ref="C267:C270"/>
-    <mergeCell ref="C271:C274"/>
-    <mergeCell ref="C275:C278"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C279:C282"/>
-    <mergeCell ref="C366:C369"/>
-    <mergeCell ref="C259:C262"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="C349:C352"/>
-    <mergeCell ref="C299:C303"/>
-    <mergeCell ref="C325:C328"/>
-    <mergeCell ref="C329:C332"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C251:C254"/>
-    <mergeCell ref="C255:C258"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C345:C348"/>
-    <mergeCell ref="C316:C320"/>
-    <mergeCell ref="C321:C324"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="C312:C315"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C353:C356"/>
-    <mergeCell ref="C357:C361"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C291:C294"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="C470:C474"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="C157:C160"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="C499:C502"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C434:C437"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C295:C298"/>
-    <mergeCell ref="C370:C373"/>
-    <mergeCell ref="C374:C377"/>
-    <mergeCell ref="C378:C381"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="C535:C538"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C333:C336"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C446:C449"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="C341:C344"/>
-    <mergeCell ref="C337:C340"/>
-    <mergeCell ref="C531:C534"/>
-    <mergeCell ref="C450:C453"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C243:C246"/>
-    <mergeCell ref="C507:C510"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C177:C181"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="C527:C530"/>
-    <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C239:C242"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="C519:C522"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C503:C506"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C308:C311"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="C218:C222"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="E283:E286"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="C235:C238"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="E378:E381"/>
-    <mergeCell ref="E279:E282"/>
-    <mergeCell ref="E366:E369"/>
-    <mergeCell ref="E291:E294"/>
-    <mergeCell ref="E271:E274"/>
-    <mergeCell ref="E275:E278"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="C145:C148"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="E263:E266"/>
-    <mergeCell ref="E349:E352"/>
-    <mergeCell ref="E299:E303"/>
-    <mergeCell ref="C475:C478"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="C523:C526"/>
-    <mergeCell ref="C495:C498"/>
-    <mergeCell ref="C479:C482"/>
-    <mergeCell ref="C483:C486"/>
-    <mergeCell ref="C487:C490"/>
-    <mergeCell ref="C426:C429"/>
-    <mergeCell ref="C462:C465"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E515:E518"/>
-    <mergeCell ref="C515:C518"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E362:E365"/>
-    <mergeCell ref="E259:E262"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E251:E254"/>
-    <mergeCell ref="E255:E258"/>
-    <mergeCell ref="E370:E373"/>
-    <mergeCell ref="E374:E377"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="E177:E181"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E325:E328"/>
-    <mergeCell ref="E329:E332"/>
-    <mergeCell ref="E267:E270"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E345:E348"/>
-    <mergeCell ref="E316:E320"/>
-    <mergeCell ref="E353:E356"/>
-    <mergeCell ref="E357:E361"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E173:E176"/>
-    <mergeCell ref="E321:E324"/>
-    <mergeCell ref="E503:E506"/>
-    <mergeCell ref="E165:E168"/>
-    <mergeCell ref="E169:E172"/>
-    <mergeCell ref="E308:E311"/>
-    <mergeCell ref="E214:E217"/>
-    <mergeCell ref="E218:E222"/>
-    <mergeCell ref="E312:E315"/>
-    <mergeCell ref="E126:E130"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="E97:E100"/>
-    <mergeCell ref="E470:E474"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E499:E502"/>
-    <mergeCell ref="E442:E445"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="E475:E478"/>
-    <mergeCell ref="E483:E486"/>
-    <mergeCell ref="E487:E490"/>
-    <mergeCell ref="E531:E534"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E157:E160"/>
-    <mergeCell ref="E304:E307"/>
-    <mergeCell ref="E341:E344"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="E145:E148"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E161:E164"/>
-    <mergeCell ref="E243:E246"/>
-    <mergeCell ref="E247:E250"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="E88:E92"/>
-    <mergeCell ref="E295:E298"/>
-    <mergeCell ref="E454:E457"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="E434:E437"/>
-    <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="E523:E526"/>
-    <mergeCell ref="E495:E498"/>
-    <mergeCell ref="E239:E242"/>
-    <mergeCell ref="E149:E152"/>
-    <mergeCell ref="E153:E156"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E527:E530"/>
-    <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E117:E121"/>
-    <mergeCell ref="E333:E336"/>
-    <mergeCell ref="E141:E144"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="E223:E226"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="E479:E482"/>
-    <mergeCell ref="E337:E340"/>
-    <mergeCell ref="E210:E213"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="E507:E510"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="F458:F461"/>
-    <mergeCell ref="E535:E538"/>
-    <mergeCell ref="F535:F538"/>
-    <mergeCell ref="F117:F121"/>
-    <mergeCell ref="F466:F469"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="E426:E429"/>
-    <mergeCell ref="F426:F429"/>
-    <mergeCell ref="E462:E465"/>
-    <mergeCell ref="F462:F465"/>
-    <mergeCell ref="F333:F336"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="F527:F530"/>
-    <mergeCell ref="F438:F441"/>
-    <mergeCell ref="F454:F457"/>
-    <mergeCell ref="F531:F534"/>
-    <mergeCell ref="F316:F320"/>
-    <mergeCell ref="F321:F324"/>
-    <mergeCell ref="F515:F518"/>
-    <mergeCell ref="F386:F389"/>
-    <mergeCell ref="E491:E494"/>
-    <mergeCell ref="E446:E449"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B539:B542"/>
-    <mergeCell ref="B543:B546"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="B267:B270"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="B275:B278"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B279:B282"/>
-    <mergeCell ref="B259:B262"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="B503:B506"/>
-    <mergeCell ref="B495:B498"/>
-    <mergeCell ref="B479:B482"/>
-    <mergeCell ref="B483:B486"/>
-    <mergeCell ref="B475:B478"/>
-    <mergeCell ref="B499:B502"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="B487:B490"/>
-    <mergeCell ref="B491:B494"/>
-    <mergeCell ref="B511:B514"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B287:B290"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="F223:F226"/>
-    <mergeCell ref="E227:E230"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B547:B550"/>
-    <mergeCell ref="B382:B385"/>
-    <mergeCell ref="B291:B294"/>
-    <mergeCell ref="B515:B518"/>
-    <mergeCell ref="B370:B373"/>
-    <mergeCell ref="B374:B377"/>
-    <mergeCell ref="F227:F230"/>
-    <mergeCell ref="E231:E234"/>
-    <mergeCell ref="F231:F234"/>
-    <mergeCell ref="E235:E238"/>
-    <mergeCell ref="F235:F238"/>
-    <mergeCell ref="E519:E522"/>
-    <mergeCell ref="F519:F522"/>
-    <mergeCell ref="B378:B381"/>
-    <mergeCell ref="B366:B369"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="B470:B474"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="B243:B246"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="B442:B445"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B362:B365"/>
-    <mergeCell ref="B357:B361"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B316:B320"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B299:B303"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B535:B538"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B430:B433"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="B341:B344"/>
-    <mergeCell ref="B337:B340"/>
-    <mergeCell ref="B531:B534"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B507:B510"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="B527:B530"/>
-    <mergeCell ref="B466:B469"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="B519:B522"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="B458:B461"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B177:B181"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B308:B311"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="A547:A550"/>
-    <mergeCell ref="A382:A385"/>
-    <mergeCell ref="A511:A514"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A287:A290"/>
-    <mergeCell ref="A539:A542"/>
-    <mergeCell ref="A543:A546"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A503:A506"/>
-    <mergeCell ref="A515:A518"/>
-    <mergeCell ref="A499:A502"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="A434:A437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="A491:A494"/>
-    <mergeCell ref="A475:A478"/>
-    <mergeCell ref="A507:A510"/>
-    <mergeCell ref="A483:A486"/>
-    <mergeCell ref="A487:A490"/>
-    <mergeCell ref="A495:A498"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="A353:A356"/>
-    <mergeCell ref="A357:A361"/>
-    <mergeCell ref="B333:B336"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B523:B526"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A312:A315"/>
-    <mergeCell ref="A267:A270"/>
-    <mergeCell ref="A271:A274"/>
-    <mergeCell ref="A275:A278"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A279:A282"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B312:B315"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="A329:A332"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="B462:B465"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="A366:A369"/>
-    <mergeCell ref="A291:A294"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A345:A348"/>
-    <mergeCell ref="B345:B348"/>
-    <mergeCell ref="A316:A320"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B218:B222"/>
-    <mergeCell ref="A362:A365"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="A349:A352"/>
-    <mergeCell ref="A299:A303"/>
-    <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A239:A242"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A308:A311"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="A218:A222"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A535:A538"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A333:A336"/>
-    <mergeCell ref="A462:A465"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A470:A474"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="A479:A482"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="F523:F526"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="A341:A344"/>
-    <mergeCell ref="A337:A340"/>
-    <mergeCell ref="A531:A534"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A243:A246"/>
-    <mergeCell ref="A519:A522"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="A446:A449"/>
-    <mergeCell ref="A523:A526"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A527:A530"/>
-    <mergeCell ref="A466:A469"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A370:A373"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="A378:A381"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="H134:H136"/>
-    <mergeCell ref="F430:F433"/>
-    <mergeCell ref="G430:G433"/>
-    <mergeCell ref="H430:H433"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="G153:G156"/>
-    <mergeCell ref="H153:H156"/>
-    <mergeCell ref="F422:F425"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="H141:H144"/>
-    <mergeCell ref="G398:G401"/>
-    <mergeCell ref="H398:H401"/>
-    <mergeCell ref="F194:F197"/>
-    <mergeCell ref="G194:G197"/>
-    <mergeCell ref="H194:H197"/>
-    <mergeCell ref="F198:F201"/>
-    <mergeCell ref="G198:G201"/>
-    <mergeCell ref="H198:H201"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="F206:F209"/>
-    <mergeCell ref="G206:G209"/>
-    <mergeCell ref="H206:H209"/>
-    <mergeCell ref="F210:F213"/>
-    <mergeCell ref="G210:G213"/>
-    <mergeCell ref="H210:H213"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="H93:H96"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="F479:F482"/>
-    <mergeCell ref="G479:G482"/>
+    <mergeCell ref="H535:H538"/>
+    <mergeCell ref="H223:H226"/>
+    <mergeCell ref="G227:G230"/>
+    <mergeCell ref="H227:H230"/>
+    <mergeCell ref="G231:G234"/>
+    <mergeCell ref="H231:H234"/>
+    <mergeCell ref="G235:G238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="G519:G522"/>
+    <mergeCell ref="H519:H522"/>
+    <mergeCell ref="G333:G336"/>
+    <mergeCell ref="H333:H336"/>
+    <mergeCell ref="G527:G530"/>
+    <mergeCell ref="H527:H530"/>
+    <mergeCell ref="G523:G526"/>
+    <mergeCell ref="H523:H526"/>
+    <mergeCell ref="G337:G340"/>
+    <mergeCell ref="H337:H340"/>
+    <mergeCell ref="G531:G534"/>
+    <mergeCell ref="H531:H534"/>
+    <mergeCell ref="G316:G320"/>
+    <mergeCell ref="H316:H320"/>
     <mergeCell ref="H479:H482"/>
-    <mergeCell ref="F495:F498"/>
-    <mergeCell ref="G495:G498"/>
     <mergeCell ref="H495:H498"/>
-    <mergeCell ref="F414:F417"/>
-    <mergeCell ref="G414:G417"/>
-    <mergeCell ref="H414:H417"/>
-    <mergeCell ref="F475:F478"/>
-    <mergeCell ref="G475:G478"/>
-    <mergeCell ref="H475:H478"/>
-    <mergeCell ref="F491:F494"/>
-    <mergeCell ref="G491:G494"/>
-    <mergeCell ref="H491:H494"/>
-    <mergeCell ref="F470:F474"/>
-    <mergeCell ref="G470:G474"/>
-    <mergeCell ref="H470:H474"/>
-    <mergeCell ref="H426:H429"/>
-    <mergeCell ref="H462:H465"/>
-    <mergeCell ref="H422:H425"/>
-    <mergeCell ref="H458:H461"/>
-    <mergeCell ref="F507:F510"/>
-    <mergeCell ref="G507:G510"/>
-    <mergeCell ref="H507:H510"/>
-    <mergeCell ref="F483:F486"/>
-    <mergeCell ref="G483:G486"/>
-    <mergeCell ref="H483:H486"/>
-    <mergeCell ref="F487:F490"/>
-    <mergeCell ref="G487:G490"/>
-    <mergeCell ref="H487:H490"/>
-    <mergeCell ref="G466:G469"/>
-    <mergeCell ref="H466:H469"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F450:F453"/>
-    <mergeCell ref="G450:G453"/>
-    <mergeCell ref="H450:H453"/>
-    <mergeCell ref="F161:F164"/>
-    <mergeCell ref="G161:G164"/>
-    <mergeCell ref="H161:H164"/>
-    <mergeCell ref="F243:F246"/>
-    <mergeCell ref="G243:G246"/>
-    <mergeCell ref="H243:H246"/>
-    <mergeCell ref="F402:F405"/>
-    <mergeCell ref="G402:G405"/>
-    <mergeCell ref="H402:H405"/>
-    <mergeCell ref="F157:F160"/>
-    <mergeCell ref="G157:G160"/>
-    <mergeCell ref="H157:H160"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="G131:G133"/>
-    <mergeCell ref="H131:H133"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="G137:G140"/>
-    <mergeCell ref="H137:H140"/>
-    <mergeCell ref="F312:F315"/>
-    <mergeCell ref="G312:G315"/>
-    <mergeCell ref="H312:H315"/>
-    <mergeCell ref="F126:F130"/>
-    <mergeCell ref="G126:G130"/>
-    <mergeCell ref="H126:H130"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="G88:G92"/>
-    <mergeCell ref="H88:H92"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="H145:H148"/>
-    <mergeCell ref="F165:F168"/>
-    <mergeCell ref="G165:G168"/>
-    <mergeCell ref="H165:H168"/>
-    <mergeCell ref="F308:F311"/>
-    <mergeCell ref="G308:G311"/>
-    <mergeCell ref="H308:H311"/>
-    <mergeCell ref="F214:F217"/>
-    <mergeCell ref="G214:G217"/>
-    <mergeCell ref="H214:H217"/>
-    <mergeCell ref="F190:F193"/>
-    <mergeCell ref="G190:G193"/>
-    <mergeCell ref="H190:H193"/>
-    <mergeCell ref="F239:F242"/>
-    <mergeCell ref="G239:G242"/>
-    <mergeCell ref="H239:H242"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="G149:G152"/>
-    <mergeCell ref="H149:H152"/>
-    <mergeCell ref="G454:G457"/>
-    <mergeCell ref="H454:H457"/>
-    <mergeCell ref="F499:F502"/>
-    <mergeCell ref="G499:G502"/>
-    <mergeCell ref="H499:H502"/>
-    <mergeCell ref="F406:F409"/>
-    <mergeCell ref="G406:G409"/>
-    <mergeCell ref="H406:H409"/>
-    <mergeCell ref="F353:F356"/>
-    <mergeCell ref="G353:G356"/>
-    <mergeCell ref="H353:H356"/>
-    <mergeCell ref="F357:F361"/>
-    <mergeCell ref="G357:G361"/>
-    <mergeCell ref="H357:H361"/>
-    <mergeCell ref="F434:F437"/>
-    <mergeCell ref="G434:G437"/>
-    <mergeCell ref="H434:H437"/>
-    <mergeCell ref="F442:F445"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="H442:H445"/>
-    <mergeCell ref="F418:F421"/>
-    <mergeCell ref="G418:G421"/>
-    <mergeCell ref="H418:H421"/>
-    <mergeCell ref="F446:F449"/>
-    <mergeCell ref="F218:F222"/>
-    <mergeCell ref="G218:G222"/>
-    <mergeCell ref="H218:H222"/>
-    <mergeCell ref="F304:F307"/>
-    <mergeCell ref="G304:G307"/>
-    <mergeCell ref="H304:H307"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="G291:G294"/>
-    <mergeCell ref="H291:H294"/>
-    <mergeCell ref="F295:F298"/>
-    <mergeCell ref="G295:G298"/>
-    <mergeCell ref="H295:H298"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="F362:F365"/>
-    <mergeCell ref="G362:G365"/>
-    <mergeCell ref="H362:H365"/>
-    <mergeCell ref="F51:F55"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="F271:F274"/>
-    <mergeCell ref="G271:G274"/>
-    <mergeCell ref="H271:H274"/>
-    <mergeCell ref="F259:F262"/>
-    <mergeCell ref="G259:G262"/>
-    <mergeCell ref="H259:H262"/>
-    <mergeCell ref="F263:F266"/>
-    <mergeCell ref="G321:G324"/>
-    <mergeCell ref="H321:H324"/>
-    <mergeCell ref="F202:F205"/>
-    <mergeCell ref="G202:G205"/>
-    <mergeCell ref="H202:H205"/>
-    <mergeCell ref="F345:F348"/>
-    <mergeCell ref="G345:G348"/>
-    <mergeCell ref="H345:H348"/>
-    <mergeCell ref="F267:F270"/>
-    <mergeCell ref="G267:G270"/>
-    <mergeCell ref="H267:H270"/>
-    <mergeCell ref="G446:G449"/>
-    <mergeCell ref="H446:H449"/>
-    <mergeCell ref="F349:F352"/>
-    <mergeCell ref="G349:G352"/>
-    <mergeCell ref="H349:H352"/>
-    <mergeCell ref="F255:F258"/>
-    <mergeCell ref="G255:G258"/>
-    <mergeCell ref="H255:H258"/>
-    <mergeCell ref="G438:G441"/>
-    <mergeCell ref="H438:H441"/>
-    <mergeCell ref="F341:F344"/>
-    <mergeCell ref="G341:G344"/>
-    <mergeCell ref="H341:H344"/>
-    <mergeCell ref="F337:F340"/>
-    <mergeCell ref="F390:F393"/>
-    <mergeCell ref="G390:G393"/>
-    <mergeCell ref="H390:H393"/>
-    <mergeCell ref="F394:F397"/>
-    <mergeCell ref="G394:G397"/>
-    <mergeCell ref="H394:H397"/>
-    <mergeCell ref="F398:F401"/>
-    <mergeCell ref="G275:G278"/>
-    <mergeCell ref="H275:H278"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="F503:F506"/>
-    <mergeCell ref="G503:G506"/>
-    <mergeCell ref="H503:H506"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="F251:F254"/>
-    <mergeCell ref="G251:G254"/>
-    <mergeCell ref="H251:H254"/>
-    <mergeCell ref="F299:F303"/>
-    <mergeCell ref="G299:G303"/>
-    <mergeCell ref="H299:H303"/>
-    <mergeCell ref="F325:F328"/>
-    <mergeCell ref="G325:G328"/>
-    <mergeCell ref="H325:H328"/>
-    <mergeCell ref="F329:F332"/>
-    <mergeCell ref="G329:G332"/>
-    <mergeCell ref="H329:H332"/>
-    <mergeCell ref="F366:F369"/>
-    <mergeCell ref="G366:G369"/>
-    <mergeCell ref="H366:H369"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="G101:G104"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="F97:F100"/>
-    <mergeCell ref="G97:G100"/>
-    <mergeCell ref="H97:H100"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="G117:G121"/>
-    <mergeCell ref="H117:H121"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="F169:F172"/>
-    <mergeCell ref="G515:G518"/>
-    <mergeCell ref="H515:H518"/>
-    <mergeCell ref="F370:F373"/>
-    <mergeCell ref="G370:G373"/>
-    <mergeCell ref="H370:H373"/>
-    <mergeCell ref="F374:F377"/>
-    <mergeCell ref="G374:G377"/>
-    <mergeCell ref="H374:H377"/>
-    <mergeCell ref="F378:F381"/>
-    <mergeCell ref="G378:G381"/>
-    <mergeCell ref="H378:H381"/>
-    <mergeCell ref="G263:G266"/>
-    <mergeCell ref="H263:H266"/>
-    <mergeCell ref="F283:F286"/>
-    <mergeCell ref="G283:G286"/>
-    <mergeCell ref="H283:H286"/>
-    <mergeCell ref="F279:F282"/>
-    <mergeCell ref="G279:G282"/>
-    <mergeCell ref="H279:H282"/>
-    <mergeCell ref="F547:F550"/>
-    <mergeCell ref="G547:G550"/>
-    <mergeCell ref="H547:H550"/>
-    <mergeCell ref="G386:G389"/>
-    <mergeCell ref="H386:H389"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="H109:H112"/>
-    <mergeCell ref="F177:F181"/>
-    <mergeCell ref="G177:G181"/>
-    <mergeCell ref="H177:H181"/>
-    <mergeCell ref="F182:F185"/>
-    <mergeCell ref="G182:G185"/>
-    <mergeCell ref="H182:H185"/>
-    <mergeCell ref="F173:F176"/>
-    <mergeCell ref="G173:G176"/>
-    <mergeCell ref="H173:H176"/>
-    <mergeCell ref="F382:F385"/>
-    <mergeCell ref="G382:G385"/>
-    <mergeCell ref="H382:H385"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="G113:G116"/>
-    <mergeCell ref="H113:H116"/>
-    <mergeCell ref="F287:F290"/>
-    <mergeCell ref="F539:F542"/>
-    <mergeCell ref="G539:G542"/>
-    <mergeCell ref="H539:H542"/>
-    <mergeCell ref="F543:F546"/>
-    <mergeCell ref="G543:G546"/>
-    <mergeCell ref="H543:H546"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="F511:F514"/>
-    <mergeCell ref="G511:G514"/>
-    <mergeCell ref="H511:H514"/>
-    <mergeCell ref="F186:F189"/>
-    <mergeCell ref="G186:G189"/>
-    <mergeCell ref="H186:H189"/>
-    <mergeCell ref="F410:F413"/>
-    <mergeCell ref="G410:G413"/>
-    <mergeCell ref="H410:H413"/>
-    <mergeCell ref="G287:G290"/>
-    <mergeCell ref="H287:H290"/>
-    <mergeCell ref="F105:F108"/>
-    <mergeCell ref="G105:G108"/>
-    <mergeCell ref="H105:H108"/>
-    <mergeCell ref="F275:F278"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="F247:F250"/>
-    <mergeCell ref="G247:G250"/>
-    <mergeCell ref="H247:H250"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="G169:G172"/>
-    <mergeCell ref="H169:H172"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="G64:G67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
@@ -26700,314 +26700,292 @@
     <sortCondition ref="A2:A586"/>
   </sortState>
   <mergeCells count="618">
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="B578:B581"/>
-    <mergeCell ref="A582:A585"/>
-    <mergeCell ref="B582:B585"/>
-    <mergeCell ref="A586:A589"/>
-    <mergeCell ref="B586:B589"/>
-    <mergeCell ref="A566:A569"/>
-    <mergeCell ref="B566:B569"/>
-    <mergeCell ref="A570:A573"/>
-    <mergeCell ref="B570:B573"/>
-    <mergeCell ref="A574:A577"/>
-    <mergeCell ref="B574:B577"/>
-    <mergeCell ref="A554:A557"/>
-    <mergeCell ref="B554:B557"/>
-    <mergeCell ref="A558:A561"/>
-    <mergeCell ref="B558:B561"/>
-    <mergeCell ref="A562:A565"/>
-    <mergeCell ref="B562:B565"/>
-    <mergeCell ref="A542:A545"/>
-    <mergeCell ref="B542:B545"/>
-    <mergeCell ref="A546:A549"/>
-    <mergeCell ref="B546:B549"/>
-    <mergeCell ref="A550:A553"/>
-    <mergeCell ref="B550:B553"/>
-    <mergeCell ref="A530:A533"/>
-    <mergeCell ref="B530:B533"/>
-    <mergeCell ref="A534:A537"/>
-    <mergeCell ref="B534:B537"/>
-    <mergeCell ref="A538:A541"/>
-    <mergeCell ref="B538:B541"/>
-    <mergeCell ref="A518:A521"/>
-    <mergeCell ref="B518:B521"/>
-    <mergeCell ref="A522:A525"/>
-    <mergeCell ref="B522:B525"/>
-    <mergeCell ref="A526:A529"/>
-    <mergeCell ref="B526:B529"/>
-    <mergeCell ref="A506:A509"/>
-    <mergeCell ref="B506:B509"/>
-    <mergeCell ref="A510:A513"/>
-    <mergeCell ref="B510:B513"/>
-    <mergeCell ref="A514:A517"/>
-    <mergeCell ref="B514:B517"/>
-    <mergeCell ref="A494:A497"/>
-    <mergeCell ref="B494:B497"/>
-    <mergeCell ref="A498:A501"/>
-    <mergeCell ref="B498:B501"/>
-    <mergeCell ref="A502:A505"/>
-    <mergeCell ref="B502:B505"/>
-    <mergeCell ref="A482:A485"/>
-    <mergeCell ref="B482:B485"/>
-    <mergeCell ref="A486:A489"/>
-    <mergeCell ref="B486:B489"/>
-    <mergeCell ref="A490:A493"/>
-    <mergeCell ref="B490:B493"/>
-    <mergeCell ref="A470:A473"/>
-    <mergeCell ref="B470:B473"/>
-    <mergeCell ref="A474:A477"/>
-    <mergeCell ref="B474:B477"/>
-    <mergeCell ref="A478:A481"/>
-    <mergeCell ref="B478:B481"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="B458:B461"/>
-    <mergeCell ref="A462:A465"/>
-    <mergeCell ref="B462:B465"/>
-    <mergeCell ref="A466:A469"/>
-    <mergeCell ref="B466:B469"/>
-    <mergeCell ref="A446:A449"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="A434:A437"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="B442:B445"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="B430:B433"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="B374:B377"/>
-    <mergeCell ref="A378:A381"/>
-    <mergeCell ref="B378:B381"/>
-    <mergeCell ref="A382:A385"/>
-    <mergeCell ref="B382:B385"/>
-    <mergeCell ref="A362:A365"/>
-    <mergeCell ref="B362:B365"/>
-    <mergeCell ref="A366:A369"/>
-    <mergeCell ref="B366:B369"/>
-    <mergeCell ref="A370:A373"/>
-    <mergeCell ref="B370:B373"/>
-    <mergeCell ref="A350:A353"/>
-    <mergeCell ref="B350:B353"/>
-    <mergeCell ref="A354:A357"/>
-    <mergeCell ref="B354:B357"/>
-    <mergeCell ref="A358:A361"/>
-    <mergeCell ref="B358:B361"/>
-    <mergeCell ref="A338:A341"/>
-    <mergeCell ref="B338:B341"/>
-    <mergeCell ref="A342:A345"/>
-    <mergeCell ref="B342:B345"/>
-    <mergeCell ref="A346:A349"/>
-    <mergeCell ref="B346:B349"/>
-    <mergeCell ref="A326:A329"/>
-    <mergeCell ref="B326:B329"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="A334:A337"/>
-    <mergeCell ref="B334:B337"/>
-    <mergeCell ref="A314:A317"/>
-    <mergeCell ref="B314:B317"/>
-    <mergeCell ref="A318:A321"/>
-    <mergeCell ref="B318:B321"/>
-    <mergeCell ref="A322:A325"/>
-    <mergeCell ref="B322:B325"/>
-    <mergeCell ref="A302:A305"/>
-    <mergeCell ref="B302:B305"/>
-    <mergeCell ref="A306:A309"/>
-    <mergeCell ref="B306:B309"/>
-    <mergeCell ref="A310:A313"/>
-    <mergeCell ref="B310:B313"/>
-    <mergeCell ref="A290:A293"/>
-    <mergeCell ref="B290:B293"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="A298:A301"/>
-    <mergeCell ref="B298:B301"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="B282:B285"/>
-    <mergeCell ref="A286:A289"/>
-    <mergeCell ref="B286:B289"/>
-    <mergeCell ref="A266:A269"/>
-    <mergeCell ref="B266:B269"/>
-    <mergeCell ref="A270:A273"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="A274:A277"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="A254:A257"/>
-    <mergeCell ref="B254:B257"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="A262:A265"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="A230:A233"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A218:A221"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C286:C289"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="C298:C301"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="C274:C277"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="C282:C285"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C258:C261"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C358:C361"/>
+    <mergeCell ref="C362:C365"/>
+    <mergeCell ref="C366:C369"/>
+    <mergeCell ref="C370:C373"/>
+    <mergeCell ref="C334:C337"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C342:C345"/>
+    <mergeCell ref="C346:C349"/>
+    <mergeCell ref="C374:C377"/>
+    <mergeCell ref="C378:C381"/>
+    <mergeCell ref="C458:C461"/>
+    <mergeCell ref="C462:C465"/>
+    <mergeCell ref="C466:C469"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C438:C441"/>
+    <mergeCell ref="C442:C445"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C446:C449"/>
+    <mergeCell ref="C450:C453"/>
+    <mergeCell ref="C422:C425"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C454:C457"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="E238:E241"/>
+    <mergeCell ref="E218:E221"/>
+    <mergeCell ref="E222:E225"/>
+    <mergeCell ref="E226:E229"/>
+    <mergeCell ref="E250:E253"/>
+    <mergeCell ref="E254:E257"/>
+    <mergeCell ref="E258:E261"/>
+    <mergeCell ref="E262:E265"/>
+    <mergeCell ref="E338:E341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="E334:E337"/>
+    <mergeCell ref="E314:E317"/>
+    <mergeCell ref="E318:E321"/>
+    <mergeCell ref="E322:E325"/>
+    <mergeCell ref="E290:E293"/>
+    <mergeCell ref="E294:E297"/>
+    <mergeCell ref="E286:E289"/>
+    <mergeCell ref="E458:E461"/>
+    <mergeCell ref="E462:E465"/>
+    <mergeCell ref="E466:E469"/>
+    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E446:E449"/>
+    <mergeCell ref="E450:E453"/>
+    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="C562:C565"/>
+    <mergeCell ref="E562:E565"/>
+    <mergeCell ref="C566:C569"/>
+    <mergeCell ref="E566:E569"/>
+    <mergeCell ref="C554:C557"/>
+    <mergeCell ref="E554:E557"/>
+    <mergeCell ref="C558:C561"/>
+    <mergeCell ref="E558:E561"/>
+    <mergeCell ref="C546:C549"/>
+    <mergeCell ref="E546:E549"/>
+    <mergeCell ref="C550:C553"/>
+    <mergeCell ref="E550:E553"/>
+    <mergeCell ref="C586:C589"/>
+    <mergeCell ref="E586:E589"/>
+    <mergeCell ref="C578:C581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="C582:C585"/>
+    <mergeCell ref="E582:E585"/>
+    <mergeCell ref="C570:C573"/>
+    <mergeCell ref="E570:E573"/>
+    <mergeCell ref="C574:C577"/>
+    <mergeCell ref="E574:E577"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="E174:E177"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="E210:E213"/>
+    <mergeCell ref="E214:E217"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="E230:E233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="E234:E237"/>
+    <mergeCell ref="C326:C329"/>
+    <mergeCell ref="E326:E329"/>
+    <mergeCell ref="C330:C333"/>
+    <mergeCell ref="E330:E333"/>
+    <mergeCell ref="E298:E301"/>
+    <mergeCell ref="C302:C305"/>
+    <mergeCell ref="E302:E305"/>
+    <mergeCell ref="C306:C309"/>
+    <mergeCell ref="E306:E309"/>
+    <mergeCell ref="E310:E313"/>
+    <mergeCell ref="C310:C313"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="C318:C321"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="E266:E269"/>
+    <mergeCell ref="E270:E273"/>
+    <mergeCell ref="E274:E277"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="E282:E285"/>
+    <mergeCell ref="E242:E245"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="E346:E349"/>
+    <mergeCell ref="C350:C353"/>
+    <mergeCell ref="E350:E353"/>
+    <mergeCell ref="C354:C357"/>
+    <mergeCell ref="E354:E357"/>
+    <mergeCell ref="E358:E361"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E382:E385"/>
+    <mergeCell ref="E362:E365"/>
+    <mergeCell ref="E366:E369"/>
+    <mergeCell ref="E370:E373"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="E378:E381"/>
+    <mergeCell ref="C382:C385"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="C498:C501"/>
+    <mergeCell ref="E498:E501"/>
+    <mergeCell ref="E506:E509"/>
+    <mergeCell ref="E510:E513"/>
+    <mergeCell ref="E502:E505"/>
+    <mergeCell ref="C510:C513"/>
+    <mergeCell ref="C514:C517"/>
+    <mergeCell ref="C470:C473"/>
+    <mergeCell ref="E470:E473"/>
+    <mergeCell ref="C474:C477"/>
+    <mergeCell ref="E474:E477"/>
+    <mergeCell ref="E482:E485"/>
+    <mergeCell ref="E486:E489"/>
+    <mergeCell ref="E478:E481"/>
+    <mergeCell ref="C502:C505"/>
+    <mergeCell ref="C506:C509"/>
+    <mergeCell ref="C478:C481"/>
+    <mergeCell ref="C482:C485"/>
+    <mergeCell ref="C486:C489"/>
+    <mergeCell ref="C490:C493"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A6:A9"/>
@@ -27032,292 +27010,314 @@
     <mergeCell ref="E490:E493"/>
     <mergeCell ref="C494:C497"/>
     <mergeCell ref="E494:E497"/>
-    <mergeCell ref="C498:C501"/>
-    <mergeCell ref="E498:E501"/>
-    <mergeCell ref="E506:E509"/>
-    <mergeCell ref="E510:E513"/>
-    <mergeCell ref="E502:E505"/>
-    <mergeCell ref="C510:C513"/>
-    <mergeCell ref="C514:C517"/>
-    <mergeCell ref="C470:C473"/>
-    <mergeCell ref="E470:E473"/>
-    <mergeCell ref="C474:C477"/>
-    <mergeCell ref="E474:E477"/>
-    <mergeCell ref="E482:E485"/>
-    <mergeCell ref="E486:E489"/>
-    <mergeCell ref="E478:E481"/>
-    <mergeCell ref="C502:C505"/>
-    <mergeCell ref="C506:C509"/>
-    <mergeCell ref="C478:C481"/>
-    <mergeCell ref="C482:C485"/>
-    <mergeCell ref="C486:C489"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="E346:E349"/>
-    <mergeCell ref="C350:C353"/>
-    <mergeCell ref="E350:E353"/>
-    <mergeCell ref="C354:C357"/>
-    <mergeCell ref="E354:E357"/>
-    <mergeCell ref="E358:E361"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E382:E385"/>
-    <mergeCell ref="E362:E365"/>
-    <mergeCell ref="E366:E369"/>
-    <mergeCell ref="E370:E373"/>
-    <mergeCell ref="E374:E377"/>
-    <mergeCell ref="E378:E381"/>
-    <mergeCell ref="C382:C385"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="E230:E233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="E234:E237"/>
-    <mergeCell ref="C326:C329"/>
-    <mergeCell ref="E326:E329"/>
-    <mergeCell ref="C330:C333"/>
-    <mergeCell ref="E330:E333"/>
-    <mergeCell ref="E298:E301"/>
-    <mergeCell ref="C302:C305"/>
-    <mergeCell ref="E302:E305"/>
-    <mergeCell ref="C306:C309"/>
-    <mergeCell ref="E306:E309"/>
-    <mergeCell ref="E310:E313"/>
-    <mergeCell ref="C310:C313"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="C318:C321"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="E266:E269"/>
-    <mergeCell ref="E270:E273"/>
-    <mergeCell ref="E274:E277"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="E282:E285"/>
-    <mergeCell ref="E242:E245"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="E210:E213"/>
-    <mergeCell ref="E214:E217"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="E174:E177"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="E150:E153"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="C586:C589"/>
-    <mergeCell ref="E586:E589"/>
-    <mergeCell ref="C578:C581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="C582:C585"/>
-    <mergeCell ref="E582:E585"/>
-    <mergeCell ref="C570:C573"/>
-    <mergeCell ref="E570:E573"/>
-    <mergeCell ref="C574:C577"/>
-    <mergeCell ref="E574:E577"/>
-    <mergeCell ref="C562:C565"/>
-    <mergeCell ref="E562:E565"/>
-    <mergeCell ref="C566:C569"/>
-    <mergeCell ref="E566:E569"/>
-    <mergeCell ref="C554:C557"/>
-    <mergeCell ref="E554:E557"/>
-    <mergeCell ref="C558:C561"/>
-    <mergeCell ref="E558:E561"/>
-    <mergeCell ref="C546:C549"/>
-    <mergeCell ref="E546:E549"/>
-    <mergeCell ref="C550:C553"/>
-    <mergeCell ref="E550:E553"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="E462:E465"/>
-    <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E434:E437"/>
-    <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="E442:E445"/>
-    <mergeCell ref="E446:E449"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E454:E457"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="E426:E429"/>
-    <mergeCell ref="E338:E341"/>
-    <mergeCell ref="E342:E345"/>
-    <mergeCell ref="E334:E337"/>
-    <mergeCell ref="E314:E317"/>
-    <mergeCell ref="E318:E321"/>
-    <mergeCell ref="E322:E325"/>
-    <mergeCell ref="E290:E293"/>
-    <mergeCell ref="E294:E297"/>
-    <mergeCell ref="E286:E289"/>
-    <mergeCell ref="E246:E249"/>
-    <mergeCell ref="E238:E241"/>
-    <mergeCell ref="E218:E221"/>
-    <mergeCell ref="E222:E225"/>
-    <mergeCell ref="E226:E229"/>
-    <mergeCell ref="E250:E253"/>
-    <mergeCell ref="E254:E257"/>
-    <mergeCell ref="E258:E261"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C462:C465"/>
-    <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C434:C437"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C442:C445"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C446:C449"/>
-    <mergeCell ref="C450:C453"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C426:C429"/>
-    <mergeCell ref="C454:C457"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C358:C361"/>
-    <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C366:C369"/>
-    <mergeCell ref="C370:C373"/>
-    <mergeCell ref="C334:C337"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C342:C345"/>
-    <mergeCell ref="C346:C349"/>
-    <mergeCell ref="C374:C377"/>
-    <mergeCell ref="C378:C381"/>
-    <mergeCell ref="C286:C289"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="C298:C301"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="C266:C269"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="C282:C285"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="C258:C261"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="A230:A233"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="A270:A273"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="A274:A277"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="A262:A265"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="A290:A293"/>
+    <mergeCell ref="B290:B293"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="A298:A301"/>
+    <mergeCell ref="B298:B301"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="B282:B285"/>
+    <mergeCell ref="A286:A289"/>
+    <mergeCell ref="B286:B289"/>
+    <mergeCell ref="A314:A317"/>
+    <mergeCell ref="B314:B317"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="B318:B321"/>
+    <mergeCell ref="A322:A325"/>
+    <mergeCell ref="B322:B325"/>
+    <mergeCell ref="A302:A305"/>
+    <mergeCell ref="B302:B305"/>
+    <mergeCell ref="A306:A309"/>
+    <mergeCell ref="B306:B309"/>
+    <mergeCell ref="A310:A313"/>
+    <mergeCell ref="B310:B313"/>
+    <mergeCell ref="A338:A341"/>
+    <mergeCell ref="B338:B341"/>
+    <mergeCell ref="A342:A345"/>
+    <mergeCell ref="B342:B345"/>
+    <mergeCell ref="A346:A349"/>
+    <mergeCell ref="B346:B349"/>
+    <mergeCell ref="A326:A329"/>
+    <mergeCell ref="B326:B329"/>
+    <mergeCell ref="A330:A333"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="A334:A337"/>
+    <mergeCell ref="B334:B337"/>
+    <mergeCell ref="A362:A365"/>
+    <mergeCell ref="B362:B365"/>
+    <mergeCell ref="A366:A369"/>
+    <mergeCell ref="B366:B369"/>
+    <mergeCell ref="A370:A373"/>
+    <mergeCell ref="B370:B373"/>
+    <mergeCell ref="A350:A353"/>
+    <mergeCell ref="B350:B353"/>
+    <mergeCell ref="A354:A357"/>
+    <mergeCell ref="B354:B357"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="B394:B397"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="A378:A381"/>
+    <mergeCell ref="B378:B381"/>
+    <mergeCell ref="A382:A385"/>
+    <mergeCell ref="B382:B385"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="B434:B437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="A442:A445"/>
+    <mergeCell ref="B442:B445"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="A430:A433"/>
+    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="A458:A461"/>
+    <mergeCell ref="B458:B461"/>
+    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="B462:B465"/>
+    <mergeCell ref="A466:A469"/>
+    <mergeCell ref="B466:B469"/>
+    <mergeCell ref="A446:A449"/>
+    <mergeCell ref="B446:B449"/>
+    <mergeCell ref="A450:A453"/>
+    <mergeCell ref="B450:B453"/>
+    <mergeCell ref="A454:A457"/>
+    <mergeCell ref="B454:B457"/>
+    <mergeCell ref="A482:A485"/>
+    <mergeCell ref="B482:B485"/>
+    <mergeCell ref="A486:A489"/>
+    <mergeCell ref="B486:B489"/>
+    <mergeCell ref="A490:A493"/>
+    <mergeCell ref="B490:B493"/>
+    <mergeCell ref="A470:A473"/>
+    <mergeCell ref="B470:B473"/>
+    <mergeCell ref="A474:A477"/>
+    <mergeCell ref="B474:B477"/>
+    <mergeCell ref="A478:A481"/>
+    <mergeCell ref="B478:B481"/>
+    <mergeCell ref="A506:A509"/>
+    <mergeCell ref="B506:B509"/>
+    <mergeCell ref="A510:A513"/>
+    <mergeCell ref="B510:B513"/>
+    <mergeCell ref="A514:A517"/>
+    <mergeCell ref="B514:B517"/>
+    <mergeCell ref="A494:A497"/>
+    <mergeCell ref="B494:B497"/>
+    <mergeCell ref="A498:A501"/>
+    <mergeCell ref="B498:B501"/>
+    <mergeCell ref="A502:A505"/>
+    <mergeCell ref="B502:B505"/>
+    <mergeCell ref="A530:A533"/>
+    <mergeCell ref="B530:B533"/>
+    <mergeCell ref="A534:A537"/>
+    <mergeCell ref="B534:B537"/>
+    <mergeCell ref="A538:A541"/>
+    <mergeCell ref="B538:B541"/>
+    <mergeCell ref="A518:A521"/>
+    <mergeCell ref="B518:B521"/>
+    <mergeCell ref="A522:A525"/>
+    <mergeCell ref="B522:B525"/>
+    <mergeCell ref="A526:A529"/>
+    <mergeCell ref="B526:B529"/>
+    <mergeCell ref="A554:A557"/>
+    <mergeCell ref="B554:B557"/>
+    <mergeCell ref="A558:A561"/>
+    <mergeCell ref="B558:B561"/>
+    <mergeCell ref="A562:A565"/>
+    <mergeCell ref="B562:B565"/>
+    <mergeCell ref="A542:A545"/>
+    <mergeCell ref="B542:B545"/>
+    <mergeCell ref="A546:A549"/>
+    <mergeCell ref="B546:B549"/>
+    <mergeCell ref="A550:A553"/>
+    <mergeCell ref="B550:B553"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="B578:B581"/>
+    <mergeCell ref="A582:A585"/>
+    <mergeCell ref="B582:B585"/>
+    <mergeCell ref="A586:A589"/>
+    <mergeCell ref="B586:B589"/>
+    <mergeCell ref="A566:A569"/>
+    <mergeCell ref="B566:B569"/>
+    <mergeCell ref="A570:A573"/>
+    <mergeCell ref="B570:B573"/>
+    <mergeCell ref="A574:A577"/>
+    <mergeCell ref="B574:B577"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B338" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
@@ -35223,15 +35223,162 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="G50:G53"/>
     <mergeCell ref="G102:G105"/>
     <mergeCell ref="H102:H105"/>
     <mergeCell ref="G46:G49"/>
@@ -35256,162 +35403,15 @@
     <mergeCell ref="G74:G77"/>
     <mergeCell ref="H74:H77"/>
     <mergeCell ref="G70:G73"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
@@ -42320,6 +42320,47 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
     <mergeCell ref="G24:G26"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="G14:G16"/>
@@ -42328,47 +42369,6 @@
     <mergeCell ref="H17:H20"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="H21:H23"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
@@ -49590,18 +49590,76 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="G17:G20"/>
@@ -49618,76 +49676,18 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="H9:H12"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
@@ -56520,6 +56520,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H2:H5"/>
@@ -56536,11 +56541,6 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{47819044-E1F3-45E4-893B-E194895BB40E}"/>
@@ -63482,18 +63482,20 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="H23:H26"/>
@@ -63510,20 +63512,18 @@
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>

--- a/DataCamp-Tracks.xlsx
+++ b/DataCamp-Tracks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD51699-1500-4644-98F1-392B60EE52B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F29029-B6EE-4A3B-860D-B9C9F26260EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1471">
   <si>
     <t>Course Name</t>
   </si>
@@ -4372,13 +4372,73 @@
     <t>Applied Finance</t>
   </si>
   <si>
-    <t>Programming</t>
-  </si>
-  <si>
     <t>Data Analysis</t>
   </si>
   <si>
     <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Basic Programming</t>
+  </si>
+  <si>
+    <t>https://learn.datacamp.com/courses/data-driven-decision-making</t>
+  </si>
+  <si>
+    <t>Data Driven Decision Making</t>
+  </si>
+  <si>
+    <t>Data-Driven Decision-Making Framework</t>
+  </si>
+  <si>
+    <t>Applying Data to Inform Marketing</t>
+  </si>
+  <si>
+    <t>Spotting Finance Opportunities With Data</t>
+  </si>
+  <si>
+    <t>Data-Driven Business Operations</t>
+  </si>
+  <si>
+    <t>https://learn.datacamp.com/courses/statistical-techniques-in-tableau</t>
+  </si>
+  <si>
+    <t>Statistical Techniques in Tableau</t>
+  </si>
+  <si>
+    <t>Connecting Data in Tableau</t>
+  </si>
+  <si>
+    <t>https://learn.datacamp.com/courses/connecting-data-in-tableau</t>
+  </si>
+  <si>
+    <t>Creating Dashboards in Tableau</t>
+  </si>
+  <si>
+    <t>https://learn.datacamp.com/courses/creating-dashboards-in-tableau</t>
+  </si>
+  <si>
+    <t>Univariate exploratory data analysis</t>
+  </si>
+  <si>
+    <t>Measures of spread and confidence intervals</t>
+  </si>
+  <si>
+    <t>Bivariate exploratory data analysis</t>
+  </si>
+  <si>
+    <t>Forecasting and clustering</t>
+  </si>
+  <si>
+    <t>Combining and Saving Data</t>
+  </si>
+  <si>
+    <t>Managing and Connecting Data</t>
+  </si>
+  <si>
+    <t>Getting Started With Dashboards</t>
+  </si>
+  <si>
+    <t>Sharing Data Insights</t>
   </si>
 </sst>
 </file>
@@ -4999,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>1084</v>
@@ -5059,7 +5119,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>1025</v>
@@ -5131,7 +5191,7 @@
         <v>105</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>1136</v>
@@ -5191,7 +5251,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>1229</v>
@@ -5251,7 +5311,7 @@
         <v>615</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>1310</v>
@@ -5311,7 +5371,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>1225</v>
@@ -5371,7 +5431,7 @@
         <v>83</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>1140</v>
@@ -5431,7 +5491,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>1042</v>
@@ -5503,7 +5563,7 @@
         <v>597</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>1275</v>
@@ -5563,7 +5623,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>1144</v>
@@ -5611,7 +5671,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>1147</v>
@@ -5659,7 +5719,7 @@
         <v>587</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>1253</v>
@@ -5731,7 +5791,7 @@
         <v>595</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D51" s="29" t="s">
         <v>1271</v>
@@ -5803,7 +5863,7 @@
         <v>609</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D56" s="29" t="s">
         <v>1298</v>
@@ -5863,7 +5923,7 @@
         <v>661</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D60" s="29" t="s">
         <v>1406</v>
@@ -5923,7 +5983,7 @@
         <v>663</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>1410</v>
@@ -5983,7 +6043,7 @@
         <v>103</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D68" s="29" t="s">
         <v>1197</v>
@@ -8299,7 +8359,7 @@
         <v>107</v>
       </c>
       <c r="C223" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D223" s="29" t="s">
         <v>923</v>
@@ -8359,7 +8419,7 @@
         <v>25</v>
       </c>
       <c r="C227" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D227" s="29" t="s">
         <v>927</v>
@@ -8419,7 +8479,7 @@
         <v>109</v>
       </c>
       <c r="C231" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D231" s="29" t="s">
         <v>931</v>
@@ -8479,7 +8539,7 @@
         <v>45</v>
       </c>
       <c r="C235" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D235" s="29" t="s">
         <v>935</v>
@@ -8539,7 +8599,7 @@
         <v>115</v>
       </c>
       <c r="C239" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D239" s="29" t="s">
         <v>980</v>
@@ -8599,7 +8659,7 @@
         <v>111</v>
       </c>
       <c r="C243" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D243" s="29" t="s">
         <v>1125</v>
@@ -8659,7 +8719,7 @@
         <v>117</v>
       </c>
       <c r="C247" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D247" s="29" t="s">
         <v>994</v>
@@ -8719,7 +8779,7 @@
         <v>611</v>
       </c>
       <c r="C251" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D251" s="29" t="s">
         <v>1302</v>
@@ -8779,7 +8839,7 @@
         <v>613</v>
       </c>
       <c r="C255" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D255" s="29" t="s">
         <v>1306</v>
@@ -8839,7 +8899,7 @@
         <v>619</v>
       </c>
       <c r="C259" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D259" s="29" t="s">
         <v>1318</v>
@@ -8899,7 +8959,7 @@
         <v>621</v>
       </c>
       <c r="C263" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D263" s="29" t="s">
         <v>1322</v>
@@ -8959,7 +9019,7 @@
         <v>173</v>
       </c>
       <c r="C267" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D267" s="29" t="s">
         <v>1341</v>
@@ -9019,7 +9079,7 @@
         <v>631</v>
       </c>
       <c r="C271" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D271" s="29" t="s">
         <v>1345</v>
@@ -9079,7 +9139,7 @@
         <v>633</v>
       </c>
       <c r="C275" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D275" s="29" t="s">
         <v>1349</v>
@@ -9139,7 +9199,7 @@
         <v>637</v>
       </c>
       <c r="C279" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D279" s="29" t="s">
         <v>1357</v>
@@ -9199,7 +9259,7 @@
         <v>649</v>
       </c>
       <c r="C283" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D283" s="29" t="s">
         <v>1384</v>
@@ -9259,7 +9319,7 @@
         <v>659</v>
       </c>
       <c r="C287" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D287" s="29" t="s">
         <v>1403</v>
@@ -11395,7 +11455,7 @@
         <v>129</v>
       </c>
       <c r="C430" s="34" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D430" s="29" t="s">
         <v>1069</v>
@@ -11455,7 +11515,7 @@
         <v>79</v>
       </c>
       <c r="C434" s="34" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D434" s="29" t="s">
         <v>1158</v>
@@ -11515,7 +11575,7 @@
         <v>131</v>
       </c>
       <c r="C438" s="34" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D438" s="29" t="s">
         <v>1162</v>
@@ -11575,7 +11635,7 @@
         <v>145</v>
       </c>
       <c r="C442" s="34" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D442" s="29" t="s">
         <v>1132</v>
@@ -11635,7 +11695,7 @@
         <v>139</v>
       </c>
       <c r="C446" s="34" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D446" s="29" t="s">
         <v>990</v>
@@ -11695,7 +11755,7 @@
         <v>143</v>
       </c>
       <c r="C450" s="34" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D450" s="29" t="s">
         <v>1117</v>
@@ -11755,7 +11815,7 @@
         <v>137</v>
       </c>
       <c r="C454" s="34" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D454" s="29" t="s">
         <v>1170</v>
@@ -11815,7 +11875,7 @@
         <v>133</v>
       </c>
       <c r="C458" s="34" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D458" s="29" t="s">
         <v>947</v>
@@ -11875,7 +11935,7 @@
         <v>135</v>
       </c>
       <c r="C462" s="34" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D462" s="29" t="s">
         <v>919</v>
@@ -15267,25 +15327,903 @@
     </row>
   </sheetData>
   <mergeCells count="945">
-    <mergeCell ref="H247:H250"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="G169:G172"/>
-    <mergeCell ref="H169:H172"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H535:H538"/>
+    <mergeCell ref="H223:H226"/>
+    <mergeCell ref="G227:G230"/>
+    <mergeCell ref="H227:H230"/>
+    <mergeCell ref="G231:G234"/>
+    <mergeCell ref="H231:H234"/>
+    <mergeCell ref="G235:G238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="G519:G522"/>
+    <mergeCell ref="H519:H522"/>
+    <mergeCell ref="G333:G336"/>
+    <mergeCell ref="H333:H336"/>
+    <mergeCell ref="G527:G530"/>
+    <mergeCell ref="H527:H530"/>
+    <mergeCell ref="G523:G526"/>
+    <mergeCell ref="H523:H526"/>
+    <mergeCell ref="G337:G340"/>
+    <mergeCell ref="H337:H340"/>
+    <mergeCell ref="G531:G534"/>
+    <mergeCell ref="H531:H534"/>
+    <mergeCell ref="G316:G320"/>
+    <mergeCell ref="H316:H320"/>
+    <mergeCell ref="H479:H482"/>
+    <mergeCell ref="H495:H498"/>
+    <mergeCell ref="C543:C546"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C547:C550"/>
+    <mergeCell ref="C382:C385"/>
+    <mergeCell ref="C511:C514"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="G426:G429"/>
+    <mergeCell ref="G462:G465"/>
+    <mergeCell ref="G223:G226"/>
+    <mergeCell ref="G422:G425"/>
+    <mergeCell ref="G458:G461"/>
+    <mergeCell ref="G535:G538"/>
+    <mergeCell ref="C287:C290"/>
+    <mergeCell ref="C454:C457"/>
+    <mergeCell ref="C442:C445"/>
+    <mergeCell ref="E547:E550"/>
+    <mergeCell ref="E382:E385"/>
+    <mergeCell ref="E511:E514"/>
+    <mergeCell ref="E287:E290"/>
+    <mergeCell ref="E543:E546"/>
+    <mergeCell ref="E539:E542"/>
+    <mergeCell ref="C491:C494"/>
+    <mergeCell ref="C539:C542"/>
+    <mergeCell ref="C267:C270"/>
+    <mergeCell ref="C271:C274"/>
+    <mergeCell ref="C275:C278"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C279:C282"/>
+    <mergeCell ref="C366:C369"/>
+    <mergeCell ref="C259:C262"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="C349:C352"/>
+    <mergeCell ref="C299:C303"/>
+    <mergeCell ref="C325:C328"/>
+    <mergeCell ref="C329:C332"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="C470:C474"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="C157:C160"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C362:C365"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C345:C348"/>
+    <mergeCell ref="C316:C320"/>
+    <mergeCell ref="C321:C324"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="C312:C315"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C353:C356"/>
+    <mergeCell ref="C357:C361"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C291:C294"/>
+    <mergeCell ref="C535:C538"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C333:C336"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C446:C449"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="C341:C344"/>
+    <mergeCell ref="C337:C340"/>
+    <mergeCell ref="C531:C534"/>
+    <mergeCell ref="C450:C453"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C243:C246"/>
+    <mergeCell ref="C507:C510"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C177:C181"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="C527:C530"/>
+    <mergeCell ref="C466:C469"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C239:C242"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C519:C522"/>
+    <mergeCell ref="C422:C425"/>
+    <mergeCell ref="C458:C461"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C503:C506"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C308:C311"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="E523:E526"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="E283:E286"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="C235:C238"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="E378:E381"/>
+    <mergeCell ref="E279:E282"/>
+    <mergeCell ref="E366:E369"/>
+    <mergeCell ref="E291:E294"/>
+    <mergeCell ref="E271:E274"/>
+    <mergeCell ref="E275:E278"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="C475:C478"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="C523:C526"/>
+    <mergeCell ref="C495:C498"/>
+    <mergeCell ref="C479:C482"/>
+    <mergeCell ref="C483:C486"/>
+    <mergeCell ref="C487:C490"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C462:C465"/>
+    <mergeCell ref="C515:C518"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="C499:C502"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C438:C441"/>
+    <mergeCell ref="C295:C298"/>
+    <mergeCell ref="C370:C373"/>
+    <mergeCell ref="C374:C377"/>
+    <mergeCell ref="C378:C381"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="C251:C254"/>
+    <mergeCell ref="C255:C258"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E362:E365"/>
+    <mergeCell ref="E259:E262"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E251:E254"/>
+    <mergeCell ref="E255:E258"/>
+    <mergeCell ref="E370:E373"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="E177:E181"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E325:E328"/>
+    <mergeCell ref="E329:E332"/>
+    <mergeCell ref="E267:E270"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E345:E348"/>
+    <mergeCell ref="E316:E320"/>
+    <mergeCell ref="E353:E356"/>
+    <mergeCell ref="E357:E361"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="E239:E242"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E173:E176"/>
+    <mergeCell ref="E321:E324"/>
+    <mergeCell ref="E503:E506"/>
+    <mergeCell ref="E165:E168"/>
+    <mergeCell ref="E169:E172"/>
+    <mergeCell ref="E308:E311"/>
+    <mergeCell ref="E214:E217"/>
+    <mergeCell ref="E218:E222"/>
+    <mergeCell ref="E312:E315"/>
+    <mergeCell ref="E126:E130"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="E470:E474"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E499:E502"/>
+    <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="E475:E478"/>
+    <mergeCell ref="E483:E486"/>
+    <mergeCell ref="E487:E490"/>
+    <mergeCell ref="E495:E498"/>
+    <mergeCell ref="E531:E534"/>
+    <mergeCell ref="E450:E453"/>
+    <mergeCell ref="E157:E160"/>
+    <mergeCell ref="E304:E307"/>
+    <mergeCell ref="E341:E344"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E161:E164"/>
+    <mergeCell ref="E243:E246"/>
+    <mergeCell ref="E247:E250"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="E88:E92"/>
+    <mergeCell ref="E295:E298"/>
+    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E527:E530"/>
+    <mergeCell ref="E466:E469"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="E333:E336"/>
+    <mergeCell ref="E141:E144"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E223:E226"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="E479:E482"/>
+    <mergeCell ref="E337:E340"/>
+    <mergeCell ref="E210:E213"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="E507:E510"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="E458:E461"/>
+    <mergeCell ref="E263:E266"/>
+    <mergeCell ref="E349:E352"/>
+    <mergeCell ref="E299:E303"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E515:E518"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="F458:F461"/>
+    <mergeCell ref="E535:E538"/>
+    <mergeCell ref="F535:F538"/>
+    <mergeCell ref="F117:F121"/>
+    <mergeCell ref="F466:F469"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="F426:F429"/>
+    <mergeCell ref="E462:E465"/>
+    <mergeCell ref="F462:F465"/>
+    <mergeCell ref="F333:F336"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="F527:F530"/>
+    <mergeCell ref="F438:F441"/>
+    <mergeCell ref="F454:F457"/>
+    <mergeCell ref="F531:F534"/>
+    <mergeCell ref="F316:F320"/>
+    <mergeCell ref="F321:F324"/>
+    <mergeCell ref="F515:F518"/>
+    <mergeCell ref="F386:F389"/>
+    <mergeCell ref="E491:E494"/>
+    <mergeCell ref="E446:E449"/>
+    <mergeCell ref="F523:F526"/>
+    <mergeCell ref="B539:B542"/>
+    <mergeCell ref="B543:B546"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="B267:B270"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="B275:B278"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="B503:B506"/>
+    <mergeCell ref="B495:B498"/>
+    <mergeCell ref="B479:B482"/>
+    <mergeCell ref="B483:B486"/>
+    <mergeCell ref="B475:B478"/>
+    <mergeCell ref="B499:B502"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="B487:B490"/>
+    <mergeCell ref="B491:B494"/>
+    <mergeCell ref="B511:B514"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="F223:F226"/>
+    <mergeCell ref="E227:E230"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B547:B550"/>
+    <mergeCell ref="B382:B385"/>
+    <mergeCell ref="B291:B294"/>
+    <mergeCell ref="B515:B518"/>
+    <mergeCell ref="B370:B373"/>
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="F227:F230"/>
+    <mergeCell ref="E231:E234"/>
+    <mergeCell ref="F231:F234"/>
+    <mergeCell ref="E235:E238"/>
+    <mergeCell ref="F235:F238"/>
+    <mergeCell ref="E519:E522"/>
+    <mergeCell ref="F519:F522"/>
+    <mergeCell ref="B378:B381"/>
+    <mergeCell ref="B366:B369"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="B470:B474"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="B243:B246"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="B442:B445"/>
+    <mergeCell ref="B251:B254"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="B362:B365"/>
+    <mergeCell ref="B357:B361"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B316:B320"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B299:B303"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B333:B336"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B287:B290"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B535:B538"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B446:B449"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="B394:B397"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="B341:B344"/>
+    <mergeCell ref="B337:B340"/>
+    <mergeCell ref="B531:B534"/>
+    <mergeCell ref="B450:B453"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B507:B510"/>
+    <mergeCell ref="B227:B230"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="B527:B530"/>
+    <mergeCell ref="B466:B469"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="B519:B522"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="B458:B461"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B177:B181"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B308:B311"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B454:B457"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A547:A550"/>
+    <mergeCell ref="A382:A385"/>
+    <mergeCell ref="A511:A514"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A287:A290"/>
+    <mergeCell ref="A539:A542"/>
+    <mergeCell ref="A543:A546"/>
+    <mergeCell ref="A535:A538"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A531:A534"/>
+    <mergeCell ref="A243:A246"/>
+    <mergeCell ref="A519:A522"/>
+    <mergeCell ref="A458:A461"/>
+    <mergeCell ref="A446:A449"/>
+    <mergeCell ref="A523:A526"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="A353:A356"/>
+    <mergeCell ref="A357:A361"/>
+    <mergeCell ref="A366:A369"/>
+    <mergeCell ref="A291:A294"/>
+    <mergeCell ref="A362:A365"/>
+    <mergeCell ref="A349:A352"/>
+    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="A503:A506"/>
+    <mergeCell ref="A515:A518"/>
+    <mergeCell ref="A499:A502"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="A454:A457"/>
+    <mergeCell ref="A491:A494"/>
+    <mergeCell ref="A475:A478"/>
+    <mergeCell ref="A507:A510"/>
+    <mergeCell ref="A483:A486"/>
+    <mergeCell ref="A487:A490"/>
+    <mergeCell ref="A495:A498"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="B523:B526"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A312:A315"/>
+    <mergeCell ref="A267:A270"/>
+    <mergeCell ref="A271:A274"/>
+    <mergeCell ref="A275:A278"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A279:A282"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B312:B315"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B434:B437"/>
+    <mergeCell ref="A329:A332"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="B462:B465"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A345:A348"/>
+    <mergeCell ref="B345:B348"/>
+    <mergeCell ref="A316:A320"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B218:B222"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="A299:A303"/>
+    <mergeCell ref="A325:A328"/>
+    <mergeCell ref="A308:A311"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A251:A254"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A470:A474"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="A479:A482"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A430:A433"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="A442:A445"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="A341:A344"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="A450:A453"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A527:A530"/>
+    <mergeCell ref="A466:A469"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A370:A373"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="A378:A381"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="F479:F482"/>
+    <mergeCell ref="G479:G482"/>
+    <mergeCell ref="F495:F498"/>
+    <mergeCell ref="G495:G498"/>
+    <mergeCell ref="F475:F478"/>
+    <mergeCell ref="G475:G478"/>
+    <mergeCell ref="F507:F510"/>
+    <mergeCell ref="G507:G510"/>
+    <mergeCell ref="F239:F242"/>
+    <mergeCell ref="G239:G242"/>
+    <mergeCell ref="F418:F421"/>
+    <mergeCell ref="G418:G421"/>
+    <mergeCell ref="G515:G518"/>
+    <mergeCell ref="F442:F445"/>
+    <mergeCell ref="G247:G250"/>
+    <mergeCell ref="G161:G164"/>
+    <mergeCell ref="H161:H164"/>
+    <mergeCell ref="H190:H193"/>
+    <mergeCell ref="H134:H136"/>
+    <mergeCell ref="F430:F433"/>
+    <mergeCell ref="G430:G433"/>
+    <mergeCell ref="H430:H433"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="H153:H156"/>
+    <mergeCell ref="F422:F425"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="H141:H144"/>
+    <mergeCell ref="G398:G401"/>
+    <mergeCell ref="H398:H401"/>
+    <mergeCell ref="F194:F197"/>
+    <mergeCell ref="G194:G197"/>
+    <mergeCell ref="H194:H197"/>
+    <mergeCell ref="F198:F201"/>
+    <mergeCell ref="G198:G201"/>
+    <mergeCell ref="H198:H201"/>
+    <mergeCell ref="F414:F417"/>
+    <mergeCell ref="G243:G246"/>
+    <mergeCell ref="F243:F246"/>
+    <mergeCell ref="H462:H465"/>
+    <mergeCell ref="H458:H461"/>
+    <mergeCell ref="F450:F453"/>
+    <mergeCell ref="G450:G453"/>
+    <mergeCell ref="H450:H453"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="F206:F209"/>
+    <mergeCell ref="G206:G209"/>
+    <mergeCell ref="H206:H209"/>
+    <mergeCell ref="F210:F213"/>
+    <mergeCell ref="G210:G213"/>
+    <mergeCell ref="H210:H213"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="H93:H96"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H507:H510"/>
+    <mergeCell ref="F483:F486"/>
+    <mergeCell ref="G483:G486"/>
+    <mergeCell ref="H483:H486"/>
+    <mergeCell ref="F487:F490"/>
+    <mergeCell ref="G487:G490"/>
+    <mergeCell ref="H487:H490"/>
+    <mergeCell ref="G466:G469"/>
+    <mergeCell ref="H466:H469"/>
+    <mergeCell ref="F503:F506"/>
+    <mergeCell ref="G503:G506"/>
+    <mergeCell ref="H503:H506"/>
+    <mergeCell ref="H475:H478"/>
+    <mergeCell ref="F491:F494"/>
+    <mergeCell ref="G491:G494"/>
+    <mergeCell ref="H491:H494"/>
+    <mergeCell ref="F470:F474"/>
+    <mergeCell ref="G470:G474"/>
+    <mergeCell ref="H470:H474"/>
+    <mergeCell ref="H406:H409"/>
+    <mergeCell ref="H243:H246"/>
+    <mergeCell ref="F402:F405"/>
+    <mergeCell ref="G402:G405"/>
+    <mergeCell ref="H402:H405"/>
+    <mergeCell ref="F157:F160"/>
+    <mergeCell ref="G157:G160"/>
+    <mergeCell ref="H157:H160"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="G131:G133"/>
+    <mergeCell ref="H131:H133"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="H145:H148"/>
+    <mergeCell ref="F165:F168"/>
+    <mergeCell ref="G165:G168"/>
+    <mergeCell ref="H165:H168"/>
+    <mergeCell ref="F308:F311"/>
+    <mergeCell ref="G308:G311"/>
+    <mergeCell ref="H308:H311"/>
+    <mergeCell ref="F214:F217"/>
+    <mergeCell ref="G214:G217"/>
+    <mergeCell ref="H214:H217"/>
+    <mergeCell ref="F190:F193"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="H137:H140"/>
+    <mergeCell ref="F312:F315"/>
+    <mergeCell ref="G312:G315"/>
+    <mergeCell ref="H312:H315"/>
+    <mergeCell ref="F126:F130"/>
+    <mergeCell ref="G126:G130"/>
+    <mergeCell ref="H126:H130"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="G88:G92"/>
+    <mergeCell ref="H88:H92"/>
+    <mergeCell ref="G190:G193"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="F161:F164"/>
+    <mergeCell ref="F434:F437"/>
+    <mergeCell ref="G434:G437"/>
+    <mergeCell ref="H434:H437"/>
+    <mergeCell ref="H426:H429"/>
+    <mergeCell ref="G414:G417"/>
+    <mergeCell ref="H414:H417"/>
+    <mergeCell ref="H422:H425"/>
+    <mergeCell ref="G442:G445"/>
+    <mergeCell ref="H442:H445"/>
+    <mergeCell ref="F304:F307"/>
+    <mergeCell ref="G304:G307"/>
+    <mergeCell ref="H304:H307"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="G291:G294"/>
+    <mergeCell ref="H291:H294"/>
+    <mergeCell ref="F295:F298"/>
+    <mergeCell ref="G295:G298"/>
+    <mergeCell ref="H295:H298"/>
+    <mergeCell ref="F329:F332"/>
+    <mergeCell ref="G329:G332"/>
+    <mergeCell ref="H329:H332"/>
+    <mergeCell ref="F366:F369"/>
+    <mergeCell ref="G366:G369"/>
+    <mergeCell ref="H366:H369"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="F362:F365"/>
+    <mergeCell ref="G362:G365"/>
+    <mergeCell ref="H362:H365"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="F271:F274"/>
+    <mergeCell ref="G271:G274"/>
+    <mergeCell ref="H271:H274"/>
+    <mergeCell ref="F259:F262"/>
+    <mergeCell ref="G259:G262"/>
+    <mergeCell ref="H259:H262"/>
+    <mergeCell ref="F263:F266"/>
+    <mergeCell ref="G321:G324"/>
+    <mergeCell ref="H321:H324"/>
+    <mergeCell ref="F341:F344"/>
+    <mergeCell ref="G341:G344"/>
+    <mergeCell ref="H341:H344"/>
+    <mergeCell ref="F337:F340"/>
+    <mergeCell ref="F390:F393"/>
+    <mergeCell ref="G390:G393"/>
+    <mergeCell ref="H390:H393"/>
+    <mergeCell ref="F394:F397"/>
+    <mergeCell ref="G394:G397"/>
+    <mergeCell ref="H394:H397"/>
+    <mergeCell ref="F345:F348"/>
+    <mergeCell ref="G345:G348"/>
+    <mergeCell ref="H345:H348"/>
+    <mergeCell ref="F349:F352"/>
+    <mergeCell ref="G349:G352"/>
+    <mergeCell ref="H349:H352"/>
+    <mergeCell ref="G353:G356"/>
+    <mergeCell ref="H353:H356"/>
+    <mergeCell ref="F357:F361"/>
+    <mergeCell ref="G357:G361"/>
+    <mergeCell ref="H357:H361"/>
+    <mergeCell ref="F353:F356"/>
+    <mergeCell ref="F325:F328"/>
+    <mergeCell ref="G325:G328"/>
+    <mergeCell ref="H325:H328"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="G117:G121"/>
+    <mergeCell ref="H117:H121"/>
+    <mergeCell ref="F169:F172"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="H263:H266"/>
+    <mergeCell ref="F283:F286"/>
+    <mergeCell ref="G283:G286"/>
+    <mergeCell ref="H283:H286"/>
+    <mergeCell ref="F279:F282"/>
+    <mergeCell ref="G279:G282"/>
+    <mergeCell ref="H279:H282"/>
+    <mergeCell ref="F247:F250"/>
+    <mergeCell ref="H255:H258"/>
+    <mergeCell ref="G275:G278"/>
+    <mergeCell ref="H275:H278"/>
+    <mergeCell ref="F202:F205"/>
+    <mergeCell ref="G202:G205"/>
+    <mergeCell ref="H202:H205"/>
+    <mergeCell ref="F218:F222"/>
+    <mergeCell ref="G218:G222"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="F251:F254"/>
+    <mergeCell ref="G251:G254"/>
+    <mergeCell ref="H251:H254"/>
+    <mergeCell ref="F299:F303"/>
+    <mergeCell ref="G299:G303"/>
+    <mergeCell ref="H299:H303"/>
+    <mergeCell ref="H218:H222"/>
+    <mergeCell ref="F267:F270"/>
+    <mergeCell ref="G267:G270"/>
+    <mergeCell ref="H267:H270"/>
+    <mergeCell ref="F255:F258"/>
+    <mergeCell ref="G255:G258"/>
+    <mergeCell ref="H239:H242"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="H149:H152"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="F97:F100"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="H97:H100"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="H515:H518"/>
+    <mergeCell ref="F370:F373"/>
+    <mergeCell ref="G370:G373"/>
+    <mergeCell ref="H370:H373"/>
+    <mergeCell ref="F374:F377"/>
+    <mergeCell ref="G374:G377"/>
+    <mergeCell ref="H374:H377"/>
+    <mergeCell ref="F378:F381"/>
+    <mergeCell ref="G378:G381"/>
+    <mergeCell ref="H378:H381"/>
+    <mergeCell ref="G438:G441"/>
+    <mergeCell ref="H438:H441"/>
+    <mergeCell ref="F398:F401"/>
+    <mergeCell ref="H418:H421"/>
+    <mergeCell ref="F446:F449"/>
+    <mergeCell ref="G446:G449"/>
+    <mergeCell ref="H446:H449"/>
+    <mergeCell ref="G454:G457"/>
+    <mergeCell ref="H454:H457"/>
+    <mergeCell ref="F499:F502"/>
+    <mergeCell ref="G499:G502"/>
+    <mergeCell ref="H499:H502"/>
+    <mergeCell ref="F406:F409"/>
+    <mergeCell ref="G406:G409"/>
+    <mergeCell ref="F547:F550"/>
+    <mergeCell ref="G547:G550"/>
+    <mergeCell ref="H547:H550"/>
+    <mergeCell ref="G386:G389"/>
+    <mergeCell ref="H386:H389"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="F177:F181"/>
+    <mergeCell ref="G177:G181"/>
+    <mergeCell ref="H177:H181"/>
+    <mergeCell ref="F182:F185"/>
+    <mergeCell ref="G182:G185"/>
+    <mergeCell ref="H182:H185"/>
+    <mergeCell ref="F173:F176"/>
+    <mergeCell ref="G173:G176"/>
+    <mergeCell ref="H173:H176"/>
+    <mergeCell ref="F382:F385"/>
+    <mergeCell ref="G382:G385"/>
+    <mergeCell ref="H382:H385"/>
+    <mergeCell ref="F113:F116"/>
+    <mergeCell ref="G113:G116"/>
+    <mergeCell ref="H113:H116"/>
+    <mergeCell ref="F287:F290"/>
     <mergeCell ref="F539:F542"/>
     <mergeCell ref="G539:G542"/>
     <mergeCell ref="H539:H542"/>
@@ -15310,908 +16248,30 @@
     <mergeCell ref="G105:G108"/>
     <mergeCell ref="H105:H108"/>
     <mergeCell ref="F275:F278"/>
-    <mergeCell ref="F547:F550"/>
-    <mergeCell ref="G547:G550"/>
-    <mergeCell ref="H547:H550"/>
-    <mergeCell ref="G386:G389"/>
-    <mergeCell ref="H386:H389"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="H109:H112"/>
-    <mergeCell ref="F177:F181"/>
-    <mergeCell ref="G177:G181"/>
-    <mergeCell ref="H177:H181"/>
-    <mergeCell ref="F182:F185"/>
-    <mergeCell ref="G182:G185"/>
-    <mergeCell ref="H182:H185"/>
-    <mergeCell ref="F173:F176"/>
-    <mergeCell ref="G173:G176"/>
-    <mergeCell ref="H173:H176"/>
-    <mergeCell ref="F382:F385"/>
-    <mergeCell ref="G382:G385"/>
-    <mergeCell ref="H382:H385"/>
-    <mergeCell ref="F113:F116"/>
-    <mergeCell ref="G113:G116"/>
-    <mergeCell ref="H113:H116"/>
-    <mergeCell ref="F287:F290"/>
-    <mergeCell ref="H515:H518"/>
-    <mergeCell ref="F370:F373"/>
-    <mergeCell ref="G370:G373"/>
-    <mergeCell ref="H370:H373"/>
-    <mergeCell ref="F374:F377"/>
-    <mergeCell ref="G374:G377"/>
-    <mergeCell ref="H374:H377"/>
-    <mergeCell ref="F378:F381"/>
-    <mergeCell ref="G378:G381"/>
-    <mergeCell ref="H378:H381"/>
+    <mergeCell ref="H247:H250"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="G169:G172"/>
+    <mergeCell ref="H169:H172"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="G64:G67"/>
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="H36:H39"/>
     <mergeCell ref="F101:F104"/>
     <mergeCell ref="G101:G104"/>
     <mergeCell ref="H101:H104"/>
-    <mergeCell ref="F97:F100"/>
-    <mergeCell ref="G97:G100"/>
-    <mergeCell ref="H97:H100"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="F251:F254"/>
-    <mergeCell ref="G251:G254"/>
-    <mergeCell ref="H251:H254"/>
-    <mergeCell ref="F299:F303"/>
-    <mergeCell ref="G299:G303"/>
-    <mergeCell ref="H299:H303"/>
-    <mergeCell ref="F325:F328"/>
-    <mergeCell ref="G325:G328"/>
-    <mergeCell ref="H325:H328"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="G117:G121"/>
-    <mergeCell ref="H117:H121"/>
-    <mergeCell ref="F169:F172"/>
-    <mergeCell ref="G263:G266"/>
-    <mergeCell ref="H263:H266"/>
-    <mergeCell ref="F283:F286"/>
-    <mergeCell ref="G283:G286"/>
-    <mergeCell ref="H283:H286"/>
-    <mergeCell ref="F279:F282"/>
-    <mergeCell ref="G279:G282"/>
-    <mergeCell ref="H279:H282"/>
-    <mergeCell ref="F247:F250"/>
-    <mergeCell ref="H255:H258"/>
-    <mergeCell ref="G438:G441"/>
-    <mergeCell ref="H438:H441"/>
-    <mergeCell ref="F341:F344"/>
-    <mergeCell ref="G341:G344"/>
-    <mergeCell ref="H341:H344"/>
-    <mergeCell ref="F337:F340"/>
-    <mergeCell ref="F390:F393"/>
-    <mergeCell ref="G390:G393"/>
-    <mergeCell ref="H390:H393"/>
-    <mergeCell ref="F394:F397"/>
-    <mergeCell ref="G394:G397"/>
-    <mergeCell ref="H394:H397"/>
-    <mergeCell ref="F398:F401"/>
-    <mergeCell ref="G275:G278"/>
-    <mergeCell ref="H275:H278"/>
-    <mergeCell ref="F329:F332"/>
-    <mergeCell ref="G329:G332"/>
-    <mergeCell ref="H329:H332"/>
-    <mergeCell ref="F366:F369"/>
-    <mergeCell ref="G366:G369"/>
-    <mergeCell ref="H366:H369"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="F362:F365"/>
-    <mergeCell ref="G362:G365"/>
-    <mergeCell ref="H362:H365"/>
-    <mergeCell ref="F51:F55"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="F271:F274"/>
-    <mergeCell ref="G271:G274"/>
-    <mergeCell ref="H271:H274"/>
-    <mergeCell ref="F259:F262"/>
-    <mergeCell ref="G259:G262"/>
-    <mergeCell ref="H259:H262"/>
-    <mergeCell ref="F263:F266"/>
-    <mergeCell ref="G321:G324"/>
-    <mergeCell ref="H321:H324"/>
-    <mergeCell ref="F202:F205"/>
-    <mergeCell ref="G202:G205"/>
-    <mergeCell ref="H202:H205"/>
-    <mergeCell ref="F345:F348"/>
-    <mergeCell ref="G345:G348"/>
-    <mergeCell ref="H345:H348"/>
-    <mergeCell ref="H418:H421"/>
-    <mergeCell ref="F446:F449"/>
-    <mergeCell ref="F218:F222"/>
-    <mergeCell ref="G218:G222"/>
-    <mergeCell ref="H218:H222"/>
-    <mergeCell ref="F304:F307"/>
-    <mergeCell ref="G304:G307"/>
-    <mergeCell ref="H304:H307"/>
-    <mergeCell ref="F291:F294"/>
-    <mergeCell ref="G291:G294"/>
-    <mergeCell ref="H291:H294"/>
-    <mergeCell ref="F295:F298"/>
-    <mergeCell ref="G295:G298"/>
-    <mergeCell ref="H295:H298"/>
-    <mergeCell ref="F267:F270"/>
-    <mergeCell ref="G267:G270"/>
-    <mergeCell ref="H267:H270"/>
-    <mergeCell ref="G446:G449"/>
-    <mergeCell ref="H446:H449"/>
-    <mergeCell ref="F349:F352"/>
-    <mergeCell ref="G349:G352"/>
-    <mergeCell ref="H349:H352"/>
-    <mergeCell ref="F255:F258"/>
-    <mergeCell ref="G255:G258"/>
-    <mergeCell ref="H239:H242"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="G149:G152"/>
-    <mergeCell ref="H149:H152"/>
-    <mergeCell ref="G454:G457"/>
-    <mergeCell ref="H454:H457"/>
-    <mergeCell ref="F499:F502"/>
-    <mergeCell ref="G499:G502"/>
-    <mergeCell ref="H499:H502"/>
-    <mergeCell ref="F406:F409"/>
-    <mergeCell ref="G406:G409"/>
-    <mergeCell ref="H406:H409"/>
-    <mergeCell ref="F353:F356"/>
-    <mergeCell ref="G353:G356"/>
-    <mergeCell ref="H353:H356"/>
-    <mergeCell ref="F357:F361"/>
-    <mergeCell ref="G357:G361"/>
-    <mergeCell ref="H357:H361"/>
-    <mergeCell ref="F434:F437"/>
-    <mergeCell ref="G434:G437"/>
-    <mergeCell ref="H434:H437"/>
-    <mergeCell ref="F442:F445"/>
-    <mergeCell ref="G442:G445"/>
-    <mergeCell ref="H442:H445"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="G137:G140"/>
-    <mergeCell ref="H137:H140"/>
-    <mergeCell ref="F312:F315"/>
-    <mergeCell ref="G312:G315"/>
-    <mergeCell ref="H312:H315"/>
-    <mergeCell ref="F126:F130"/>
-    <mergeCell ref="G126:G130"/>
-    <mergeCell ref="H126:H130"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="G88:G92"/>
-    <mergeCell ref="H88:H92"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="H243:H246"/>
-    <mergeCell ref="F402:F405"/>
-    <mergeCell ref="G402:G405"/>
-    <mergeCell ref="H402:H405"/>
-    <mergeCell ref="F157:F160"/>
-    <mergeCell ref="G157:G160"/>
-    <mergeCell ref="H157:H160"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="G131:G133"/>
-    <mergeCell ref="H131:H133"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="H145:H148"/>
-    <mergeCell ref="F165:F168"/>
-    <mergeCell ref="G165:G168"/>
-    <mergeCell ref="H165:H168"/>
-    <mergeCell ref="F308:F311"/>
-    <mergeCell ref="G308:G311"/>
-    <mergeCell ref="H308:H311"/>
-    <mergeCell ref="F214:F217"/>
-    <mergeCell ref="G214:G217"/>
-    <mergeCell ref="H214:H217"/>
-    <mergeCell ref="F190:F193"/>
-    <mergeCell ref="G190:G193"/>
-    <mergeCell ref="H507:H510"/>
-    <mergeCell ref="F483:F486"/>
-    <mergeCell ref="G483:G486"/>
-    <mergeCell ref="H483:H486"/>
-    <mergeCell ref="F487:F490"/>
-    <mergeCell ref="G487:G490"/>
-    <mergeCell ref="H487:H490"/>
-    <mergeCell ref="G466:G469"/>
-    <mergeCell ref="H466:H469"/>
-    <mergeCell ref="F503:F506"/>
-    <mergeCell ref="G503:G506"/>
-    <mergeCell ref="H503:H506"/>
-    <mergeCell ref="H475:H478"/>
-    <mergeCell ref="F491:F494"/>
-    <mergeCell ref="G491:G494"/>
-    <mergeCell ref="H491:H494"/>
-    <mergeCell ref="F470:F474"/>
-    <mergeCell ref="G470:G474"/>
-    <mergeCell ref="H470:H474"/>
-    <mergeCell ref="H426:H429"/>
-    <mergeCell ref="H462:H465"/>
-    <mergeCell ref="H458:H461"/>
-    <mergeCell ref="F450:F453"/>
-    <mergeCell ref="G450:G453"/>
-    <mergeCell ref="H450:H453"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="F206:F209"/>
-    <mergeCell ref="G206:G209"/>
-    <mergeCell ref="H206:H209"/>
-    <mergeCell ref="F210:F213"/>
-    <mergeCell ref="G210:G213"/>
-    <mergeCell ref="H210:H213"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="H93:H96"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F161:F164"/>
-    <mergeCell ref="G161:G164"/>
-    <mergeCell ref="H161:H164"/>
-    <mergeCell ref="H190:H193"/>
-    <mergeCell ref="H134:H136"/>
-    <mergeCell ref="F430:F433"/>
-    <mergeCell ref="G430:G433"/>
-    <mergeCell ref="H430:H433"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="G153:G156"/>
-    <mergeCell ref="H153:H156"/>
-    <mergeCell ref="F422:F425"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="H141:H144"/>
-    <mergeCell ref="G398:G401"/>
-    <mergeCell ref="H398:H401"/>
-    <mergeCell ref="F194:F197"/>
-    <mergeCell ref="G194:G197"/>
-    <mergeCell ref="H194:H197"/>
-    <mergeCell ref="F198:F201"/>
-    <mergeCell ref="G198:G201"/>
-    <mergeCell ref="H198:H201"/>
-    <mergeCell ref="F414:F417"/>
-    <mergeCell ref="G414:G417"/>
-    <mergeCell ref="H414:H417"/>
-    <mergeCell ref="H422:H425"/>
-    <mergeCell ref="F243:F246"/>
-    <mergeCell ref="G243:G246"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A527:A530"/>
-    <mergeCell ref="A466:A469"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A370:A373"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="A378:A381"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="F479:F482"/>
-    <mergeCell ref="G479:G482"/>
-    <mergeCell ref="F495:F498"/>
-    <mergeCell ref="G495:G498"/>
-    <mergeCell ref="F475:F478"/>
-    <mergeCell ref="G475:G478"/>
-    <mergeCell ref="F507:F510"/>
-    <mergeCell ref="G507:G510"/>
-    <mergeCell ref="F239:F242"/>
-    <mergeCell ref="G239:G242"/>
-    <mergeCell ref="F418:F421"/>
-    <mergeCell ref="G418:G421"/>
-    <mergeCell ref="G515:G518"/>
-    <mergeCell ref="G247:G250"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A470:A474"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="A479:A482"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="A341:A344"/>
-    <mergeCell ref="A337:A340"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A239:A242"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="A218:A222"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A345:A348"/>
-    <mergeCell ref="B345:B348"/>
-    <mergeCell ref="A316:A320"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B218:B222"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="A299:A303"/>
-    <mergeCell ref="A325:A328"/>
-    <mergeCell ref="A308:A311"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A333:A336"/>
-    <mergeCell ref="B523:B526"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A312:A315"/>
-    <mergeCell ref="A267:A270"/>
-    <mergeCell ref="A271:A274"/>
-    <mergeCell ref="A275:A278"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A279:A282"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B312:B315"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="A329:A332"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="B462:B465"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B227:B230"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A503:A506"/>
-    <mergeCell ref="A515:A518"/>
-    <mergeCell ref="A499:A502"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="A434:A437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="A491:A494"/>
-    <mergeCell ref="A475:A478"/>
-    <mergeCell ref="A507:A510"/>
-    <mergeCell ref="A483:A486"/>
-    <mergeCell ref="A487:A490"/>
-    <mergeCell ref="A495:A498"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="A353:A356"/>
-    <mergeCell ref="A357:A361"/>
-    <mergeCell ref="A366:A369"/>
-    <mergeCell ref="A291:A294"/>
-    <mergeCell ref="A362:A365"/>
-    <mergeCell ref="A349:A352"/>
-    <mergeCell ref="A462:A465"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="A547:A550"/>
-    <mergeCell ref="A382:A385"/>
-    <mergeCell ref="A511:A514"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A287:A290"/>
-    <mergeCell ref="A539:A542"/>
-    <mergeCell ref="A543:A546"/>
-    <mergeCell ref="A535:A538"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A531:A534"/>
-    <mergeCell ref="A243:A246"/>
-    <mergeCell ref="A519:A522"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="A446:A449"/>
-    <mergeCell ref="A523:A526"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="B527:B530"/>
-    <mergeCell ref="B466:B469"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="B519:B522"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="B458:B461"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B177:B181"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B308:B311"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B535:B538"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B430:B433"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="B341:B344"/>
-    <mergeCell ref="B337:B340"/>
-    <mergeCell ref="B531:B534"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B507:B510"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B362:B365"/>
-    <mergeCell ref="B357:B361"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B316:B320"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B299:B303"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B333:B336"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="B547:B550"/>
-    <mergeCell ref="B382:B385"/>
-    <mergeCell ref="B291:B294"/>
-    <mergeCell ref="B515:B518"/>
-    <mergeCell ref="B370:B373"/>
-    <mergeCell ref="B374:B377"/>
-    <mergeCell ref="F227:F230"/>
-    <mergeCell ref="E231:E234"/>
-    <mergeCell ref="F231:F234"/>
-    <mergeCell ref="E235:E238"/>
-    <mergeCell ref="F235:F238"/>
-    <mergeCell ref="E519:E522"/>
-    <mergeCell ref="F519:F522"/>
-    <mergeCell ref="B378:B381"/>
-    <mergeCell ref="B366:B369"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="B470:B474"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="B243:B246"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="B442:B445"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B287:B290"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="F223:F226"/>
-    <mergeCell ref="E227:E230"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B539:B542"/>
-    <mergeCell ref="B543:B546"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="B267:B270"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="B275:B278"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B279:B282"/>
-    <mergeCell ref="B259:B262"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="B503:B506"/>
-    <mergeCell ref="B495:B498"/>
-    <mergeCell ref="B479:B482"/>
-    <mergeCell ref="B483:B486"/>
-    <mergeCell ref="B475:B478"/>
-    <mergeCell ref="B499:B502"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="B487:B490"/>
-    <mergeCell ref="B491:B494"/>
-    <mergeCell ref="B511:B514"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="F458:F461"/>
-    <mergeCell ref="E535:E538"/>
-    <mergeCell ref="F535:F538"/>
-    <mergeCell ref="F117:F121"/>
-    <mergeCell ref="F466:F469"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="E426:E429"/>
-    <mergeCell ref="F426:F429"/>
-    <mergeCell ref="E462:E465"/>
-    <mergeCell ref="F462:F465"/>
-    <mergeCell ref="F333:F336"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="F527:F530"/>
-    <mergeCell ref="F438:F441"/>
-    <mergeCell ref="F454:F457"/>
-    <mergeCell ref="F531:F534"/>
-    <mergeCell ref="F316:F320"/>
-    <mergeCell ref="F321:F324"/>
-    <mergeCell ref="F515:F518"/>
-    <mergeCell ref="F386:F389"/>
-    <mergeCell ref="E491:E494"/>
-    <mergeCell ref="E446:E449"/>
-    <mergeCell ref="F523:F526"/>
-    <mergeCell ref="E149:E152"/>
-    <mergeCell ref="E153:E156"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E527:E530"/>
-    <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E117:E121"/>
-    <mergeCell ref="E333:E336"/>
-    <mergeCell ref="E141:E144"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="E223:E226"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="E479:E482"/>
-    <mergeCell ref="E337:E340"/>
-    <mergeCell ref="E210:E213"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="E507:E510"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="E531:E534"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E157:E160"/>
-    <mergeCell ref="E304:E307"/>
-    <mergeCell ref="E341:E344"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="E145:E148"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E161:E164"/>
-    <mergeCell ref="E243:E246"/>
-    <mergeCell ref="E247:E250"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="E88:E92"/>
-    <mergeCell ref="E295:E298"/>
-    <mergeCell ref="E454:E457"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="E434:E437"/>
-    <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E173:E176"/>
-    <mergeCell ref="E321:E324"/>
-    <mergeCell ref="E503:E506"/>
-    <mergeCell ref="E165:E168"/>
-    <mergeCell ref="E169:E172"/>
-    <mergeCell ref="E308:E311"/>
-    <mergeCell ref="E214:E217"/>
-    <mergeCell ref="E218:E222"/>
-    <mergeCell ref="E312:E315"/>
-    <mergeCell ref="E126:E130"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="E97:E100"/>
-    <mergeCell ref="E470:E474"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E499:E502"/>
-    <mergeCell ref="E442:E445"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="E475:E478"/>
-    <mergeCell ref="E483:E486"/>
-    <mergeCell ref="E487:E490"/>
-    <mergeCell ref="E495:E498"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E362:E365"/>
-    <mergeCell ref="E259:E262"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E251:E254"/>
-    <mergeCell ref="E255:E258"/>
-    <mergeCell ref="E370:E373"/>
-    <mergeCell ref="E374:E377"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="E177:E181"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E325:E328"/>
-    <mergeCell ref="E329:E332"/>
-    <mergeCell ref="E267:E270"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E345:E348"/>
-    <mergeCell ref="E316:E320"/>
-    <mergeCell ref="E353:E356"/>
-    <mergeCell ref="E357:E361"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="E239:E242"/>
-    <mergeCell ref="E263:E266"/>
-    <mergeCell ref="E349:E352"/>
-    <mergeCell ref="E299:E303"/>
-    <mergeCell ref="C475:C478"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="C523:C526"/>
-    <mergeCell ref="C495:C498"/>
-    <mergeCell ref="C479:C482"/>
-    <mergeCell ref="C483:C486"/>
-    <mergeCell ref="C487:C490"/>
-    <mergeCell ref="C426:C429"/>
-    <mergeCell ref="C462:C465"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E515:E518"/>
-    <mergeCell ref="C515:C518"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E523:E526"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="E283:E286"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="C235:C238"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="E378:E381"/>
-    <mergeCell ref="E279:E282"/>
-    <mergeCell ref="E366:E369"/>
-    <mergeCell ref="E291:E294"/>
-    <mergeCell ref="E271:E274"/>
-    <mergeCell ref="E275:E278"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="C145:C148"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="C527:C530"/>
-    <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C239:C242"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="C519:C522"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C503:C506"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C308:C311"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="C218:C222"/>
-    <mergeCell ref="C535:C538"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C333:C336"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C446:C449"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="C341:C344"/>
-    <mergeCell ref="C337:C340"/>
-    <mergeCell ref="C531:C534"/>
-    <mergeCell ref="C450:C453"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C243:C246"/>
-    <mergeCell ref="C507:C510"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C177:C181"/>
-    <mergeCell ref="C499:C502"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C434:C437"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C295:C298"/>
-    <mergeCell ref="C370:C373"/>
-    <mergeCell ref="C374:C377"/>
-    <mergeCell ref="C378:C381"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C251:C254"/>
-    <mergeCell ref="C255:C258"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C345:C348"/>
-    <mergeCell ref="C316:C320"/>
-    <mergeCell ref="C321:C324"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="C312:C315"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C353:C356"/>
-    <mergeCell ref="C357:C361"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C291:C294"/>
-    <mergeCell ref="C539:C542"/>
-    <mergeCell ref="C267:C270"/>
-    <mergeCell ref="C271:C274"/>
-    <mergeCell ref="C275:C278"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C279:C282"/>
-    <mergeCell ref="C366:C369"/>
-    <mergeCell ref="C259:C262"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="C349:C352"/>
-    <mergeCell ref="C299:C303"/>
-    <mergeCell ref="C325:C328"/>
-    <mergeCell ref="C329:C332"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="C470:C474"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="C157:C160"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="C543:C546"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C547:C550"/>
-    <mergeCell ref="C382:C385"/>
-    <mergeCell ref="C511:C514"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="G426:G429"/>
-    <mergeCell ref="G462:G465"/>
-    <mergeCell ref="G223:G226"/>
-    <mergeCell ref="G422:G425"/>
-    <mergeCell ref="G458:G461"/>
-    <mergeCell ref="G535:G538"/>
-    <mergeCell ref="C287:C290"/>
-    <mergeCell ref="C454:C457"/>
-    <mergeCell ref="C442:C445"/>
-    <mergeCell ref="E547:E550"/>
-    <mergeCell ref="E382:E385"/>
-    <mergeCell ref="E511:E514"/>
-    <mergeCell ref="E287:E290"/>
-    <mergeCell ref="E543:E546"/>
-    <mergeCell ref="E539:E542"/>
-    <mergeCell ref="C491:C494"/>
-    <mergeCell ref="H535:H538"/>
-    <mergeCell ref="H223:H226"/>
-    <mergeCell ref="G227:G230"/>
-    <mergeCell ref="H227:H230"/>
-    <mergeCell ref="G231:G234"/>
-    <mergeCell ref="H231:H234"/>
-    <mergeCell ref="G235:G238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="G519:G522"/>
-    <mergeCell ref="H519:H522"/>
-    <mergeCell ref="G333:G336"/>
-    <mergeCell ref="H333:H336"/>
-    <mergeCell ref="G527:G530"/>
-    <mergeCell ref="H527:H530"/>
-    <mergeCell ref="G523:G526"/>
-    <mergeCell ref="H523:H526"/>
-    <mergeCell ref="G337:G340"/>
-    <mergeCell ref="H337:H340"/>
-    <mergeCell ref="G531:G534"/>
-    <mergeCell ref="H531:H534"/>
-    <mergeCell ref="G316:G320"/>
-    <mergeCell ref="H316:H320"/>
-    <mergeCell ref="H479:H482"/>
-    <mergeCell ref="H495:H498"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
@@ -26700,191 +26760,415 @@
     <sortCondition ref="A2:A586"/>
   </sortState>
   <mergeCells count="618">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C286:C289"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="C298:C301"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="C266:C269"/>
-    <mergeCell ref="C270:C273"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="C282:C285"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="C258:C261"/>
-    <mergeCell ref="C394:C397"/>
-    <mergeCell ref="C358:C361"/>
-    <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C366:C369"/>
-    <mergeCell ref="C370:C373"/>
-    <mergeCell ref="C334:C337"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C342:C345"/>
-    <mergeCell ref="C346:C349"/>
-    <mergeCell ref="C374:C377"/>
-    <mergeCell ref="C378:C381"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C462:C465"/>
-    <mergeCell ref="C466:C469"/>
-    <mergeCell ref="C430:C433"/>
-    <mergeCell ref="C434:C437"/>
-    <mergeCell ref="C438:C441"/>
-    <mergeCell ref="C442:C445"/>
-    <mergeCell ref="C406:C409"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C446:C449"/>
-    <mergeCell ref="C450:C453"/>
-    <mergeCell ref="C422:C425"/>
-    <mergeCell ref="C426:C429"/>
-    <mergeCell ref="C454:C457"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E246:E249"/>
-    <mergeCell ref="E238:E241"/>
-    <mergeCell ref="E218:E221"/>
-    <mergeCell ref="E222:E225"/>
-    <mergeCell ref="E226:E229"/>
-    <mergeCell ref="E250:E253"/>
-    <mergeCell ref="E254:E257"/>
-    <mergeCell ref="E258:E261"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="E338:E341"/>
-    <mergeCell ref="E342:E345"/>
-    <mergeCell ref="E334:E337"/>
-    <mergeCell ref="E314:E317"/>
-    <mergeCell ref="E318:E321"/>
-    <mergeCell ref="E322:E325"/>
-    <mergeCell ref="E290:E293"/>
-    <mergeCell ref="E294:E297"/>
-    <mergeCell ref="E286:E289"/>
-    <mergeCell ref="E458:E461"/>
-    <mergeCell ref="E462:E465"/>
-    <mergeCell ref="E466:E469"/>
-    <mergeCell ref="E434:E437"/>
-    <mergeCell ref="E438:E441"/>
-    <mergeCell ref="E430:E433"/>
-    <mergeCell ref="E410:E413"/>
-    <mergeCell ref="E414:E417"/>
-    <mergeCell ref="E418:E421"/>
-    <mergeCell ref="E442:E445"/>
-    <mergeCell ref="E446:E449"/>
-    <mergeCell ref="E450:E453"/>
-    <mergeCell ref="E454:E457"/>
-    <mergeCell ref="E422:E425"/>
-    <mergeCell ref="E426:E429"/>
-    <mergeCell ref="C562:C565"/>
-    <mergeCell ref="E562:E565"/>
-    <mergeCell ref="C566:C569"/>
-    <mergeCell ref="E566:E569"/>
-    <mergeCell ref="C554:C557"/>
-    <mergeCell ref="E554:E557"/>
-    <mergeCell ref="C558:C561"/>
-    <mergeCell ref="E558:E561"/>
-    <mergeCell ref="C546:C549"/>
-    <mergeCell ref="E546:E549"/>
-    <mergeCell ref="C550:C553"/>
-    <mergeCell ref="E550:E553"/>
-    <mergeCell ref="C586:C589"/>
-    <mergeCell ref="E586:E589"/>
-    <mergeCell ref="C578:C581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="C582:C585"/>
-    <mergeCell ref="E582:E585"/>
-    <mergeCell ref="C570:C573"/>
-    <mergeCell ref="E570:E573"/>
-    <mergeCell ref="C574:C577"/>
-    <mergeCell ref="E574:E577"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="B578:B581"/>
+    <mergeCell ref="A582:A585"/>
+    <mergeCell ref="B582:B585"/>
+    <mergeCell ref="A586:A589"/>
+    <mergeCell ref="B586:B589"/>
+    <mergeCell ref="A566:A569"/>
+    <mergeCell ref="B566:B569"/>
+    <mergeCell ref="A570:A573"/>
+    <mergeCell ref="B570:B573"/>
+    <mergeCell ref="A574:A577"/>
+    <mergeCell ref="B574:B577"/>
+    <mergeCell ref="A554:A557"/>
+    <mergeCell ref="B554:B557"/>
+    <mergeCell ref="A558:A561"/>
+    <mergeCell ref="B558:B561"/>
+    <mergeCell ref="A562:A565"/>
+    <mergeCell ref="B562:B565"/>
+    <mergeCell ref="A542:A545"/>
+    <mergeCell ref="B542:B545"/>
+    <mergeCell ref="A546:A549"/>
+    <mergeCell ref="B546:B549"/>
+    <mergeCell ref="A550:A553"/>
+    <mergeCell ref="B550:B553"/>
+    <mergeCell ref="A530:A533"/>
+    <mergeCell ref="B530:B533"/>
+    <mergeCell ref="A534:A537"/>
+    <mergeCell ref="B534:B537"/>
+    <mergeCell ref="A538:A541"/>
+    <mergeCell ref="B538:B541"/>
+    <mergeCell ref="A518:A521"/>
+    <mergeCell ref="B518:B521"/>
+    <mergeCell ref="A522:A525"/>
+    <mergeCell ref="B522:B525"/>
+    <mergeCell ref="A526:A529"/>
+    <mergeCell ref="B526:B529"/>
+    <mergeCell ref="A506:A509"/>
+    <mergeCell ref="B506:B509"/>
+    <mergeCell ref="A510:A513"/>
+    <mergeCell ref="B510:B513"/>
+    <mergeCell ref="A514:A517"/>
+    <mergeCell ref="B514:B517"/>
+    <mergeCell ref="A494:A497"/>
+    <mergeCell ref="B494:B497"/>
+    <mergeCell ref="A498:A501"/>
+    <mergeCell ref="B498:B501"/>
+    <mergeCell ref="A502:A505"/>
+    <mergeCell ref="B502:B505"/>
+    <mergeCell ref="A482:A485"/>
+    <mergeCell ref="B482:B485"/>
+    <mergeCell ref="A486:A489"/>
+    <mergeCell ref="B486:B489"/>
+    <mergeCell ref="A490:A493"/>
+    <mergeCell ref="B490:B493"/>
+    <mergeCell ref="A470:A473"/>
+    <mergeCell ref="B470:B473"/>
+    <mergeCell ref="A474:A477"/>
+    <mergeCell ref="B474:B477"/>
+    <mergeCell ref="A478:A481"/>
+    <mergeCell ref="B478:B481"/>
+    <mergeCell ref="A458:A461"/>
+    <mergeCell ref="B458:B461"/>
+    <mergeCell ref="A462:A465"/>
+    <mergeCell ref="B462:B465"/>
+    <mergeCell ref="A466:A469"/>
+    <mergeCell ref="B466:B469"/>
+    <mergeCell ref="A446:A449"/>
+    <mergeCell ref="B446:B449"/>
+    <mergeCell ref="A450:A453"/>
+    <mergeCell ref="B450:B453"/>
+    <mergeCell ref="A454:A457"/>
+    <mergeCell ref="B454:B457"/>
+    <mergeCell ref="A434:A437"/>
+    <mergeCell ref="B434:B437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="A442:A445"/>
+    <mergeCell ref="B442:B445"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="A426:A429"/>
+    <mergeCell ref="B426:B429"/>
+    <mergeCell ref="A430:A433"/>
+    <mergeCell ref="B430:B433"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="A414:A417"/>
+    <mergeCell ref="B414:B417"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="B418:B421"/>
+    <mergeCell ref="A398:A401"/>
+    <mergeCell ref="B398:B401"/>
+    <mergeCell ref="A402:A405"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="A406:A409"/>
+    <mergeCell ref="B406:B409"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="A394:A397"/>
+    <mergeCell ref="B394:B397"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="A378:A381"/>
+    <mergeCell ref="B378:B381"/>
+    <mergeCell ref="A382:A385"/>
+    <mergeCell ref="B382:B385"/>
+    <mergeCell ref="A362:A365"/>
+    <mergeCell ref="B362:B365"/>
+    <mergeCell ref="A366:A369"/>
+    <mergeCell ref="B366:B369"/>
+    <mergeCell ref="A370:A373"/>
+    <mergeCell ref="B370:B373"/>
+    <mergeCell ref="A350:A353"/>
+    <mergeCell ref="B350:B353"/>
+    <mergeCell ref="A354:A357"/>
+    <mergeCell ref="B354:B357"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="A338:A341"/>
+    <mergeCell ref="B338:B341"/>
+    <mergeCell ref="A342:A345"/>
+    <mergeCell ref="B342:B345"/>
+    <mergeCell ref="A346:A349"/>
+    <mergeCell ref="B346:B349"/>
+    <mergeCell ref="A326:A329"/>
+    <mergeCell ref="B326:B329"/>
+    <mergeCell ref="A330:A333"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="A334:A337"/>
+    <mergeCell ref="B334:B337"/>
+    <mergeCell ref="A314:A317"/>
+    <mergeCell ref="B314:B317"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="B318:B321"/>
+    <mergeCell ref="A322:A325"/>
+    <mergeCell ref="B322:B325"/>
+    <mergeCell ref="A302:A305"/>
+    <mergeCell ref="B302:B305"/>
+    <mergeCell ref="A306:A309"/>
+    <mergeCell ref="B306:B309"/>
+    <mergeCell ref="A310:A313"/>
+    <mergeCell ref="B310:B313"/>
+    <mergeCell ref="A290:A293"/>
+    <mergeCell ref="B290:B293"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="A298:A301"/>
+    <mergeCell ref="B298:B301"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="B282:B285"/>
+    <mergeCell ref="A286:A289"/>
+    <mergeCell ref="B286:B289"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="A270:A273"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="A274:A277"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="A262:A265"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="A230:A233"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C542:C545"/>
+    <mergeCell ref="E542:E545"/>
+    <mergeCell ref="C534:C537"/>
+    <mergeCell ref="E534:E537"/>
+    <mergeCell ref="C538:C541"/>
+    <mergeCell ref="E538:E541"/>
+    <mergeCell ref="C526:C529"/>
+    <mergeCell ref="E526:E529"/>
+    <mergeCell ref="C530:C533"/>
+    <mergeCell ref="E530:E533"/>
+    <mergeCell ref="E514:E517"/>
+    <mergeCell ref="C518:C521"/>
+    <mergeCell ref="E518:E521"/>
+    <mergeCell ref="C522:C525"/>
+    <mergeCell ref="E522:E525"/>
+    <mergeCell ref="E490:E493"/>
+    <mergeCell ref="C494:C497"/>
+    <mergeCell ref="E494:E497"/>
+    <mergeCell ref="C498:C501"/>
+    <mergeCell ref="E498:E501"/>
+    <mergeCell ref="E506:E509"/>
+    <mergeCell ref="E510:E513"/>
+    <mergeCell ref="E502:E505"/>
+    <mergeCell ref="C510:C513"/>
+    <mergeCell ref="C514:C517"/>
+    <mergeCell ref="C470:C473"/>
+    <mergeCell ref="E470:E473"/>
+    <mergeCell ref="C474:C477"/>
+    <mergeCell ref="E474:E477"/>
+    <mergeCell ref="E482:E485"/>
+    <mergeCell ref="E486:E489"/>
+    <mergeCell ref="E478:E481"/>
+    <mergeCell ref="C502:C505"/>
+    <mergeCell ref="C506:C509"/>
+    <mergeCell ref="C478:C481"/>
+    <mergeCell ref="C482:C485"/>
+    <mergeCell ref="C486:C489"/>
+    <mergeCell ref="C490:C493"/>
+    <mergeCell ref="E394:E397"/>
+    <mergeCell ref="C398:C401"/>
+    <mergeCell ref="E398:E401"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="E406:E409"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="E346:E349"/>
+    <mergeCell ref="C350:C353"/>
+    <mergeCell ref="E350:E353"/>
+    <mergeCell ref="C354:C357"/>
+    <mergeCell ref="E354:E357"/>
+    <mergeCell ref="E358:E361"/>
+    <mergeCell ref="E386:E389"/>
+    <mergeCell ref="E390:E393"/>
+    <mergeCell ref="E382:E385"/>
+    <mergeCell ref="E362:E365"/>
+    <mergeCell ref="E366:E369"/>
+    <mergeCell ref="E370:E373"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="E378:E381"/>
+    <mergeCell ref="C382:C385"/>
+    <mergeCell ref="C386:C389"/>
+    <mergeCell ref="C390:C393"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="E230:E233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="E234:E237"/>
+    <mergeCell ref="C326:C329"/>
+    <mergeCell ref="E326:E329"/>
+    <mergeCell ref="C330:C333"/>
+    <mergeCell ref="E330:E333"/>
+    <mergeCell ref="E298:E301"/>
+    <mergeCell ref="C302:C305"/>
+    <mergeCell ref="E302:E305"/>
+    <mergeCell ref="C306:C309"/>
+    <mergeCell ref="E306:E309"/>
+    <mergeCell ref="E310:E313"/>
+    <mergeCell ref="C310:C313"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="C318:C321"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="E266:E269"/>
+    <mergeCell ref="E270:E273"/>
+    <mergeCell ref="E274:E277"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="E282:E285"/>
+    <mergeCell ref="E242:E245"/>
+    <mergeCell ref="E202:E205"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="E210:E213"/>
+    <mergeCell ref="E214:E217"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="C222:C225"/>
     <mergeCell ref="C226:C229"/>
     <mergeCell ref="E154:E157"/>
     <mergeCell ref="C158:C161"/>
@@ -26909,415 +27193,191 @@
     <mergeCell ref="E142:E145"/>
     <mergeCell ref="C190:C193"/>
     <mergeCell ref="C194:C197"/>
-    <mergeCell ref="E202:E205"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="E210:E213"/>
-    <mergeCell ref="E214:E217"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="E230:E233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="E234:E237"/>
-    <mergeCell ref="C326:C329"/>
-    <mergeCell ref="E326:E329"/>
-    <mergeCell ref="C330:C333"/>
-    <mergeCell ref="E330:E333"/>
-    <mergeCell ref="E298:E301"/>
-    <mergeCell ref="C302:C305"/>
-    <mergeCell ref="E302:E305"/>
-    <mergeCell ref="C306:C309"/>
-    <mergeCell ref="E306:E309"/>
-    <mergeCell ref="E310:E313"/>
-    <mergeCell ref="C310:C313"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="C318:C321"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="E266:E269"/>
-    <mergeCell ref="E270:E273"/>
-    <mergeCell ref="E274:E277"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="E282:E285"/>
-    <mergeCell ref="E242:E245"/>
-    <mergeCell ref="E394:E397"/>
-    <mergeCell ref="C398:C401"/>
-    <mergeCell ref="E398:E401"/>
-    <mergeCell ref="C402:C405"/>
-    <mergeCell ref="E402:E405"/>
-    <mergeCell ref="E406:E409"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="E346:E349"/>
-    <mergeCell ref="C350:C353"/>
-    <mergeCell ref="E350:E353"/>
-    <mergeCell ref="C354:C357"/>
-    <mergeCell ref="E354:E357"/>
-    <mergeCell ref="E358:E361"/>
-    <mergeCell ref="E386:E389"/>
-    <mergeCell ref="E390:E393"/>
-    <mergeCell ref="E382:E385"/>
-    <mergeCell ref="E362:E365"/>
-    <mergeCell ref="E366:E369"/>
-    <mergeCell ref="E370:E373"/>
-    <mergeCell ref="E374:E377"/>
-    <mergeCell ref="E378:E381"/>
-    <mergeCell ref="C382:C385"/>
-    <mergeCell ref="C386:C389"/>
-    <mergeCell ref="C390:C393"/>
-    <mergeCell ref="C498:C501"/>
-    <mergeCell ref="E498:E501"/>
-    <mergeCell ref="E506:E509"/>
-    <mergeCell ref="E510:E513"/>
-    <mergeCell ref="E502:E505"/>
-    <mergeCell ref="C510:C513"/>
-    <mergeCell ref="C514:C517"/>
-    <mergeCell ref="C470:C473"/>
-    <mergeCell ref="E470:E473"/>
-    <mergeCell ref="C474:C477"/>
-    <mergeCell ref="E474:E477"/>
-    <mergeCell ref="E482:E485"/>
-    <mergeCell ref="E486:E489"/>
-    <mergeCell ref="E478:E481"/>
-    <mergeCell ref="C502:C505"/>
-    <mergeCell ref="C506:C509"/>
-    <mergeCell ref="C478:C481"/>
-    <mergeCell ref="C482:C485"/>
-    <mergeCell ref="C486:C489"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C542:C545"/>
-    <mergeCell ref="E542:E545"/>
-    <mergeCell ref="C534:C537"/>
-    <mergeCell ref="E534:E537"/>
-    <mergeCell ref="C538:C541"/>
-    <mergeCell ref="E538:E541"/>
-    <mergeCell ref="C526:C529"/>
-    <mergeCell ref="E526:E529"/>
-    <mergeCell ref="C530:C533"/>
-    <mergeCell ref="E530:E533"/>
-    <mergeCell ref="E514:E517"/>
-    <mergeCell ref="C518:C521"/>
-    <mergeCell ref="E518:E521"/>
-    <mergeCell ref="C522:C525"/>
-    <mergeCell ref="E522:E525"/>
-    <mergeCell ref="E490:E493"/>
-    <mergeCell ref="C494:C497"/>
-    <mergeCell ref="E494:E497"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="A218:A221"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="A230:A233"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A266:A269"/>
-    <mergeCell ref="B266:B269"/>
-    <mergeCell ref="A270:A273"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="A274:A277"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="A254:A257"/>
-    <mergeCell ref="B254:B257"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="A262:A265"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="A290:A293"/>
-    <mergeCell ref="B290:B293"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="A298:A301"/>
-    <mergeCell ref="B298:B301"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="B282:B285"/>
-    <mergeCell ref="A286:A289"/>
-    <mergeCell ref="B286:B289"/>
-    <mergeCell ref="A314:A317"/>
-    <mergeCell ref="B314:B317"/>
-    <mergeCell ref="A318:A321"/>
-    <mergeCell ref="B318:B321"/>
-    <mergeCell ref="A322:A325"/>
-    <mergeCell ref="B322:B325"/>
-    <mergeCell ref="A302:A305"/>
-    <mergeCell ref="B302:B305"/>
-    <mergeCell ref="A306:A309"/>
-    <mergeCell ref="B306:B309"/>
-    <mergeCell ref="A310:A313"/>
-    <mergeCell ref="B310:B313"/>
-    <mergeCell ref="A338:A341"/>
-    <mergeCell ref="B338:B341"/>
-    <mergeCell ref="A342:A345"/>
-    <mergeCell ref="B342:B345"/>
-    <mergeCell ref="A346:A349"/>
-    <mergeCell ref="B346:B349"/>
-    <mergeCell ref="A326:A329"/>
-    <mergeCell ref="B326:B329"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="A334:A337"/>
-    <mergeCell ref="B334:B337"/>
-    <mergeCell ref="A362:A365"/>
-    <mergeCell ref="B362:B365"/>
-    <mergeCell ref="A366:A369"/>
-    <mergeCell ref="B366:B369"/>
-    <mergeCell ref="A370:A373"/>
-    <mergeCell ref="B370:B373"/>
-    <mergeCell ref="A350:A353"/>
-    <mergeCell ref="B350:B353"/>
-    <mergeCell ref="A354:A357"/>
-    <mergeCell ref="B354:B357"/>
-    <mergeCell ref="A358:A361"/>
-    <mergeCell ref="B358:B361"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="A394:A397"/>
-    <mergeCell ref="B394:B397"/>
-    <mergeCell ref="A374:A377"/>
-    <mergeCell ref="B374:B377"/>
-    <mergeCell ref="A378:A381"/>
-    <mergeCell ref="B378:B381"/>
-    <mergeCell ref="A382:A385"/>
-    <mergeCell ref="B382:B385"/>
-    <mergeCell ref="A410:A413"/>
-    <mergeCell ref="B410:B413"/>
-    <mergeCell ref="A414:A417"/>
-    <mergeCell ref="B414:B417"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="B418:B421"/>
-    <mergeCell ref="A398:A401"/>
-    <mergeCell ref="B398:B401"/>
-    <mergeCell ref="A402:A405"/>
-    <mergeCell ref="B402:B405"/>
-    <mergeCell ref="A406:A409"/>
-    <mergeCell ref="B406:B409"/>
-    <mergeCell ref="A434:A437"/>
-    <mergeCell ref="B434:B437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="A442:A445"/>
-    <mergeCell ref="B442:B445"/>
-    <mergeCell ref="A422:A425"/>
-    <mergeCell ref="B422:B425"/>
-    <mergeCell ref="A426:A429"/>
-    <mergeCell ref="B426:B429"/>
-    <mergeCell ref="A430:A433"/>
-    <mergeCell ref="B430:B433"/>
-    <mergeCell ref="A458:A461"/>
-    <mergeCell ref="B458:B461"/>
-    <mergeCell ref="A462:A465"/>
-    <mergeCell ref="B462:B465"/>
-    <mergeCell ref="A466:A469"/>
-    <mergeCell ref="B466:B469"/>
-    <mergeCell ref="A446:A449"/>
-    <mergeCell ref="B446:B449"/>
-    <mergeCell ref="A450:A453"/>
-    <mergeCell ref="B450:B453"/>
-    <mergeCell ref="A454:A457"/>
-    <mergeCell ref="B454:B457"/>
-    <mergeCell ref="A482:A485"/>
-    <mergeCell ref="B482:B485"/>
-    <mergeCell ref="A486:A489"/>
-    <mergeCell ref="B486:B489"/>
-    <mergeCell ref="A490:A493"/>
-    <mergeCell ref="B490:B493"/>
-    <mergeCell ref="A470:A473"/>
-    <mergeCell ref="B470:B473"/>
-    <mergeCell ref="A474:A477"/>
-    <mergeCell ref="B474:B477"/>
-    <mergeCell ref="A478:A481"/>
-    <mergeCell ref="B478:B481"/>
-    <mergeCell ref="A506:A509"/>
-    <mergeCell ref="B506:B509"/>
-    <mergeCell ref="A510:A513"/>
-    <mergeCell ref="B510:B513"/>
-    <mergeCell ref="A514:A517"/>
-    <mergeCell ref="B514:B517"/>
-    <mergeCell ref="A494:A497"/>
-    <mergeCell ref="B494:B497"/>
-    <mergeCell ref="A498:A501"/>
-    <mergeCell ref="B498:B501"/>
-    <mergeCell ref="A502:A505"/>
-    <mergeCell ref="B502:B505"/>
-    <mergeCell ref="A530:A533"/>
-    <mergeCell ref="B530:B533"/>
-    <mergeCell ref="A534:A537"/>
-    <mergeCell ref="B534:B537"/>
-    <mergeCell ref="A538:A541"/>
-    <mergeCell ref="B538:B541"/>
-    <mergeCell ref="A518:A521"/>
-    <mergeCell ref="B518:B521"/>
-    <mergeCell ref="A522:A525"/>
-    <mergeCell ref="B522:B525"/>
-    <mergeCell ref="A526:A529"/>
-    <mergeCell ref="B526:B529"/>
-    <mergeCell ref="A554:A557"/>
-    <mergeCell ref="B554:B557"/>
-    <mergeCell ref="A558:A561"/>
-    <mergeCell ref="B558:B561"/>
-    <mergeCell ref="A562:A565"/>
-    <mergeCell ref="B562:B565"/>
-    <mergeCell ref="A542:A545"/>
-    <mergeCell ref="B542:B545"/>
-    <mergeCell ref="A546:A549"/>
-    <mergeCell ref="B546:B549"/>
-    <mergeCell ref="A550:A553"/>
-    <mergeCell ref="B550:B553"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="B578:B581"/>
-    <mergeCell ref="A582:A585"/>
-    <mergeCell ref="B582:B585"/>
-    <mergeCell ref="A586:A589"/>
-    <mergeCell ref="B586:B589"/>
-    <mergeCell ref="A566:A569"/>
-    <mergeCell ref="B566:B569"/>
-    <mergeCell ref="A570:A573"/>
-    <mergeCell ref="B570:B573"/>
-    <mergeCell ref="A574:A577"/>
-    <mergeCell ref="B574:B577"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="C586:C589"/>
+    <mergeCell ref="E586:E589"/>
+    <mergeCell ref="C578:C581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="C582:C585"/>
+    <mergeCell ref="E582:E585"/>
+    <mergeCell ref="C570:C573"/>
+    <mergeCell ref="E570:E573"/>
+    <mergeCell ref="C574:C577"/>
+    <mergeCell ref="E574:E577"/>
+    <mergeCell ref="C562:C565"/>
+    <mergeCell ref="E562:E565"/>
+    <mergeCell ref="C566:C569"/>
+    <mergeCell ref="E566:E569"/>
+    <mergeCell ref="C554:C557"/>
+    <mergeCell ref="E554:E557"/>
+    <mergeCell ref="C558:C561"/>
+    <mergeCell ref="E558:E561"/>
+    <mergeCell ref="C546:C549"/>
+    <mergeCell ref="E546:E549"/>
+    <mergeCell ref="C550:C553"/>
+    <mergeCell ref="E550:E553"/>
+    <mergeCell ref="E458:E461"/>
+    <mergeCell ref="E462:E465"/>
+    <mergeCell ref="E466:E469"/>
+    <mergeCell ref="E434:E437"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="E410:E413"/>
+    <mergeCell ref="E414:E417"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="E442:E445"/>
+    <mergeCell ref="E446:E449"/>
+    <mergeCell ref="E450:E453"/>
+    <mergeCell ref="E454:E457"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="E338:E341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="E334:E337"/>
+    <mergeCell ref="E314:E317"/>
+    <mergeCell ref="E318:E321"/>
+    <mergeCell ref="E322:E325"/>
+    <mergeCell ref="E290:E293"/>
+    <mergeCell ref="E294:E297"/>
+    <mergeCell ref="E286:E289"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="E238:E241"/>
+    <mergeCell ref="E218:E221"/>
+    <mergeCell ref="E222:E225"/>
+    <mergeCell ref="E226:E229"/>
+    <mergeCell ref="E250:E253"/>
+    <mergeCell ref="E254:E257"/>
+    <mergeCell ref="E258:E261"/>
+    <mergeCell ref="E262:E265"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C458:C461"/>
+    <mergeCell ref="C462:C465"/>
+    <mergeCell ref="C466:C469"/>
+    <mergeCell ref="C430:C433"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="C438:C441"/>
+    <mergeCell ref="C442:C445"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C446:C449"/>
+    <mergeCell ref="C450:C453"/>
+    <mergeCell ref="C422:C425"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C454:C457"/>
+    <mergeCell ref="C394:C397"/>
+    <mergeCell ref="C358:C361"/>
+    <mergeCell ref="C362:C365"/>
+    <mergeCell ref="C366:C369"/>
+    <mergeCell ref="C370:C373"/>
+    <mergeCell ref="C334:C337"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C342:C345"/>
+    <mergeCell ref="C346:C349"/>
+    <mergeCell ref="C374:C377"/>
+    <mergeCell ref="C378:C381"/>
+    <mergeCell ref="C286:C289"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="C298:C301"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="C270:C273"/>
+    <mergeCell ref="C274:C277"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="C282:C285"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C258:C261"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B338" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
@@ -35223,45 +35283,132 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="H106:H109"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
     <mergeCell ref="E102:E105"/>
     <mergeCell ref="F102:F105"/>
     <mergeCell ref="E42:E45"/>
@@ -35286,132 +35433,45 @@
     <mergeCell ref="F86:F89"/>
     <mergeCell ref="F94:F97"/>
     <mergeCell ref="E54:E57"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="G106:G109"/>
-    <mergeCell ref="H106:H109"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="H98:H101"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C98:C101"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
@@ -35449,7 +35509,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H984"/>
+  <dimension ref="A1:H985"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35878,41 +35938,65 @@
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10"/>
+    <row r="27" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>908</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E27" s="31">
+        <v>2</v>
+      </c>
+      <c r="F27" s="31">
+        <v>14</v>
+      </c>
+      <c r="G27" s="31">
+        <v>46</v>
+      </c>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="36"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="30" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
@@ -35923,7 +36007,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11"/>
@@ -35932,7 +36016,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11"/>
@@ -35941,9 +36025,8 @@
       <c r="G33" s="11"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="22"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11"/>
       <c r="E34" s="10"/>
@@ -36021,7 +36104,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="22"/>
       <c r="C42" s="8"/>
@@ -36031,14 +36114,14 @@
       <c r="G42" s="11"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="22"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -36061,7 +36144,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="22"/>
       <c r="C46" s="8"/>
@@ -36071,7 +36154,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="22"/>
       <c r="C47" s="8"/>
@@ -36101,7 +36184,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="22"/>
       <c r="C50" s="8"/>
@@ -36111,7 +36194,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="22"/>
       <c r="C51" s="8"/>
@@ -36141,7 +36224,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="22"/>
       <c r="C54" s="8"/>
@@ -36151,7 +36234,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="22"/>
       <c r="C55" s="8"/>
@@ -36181,7 +36264,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="22"/>
       <c r="C58" s="8"/>
@@ -36191,7 +36274,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="22"/>
       <c r="C59" s="8"/>
@@ -36221,7 +36304,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="22"/>
       <c r="C62" s="8"/>
@@ -36231,7 +36314,7 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="22"/>
       <c r="C63" s="8"/>
@@ -36271,7 +36354,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="22"/>
       <c r="C67" s="8"/>
@@ -36281,7 +36364,7 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="22"/>
       <c r="C68" s="8"/>
@@ -36301,7 +36384,7 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="22"/>
       <c r="C70" s="8"/>
@@ -36311,7 +36394,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="22"/>
       <c r="C71" s="8"/>
@@ -36331,7 +36414,7 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="22"/>
       <c r="C73" s="8"/>
@@ -36341,7 +36424,7 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="22"/>
       <c r="C74" s="8"/>
@@ -36361,7 +36444,7 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="22"/>
       <c r="C76" s="8"/>
@@ -36371,7 +36454,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="22"/>
       <c r="C77" s="8"/>
@@ -36421,7 +36504,7 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="22"/>
       <c r="C82" s="8"/>
@@ -36431,7 +36514,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="22"/>
       <c r="C83" s="8"/>
@@ -36481,7 +36564,7 @@
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="22"/>
       <c r="C88" s="8"/>
@@ -36491,7 +36574,7 @@
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="22"/>
       <c r="C89" s="8"/>
@@ -36531,7 +36614,7 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="22"/>
       <c r="C93" s="8"/>
@@ -36541,7 +36624,7 @@
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="22"/>
       <c r="C94" s="8"/>
@@ -36571,7 +36654,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="22"/>
       <c r="C97" s="8"/>
@@ -36585,7 +36668,7 @@
       <c r="A98" s="17"/>
       <c r="B98" s="22"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="12"/>
+      <c r="D98" s="11"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
@@ -36601,7 +36684,7 @@
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="22"/>
       <c r="C100" s="8"/>
@@ -37231,7 +37314,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="22"/>
       <c r="C163" s="8"/>
@@ -37241,7 +37324,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="22"/>
       <c r="C164" s="8"/>
@@ -37381,9 +37464,11 @@
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="17"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="8"/>
+      <c r="D178" s="12"/>
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
@@ -37405,19 +37490,19 @@
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
     </row>
-    <row r="181" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
-      <c r="B181" s="22"/>
       <c r="C181" s="8"/>
-      <c r="D181" s="12"/>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="8"/>
+      <c r="D182" s="12"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
@@ -37447,19 +37532,19 @@
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
-      <c r="B186" s="22"/>
       <c r="C186" s="8"/>
-      <c r="D186" s="12"/>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="8"/>
+      <c r="D187" s="12"/>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
@@ -37481,19 +37566,19 @@
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
-      <c r="B190" s="22"/>
       <c r="C190" s="8"/>
-      <c r="D190" s="12"/>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="17"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="8"/>
+      <c r="D191" s="12"/>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
@@ -37515,25 +37600,25 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
-      <c r="B194" s="22"/>
       <c r="C194" s="8"/>
-      <c r="D194" s="12"/>
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="8"/>
+      <c r="D195" s="12"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="C196" s="8"/>
       <c r="E196" s="10"/>
@@ -37645,11 +37730,9 @@
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
     </row>
-    <row r="210" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
-      <c r="B210" s="22"/>
       <c r="C210" s="8"/>
-      <c r="D210" s="12"/>
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
       <c r="G210" s="10"/>
@@ -38015,7 +38098,7 @@
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
     </row>
-    <row r="247" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="22"/>
       <c r="C247" s="8"/>
@@ -38025,7 +38108,7 @@
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
     </row>
-    <row r="248" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="22"/>
       <c r="C248" s="8"/>
@@ -38055,7 +38138,7 @@
       <c r="G250" s="10"/>
       <c r="H250" s="10"/>
     </row>
-    <row r="251" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="17"/>
       <c r="B251" s="22"/>
       <c r="C251" s="8"/>
@@ -38065,7 +38148,7 @@
       <c r="G251" s="10"/>
       <c r="H251" s="10"/>
     </row>
-    <row r="252" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="22"/>
       <c r="C252" s="8"/>
@@ -38195,7 +38278,7 @@
       <c r="G264" s="10"/>
       <c r="H264" s="10"/>
     </row>
-    <row r="265" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="22"/>
       <c r="C265" s="8"/>
@@ -38205,7 +38288,7 @@
       <c r="G265" s="10"/>
       <c r="H265" s="10"/>
     </row>
-    <row r="266" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="22"/>
       <c r="C266" s="8"/>
@@ -38445,7 +38528,7 @@
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
     </row>
-    <row r="290" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
       <c r="B290" s="22"/>
       <c r="C290" s="8"/>
@@ -38455,7 +38538,7 @@
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="22"/>
       <c r="C291" s="8"/>
@@ -38505,7 +38588,7 @@
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="17"/>
       <c r="B296" s="22"/>
       <c r="C296" s="8"/>
@@ -38515,7 +38598,7 @@
       <c r="G296" s="10"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="22"/>
       <c r="C297" s="8"/>
@@ -38565,7 +38648,7 @@
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
     </row>
-    <row r="302" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="22"/>
       <c r="C302" s="8"/>
@@ -38575,7 +38658,7 @@
       <c r="G302" s="10"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="22"/>
       <c r="C303" s="8"/>
@@ -38625,7 +38708,7 @@
       <c r="G307" s="10"/>
       <c r="H307" s="10"/>
     </row>
-    <row r="308" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
       <c r="B308" s="22"/>
       <c r="C308" s="8"/>
@@ -38635,7 +38718,7 @@
       <c r="G308" s="10"/>
       <c r="H308" s="10"/>
     </row>
-    <row r="309" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="22"/>
       <c r="C309" s="8"/>
@@ -38825,7 +38908,7 @@
       <c r="G327" s="10"/>
       <c r="H327" s="10"/>
     </row>
-    <row r="328" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="17"/>
       <c r="B328" s="22"/>
       <c r="C328" s="8"/>
@@ -38835,7 +38918,7 @@
       <c r="G328" s="10"/>
       <c r="H328" s="10"/>
     </row>
-    <row r="329" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="17"/>
       <c r="B329" s="22"/>
       <c r="C329" s="8"/>
@@ -38875,7 +38958,7 @@
       <c r="G332" s="10"/>
       <c r="H332" s="10"/>
     </row>
-    <row r="333" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="17"/>
       <c r="B333" s="22"/>
       <c r="C333" s="8"/>
@@ -38885,7 +38968,7 @@
       <c r="G333" s="10"/>
       <c r="H333" s="10"/>
     </row>
-    <row r="334" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="17"/>
       <c r="B334" s="22"/>
       <c r="C334" s="8"/>
@@ -38915,7 +38998,7 @@
       <c r="G336" s="10"/>
       <c r="H336" s="10"/>
     </row>
-    <row r="337" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
       <c r="B337" s="22"/>
       <c r="C337" s="8"/>
@@ -38925,7 +39008,7 @@
       <c r="G337" s="10"/>
       <c r="H337" s="10"/>
     </row>
-    <row r="338" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
       <c r="B338" s="22"/>
       <c r="C338" s="8"/>
@@ -38965,7 +39048,7 @@
       <c r="G341" s="10"/>
       <c r="H341" s="10"/>
     </row>
-    <row r="342" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="17"/>
       <c r="B342" s="22"/>
       <c r="C342" s="8"/>
@@ -38975,7 +39058,7 @@
       <c r="G342" s="10"/>
       <c r="H342" s="10"/>
     </row>
-    <row r="343" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="17"/>
       <c r="B343" s="22"/>
       <c r="C343" s="8"/>
@@ -39005,7 +39088,7 @@
       <c r="G345" s="10"/>
       <c r="H345" s="10"/>
     </row>
-    <row r="346" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="17"/>
       <c r="B346" s="22"/>
       <c r="C346" s="8"/>
@@ -39015,7 +39098,7 @@
       <c r="G346" s="10"/>
       <c r="H346" s="10"/>
     </row>
-    <row r="347" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
       <c r="B347" s="22"/>
       <c r="C347" s="8"/>
@@ -39045,7 +39128,7 @@
       <c r="G349" s="10"/>
       <c r="H349" s="10"/>
     </row>
-    <row r="350" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="17"/>
       <c r="B350" s="22"/>
       <c r="C350" s="8"/>
@@ -39055,7 +39138,7 @@
       <c r="G350" s="10"/>
       <c r="H350" s="10"/>
     </row>
-    <row r="351" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
       <c r="B351" s="22"/>
       <c r="C351" s="8"/>
@@ -39085,7 +39168,7 @@
       <c r="G353" s="10"/>
       <c r="H353" s="10"/>
     </row>
-    <row r="354" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="17"/>
       <c r="B354" s="22"/>
       <c r="C354" s="8"/>
@@ -39095,7 +39178,7 @@
       <c r="G354" s="10"/>
       <c r="H354" s="10"/>
     </row>
-    <row r="355" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="17"/>
       <c r="B355" s="22"/>
       <c r="C355" s="8"/>
@@ -39115,7 +39198,7 @@
       <c r="G356" s="10"/>
       <c r="H356" s="10"/>
     </row>
-    <row r="357" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="17"/>
       <c r="B357" s="22"/>
       <c r="C357" s="8"/>
@@ -39125,7 +39208,7 @@
       <c r="G357" s="10"/>
       <c r="H357" s="10"/>
     </row>
-    <row r="358" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
       <c r="B358" s="22"/>
       <c r="C358" s="8"/>
@@ -39155,7 +39238,7 @@
       <c r="G360" s="10"/>
       <c r="H360" s="10"/>
     </row>
-    <row r="361" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
       <c r="B361" s="22"/>
       <c r="C361" s="8"/>
@@ -39165,7 +39248,7 @@
       <c r="G361" s="10"/>
       <c r="H361" s="10"/>
     </row>
-    <row r="362" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" s="22"/>
       <c r="C362" s="8"/>
@@ -39195,7 +39278,7 @@
       <c r="G364" s="10"/>
       <c r="H364" s="10"/>
     </row>
-    <row r="365" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="17"/>
       <c r="B365" s="22"/>
       <c r="C365" s="8"/>
@@ -39205,7 +39288,7 @@
       <c r="G365" s="10"/>
       <c r="H365" s="10"/>
     </row>
-    <row r="366" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="17"/>
       <c r="B366" s="22"/>
       <c r="C366" s="8"/>
@@ -39395,7 +39478,7 @@
       <c r="G384" s="10"/>
       <c r="H384" s="10"/>
     </row>
-    <row r="385" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="17"/>
       <c r="B385" s="22"/>
       <c r="C385" s="8"/>
@@ -39405,7 +39488,7 @@
       <c r="G385" s="10"/>
       <c r="H385" s="10"/>
     </row>
-    <row r="386" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="17"/>
       <c r="B386" s="22"/>
       <c r="C386" s="8"/>
@@ -39455,7 +39538,7 @@
       <c r="G390" s="10"/>
       <c r="H390" s="10"/>
     </row>
-    <row r="391" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="17"/>
       <c r="B391" s="22"/>
       <c r="C391" s="8"/>
@@ -39465,7 +39548,7 @@
       <c r="G391" s="10"/>
       <c r="H391" s="10"/>
     </row>
-    <row r="392" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
       <c r="B392" s="22"/>
       <c r="C392" s="8"/>
@@ -39515,7 +39598,7 @@
       <c r="G396" s="10"/>
       <c r="H396" s="10"/>
     </row>
-    <row r="397" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="17"/>
       <c r="B397" s="22"/>
       <c r="C397" s="8"/>
@@ -39525,7 +39608,7 @@
       <c r="G397" s="10"/>
       <c r="H397" s="10"/>
     </row>
-    <row r="398" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="17"/>
       <c r="B398" s="22"/>
       <c r="C398" s="8"/>
@@ -39575,7 +39658,7 @@
       <c r="G402" s="10"/>
       <c r="H402" s="10"/>
     </row>
-    <row r="403" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="17"/>
       <c r="B403" s="22"/>
       <c r="C403" s="8"/>
@@ -39585,7 +39668,7 @@
       <c r="G403" s="10"/>
       <c r="H403" s="10"/>
     </row>
-    <row r="404" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="17"/>
       <c r="B404" s="22"/>
       <c r="C404" s="8"/>
@@ -39615,7 +39698,7 @@
       <c r="G406" s="10"/>
       <c r="H406" s="10"/>
     </row>
-    <row r="407" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="17"/>
       <c r="B407" s="22"/>
       <c r="C407" s="8"/>
@@ -39625,7 +39708,7 @@
       <c r="G407" s="10"/>
       <c r="H407" s="10"/>
     </row>
-    <row r="408" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="17"/>
       <c r="B408" s="22"/>
       <c r="C408" s="8"/>
@@ -39665,7 +39748,7 @@
       <c r="G411" s="10"/>
       <c r="H411" s="10"/>
     </row>
-    <row r="412" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="17"/>
       <c r="B412" s="22"/>
       <c r="C412" s="8"/>
@@ -39675,7 +39758,7 @@
       <c r="G412" s="10"/>
       <c r="H412" s="10"/>
     </row>
-    <row r="413" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="17"/>
       <c r="B413" s="22"/>
       <c r="C413" s="8"/>
@@ -39695,7 +39778,7 @@
       <c r="G414" s="10"/>
       <c r="H414" s="10"/>
     </row>
-    <row r="415" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="17"/>
       <c r="B415" s="22"/>
       <c r="C415" s="8"/>
@@ -39705,7 +39788,7 @@
       <c r="G415" s="10"/>
       <c r="H415" s="10"/>
     </row>
-    <row r="416" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="17"/>
       <c r="B416" s="22"/>
       <c r="C416" s="8"/>
@@ -39825,7 +39908,7 @@
       <c r="G427" s="10"/>
       <c r="H427" s="10"/>
     </row>
-    <row r="428" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="17"/>
       <c r="B428" s="22"/>
       <c r="C428" s="8"/>
@@ -39835,7 +39918,7 @@
       <c r="G428" s="10"/>
       <c r="H428" s="10"/>
     </row>
-    <row r="429" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="17"/>
       <c r="B429" s="22"/>
       <c r="C429" s="8"/>
@@ -39965,7 +40048,7 @@
       <c r="G441" s="10"/>
       <c r="H441" s="10"/>
     </row>
-    <row r="442" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="17"/>
       <c r="B442" s="22"/>
       <c r="C442" s="8"/>
@@ -39975,7 +40058,7 @@
       <c r="G442" s="10"/>
       <c r="H442" s="10"/>
     </row>
-    <row r="443" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="17"/>
       <c r="B443" s="22"/>
       <c r="C443" s="8"/>
@@ -39995,7 +40078,7 @@
       <c r="G444" s="10"/>
       <c r="H444" s="10"/>
     </row>
-    <row r="445" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="17"/>
       <c r="B445" s="22"/>
       <c r="C445" s="8"/>
@@ -40005,7 +40088,7 @@
       <c r="G445" s="10"/>
       <c r="H445" s="10"/>
     </row>
-    <row r="446" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="17"/>
       <c r="B446" s="22"/>
       <c r="C446" s="8"/>
@@ -40035,7 +40118,7 @@
       <c r="G448" s="10"/>
       <c r="H448" s="10"/>
     </row>
-    <row r="449" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A449" s="17"/>
       <c r="B449" s="22"/>
       <c r="C449" s="8"/>
@@ -40045,7 +40128,7 @@
       <c r="G449" s="10"/>
       <c r="H449" s="10"/>
     </row>
-    <row r="450" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="17"/>
       <c r="B450" s="22"/>
       <c r="C450" s="8"/>
@@ -40085,7 +40168,7 @@
       <c r="G453" s="10"/>
       <c r="H453" s="10"/>
     </row>
-    <row r="454" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="17"/>
       <c r="B454" s="22"/>
       <c r="C454" s="8"/>
@@ -40095,7 +40178,7 @@
       <c r="G454" s="10"/>
       <c r="H454" s="10"/>
     </row>
-    <row r="455" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="17"/>
       <c r="B455" s="22"/>
       <c r="C455" s="8"/>
@@ -40145,7 +40228,7 @@
       <c r="G459" s="10"/>
       <c r="H459" s="10"/>
     </row>
-    <row r="460" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="17"/>
       <c r="B460" s="22"/>
       <c r="C460" s="8"/>
@@ -40155,7 +40238,7 @@
       <c r="G460" s="10"/>
       <c r="H460" s="10"/>
     </row>
-    <row r="461" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="17"/>
       <c r="B461" s="22"/>
       <c r="C461" s="8"/>
@@ -40205,9 +40288,11 @@
       <c r="G465" s="10"/>
       <c r="H465" s="10"/>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" s="17"/>
+      <c r="B466" s="22"/>
       <c r="C466" s="8"/>
+      <c r="D466" s="12"/>
       <c r="E466" s="10"/>
       <c r="F466" s="10"/>
       <c r="G466" s="10"/>
@@ -40229,7 +40314,7 @@
       <c r="G468" s="10"/>
       <c r="H468" s="10"/>
     </row>
-    <row r="469" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="17"/>
       <c r="C469" s="8"/>
       <c r="E469" s="10"/>
@@ -40237,7 +40322,7 @@
       <c r="G469" s="10"/>
       <c r="H469" s="10"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="17"/>
       <c r="C470" s="8"/>
       <c r="E470" s="10"/>
@@ -40317,11 +40402,9 @@
       <c r="G479" s="10"/>
       <c r="H479" s="10"/>
     </row>
-    <row r="480" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="17"/>
-      <c r="B480" s="22"/>
       <c r="C480" s="8"/>
-      <c r="D480" s="12"/>
       <c r="E480" s="10"/>
       <c r="F480" s="10"/>
       <c r="G480" s="10"/>
@@ -40367,9 +40450,11 @@
       <c r="G484" s="10"/>
       <c r="H484" s="10"/>
     </row>
-    <row r="485" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="17"/>
+      <c r="B485" s="22"/>
       <c r="C485" s="8"/>
+      <c r="D485" s="12"/>
       <c r="E485" s="10"/>
       <c r="F485" s="10"/>
       <c r="G485" s="10"/>
@@ -40383,7 +40468,7 @@
       <c r="G486" s="10"/>
       <c r="H486" s="10"/>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="17"/>
       <c r="C487" s="8"/>
       <c r="E487" s="10"/>
@@ -40415,7 +40500,7 @@
       <c r="G490" s="10"/>
       <c r="H490" s="10"/>
     </row>
-    <row r="491" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="17"/>
       <c r="C491" s="8"/>
       <c r="E491" s="10"/>
@@ -40431,11 +40516,9 @@
       <c r="G492" s="10"/>
       <c r="H492" s="10"/>
     </row>
-    <row r="493" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="17"/>
-      <c r="B493" s="22"/>
       <c r="C493" s="8"/>
-      <c r="D493" s="12"/>
       <c r="E493" s="10"/>
       <c r="F493" s="10"/>
       <c r="G493" s="10"/>
@@ -40481,7 +40564,7 @@
       <c r="G497" s="10"/>
       <c r="H497" s="10"/>
     </row>
-    <row r="498" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="17"/>
       <c r="B498" s="22"/>
       <c r="C498" s="8"/>
@@ -40501,7 +40584,7 @@
       <c r="G499" s="10"/>
       <c r="H499" s="10"/>
     </row>
-    <row r="500" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="17"/>
       <c r="B500" s="22"/>
       <c r="C500" s="8"/>
@@ -40551,7 +40634,7 @@
       <c r="G504" s="10"/>
       <c r="H504" s="10"/>
     </row>
-    <row r="505" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="17"/>
       <c r="B505" s="22"/>
       <c r="C505" s="8"/>
@@ -40571,7 +40654,7 @@
       <c r="G506" s="10"/>
       <c r="H506" s="10"/>
     </row>
-    <row r="507" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="17"/>
       <c r="B507" s="22"/>
       <c r="C507" s="8"/>
@@ -40591,9 +40674,11 @@
       <c r="G508" s="10"/>
       <c r="H508" s="10"/>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="17"/>
+      <c r="B509" s="22"/>
       <c r="C509" s="8"/>
+      <c r="D509" s="12"/>
       <c r="E509" s="10"/>
       <c r="F509" s="10"/>
       <c r="G509" s="10"/>
@@ -40611,16 +40696,14 @@
       <c r="A511" s="17"/>
       <c r="C511" s="8"/>
       <c r="E511" s="10"/>
-    </row>
-    <row r="512" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F511" s="10"/>
+      <c r="G511" s="10"/>
+      <c r="H511" s="10"/>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="17"/>
-      <c r="B512" s="22"/>
       <c r="C512" s="8"/>
-      <c r="D512" s="12"/>
       <c r="E512" s="10"/>
-      <c r="F512" s="23"/>
-      <c r="G512" s="23"/>
-      <c r="H512" s="23"/>
     </row>
     <row r="513" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A513" s="17"/>
@@ -40765,9 +40848,9 @@
     <row r="527" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="17"/>
       <c r="B527" s="22"/>
-      <c r="C527" s="17"/>
+      <c r="C527" s="8"/>
       <c r="D527" s="12"/>
-      <c r="E527" s="6"/>
+      <c r="E527" s="10"/>
       <c r="F527" s="23"/>
       <c r="G527" s="23"/>
       <c r="H527" s="23"/>
@@ -40872,8 +40955,15 @@
       <c r="G537" s="23"/>
       <c r="H537" s="23"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="17"/>
+      <c r="B538" s="22"/>
       <c r="C538" s="17"/>
+      <c r="D538" s="12"/>
+      <c r="E538" s="6"/>
+      <c r="F538" s="23"/>
+      <c r="G538" s="23"/>
+      <c r="H538" s="23"/>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C539" s="17"/>
@@ -41096,12 +41186,12 @@
     </row>
     <row r="612" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C612" s="17"/>
-      <c r="F612" s="20"/>
-      <c r="G612" s="20"/>
-      <c r="H612" s="20"/>
     </row>
     <row r="613" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C613" s="17"/>
+      <c r="F613" s="20"/>
+      <c r="G613" s="20"/>
+      <c r="H613" s="20"/>
     </row>
     <row r="614" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C614" s="17"/>
@@ -41114,12 +41204,12 @@
     </row>
     <row r="617" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C617" s="17"/>
-      <c r="F617" s="20"/>
-      <c r="G617" s="20"/>
-      <c r="H617" s="20"/>
     </row>
     <row r="618" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C618" s="17"/>
+      <c r="F618" s="20"/>
+      <c r="G618" s="20"/>
+      <c r="H618" s="20"/>
     </row>
     <row r="619" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C619" s="17"/>
@@ -41129,12 +41219,12 @@
     </row>
     <row r="621" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C621" s="17"/>
-      <c r="F621" s="20"/>
-      <c r="G621" s="20"/>
-      <c r="H621" s="20"/>
     </row>
     <row r="622" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C622" s="17"/>
+      <c r="F622" s="20"/>
+      <c r="G622" s="20"/>
+      <c r="H622" s="20"/>
     </row>
     <row r="623" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C623" s="17"/>
@@ -41144,12 +41234,12 @@
     </row>
     <row r="625" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C625" s="17"/>
-      <c r="F625" s="20"/>
-      <c r="G625" s="20"/>
-      <c r="H625" s="20"/>
     </row>
     <row r="626" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C626" s="17"/>
+      <c r="F626" s="20"/>
+      <c r="G626" s="20"/>
+      <c r="H626" s="20"/>
     </row>
     <row r="627" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C627" s="17"/>
@@ -42053,9 +42143,6 @@
     </row>
     <row r="927" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C927" s="17"/>
-      <c r="F927" s="20"/>
-      <c r="G927" s="20"/>
-      <c r="H927" s="20"/>
     </row>
     <row r="928" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C928" s="17"/>
@@ -42083,6 +42170,9 @@
     </row>
     <row r="932" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C932" s="17"/>
+      <c r="F932" s="20"/>
+      <c r="G932" s="20"/>
+      <c r="H932" s="20"/>
     </row>
     <row r="933" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C933" s="17"/>
@@ -42164,9 +42254,6 @@
     </row>
     <row r="959" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C959" s="17"/>
-      <c r="F959" s="20"/>
-      <c r="G959" s="20"/>
-      <c r="H959" s="20"/>
     </row>
     <row r="960" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C960" s="17"/>
@@ -42318,15 +42405,48 @@
       <c r="G984" s="20"/>
       <c r="H984" s="20"/>
     </row>
+    <row r="985" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C985" s="17"/>
+      <c r="F985" s="20"/>
+      <c r="G985" s="20"/>
+      <c r="H985" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
+  <mergeCells count="56">
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="E2:E5"/>
@@ -42335,40 +42455,20 @@
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
@@ -42378,9 +42478,10 @@
     <hyperlink ref="B17" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
     <hyperlink ref="B21" r:id="rId6" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
     <hyperlink ref="B24" r:id="rId7" xr:uid="{27070DC6-AEE4-47A9-9A51-29E4F0129F32}"/>
+    <hyperlink ref="B27" r:id="rId8" xr:uid="{691A41F7-ACF0-4C5D-A465-8E73213B05E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -49590,32 +49691,62 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="E50:E53"/>
     <mergeCell ref="F50:F53"/>
     <mergeCell ref="E2:E4"/>
@@ -49632,62 +49763,32 @@
     <mergeCell ref="F34:F37"/>
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="F38:F41"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
@@ -49712,7 +49813,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92451CB6-EDEA-417B-8ECC-70E9B27159DF}">
-  <dimension ref="A1:H1003"/>
+  <dimension ref="A1:H1011"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49817,7 +49918,7 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>909</v>
       </c>
@@ -49877,27 +49978,27 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>477</v>
+        <v>1458</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>476</v>
+        <v>1457</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>713</v>
+        <v>1463</v>
       </c>
       <c r="E10" s="31">
         <v>4</v>
       </c>
       <c r="F10" s="31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="31">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="31"/>
     </row>
@@ -49906,103 +50007,160 @@
       <c r="B11" s="38"/>
       <c r="C11" s="35"/>
       <c r="D11" s="8" t="s">
-        <v>714</v>
+        <v>1464</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="30" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="30" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>904</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E14" s="31">
+        <v>4</v>
+      </c>
+      <c r="F14" s="31">
+        <v>14</v>
+      </c>
+      <c r="G14" s="31">
+        <v>35</v>
+      </c>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="30" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>904</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E16" s="31">
+        <v>4</v>
+      </c>
+      <c r="F16" s="31">
+        <v>12</v>
+      </c>
+      <c r="G16" s="31">
+        <v>34</v>
+      </c>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="36"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="30" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>905</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="E18" s="31">
+        <v>4</v>
+      </c>
+      <c r="F18" s="31">
+        <v>19</v>
+      </c>
+      <c r="G18" s="31">
+        <v>55</v>
+      </c>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="36"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="30" t="s">
         <v>715</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11"/>
       <c r="E21" s="10"/>
@@ -50011,7 +50169,8 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11"/>
       <c r="E22" s="10"/>
@@ -50020,7 +50179,8 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11"/>
       <c r="E23" s="10"/>
@@ -50029,7 +50189,8 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11"/>
       <c r="E24" s="10"/>
@@ -50046,7 +50207,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11"/>
@@ -50064,9 +50225,8 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="10"/>
@@ -50074,9 +50234,8 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="12"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11"/>
       <c r="E29" s="10"/>
@@ -50084,9 +50243,8 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
-      <c r="B30" s="12"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11"/>
       <c r="E30" s="10"/>
@@ -50094,9 +50252,8 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="12"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11"/>
       <c r="E31" s="10"/>
@@ -50104,9 +50261,8 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="12"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11"/>
       <c r="E32" s="10"/>
@@ -50114,9 +50270,8 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="12"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11"/>
       <c r="E33" s="10"/>
@@ -50124,9 +50279,8 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
-      <c r="B34" s="12"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11"/>
       <c r="E34" s="10"/>
@@ -50134,9 +50288,8 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="12"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11"/>
       <c r="E35" s="10"/>
@@ -50144,7 +50297,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="12"/>
       <c r="C36" s="8"/>
@@ -50184,7 +50337,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="12"/>
       <c r="C40" s="8"/>
@@ -50384,7 +50537,7 @@
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="12"/>
       <c r="C60" s="8"/>
@@ -50394,7 +50547,7 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="12"/>
       <c r="C61" s="8"/>
@@ -50454,7 +50607,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="12"/>
       <c r="C67" s="8"/>
@@ -50474,7 +50627,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="12"/>
       <c r="C69" s="8"/>
@@ -50484,7 +50637,7 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="12"/>
       <c r="C70" s="8"/>
@@ -50504,7 +50657,7 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="12"/>
       <c r="C72" s="8"/>
@@ -50534,7 +50687,7 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="12"/>
       <c r="C75" s="8"/>
@@ -50544,7 +50697,7 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="12"/>
       <c r="C76" s="8"/>
@@ -50564,7 +50717,7 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="12"/>
       <c r="C78" s="8"/>
@@ -50604,7 +50757,7 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="12"/>
       <c r="C82" s="8"/>
@@ -50624,11 +50777,11 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
       <c r="B84" s="12"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="12"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -50638,7 +50791,7 @@
       <c r="A85" s="9"/>
       <c r="B85" s="12"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="12"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
@@ -50648,17 +50801,17 @@
       <c r="A86" s="9"/>
       <c r="B86" s="12"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="12"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="12"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="12"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -50668,7 +50821,7 @@
       <c r="A88" s="9"/>
       <c r="B88" s="12"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="12"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
@@ -50678,17 +50831,17 @@
       <c r="A89" s="9"/>
       <c r="B89" s="12"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="12"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
       <c r="B90" s="12"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="12"/>
+      <c r="D90" s="11"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
@@ -50698,7 +50851,7 @@
       <c r="A91" s="9"/>
       <c r="B91" s="12"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="12"/>
+      <c r="D91" s="11"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
@@ -50734,7 +50887,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="12"/>
       <c r="C95" s="8"/>
@@ -51354,7 +51507,7 @@
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
     </row>
-    <row r="157" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
       <c r="B157" s="12"/>
       <c r="C157" s="8"/>
@@ -51434,7 +51587,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="12"/>
       <c r="C165" s="8"/>
@@ -51504,31 +51657,37 @@
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
+      <c r="B172" s="12"/>
       <c r="C172" s="8"/>
+      <c r="D172" s="12"/>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
+      <c r="B173" s="12"/>
       <c r="C173" s="8"/>
+      <c r="D173" s="12"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9"/>
+      <c r="B174" s="12"/>
       <c r="C174" s="8"/>
+      <c r="D174" s="12"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
     </row>
-    <row r="175" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
       <c r="B175" s="12"/>
       <c r="C175" s="8"/>
@@ -51538,43 +51697,49 @@
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
+      <c r="B176" s="12"/>
       <c r="C176" s="8"/>
+      <c r="D176" s="12"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9"/>
+      <c r="B177" s="12"/>
       <c r="C177" s="8"/>
+      <c r="D177" s="12"/>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
+      <c r="B178" s="12"/>
       <c r="C178" s="8"/>
+      <c r="D178" s="12"/>
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9"/>
+      <c r="B179" s="12"/>
       <c r="C179" s="8"/>
+      <c r="D179" s="12"/>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
     </row>
-    <row r="180" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
-      <c r="B180" s="12"/>
       <c r="C180" s="8"/>
-      <c r="D180" s="12"/>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
@@ -51596,19 +51761,19 @@
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
+      <c r="B183" s="12"/>
       <c r="C183" s="8"/>
+      <c r="D183" s="12"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="9"/>
-      <c r="B184" s="12"/>
       <c r="C184" s="8"/>
-      <c r="D184" s="12"/>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
@@ -51648,7 +51813,7 @@
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="9"/>
       <c r="C189" s="8"/>
       <c r="E189" s="10"/>
@@ -51672,9 +51837,11 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9"/>
+      <c r="B192" s="12"/>
       <c r="C192" s="8"/>
+      <c r="D192" s="12"/>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
@@ -51704,15 +51871,17 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9"/>
+      <c r="B196" s="12"/>
       <c r="C196" s="8"/>
+      <c r="D196" s="12"/>
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9"/>
       <c r="C197" s="8"/>
       <c r="E197" s="10"/>
@@ -51768,81 +51937,65 @@
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="9"/>
-      <c r="B204" s="12"/>
       <c r="C204" s="8"/>
-      <c r="D204" s="12"/>
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="9"/>
-      <c r="B205" s="12"/>
       <c r="C205" s="8"/>
-      <c r="D205" s="12"/>
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="9"/>
-      <c r="B206" s="12"/>
       <c r="C206" s="8"/>
-      <c r="D206" s="12"/>
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
     </row>
-    <row r="207" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
-      <c r="B207" s="12"/>
       <c r="C207" s="8"/>
-      <c r="D207" s="12"/>
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
-      <c r="B208" s="12"/>
       <c r="C208" s="8"/>
-      <c r="D208" s="12"/>
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
     </row>
-    <row r="209" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="9"/>
-      <c r="B209" s="12"/>
       <c r="C209" s="8"/>
-      <c r="D209" s="12"/>
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
     </row>
-    <row r="210" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="9"/>
-      <c r="B210" s="12"/>
       <c r="C210" s="8"/>
-      <c r="D210" s="12"/>
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="9"/>
-      <c r="B211" s="12"/>
       <c r="C211" s="8"/>
-      <c r="D211" s="12"/>
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
       <c r="G211" s="10"/>
@@ -52138,7 +52291,7 @@
       <c r="G240" s="10"/>
       <c r="H240" s="10"/>
     </row>
-    <row r="241" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="9"/>
       <c r="B241" s="12"/>
       <c r="C241" s="8"/>
@@ -52178,7 +52331,7 @@
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
     </row>
-    <row r="245" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="9"/>
       <c r="B245" s="12"/>
       <c r="C245" s="8"/>
@@ -52218,7 +52371,7 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
       <c r="B249" s="12"/>
       <c r="C249" s="8"/>
@@ -52258,7 +52411,7 @@
       <c r="G252" s="10"/>
       <c r="H252" s="10"/>
     </row>
-    <row r="253" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="9"/>
       <c r="B253" s="12"/>
       <c r="C253" s="8"/>
@@ -52318,7 +52471,7 @@
       <c r="G258" s="10"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
       <c r="B259" s="12"/>
       <c r="C259" s="8"/>
@@ -52398,7 +52551,7 @@
       <c r="G266" s="10"/>
       <c r="H266" s="10"/>
     </row>
-    <row r="267" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="9"/>
       <c r="B267" s="12"/>
       <c r="C267" s="8"/>
@@ -52568,7 +52721,7 @@
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
     </row>
-    <row r="284" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
       <c r="B284" s="12"/>
       <c r="C284" s="8"/>
@@ -52628,7 +52781,7 @@
       <c r="G289" s="10"/>
       <c r="H289" s="10"/>
     </row>
-    <row r="290" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="9"/>
       <c r="B290" s="12"/>
       <c r="C290" s="8"/>
@@ -52648,7 +52801,7 @@
       <c r="G291" s="10"/>
       <c r="H291" s="10"/>
     </row>
-    <row r="292" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="9"/>
       <c r="B292" s="12"/>
       <c r="C292" s="8"/>
@@ -52688,7 +52841,7 @@
       <c r="G295" s="10"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="9"/>
       <c r="B296" s="12"/>
       <c r="C296" s="8"/>
@@ -52708,7 +52861,7 @@
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
       <c r="B298" s="12"/>
       <c r="C298" s="8"/>
@@ -52748,7 +52901,7 @@
       <c r="G301" s="10"/>
       <c r="H301" s="10"/>
     </row>
-    <row r="302" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="9"/>
       <c r="B302" s="12"/>
       <c r="C302" s="8"/>
@@ -52768,7 +52921,7 @@
       <c r="G303" s="10"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="9"/>
       <c r="B304" s="12"/>
       <c r="C304" s="8"/>
@@ -52828,7 +52981,7 @@
       <c r="G309" s="10"/>
       <c r="H309" s="10"/>
     </row>
-    <row r="310" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="9"/>
       <c r="B310" s="12"/>
       <c r="C310" s="8"/>
@@ -52948,7 +53101,7 @@
       <c r="G321" s="10"/>
       <c r="H321" s="10"/>
     </row>
-    <row r="322" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="9"/>
       <c r="B322" s="12"/>
       <c r="C322" s="8"/>
@@ -52998,7 +53151,7 @@
       <c r="G326" s="10"/>
       <c r="H326" s="10"/>
     </row>
-    <row r="327" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="9"/>
       <c r="B327" s="12"/>
       <c r="C327" s="8"/>
@@ -53028,7 +53181,7 @@
       <c r="G329" s="10"/>
       <c r="H329" s="10"/>
     </row>
-    <row r="330" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="9"/>
       <c r="B330" s="12"/>
       <c r="C330" s="8"/>
@@ -53038,7 +53191,7 @@
       <c r="G330" s="10"/>
       <c r="H330" s="10"/>
     </row>
-    <row r="331" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="9"/>
       <c r="B331" s="12"/>
       <c r="C331" s="8"/>
@@ -53078,7 +53231,7 @@
       <c r="G334" s="10"/>
       <c r="H334" s="10"/>
     </row>
-    <row r="335" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="9"/>
       <c r="B335" s="12"/>
       <c r="C335" s="8"/>
@@ -53088,7 +53241,7 @@
       <c r="G335" s="10"/>
       <c r="H335" s="10"/>
     </row>
-    <row r="336" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="9"/>
       <c r="B336" s="12"/>
       <c r="C336" s="8"/>
@@ -53118,7 +53271,7 @@
       <c r="G338" s="10"/>
       <c r="H338" s="10"/>
     </row>
-    <row r="339" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="9"/>
       <c r="B339" s="12"/>
       <c r="C339" s="8"/>
@@ -53128,7 +53281,7 @@
       <c r="G339" s="10"/>
       <c r="H339" s="10"/>
     </row>
-    <row r="340" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="9"/>
       <c r="B340" s="12"/>
       <c r="C340" s="8"/>
@@ -53238,7 +53391,7 @@
       <c r="G350" s="10"/>
       <c r="H350" s="10"/>
     </row>
-    <row r="351" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="9"/>
       <c r="B351" s="12"/>
       <c r="C351" s="8"/>
@@ -53248,7 +53401,7 @@
       <c r="G351" s="10"/>
       <c r="H351" s="10"/>
     </row>
-    <row r="352" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="9"/>
       <c r="B352" s="12"/>
       <c r="C352" s="8"/>
@@ -53278,7 +53431,7 @@
       <c r="G354" s="10"/>
       <c r="H354" s="10"/>
     </row>
-    <row r="355" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="9"/>
       <c r="B355" s="12"/>
       <c r="C355" s="8"/>
@@ -53288,7 +53441,7 @@
       <c r="G355" s="10"/>
       <c r="H355" s="10"/>
     </row>
-    <row r="356" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="9"/>
       <c r="B356" s="12"/>
       <c r="C356" s="8"/>
@@ -53358,7 +53511,7 @@
       <c r="G362" s="10"/>
       <c r="H362" s="10"/>
     </row>
-    <row r="363" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="9"/>
       <c r="B363" s="12"/>
       <c r="C363" s="8"/>
@@ -53398,7 +53551,7 @@
       <c r="G366" s="10"/>
       <c r="H366" s="10"/>
     </row>
-    <row r="367" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="9"/>
       <c r="B367" s="12"/>
       <c r="C367" s="8"/>
@@ -53518,7 +53671,7 @@
       <c r="G378" s="10"/>
       <c r="H378" s="10"/>
     </row>
-    <row r="379" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="9"/>
       <c r="B379" s="12"/>
       <c r="C379" s="8"/>
@@ -53578,7 +53731,7 @@
       <c r="G384" s="10"/>
       <c r="H384" s="10"/>
     </row>
-    <row r="385" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9"/>
       <c r="B385" s="12"/>
       <c r="C385" s="8"/>
@@ -53598,7 +53751,7 @@
       <c r="G386" s="10"/>
       <c r="H386" s="10"/>
     </row>
-    <row r="387" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="9"/>
       <c r="B387" s="12"/>
       <c r="C387" s="8"/>
@@ -53638,7 +53791,7 @@
       <c r="G390" s="10"/>
       <c r="H390" s="10"/>
     </row>
-    <row r="391" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="9"/>
       <c r="B391" s="12"/>
       <c r="C391" s="8"/>
@@ -53658,7 +53811,7 @@
       <c r="G392" s="10"/>
       <c r="H392" s="10"/>
     </row>
-    <row r="393" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="9"/>
       <c r="B393" s="12"/>
       <c r="C393" s="8"/>
@@ -53698,7 +53851,7 @@
       <c r="G396" s="10"/>
       <c r="H396" s="10"/>
     </row>
-    <row r="397" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9"/>
       <c r="B397" s="12"/>
       <c r="C397" s="8"/>
@@ -53718,7 +53871,7 @@
       <c r="G398" s="10"/>
       <c r="H398" s="10"/>
     </row>
-    <row r="399" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9"/>
       <c r="B399" s="12"/>
       <c r="C399" s="8"/>
@@ -53738,7 +53891,7 @@
       <c r="G400" s="10"/>
       <c r="H400" s="10"/>
     </row>
-    <row r="401" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="9"/>
       <c r="B401" s="12"/>
       <c r="C401" s="8"/>
@@ -53778,7 +53931,7 @@
       <c r="G404" s="10"/>
       <c r="H404" s="10"/>
     </row>
-    <row r="405" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9"/>
       <c r="B405" s="12"/>
       <c r="C405" s="8"/>
@@ -53788,7 +53941,7 @@
       <c r="G405" s="10"/>
       <c r="H405" s="10"/>
     </row>
-    <row r="406" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9"/>
       <c r="B406" s="12"/>
       <c r="C406" s="8"/>
@@ -53868,7 +54021,7 @@
       <c r="G413" s="10"/>
       <c r="H413" s="10"/>
     </row>
-    <row r="414" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="9"/>
       <c r="B414" s="12"/>
       <c r="C414" s="8"/>
@@ -53898,7 +54051,7 @@
       <c r="G416" s="10"/>
       <c r="H416" s="10"/>
     </row>
-    <row r="417" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="9"/>
       <c r="B417" s="12"/>
       <c r="C417" s="8"/>
@@ -53948,7 +54101,7 @@
       <c r="G421" s="10"/>
       <c r="H421" s="10"/>
     </row>
-    <row r="422" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="9"/>
       <c r="B422" s="12"/>
       <c r="C422" s="8"/>
@@ -54028,7 +54181,7 @@
       <c r="G429" s="10"/>
       <c r="H429" s="10"/>
     </row>
-    <row r="430" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="9"/>
       <c r="B430" s="12"/>
       <c r="C430" s="8"/>
@@ -54088,7 +54241,7 @@
       <c r="G435" s="10"/>
       <c r="H435" s="10"/>
     </row>
-    <row r="436" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="9"/>
       <c r="B436" s="12"/>
       <c r="C436" s="8"/>
@@ -54118,7 +54271,7 @@
       <c r="G438" s="10"/>
       <c r="H438" s="10"/>
     </row>
-    <row r="439" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="9"/>
       <c r="B439" s="12"/>
       <c r="C439" s="8"/>
@@ -54158,7 +54311,7 @@
       <c r="G442" s="10"/>
       <c r="H442" s="10"/>
     </row>
-    <row r="443" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="9"/>
       <c r="B443" s="12"/>
       <c r="C443" s="8"/>
@@ -54168,7 +54321,7 @@
       <c r="G443" s="10"/>
       <c r="H443" s="10"/>
     </row>
-    <row r="444" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="9"/>
       <c r="B444" s="12"/>
       <c r="C444" s="8"/>
@@ -54198,7 +54351,7 @@
       <c r="G446" s="10"/>
       <c r="H446" s="10"/>
     </row>
-    <row r="447" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="9"/>
       <c r="B447" s="12"/>
       <c r="C447" s="8"/>
@@ -54208,7 +54361,7 @@
       <c r="G447" s="10"/>
       <c r="H447" s="10"/>
     </row>
-    <row r="448" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" s="9"/>
       <c r="B448" s="12"/>
       <c r="C448" s="8"/>
@@ -54238,7 +54391,7 @@
       <c r="G450" s="10"/>
       <c r="H450" s="10"/>
     </row>
-    <row r="451" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="9"/>
       <c r="B451" s="12"/>
       <c r="C451" s="8"/>
@@ -54268,7 +54421,7 @@
       <c r="G453" s="10"/>
       <c r="H453" s="10"/>
     </row>
-    <row r="454" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="9"/>
       <c r="B454" s="12"/>
       <c r="C454" s="8"/>
@@ -54288,7 +54441,7 @@
       <c r="G455" s="10"/>
       <c r="H455" s="10"/>
     </row>
-    <row r="456" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="9"/>
       <c r="B456" s="12"/>
       <c r="C456" s="8"/>
@@ -54328,65 +54481,81 @@
       <c r="G459" s="10"/>
       <c r="H459" s="10"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="9"/>
+      <c r="B460" s="12"/>
       <c r="C460" s="8"/>
+      <c r="D460" s="12"/>
       <c r="E460" s="10"/>
       <c r="F460" s="10"/>
       <c r="G460" s="10"/>
       <c r="H460" s="10"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A461" s="9"/>
+      <c r="B461" s="12"/>
       <c r="C461" s="8"/>
+      <c r="D461" s="12"/>
       <c r="E461" s="10"/>
       <c r="F461" s="10"/>
       <c r="G461" s="10"/>
       <c r="H461" s="10"/>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="9"/>
+      <c r="B462" s="12"/>
       <c r="C462" s="8"/>
+      <c r="D462" s="12"/>
       <c r="E462" s="10"/>
       <c r="F462" s="10"/>
       <c r="G462" s="10"/>
       <c r="H462" s="10"/>
     </row>
-    <row r="463" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A463" s="9"/>
+      <c r="B463" s="12"/>
       <c r="C463" s="8"/>
+      <c r="D463" s="12"/>
       <c r="E463" s="10"/>
       <c r="F463" s="10"/>
       <c r="G463" s="10"/>
       <c r="H463" s="10"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="9"/>
+      <c r="B464" s="12"/>
       <c r="C464" s="8"/>
+      <c r="D464" s="12"/>
       <c r="E464" s="10"/>
       <c r="F464" s="10"/>
       <c r="G464" s="10"/>
       <c r="H464" s="10"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A465" s="9"/>
+      <c r="B465" s="12"/>
       <c r="C465" s="8"/>
+      <c r="D465" s="12"/>
       <c r="E465" s="10"/>
       <c r="F465" s="10"/>
       <c r="G465" s="10"/>
       <c r="H465" s="10"/>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" s="9"/>
+      <c r="B466" s="12"/>
       <c r="C466" s="8"/>
+      <c r="D466" s="12"/>
       <c r="E466" s="10"/>
       <c r="F466" s="10"/>
       <c r="G466" s="10"/>
       <c r="H466" s="10"/>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" s="9"/>
+      <c r="B467" s="12"/>
       <c r="C467" s="8"/>
+      <c r="D467" s="12"/>
       <c r="E467" s="10"/>
       <c r="F467" s="10"/>
       <c r="G467" s="10"/>
@@ -54416,7 +54585,7 @@
       <c r="G470" s="10"/>
       <c r="H470" s="10"/>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="9"/>
       <c r="C471" s="8"/>
       <c r="E471" s="10"/>
@@ -54440,57 +54609,47 @@
       <c r="G473" s="10"/>
       <c r="H473" s="10"/>
     </row>
-    <row r="474" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="9"/>
-      <c r="B474" s="12"/>
       <c r="C474" s="8"/>
-      <c r="D474" s="12"/>
       <c r="E474" s="10"/>
       <c r="F474" s="10"/>
       <c r="G474" s="10"/>
       <c r="H474" s="10"/>
     </row>
-    <row r="475" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="9"/>
-      <c r="B475" s="12"/>
       <c r="C475" s="8"/>
-      <c r="D475" s="12"/>
       <c r="E475" s="10"/>
       <c r="F475" s="10"/>
       <c r="G475" s="10"/>
       <c r="H475" s="10"/>
     </row>
-    <row r="476" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="9"/>
-      <c r="B476" s="12"/>
       <c r="C476" s="8"/>
-      <c r="D476" s="12"/>
       <c r="E476" s="10"/>
       <c r="F476" s="10"/>
       <c r="G476" s="10"/>
       <c r="H476" s="10"/>
     </row>
-    <row r="477" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="9"/>
-      <c r="B477" s="12"/>
       <c r="C477" s="8"/>
-      <c r="D477" s="12"/>
       <c r="E477" s="10"/>
       <c r="F477" s="10"/>
       <c r="G477" s="10"/>
       <c r="H477" s="10"/>
     </row>
-    <row r="478" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="9"/>
-      <c r="B478" s="12"/>
       <c r="C478" s="8"/>
-      <c r="D478" s="12"/>
       <c r="E478" s="10"/>
       <c r="F478" s="10"/>
       <c r="G478" s="10"/>
       <c r="H478" s="10"/>
     </row>
-    <row r="479" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="9"/>
       <c r="C479" s="8"/>
       <c r="E479" s="10"/>
@@ -54498,7 +54657,7 @@
       <c r="G479" s="10"/>
       <c r="H479" s="10"/>
     </row>
-    <row r="480" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="9"/>
       <c r="C480" s="8"/>
       <c r="E480" s="10"/>
@@ -54514,121 +54673,115 @@
       <c r="G481" s="10"/>
       <c r="H481" s="10"/>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" s="9"/>
+      <c r="B482" s="12"/>
       <c r="C482" s="8"/>
+      <c r="D482" s="12"/>
       <c r="E482" s="10"/>
       <c r="F482" s="10"/>
       <c r="G482" s="10"/>
       <c r="H482" s="10"/>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" s="9"/>
+      <c r="B483" s="12"/>
       <c r="C483" s="8"/>
+      <c r="D483" s="12"/>
       <c r="E483" s="10"/>
       <c r="F483" s="10"/>
       <c r="G483" s="10"/>
       <c r="H483" s="10"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="9"/>
+      <c r="B484" s="12"/>
       <c r="C484" s="8"/>
+      <c r="D484" s="12"/>
       <c r="E484" s="10"/>
       <c r="F484" s="10"/>
       <c r="G484" s="10"/>
       <c r="H484" s="10"/>
     </row>
-    <row r="485" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="9"/>
+      <c r="B485" s="12"/>
       <c r="C485" s="8"/>
+      <c r="D485" s="12"/>
       <c r="E485" s="10"/>
       <c r="F485" s="10"/>
       <c r="G485" s="10"/>
       <c r="H485" s="10"/>
     </row>
-    <row r="486" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="9"/>
+      <c r="B486" s="12"/>
       <c r="C486" s="8"/>
+      <c r="D486" s="12"/>
       <c r="E486" s="10"/>
       <c r="F486" s="10"/>
       <c r="G486" s="10"/>
       <c r="H486" s="10"/>
     </row>
-    <row r="487" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="9"/>
-      <c r="B487" s="12"/>
       <c r="C487" s="8"/>
-      <c r="D487" s="12"/>
       <c r="E487" s="10"/>
       <c r="F487" s="10"/>
       <c r="G487" s="10"/>
       <c r="H487" s="10"/>
     </row>
-    <row r="488" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="9"/>
-      <c r="B488" s="12"/>
       <c r="C488" s="8"/>
-      <c r="D488" s="12"/>
       <c r="E488" s="10"/>
       <c r="F488" s="10"/>
       <c r="G488" s="10"/>
       <c r="H488" s="10"/>
     </row>
-    <row r="489" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="9"/>
-      <c r="B489" s="12"/>
       <c r="C489" s="8"/>
-      <c r="D489" s="12"/>
       <c r="E489" s="10"/>
       <c r="F489" s="10"/>
       <c r="G489" s="10"/>
       <c r="H489" s="10"/>
     </row>
-    <row r="490" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" s="9"/>
-      <c r="B490" s="12"/>
       <c r="C490" s="8"/>
-      <c r="D490" s="12"/>
       <c r="E490" s="10"/>
       <c r="F490" s="10"/>
       <c r="G490" s="10"/>
       <c r="H490" s="10"/>
     </row>
-    <row r="491" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="9"/>
-      <c r="B491" s="12"/>
       <c r="C491" s="8"/>
-      <c r="D491" s="12"/>
       <c r="E491" s="10"/>
       <c r="F491" s="10"/>
       <c r="G491" s="10"/>
       <c r="H491" s="10"/>
     </row>
-    <row r="492" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="9"/>
-      <c r="B492" s="12"/>
       <c r="C492" s="8"/>
-      <c r="D492" s="12"/>
       <c r="E492" s="10"/>
       <c r="F492" s="10"/>
       <c r="G492" s="10"/>
       <c r="H492" s="10"/>
     </row>
-    <row r="493" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="9"/>
-      <c r="B493" s="12"/>
       <c r="C493" s="8"/>
-      <c r="D493" s="12"/>
       <c r="E493" s="10"/>
       <c r="F493" s="10"/>
       <c r="G493" s="10"/>
       <c r="H493" s="10"/>
     </row>
-    <row r="494" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="9"/>
-      <c r="B494" s="12"/>
       <c r="C494" s="8"/>
-      <c r="D494" s="12"/>
       <c r="E494" s="10"/>
       <c r="F494" s="10"/>
       <c r="G494" s="10"/>
@@ -54674,7 +54827,7 @@
       <c r="G498" s="10"/>
       <c r="H498" s="10"/>
     </row>
-    <row r="499" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="9"/>
       <c r="B499" s="12"/>
       <c r="C499" s="8"/>
@@ -54694,7 +54847,7 @@
       <c r="G500" s="10"/>
       <c r="H500" s="10"/>
     </row>
-    <row r="501" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="9"/>
       <c r="B501" s="12"/>
       <c r="C501" s="8"/>
@@ -54714,31 +54867,37 @@
       <c r="G502" s="10"/>
       <c r="H502" s="10"/>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="9"/>
+      <c r="B503" s="12"/>
       <c r="C503" s="8"/>
+      <c r="D503" s="12"/>
       <c r="E503" s="10"/>
       <c r="F503" s="10"/>
       <c r="G503" s="10"/>
       <c r="H503" s="10"/>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="9"/>
+      <c r="B504" s="12"/>
       <c r="C504" s="8"/>
+      <c r="D504" s="12"/>
       <c r="E504" s="10"/>
       <c r="F504" s="10"/>
       <c r="G504" s="10"/>
       <c r="H504" s="10"/>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="9"/>
+      <c r="B505" s="12"/>
       <c r="C505" s="8"/>
+      <c r="D505" s="12"/>
       <c r="E505" s="10"/>
       <c r="F505" s="10"/>
       <c r="G505" s="10"/>
       <c r="H505" s="10"/>
     </row>
-    <row r="506" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="9"/>
       <c r="B506" s="12"/>
       <c r="C506" s="8"/>
@@ -54748,7 +54907,7 @@
       <c r="G506" s="10"/>
       <c r="H506" s="10"/>
     </row>
-    <row r="507" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="9"/>
       <c r="B507" s="12"/>
       <c r="C507" s="8"/>
@@ -54758,7 +54917,7 @@
       <c r="G507" s="10"/>
       <c r="H507" s="10"/>
     </row>
-    <row r="508" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="9"/>
       <c r="B508" s="12"/>
       <c r="C508" s="8"/>
@@ -54768,7 +54927,7 @@
       <c r="G508" s="10"/>
       <c r="H508" s="10"/>
     </row>
-    <row r="509" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="9"/>
       <c r="B509" s="12"/>
       <c r="C509" s="8"/>
@@ -54778,7 +54937,7 @@
       <c r="G509" s="10"/>
       <c r="H509" s="10"/>
     </row>
-    <row r="510" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="9"/>
       <c r="B510" s="12"/>
       <c r="C510" s="8"/>
@@ -54788,32 +54947,26 @@
       <c r="G510" s="10"/>
       <c r="H510" s="10"/>
     </row>
-    <row r="511" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="9"/>
-      <c r="B511" s="12"/>
       <c r="C511" s="8"/>
-      <c r="D511" s="12"/>
       <c r="E511" s="10"/>
       <c r="F511" s="10"/>
       <c r="G511" s="10"/>
       <c r="H511" s="10"/>
     </row>
-    <row r="512" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="9"/>
-      <c r="B512" s="12"/>
       <c r="C512" s="8"/>
-      <c r="D512" s="12"/>
       <c r="E512" s="10"/>
       <c r="F512" s="10"/>
       <c r="G512" s="10"/>
       <c r="H512" s="10"/>
     </row>
-    <row r="513" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" s="9"/>
-      <c r="B513" s="12"/>
-      <c r="C513" s="17"/>
-      <c r="D513" s="12"/>
-      <c r="E513" s="6"/>
+      <c r="C513" s="8"/>
+      <c r="E513" s="10"/>
       <c r="F513" s="10"/>
       <c r="G513" s="10"/>
       <c r="H513" s="10"/>
@@ -54821,9 +54974,9 @@
     <row r="514" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="9"/>
       <c r="B514" s="12"/>
-      <c r="C514" s="17"/>
+      <c r="C514" s="8"/>
       <c r="D514" s="12"/>
-      <c r="E514" s="6"/>
+      <c r="E514" s="10"/>
       <c r="F514" s="10"/>
       <c r="G514" s="10"/>
       <c r="H514" s="10"/>
@@ -54831,9 +54984,9 @@
     <row r="515" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="9"/>
       <c r="B515" s="12"/>
-      <c r="C515" s="17"/>
+      <c r="C515" s="8"/>
       <c r="D515" s="12"/>
-      <c r="E515" s="6"/>
+      <c r="E515" s="10"/>
       <c r="F515" s="10"/>
       <c r="G515" s="10"/>
       <c r="H515" s="10"/>
@@ -54841,9 +54994,9 @@
     <row r="516" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="9"/>
       <c r="B516" s="12"/>
-      <c r="C516" s="17"/>
+      <c r="C516" s="8"/>
       <c r="D516" s="12"/>
-      <c r="E516" s="6"/>
+      <c r="E516" s="10"/>
       <c r="F516" s="10"/>
       <c r="G516" s="10"/>
       <c r="H516" s="10"/>
@@ -54851,9 +55004,9 @@
     <row r="517" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="9"/>
       <c r="B517" s="12"/>
-      <c r="C517" s="17"/>
+      <c r="C517" s="8"/>
       <c r="D517" s="12"/>
-      <c r="E517" s="6"/>
+      <c r="E517" s="10"/>
       <c r="F517" s="10"/>
       <c r="G517" s="10"/>
       <c r="H517" s="10"/>
@@ -54861,9 +55014,9 @@
     <row r="518" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="9"/>
       <c r="B518" s="12"/>
-      <c r="C518" s="17"/>
+      <c r="C518" s="8"/>
       <c r="D518" s="12"/>
-      <c r="E518" s="6"/>
+      <c r="E518" s="10"/>
       <c r="F518" s="10"/>
       <c r="G518" s="10"/>
       <c r="H518" s="10"/>
@@ -54871,9 +55024,9 @@
     <row r="519" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" s="9"/>
       <c r="B519" s="12"/>
-      <c r="C519" s="17"/>
+      <c r="C519" s="8"/>
       <c r="D519" s="12"/>
-      <c r="E519" s="6"/>
+      <c r="E519" s="10"/>
       <c r="F519" s="10"/>
       <c r="G519" s="10"/>
       <c r="H519" s="10"/>
@@ -54881,9 +55034,9 @@
     <row r="520" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" s="9"/>
       <c r="B520" s="12"/>
-      <c r="C520" s="17"/>
+      <c r="C520" s="8"/>
       <c r="D520" s="12"/>
-      <c r="E520" s="6"/>
+      <c r="E520" s="10"/>
       <c r="F520" s="10"/>
       <c r="G520" s="10"/>
       <c r="H520" s="10"/>
@@ -54984,9 +55137,9 @@
       <c r="C530" s="17"/>
       <c r="D530" s="12"/>
       <c r="E530" s="6"/>
-      <c r="F530" s="23"/>
-      <c r="G530" s="23"/>
-      <c r="H530" s="23"/>
+      <c r="F530" s="10"/>
+      <c r="G530" s="10"/>
+      <c r="H530" s="10"/>
     </row>
     <row r="531" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A531" s="9"/>
@@ -54994,33 +55147,89 @@
       <c r="C531" s="17"/>
       <c r="D531" s="12"/>
       <c r="E531" s="6"/>
-      <c r="F531" s="23"/>
-      <c r="G531" s="23"/>
-      <c r="H531" s="23"/>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F531" s="10"/>
+      <c r="G531" s="10"/>
+      <c r="H531" s="10"/>
+    </row>
+    <row r="532" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="9"/>
+      <c r="B532" s="12"/>
       <c r="C532" s="17"/>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D532" s="12"/>
+      <c r="E532" s="6"/>
+      <c r="F532" s="10"/>
+      <c r="G532" s="10"/>
+      <c r="H532" s="10"/>
+    </row>
+    <row r="533" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="9"/>
+      <c r="B533" s="12"/>
       <c r="C533" s="17"/>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D533" s="12"/>
+      <c r="E533" s="6"/>
+      <c r="F533" s="10"/>
+      <c r="G533" s="10"/>
+      <c r="H533" s="10"/>
+    </row>
+    <row r="534" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="9"/>
+      <c r="B534" s="12"/>
       <c r="C534" s="17"/>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D534" s="12"/>
+      <c r="E534" s="6"/>
+      <c r="F534" s="10"/>
+      <c r="G534" s="10"/>
+      <c r="H534" s="10"/>
+    </row>
+    <row r="535" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="9"/>
+      <c r="B535" s="12"/>
       <c r="C535" s="17"/>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D535" s="12"/>
+      <c r="E535" s="6"/>
+      <c r="F535" s="10"/>
+      <c r="G535" s="10"/>
+      <c r="H535" s="10"/>
+    </row>
+    <row r="536" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="9"/>
+      <c r="B536" s="12"/>
       <c r="C536" s="17"/>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D536" s="12"/>
+      <c r="E536" s="6"/>
+      <c r="F536" s="10"/>
+      <c r="G536" s="10"/>
+      <c r="H536" s="10"/>
+    </row>
+    <row r="537" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="9"/>
+      <c r="B537" s="12"/>
       <c r="C537" s="17"/>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D537" s="12"/>
+      <c r="E537" s="6"/>
+      <c r="F537" s="10"/>
+      <c r="G537" s="10"/>
+      <c r="H537" s="10"/>
+    </row>
+    <row r="538" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="9"/>
+      <c r="B538" s="12"/>
       <c r="C538" s="17"/>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D538" s="12"/>
+      <c r="E538" s="6"/>
+      <c r="F538" s="23"/>
+      <c r="G538" s="23"/>
+      <c r="H538" s="23"/>
+    </row>
+    <row r="539" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="9"/>
+      <c r="B539" s="12"/>
       <c r="C539" s="17"/>
+      <c r="D539" s="12"/>
+      <c r="E539" s="6"/>
+      <c r="F539" s="23"/>
+      <c r="G539" s="23"/>
+      <c r="H539" s="23"/>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C540" s="17"/>
@@ -55297,9 +55506,6 @@
     </row>
     <row r="631" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C631" s="17"/>
-      <c r="F631" s="20"/>
-      <c r="G631" s="20"/>
-      <c r="H631" s="20"/>
     </row>
     <row r="632" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C632" s="17"/>
@@ -55315,9 +55521,6 @@
     </row>
     <row r="636" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C636" s="17"/>
-      <c r="F636" s="20"/>
-      <c r="G636" s="20"/>
-      <c r="H636" s="20"/>
     </row>
     <row r="637" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C637" s="17"/>
@@ -55327,12 +55530,12 @@
     </row>
     <row r="639" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C639" s="17"/>
+      <c r="F639" s="20"/>
+      <c r="G639" s="20"/>
+      <c r="H639" s="20"/>
     </row>
     <row r="640" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C640" s="17"/>
-      <c r="F640" s="20"/>
-      <c r="G640" s="20"/>
-      <c r="H640" s="20"/>
     </row>
     <row r="641" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C641" s="17"/>
@@ -55360,6 +55563,9 @@
     </row>
     <row r="648" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C648" s="17"/>
+      <c r="F648" s="20"/>
+      <c r="G648" s="20"/>
+      <c r="H648" s="20"/>
     </row>
     <row r="649" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C649" s="17"/>
@@ -55372,6 +55578,9 @@
     </row>
     <row r="652" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C652" s="17"/>
+      <c r="F652" s="20"/>
+      <c r="G652" s="20"/>
+      <c r="H652" s="20"/>
     </row>
     <row r="653" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C653" s="17"/>
@@ -56254,33 +56463,18 @@
     </row>
     <row r="946" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C946" s="17"/>
-      <c r="F946" s="20"/>
-      <c r="G946" s="20"/>
-      <c r="H946" s="20"/>
     </row>
     <row r="947" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C947" s="17"/>
-      <c r="F947" s="20"/>
-      <c r="G947" s="20"/>
-      <c r="H947" s="20"/>
     </row>
     <row r="948" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C948" s="17"/>
-      <c r="F948" s="20"/>
-      <c r="G948" s="20"/>
-      <c r="H948" s="20"/>
     </row>
     <row r="949" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C949" s="17"/>
-      <c r="F949" s="20"/>
-      <c r="G949" s="20"/>
-      <c r="H949" s="20"/>
     </row>
     <row r="950" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C950" s="17"/>
-      <c r="F950" s="20"/>
-      <c r="G950" s="20"/>
-      <c r="H950" s="20"/>
     </row>
     <row r="951" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C951" s="17"/>
@@ -56293,18 +56487,33 @@
     </row>
     <row r="954" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C954" s="17"/>
+      <c r="F954" s="20"/>
+      <c r="G954" s="20"/>
+      <c r="H954" s="20"/>
     </row>
     <row r="955" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C955" s="17"/>
+      <c r="F955" s="20"/>
+      <c r="G955" s="20"/>
+      <c r="H955" s="20"/>
     </row>
     <row r="956" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C956" s="17"/>
+      <c r="F956" s="20"/>
+      <c r="G956" s="20"/>
+      <c r="H956" s="20"/>
     </row>
     <row r="957" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C957" s="17"/>
+      <c r="F957" s="20"/>
+      <c r="G957" s="20"/>
+      <c r="H957" s="20"/>
     </row>
     <row r="958" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C958" s="17"/>
+      <c r="F958" s="20"/>
+      <c r="G958" s="20"/>
+      <c r="H958" s="20"/>
     </row>
     <row r="959" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C959" s="17"/>
@@ -56365,51 +56574,27 @@
     </row>
     <row r="978" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C978" s="17"/>
-      <c r="F978" s="20"/>
-      <c r="G978" s="20"/>
-      <c r="H978" s="20"/>
     </row>
     <row r="979" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C979" s="17"/>
-      <c r="F979" s="20"/>
-      <c r="G979" s="20"/>
-      <c r="H979" s="20"/>
     </row>
     <row r="980" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C980" s="17"/>
-      <c r="F980" s="20"/>
-      <c r="G980" s="20"/>
-      <c r="H980" s="20"/>
     </row>
     <row r="981" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C981" s="17"/>
-      <c r="F981" s="20"/>
-      <c r="G981" s="20"/>
-      <c r="H981" s="20"/>
     </row>
     <row r="982" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C982" s="17"/>
-      <c r="F982" s="20"/>
-      <c r="G982" s="20"/>
-      <c r="H982" s="20"/>
     </row>
     <row r="983" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C983" s="17"/>
-      <c r="F983" s="20"/>
-      <c r="G983" s="20"/>
-      <c r="H983" s="20"/>
     </row>
     <row r="984" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C984" s="17"/>
-      <c r="F984" s="20"/>
-      <c r="G984" s="20"/>
-      <c r="H984" s="20"/>
     </row>
     <row r="985" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C985" s="17"/>
-      <c r="F985" s="20"/>
-      <c r="G985" s="20"/>
-      <c r="H985" s="20"/>
     </row>
     <row r="986" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C986" s="17"/>
@@ -56514,41 +56699,113 @@
       <c r="H1002" s="20"/>
     </row>
     <row r="1003" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1003" s="17"/>
       <c r="F1003" s="20"/>
       <c r="G1003" s="20"/>
       <c r="H1003" s="20"/>
     </row>
+    <row r="1004" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1004" s="17"/>
+      <c r="F1004" s="20"/>
+      <c r="G1004" s="20"/>
+      <c r="H1004" s="20"/>
+    </row>
+    <row r="1005" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1005" s="17"/>
+      <c r="F1005" s="20"/>
+      <c r="G1005" s="20"/>
+      <c r="H1005" s="20"/>
+    </row>
+    <row r="1006" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1006" s="17"/>
+      <c r="F1006" s="20"/>
+      <c r="G1006" s="20"/>
+      <c r="H1006" s="20"/>
+    </row>
+    <row r="1007" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1007" s="17"/>
+      <c r="F1007" s="20"/>
+      <c r="G1007" s="20"/>
+      <c r="H1007" s="20"/>
+    </row>
+    <row r="1008" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1008" s="17"/>
+      <c r="F1008" s="20"/>
+      <c r="G1008" s="20"/>
+      <c r="H1008" s="20"/>
+    </row>
+    <row r="1009" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1009" s="17"/>
+      <c r="F1009" s="20"/>
+      <c r="G1009" s="20"/>
+      <c r="H1009" s="20"/>
+    </row>
+    <row r="1010" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1010" s="17"/>
+      <c r="F1010" s="20"/>
+      <c r="G1010" s="20"/>
+      <c r="H1010" s="20"/>
+    </row>
+    <row r="1011" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F1011" s="20"/>
+      <c r="G1011" s="20"/>
+      <c r="H1011" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="42">
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{47819044-E1F3-45E4-893B-E194895BB40E}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{4ABC4530-50B4-4046-BEF2-94F322185C90}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{4ABC4530-50B4-4046-BEF2-94F322185C90}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{A30AE67D-987C-447F-9E33-A851892E1628}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{2D5B77C8-2C5D-4FC1-A9EC-65A40AC8B752}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{2A065C73-E53D-4EC7-B895-379DF28B5E82}"/>
+    <hyperlink ref="B16" r:id="rId6" xr:uid="{ACF6FD29-D07D-497A-83F8-ED075F7DAF36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -63482,20 +63739,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="H23:H26"/>
@@ -63512,18 +63767,20 @@
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
